--- a/Indonesian COVID-19 Infection Projections.xlsx
+++ b/Indonesian COVID-19 Infection Projections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569933B9-29F5-4804-ABD2-73E4F3412238}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63BE2BA-C10E-4F42-B49D-3D8825005E7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="199">
   <si>
     <t>By Age</t>
   </si>
@@ -632,6 +632,9 @@
   <si>
     <t>Govt offered 30% discount to encourage tourists</t>
   </si>
+  <si>
+    <t>Actual Active Confirmed Infections</t>
+  </si>
 </sst>
 </file>
 
@@ -647,7 +650,7 @@
     <numFmt numFmtId="170" formatCode="0.0"/>
     <numFmt numFmtId="171" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="172" formatCode="0.000000%"/>
-    <numFmt numFmtId="174" formatCode="0.00000"/>
+    <numFmt numFmtId="173" formatCode="0.00000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1020,7 +1023,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="297">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1325,6 +1328,33 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="17" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1349,33 +1379,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="17" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Heading" xfId="3" xr:uid="{DB9EF5E1-A693-41C3-82C7-CA90563DBB00}"/>
@@ -1698,46 +1703,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43894.680232754632</c:v>
+                  <c:v>43895.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43897.680232754632</c:v>
+                  <c:v>43898.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43900.680232754632</c:v>
+                  <c:v>43901.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43903.680232754632</c:v>
+                  <c:v>43904.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43906.680232754632</c:v>
+                  <c:v>43907.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43909.680232754632</c:v>
+                  <c:v>43910.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43912.680232754632</c:v>
+                  <c:v>43913.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43915.680232754632</c:v>
+                  <c:v>43916.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918.680232754632</c:v>
+                  <c:v>43919.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43921.680232754632</c:v>
+                  <c:v>43922.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43924.680232754632</c:v>
+                  <c:v>43925.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43927.680232754632</c:v>
+                  <c:v>43928.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43930.680232754632</c:v>
+                  <c:v>43931.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43933.680232754632</c:v>
+                  <c:v>43934.473862615741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1847,46 +1852,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43894.680232754632</c:v>
+                  <c:v>43895.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43897.680232754632</c:v>
+                  <c:v>43898.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43900.680232754632</c:v>
+                  <c:v>43901.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43903.680232754632</c:v>
+                  <c:v>43904.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43906.680232754632</c:v>
+                  <c:v>43907.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43909.680232754632</c:v>
+                  <c:v>43910.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43912.680232754632</c:v>
+                  <c:v>43913.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43915.680232754632</c:v>
+                  <c:v>43916.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918.680232754632</c:v>
+                  <c:v>43919.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43921.680232754632</c:v>
+                  <c:v>43922.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43924.680232754632</c:v>
+                  <c:v>43925.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43927.680232754632</c:v>
+                  <c:v>43928.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43930.680232754632</c:v>
+                  <c:v>43931.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43933.680232754632</c:v>
+                  <c:v>43934.473862615741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1996,46 +2001,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43894.680232754632</c:v>
+                  <c:v>43895.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43897.680232754632</c:v>
+                  <c:v>43898.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43900.680232754632</c:v>
+                  <c:v>43901.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43903.680232754632</c:v>
+                  <c:v>43904.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43906.680232754632</c:v>
+                  <c:v>43907.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43909.680232754632</c:v>
+                  <c:v>43910.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43912.680232754632</c:v>
+                  <c:v>43913.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43915.680232754632</c:v>
+                  <c:v>43916.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918.680232754632</c:v>
+                  <c:v>43919.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43921.680232754632</c:v>
+                  <c:v>43922.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43924.680232754632</c:v>
+                  <c:v>43925.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43927.680232754632</c:v>
+                  <c:v>43928.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43930.680232754632</c:v>
+                  <c:v>43931.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43933.680232754632</c:v>
+                  <c:v>43934.473862615741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3115,6 +3120,9 @@
                 </c:pt>
                 <c:pt idx="7" formatCode="#,##0">
                   <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0">
+                  <c:v>399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11686,6 +11694,9 @@
                 <c:pt idx="7" formatCode="#,##0">
                   <c:v>373</c:v>
                 </c:pt>
+                <c:pt idx="8" formatCode="#,##0">
+                  <c:v>399</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12013,46 +12024,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43894.680232754632</c:v>
+                  <c:v>43895.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43897.680232754632</c:v>
+                  <c:v>43898.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43900.680232754632</c:v>
+                  <c:v>43901.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43903.680232754632</c:v>
+                  <c:v>43904.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43906.680232754632</c:v>
+                  <c:v>43907.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43909.680232754632</c:v>
+                  <c:v>43910.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43912.680232754632</c:v>
+                  <c:v>43913.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43915.680232754632</c:v>
+                  <c:v>43916.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918.680232754632</c:v>
+                  <c:v>43919.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43921.680232754632</c:v>
+                  <c:v>43922.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43924.680232754632</c:v>
+                  <c:v>43925.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43927.680232754632</c:v>
+                  <c:v>43928.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43930.680232754632</c:v>
+                  <c:v>43931.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43933.680232754632</c:v>
+                  <c:v>43934.473862615741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12153,46 +12164,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43894.680232754632</c:v>
+                  <c:v>43895.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43897.680232754632</c:v>
+                  <c:v>43898.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43900.680232754632</c:v>
+                  <c:v>43901.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43903.680232754632</c:v>
+                  <c:v>43904.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43906.680232754632</c:v>
+                  <c:v>43907.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43909.680232754632</c:v>
+                  <c:v>43910.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43912.680232754632</c:v>
+                  <c:v>43913.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43915.680232754632</c:v>
+                  <c:v>43916.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918.680232754632</c:v>
+                  <c:v>43919.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43921.680232754632</c:v>
+                  <c:v>43922.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43924.680232754632</c:v>
+                  <c:v>43925.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43927.680232754632</c:v>
+                  <c:v>43928.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43930.680232754632</c:v>
+                  <c:v>43931.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43933.680232754632</c:v>
+                  <c:v>43934.473862615741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12296,46 +12307,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43894.680232754632</c:v>
+                  <c:v>43895.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43897.680232754632</c:v>
+                  <c:v>43898.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43900.680232754632</c:v>
+                  <c:v>43901.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43903.680232754632</c:v>
+                  <c:v>43904.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43906.680232754632</c:v>
+                  <c:v>43907.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43909.680232754632</c:v>
+                  <c:v>43910.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43912.680232754632</c:v>
+                  <c:v>43913.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43915.680232754632</c:v>
+                  <c:v>43916.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918.680232754632</c:v>
+                  <c:v>43919.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43921.680232754632</c:v>
+                  <c:v>43922.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43924.680232754632</c:v>
+                  <c:v>43925.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43927.680232754632</c:v>
+                  <c:v>43928.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43930.680232754632</c:v>
+                  <c:v>43931.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43933.680232754632</c:v>
+                  <c:v>43934.473862615741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12433,46 +12444,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43894.680232754632</c:v>
+                  <c:v>43895.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43897.680232754632</c:v>
+                  <c:v>43898.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43900.680232754632</c:v>
+                  <c:v>43901.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43903.680232754632</c:v>
+                  <c:v>43904.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43906.680232754632</c:v>
+                  <c:v>43907.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43909.680232754632</c:v>
+                  <c:v>43910.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43912.680232754632</c:v>
+                  <c:v>43913.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43915.680232754632</c:v>
+                  <c:v>43916.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918.680232754632</c:v>
+                  <c:v>43919.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43921.680232754632</c:v>
+                  <c:v>43922.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43924.680232754632</c:v>
+                  <c:v>43925.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43927.680232754632</c:v>
+                  <c:v>43928.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43930.680232754632</c:v>
+                  <c:v>43931.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43933.680232754632</c:v>
+                  <c:v>43934.473862615741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12840,46 +12851,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43894.680232754632</c:v>
+                  <c:v>43895.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43897.680232754632</c:v>
+                  <c:v>43898.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43900.680232754632</c:v>
+                  <c:v>43901.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43903.680232754632</c:v>
+                  <c:v>43904.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43906.680232754632</c:v>
+                  <c:v>43907.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43909.680232754632</c:v>
+                  <c:v>43910.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43912.680232754632</c:v>
+                  <c:v>43913.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43915.680232754632</c:v>
+                  <c:v>43916.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918.680232754632</c:v>
+                  <c:v>43919.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43921.680232754632</c:v>
+                  <c:v>43922.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43924.680232754632</c:v>
+                  <c:v>43925.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43927.680232754632</c:v>
+                  <c:v>43928.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43930.680232754632</c:v>
+                  <c:v>43931.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43933.680232754632</c:v>
+                  <c:v>43934.473862615741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12989,46 +13000,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43894.680232754632</c:v>
+                  <c:v>43895.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43897.680232754632</c:v>
+                  <c:v>43898.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43900.680232754632</c:v>
+                  <c:v>43901.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43903.680232754632</c:v>
+                  <c:v>43904.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43906.680232754632</c:v>
+                  <c:v>43907.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43909.680232754632</c:v>
+                  <c:v>43910.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43912.680232754632</c:v>
+                  <c:v>43913.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43915.680232754632</c:v>
+                  <c:v>43916.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918.680232754632</c:v>
+                  <c:v>43919.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43921.680232754632</c:v>
+                  <c:v>43922.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43924.680232754632</c:v>
+                  <c:v>43925.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43927.680232754632</c:v>
+                  <c:v>43928.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43930.680232754632</c:v>
+                  <c:v>43931.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43933.680232754632</c:v>
+                  <c:v>43934.473862615741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13138,46 +13149,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43894.680232754632</c:v>
+                  <c:v>43895.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43897.680232754632</c:v>
+                  <c:v>43898.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43900.680232754632</c:v>
+                  <c:v>43901.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43903.680232754632</c:v>
+                  <c:v>43904.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43906.680232754632</c:v>
+                  <c:v>43907.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43909.680232754632</c:v>
+                  <c:v>43910.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43912.680232754632</c:v>
+                  <c:v>43913.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43915.680232754632</c:v>
+                  <c:v>43916.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918.680232754632</c:v>
+                  <c:v>43919.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43921.680232754632</c:v>
+                  <c:v>43922.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43924.680232754632</c:v>
+                  <c:v>43925.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43927.680232754632</c:v>
+                  <c:v>43928.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43930.680232754632</c:v>
+                  <c:v>43931.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43933.680232754632</c:v>
+                  <c:v>43934.473862615741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13555,46 +13566,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43894.680232754632</c:v>
+                  <c:v>43895.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43897.680232754632</c:v>
+                  <c:v>43898.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43900.680232754632</c:v>
+                  <c:v>43901.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43903.680232754632</c:v>
+                  <c:v>43904.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43906.680232754632</c:v>
+                  <c:v>43907.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43909.680232754632</c:v>
+                  <c:v>43910.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43912.680232754632</c:v>
+                  <c:v>43913.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43915.680232754632</c:v>
+                  <c:v>43916.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918.680232754632</c:v>
+                  <c:v>43919.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43921.680232754632</c:v>
+                  <c:v>43922.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43924.680232754632</c:v>
+                  <c:v>43925.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43927.680232754632</c:v>
+                  <c:v>43928.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43930.680232754632</c:v>
+                  <c:v>43931.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43933.680232754632</c:v>
+                  <c:v>43934.473862615741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13695,46 +13706,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43894.680232754632</c:v>
+                  <c:v>43895.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43897.680232754632</c:v>
+                  <c:v>43898.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43900.680232754632</c:v>
+                  <c:v>43901.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43903.680232754632</c:v>
+                  <c:v>43904.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43906.680232754632</c:v>
+                  <c:v>43907.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43909.680232754632</c:v>
+                  <c:v>43910.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43912.680232754632</c:v>
+                  <c:v>43913.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43915.680232754632</c:v>
+                  <c:v>43916.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918.680232754632</c:v>
+                  <c:v>43919.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43921.680232754632</c:v>
+                  <c:v>43922.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43924.680232754632</c:v>
+                  <c:v>43925.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43927.680232754632</c:v>
+                  <c:v>43928.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43930.680232754632</c:v>
+                  <c:v>43931.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43933.680232754632</c:v>
+                  <c:v>43934.473862615741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13838,46 +13849,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43894.680232754632</c:v>
+                  <c:v>43895.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43897.680232754632</c:v>
+                  <c:v>43898.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43900.680232754632</c:v>
+                  <c:v>43901.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43903.680232754632</c:v>
+                  <c:v>43904.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43906.680232754632</c:v>
+                  <c:v>43907.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43909.680232754632</c:v>
+                  <c:v>43910.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43912.680232754632</c:v>
+                  <c:v>43913.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43915.680232754632</c:v>
+                  <c:v>43916.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918.680232754632</c:v>
+                  <c:v>43919.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43921.680232754632</c:v>
+                  <c:v>43922.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43924.680232754632</c:v>
+                  <c:v>43925.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43927.680232754632</c:v>
+                  <c:v>43928.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43930.680232754632</c:v>
+                  <c:v>43931.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43933.680232754632</c:v>
+                  <c:v>43934.473862615741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13975,46 +13986,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43894.680232754632</c:v>
+                  <c:v>43895.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43897.680232754632</c:v>
+                  <c:v>43898.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43900.680232754632</c:v>
+                  <c:v>43901.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43903.680232754632</c:v>
+                  <c:v>43904.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43906.680232754632</c:v>
+                  <c:v>43907.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43909.680232754632</c:v>
+                  <c:v>43910.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43912.680232754632</c:v>
+                  <c:v>43913.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43915.680232754632</c:v>
+                  <c:v>43916.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918.680232754632</c:v>
+                  <c:v>43919.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43921.680232754632</c:v>
+                  <c:v>43922.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43924.680232754632</c:v>
+                  <c:v>43925.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43927.680232754632</c:v>
+                  <c:v>43928.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43930.680232754632</c:v>
+                  <c:v>43931.473862615741</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43933.680232754632</c:v>
+                  <c:v>43934.473862615741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -33554,167 +33565,167 @@
       </c>
       <c r="B26" s="86">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>43894.680232754632</v>
+        <v>43895.473862615741</v>
       </c>
       <c r="C26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43895.680232754632</v>
+        <v>43896.473862615741</v>
       </c>
       <c r="D26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43896.680232754632</v>
+        <v>43897.473862615741</v>
       </c>
       <c r="E26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43897.680232754632</v>
+        <v>43898.473862615741</v>
       </c>
       <c r="F26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43898.680232754632</v>
+        <v>43899.473862615741</v>
       </c>
       <c r="G26" s="88">
         <f t="shared" ca="1" si="0"/>
-        <v>43899.680232754632</v>
+        <v>43900.473862615741</v>
       </c>
       <c r="H26" s="87">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>43900.680232754632</v>
+        <v>43901.473862615741</v>
       </c>
       <c r="I26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43901.680232754632</v>
+        <v>43902.473862615741</v>
       </c>
       <c r="J26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43902.680232754632</v>
+        <v>43903.473862615741</v>
       </c>
       <c r="K26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43903.680232754632</v>
+        <v>43904.473862615741</v>
       </c>
       <c r="L26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43904.680232754632</v>
+        <v>43905.473862615741</v>
       </c>
       <c r="M26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43905.680232754632</v>
+        <v>43906.473862615741</v>
       </c>
       <c r="N26" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>43906.680232754632</v>
+        <v>43907.473862615741</v>
       </c>
       <c r="O26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43907.680232754632</v>
+        <v>43908.473862615741</v>
       </c>
       <c r="P26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43908.680232754632</v>
+        <v>43909.473862615741</v>
       </c>
       <c r="Q26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43909.680232754632</v>
+        <v>43910.473862615741</v>
       </c>
       <c r="R26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43910.680232754632</v>
+        <v>43911.473862615741</v>
       </c>
       <c r="S26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43911.680232754632</v>
+        <v>43912.473862615741</v>
       </c>
       <c r="T26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43912.680232754632</v>
+        <v>43913.473862615741</v>
       </c>
       <c r="U26" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>43913.680232754632</v>
+        <v>43914.473862615741</v>
       </c>
       <c r="V26" s="86">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>43914.680232754632</v>
+        <v>43915.473862615741</v>
       </c>
       <c r="W26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43915.680232754632</v>
+        <v>43916.473862615741</v>
       </c>
       <c r="X26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43916.680232754632</v>
+        <v>43917.473862615741</v>
       </c>
       <c r="Y26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43917.680232754632</v>
+        <v>43918.473862615741</v>
       </c>
       <c r="Z26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43918.680232754632</v>
+        <v>43919.473862615741</v>
       </c>
       <c r="AA26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43919.680232754632</v>
+        <v>43920.473862615741</v>
       </c>
       <c r="AB26" s="88">
         <f t="shared" ca="1" si="2"/>
-        <v>43920.680232754632</v>
+        <v>43921.473862615741</v>
       </c>
       <c r="AC26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43921.680232754632</v>
+        <v>43922.473862615741</v>
       </c>
       <c r="AD26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43922.680232754632</v>
+        <v>43923.473862615741</v>
       </c>
       <c r="AE26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43923.680232754632</v>
+        <v>43924.473862615741</v>
       </c>
       <c r="AF26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43924.680232754632</v>
+        <v>43925.473862615741</v>
       </c>
       <c r="AG26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43925.680232754632</v>
+        <v>43926.473862615741</v>
       </c>
       <c r="AH26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43926.680232754632</v>
+        <v>43927.473862615741</v>
       </c>
       <c r="AI26" s="88">
         <f t="shared" ca="1" si="2"/>
-        <v>43927.680232754632</v>
+        <v>43928.473862615741</v>
       </c>
       <c r="AJ26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43928.680232754632</v>
+        <v>43929.473862615741</v>
       </c>
       <c r="AK26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43929.680232754632</v>
+        <v>43930.473862615741</v>
       </c>
       <c r="AL26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43930.680232754632</v>
+        <v>43931.473862615741</v>
       </c>
       <c r="AM26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43931.680232754632</v>
+        <v>43932.473862615741</v>
       </c>
       <c r="AN26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43932.680232754632</v>
+        <v>43933.473862615741</v>
       </c>
       <c r="AO26" s="87">
         <f ca="1">AP26-1</f>
-        <v>43933.680232754632</v>
+        <v>43934.473862615741</v>
       </c>
       <c r="AP26" s="108">
         <f ca="1">NOW()</f>
-        <v>43934.680232754632</v>
+        <v>43935.473862615741</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -33849,59 +33860,59 @@
       <c r="A28" s="132" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="266" t="s">
+      <c r="B28" s="289" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="267"/>
-      <c r="D28" s="267"/>
-      <c r="E28" s="267"/>
-      <c r="F28" s="267"/>
-      <c r="G28" s="268"/>
-      <c r="H28" s="272" t="s">
+      <c r="C28" s="290"/>
+      <c r="D28" s="290"/>
+      <c r="E28" s="290"/>
+      <c r="F28" s="290"/>
+      <c r="G28" s="291"/>
+      <c r="H28" s="295" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="272"/>
-      <c r="J28" s="272"/>
-      <c r="K28" s="272"/>
-      <c r="L28" s="272"/>
-      <c r="M28" s="272"/>
-      <c r="N28" s="273"/>
-      <c r="O28" s="271" t="s">
+      <c r="I28" s="295"/>
+      <c r="J28" s="295"/>
+      <c r="K28" s="295"/>
+      <c r="L28" s="295"/>
+      <c r="M28" s="295"/>
+      <c r="N28" s="296"/>
+      <c r="O28" s="294" t="s">
         <v>56</v>
       </c>
-      <c r="P28" s="272"/>
-      <c r="Q28" s="272"/>
-      <c r="R28" s="272"/>
-      <c r="S28" s="272"/>
-      <c r="T28" s="272"/>
-      <c r="U28" s="273"/>
-      <c r="V28" s="271" t="s">
+      <c r="P28" s="295"/>
+      <c r="Q28" s="295"/>
+      <c r="R28" s="295"/>
+      <c r="S28" s="295"/>
+      <c r="T28" s="295"/>
+      <c r="U28" s="296"/>
+      <c r="V28" s="294" t="s">
         <v>57</v>
       </c>
-      <c r="W28" s="272"/>
-      <c r="X28" s="272"/>
-      <c r="Y28" s="272"/>
-      <c r="Z28" s="272"/>
-      <c r="AA28" s="272"/>
-      <c r="AB28" s="273"/>
-      <c r="AC28" s="271" t="s">
+      <c r="W28" s="295"/>
+      <c r="X28" s="295"/>
+      <c r="Y28" s="295"/>
+      <c r="Z28" s="295"/>
+      <c r="AA28" s="295"/>
+      <c r="AB28" s="296"/>
+      <c r="AC28" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="AD28" s="272"/>
-      <c r="AE28" s="272"/>
-      <c r="AF28" s="272"/>
-      <c r="AG28" s="272"/>
-      <c r="AH28" s="272"/>
-      <c r="AI28" s="273"/>
-      <c r="AJ28" s="271" t="s">
+      <c r="AD28" s="295"/>
+      <c r="AE28" s="295"/>
+      <c r="AF28" s="295"/>
+      <c r="AG28" s="295"/>
+      <c r="AH28" s="295"/>
+      <c r="AI28" s="296"/>
+      <c r="AJ28" s="294" t="s">
         <v>59</v>
       </c>
-      <c r="AK28" s="272"/>
-      <c r="AL28" s="272"/>
-      <c r="AM28" s="272"/>
-      <c r="AN28" s="272"/>
-      <c r="AO28" s="272"/>
-      <c r="AP28" s="273"/>
+      <c r="AK28" s="295"/>
+      <c r="AL28" s="295"/>
+      <c r="AM28" s="295"/>
+      <c r="AN28" s="295"/>
+      <c r="AO28" s="295"/>
+      <c r="AP28" s="296"/>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B29" s="51" t="s">
@@ -33912,43 +33923,43 @@
       <c r="E29" s="93"/>
       <c r="F29" s="93"/>
       <c r="G29" s="94"/>
-      <c r="H29" s="269" t="s">
+      <c r="H29" s="292" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="269"/>
-      <c r="J29" s="269"/>
-      <c r="K29" s="269"/>
-      <c r="L29" s="269"/>
-      <c r="M29" s="269"/>
-      <c r="N29" s="269"/>
-      <c r="O29" s="269"/>
-      <c r="P29" s="269"/>
-      <c r="Q29" s="269"/>
-      <c r="R29" s="269"/>
-      <c r="S29" s="269"/>
-      <c r="T29" s="269"/>
-      <c r="U29" s="269"/>
-      <c r="V29" s="269"/>
-      <c r="W29" s="269"/>
-      <c r="X29" s="269"/>
-      <c r="Y29" s="269"/>
-      <c r="Z29" s="269"/>
-      <c r="AA29" s="269"/>
-      <c r="AB29" s="269"/>
-      <c r="AC29" s="269"/>
-      <c r="AD29" s="269"/>
-      <c r="AE29" s="269"/>
-      <c r="AF29" s="269"/>
-      <c r="AG29" s="269"/>
-      <c r="AH29" s="269"/>
-      <c r="AI29" s="269"/>
-      <c r="AJ29" s="269"/>
-      <c r="AK29" s="269"/>
-      <c r="AL29" s="269"/>
-      <c r="AM29" s="269"/>
-      <c r="AN29" s="269"/>
-      <c r="AO29" s="269"/>
-      <c r="AP29" s="270"/>
+      <c r="I29" s="292"/>
+      <c r="J29" s="292"/>
+      <c r="K29" s="292"/>
+      <c r="L29" s="292"/>
+      <c r="M29" s="292"/>
+      <c r="N29" s="292"/>
+      <c r="O29" s="292"/>
+      <c r="P29" s="292"/>
+      <c r="Q29" s="292"/>
+      <c r="R29" s="292"/>
+      <c r="S29" s="292"/>
+      <c r="T29" s="292"/>
+      <c r="U29" s="292"/>
+      <c r="V29" s="292"/>
+      <c r="W29" s="292"/>
+      <c r="X29" s="292"/>
+      <c r="Y29" s="292"/>
+      <c r="Z29" s="292"/>
+      <c r="AA29" s="292"/>
+      <c r="AB29" s="292"/>
+      <c r="AC29" s="292"/>
+      <c r="AD29" s="292"/>
+      <c r="AE29" s="292"/>
+      <c r="AF29" s="292"/>
+      <c r="AG29" s="292"/>
+      <c r="AH29" s="292"/>
+      <c r="AI29" s="292"/>
+      <c r="AJ29" s="292"/>
+      <c r="AK29" s="292"/>
+      <c r="AL29" s="292"/>
+      <c r="AM29" s="292"/>
+      <c r="AN29" s="292"/>
+      <c r="AO29" s="292"/>
+      <c r="AP29" s="293"/>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B31" s="57" t="s">
@@ -34232,8 +34243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BB0FAD-39ED-4D53-8BC6-75164ED434B0}">
   <dimension ref="A1:AL94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R46" sqref="R46"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34297,15 +34308,15 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D3" s="156"/>
-      <c r="E3" s="279">
+      <c r="E3" s="271">
         <v>43878</v>
       </c>
-      <c r="F3" s="280" t="s">
+      <c r="F3" s="272" t="s">
         <v>197</v>
       </c>
-      <c r="G3" s="280"/>
-      <c r="H3" s="280"/>
-      <c r="I3" s="279">
+      <c r="G3" s="272"/>
+      <c r="H3" s="272"/>
+      <c r="I3" s="271">
         <v>43892</v>
       </c>
       <c r="S3" s="69"/>
@@ -34614,7 +34625,7 @@
       <c r="N12" s="69"/>
       <c r="O12" s="47"/>
       <c r="P12" s="69"/>
-      <c r="Q12" s="278"/>
+      <c r="Q12" s="270"/>
       <c r="R12" s="220"/>
       <c r="S12" s="156"/>
       <c r="T12" s="69"/>
@@ -34677,9 +34688,9 @@
         <v>43892</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="281">
-        <f>(AD18-J18)/(LOG(AD19/J19)/LOG(2))</f>
-        <v>6.85</v>
+      <c r="D15" s="273">
+        <f>(AB18-J18)/(LOG(AB19/J19)/LOG(2))</f>
+        <v>6.7222222222222223</v>
       </c>
       <c r="E15" s="166"/>
       <c r="M15" s="16"/>
@@ -34784,78 +34795,78 @@
       <c r="G18" s="209"/>
       <c r="H18" s="209"/>
       <c r="I18" s="209"/>
-      <c r="J18" s="285">
+      <c r="J18" s="277">
         <v>43900</v>
       </c>
-      <c r="K18" s="286">
+      <c r="K18" s="278">
         <f t="shared" ref="K18:AG18" si="0">J18+HLOOKUP(J18+1, $B$17:$I$18,2,TRUE)</f>
         <v>43903</v>
       </c>
-      <c r="L18" s="286">
+      <c r="L18" s="278">
         <f t="shared" si="0"/>
         <v>43906</v>
       </c>
-      <c r="M18" s="286">
+      <c r="M18" s="278">
         <f t="shared" si="0"/>
         <v>43909</v>
       </c>
-      <c r="N18" s="287">
+      <c r="N18" s="279">
         <f t="shared" si="0"/>
         <v>43912</v>
       </c>
-      <c r="O18" s="288">
+      <c r="O18" s="280">
         <f t="shared" si="0"/>
         <v>43917</v>
       </c>
-      <c r="P18" s="288">
+      <c r="P18" s="280">
         <f t="shared" si="0"/>
         <v>43925</v>
       </c>
-      <c r="Q18" s="289">
+      <c r="Q18" s="281">
         <f t="shared" si="0"/>
         <v>43933</v>
       </c>
-      <c r="R18" s="288">
+      <c r="R18" s="280">
         <f t="shared" si="0"/>
         <v>43941</v>
       </c>
-      <c r="S18" s="288">
+      <c r="S18" s="280">
         <f t="shared" si="0"/>
         <v>43949</v>
       </c>
-      <c r="T18" s="288">
+      <c r="T18" s="280">
         <f t="shared" si="0"/>
         <v>43957</v>
       </c>
-      <c r="U18" s="288">
+      <c r="U18" s="280">
         <f t="shared" si="0"/>
         <v>43965</v>
       </c>
-      <c r="V18" s="288">
+      <c r="V18" s="280">
         <f t="shared" si="0"/>
         <v>43973</v>
       </c>
-      <c r="W18" s="288">
+      <c r="W18" s="280">
         <f t="shared" si="0"/>
         <v>43981</v>
       </c>
-      <c r="X18" s="288">
+      <c r="X18" s="280">
         <f t="shared" si="0"/>
         <v>43989</v>
       </c>
-      <c r="Y18" s="288">
+      <c r="Y18" s="280">
         <f t="shared" si="0"/>
         <v>43997</v>
       </c>
-      <c r="Z18" s="288">
+      <c r="Z18" s="280">
         <f t="shared" si="0"/>
         <v>44005</v>
       </c>
-      <c r="AA18" s="288">
+      <c r="AA18" s="280">
         <f t="shared" si="0"/>
         <v>44013</v>
       </c>
-      <c r="AB18" s="288">
+      <c r="AB18" s="280">
         <f t="shared" si="0"/>
         <v>44021</v>
       </c>
@@ -34903,78 +34914,78 @@
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="291">
+      <c r="J19" s="283">
         <v>31.25</v>
       </c>
-      <c r="K19" s="292">
+      <c r="K19" s="284">
         <f>J19*2</f>
         <v>62.5</v>
       </c>
-      <c r="L19" s="292">
+      <c r="L19" s="284">
         <f t="shared" ref="L19:Z19" si="3">K19*2</f>
         <v>125</v>
       </c>
-      <c r="M19" s="292">
+      <c r="M19" s="284">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="N19" s="292">
+      <c r="N19" s="284">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="O19" s="292">
+      <c r="O19" s="284">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="P19" s="292">
+      <c r="P19" s="284">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="Q19" s="292">
+      <c r="Q19" s="284">
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-      <c r="R19" s="292">
+      <c r="R19" s="284">
         <f t="shared" si="3"/>
         <v>8000</v>
       </c>
-      <c r="S19" s="292">
+      <c r="S19" s="284">
         <f>R19*2</f>
         <v>16000</v>
       </c>
-      <c r="T19" s="292">
+      <c r="T19" s="284">
         <f>S19*2</f>
         <v>32000</v>
       </c>
-      <c r="U19" s="292">
+      <c r="U19" s="284">
         <f>T19*2</f>
         <v>64000</v>
       </c>
-      <c r="V19" s="292">
+      <c r="V19" s="284">
         <f>U19*2</f>
         <v>128000</v>
       </c>
-      <c r="W19" s="292">
+      <c r="W19" s="284">
         <f t="shared" si="3"/>
         <v>256000</v>
       </c>
-      <c r="X19" s="292">
+      <c r="X19" s="284">
         <f t="shared" si="3"/>
         <v>512000</v>
       </c>
-      <c r="Y19" s="292">
+      <c r="Y19" s="284">
         <f t="shared" si="3"/>
         <v>1024000</v>
       </c>
-      <c r="Z19" s="292">
+      <c r="Z19" s="284">
         <f t="shared" si="3"/>
         <v>2048000</v>
       </c>
-      <c r="AA19" s="292">
+      <c r="AA19" s="284">
         <f>Z19*2</f>
         <v>4096000</v>
       </c>
-      <c r="AB19" s="293">
+      <c r="AB19" s="285">
         <f>AA19*2</f>
         <v>8192000</v>
       </c>
@@ -35094,7 +35105,7 @@
         <f>AA19/$B$6</f>
         <v>1.5009930886890496E-2</v>
       </c>
-      <c r="AB20" s="294">
+      <c r="AB20" s="286">
         <f>AB19/$B$6</f>
         <v>3.0019861773780993E-2</v>
       </c>
@@ -35142,79 +35153,79 @@
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
-      <c r="J21" s="295">
+      <c r="J21" s="287">
         <f>MAX(J19-(J27-J28)-(J29-J30)-(J31-J32),0)</f>
         <v>31.181614788291355</v>
       </c>
-      <c r="K21" s="290">
-        <f t="shared" ref="J21:S21" si="8">MAX(K19-(K27-K28)-(K29-K30)-(K31-K32),0)</f>
+      <c r="K21" s="282">
+        <f t="shared" ref="K21:S21" si="8">MAX(K19-(K27-K28)-(K29-K30)-(K31-K32),0)</f>
         <v>62.264644903424632</v>
       </c>
-      <c r="L21" s="290">
+      <c r="L21" s="282">
         <f t="shared" si="8"/>
         <v>124.19</v>
       </c>
-      <c r="M21" s="290">
+      <c r="M21" s="282">
         <f>MAX(M19-(M27-M28)-(M29-M30)-(M31-M32),0)</f>
         <v>247.21229746223111</v>
       </c>
-      <c r="N21" s="290">
+      <c r="N21" s="282">
         <f>MAX(N19-(N27-N28)-(N29-N30)-(N31-N32),0)</f>
         <v>490.40582044557635</v>
       </c>
-      <c r="O21" s="290">
+      <c r="O21" s="282">
         <f t="shared" si="8"/>
         <v>935.3125</v>
       </c>
-      <c r="P21" s="290">
+      <c r="P21" s="282">
         <f t="shared" si="8"/>
         <v>1502.0645736639731</v>
       </c>
-      <c r="Q21" s="290">
+      <c r="Q21" s="282">
         <f>MAX(Q19-(Q27-Q28)-(Q29-Q30)-(Q31-Q32),0)</f>
         <v>2492.1912971035408</v>
       </c>
-      <c r="R21" s="290">
+      <c r="R21" s="282">
         <f t="shared" si="8"/>
         <v>5214.6512135578741</v>
       </c>
-      <c r="S21" s="290">
+      <c r="S21" s="282">
         <f t="shared" si="8"/>
         <v>10549.615694708977</v>
       </c>
-      <c r="T21" s="290">
+      <c r="T21" s="282">
         <f>MAX(T19-(T27-T28)-(T29-T30)-(T31-T32),0)</f>
         <v>20649.822380034293</v>
       </c>
-      <c r="U21" s="290">
+      <c r="U21" s="282">
         <f t="shared" ref="U21:AC21" si="9">MAX(U19-(U27-U28)-(U29-U30)-(U31-U32),0)</f>
         <v>41419.241309108707</v>
       </c>
-      <c r="V21" s="290">
+      <c r="V21" s="282">
         <f t="shared" si="9"/>
         <v>83657.385893762519</v>
       </c>
-      <c r="W21" s="290">
+      <c r="W21" s="282">
         <f t="shared" si="9"/>
         <v>168336.66529179667</v>
       </c>
-      <c r="X21" s="290">
+      <c r="X21" s="282">
         <f t="shared" si="9"/>
         <v>338200.72604820685</v>
       </c>
-      <c r="Y21" s="290">
+      <c r="Y21" s="282">
         <f t="shared" si="9"/>
         <v>678750.54691758647</v>
       </c>
-      <c r="Z21" s="290">
+      <c r="Z21" s="282">
         <f t="shared" si="9"/>
         <v>1361250.1885239698</v>
       </c>
-      <c r="AA21" s="290">
+      <c r="AA21" s="282">
         <f t="shared" si="9"/>
         <v>2728642.2599519957</v>
       </c>
-      <c r="AB21" s="296">
+      <c r="AB21" s="288">
         <f t="shared" si="9"/>
         <v>5467548.5698845871</v>
       </c>
@@ -36636,7 +36647,7 @@
         <f t="shared" si="34"/>
         <v>372736</v>
       </c>
-      <c r="AB33" s="274">
+      <c r="AB33" s="266">
         <f t="shared" si="34"/>
         <v>745472</v>
       </c>
@@ -36717,71 +36728,71 @@
         <v>1.0778646166080907</v>
       </c>
       <c r="R34" s="200">
-        <f>($J$19*$B$14)*(2^(((R18-35)-$J$18)/HLOOKUP((R18-35)-$B$15,$J$42:$AI$44,3,TRUE)))</f>
+        <f t="shared" ref="R34:AH34" si="37">($J$19*$B$14)*(2^(((R18-35)-$J$18)/HLOOKUP((R18-35)-$B$15,$J$42:$AI$44,3,TRUE)))</f>
         <v>14.113425925925926</v>
       </c>
       <c r="S34" s="200">
-        <f>($J$19*$B$14)*(2^(((S18-35)-$J$18)/HLOOKUP((S18-35)-$B$15,$J$42:$AI$44,3,TRUE)))</f>
+        <f t="shared" si="37"/>
         <v>88.462116929412431</v>
       </c>
       <c r="T34" s="200">
-        <f>($J$19*$B$14)*(2^(((T18-35)-$J$18)/HLOOKUP((T18-35)-$B$15,$J$42:$AI$44,3,TRUE)))</f>
+        <f t="shared" si="37"/>
         <v>322.97398811055137</v>
       </c>
       <c r="U34" s="200">
-        <f>($J$19*$B$14)*(2^(((U18-35)-$J$18)/HLOOKUP((U18-35)-$B$15,$J$42:$AI$44,3,TRUE)))</f>
+        <f t="shared" si="37"/>
         <v>525.93117319326086</v>
       </c>
       <c r="V34" s="200">
-        <f>($J$19*$B$14)*(2^(((V18-35)-$J$18)/HLOOKUP((V18-35)-$B$15,$J$42:$AI$44,3,TRUE)))</f>
+        <f t="shared" si="37"/>
         <v>961.03461288796507</v>
       </c>
       <c r="W34" s="200">
-        <f>($J$19*$B$14)*(2^(((W18-35)-$J$18)/HLOOKUP((W18-35)-$B$15,$J$42:$AI$44,3,TRUE)))</f>
+        <f t="shared" si="37"/>
         <v>1801.1692169760304</v>
       </c>
       <c r="X34" s="200">
-        <f>($J$19*$B$14)*(2^(((X18-35)-$J$18)/HLOOKUP((X18-35)-$B$15,$J$42:$AI$44,3,TRUE)))</f>
+        <f t="shared" si="37"/>
         <v>3448.1242226026557</v>
       </c>
       <c r="Y34" s="200">
-        <f>($J$19*$B$14)*(2^(((Y18-35)-$J$18)/HLOOKUP((Y18-35)-$B$15,$J$42:$AI$44,3,TRUE)))</f>
+        <f t="shared" si="37"/>
         <v>6682.5939864402972</v>
       </c>
       <c r="Z34" s="200">
-        <f>($J$19*$B$14)*(2^(((Z18-35)-$J$18)/HLOOKUP((Z18-35)-$B$15,$J$42:$AI$44,3,TRUE)))</f>
+        <f t="shared" si="37"/>
         <v>13051.836808843636</v>
       </c>
       <c r="AA34" s="200">
-        <f>($J$19*$B$14)*(2^(((AA18-35)-$J$18)/HLOOKUP((AA18-35)-$B$15,$J$42:$AI$44,3,TRUE)))</f>
+        <f t="shared" si="37"/>
         <v>25624.563838213093</v>
       </c>
-      <c r="AB34" s="275">
-        <f>($J$19*$B$14)*(2^(((AB18-35)-$J$18)/HLOOKUP((AB18-35)-$B$15,$J$42:$AI$44,3,TRUE)))</f>
+      <c r="AB34" s="267">
+        <f t="shared" si="37"/>
         <v>50492.920852674004</v>
       </c>
       <c r="AC34" s="226">
-        <f>($J$19*$B$14)*(2^(((AC18-35)-$J$18)/HLOOKUP((AC18-35)-$B$15,$J$42:$AI$44,3,TRUE)))</f>
+        <f t="shared" si="37"/>
         <v>99761.996580721257</v>
       </c>
       <c r="AD34" s="193">
-        <f>($J$19*$B$14)*(2^(((AD18-35)-$J$18)/HLOOKUP((AD18-35)-$B$15,$J$42:$AI$44,3,TRUE)))</f>
+        <f t="shared" si="37"/>
         <v>197502.78845312318</v>
       </c>
       <c r="AE34" s="193">
-        <f>($J$19*$B$14)*(2^(((AE18-35)-$J$18)/HLOOKUP((AE18-35)-$B$15,$J$42:$AI$44,3,TRUE)))</f>
+        <f t="shared" si="37"/>
         <v>391611.23577806039</v>
       </c>
       <c r="AF34" s="193">
-        <f>($J$19*$B$14)*(2^(((AF18-35)-$J$18)/HLOOKUP((AF18-35)-$B$15,$J$42:$AI$44,3,TRUE)))</f>
+        <f t="shared" si="37"/>
         <v>777441.56851066824</v>
       </c>
       <c r="AG34" s="193">
-        <f>($J$19*$B$14)*(2^(((AG18-35)-$J$18)/HLOOKUP((AG18-35)-$B$15,$J$42:$AI$44,3,TRUE)))</f>
+        <f t="shared" si="37"/>
         <v>1544919.3438751842</v>
       </c>
       <c r="AH34" s="194">
-        <f>($J$19*$B$14)*(2^(((AH18-35)-$J$18)/HLOOKUP((AH18-35)-$B$15,$J$42:$AI$44,3,TRUE)))</f>
+        <f t="shared" si="37"/>
         <v>3072487.6897898782</v>
       </c>
       <c r="AI34" s="258">
@@ -36805,83 +36816,83 @@
       <c r="H35" s="47"/>
       <c r="I35" s="47"/>
       <c r="J35" s="143">
-        <f t="shared" ref="J35:AC35" si="37">J18-7</f>
+        <f t="shared" ref="J35:AC35" si="38">J18-7</f>
         <v>43893</v>
       </c>
       <c r="K35" s="143">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>43896</v>
       </c>
       <c r="L35" s="143">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>43899</v>
       </c>
       <c r="M35" s="143">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>43902</v>
       </c>
       <c r="N35" s="143">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>43905</v>
       </c>
       <c r="O35" s="143">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>43910</v>
       </c>
       <c r="P35" s="143">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>43918</v>
       </c>
       <c r="Q35" s="143">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>43926</v>
       </c>
       <c r="R35" s="143">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>43934</v>
       </c>
       <c r="S35" s="143">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>43942</v>
       </c>
       <c r="T35" s="143">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>43950</v>
       </c>
       <c r="U35" s="143">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>43958</v>
       </c>
       <c r="V35" s="143">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>43966</v>
       </c>
       <c r="W35" s="143">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>43974</v>
       </c>
       <c r="X35" s="143">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>43982</v>
       </c>
       <c r="Y35" s="143">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>43990</v>
       </c>
       <c r="Z35" s="143">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>43998</v>
       </c>
       <c r="AA35" s="143">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>44006</v>
       </c>
       <c r="AB35" s="143">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>44014</v>
       </c>
       <c r="AC35" s="143">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>44022</v>
       </c>
       <c r="AD35" s="143"/>
@@ -36906,83 +36917,83 @@
       <c r="H36" s="47"/>
       <c r="I36" s="47"/>
       <c r="J36" s="143">
-        <f t="shared" ref="J36:AC36" si="38">J18-14</f>
+        <f t="shared" ref="J36:AC36" si="39">J18-14</f>
         <v>43886</v>
       </c>
       <c r="K36" s="143">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>43889</v>
       </c>
       <c r="L36" s="143">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>43892</v>
       </c>
       <c r="M36" s="143">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>43895</v>
       </c>
       <c r="N36" s="143">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>43898</v>
       </c>
       <c r="O36" s="143">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>43903</v>
       </c>
       <c r="P36" s="143">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>43911</v>
       </c>
       <c r="Q36" s="143">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>43919</v>
       </c>
       <c r="R36" s="143">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>43927</v>
       </c>
       <c r="S36" s="143">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>43935</v>
       </c>
       <c r="T36" s="143">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>43943</v>
       </c>
       <c r="U36" s="143">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>43951</v>
       </c>
       <c r="V36" s="143">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>43959</v>
       </c>
       <c r="W36" s="143">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>43967</v>
       </c>
       <c r="X36" s="143">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>43975</v>
       </c>
       <c r="Y36" s="143">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>43983</v>
       </c>
       <c r="Z36" s="143">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>43991</v>
       </c>
       <c r="AA36" s="143">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>43999</v>
       </c>
       <c r="AB36" s="143">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>44007</v>
       </c>
       <c r="AC36" s="143">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>44015</v>
       </c>
       <c r="AD36" s="143"/>
@@ -37007,83 +37018,83 @@
       <c r="H37" s="47"/>
       <c r="I37" s="47"/>
       <c r="J37" s="143">
-        <f t="shared" ref="J37:AC37" si="39">J18-(7*5)</f>
+        <f t="shared" ref="J37:AC37" si="40">J18-(7*5)</f>
         <v>43865</v>
       </c>
       <c r="K37" s="143">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>43868</v>
       </c>
       <c r="L37" s="143">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>43871</v>
       </c>
       <c r="M37" s="143">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>43874</v>
       </c>
       <c r="N37" s="143">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>43877</v>
       </c>
       <c r="O37" s="143">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>43882</v>
       </c>
       <c r="P37" s="143">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>43890</v>
       </c>
       <c r="Q37" s="143">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>43898</v>
       </c>
       <c r="R37" s="143">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>43906</v>
       </c>
       <c r="S37" s="143">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>43914</v>
       </c>
       <c r="T37" s="143">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>43922</v>
       </c>
       <c r="U37" s="143">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>43930</v>
       </c>
       <c r="V37" s="143">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>43938</v>
       </c>
       <c r="W37" s="143">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>43946</v>
       </c>
       <c r="X37" s="143">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>43954</v>
       </c>
       <c r="Y37" s="143">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>43962</v>
       </c>
       <c r="Z37" s="143">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>43970</v>
       </c>
       <c r="AA37" s="143">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>43978</v>
       </c>
       <c r="AB37" s="143">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>43986</v>
       </c>
       <c r="AC37" s="143">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>43994</v>
       </c>
       <c r="AD37" s="143"/>
@@ -37108,83 +37119,83 @@
       <c r="H38" s="47"/>
       <c r="I38" s="47"/>
       <c r="J38" s="143">
-        <f t="shared" ref="J38:AC38" si="40">J18-(6*7)</f>
+        <f t="shared" ref="J38:AC38" si="41">J18-(6*7)</f>
         <v>43858</v>
       </c>
       <c r="K38" s="143">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>43861</v>
       </c>
       <c r="L38" s="143">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>43864</v>
       </c>
       <c r="M38" s="143">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>43867</v>
       </c>
       <c r="N38" s="143">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>43870</v>
       </c>
       <c r="O38" s="143">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>43875</v>
       </c>
       <c r="P38" s="143">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>43883</v>
       </c>
       <c r="Q38" s="143">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>43891</v>
       </c>
       <c r="R38" s="143">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>43899</v>
       </c>
       <c r="S38" s="143">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>43907</v>
       </c>
       <c r="T38" s="143">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>43915</v>
       </c>
       <c r="U38" s="143">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>43923</v>
       </c>
       <c r="V38" s="143">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>43931</v>
       </c>
       <c r="W38" s="143">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>43939</v>
       </c>
       <c r="X38" s="143">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>43947</v>
       </c>
       <c r="Y38" s="143">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>43955</v>
       </c>
       <c r="Z38" s="143">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>43963</v>
       </c>
       <c r="AA38" s="143">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>43971</v>
       </c>
       <c r="AB38" s="143">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>43979</v>
       </c>
       <c r="AC38" s="143">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>43987</v>
       </c>
       <c r="AD38" s="143"/>
@@ -37222,107 +37233,107 @@
       <c r="H41" s="47"/>
       <c r="I41" s="47"/>
       <c r="J41" s="235">
-        <f t="shared" ref="J41:AI41" si="41">(J18-$B$15)/7</f>
+        <f t="shared" ref="J41:AI41" si="42">(J18-$B$15)/7</f>
         <v>1.1428571428571428</v>
       </c>
       <c r="K41" s="138">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1.5714285714285714</v>
       </c>
       <c r="L41" s="141">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>2</v>
       </c>
       <c r="M41" s="139">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>2.4285714285714284</v>
       </c>
-      <c r="N41" s="277">
-        <f t="shared" si="41"/>
+      <c r="N41" s="269">
+        <f t="shared" si="42"/>
         <v>2.8571428571428572</v>
       </c>
       <c r="O41" s="236">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>3.5714285714285716</v>
       </c>
-      <c r="P41" s="277">
-        <f t="shared" si="41"/>
+      <c r="P41" s="269">
+        <f t="shared" si="42"/>
         <v>4.7142857142857144</v>
       </c>
       <c r="Q41" s="237">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>5.8571428571428568</v>
       </c>
       <c r="R41" s="235">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>7</v>
       </c>
       <c r="S41" s="238">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>8.1428571428571423</v>
       </c>
-      <c r="T41" s="277">
-        <f t="shared" si="41"/>
+      <c r="T41" s="269">
+        <f t="shared" si="42"/>
         <v>9.2857142857142865</v>
       </c>
       <c r="U41" s="237">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>10.428571428571429</v>
       </c>
       <c r="V41" s="235">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>11.571428571428571</v>
       </c>
-      <c r="W41" s="277">
-        <f t="shared" si="41"/>
+      <c r="W41" s="269">
+        <f t="shared" si="42"/>
         <v>12.714285714285714</v>
       </c>
       <c r="X41" s="236">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>13.857142857142858</v>
       </c>
       <c r="Y41" s="236">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>15</v>
       </c>
       <c r="Z41" s="235">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>16.142857142857142</v>
       </c>
-      <c r="AA41" s="277">
-        <f t="shared" si="41"/>
+      <c r="AA41" s="269">
+        <f t="shared" si="42"/>
         <v>17.285714285714285</v>
       </c>
       <c r="AB41" s="236">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>18.428571428571427</v>
       </c>
       <c r="AC41" s="237">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>19.571428571428573</v>
       </c>
-      <c r="AD41" s="277">
-        <f t="shared" ref="AD41:AH41" si="42">(AD18-$B$15)/7</f>
+      <c r="AD41" s="269">
+        <f t="shared" ref="AD41:AH41" si="43">(AD18-$B$15)/7</f>
         <v>20.714285714285715</v>
       </c>
       <c r="AE41" s="236">
+        <f t="shared" si="43"/>
+        <v>21.857142857142858</v>
+      </c>
+      <c r="AF41" s="141">
+        <f t="shared" si="43"/>
+        <v>23</v>
+      </c>
+      <c r="AG41" s="269">
+        <f t="shared" si="43"/>
+        <v>24.142857142857142</v>
+      </c>
+      <c r="AH41" s="269">
+        <f t="shared" si="43"/>
+        <v>25.285714285714285</v>
+      </c>
+      <c r="AI41" s="269">
         <f t="shared" si="42"/>
-        <v>21.857142857142858</v>
-      </c>
-      <c r="AF41" s="141">
-        <f t="shared" si="42"/>
-        <v>23</v>
-      </c>
-      <c r="AG41" s="277">
-        <f t="shared" si="42"/>
-        <v>24.142857142857142</v>
-      </c>
-      <c r="AH41" s="277">
-        <f t="shared" si="42"/>
-        <v>25.285714285714285</v>
-      </c>
-      <c r="AI41" s="277">
-        <f t="shared" si="41"/>
         <v>33.285714285714285</v>
       </c>
     </row>
@@ -37342,24 +37353,24 @@
         <f>J18-$B$15</f>
         <v>8</v>
       </c>
-      <c r="K42" s="276">
-        <f t="shared" ref="K42:O42" si="43">K18-$B$15</f>
+      <c r="K42" s="268">
+        <f t="shared" ref="K42:O42" si="44">K18-$B$15</f>
         <v>11</v>
       </c>
-      <c r="L42" s="276">
-        <f t="shared" si="43"/>
+      <c r="L42" s="268">
+        <f t="shared" si="44"/>
         <v>14</v>
       </c>
-      <c r="M42" s="276">
-        <f t="shared" si="43"/>
+      <c r="M42" s="268">
+        <f t="shared" si="44"/>
         <v>17</v>
       </c>
       <c r="N42" s="219">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>20</v>
       </c>
       <c r="O42" s="219">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="P42" s="219">
@@ -37367,79 +37378,79 @@
         <v>33</v>
       </c>
       <c r="Q42" s="219">
-        <f t="shared" ref="Q42:AI42" si="44">Q18-$B$15</f>
+        <f t="shared" ref="Q42:AI42" si="45">Q18-$B$15</f>
         <v>41</v>
       </c>
       <c r="R42" s="219">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>49</v>
       </c>
       <c r="S42" s="219">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>57</v>
       </c>
       <c r="T42" s="219">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>65</v>
       </c>
       <c r="U42" s="219">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>73</v>
       </c>
       <c r="V42" s="219">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>81</v>
       </c>
       <c r="W42" s="219">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>89</v>
       </c>
       <c r="X42" s="219">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>97</v>
       </c>
       <c r="Y42" s="219">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>105</v>
       </c>
       <c r="Z42" s="219">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>113</v>
       </c>
       <c r="AA42" s="219">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>121</v>
       </c>
       <c r="AB42" s="219">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>129</v>
       </c>
       <c r="AC42" s="234">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>137</v>
       </c>
       <c r="AD42" s="234">
-        <f t="shared" ref="AD42:AH42" si="45">AD18-$B$15</f>
+        <f t="shared" ref="AD42:AH42" si="46">AD18-$B$15</f>
         <v>145</v>
       </c>
       <c r="AE42" s="234">
+        <f t="shared" si="46"/>
+        <v>153</v>
+      </c>
+      <c r="AF42" s="234">
+        <f t="shared" si="46"/>
+        <v>161</v>
+      </c>
+      <c r="AG42" s="181">
+        <f t="shared" si="46"/>
+        <v>169</v>
+      </c>
+      <c r="AH42" s="233">
+        <f t="shared" si="46"/>
+        <v>177</v>
+      </c>
+      <c r="AI42" s="181">
         <f t="shared" si="45"/>
-        <v>153</v>
-      </c>
-      <c r="AF42" s="234">
-        <f t="shared" si="45"/>
-        <v>161</v>
-      </c>
-      <c r="AG42" s="181">
-        <f t="shared" si="45"/>
-        <v>169</v>
-      </c>
-      <c r="AH42" s="233">
-        <f t="shared" si="45"/>
-        <v>177</v>
-      </c>
-      <c r="AI42" s="181">
-        <f t="shared" si="44"/>
         <v>233</v>
       </c>
     </row>
@@ -37480,59 +37491,59 @@
         <v>4241</v>
       </c>
       <c r="R43" s="262">
-        <f t="shared" ref="R43:S43" si="46">Q43*2</f>
+        <f t="shared" ref="R43:S43" si="47">Q43*2</f>
         <v>8482</v>
       </c>
       <c r="S43" s="262">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>16964</v>
       </c>
       <c r="T43" s="262">
-        <f t="shared" ref="T43" si="47">S43*2</f>
+        <f t="shared" ref="T43" si="48">S43*2</f>
         <v>33928</v>
       </c>
       <c r="U43" s="262">
-        <f t="shared" ref="U43" si="48">T43*2</f>
+        <f t="shared" ref="U43" si="49">T43*2</f>
         <v>67856</v>
       </c>
       <c r="V43" s="262">
-        <f t="shared" ref="V43" si="49">U43*2</f>
+        <f t="shared" ref="V43" si="50">U43*2</f>
         <v>135712</v>
       </c>
       <c r="W43" s="262">
-        <f t="shared" ref="W43" si="50">V43*2</f>
+        <f t="shared" ref="W43" si="51">V43*2</f>
         <v>271424</v>
       </c>
       <c r="X43" s="262">
-        <f t="shared" ref="X43" si="51">W43*2</f>
+        <f t="shared" ref="X43" si="52">W43*2</f>
         <v>542848</v>
       </c>
       <c r="Y43" s="262">
-        <f t="shared" ref="Y43" si="52">X43*2</f>
+        <f t="shared" ref="Y43" si="53">X43*2</f>
         <v>1085696</v>
       </c>
       <c r="Z43" s="262">
-        <f t="shared" ref="Z43:AC43" si="53">Y43*2</f>
+        <f t="shared" ref="Z43:AC43" si="54">Y43*2</f>
         <v>2171392</v>
       </c>
       <c r="AA43" s="262">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>4342784</v>
       </c>
       <c r="AB43" s="262">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>8685568</v>
       </c>
       <c r="AC43" s="177">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>17371136</v>
       </c>
       <c r="AD43" s="177">
-        <f t="shared" ref="AD43" si="54">AC43*2</f>
+        <f t="shared" ref="AD43" si="55">AC43*2</f>
         <v>34742272</v>
       </c>
       <c r="AE43" s="177">
-        <f t="shared" ref="AE43" si="55">AD43*2</f>
+        <f t="shared" ref="AE43" si="56">AD43*2</f>
         <v>69484544</v>
       </c>
       <c r="AF43" s="177">
@@ -37540,7 +37551,7 @@
         <v>138969088</v>
       </c>
       <c r="AG43" s="177">
-        <f t="shared" ref="AG43" si="56">AF43*2</f>
+        <f t="shared" ref="AG43" si="57">AF43*2</f>
         <v>277938176</v>
       </c>
       <c r="AH43" s="177">
@@ -37573,27 +37584,27 @@
         <v>2.2162515508849423</v>
       </c>
       <c r="L44" s="165">
-        <f t="shared" ref="L44:AC44" si="57">(L18-$J$18)/(LOG(L43/$J$43)/LOG(2))</f>
+        <f t="shared" ref="L44:AC44" si="58">(L18-$J$18)/(LOG(L43/$J$43)/LOG(2))</f>
         <v>2.5960521015489895</v>
       </c>
       <c r="M44" s="165">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>2.5593080353659667</v>
       </c>
       <c r="N44" s="165">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>2.8230398322058692</v>
       </c>
       <c r="O44" s="165">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>3.2222725699484793</v>
       </c>
       <c r="P44" s="165">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>3.9835688086028611</v>
       </c>
       <c r="Q44" s="165">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>4.5234595254294128</v>
       </c>
       <c r="R44" s="174">
@@ -37601,76 +37612,78 @@
         <v>4.9425570799760505</v>
       </c>
       <c r="S44" s="174">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>5.2714805685986157</v>
       </c>
       <c r="T44" s="174">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>5.5365062692609692</v>
       </c>
       <c r="U44" s="174">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>5.7546052533295091</v>
       </c>
       <c r="V44" s="174">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>5.937227435429528</v>
       </c>
       <c r="W44" s="174">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>6.0923779298326579</v>
       </c>
       <c r="X44" s="174">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>6.2258219220051139</v>
       </c>
       <c r="Y44" s="174">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>6.3418168963574333</v>
       </c>
       <c r="Z44" s="174">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>6.4435752545879774</v>
       </c>
       <c r="AA44" s="174">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>6.5335664447687893</v>
       </c>
       <c r="AB44" s="174">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>6.6137200062737795</v>
       </c>
       <c r="AC44" s="179">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>6.6855654765598391</v>
       </c>
       <c r="AD44" s="179">
-        <f t="shared" ref="AD44" si="58">(AD18-$J$18)/(LOG(AD43/$J$43)/LOG(2))</f>
+        <f t="shared" ref="AD44" si="59">(AD18-$J$18)/(LOG(AD43/$J$43)/LOG(2))</f>
         <v>6.7503309366162956</v>
       </c>
       <c r="AE44" s="179">
-        <f t="shared" ref="AE44" si="59">(AE18-$J$18)/(LOG(AE43/$J$43)/LOG(2))</f>
+        <f t="shared" ref="AE44" si="60">(AE18-$J$18)/(LOG(AE43/$J$43)/LOG(2))</f>
         <v>6.8090137910078514</v>
       </c>
       <c r="AF44" s="179">
-        <f t="shared" ref="AF44" si="60">(AF18-$J$18)/(LOG(AF43/$J$43)/LOG(2))</f>
+        <f t="shared" ref="AF44" si="61">(AF18-$J$18)/(LOG(AF43/$J$43)/LOG(2))</f>
         <v>6.8624324999462534</v>
       </c>
       <c r="AG44" s="179">
-        <f t="shared" ref="AG44" si="61">(AG18-$J$18)/(LOG(AG43/$J$43)/LOG(2))</f>
+        <f t="shared" ref="AG44" si="62">(AG18-$J$18)/(LOG(AG43/$J$43)/LOG(2))</f>
         <v>6.911264987111454</v>
       </c>
       <c r="AH44" s="179">
-        <f t="shared" ref="AH44:AI44" si="62">(AH18-$J$18)/(LOG(AH43/$J$43)/LOG(2))</f>
+        <f t="shared" ref="AH44:AI44" si="63">(AH18-$J$18)/(LOG(AH43/$J$43)/LOG(2))</f>
         <v>7.262933248053006</v>
       </c>
       <c r="AI44" s="180">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>9.6695856852776707</v>
       </c>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
+      <c r="A45" s="41" t="s">
+        <v>198</v>
+      </c>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
@@ -37679,41 +37692,41 @@
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
-      <c r="J45" s="282">
+      <c r="J45" s="274">
         <v>25</v>
       </c>
-      <c r="K45" s="283">
+      <c r="K45" s="275">
         <v>60</v>
       </c>
-      <c r="L45" s="283">
+      <c r="L45" s="275">
         <v>121</v>
       </c>
-      <c r="M45" s="283">
+      <c r="M45" s="275">
         <v>269</v>
       </c>
-      <c r="N45" s="283">
+      <c r="N45" s="275">
         <v>437</v>
       </c>
-      <c r="O45" s="283">
+      <c r="O45" s="275">
         <v>913</v>
       </c>
-      <c r="P45" s="283">
+      <c r="P45" s="275">
         <v>1751</v>
       </c>
-      <c r="Q45" s="283">
+      <c r="Q45" s="275">
         <v>3509</v>
       </c>
-      <c r="R45" s="284"/>
-      <c r="S45" s="284"/>
-      <c r="T45" s="284"/>
-      <c r="U45" s="284"/>
-      <c r="V45" s="284"/>
-      <c r="W45" s="284"/>
-      <c r="X45" s="284"/>
-      <c r="Y45" s="284"/>
-      <c r="Z45" s="284"/>
-      <c r="AA45" s="284"/>
-      <c r="AB45" s="284"/>
+      <c r="R45" s="276"/>
+      <c r="S45" s="276"/>
+      <c r="T45" s="276"/>
+      <c r="U45" s="276"/>
+      <c r="V45" s="276"/>
+      <c r="W45" s="276"/>
+      <c r="X45" s="276"/>
+      <c r="Y45" s="276"/>
+      <c r="Z45" s="276"/>
+      <c r="AA45" s="276"/>
+      <c r="AB45" s="276"/>
       <c r="AC45" s="177"/>
       <c r="AD45" s="177"/>
       <c r="AE45" s="177"/>
@@ -37743,30 +37756,32 @@
         <v>5</v>
       </c>
       <c r="L46" s="142">
-        <f t="shared" ref="L46:Q46" si="63">L43-L47-L45</f>
+        <f t="shared" ref="L46:Q46" si="64">L43-L47-L45</f>
         <v>8</v>
       </c>
       <c r="M46" s="142">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>15</v>
       </c>
       <c r="N46" s="142">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>29</v>
       </c>
       <c r="O46" s="142">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>46</v>
       </c>
       <c r="P46" s="142">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>150</v>
       </c>
       <c r="Q46" s="142">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>359</v>
       </c>
-      <c r="R46" s="175"/>
+      <c r="R46" s="297">
+        <v>380</v>
+      </c>
       <c r="S46" s="175"/>
       <c r="T46" s="175"/>
       <c r="U46" s="175"/>
@@ -37821,7 +37836,9 @@
       <c r="Q47" s="52">
         <v>373</v>
       </c>
-      <c r="R47" s="176"/>
+      <c r="R47" s="298">
+        <v>399</v>
+      </c>
       <c r="S47" s="176"/>
       <c r="T47" s="176"/>
       <c r="U47" s="176"/>
@@ -37936,103 +37953,103 @@
       <c r="H51" s="16"/>
       <c r="I51" s="16"/>
       <c r="J51" s="18">
-        <f t="shared" ref="J51:AH51" si="64">J$19*$D$51</f>
+        <f t="shared" ref="J51:AH51" si="65">J$19*$D$51</f>
         <v>0.3125</v>
       </c>
       <c r="K51" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.625</v>
       </c>
       <c r="L51" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1.25</v>
       </c>
       <c r="M51" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>2.5</v>
       </c>
       <c r="N51" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>5</v>
       </c>
       <c r="O51" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
       <c r="P51" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>20</v>
       </c>
       <c r="Q51" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>40</v>
       </c>
       <c r="R51" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>80</v>
       </c>
       <c r="S51" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>160</v>
       </c>
       <c r="T51" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>320</v>
       </c>
       <c r="U51" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>640</v>
       </c>
       <c r="V51" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1280</v>
       </c>
       <c r="W51" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>2560</v>
       </c>
       <c r="X51" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>5120</v>
       </c>
       <c r="Y51" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>10240</v>
       </c>
       <c r="Z51" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>20480</v>
       </c>
       <c r="AA51" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>40960</v>
       </c>
       <c r="AB51" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>81920</v>
       </c>
       <c r="AC51" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>163840</v>
       </c>
       <c r="AD51" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>327680</v>
       </c>
       <c r="AE51" s="60">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>655360</v>
       </c>
       <c r="AF51" s="18">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1310720</v>
       </c>
       <c r="AG51" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>2621440</v>
       </c>
       <c r="AH51" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>2728860</v>
       </c>
       <c r="AI51" s="45"/>
@@ -38050,103 +38067,103 @@
       <c r="H52" s="15"/>
       <c r="I52" s="10"/>
       <c r="J52" s="29">
-        <f t="shared" ref="J52:AH52" si="65">J$19*$D$51*$E$52</f>
+        <f t="shared" ref="J52:AH52" si="66">J$19*$D$51*$E$52</f>
         <v>4.6249999999999999E-2</v>
       </c>
       <c r="K52" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>9.2499999999999999E-2</v>
       </c>
       <c r="L52" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.185</v>
       </c>
       <c r="M52" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.37</v>
       </c>
       <c r="N52" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.74</v>
       </c>
       <c r="O52" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>1.48</v>
       </c>
       <c r="P52" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>2.96</v>
       </c>
       <c r="Q52" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>5.92</v>
       </c>
       <c r="R52" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>11.84</v>
       </c>
       <c r="S52" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>23.68</v>
       </c>
       <c r="T52" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>47.36</v>
       </c>
       <c r="U52" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>94.72</v>
       </c>
       <c r="V52" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>189.44</v>
       </c>
       <c r="W52" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>378.88</v>
       </c>
       <c r="X52" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>757.76</v>
       </c>
       <c r="Y52" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>1515.52</v>
       </c>
       <c r="Z52" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>3031.04</v>
       </c>
       <c r="AA52" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>6062.08</v>
       </c>
       <c r="AB52" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>12124.16</v>
       </c>
       <c r="AC52" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>24248.32</v>
       </c>
       <c r="AD52" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>48496.639999999999</v>
       </c>
       <c r="AE52" s="71">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>96993.279999999999</v>
       </c>
       <c r="AF52" s="29">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>193986.56</v>
       </c>
       <c r="AG52" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>387973.12</v>
       </c>
       <c r="AH52" s="30">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>403871.27999999997</v>
       </c>
       <c r="AI52" s="45"/>
@@ -38160,7 +38177,7 @@
         <v>2.5399999999999999E-2</v>
       </c>
       <c r="C53" s="10">
-        <f t="shared" ref="C53:C67" si="66">$B$6*B53</f>
+        <f t="shared" ref="C53:C67" si="67">$B$6*B53</f>
         <v>6931304.3999999994</v>
       </c>
       <c r="D53" s="23">
@@ -38173,103 +38190,103 @@
       <c r="H53" s="16"/>
       <c r="I53" s="16"/>
       <c r="J53" s="20">
-        <f t="shared" ref="J53:AH53" si="67">J$19*$D$53</f>
+        <f t="shared" ref="J53:AH53" si="68">J$19*$D$53</f>
         <v>0.90625</v>
       </c>
       <c r="K53" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1.8125</v>
       </c>
       <c r="L53" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>3.625</v>
       </c>
       <c r="M53" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>7.25</v>
       </c>
       <c r="N53" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>14.5</v>
       </c>
       <c r="O53" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>29</v>
       </c>
       <c r="P53" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>58</v>
       </c>
       <c r="Q53" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>116</v>
       </c>
       <c r="R53" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>232</v>
       </c>
       <c r="S53" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>464</v>
       </c>
       <c r="T53" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>928</v>
       </c>
       <c r="U53" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1856</v>
       </c>
       <c r="V53" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>3712</v>
       </c>
       <c r="W53" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>7424</v>
       </c>
       <c r="X53" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>14848</v>
       </c>
       <c r="Y53" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>29696</v>
       </c>
       <c r="Z53" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>59392</v>
       </c>
       <c r="AA53" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>118784</v>
       </c>
       <c r="AB53" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>237568</v>
       </c>
       <c r="AC53" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>475136</v>
       </c>
       <c r="AD53" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>950272</v>
       </c>
       <c r="AE53" s="72">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1900544</v>
       </c>
       <c r="AF53" s="20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>3801088</v>
       </c>
       <c r="AG53" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>7602176</v>
       </c>
       <c r="AH53" s="21">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>7913694</v>
       </c>
       <c r="AI53" s="45"/>
@@ -38287,103 +38304,103 @@
       <c r="H54" s="15"/>
       <c r="I54" s="10"/>
       <c r="J54" s="29">
-        <f t="shared" ref="J54:AH54" si="68">J$19*$D$53*$E$54</f>
+        <f t="shared" ref="J54:AH54" si="69">J$19*$D$53*$E$54</f>
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="K54" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.14499999999999999</v>
       </c>
       <c r="L54" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="M54" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="N54" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1.1599999999999999</v>
       </c>
       <c r="O54" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>2.3199999999999998</v>
       </c>
       <c r="P54" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>4.6399999999999997</v>
       </c>
       <c r="Q54" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>9.2799999999999994</v>
       </c>
       <c r="R54" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>18.559999999999999</v>
       </c>
       <c r="S54" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>37.119999999999997</v>
       </c>
       <c r="T54" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>74.239999999999995</v>
       </c>
       <c r="U54" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>148.47999999999999</v>
       </c>
       <c r="V54" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>296.95999999999998</v>
       </c>
       <c r="W54" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>593.91999999999996</v>
       </c>
       <c r="X54" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1187.8399999999999</v>
       </c>
       <c r="Y54" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>2375.6799999999998</v>
       </c>
       <c r="Z54" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>4751.3599999999997</v>
       </c>
       <c r="AA54" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>9502.7199999999993</v>
       </c>
       <c r="AB54" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>19005.439999999999</v>
       </c>
       <c r="AC54" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>38010.879999999997</v>
       </c>
       <c r="AD54" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>76021.759999999995</v>
       </c>
       <c r="AE54" s="71">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>152043.51999999999</v>
       </c>
       <c r="AF54" s="29">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>304087.03999999998</v>
       </c>
       <c r="AG54" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>608174.07999999996</v>
       </c>
       <c r="AH54" s="30">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>633095.52</v>
       </c>
       <c r="AI54" s="45"/>
@@ -38397,7 +38414,7 @@
         <v>6.2300000000000001E-2</v>
       </c>
       <c r="C55" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>17000797.800000001</v>
       </c>
       <c r="D55" s="23">
@@ -38410,103 +38427,103 @@
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
       <c r="J55" s="20">
-        <f t="shared" ref="J55:AH55" si="69">J$19*$D$55</f>
+        <f t="shared" ref="J55:AH55" si="70">J$19*$D$55</f>
         <v>3.78125</v>
       </c>
       <c r="K55" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>7.5625</v>
       </c>
       <c r="L55" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>15.125</v>
       </c>
       <c r="M55" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>30.25</v>
       </c>
       <c r="N55" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>60.5</v>
       </c>
       <c r="O55" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>121</v>
       </c>
       <c r="P55" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>242</v>
       </c>
       <c r="Q55" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>484</v>
       </c>
       <c r="R55" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>968</v>
       </c>
       <c r="S55" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>1936</v>
       </c>
       <c r="T55" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>3872</v>
       </c>
       <c r="U55" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>7744</v>
       </c>
       <c r="V55" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>15488</v>
       </c>
       <c r="W55" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>30976</v>
       </c>
       <c r="X55" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>61952</v>
       </c>
       <c r="Y55" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>123904</v>
       </c>
       <c r="Z55" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>247808</v>
       </c>
       <c r="AA55" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>495616</v>
       </c>
       <c r="AB55" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>991232</v>
       </c>
       <c r="AC55" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>1982464</v>
       </c>
       <c r="AD55" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>3964928</v>
       </c>
       <c r="AE55" s="72">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>7929856</v>
       </c>
       <c r="AF55" s="20">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>15859712</v>
       </c>
       <c r="AG55" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>31719424</v>
       </c>
       <c r="AH55" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>33019206</v>
       </c>
       <c r="AI55" s="45"/>
@@ -38524,103 +38541,103 @@
       <c r="H56" s="15"/>
       <c r="I56" s="10"/>
       <c r="J56" s="29">
-        <f t="shared" ref="J56:AH56" si="70">J$19*$D$55*$E$56</f>
+        <f t="shared" ref="J56:AH56" si="71">J$19*$D$55*$E$56</f>
         <v>0.136125</v>
       </c>
       <c r="K56" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.27224999999999999</v>
       </c>
       <c r="L56" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.54449999999999998</v>
       </c>
       <c r="M56" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>1.089</v>
       </c>
       <c r="N56" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>2.1779999999999999</v>
       </c>
       <c r="O56" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>4.3559999999999999</v>
       </c>
       <c r="P56" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>8.7119999999999997</v>
       </c>
       <c r="Q56" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>17.423999999999999</v>
       </c>
       <c r="R56" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>34.847999999999999</v>
       </c>
       <c r="S56" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>69.695999999999998</v>
       </c>
       <c r="T56" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>139.392</v>
       </c>
       <c r="U56" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>278.78399999999999</v>
       </c>
       <c r="V56" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>557.56799999999998</v>
       </c>
       <c r="W56" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>1115.136</v>
       </c>
       <c r="X56" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>2230.2719999999999</v>
       </c>
       <c r="Y56" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>4460.5439999999999</v>
       </c>
       <c r="Z56" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>8921.0879999999997</v>
       </c>
       <c r="AA56" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>17842.175999999999</v>
       </c>
       <c r="AB56" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>35684.351999999999</v>
       </c>
       <c r="AC56" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>71368.703999999998</v>
       </c>
       <c r="AD56" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>142737.408</v>
       </c>
       <c r="AE56" s="71">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>285474.81599999999</v>
       </c>
       <c r="AF56" s="29">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>570949.63199999998</v>
       </c>
       <c r="AG56" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>1141899.264</v>
       </c>
       <c r="AH56" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>1188691.416</v>
       </c>
       <c r="AI56" s="45"/>
@@ -38634,7 +38651,7 @@
         <v>0.105</v>
       </c>
       <c r="C57" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>28653030</v>
       </c>
       <c r="D57" s="23">
@@ -38647,103 +38664,103 @@
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
       <c r="J57" s="20">
-        <f t="shared" ref="J57:AH57" si="71">J$19*$D$57</f>
+        <f t="shared" ref="J57:AH57" si="72">J$19*$D$57</f>
         <v>4.96875</v>
       </c>
       <c r="K57" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>9.9375</v>
       </c>
       <c r="L57" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>19.875</v>
       </c>
       <c r="M57" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>39.75</v>
       </c>
       <c r="N57" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>79.5</v>
       </c>
       <c r="O57" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>159</v>
       </c>
       <c r="P57" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>318</v>
       </c>
       <c r="Q57" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>636</v>
       </c>
       <c r="R57" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1272</v>
       </c>
       <c r="S57" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>2544</v>
       </c>
       <c r="T57" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>5088</v>
       </c>
       <c r="U57" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>10176</v>
       </c>
       <c r="V57" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>20352</v>
       </c>
       <c r="W57" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>40704</v>
       </c>
       <c r="X57" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>81408</v>
       </c>
       <c r="Y57" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>162816</v>
       </c>
       <c r="Z57" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>325632</v>
       </c>
       <c r="AA57" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>651264</v>
       </c>
       <c r="AB57" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1302528</v>
       </c>
       <c r="AC57" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>2605056</v>
       </c>
       <c r="AD57" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>5210112</v>
       </c>
       <c r="AE57" s="72">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>10420224</v>
       </c>
       <c r="AF57" s="20">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>20840448</v>
       </c>
       <c r="AG57" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>41680896</v>
       </c>
       <c r="AH57" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>43388874</v>
       </c>
       <c r="AI57" s="45"/>
@@ -38761,103 +38778,103 @@
       <c r="H58" s="15"/>
       <c r="I58" s="10"/>
       <c r="J58" s="29">
-        <f t="shared" ref="J58:AH58" si="72">J$19*$D$57*$E$58</f>
+        <f t="shared" ref="J58:AH58" si="73">J$19*$D$57*$E$58</f>
         <v>6.4593749999999991E-2</v>
       </c>
       <c r="K58" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.12918749999999998</v>
       </c>
       <c r="L58" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.25837499999999997</v>
       </c>
       <c r="M58" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.51674999999999993</v>
       </c>
       <c r="N58" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1.0334999999999999</v>
       </c>
       <c r="O58" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>2.0669999999999997</v>
       </c>
       <c r="P58" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>4.1339999999999995</v>
       </c>
       <c r="Q58" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>8.2679999999999989</v>
       </c>
       <c r="R58" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>16.535999999999998</v>
       </c>
       <c r="S58" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>33.071999999999996</v>
       </c>
       <c r="T58" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>66.143999999999991</v>
       </c>
       <c r="U58" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>132.28799999999998</v>
       </c>
       <c r="V58" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>264.57599999999996</v>
       </c>
       <c r="W58" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>529.15199999999993</v>
       </c>
       <c r="X58" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1058.3039999999999</v>
       </c>
       <c r="Y58" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>2116.6079999999997</v>
       </c>
       <c r="Z58" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>4233.2159999999994</v>
       </c>
       <c r="AA58" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>8466.4319999999989</v>
       </c>
       <c r="AB58" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>16932.863999999998</v>
       </c>
       <c r="AC58" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>33865.727999999996</v>
       </c>
       <c r="AD58" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>67731.455999999991</v>
       </c>
       <c r="AE58" s="71">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>135462.91199999998</v>
       </c>
       <c r="AF58" s="29">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>270925.82399999996</v>
       </c>
       <c r="AG58" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>541851.64799999993</v>
       </c>
       <c r="AH58" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>564055.36199999996</v>
       </c>
       <c r="AI58" s="45"/>
@@ -38871,7 +38888,7 @@
         <v>0.13589999999999999</v>
       </c>
       <c r="C59" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>37085207.399999999</v>
       </c>
       <c r="D59" s="23">
@@ -38884,103 +38901,103 @@
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
       <c r="J59" s="20">
-        <f t="shared" ref="J59:AH59" si="73">J$19*$D$59</f>
+        <f t="shared" ref="J59:AH59" si="74">J$19*$D$59</f>
         <v>5.34375</v>
       </c>
       <c r="K59" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>10.6875</v>
       </c>
       <c r="L59" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>21.375</v>
       </c>
       <c r="M59" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>42.75</v>
       </c>
       <c r="N59" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>85.5</v>
       </c>
       <c r="O59" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>171</v>
       </c>
       <c r="P59" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>342</v>
       </c>
       <c r="Q59" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>684</v>
       </c>
       <c r="R59" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1368</v>
       </c>
       <c r="S59" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>2736</v>
       </c>
       <c r="T59" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>5472</v>
       </c>
       <c r="U59" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>10944</v>
       </c>
       <c r="V59" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>21888</v>
       </c>
       <c r="W59" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>43776</v>
       </c>
       <c r="X59" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>87552</v>
       </c>
       <c r="Y59" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>175104</v>
       </c>
       <c r="Z59" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>350208</v>
       </c>
       <c r="AA59" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>700416</v>
       </c>
       <c r="AB59" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1400832</v>
       </c>
       <c r="AC59" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>2801664</v>
       </c>
       <c r="AD59" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>5603328</v>
       </c>
       <c r="AE59" s="72">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>11206656</v>
       </c>
       <c r="AF59" s="20">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>22413312</v>
       </c>
       <c r="AG59" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>44826624</v>
       </c>
       <c r="AH59" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>46663506</v>
       </c>
       <c r="AI59" s="45"/>
@@ -38998,103 +39015,103 @@
       <c r="H60" s="15"/>
       <c r="I60" s="10"/>
       <c r="J60" s="29">
-        <f t="shared" ref="J60:AH60" si="74">J$19*$D$59*$E$60</f>
+        <f t="shared" ref="J60:AH60" si="75">J$19*$D$59*$E$60</f>
         <v>2.1375000000000002E-2</v>
       </c>
       <c r="K60" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4.2750000000000003E-2</v>
       </c>
       <c r="L60" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>8.5500000000000007E-2</v>
       </c>
       <c r="M60" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.17100000000000001</v>
       </c>
       <c r="N60" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.34200000000000003</v>
       </c>
       <c r="O60" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.68400000000000005</v>
       </c>
       <c r="P60" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1.3680000000000001</v>
       </c>
       <c r="Q60" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>2.7360000000000002</v>
       </c>
       <c r="R60" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>5.4720000000000004</v>
       </c>
       <c r="S60" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>10.944000000000001</v>
       </c>
       <c r="T60" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>21.888000000000002</v>
       </c>
       <c r="U60" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>43.776000000000003</v>
       </c>
       <c r="V60" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>87.552000000000007</v>
       </c>
       <c r="W60" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>175.10400000000001</v>
       </c>
       <c r="X60" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>350.20800000000003</v>
       </c>
       <c r="Y60" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>700.41600000000005</v>
       </c>
       <c r="Z60" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1400.8320000000001</v>
       </c>
       <c r="AA60" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>2801.6640000000002</v>
       </c>
       <c r="AB60" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>5603.3280000000004</v>
       </c>
       <c r="AC60" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>11206.656000000001</v>
       </c>
       <c r="AD60" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>22413.312000000002</v>
       </c>
       <c r="AE60" s="71">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>44826.624000000003</v>
       </c>
       <c r="AF60" s="29">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>89653.248000000007</v>
       </c>
       <c r="AG60" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>179306.49600000001</v>
       </c>
       <c r="AH60" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>186654.024</v>
       </c>
       <c r="AI60" s="45"/>
@@ -39108,7 +39125,7 @@
         <v>0.15310000000000001</v>
       </c>
       <c r="C61" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>41778846.600000001</v>
       </c>
       <c r="D61" s="23">
@@ -39121,103 +39138,103 @@
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
       <c r="J61" s="20">
-        <f t="shared" ref="J61:AH61" si="75">J$19*$D$61</f>
+        <f t="shared" ref="J61:AH61" si="76">J$19*$D$61</f>
         <v>6.84375</v>
       </c>
       <c r="K61" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>13.6875</v>
       </c>
       <c r="L61" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>27.375</v>
       </c>
       <c r="M61" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>54.75</v>
       </c>
       <c r="N61" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>109.5</v>
       </c>
       <c r="O61" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>219</v>
       </c>
       <c r="P61" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>438</v>
       </c>
       <c r="Q61" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>876</v>
       </c>
       <c r="R61" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1752</v>
       </c>
       <c r="S61" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>3504</v>
       </c>
       <c r="T61" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>7008</v>
       </c>
       <c r="U61" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>14016</v>
       </c>
       <c r="V61" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>28032</v>
       </c>
       <c r="W61" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>56064</v>
       </c>
       <c r="X61" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>112128</v>
       </c>
       <c r="Y61" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>224256</v>
       </c>
       <c r="Z61" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>448512</v>
       </c>
       <c r="AA61" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>897024</v>
       </c>
       <c r="AB61" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1794048</v>
       </c>
       <c r="AC61" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>3588096</v>
       </c>
       <c r="AD61" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>7176192</v>
       </c>
       <c r="AE61" s="72">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>14352384</v>
       </c>
       <c r="AF61" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>28704768</v>
       </c>
       <c r="AG61" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>57409536</v>
       </c>
       <c r="AH61" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>59762034</v>
       </c>
       <c r="AI61" s="45"/>
@@ -39235,103 +39252,103 @@
       <c r="H62" s="15"/>
       <c r="I62" s="10"/>
       <c r="J62" s="29">
-        <f t="shared" ref="J62:AH62" si="76">J$19*$D$61*$E$62</f>
+        <f t="shared" ref="J62:AH62" si="77">J$19*$D$61*$E$62</f>
         <v>1.36875E-2</v>
       </c>
       <c r="K62" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>2.7375E-2</v>
       </c>
       <c r="L62" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>5.475E-2</v>
       </c>
       <c r="M62" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.1095</v>
       </c>
       <c r="N62" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.219</v>
       </c>
       <c r="O62" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.438</v>
       </c>
       <c r="P62" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.876</v>
       </c>
       <c r="Q62" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1.752</v>
       </c>
       <c r="R62" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>3.504</v>
       </c>
       <c r="S62" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>7.008</v>
       </c>
       <c r="T62" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>14.016</v>
       </c>
       <c r="U62" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>28.032</v>
       </c>
       <c r="V62" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>56.064</v>
       </c>
       <c r="W62" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>112.128</v>
       </c>
       <c r="X62" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>224.256</v>
       </c>
       <c r="Y62" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>448.512</v>
       </c>
       <c r="Z62" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>897.024</v>
       </c>
       <c r="AA62" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1794.048</v>
       </c>
       <c r="AB62" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>3588.096</v>
       </c>
       <c r="AC62" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>7176.192</v>
       </c>
       <c r="AD62" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>14352.384</v>
       </c>
       <c r="AE62" s="71">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>28704.768</v>
       </c>
       <c r="AF62" s="29">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>57409.536</v>
       </c>
       <c r="AG62" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>114819.072</v>
       </c>
       <c r="AH62" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>119524.068</v>
       </c>
       <c r="AI62" s="45"/>
@@ -39345,7 +39362,7 @@
         <v>0.1608</v>
       </c>
       <c r="C63" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>43880068.799999997</v>
       </c>
       <c r="D63" s="23">
@@ -39358,103 +39375,103 @@
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
       <c r="J63" s="20">
-        <f t="shared" ref="J63:AH63" si="77">J$19*$D$63</f>
+        <f t="shared" ref="J63:AH63" si="78">J$19*$D$63</f>
         <v>7.25</v>
       </c>
       <c r="K63" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>14.5</v>
       </c>
       <c r="L63" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>29</v>
       </c>
       <c r="M63" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>58</v>
       </c>
       <c r="N63" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>116</v>
       </c>
       <c r="O63" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>232</v>
       </c>
       <c r="P63" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>464</v>
       </c>
       <c r="Q63" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>928</v>
       </c>
       <c r="R63" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>1856</v>
       </c>
       <c r="S63" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>3712</v>
       </c>
       <c r="T63" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>7424</v>
       </c>
       <c r="U63" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>14848</v>
       </c>
       <c r="V63" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>29696</v>
       </c>
       <c r="W63" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>59392</v>
       </c>
       <c r="X63" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>118784</v>
       </c>
       <c r="Y63" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>237568</v>
       </c>
       <c r="Z63" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>475136</v>
       </c>
       <c r="AA63" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>950272</v>
       </c>
       <c r="AB63" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>1900544</v>
       </c>
       <c r="AC63" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>3801088</v>
       </c>
       <c r="AD63" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>7602176</v>
       </c>
       <c r="AE63" s="72">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>15204352</v>
       </c>
       <c r="AF63" s="20">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>30408704</v>
       </c>
       <c r="AG63" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>60817408</v>
       </c>
       <c r="AH63" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>63309552</v>
       </c>
       <c r="AI63" s="45"/>
@@ -39472,103 +39489,103 @@
       <c r="H64" s="15"/>
       <c r="I64" s="10"/>
       <c r="J64" s="29">
-        <f t="shared" ref="J64:AH64" si="78">J$19*$D$63*$E$64</f>
+        <f t="shared" ref="J64:AH64" si="79">J$19*$D$63*$E$64</f>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="K64" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="L64" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="M64" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.11600000000000001</v>
       </c>
       <c r="N64" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.23200000000000001</v>
       </c>
       <c r="O64" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.46400000000000002</v>
       </c>
       <c r="P64" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.92800000000000005</v>
       </c>
       <c r="Q64" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>1.8560000000000001</v>
       </c>
       <c r="R64" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>3.7120000000000002</v>
       </c>
       <c r="S64" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>7.4240000000000004</v>
       </c>
       <c r="T64" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>14.848000000000001</v>
       </c>
       <c r="U64" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>29.696000000000002</v>
       </c>
       <c r="V64" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>59.392000000000003</v>
       </c>
       <c r="W64" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>118.78400000000001</v>
       </c>
       <c r="X64" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>237.56800000000001</v>
       </c>
       <c r="Y64" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>475.13600000000002</v>
       </c>
       <c r="Z64" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>950.27200000000005</v>
       </c>
       <c r="AA64" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>1900.5440000000001</v>
       </c>
       <c r="AB64" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>3801.0880000000002</v>
       </c>
       <c r="AC64" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>7602.1760000000004</v>
       </c>
       <c r="AD64" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>15204.352000000001</v>
       </c>
       <c r="AE64" s="71">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>30408.704000000002</v>
       </c>
       <c r="AF64" s="29">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>60817.408000000003</v>
       </c>
       <c r="AG64" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>121634.81600000001</v>
       </c>
       <c r="AH64" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>126619.10400000001</v>
       </c>
       <c r="AI64" s="45"/>
@@ -39582,7 +39599,7 @@
         <v>0.1729</v>
       </c>
       <c r="C65" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>47181989.399999999</v>
       </c>
       <c r="D65" s="23">
@@ -39595,103 +39612,103 @@
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
       <c r="J65" s="20">
-        <f t="shared" ref="J65:AH65" si="79">J$19*$D$65</f>
+        <f t="shared" ref="J65:AH65" si="80">J$19*$D$65</f>
         <v>1.1875</v>
       </c>
       <c r="K65" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>2.375</v>
       </c>
       <c r="L65" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>4.75</v>
       </c>
       <c r="M65" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>9.5</v>
       </c>
       <c r="N65" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>19</v>
       </c>
       <c r="O65" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>38</v>
       </c>
       <c r="P65" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>76</v>
       </c>
       <c r="Q65" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>152</v>
       </c>
       <c r="R65" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>304</v>
       </c>
       <c r="S65" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>608</v>
       </c>
       <c r="T65" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>1216</v>
       </c>
       <c r="U65" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>2432</v>
       </c>
       <c r="V65" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>4864</v>
       </c>
       <c r="W65" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>9728</v>
       </c>
       <c r="X65" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>19456</v>
       </c>
       <c r="Y65" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>38912</v>
       </c>
       <c r="Z65" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>77824</v>
       </c>
       <c r="AA65" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>155648</v>
       </c>
       <c r="AB65" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>311296</v>
       </c>
       <c r="AC65" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>622592</v>
       </c>
       <c r="AD65" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>1245184</v>
       </c>
       <c r="AE65" s="72">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>2490368</v>
       </c>
       <c r="AF65" s="20">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>4980736</v>
       </c>
       <c r="AG65" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>9961472</v>
       </c>
       <c r="AH65" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>10369668</v>
       </c>
       <c r="AI65" s="45"/>
@@ -39709,103 +39726,103 @@
       <c r="H66" s="15"/>
       <c r="I66" s="10"/>
       <c r="J66" s="29">
-        <f t="shared" ref="J66:AH66" si="80">J$19*$D$65*$E$66</f>
+        <f t="shared" ref="J66:AH66" si="81">J$19*$D$65*$E$66</f>
         <v>2.3749999999999999E-3</v>
       </c>
       <c r="K66" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>4.7499999999999999E-3</v>
       </c>
       <c r="L66" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="M66" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>1.9E-2</v>
       </c>
       <c r="N66" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="O66" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="P66" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.152</v>
       </c>
       <c r="Q66" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.30399999999999999</v>
       </c>
       <c r="R66" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>0.60799999999999998</v>
       </c>
       <c r="S66" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>1.216</v>
       </c>
       <c r="T66" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>2.4319999999999999</v>
       </c>
       <c r="U66" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>4.8639999999999999</v>
       </c>
       <c r="V66" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>9.7279999999999998</v>
       </c>
       <c r="W66" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>19.456</v>
       </c>
       <c r="X66" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>38.911999999999999</v>
       </c>
       <c r="Y66" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>77.823999999999998</v>
       </c>
       <c r="Z66" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>155.648</v>
       </c>
       <c r="AA66" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>311.29599999999999</v>
       </c>
       <c r="AB66" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>622.59199999999998</v>
       </c>
       <c r="AC66" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>1245.184</v>
       </c>
       <c r="AD66" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>2490.3679999999999</v>
       </c>
       <c r="AE66" s="71">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>4980.7359999999999</v>
       </c>
       <c r="AF66" s="29">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>9961.4719999999998</v>
       </c>
       <c r="AG66" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>19922.944</v>
       </c>
       <c r="AH66" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>20739.335999999999</v>
       </c>
       <c r="AI66" s="45"/>
@@ -39819,7 +39836,7 @@
         <v>0.1774</v>
       </c>
       <c r="C67" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>48409976.399999999</v>
       </c>
       <c r="D67" s="23">
@@ -39832,103 +39849,103 @@
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
       <c r="J67" s="20">
-        <f t="shared" ref="J67:AH67" si="81">J$19*$D$67</f>
+        <f t="shared" ref="J67:AH67" si="82">J$19*$D$67</f>
         <v>0.65625</v>
       </c>
       <c r="K67" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1.3125</v>
       </c>
       <c r="L67" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>2.625</v>
       </c>
       <c r="M67" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>5.25</v>
       </c>
       <c r="N67" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>10.5</v>
       </c>
       <c r="O67" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>21</v>
       </c>
       <c r="P67" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>42</v>
       </c>
       <c r="Q67" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>84</v>
       </c>
       <c r="R67" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>168</v>
       </c>
       <c r="S67" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>336</v>
       </c>
       <c r="T67" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>672</v>
       </c>
       <c r="U67" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1344</v>
       </c>
       <c r="V67" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>2688</v>
       </c>
       <c r="W67" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>5376</v>
       </c>
       <c r="X67" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>10752</v>
       </c>
       <c r="Y67" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>21504</v>
       </c>
       <c r="Z67" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>43008</v>
       </c>
       <c r="AA67" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>86016</v>
       </c>
       <c r="AB67" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>172032</v>
       </c>
       <c r="AC67" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>344064</v>
       </c>
       <c r="AD67" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>688128</v>
       </c>
       <c r="AE67" s="72">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1376256</v>
       </c>
       <c r="AF67" s="20">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>2752512</v>
       </c>
       <c r="AG67" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>5505024</v>
       </c>
       <c r="AH67" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>5730606</v>
       </c>
       <c r="AI67" s="45"/>
@@ -39946,103 +39963,103 @@
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
       <c r="J68" s="31">
-        <f t="shared" ref="J68:AH68" si="82">J$19*$D$67*$E$68</f>
+        <f t="shared" ref="J68:AH68" si="83">J$19*$D$67*$E$68</f>
         <v>0</v>
       </c>
       <c r="K68" s="32">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="L68" s="32">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="M68" s="32">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="N68" s="32">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="O68" s="32">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="P68" s="32">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="Q68" s="32">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="R68" s="32">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="S68" s="32">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="T68" s="32">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="U68" s="32">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="V68" s="32">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="W68" s="32">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="X68" s="32">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="Y68" s="32">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="Z68" s="32">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="AA68" s="32">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="AB68" s="32">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="AC68" s="32">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="AD68" s="32">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="AE68" s="73">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="AF68" s="29">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="AG68" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="AH68" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="AI68" s="45"/>
@@ -40060,23 +40077,23 @@
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
       <c r="J69" s="18">
-        <f t="shared" ref="J69:Z69" si="83">SUM(J51,J53,J55,J57,J59,J61,J63,J65,J67)</f>
+        <f t="shared" ref="J69:Z69" si="84">SUM(J51,J53,J55,J57,J59,J61,J63,J65,J67)</f>
         <v>31.25</v>
       </c>
       <c r="K69" s="19">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>62.5</v>
       </c>
       <c r="L69" s="19">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>125</v>
       </c>
       <c r="M69" s="19">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>250</v>
       </c>
       <c r="N69" s="19">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>500</v>
       </c>
       <c r="O69" s="19">
@@ -40084,79 +40101,79 @@
         <v>1000</v>
       </c>
       <c r="P69" s="19">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>2000</v>
       </c>
       <c r="Q69" s="19">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>4000</v>
       </c>
       <c r="R69" s="19">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>8000</v>
       </c>
       <c r="S69" s="19">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>16000</v>
       </c>
       <c r="T69" s="19">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>32000</v>
       </c>
       <c r="U69" s="19">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>64000</v>
       </c>
       <c r="V69" s="19">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>128000</v>
       </c>
       <c r="W69" s="19">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>256000</v>
       </c>
       <c r="X69" s="19">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>512000</v>
       </c>
       <c r="Y69" s="19">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>1024000</v>
       </c>
       <c r="Z69" s="19">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>2048000</v>
       </c>
       <c r="AA69" s="19">
-        <f t="shared" ref="AA69:AC70" si="84">SUM(AA51,AA53,AA55,AA57,AA59,AA61,AA63,AA65,AA67)</f>
+        <f t="shared" ref="AA69:AC70" si="85">SUM(AA51,AA53,AA55,AA57,AA59,AA61,AA63,AA65,AA67)</f>
         <v>4096000</v>
       </c>
       <c r="AB69" s="19">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>8192000</v>
       </c>
       <c r="AC69" s="19">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>16384000</v>
       </c>
       <c r="AD69" s="19">
-        <f t="shared" ref="AD69:AH69" si="85">SUM(AD51,AD53,AD55,AD57,AD59,AD61,AD63,AD65,AD67)</f>
+        <f t="shared" ref="AD69:AH69" si="86">SUM(AD51,AD53,AD55,AD57,AD59,AD61,AD63,AD65,AD67)</f>
         <v>32768000</v>
       </c>
       <c r="AE69" s="19">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>65536000</v>
       </c>
       <c r="AF69" s="18">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>131072000</v>
       </c>
       <c r="AG69" s="19">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>262144000</v>
       </c>
       <c r="AH69" s="19">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>272886000</v>
       </c>
       <c r="AI69" s="45"/>
@@ -40182,95 +40199,95 @@
         <v>0.74281249999999999</v>
       </c>
       <c r="L70" s="32">
-        <f t="shared" ref="L70:Z70" si="86">SUM(L52,L54,L56,L58,L60,L62,L64,L66,L68)</f>
+        <f t="shared" ref="L70:Z70" si="87">SUM(L52,L54,L56,L58,L60,L62,L64,L66,L68)</f>
         <v>1.485625</v>
       </c>
       <c r="M70" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>2.9712499999999999</v>
       </c>
       <c r="N70" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>5.9424999999999999</v>
       </c>
       <c r="O70" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>11.885</v>
       </c>
       <c r="P70" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>23.77</v>
       </c>
       <c r="Q70" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>47.54</v>
       </c>
       <c r="R70" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>95.08</v>
       </c>
       <c r="S70" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>190.16</v>
       </c>
       <c r="T70" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>380.32</v>
       </c>
       <c r="U70" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>760.64</v>
       </c>
       <c r="V70" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>1521.28</v>
       </c>
       <c r="W70" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>3042.56</v>
       </c>
       <c r="X70" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>6085.12</v>
       </c>
       <c r="Y70" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>12170.24</v>
       </c>
       <c r="Z70" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>24340.48</v>
       </c>
       <c r="AA70" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>48680.959999999999</v>
       </c>
       <c r="AB70" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>97361.919999999998</v>
       </c>
       <c r="AC70" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>194723.84</v>
       </c>
       <c r="AD70" s="32">
-        <f t="shared" ref="AD70:AH70" si="87">SUM(AD52,AD54,AD56,AD58,AD60,AD62,AD64,AD66,AD68)</f>
+        <f t="shared" ref="AD70:AH70" si="88">SUM(AD52,AD54,AD56,AD58,AD60,AD62,AD64,AD66,AD68)</f>
         <v>389447.67999999999</v>
       </c>
       <c r="AE70" s="32">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>778895.35999999999</v>
       </c>
       <c r="AF70" s="31">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>1557790.72</v>
       </c>
       <c r="AG70" s="32">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>3115581.4399999999</v>
       </c>
       <c r="AH70" s="32">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>3243250.11</v>
       </c>
       <c r="AI70" s="45"/>
@@ -40396,103 +40413,103 @@
       <c r="H74" s="16"/>
       <c r="I74" s="16"/>
       <c r="J74" s="18">
-        <f t="shared" ref="J74:AH74" si="88">J$19*$B$74</f>
+        <f t="shared" ref="J74:AH74" si="89">J$19*$B$74</f>
         <v>9.125</v>
       </c>
       <c r="K74" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>18.25</v>
       </c>
       <c r="L74" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>36.5</v>
       </c>
       <c r="M74" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>73</v>
       </c>
       <c r="N74" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>146</v>
       </c>
       <c r="O74" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>292</v>
       </c>
       <c r="P74" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>584</v>
       </c>
       <c r="Q74" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>1168</v>
       </c>
       <c r="R74" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>2336</v>
       </c>
       <c r="S74" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>4672</v>
       </c>
       <c r="T74" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>9344</v>
       </c>
       <c r="U74" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>18688</v>
       </c>
       <c r="V74" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>37376</v>
       </c>
       <c r="W74" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>74752</v>
       </c>
       <c r="X74" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>149504</v>
       </c>
       <c r="Y74" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>299008</v>
       </c>
       <c r="Z74" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>598016</v>
       </c>
       <c r="AA74" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>1196032</v>
       </c>
       <c r="AB74" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>2392064</v>
       </c>
       <c r="AC74" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>4784128</v>
       </c>
       <c r="AD74" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>9568256</v>
       </c>
       <c r="AE74" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>19136512</v>
       </c>
       <c r="AF74" s="18">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>38273024</v>
       </c>
       <c r="AG74" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>76546048</v>
       </c>
       <c r="AH74" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>79682712</v>
       </c>
       <c r="AI74" s="45"/>
@@ -40514,67 +40531,67 @@
         <v>0.958125</v>
       </c>
       <c r="K75" s="30">
-        <f t="shared" ref="K75:Z75" si="89">K74*$E$75</f>
+        <f t="shared" ref="K75:Z75" si="90">K74*$E$75</f>
         <v>1.91625</v>
       </c>
       <c r="L75" s="30">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>3.8325</v>
       </c>
       <c r="M75" s="30">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>7.665</v>
       </c>
       <c r="N75" s="30">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>15.33</v>
       </c>
       <c r="O75" s="30">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>30.66</v>
       </c>
       <c r="P75" s="30">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>61.32</v>
       </c>
       <c r="Q75" s="30">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>122.64</v>
       </c>
       <c r="R75" s="30">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>245.28</v>
       </c>
       <c r="S75" s="30">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>490.56</v>
       </c>
       <c r="T75" s="30">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>981.12</v>
       </c>
       <c r="U75" s="30">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>1962.24</v>
       </c>
       <c r="V75" s="30">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>3924.48</v>
       </c>
       <c r="W75" s="30">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>7848.96</v>
       </c>
       <c r="X75" s="30">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>15697.92</v>
       </c>
       <c r="Y75" s="30">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>31395.84</v>
       </c>
       <c r="Z75" s="30">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>62791.68</v>
       </c>
       <c r="AA75" s="30">
@@ -40590,23 +40607,23 @@
         <v>502333.44</v>
       </c>
       <c r="AD75" s="30">
-        <f t="shared" ref="AD75:AH75" si="90">AD74*$E$75</f>
+        <f t="shared" ref="AD75:AH75" si="91">AD74*$E$75</f>
         <v>1004666.88</v>
       </c>
       <c r="AE75" s="30">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>2009333.76</v>
       </c>
       <c r="AF75" s="29">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>4018667.52</v>
       </c>
       <c r="AG75" s="30">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>8037335.04</v>
       </c>
       <c r="AH75" s="30">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>8366684.7599999998</v>
       </c>
       <c r="AI75" s="45"/>
@@ -40629,103 +40646,103 @@
       <c r="H76" s="16"/>
       <c r="I76" s="16"/>
       <c r="J76" s="20">
-        <f t="shared" ref="J76:AH76" si="91">J$19*$B$76</f>
+        <f t="shared" ref="J76:AH76" si="92">J$19*$B$76</f>
         <v>2.1875</v>
       </c>
       <c r="K76" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>4.375</v>
       </c>
       <c r="L76" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>8.75</v>
       </c>
       <c r="M76" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>17.5</v>
       </c>
       <c r="N76" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>35</v>
       </c>
       <c r="O76" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>70</v>
       </c>
       <c r="P76" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>140</v>
       </c>
       <c r="Q76" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>280</v>
       </c>
       <c r="R76" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>560</v>
       </c>
       <c r="S76" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1120</v>
       </c>
       <c r="T76" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>2240</v>
       </c>
       <c r="U76" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>4480</v>
       </c>
       <c r="V76" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>8960</v>
       </c>
       <c r="W76" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>17920</v>
       </c>
       <c r="X76" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>35840</v>
       </c>
       <c r="Y76" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>71680</v>
       </c>
       <c r="Z76" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>143360</v>
       </c>
       <c r="AA76" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>286720</v>
       </c>
       <c r="AB76" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>573440</v>
       </c>
       <c r="AC76" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1146880</v>
       </c>
       <c r="AD76" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>2293760</v>
       </c>
       <c r="AE76" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>4587520</v>
       </c>
       <c r="AF76" s="20">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>9175040</v>
       </c>
       <c r="AG76" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>18350080</v>
       </c>
       <c r="AH76" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>19102020</v>
       </c>
       <c r="AI76" s="45"/>
@@ -40743,71 +40760,71 @@
       <c r="H77" s="16"/>
       <c r="I77" s="16"/>
       <c r="J77" s="29">
-        <f t="shared" ref="J77:Z77" si="92">J76*$E$77</f>
+        <f t="shared" ref="J77:Z77" si="93">J76*$E$77</f>
         <v>0.15968749999999998</v>
       </c>
       <c r="K77" s="30">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.31937499999999996</v>
       </c>
       <c r="L77" s="30">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.63874999999999993</v>
       </c>
       <c r="M77" s="30">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1.2774999999999999</v>
       </c>
       <c r="N77" s="30">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2.5549999999999997</v>
       </c>
       <c r="O77" s="30">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>5.1099999999999994</v>
       </c>
       <c r="P77" s="30">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>10.219999999999999</v>
       </c>
       <c r="Q77" s="30">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>20.439999999999998</v>
       </c>
       <c r="R77" s="30">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>40.879999999999995</v>
       </c>
       <c r="S77" s="30">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>81.759999999999991</v>
       </c>
       <c r="T77" s="30">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>163.51999999999998</v>
       </c>
       <c r="U77" s="30">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>327.03999999999996</v>
       </c>
       <c r="V77" s="30">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>654.07999999999993</v>
       </c>
       <c r="W77" s="30">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1308.1599999999999</v>
       </c>
       <c r="X77" s="30">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2616.3199999999997</v>
       </c>
       <c r="Y77" s="30">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>5232.6399999999994</v>
       </c>
       <c r="Z77" s="30">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>10465.279999999999</v>
       </c>
       <c r="AA77" s="30">
@@ -40823,23 +40840,23 @@
         <v>83722.239999999991</v>
       </c>
       <c r="AD77" s="30">
-        <f t="shared" ref="AD77:AH77" si="93">AD76*$E$77</f>
+        <f t="shared" ref="AD77:AH77" si="94">AD76*$E$77</f>
         <v>167444.47999999998</v>
       </c>
       <c r="AE77" s="30">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>334888.95999999996</v>
       </c>
       <c r="AF77" s="29">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>669777.91999999993</v>
       </c>
       <c r="AG77" s="30">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1339555.8399999999</v>
       </c>
       <c r="AH77" s="30">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1394447.46</v>
       </c>
       <c r="AI77" s="45"/>
@@ -40862,103 +40879,103 @@
       <c r="H78" s="16"/>
       <c r="I78" s="16"/>
       <c r="J78" s="20">
-        <f t="shared" ref="J78:AH78" si="94">J$19*$B$78</f>
+        <f t="shared" ref="J78:AH78" si="95">J$19*$B$78</f>
         <v>6.25</v>
       </c>
       <c r="K78" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>12.5</v>
       </c>
       <c r="L78" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>25</v>
       </c>
       <c r="M78" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>50</v>
       </c>
       <c r="N78" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>100</v>
       </c>
       <c r="O78" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>200</v>
       </c>
       <c r="P78" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>400</v>
       </c>
       <c r="Q78" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>800</v>
       </c>
       <c r="R78" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>1600</v>
       </c>
       <c r="S78" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>3200</v>
       </c>
       <c r="T78" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>6400</v>
       </c>
       <c r="U78" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>12800</v>
       </c>
       <c r="V78" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>25600</v>
       </c>
       <c r="W78" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>51200</v>
       </c>
       <c r="X78" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>102400</v>
       </c>
       <c r="Y78" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>204800</v>
       </c>
       <c r="Z78" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>409600</v>
       </c>
       <c r="AA78" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>819200</v>
       </c>
       <c r="AB78" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>1638400</v>
       </c>
       <c r="AC78" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>3276800</v>
       </c>
       <c r="AD78" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>6553600</v>
       </c>
       <c r="AE78" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>13107200</v>
       </c>
       <c r="AF78" s="20">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>26214400</v>
       </c>
       <c r="AG78" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>52428800</v>
       </c>
       <c r="AH78" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>54577200</v>
       </c>
       <c r="AI78" s="45"/>
@@ -40976,71 +40993,71 @@
       <c r="H79" s="16"/>
       <c r="I79" s="16"/>
       <c r="J79" s="29">
-        <f t="shared" ref="J79:Z79" si="95">J78*$E$79</f>
+        <f t="shared" ref="J79:Z79" si="96">J78*$E$79</f>
         <v>0.39374999999999999</v>
       </c>
       <c r="K79" s="30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0.78749999999999998</v>
       </c>
       <c r="L79" s="30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1.575</v>
       </c>
       <c r="M79" s="30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>3.15</v>
       </c>
       <c r="N79" s="30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>6.3</v>
       </c>
       <c r="O79" s="30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>12.6</v>
       </c>
       <c r="P79" s="30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>25.2</v>
       </c>
       <c r="Q79" s="30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>50.4</v>
       </c>
       <c r="R79" s="30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>100.8</v>
       </c>
       <c r="S79" s="30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>201.6</v>
       </c>
       <c r="T79" s="30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>403.2</v>
       </c>
       <c r="U79" s="30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>806.4</v>
       </c>
       <c r="V79" s="30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1612.8</v>
       </c>
       <c r="W79" s="30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>3225.6</v>
       </c>
       <c r="X79" s="30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>6451.2</v>
       </c>
       <c r="Y79" s="30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>12902.4</v>
       </c>
       <c r="Z79" s="30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>25804.799999999999</v>
       </c>
       <c r="AA79" s="30">
@@ -41056,11 +41073,11 @@
         <v>206438.39999999999</v>
       </c>
       <c r="AD79" s="30">
-        <f t="shared" ref="AD79:AH79" si="96">AD78*$E$79</f>
+        <f t="shared" ref="AD79:AH79" si="97">AD78*$E$79</f>
         <v>412876.79999999999</v>
       </c>
       <c r="AE79" s="30">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>825753.59999999998</v>
       </c>
       <c r="AF79" s="29">
@@ -41068,11 +41085,11 @@
         <v>1651507.2</v>
       </c>
       <c r="AG79" s="30">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>3303014.3999999999</v>
       </c>
       <c r="AH79" s="30">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>3438363.6</v>
       </c>
       <c r="AI79" s="45"/>
@@ -41095,103 +41112,103 @@
       <c r="H80" s="16"/>
       <c r="I80" s="16"/>
       <c r="J80" s="20">
-        <f t="shared" ref="J80:AH80" si="97">J$19*$B$80</f>
+        <f t="shared" ref="J80:AH80" si="98">J$19*$B$80</f>
         <v>10.4375</v>
       </c>
       <c r="K80" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>20.875</v>
       </c>
       <c r="L80" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>41.75</v>
       </c>
       <c r="M80" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>83.5</v>
       </c>
       <c r="N80" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>167</v>
       </c>
       <c r="O80" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>334</v>
       </c>
       <c r="P80" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>668</v>
       </c>
       <c r="Q80" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1336</v>
       </c>
       <c r="R80" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>2672</v>
       </c>
       <c r="S80" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>5344</v>
       </c>
       <c r="T80" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>10688</v>
       </c>
       <c r="U80" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>21376</v>
       </c>
       <c r="V80" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>42752</v>
       </c>
       <c r="W80" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>85504</v>
       </c>
       <c r="X80" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>171008</v>
       </c>
       <c r="Y80" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>342016</v>
       </c>
       <c r="Z80" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>684032</v>
       </c>
       <c r="AA80" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1368064</v>
       </c>
       <c r="AB80" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>2736128</v>
       </c>
       <c r="AC80" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>5472256</v>
       </c>
       <c r="AD80" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>10944512</v>
       </c>
       <c r="AE80" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>21889024</v>
       </c>
       <c r="AF80" s="20">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>43778048</v>
       </c>
       <c r="AG80" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>87556096</v>
       </c>
       <c r="AH80" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>91143924</v>
       </c>
       <c r="AI80" s="45"/>
@@ -41209,71 +41226,71 @@
       <c r="H81" s="16"/>
       <c r="I81" s="16"/>
       <c r="J81" s="29">
-        <f t="shared" ref="J81:Z81" si="98">J80*$E$81</f>
+        <f t="shared" ref="J81:Z81" si="99">J80*$E$81</f>
         <v>0.62624999999999997</v>
       </c>
       <c r="K81" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>1.2524999999999999</v>
       </c>
       <c r="L81" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>2.5049999999999999</v>
       </c>
       <c r="M81" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>5.01</v>
       </c>
       <c r="N81" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>10.02</v>
       </c>
       <c r="O81" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>20.04</v>
       </c>
       <c r="P81" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>40.08</v>
       </c>
       <c r="Q81" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>80.16</v>
       </c>
       <c r="R81" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>160.32</v>
       </c>
       <c r="S81" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>320.64</v>
       </c>
       <c r="T81" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>641.28</v>
       </c>
       <c r="U81" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>1282.56</v>
       </c>
       <c r="V81" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>2565.12</v>
       </c>
       <c r="W81" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>5130.24</v>
       </c>
       <c r="X81" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>10260.48</v>
       </c>
       <c r="Y81" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>20520.96</v>
       </c>
       <c r="Z81" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>41041.919999999998</v>
       </c>
       <c r="AA81" s="30">
@@ -41289,23 +41306,23 @@
         <v>328335.35999999999</v>
       </c>
       <c r="AD81" s="30">
-        <f t="shared" ref="AD81:AH81" si="99">AD80*$E$81</f>
+        <f t="shared" ref="AD81:AH81" si="100">AD80*$E$81</f>
         <v>656670.71999999997</v>
       </c>
       <c r="AE81" s="30">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>1313341.4399999999</v>
       </c>
       <c r="AF81" s="29">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>2626682.8799999999</v>
       </c>
       <c r="AG81" s="30">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>5253365.7599999998</v>
       </c>
       <c r="AH81" s="30">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>5468635.4399999995</v>
       </c>
       <c r="AI81" s="45"/>
@@ -41328,103 +41345,103 @@
       <c r="H82" s="16"/>
       <c r="I82" s="16"/>
       <c r="J82" s="20">
-        <f t="shared" ref="J82:AH82" si="100">J$19*$B$82</f>
+        <f t="shared" ref="J82:AH82" si="101">J$19*$B$82</f>
         <v>1.34375E-2</v>
       </c>
       <c r="K82" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>2.6875E-2</v>
       </c>
       <c r="L82" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>5.3749999999999999E-2</v>
       </c>
       <c r="M82" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0.1075</v>
       </c>
       <c r="N82" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0.215</v>
       </c>
       <c r="O82" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0.43</v>
       </c>
       <c r="P82" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0.86</v>
       </c>
       <c r="Q82" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>1.72</v>
       </c>
       <c r="R82" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>3.44</v>
       </c>
       <c r="S82" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>6.88</v>
       </c>
       <c r="T82" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>13.76</v>
       </c>
       <c r="U82" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>27.52</v>
       </c>
       <c r="V82" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>55.04</v>
       </c>
       <c r="W82" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>110.08</v>
       </c>
       <c r="X82" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>220.16</v>
       </c>
       <c r="Y82" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>440.32</v>
       </c>
       <c r="Z82" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>880.64</v>
       </c>
       <c r="AA82" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>1761.28</v>
       </c>
       <c r="AB82" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>3522.56</v>
       </c>
       <c r="AC82" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>7045.12</v>
       </c>
       <c r="AD82" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>14090.24</v>
       </c>
       <c r="AE82" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>28180.48</v>
       </c>
       <c r="AF82" s="20">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>56360.959999999999</v>
       </c>
       <c r="AG82" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>112721.92</v>
       </c>
       <c r="AH82" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>117340.98</v>
       </c>
       <c r="AI82" s="45"/>
@@ -41442,71 +41459,71 @@
       <c r="H83" s="16"/>
       <c r="I83" s="16"/>
       <c r="J83" s="29">
-        <f t="shared" ref="J83:Z83" si="101">J82*$E$83</f>
+        <f t="shared" ref="J83:Z83" si="102">J82*$E$83</f>
         <v>7.5250000000000002E-4</v>
       </c>
       <c r="K83" s="30">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>1.505E-3</v>
       </c>
       <c r="L83" s="30">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>3.0100000000000001E-3</v>
       </c>
       <c r="M83" s="30">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>6.0200000000000002E-3</v>
       </c>
       <c r="N83" s="30">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>1.204E-2</v>
       </c>
       <c r="O83" s="30">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>2.4080000000000001E-2</v>
       </c>
       <c r="P83" s="30">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>4.8160000000000001E-2</v>
       </c>
       <c r="Q83" s="30">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>9.6320000000000003E-2</v>
       </c>
       <c r="R83" s="30">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>0.19264000000000001</v>
       </c>
       <c r="S83" s="30">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>0.38528000000000001</v>
       </c>
       <c r="T83" s="30">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>0.77056000000000002</v>
       </c>
       <c r="U83" s="30">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>1.54112</v>
       </c>
       <c r="V83" s="30">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>3.0822400000000001</v>
       </c>
       <c r="W83" s="30">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>6.1644800000000002</v>
       </c>
       <c r="X83" s="30">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>12.32896</v>
       </c>
       <c r="Y83" s="30">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>24.657920000000001</v>
       </c>
       <c r="Z83" s="30">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>49.315840000000001</v>
       </c>
       <c r="AA83" s="30">
@@ -41522,23 +41539,23 @@
         <v>394.52672000000001</v>
       </c>
       <c r="AD83" s="30">
-        <f t="shared" ref="AD83:AH83" si="102">AD82*$E$83</f>
+        <f t="shared" ref="AD83:AH83" si="103">AD82*$E$83</f>
         <v>789.05344000000002</v>
       </c>
       <c r="AE83" s="30">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>1578.10688</v>
       </c>
       <c r="AF83" s="29">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>3156.2137600000001</v>
       </c>
       <c r="AG83" s="30">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>6312.4275200000002</v>
       </c>
       <c r="AH83" s="30">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>6571.0948799999996</v>
       </c>
       <c r="AI83" s="45"/>
@@ -41561,103 +41578,103 @@
       <c r="H84" s="16"/>
       <c r="I84" s="16"/>
       <c r="J84" s="20">
-        <f t="shared" ref="J84:AH84" si="103">J$19*$B$84</f>
+        <f t="shared" ref="J84:AH84" si="104">J$19*$B$84</f>
         <v>10.875</v>
       </c>
       <c r="K84" s="21">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>21.75</v>
       </c>
       <c r="L84" s="21">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>43.5</v>
       </c>
       <c r="M84" s="21">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>87</v>
       </c>
       <c r="N84" s="21">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>174</v>
       </c>
       <c r="O84" s="21">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>348</v>
       </c>
       <c r="P84" s="21">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>696</v>
       </c>
       <c r="Q84" s="21">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>1392</v>
       </c>
       <c r="R84" s="21">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>2784</v>
       </c>
       <c r="S84" s="21">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>5568</v>
       </c>
       <c r="T84" s="21">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>11136</v>
       </c>
       <c r="U84" s="21">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>22272</v>
       </c>
       <c r="V84" s="21">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>44544</v>
       </c>
       <c r="W84" s="21">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>89088</v>
       </c>
       <c r="X84" s="21">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>178176</v>
       </c>
       <c r="Y84" s="21">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>356352</v>
       </c>
       <c r="Z84" s="21">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>712704</v>
       </c>
       <c r="AA84" s="21">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>1425408</v>
       </c>
       <c r="AB84" s="21">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>2850816</v>
       </c>
       <c r="AC84" s="21">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>5701632</v>
       </c>
       <c r="AD84" s="21">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>11403264</v>
       </c>
       <c r="AE84" s="21">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>22806528</v>
       </c>
       <c r="AF84" s="20">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>45613056</v>
       </c>
       <c r="AG84" s="21">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>91226112</v>
       </c>
       <c r="AH84" s="21">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>94964328</v>
       </c>
       <c r="AI84" s="45"/>
@@ -41768,23 +41785,23 @@
         <v>38.888437499999995</v>
       </c>
       <c r="K86" s="19">
-        <f t="shared" ref="K86:Z86" si="104">SUM(K74,K76,K78,K80,K82,K84)</f>
+        <f t="shared" ref="K86:Z86" si="105">SUM(K74,K76,K78,K80,K82,K84)</f>
         <v>77.77687499999999</v>
       </c>
       <c r="L86" s="19">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>155.55374999999998</v>
       </c>
       <c r="M86" s="19">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>311.10749999999996</v>
       </c>
       <c r="N86" s="19">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>622.21499999999992</v>
       </c>
       <c r="O86" s="19">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>1244.4299999999998</v>
       </c>
       <c r="P86" s="19">
@@ -41792,75 +41809,75 @@
         <v>2488.8599999999997</v>
       </c>
       <c r="Q86" s="19">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>4977.7199999999993</v>
       </c>
       <c r="R86" s="19">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>9955.4399999999987</v>
       </c>
       <c r="S86" s="19">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>19910.879999999997</v>
       </c>
       <c r="T86" s="19">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>39821.759999999995</v>
       </c>
       <c r="U86" s="19">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>79643.51999999999</v>
       </c>
       <c r="V86" s="19">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>159287.03999999998</v>
       </c>
       <c r="W86" s="19">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>318574.07999999996</v>
       </c>
       <c r="X86" s="19">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>637148.15999999992</v>
       </c>
       <c r="Y86" s="19">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>1274296.3199999998</v>
       </c>
       <c r="Z86" s="19">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>2548592.6399999997</v>
       </c>
       <c r="AA86" s="19">
-        <f t="shared" ref="AA86:AC87" si="105">SUM(AA74,AA76,AA78,AA80,AA82,AA84)</f>
+        <f t="shared" ref="AA86:AC87" si="106">SUM(AA74,AA76,AA78,AA80,AA82,AA84)</f>
         <v>5097185.2799999993</v>
       </c>
       <c r="AB86" s="19">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>10194370.559999999</v>
       </c>
       <c r="AC86" s="19">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>20388741.119999997</v>
       </c>
       <c r="AD86" s="19">
-        <f t="shared" ref="AD86:AH86" si="106">SUM(AD74,AD76,AD78,AD80,AD82,AD84)</f>
+        <f t="shared" ref="AD86:AH86" si="107">SUM(AD74,AD76,AD78,AD80,AD82,AD84)</f>
         <v>40777482.239999995</v>
       </c>
       <c r="AE86" s="19">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>81554964.479999989</v>
       </c>
       <c r="AF86" s="18">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>163109928.95999998</v>
       </c>
       <c r="AG86" s="19">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>326219857.91999996</v>
       </c>
       <c r="AH86" s="19">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>339587524.98000002</v>
       </c>
       <c r="AI86" s="45"/>
@@ -41882,99 +41899,99 @@
         <v>2.1385649999999998</v>
       </c>
       <c r="K87" s="32">
-        <f t="shared" ref="K87:Z87" si="107">SUM(K75,K77,K79,K81,K83,K85)</f>
+        <f t="shared" ref="K87:Z87" si="108">SUM(K75,K77,K79,K81,K83,K85)</f>
         <v>4.2771299999999997</v>
       </c>
       <c r="L87" s="32">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>8.5542599999999993</v>
       </c>
       <c r="M87" s="32">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>17.108519999999999</v>
       </c>
       <c r="N87" s="32">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>34.217039999999997</v>
       </c>
       <c r="O87" s="32">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>68.434079999999994</v>
       </c>
       <c r="P87" s="32">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>136.86815999999999</v>
       </c>
       <c r="Q87" s="32">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>273.73631999999998</v>
       </c>
       <c r="R87" s="32">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>547.47263999999996</v>
       </c>
       <c r="S87" s="32">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>1094.9452799999999</v>
       </c>
       <c r="T87" s="32">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>2189.8905599999998</v>
       </c>
       <c r="U87" s="32">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>4379.7811199999996</v>
       </c>
       <c r="V87" s="32">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>8759.5622399999993</v>
       </c>
       <c r="W87" s="32">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>17519.124479999999</v>
       </c>
       <c r="X87" s="32">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>35038.248959999997</v>
       </c>
       <c r="Y87" s="32">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>70076.497919999994</v>
       </c>
       <c r="Z87" s="32">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>140152.99583999999</v>
       </c>
       <c r="AA87" s="32">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>280305.99167999998</v>
       </c>
       <c r="AB87" s="32">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>560611.98335999995</v>
       </c>
       <c r="AC87" s="32">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>1121223.9667199999</v>
       </c>
       <c r="AD87" s="32">
-        <f t="shared" ref="AD87:AH87" si="108">SUM(AD75,AD77,AD79,AD81,AD83,AD85)</f>
+        <f t="shared" ref="AD87:AH87" si="109">SUM(AD75,AD77,AD79,AD81,AD83,AD85)</f>
         <v>2242447.9334399998</v>
       </c>
       <c r="AE87" s="32">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>4484895.8668799996</v>
       </c>
       <c r="AF87" s="31">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>8969791.7337599993</v>
       </c>
       <c r="AG87" s="32">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>17939583.467519999</v>
       </c>
       <c r="AH87" s="32">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>18674702.354879998</v>
       </c>
       <c r="AI87" s="45"/>
@@ -42187,7 +42204,7 @@
       </c>
       <c r="C7" s="152">
         <f ca="1">NOW()</f>
-        <v>43934.680232754632</v>
+        <v>43935.473862615741</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -42196,7 +42213,7 @@
       </c>
       <c r="C8" s="153">
         <f ca="1">C7-C5</f>
-        <v>34.680232754632016</v>
+        <v>35.473862615741382</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -42205,7 +42222,7 @@
       </c>
       <c r="C9" s="155">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>5.0908311701149671</v>
+        <v>5.2073308390489927</v>
       </c>
       <c r="D9" t="s">
         <v>96</v>
@@ -42247,7 +42264,7 @@
       </c>
       <c r="C13" s="161">
         <f ca="1">(C4/Projections!B7)*(2^(((C7-21)-C5)/C9))</f>
-        <v>3594.1710502321075</v>
+        <v>3831.5974089249562</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -42256,7 +42273,7 @@
       </c>
       <c r="C14" s="144">
         <f ca="1">C12-C13</f>
-        <v>59120.114664053603</v>
+        <v>58882.688305360753</v>
       </c>
       <c r="E14" s="157"/>
       <c r="F14" s="158" t="s">
@@ -42280,7 +42297,7 @@
       </c>
       <c r="C16" s="80">
         <f ca="1">(C4*Projections!B11)*(2^(((C7-21)-C5)/C9))</f>
-        <v>163.03159883852842</v>
+        <v>173.80125846883604</v>
       </c>
       <c r="I16" s="151"/>
     </row>
@@ -42290,7 +42307,7 @@
       </c>
       <c r="C17" s="80">
         <f ca="1">C15-C16</f>
-        <v>2681.688401161472</v>
+        <v>2670.9187415311644</v>
       </c>
       <c r="F17" t="s">
         <v>142</v>
@@ -42312,7 +42329,7 @@
       </c>
       <c r="C19" s="80">
         <f ca="1">(C4*Projections!B12)*(2^(((C7-49)-C5)/C9))</f>
-        <v>0.62262203492234292</v>
+        <v>0.72284822870797449</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -42321,7 +42338,7 @@
       </c>
       <c r="C20" s="80">
         <f ca="1">C18-C19</f>
-        <v>491.05737796507771</v>
+        <v>490.9571517712921</v>
       </c>
       <c r="F20" t="s">
         <v>147</v>
@@ -42343,7 +42360,7 @@
       </c>
       <c r="C22" s="80">
         <f ca="1">(C4*Projections!B13)*(2^(((C7-49)-C5)/C9))</f>
-        <v>0.22236501247226534</v>
+        <v>0.25816008168141946</v>
       </c>
       <c r="I22" s="151"/>
     </row>
@@ -42353,7 +42370,7 @@
       </c>
       <c r="C23" s="80">
         <f ca="1">C21-C22</f>
-        <v>175.37763498752776</v>
+        <v>175.34183991831861</v>
       </c>
       <c r="I23" s="151"/>
     </row>
@@ -42372,7 +42389,7 @@
       </c>
       <c r="C25" s="61">
         <f ca="1">(C4*Projections!B14)*(2^(((C7-42)-C5)/C9))</f>
-        <v>1.0496884598705818</v>
+        <v>1.1929512069520674</v>
       </c>
       <c r="F25" t="s">
         <v>153</v>
@@ -42384,7 +42401,7 @@
       </c>
       <c r="C26" s="164">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>50.220154661827948</v>
+        <v>51.369403418350039</v>
       </c>
       <c r="D26" t="s">
         <v>96</v>
@@ -42399,7 +42416,7 @@
       </c>
       <c r="C27" s="163">
         <f ca="1">C7+C26</f>
-        <v>43984.900387416463</v>
+        <v>43986.843266034091</v>
       </c>
       <c r="F27" t="s">
         <v>155</v>
@@ -42411,7 +42428,7 @@
       </c>
       <c r="C28" s="162">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>27.444126315315817</v>
+        <v>28.072163569563568</v>
       </c>
       <c r="D28" t="s">
         <v>96</v>
@@ -42423,7 +42440,7 @@
       </c>
       <c r="C29" s="163">
         <f ca="1">C7+C28</f>
-        <v>43962.124359069945</v>
+        <v>43963.546026185308</v>
       </c>
       <c r="F29" t="s">
         <v>155</v>
@@ -42435,7 +42452,7 @@
       </c>
       <c r="C30" s="162">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>57.782211854511196</v>
+        <v>59.104512344624339</v>
       </c>
       <c r="D30" t="s">
         <v>96</v>
@@ -42447,7 +42464,7 @@
       </c>
       <c r="C31" s="163">
         <f ca="1">C7+C30</f>
-        <v>43992.46244460914</v>
+        <v>43994.578374960365</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -42456,7 +42473,7 @@
       </c>
       <c r="C34" s="152">
         <f ca="1">C7+30</f>
-        <v>43964.680232754632</v>
+        <v>43965.473862615741</v>
       </c>
       <c r="F34" t="s">
         <v>168</v>
@@ -42468,7 +42485,7 @@
       </c>
       <c r="C35" s="80">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>208693.25811452747</v>
+        <v>190467.59233226304</v>
       </c>
       <c r="F35" t="s">
         <v>140</v>
@@ -42480,7 +42497,7 @@
       </c>
       <c r="C36" s="80">
         <f ca="1">C35/Projections!B7</f>
-        <v>3726665.323473705</v>
+        <v>3401207.0059332685</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -42489,7 +42506,7 @@
       </c>
       <c r="C37" s="80">
         <f ca="1">C35*Projections!B11</f>
-        <v>169041.53907276728</v>
+        <v>154278.74978913309</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -42498,7 +42515,7 @@
       </c>
       <c r="C38" s="80">
         <f ca="1">C35*Projections!B12</f>
-        <v>29217.056136033851</v>
+        <v>26665.46292651683</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -42507,7 +42524,7 @@
       </c>
       <c r="C39" s="80">
         <f ca="1">C35*Projections!B13</f>
-        <v>10434.662905726374</v>
+        <v>9523.3796166131524</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -42516,7 +42533,7 @@
       </c>
       <c r="C40" s="61">
         <f ca="1">C35*Projections!B14</f>
-        <v>18991.086488421999</v>
+        <v>17332.550902235937</v>
       </c>
     </row>
   </sheetData>

--- a/Indonesian COVID-19 Infection Projections.xlsx
+++ b/Indonesian COVID-19 Infection Projections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63BE2BA-C10E-4F42-B49D-3D8825005E7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E72BDE-4276-49D9-80CE-D87B4F37A3CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
@@ -819,7 +819,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1009,6 +1009,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1023,7 +1060,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1259,7 +1296,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1343,18 +1379,22 @@
     <xf numFmtId="3" fontId="0" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="17" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1379,8 +1419,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Heading" xfId="3" xr:uid="{DB9EF5E1-A693-41C3-82C7-CA90563DBB00}"/>
@@ -1703,46 +1741,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43895.473862615741</c:v>
+                  <c:v>43901.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43898.473862615741</c:v>
+                  <c:v>43904.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43901.473862615741</c:v>
+                  <c:v>43907.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43904.473862615741</c:v>
+                  <c:v>43910.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43907.473862615741</c:v>
+                  <c:v>43913.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43910.473862615741</c:v>
+                  <c:v>43916.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43913.473862615741</c:v>
+                  <c:v>43919.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43916.473862615741</c:v>
+                  <c:v>43922.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43919.473862615741</c:v>
+                  <c:v>43925.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43922.473862615741</c:v>
+                  <c:v>43928.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43925.473862615741</c:v>
+                  <c:v>43931.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43928.473862615741</c:v>
+                  <c:v>43934.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43931.473862615741</c:v>
+                  <c:v>43937.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43934.473862615741</c:v>
+                  <c:v>43940.627440856479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1761,46 +1799,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>196.23233908948194</c:v>
+                  <c:v>244.61839530332682</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>392.46467817896388</c:v>
+                  <c:v>489.23679060665364</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>784.92935635792776</c:v>
+                  <c:v>978.47358121330728</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1569.8587127158555</c:v>
+                  <c:v>1956.9471624266146</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3139.717425431711</c:v>
+                  <c:v>3913.8943248532291</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6279.4348508634221</c:v>
+                  <c:v>7827.7886497064583</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12558.869701726844</c:v>
+                  <c:v>15655.577299412917</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25117.739403453688</c:v>
+                  <c:v>31311.154598825833</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50235.478806907377</c:v>
+                  <c:v>62622.309197651666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100470.95761381475</c:v>
+                  <c:v>125244.61839530333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>200941.91522762951</c:v>
+                  <c:v>250489.23679060666</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>401883.83045525901</c:v>
+                  <c:v>500978.47358121333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>803767.66091051803</c:v>
+                  <c:v>1001956.9471624267</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1607535.3218210361</c:v>
+                  <c:v>2003913.8943248533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1852,46 +1890,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43895.473862615741</c:v>
+                  <c:v>43901.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43898.473862615741</c:v>
+                  <c:v>43904.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43901.473862615741</c:v>
+                  <c:v>43907.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43904.473862615741</c:v>
+                  <c:v>43910.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43907.473862615741</c:v>
+                  <c:v>43913.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43910.473862615741</c:v>
+                  <c:v>43916.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43913.473862615741</c:v>
+                  <c:v>43919.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43916.473862615741</c:v>
+                  <c:v>43922.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43919.473862615741</c:v>
+                  <c:v>43925.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43922.473862615741</c:v>
+                  <c:v>43928.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43925.473862615741</c:v>
+                  <c:v>43931.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43928.473862615741</c:v>
+                  <c:v>43934.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43931.473862615741</c:v>
+                  <c:v>43937.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43934.473862615741</c:v>
+                  <c:v>43940.627440856479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1910,46 +1948,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>185.24332810047093</c:v>
+                  <c:v>230.91976516634051</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>370.48665620094187</c:v>
+                  <c:v>461.83953033268102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>740.97331240188373</c:v>
+                  <c:v>923.67906066536204</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1481.9466248037675</c:v>
+                  <c:v>1847.3581213307241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2963.8932496075349</c:v>
+                  <c:v>3694.7162426614482</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5927.7864992150699</c:v>
+                  <c:v>7389.4324853228964</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11855.57299843014</c:v>
+                  <c:v>14778.864970645793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23711.145996860279</c:v>
+                  <c:v>29557.729941291585</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47422.291993720559</c:v>
+                  <c:v>59115.459882583171</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>94844.583987441118</c:v>
+                  <c:v>118230.91976516634</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>189689.16797488224</c:v>
+                  <c:v>236461.83953033268</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>379378.33594976447</c:v>
+                  <c:v>472923.67906066537</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>758756.67189952894</c:v>
+                  <c:v>945847.35812133073</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1517513.3437990579</c:v>
+                  <c:v>1891694.7162426615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2001,46 +2039,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43895.473862615741</c:v>
+                  <c:v>43901.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43898.473862615741</c:v>
+                  <c:v>43904.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43901.473862615741</c:v>
+                  <c:v>43907.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43904.473862615741</c:v>
+                  <c:v>43910.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43907.473862615741</c:v>
+                  <c:v>43913.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43910.473862615741</c:v>
+                  <c:v>43916.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43913.473862615741</c:v>
+                  <c:v>43919.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43916.473862615741</c:v>
+                  <c:v>43922.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43919.473862615741</c:v>
+                  <c:v>43925.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43922.473862615741</c:v>
+                  <c:v>43928.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43925.473862615741</c:v>
+                  <c:v>43931.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43928.473862615741</c:v>
+                  <c:v>43934.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43931.473862615741</c:v>
+                  <c:v>43937.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43934.473862615741</c:v>
+                  <c:v>43940.627440856479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2059,37 +2097,37 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="3">
-                  <c:v>10.989010989010998</c:v>
+                  <c:v>13.698630136986313</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.978021978021996</c:v>
+                  <c:v>27.397260273972627</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.956043956043992</c:v>
+                  <c:v>54.794520547945254</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>87.912087912087983</c:v>
+                  <c:v>109.58904109589051</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>175.82417582417597</c:v>
+                  <c:v>219.17808219178102</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>351.64835164835193</c:v>
+                  <c:v>438.35616438356203</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>703.29670329670387</c:v>
+                  <c:v>876.71232876712406</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1406.5934065934077</c:v>
+                  <c:v>1753.4246575342481</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2813.1868131868155</c:v>
+                  <c:v>3506.8493150684963</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5626.3736263736309</c:v>
+                  <c:v>7013.6986301369925</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11252.747252747262</c:v>
+                  <c:v>14027.397260273985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2603,7 +2641,7 @@
                   <c:v>4241</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="#,##0">
-                  <c:v>8482</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2979,31 +3017,31 @@
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.84375</c:v>
+                  <c:v>2.28125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6875</c:v>
+                  <c:v>4.5625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.375</c:v>
+                  <c:v>9.125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.75</c:v>
+                  <c:v>18.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.5</c:v>
+                  <c:v>36.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>182</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>364</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>728</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3122,7 +3160,7 @@
                   <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="#,##0">
-                  <c:v>399</c:v>
+                  <c:v>582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3560,34 +3598,34 @@
                   <c:v>1087.0681020868581</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2146.0698153437766</c:v>
+                  <c:v>2021.2305365835839</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4254.744839540178</c:v>
+                  <c:v>4008.1752568286956</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8456.0969036322695</c:v>
+                  <c:v>7967.3869643480639</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16832.137089527751</c:v>
+                  <c:v>15861.347566631119</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33539.781230218767</c:v>
+                  <c:v>31608.499934736999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>66880.425035996013</c:v>
+                  <c:v>63034.318361740952</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>133435.05797238005</c:v>
+                  <c:v>125769.74524111008</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>266327.22565870034</c:v>
+                  <c:v>251041.39691410301</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>531735.85276854225</c:v>
+                  <c:v>501239.95143751008</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1061897.169950285</c:v>
+                  <c:v>1001035.1564074021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3739,34 +3777,34 @@
                   <c:v>1087.0681020868581</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2146.0698153437766</c:v>
+                  <c:v>2021.2305365835839</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3608.4524725694473</c:v>
+                  <c:v>3400.5539264547692</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6851.9221344780563</c:v>
+                  <c:v>6438.6527390154697</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13875.196909209641</c:v>
+                  <c:v>13052.605534545486</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27809.570895098856</c:v>
+                  <c:v>26107.823882758403</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>55667.54116164297</c:v>
+                  <c:v>52488.603535682283</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>111335.65769612671</c:v>
+                  <c:v>104976.02711358332</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>222596.61406902754</c:v>
+                  <c:v>209881.56978776041</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>444984.54105536331</c:v>
+                  <c:v>419569.23619417322</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>889513.78676002729</c:v>
+                  <c:v>838717.47987752676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3921,31 +3959,31 @@
                   <c:v>333.4431325023827</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>649.7794455413208</c:v>
+                  <c:v>611.10840894451621</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1277.0130092378313</c:v>
+                  <c:v>1201.5724654162118</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2522.0761067794497</c:v>
+                  <c:v>2373.8779585469738</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4996.510552911267</c:v>
+                  <c:v>4704.1020491660802</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9919.247921528231</c:v>
+                  <c:v>9340.5908031008457</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19720.882584478743</c:v>
+                  <c:v>18573.369609745776</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>39249.867961753043</c:v>
+                  <c:v>36970.808352352025</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>78180.678867561001</c:v>
+                  <c:v>73649.071158404171</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>155822.51134686972</c:v>
+                  <c:v>146804.02096522413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4100,31 +4138,31 @@
                   <c:v>284.83757374995827</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>472.32121031574314</c:v>
+                  <c:v>433.65017371893856</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>988.0398371536221</c:v>
+                  <c:v>912.59929333200262</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1994.0351106871613</c:v>
+                  <c:v>1845.8369624546854</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4006.8571369903711</c:v>
+                  <c:v>3777.322853849058</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8024.6741728454535</c:v>
+                  <c:v>7564.3143752264223</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16049.127646874183</c:v>
+                  <c:v>15127.993723331283</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32078.529055794999</c:v>
+                  <c:v>30237.360783673292</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>64101.248187224133</c:v>
+                  <c:v>60422.82748817197</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>128079.14824100489</c:v>
+                  <c:v>120731.53679650216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4249,61 +4287,61 @@
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2.84375</c:v>
+                  <c:v>2.28125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6875</c:v>
+                  <c:v>4.5625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.375</c:v>
+                  <c:v>9.125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.75</c:v>
+                  <c:v>18.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.5</c:v>
+                  <c:v>36.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>182</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>364</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>728</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1456</c:v>
+                  <c:v>1168</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2912</c:v>
+                  <c:v>2336</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5824</c:v>
+                  <c:v>4672</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11648</c:v>
+                  <c:v>9344</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23296</c:v>
+                  <c:v>18688</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46592</c:v>
+                  <c:v>37376</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>93184</c:v>
+                  <c:v>74752</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>186368</c:v>
+                  <c:v>149504</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>372736</c:v>
+                  <c:v>299008</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>745472</c:v>
+                  <c:v>598016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11175,7 +11213,7 @@
                   <c:v>4241</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="#,##0">
-                  <c:v>8482</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11552,31 +11590,31 @@
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.84375</c:v>
+                  <c:v>2.28125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6875</c:v>
+                  <c:v>4.5625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.375</c:v>
+                  <c:v>9.125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.75</c:v>
+                  <c:v>18.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.5</c:v>
+                  <c:v>36.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>182</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>364</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>728</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11695,7 +11733,7 @@
                   <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="#,##0">
-                  <c:v>399</c:v>
+                  <c:v>582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12024,46 +12062,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43895.473862615741</c:v>
+                  <c:v>43901.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43898.473862615741</c:v>
+                  <c:v>43904.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43901.473862615741</c:v>
+                  <c:v>43907.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43904.473862615741</c:v>
+                  <c:v>43910.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43907.473862615741</c:v>
+                  <c:v>43913.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43910.473862615741</c:v>
+                  <c:v>43916.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43913.473862615741</c:v>
+                  <c:v>43919.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43916.473862615741</c:v>
+                  <c:v>43922.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43919.473862615741</c:v>
+                  <c:v>43925.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43922.473862615741</c:v>
+                  <c:v>43928.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43925.473862615741</c:v>
+                  <c:v>43931.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43928.473862615741</c:v>
+                  <c:v>43934.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43931.473862615741</c:v>
+                  <c:v>43937.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43934.473862615741</c:v>
+                  <c:v>43940.627440856479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12082,37 +12120,37 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="3">
-                  <c:v>10.989010989010998</c:v>
+                  <c:v>13.698630136986313</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.978021978021996</c:v>
+                  <c:v>27.397260273972627</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.956043956043992</c:v>
+                  <c:v>54.794520547945254</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>87.912087912087983</c:v>
+                  <c:v>109.58904109589051</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>175.82417582417597</c:v>
+                  <c:v>219.17808219178102</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>351.64835164835193</c:v>
+                  <c:v>438.35616438356203</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>703.29670329670387</c:v>
+                  <c:v>876.71232876712406</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1406.5934065934077</c:v>
+                  <c:v>1753.4246575342481</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2813.1868131868155</c:v>
+                  <c:v>3506.8493150684963</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5626.3736263736309</c:v>
+                  <c:v>7013.6986301369925</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11252.747252747262</c:v>
+                  <c:v>14027.397260273985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12164,46 +12202,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43895.473862615741</c:v>
+                  <c:v>43901.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43898.473862615741</c:v>
+                  <c:v>43904.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43901.473862615741</c:v>
+                  <c:v>43907.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43904.473862615741</c:v>
+                  <c:v>43910.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43907.473862615741</c:v>
+                  <c:v>43913.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43910.473862615741</c:v>
+                  <c:v>43916.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43913.473862615741</c:v>
+                  <c:v>43919.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43916.473862615741</c:v>
+                  <c:v>43922.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43919.473862615741</c:v>
+                  <c:v>43925.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43922.473862615741</c:v>
+                  <c:v>43928.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43925.473862615741</c:v>
+                  <c:v>43931.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43928.473862615741</c:v>
+                  <c:v>43934.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43931.473862615741</c:v>
+                  <c:v>43937.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43934.473862615741</c:v>
+                  <c:v>43940.627440856479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12222,40 +12260,40 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="2">
-                  <c:v>10.989010989011007</c:v>
+                  <c:v>13.69863013698631</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.978021978022014</c:v>
+                  <c:v>27.39726027397262</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.604395604395663</c:v>
+                  <c:v>44.383561643835648</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71.208791208791325</c:v>
+                  <c:v>88.767123287671296</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>142.41758241758265</c:v>
+                  <c:v>177.53424657534259</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>275.93406593406638</c:v>
+                  <c:v>343.97260273972626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>551.86813186813276</c:v>
+                  <c:v>687.94520547945251</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1103.7362637362655</c:v>
+                  <c:v>1375.890410958905</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2207.4725274725311</c:v>
+                  <c:v>2751.78082191781</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4414.9450549450621</c:v>
+                  <c:v>5503.5616438356201</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8838.7912087912227</c:v>
+                  <c:v>11018.2191780822</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17677.582417582445</c:v>
+                  <c:v>22036.438356164399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12307,46 +12345,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43895.473862615741</c:v>
+                  <c:v>43901.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43898.473862615741</c:v>
+                  <c:v>43904.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43901.473862615741</c:v>
+                  <c:v>43907.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43904.473862615741</c:v>
+                  <c:v>43910.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43907.473862615741</c:v>
+                  <c:v>43913.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43910.473862615741</c:v>
+                  <c:v>43916.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43913.473862615741</c:v>
+                  <c:v>43919.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43916.473862615741</c:v>
+                  <c:v>43922.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43919.473862615741</c:v>
+                  <c:v>43925.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43922.473862615741</c:v>
+                  <c:v>43928.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43925.473862615741</c:v>
+                  <c:v>43931.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43928.473862615741</c:v>
+                  <c:v>43934.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43931.473862615741</c:v>
+                  <c:v>43937.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43934.473862615741</c:v>
+                  <c:v>43940.627440856479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12365,34 +12403,34 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="4">
-                  <c:v>8.3516483516483646</c:v>
+                  <c:v>10.410958904109595</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.703296703296729</c:v>
+                  <c:v>20.82191780821919</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.615384615384656</c:v>
+                  <c:v>30.684931506849338</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.230769230769312</c:v>
+                  <c:v>61.369863013698676</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>98.461538461538623</c:v>
+                  <c:v>122.73972602739735</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>196.92307692307725</c:v>
+                  <c:v>245.47945205479471</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>393.84615384615449</c:v>
+                  <c:v>490.95890410958941</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>787.69230769230899</c:v>
+                  <c:v>981.91780821917882</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1575.384615384618</c:v>
+                  <c:v>1963.8356164383576</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3150.7692307692359</c:v>
+                  <c:v>3927.6712328767153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12444,46 +12482,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43895.473862615741</c:v>
+                  <c:v>43901.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43898.473862615741</c:v>
+                  <c:v>43904.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43901.473862615741</c:v>
+                  <c:v>43907.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43904.473862615741</c:v>
+                  <c:v>43910.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43907.473862615741</c:v>
+                  <c:v>43913.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43910.473862615741</c:v>
+                  <c:v>43916.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43913.473862615741</c:v>
+                  <c:v>43919.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43916.473862615741</c:v>
+                  <c:v>43922.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43919.473862615741</c:v>
+                  <c:v>43925.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43922.473862615741</c:v>
+                  <c:v>43928.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43925.473862615741</c:v>
+                  <c:v>43931.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43928.473862615741</c:v>
+                  <c:v>43934.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43931.473862615741</c:v>
+                  <c:v>43937.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43934.473862615741</c:v>
+                  <c:v>43940.627440856479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12502,28 +12540,28 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="6">
-                  <c:v>8.7912087912088062</c:v>
+                  <c:v>10.958904109589049</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.582417582417612</c:v>
+                  <c:v>21.917808219178099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.164835164835225</c:v>
+                  <c:v>43.835616438356197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70.329670329670449</c:v>
+                  <c:v>87.671232876712395</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>140.6593406593409</c:v>
+                  <c:v>175.34246575342479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>281.3186813186818</c:v>
+                  <c:v>350.68493150684958</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>562.63736263736359</c:v>
+                  <c:v>701.36986301369916</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1125.2747252747272</c:v>
+                  <c:v>1402.7397260273983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12851,46 +12889,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43895.473862615741</c:v>
+                  <c:v>43901.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43898.473862615741</c:v>
+                  <c:v>43904.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43901.473862615741</c:v>
+                  <c:v>43907.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43904.473862615741</c:v>
+                  <c:v>43910.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43907.473862615741</c:v>
+                  <c:v>43913.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43910.473862615741</c:v>
+                  <c:v>43916.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43913.473862615741</c:v>
+                  <c:v>43919.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43916.473862615741</c:v>
+                  <c:v>43922.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43919.473862615741</c:v>
+                  <c:v>43925.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43922.473862615741</c:v>
+                  <c:v>43928.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43925.473862615741</c:v>
+                  <c:v>43931.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43928.473862615741</c:v>
+                  <c:v>43934.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43931.473862615741</c:v>
+                  <c:v>43937.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43934.473862615741</c:v>
+                  <c:v>43940.627440856479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12909,46 +12947,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>196.23233908948194</c:v>
+                  <c:v>244.61839530332682</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>392.46467817896388</c:v>
+                  <c:v>489.23679060665364</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>784.92935635792776</c:v>
+                  <c:v>978.47358121330728</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1569.8587127158555</c:v>
+                  <c:v>1956.9471624266146</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3139.717425431711</c:v>
+                  <c:v>3913.8943248532291</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6279.4348508634221</c:v>
+                  <c:v>7827.7886497064583</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12558.869701726844</c:v>
+                  <c:v>15655.577299412917</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25117.739403453688</c:v>
+                  <c:v>31311.154598825833</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50235.478806907377</c:v>
+                  <c:v>62622.309197651666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100470.95761381475</c:v>
+                  <c:v>125244.61839530333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>200941.91522762951</c:v>
+                  <c:v>250489.23679060666</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>401883.83045525901</c:v>
+                  <c:v>500978.47358121333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>803767.66091051803</c:v>
+                  <c:v>1001956.9471624267</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1607535.3218210361</c:v>
+                  <c:v>2003913.8943248533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13000,46 +13038,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43895.473862615741</c:v>
+                  <c:v>43901.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43898.473862615741</c:v>
+                  <c:v>43904.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43901.473862615741</c:v>
+                  <c:v>43907.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43904.473862615741</c:v>
+                  <c:v>43910.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43907.473862615741</c:v>
+                  <c:v>43913.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43910.473862615741</c:v>
+                  <c:v>43916.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43913.473862615741</c:v>
+                  <c:v>43919.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43916.473862615741</c:v>
+                  <c:v>43922.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43919.473862615741</c:v>
+                  <c:v>43925.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43922.473862615741</c:v>
+                  <c:v>43928.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43925.473862615741</c:v>
+                  <c:v>43931.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43928.473862615741</c:v>
+                  <c:v>43934.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43931.473862615741</c:v>
+                  <c:v>43937.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43934.473862615741</c:v>
+                  <c:v>43940.627440856479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13058,46 +13096,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>185.24332810047093</c:v>
+                  <c:v>230.91976516634051</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>370.48665620094187</c:v>
+                  <c:v>461.83953033268102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>740.97331240188373</c:v>
+                  <c:v>923.67906066536204</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1481.9466248037675</c:v>
+                  <c:v>1847.3581213307241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2963.8932496075349</c:v>
+                  <c:v>3694.7162426614482</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5927.7864992150699</c:v>
+                  <c:v>7389.4324853228964</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11855.57299843014</c:v>
+                  <c:v>14778.864970645793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23711.145996860279</c:v>
+                  <c:v>29557.729941291585</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47422.291993720559</c:v>
+                  <c:v>59115.459882583171</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>94844.583987441118</c:v>
+                  <c:v>118230.91976516634</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>189689.16797488224</c:v>
+                  <c:v>236461.83953033268</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>379378.33594976447</c:v>
+                  <c:v>472923.67906066537</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>758756.67189952894</c:v>
+                  <c:v>945847.35812133073</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1517513.3437990579</c:v>
+                  <c:v>1891694.7162426615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13149,46 +13187,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43895.473862615741</c:v>
+                  <c:v>43901.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43898.473862615741</c:v>
+                  <c:v>43904.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43901.473862615741</c:v>
+                  <c:v>43907.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43904.473862615741</c:v>
+                  <c:v>43910.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43907.473862615741</c:v>
+                  <c:v>43913.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43910.473862615741</c:v>
+                  <c:v>43916.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43913.473862615741</c:v>
+                  <c:v>43919.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43916.473862615741</c:v>
+                  <c:v>43922.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43919.473862615741</c:v>
+                  <c:v>43925.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43922.473862615741</c:v>
+                  <c:v>43928.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43925.473862615741</c:v>
+                  <c:v>43931.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43928.473862615741</c:v>
+                  <c:v>43934.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43931.473862615741</c:v>
+                  <c:v>43937.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43934.473862615741</c:v>
+                  <c:v>43940.627440856479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13207,37 +13245,37 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="3">
-                  <c:v>10.989010989010998</c:v>
+                  <c:v>13.698630136986313</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.978021978021996</c:v>
+                  <c:v>27.397260273972627</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.956043956043992</c:v>
+                  <c:v>54.794520547945254</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>87.912087912087983</c:v>
+                  <c:v>109.58904109589051</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>175.82417582417597</c:v>
+                  <c:v>219.17808219178102</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>351.64835164835193</c:v>
+                  <c:v>438.35616438356203</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>703.29670329670387</c:v>
+                  <c:v>876.71232876712406</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1406.5934065934077</c:v>
+                  <c:v>1753.4246575342481</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2813.1868131868155</c:v>
+                  <c:v>3506.8493150684963</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5626.3736263736309</c:v>
+                  <c:v>7013.6986301369925</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11252.747252747262</c:v>
+                  <c:v>14027.397260273985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13566,46 +13604,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43895.473862615741</c:v>
+                  <c:v>43901.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43898.473862615741</c:v>
+                  <c:v>43904.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43901.473862615741</c:v>
+                  <c:v>43907.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43904.473862615741</c:v>
+                  <c:v>43910.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43907.473862615741</c:v>
+                  <c:v>43913.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43910.473862615741</c:v>
+                  <c:v>43916.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43913.473862615741</c:v>
+                  <c:v>43919.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43916.473862615741</c:v>
+                  <c:v>43922.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43919.473862615741</c:v>
+                  <c:v>43925.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43922.473862615741</c:v>
+                  <c:v>43928.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43925.473862615741</c:v>
+                  <c:v>43931.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43928.473862615741</c:v>
+                  <c:v>43934.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43931.473862615741</c:v>
+                  <c:v>43937.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43934.473862615741</c:v>
+                  <c:v>43940.627440856479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13624,37 +13662,37 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="3">
-                  <c:v>10.989010989010998</c:v>
+                  <c:v>13.698630136986313</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.978021978021996</c:v>
+                  <c:v>27.397260273972627</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.956043956043992</c:v>
+                  <c:v>54.794520547945254</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>87.912087912087983</c:v>
+                  <c:v>109.58904109589051</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>175.82417582417597</c:v>
+                  <c:v>219.17808219178102</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>351.64835164835193</c:v>
+                  <c:v>438.35616438356203</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>703.29670329670387</c:v>
+                  <c:v>876.71232876712406</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1406.5934065934077</c:v>
+                  <c:v>1753.4246575342481</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2813.1868131868155</c:v>
+                  <c:v>3506.8493150684963</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5626.3736263736309</c:v>
+                  <c:v>7013.6986301369925</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11252.747252747262</c:v>
+                  <c:v>14027.397260273985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13706,46 +13744,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43895.473862615741</c:v>
+                  <c:v>43901.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43898.473862615741</c:v>
+                  <c:v>43904.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43901.473862615741</c:v>
+                  <c:v>43907.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43904.473862615741</c:v>
+                  <c:v>43910.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43907.473862615741</c:v>
+                  <c:v>43913.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43910.473862615741</c:v>
+                  <c:v>43916.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43913.473862615741</c:v>
+                  <c:v>43919.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43916.473862615741</c:v>
+                  <c:v>43922.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43919.473862615741</c:v>
+                  <c:v>43925.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43922.473862615741</c:v>
+                  <c:v>43928.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43925.473862615741</c:v>
+                  <c:v>43931.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43928.473862615741</c:v>
+                  <c:v>43934.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43931.473862615741</c:v>
+                  <c:v>43937.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43934.473862615741</c:v>
+                  <c:v>43940.627440856479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13764,40 +13802,40 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="2">
-                  <c:v>10.989010989011007</c:v>
+                  <c:v>13.69863013698631</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.978021978022014</c:v>
+                  <c:v>27.39726027397262</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.604395604395663</c:v>
+                  <c:v>44.383561643835648</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71.208791208791325</c:v>
+                  <c:v>88.767123287671296</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>142.41758241758265</c:v>
+                  <c:v>177.53424657534259</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>275.93406593406638</c:v>
+                  <c:v>343.97260273972626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>551.86813186813276</c:v>
+                  <c:v>687.94520547945251</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1103.7362637362655</c:v>
+                  <c:v>1375.890410958905</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2207.4725274725311</c:v>
+                  <c:v>2751.78082191781</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4414.9450549450621</c:v>
+                  <c:v>5503.5616438356201</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8838.7912087912227</c:v>
+                  <c:v>11018.2191780822</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17677.582417582445</c:v>
+                  <c:v>22036.438356164399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13849,46 +13887,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43895.473862615741</c:v>
+                  <c:v>43901.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43898.473862615741</c:v>
+                  <c:v>43904.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43901.473862615741</c:v>
+                  <c:v>43907.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43904.473862615741</c:v>
+                  <c:v>43910.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43907.473862615741</c:v>
+                  <c:v>43913.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43910.473862615741</c:v>
+                  <c:v>43916.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43913.473862615741</c:v>
+                  <c:v>43919.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43916.473862615741</c:v>
+                  <c:v>43922.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43919.473862615741</c:v>
+                  <c:v>43925.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43922.473862615741</c:v>
+                  <c:v>43928.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43925.473862615741</c:v>
+                  <c:v>43931.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43928.473862615741</c:v>
+                  <c:v>43934.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43931.473862615741</c:v>
+                  <c:v>43937.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43934.473862615741</c:v>
+                  <c:v>43940.627440856479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13907,34 +13945,34 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="4">
-                  <c:v>8.3516483516483646</c:v>
+                  <c:v>10.410958904109595</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.703296703296729</c:v>
+                  <c:v>20.82191780821919</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.615384615384656</c:v>
+                  <c:v>30.684931506849338</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.230769230769312</c:v>
+                  <c:v>61.369863013698676</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>98.461538461538623</c:v>
+                  <c:v>122.73972602739735</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>196.92307692307725</c:v>
+                  <c:v>245.47945205479471</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>393.84615384615449</c:v>
+                  <c:v>490.95890410958941</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>787.69230769230899</c:v>
+                  <c:v>981.91780821917882</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1575.384615384618</c:v>
+                  <c:v>1963.8356164383576</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3150.7692307692359</c:v>
+                  <c:v>3927.6712328767153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13986,46 +14024,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43895.473862615741</c:v>
+                  <c:v>43901.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43898.473862615741</c:v>
+                  <c:v>43904.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43901.473862615741</c:v>
+                  <c:v>43907.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43904.473862615741</c:v>
+                  <c:v>43910.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43907.473862615741</c:v>
+                  <c:v>43913.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43910.473862615741</c:v>
+                  <c:v>43916.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43913.473862615741</c:v>
+                  <c:v>43919.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43916.473862615741</c:v>
+                  <c:v>43922.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43919.473862615741</c:v>
+                  <c:v>43925.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43922.473862615741</c:v>
+                  <c:v>43928.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43925.473862615741</c:v>
+                  <c:v>43931.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43928.473862615741</c:v>
+                  <c:v>43934.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43931.473862615741</c:v>
+                  <c:v>43937.627440856479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43934.473862615741</c:v>
+                  <c:v>43940.627440856479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14044,28 +14082,28 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="6">
-                  <c:v>8.7912087912088062</c:v>
+                  <c:v>10.958904109589049</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.582417582417612</c:v>
+                  <c:v>21.917808219178099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.164835164835225</c:v>
+                  <c:v>43.835616438356197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70.329670329670449</c:v>
+                  <c:v>87.671232876712395</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>140.6593406593409</c:v>
+                  <c:v>175.34246575342479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>281.3186813186818</c:v>
+                  <c:v>350.68493150684958</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>562.63736263736359</c:v>
+                  <c:v>701.36986301369916</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1125.2747252747272</c:v>
+                  <c:v>1402.7397260273983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14504,34 +14542,34 @@
                   <c:v>1087.0681020868581</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2146.0698153437766</c:v>
+                  <c:v>2021.2305365835839</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4254.744839540178</c:v>
+                  <c:v>4008.1752568286956</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8456.0969036322695</c:v>
+                  <c:v>7967.3869643480639</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16832.137089527751</c:v>
+                  <c:v>15861.347566631119</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33539.781230218767</c:v>
+                  <c:v>31608.499934736999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>66880.425035996013</c:v>
+                  <c:v>63034.318361740952</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>133435.05797238005</c:v>
+                  <c:v>125769.74524111008</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>266327.22565870034</c:v>
+                  <c:v>251041.39691410301</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>531735.85276854225</c:v>
+                  <c:v>501239.95143751008</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1061897.169950285</c:v>
+                  <c:v>1001035.1564074021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14683,34 +14721,34 @@
                   <c:v>1087.0681020868581</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2146.0698153437766</c:v>
+                  <c:v>2021.2305365835839</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3608.4524725694473</c:v>
+                  <c:v>3400.5539264547692</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6851.9221344780563</c:v>
+                  <c:v>6438.6527390154697</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13875.196909209641</c:v>
+                  <c:v>13052.605534545486</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27809.570895098856</c:v>
+                  <c:v>26107.823882758403</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>55667.54116164297</c:v>
+                  <c:v>52488.603535682283</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>111335.65769612671</c:v>
+                  <c:v>104976.02711358332</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>222596.61406902754</c:v>
+                  <c:v>209881.56978776041</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>444984.54105536331</c:v>
+                  <c:v>419569.23619417322</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>889513.78676002729</c:v>
+                  <c:v>838717.47987752676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14865,31 +14903,31 @@
                   <c:v>333.4431325023827</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>649.7794455413208</c:v>
+                  <c:v>611.10840894451621</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1277.0130092378313</c:v>
+                  <c:v>1201.5724654162118</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2522.0761067794497</c:v>
+                  <c:v>2373.8779585469738</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4996.510552911267</c:v>
+                  <c:v>4704.1020491660802</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9919.247921528231</c:v>
+                  <c:v>9340.5908031008457</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19720.882584478743</c:v>
+                  <c:v>18573.369609745776</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>39249.867961753043</c:v>
+                  <c:v>36970.808352352025</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>78180.678867561001</c:v>
+                  <c:v>73649.071158404171</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>155822.51134686972</c:v>
+                  <c:v>146804.02096522413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15044,31 +15082,31 @@
                   <c:v>284.83757374995827</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>472.32121031574314</c:v>
+                  <c:v>433.65017371893856</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>988.0398371536221</c:v>
+                  <c:v>912.59929333200262</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1994.0351106871613</c:v>
+                  <c:v>1845.8369624546854</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4006.8571369903711</c:v>
+                  <c:v>3777.322853849058</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8024.6741728454535</c:v>
+                  <c:v>7564.3143752264223</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16049.127646874183</c:v>
+                  <c:v>15127.993723331283</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32078.529055794999</c:v>
+                  <c:v>30237.360783673292</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>64101.248187224133</c:v>
+                  <c:v>60422.82748817197</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>128079.14824100489</c:v>
+                  <c:v>120731.53679650216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15193,61 +15231,61 @@
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2.84375</c:v>
+                  <c:v>2.28125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6875</c:v>
+                  <c:v>4.5625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.375</c:v>
+                  <c:v>9.125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.75</c:v>
+                  <c:v>18.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.5</c:v>
+                  <c:v>36.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>182</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>364</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>728</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1456</c:v>
+                  <c:v>1168</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2912</c:v>
+                  <c:v>2336</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5824</c:v>
+                  <c:v>4672</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11648</c:v>
+                  <c:v>9344</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23296</c:v>
+                  <c:v>18688</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46592</c:v>
+                  <c:v>37376</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>93184</c:v>
+                  <c:v>74752</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>186368</c:v>
+                  <c:v>149504</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>372736</c:v>
+                  <c:v>299008</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>745472</c:v>
+                  <c:v>598016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32851,85 +32889,85 @@
       </c>
       <c r="B17" s="99">
         <f>(AP25/E31) /Projections!B7</f>
-        <v>196.23233908948194</v>
+        <v>244.61839530332682</v>
       </c>
       <c r="C17" s="100"/>
       <c r="D17" s="101"/>
       <c r="E17" s="95">
         <f>B17*2</f>
-        <v>392.46467817896388</v>
+        <v>489.23679060665364</v>
       </c>
       <c r="F17" s="100"/>
       <c r="G17" s="95"/>
       <c r="H17" s="95">
         <f>E17*2</f>
-        <v>784.92935635792776</v>
+        <v>978.47358121330728</v>
       </c>
       <c r="I17" s="100"/>
       <c r="J17" s="101"/>
       <c r="K17" s="92">
         <f>H17*2</f>
-        <v>1569.8587127158555</v>
+        <v>1956.9471624266146</v>
       </c>
       <c r="L17" s="90"/>
       <c r="M17" s="91"/>
       <c r="N17" s="92">
         <f>K17*2</f>
-        <v>3139.717425431711</v>
+        <v>3913.8943248532291</v>
       </c>
       <c r="O17" s="90"/>
       <c r="P17" s="91"/>
       <c r="Q17" s="92">
         <f>N17*2</f>
-        <v>6279.4348508634221</v>
+        <v>7827.7886497064583</v>
       </c>
       <c r="R17" s="90"/>
       <c r="S17" s="91"/>
       <c r="T17" s="92">
         <f>Q17*2</f>
-        <v>12558.869701726844</v>
+        <v>15655.577299412917</v>
       </c>
       <c r="U17" s="90"/>
       <c r="V17" s="91"/>
       <c r="W17" s="92">
         <f>T17*2</f>
-        <v>25117.739403453688</v>
+        <v>31311.154598825833</v>
       </c>
       <c r="X17" s="90"/>
       <c r="Y17" s="91"/>
       <c r="Z17" s="92">
         <f>W17*2</f>
-        <v>50235.478806907377</v>
+        <v>62622.309197651666</v>
       </c>
       <c r="AA17" s="90"/>
       <c r="AB17" s="91"/>
       <c r="AC17" s="92">
         <f>Z17*2</f>
-        <v>100470.95761381475</v>
+        <v>125244.61839530333</v>
       </c>
       <c r="AD17" s="90"/>
       <c r="AE17" s="91"/>
       <c r="AF17" s="92">
         <f>AC17*2</f>
-        <v>200941.91522762951</v>
+        <v>250489.23679060666</v>
       </c>
       <c r="AG17" s="90"/>
       <c r="AH17" s="91"/>
       <c r="AI17" s="92">
         <f>AF17*2</f>
-        <v>401883.83045525901</v>
+        <v>500978.47358121333</v>
       </c>
       <c r="AJ17" s="90"/>
       <c r="AK17" s="91"/>
       <c r="AL17" s="92">
         <f>AI17*2</f>
-        <v>803767.66091051803</v>
+        <v>1001956.9471624267</v>
       </c>
       <c r="AM17" s="90"/>
       <c r="AN17" s="91"/>
       <c r="AO17" s="92">
         <f>AL17*2</f>
-        <v>1607535.3218210361</v>
+        <v>2003913.8943248533</v>
       </c>
       <c r="AP17" s="95"/>
       <c r="AQ17" t="s">
@@ -32942,85 +32980,85 @@
       </c>
       <c r="B18" s="85">
         <f>B17*$E$34</f>
-        <v>185.24332810047093</v>
+        <v>230.91976516634051</v>
       </c>
       <c r="C18" s="102"/>
       <c r="D18" s="102"/>
       <c r="E18" s="102">
         <f>E17*$E$34</f>
-        <v>370.48665620094187</v>
+        <v>461.83953033268102</v>
       </c>
       <c r="F18" s="102"/>
       <c r="G18" s="33"/>
       <c r="H18" s="102">
         <f>H17*$E$34</f>
-        <v>740.97331240188373</v>
+        <v>923.67906066536204</v>
       </c>
       <c r="I18" s="102"/>
       <c r="J18" s="102"/>
       <c r="K18" s="102">
         <f>K17*$E$34</f>
-        <v>1481.9466248037675</v>
+        <v>1847.3581213307241</v>
       </c>
       <c r="L18" s="102"/>
       <c r="M18" s="102"/>
       <c r="N18" s="102">
         <f>N17*$E$34</f>
-        <v>2963.8932496075349</v>
+        <v>3694.7162426614482</v>
       </c>
       <c r="O18" s="102"/>
       <c r="P18" s="102"/>
       <c r="Q18" s="102">
         <f>Q17*$E$34</f>
-        <v>5927.7864992150699</v>
+        <v>7389.4324853228964</v>
       </c>
       <c r="R18" s="102"/>
       <c r="S18" s="102"/>
       <c r="T18" s="102">
         <f>T17*$E$34</f>
-        <v>11855.57299843014</v>
+        <v>14778.864970645793</v>
       </c>
       <c r="U18" s="102"/>
       <c r="V18" s="102"/>
       <c r="W18" s="102">
         <f>W17*$E$34</f>
-        <v>23711.145996860279</v>
+        <v>29557.729941291585</v>
       </c>
       <c r="X18" s="102"/>
       <c r="Y18" s="102"/>
       <c r="Z18" s="102">
         <f>Z17*$E$34</f>
-        <v>47422.291993720559</v>
+        <v>59115.459882583171</v>
       </c>
       <c r="AA18" s="102"/>
       <c r="AB18" s="102"/>
       <c r="AC18" s="102">
         <f>AC17*$E$34</f>
-        <v>94844.583987441118</v>
+        <v>118230.91976516634</v>
       </c>
       <c r="AD18" s="102"/>
       <c r="AE18" s="102"/>
       <c r="AF18" s="102">
         <f>AF17*$E$34</f>
-        <v>189689.16797488224</v>
+        <v>236461.83953033268</v>
       </c>
       <c r="AG18" s="102"/>
       <c r="AH18" s="102"/>
       <c r="AI18" s="102">
         <f>AI17*$E$34</f>
-        <v>379378.33594976447</v>
+        <v>472923.67906066537</v>
       </c>
       <c r="AJ18" s="102"/>
       <c r="AK18" s="102"/>
       <c r="AL18" s="102">
         <f>AL17*$E$34</f>
-        <v>758756.67189952894</v>
+        <v>945847.35812133073</v>
       </c>
       <c r="AM18" s="102"/>
       <c r="AN18" s="102"/>
       <c r="AO18" s="102">
         <f>AO17*$E$34</f>
-        <v>1517513.3437990579</v>
+        <v>1891694.7162426615</v>
       </c>
       <c r="AP18" s="33"/>
       <c r="AQ18" t="s">
@@ -33033,85 +33071,85 @@
       </c>
       <c r="B19" s="83">
         <f>B18</f>
-        <v>185.24332810047093</v>
+        <v>230.91976516634051</v>
       </c>
       <c r="C19" s="84"/>
       <c r="D19" s="84"/>
       <c r="E19" s="84">
         <f>E18</f>
-        <v>370.48665620094187</v>
+        <v>461.83953033268102</v>
       </c>
       <c r="F19" s="84"/>
       <c r="G19" s="34"/>
       <c r="H19" s="84">
         <f>H18</f>
-        <v>740.97331240188373</v>
+        <v>923.67906066536204</v>
       </c>
       <c r="I19" s="84"/>
       <c r="J19" s="84"/>
       <c r="K19" s="84">
         <f>K18</f>
-        <v>1481.9466248037675</v>
+        <v>1847.3581213307241</v>
       </c>
       <c r="L19" s="84"/>
       <c r="M19" s="84"/>
       <c r="N19" s="84">
         <f>N18</f>
-        <v>2963.8932496075349</v>
+        <v>3694.7162426614482</v>
       </c>
       <c r="O19" s="84"/>
       <c r="P19" s="84"/>
       <c r="Q19" s="84">
         <f>Q18</f>
-        <v>5927.7864992150699</v>
+        <v>7389.4324853228964</v>
       </c>
       <c r="R19" s="84"/>
       <c r="S19" s="84"/>
       <c r="T19" s="84">
         <f>T18</f>
-        <v>11855.57299843014</v>
+        <v>14778.864970645793</v>
       </c>
       <c r="U19" s="84"/>
       <c r="V19" s="84"/>
       <c r="W19" s="118">
         <f>W18-B18</f>
-        <v>23525.902668759809</v>
+        <v>29326.810176125244</v>
       </c>
       <c r="X19" s="118"/>
       <c r="Y19" s="118"/>
       <c r="Z19" s="118">
         <f>Z18-E18</f>
-        <v>47051.805337519618</v>
+        <v>58653.620352250487</v>
       </c>
       <c r="AA19" s="118"/>
       <c r="AB19" s="118"/>
       <c r="AC19" s="118">
         <f>AC18-H18</f>
-        <v>94103.610675039236</v>
+        <v>117307.24070450097</v>
       </c>
       <c r="AD19" s="118"/>
       <c r="AE19" s="118"/>
       <c r="AF19" s="118">
         <f>AF18-K18</f>
-        <v>188207.22135007847</v>
+        <v>234614.48140900195</v>
       </c>
       <c r="AG19" s="118"/>
       <c r="AH19" s="118"/>
       <c r="AI19" s="118">
         <f>AI18-N18</f>
-        <v>376414.44270015694</v>
+        <v>469228.9628180039</v>
       </c>
       <c r="AJ19" s="118"/>
       <c r="AK19" s="118"/>
       <c r="AL19" s="118">
         <f>AL18-Q18</f>
-        <v>752828.88540031388</v>
+        <v>938457.9256360078</v>
       </c>
       <c r="AM19" s="118"/>
       <c r="AN19" s="118"/>
       <c r="AO19" s="118">
         <f>AO18-T18</f>
-        <v>1505657.7708006278</v>
+        <v>1876915.8512720156</v>
       </c>
       <c r="AP19" s="119"/>
       <c r="AQ19" t="s">
@@ -33133,67 +33171,67 @@
       <c r="J20" s="105"/>
       <c r="K20" s="128">
         <f>B17*(1-$E$34)</f>
-        <v>10.989010989010998</v>
+        <v>13.698630136986313</v>
       </c>
       <c r="L20" s="125"/>
       <c r="M20" s="126"/>
       <c r="N20" s="127">
         <f>E17*(1-$E$34)</f>
-        <v>21.978021978021996</v>
+        <v>27.397260273972627</v>
       </c>
       <c r="O20" s="125"/>
       <c r="P20" s="126"/>
       <c r="Q20" s="127">
         <f>H17*(1-$E$34)</f>
-        <v>43.956043956043992</v>
+        <v>54.794520547945254</v>
       </c>
       <c r="R20" s="125"/>
       <c r="S20" s="126"/>
       <c r="T20" s="127">
         <f>K17*(1-$E$34)</f>
-        <v>87.912087912087983</v>
+        <v>109.58904109589051</v>
       </c>
       <c r="U20" s="125"/>
       <c r="V20" s="126"/>
       <c r="W20" s="127">
         <f>N17*(1-$E$34)</f>
-        <v>175.82417582417597</v>
+        <v>219.17808219178102</v>
       </c>
       <c r="X20" s="125"/>
       <c r="Y20" s="126"/>
       <c r="Z20" s="127">
         <f>Q17*(1-$E$34)</f>
-        <v>351.64835164835193</v>
+        <v>438.35616438356203</v>
       </c>
       <c r="AA20" s="125"/>
       <c r="AB20" s="126"/>
       <c r="AC20" s="127">
         <f>T17*(1-$E$34)</f>
-        <v>703.29670329670387</v>
+        <v>876.71232876712406</v>
       </c>
       <c r="AD20" s="125"/>
       <c r="AE20" s="126"/>
       <c r="AF20" s="127">
         <f>W17*(1-$E$34)</f>
-        <v>1406.5934065934077</v>
+        <v>1753.4246575342481</v>
       </c>
       <c r="AG20" s="125"/>
       <c r="AH20" s="126"/>
       <c r="AI20" s="127">
         <f>Z17*(1-$E$34)</f>
-        <v>2813.1868131868155</v>
+        <v>3506.8493150684963</v>
       </c>
       <c r="AJ20" s="125"/>
       <c r="AK20" s="126"/>
       <c r="AL20" s="127">
         <f>AC17*(1-$E$34)</f>
-        <v>5626.3736263736309</v>
+        <v>7013.6986301369925</v>
       </c>
       <c r="AM20" s="125"/>
       <c r="AN20" s="126"/>
       <c r="AO20" s="127">
         <f>AF17*(1-$E$34)</f>
-        <v>11252.747252747262</v>
+        <v>14027.397260273985</v>
       </c>
       <c r="AP20" s="76"/>
       <c r="AQ20" t="s">
@@ -33212,73 +33250,73 @@
       <c r="G21" s="79"/>
       <c r="H21" s="120">
         <f>B17-B18</f>
-        <v>10.989010989011007</v>
+        <v>13.69863013698631</v>
       </c>
       <c r="I21" s="120"/>
       <c r="J21" s="120"/>
       <c r="K21" s="120">
         <f>E17-E18</f>
-        <v>21.978021978022014</v>
+        <v>27.39726027397262</v>
       </c>
       <c r="L21" s="120"/>
       <c r="M21" s="120"/>
       <c r="N21" s="120">
         <f>(H17-H18)*$E$35</f>
-        <v>35.604395604395663</v>
+        <v>44.383561643835648</v>
       </c>
       <c r="O21" s="120"/>
       <c r="P21" s="120"/>
       <c r="Q21" s="120">
         <f>(K17-K18)*$E$35</f>
-        <v>71.208791208791325</v>
+        <v>88.767123287671296</v>
       </c>
       <c r="R21" s="120"/>
       <c r="S21" s="120"/>
       <c r="T21" s="120">
         <f>(N17-N18)*$E$35</f>
-        <v>142.41758241758265</v>
+        <v>177.53424657534259</v>
       </c>
       <c r="U21" s="120"/>
       <c r="V21" s="120"/>
       <c r="W21" s="120">
         <f>((Q17-Q18)*$E$35)-(H21*$E$35)</f>
-        <v>275.93406593406638</v>
+        <v>343.97260273972626</v>
       </c>
       <c r="X21" s="120"/>
       <c r="Y21" s="120"/>
       <c r="Z21" s="120">
         <f>((T17-T18)*$E$35)-(K21*$E$35)</f>
-        <v>551.86813186813276</v>
+        <v>687.94520547945251</v>
       </c>
       <c r="AA21" s="120"/>
       <c r="AB21" s="120"/>
       <c r="AC21" s="120">
         <f>((W17-W18)*$E$35)-N21</f>
-        <v>1103.7362637362655</v>
+        <v>1375.890410958905</v>
       </c>
       <c r="AD21" s="120"/>
       <c r="AE21" s="120"/>
       <c r="AF21" s="120">
         <f>((Z17-Z18)*$E$35)-Q21</f>
-        <v>2207.4725274725311</v>
+        <v>2751.78082191781</v>
       </c>
       <c r="AG21" s="120"/>
       <c r="AH21" s="120"/>
       <c r="AI21" s="120">
         <f>((AC17-AC18)*$E$35)-T21</f>
-        <v>4414.9450549450621</v>
+        <v>5503.5616438356201</v>
       </c>
       <c r="AJ21" s="120"/>
       <c r="AK21" s="120"/>
       <c r="AL21" s="120">
         <f>((AF17-AF18)*$E$35)-W21</f>
-        <v>8838.7912087912227</v>
+        <v>11018.2191780822</v>
       </c>
       <c r="AM21" s="120"/>
       <c r="AN21" s="120"/>
       <c r="AO21" s="120">
         <f>((AI17-AI18)*$E$35)-Z21</f>
-        <v>17677.582417582445</v>
+        <v>22036.438356164399</v>
       </c>
       <c r="AP21" s="121"/>
       <c r="AQ21" s="69" t="s">
@@ -33303,61 +33341,61 @@
       <c r="M22" s="105"/>
       <c r="N22" s="122">
         <f>(H17-H18)*($E$36+$E$37)</f>
-        <v>8.3516483516483646</v>
+        <v>10.410958904109595</v>
       </c>
       <c r="O22" s="122"/>
       <c r="P22" s="122"/>
       <c r="Q22" s="122">
         <f>(K17-K18)*($E$36+$E$37)</f>
-        <v>16.703296703296729</v>
+        <v>20.82191780821919</v>
       </c>
       <c r="R22" s="122"/>
       <c r="S22" s="122"/>
       <c r="T22" s="122">
         <f>(N17-N18)*$E$36</f>
-        <v>24.615384615384656</v>
+        <v>30.684931506849338</v>
       </c>
       <c r="U22" s="122"/>
       <c r="V22" s="122"/>
       <c r="W22" s="122">
         <f>(Q17-Q18)*$E$36</f>
-        <v>49.230769230769312</v>
+        <v>61.369863013698676</v>
       </c>
       <c r="X22" s="122"/>
       <c r="Y22" s="122"/>
       <c r="Z22" s="122">
         <f>(T17-T18)*$E$36</f>
-        <v>98.461538461538623</v>
+        <v>122.73972602739735</v>
       </c>
       <c r="AA22" s="122"/>
       <c r="AB22" s="122"/>
       <c r="AC22" s="122">
         <f>(W17-W18)*$E$36</f>
-        <v>196.92307692307725</v>
+        <v>245.47945205479471</v>
       </c>
       <c r="AD22" s="122"/>
       <c r="AE22" s="122"/>
       <c r="AF22" s="122">
         <f>(Z17-Z18)*$E$36</f>
-        <v>393.84615384615449</v>
+        <v>490.95890410958941</v>
       </c>
       <c r="AG22" s="122"/>
       <c r="AH22" s="122"/>
       <c r="AI22" s="122">
         <f>(AC17-AC18)*$E$36</f>
-        <v>787.69230769230899</v>
+        <v>981.91780821917882</v>
       </c>
       <c r="AJ22" s="122"/>
       <c r="AK22" s="122"/>
       <c r="AL22" s="122">
         <f>(AF17-AF18)*$E$36</f>
-        <v>1575.384615384618</v>
+        <v>1963.8356164383576</v>
       </c>
       <c r="AM22" s="122"/>
       <c r="AN22" s="122"/>
       <c r="AO22" s="122">
         <f>(AI17-AI18)*$E$36</f>
-        <v>3150.7692307692359</v>
+        <v>3927.6712328767153</v>
       </c>
       <c r="AP22" s="123"/>
       <c r="AQ22" s="69" t="s">
@@ -33388,49 +33426,49 @@
       <c r="S23" s="105"/>
       <c r="T23" s="40">
         <f>(N17-N18)*$E$37</f>
-        <v>8.7912087912088062</v>
+        <v>10.958904109589049</v>
       </c>
       <c r="U23" s="40"/>
       <c r="V23" s="40"/>
       <c r="W23" s="40">
         <f>(Q17-Q18)*$E$37</f>
-        <v>17.582417582417612</v>
+        <v>21.917808219178099</v>
       </c>
       <c r="X23" s="40"/>
       <c r="Y23" s="40"/>
       <c r="Z23" s="40">
         <f>(T17-T18)*$E$37</f>
-        <v>35.164835164835225</v>
+        <v>43.835616438356197</v>
       </c>
       <c r="AA23" s="40"/>
       <c r="AB23" s="40"/>
       <c r="AC23" s="40">
         <f>(W17-W18)*$E$37</f>
-        <v>70.329670329670449</v>
+        <v>87.671232876712395</v>
       </c>
       <c r="AD23" s="40"/>
       <c r="AE23" s="40"/>
       <c r="AF23" s="40">
         <f>(Z17-Z18)*$E$37</f>
-        <v>140.6593406593409</v>
+        <v>175.34246575342479</v>
       </c>
       <c r="AG23" s="40"/>
       <c r="AH23" s="40"/>
       <c r="AI23" s="40">
         <f>(AC17-AC18)*$E$37</f>
-        <v>281.3186813186818</v>
+        <v>350.68493150684958</v>
       </c>
       <c r="AJ23" s="40"/>
       <c r="AK23" s="40"/>
       <c r="AL23" s="40">
         <f>(AF17-AF18)*$E$37</f>
-        <v>562.63736263736359</v>
+        <v>701.36986301369916</v>
       </c>
       <c r="AM23" s="40"/>
       <c r="AN23" s="40"/>
       <c r="AO23" s="40">
         <f>(AI17-AI18)*$E$37</f>
-        <v>1125.2747252747272</v>
+        <v>1402.7397260273983</v>
       </c>
       <c r="AP23" s="124"/>
       <c r="AQ23" s="47" t="s">
@@ -33463,43 +33501,43 @@
       <c r="U24" s="105"/>
       <c r="V24" s="106">
         <f>H21*$E$35</f>
-        <v>8.9010989010989157</v>
+        <v>11.095890410958912</v>
       </c>
       <c r="W24" s="106"/>
       <c r="X24" s="106"/>
       <c r="Y24" s="106">
         <f>K21*$E$35</f>
-        <v>17.802197802197831</v>
+        <v>22.191780821917824</v>
       </c>
       <c r="Z24" s="106"/>
       <c r="AA24" s="106"/>
       <c r="AB24" s="106">
         <f>N21</f>
-        <v>35.604395604395663</v>
+        <v>44.383561643835648</v>
       </c>
       <c r="AC24" s="106"/>
       <c r="AD24" s="106"/>
       <c r="AE24" s="106">
         <f>Q21</f>
-        <v>71.208791208791325</v>
+        <v>88.767123287671296</v>
       </c>
       <c r="AF24" s="106"/>
       <c r="AG24" s="106"/>
       <c r="AH24" s="106">
         <f>T21</f>
-        <v>142.41758241758265</v>
+        <v>177.53424657534259</v>
       </c>
       <c r="AI24" s="106"/>
       <c r="AJ24" s="106"/>
       <c r="AK24" s="106">
         <f>W21</f>
-        <v>275.93406593406638</v>
+        <v>343.97260273972626</v>
       </c>
       <c r="AL24" s="106"/>
       <c r="AM24" s="106"/>
       <c r="AN24" s="106">
         <f>Z21</f>
-        <v>551.86813186813276</v>
+        <v>687.94520547945251</v>
       </c>
       <c r="AO24" s="106"/>
       <c r="AP24" s="107"/>
@@ -33565,167 +33603,167 @@
       </c>
       <c r="B26" s="86">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>43895.473862615741</v>
+        <v>43901.627440856479</v>
       </c>
       <c r="C26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43896.473862615741</v>
+        <v>43902.627440856479</v>
       </c>
       <c r="D26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43897.473862615741</v>
+        <v>43903.627440856479</v>
       </c>
       <c r="E26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43898.473862615741</v>
+        <v>43904.627440856479</v>
       </c>
       <c r="F26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43899.473862615741</v>
+        <v>43905.627440856479</v>
       </c>
       <c r="G26" s="88">
         <f t="shared" ca="1" si="0"/>
-        <v>43900.473862615741</v>
+        <v>43906.627440856479</v>
       </c>
       <c r="H26" s="87">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>43901.473862615741</v>
+        <v>43907.627440856479</v>
       </c>
       <c r="I26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43902.473862615741</v>
+        <v>43908.627440856479</v>
       </c>
       <c r="J26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43903.473862615741</v>
+        <v>43909.627440856479</v>
       </c>
       <c r="K26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43904.473862615741</v>
+        <v>43910.627440856479</v>
       </c>
       <c r="L26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43905.473862615741</v>
+        <v>43911.627440856479</v>
       </c>
       <c r="M26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43906.473862615741</v>
+        <v>43912.627440856479</v>
       </c>
       <c r="N26" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>43907.473862615741</v>
+        <v>43913.627440856479</v>
       </c>
       <c r="O26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43908.473862615741</v>
+        <v>43914.627440856479</v>
       </c>
       <c r="P26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43909.473862615741</v>
+        <v>43915.627440856479</v>
       </c>
       <c r="Q26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43910.473862615741</v>
+        <v>43916.627440856479</v>
       </c>
       <c r="R26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43911.473862615741</v>
+        <v>43917.627440856479</v>
       </c>
       <c r="S26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43912.473862615741</v>
+        <v>43918.627440856479</v>
       </c>
       <c r="T26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43913.473862615741</v>
+        <v>43919.627440856479</v>
       </c>
       <c r="U26" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>43914.473862615741</v>
+        <v>43920.627440856479</v>
       </c>
       <c r="V26" s="86">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>43915.473862615741</v>
+        <v>43921.627440856479</v>
       </c>
       <c r="W26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43916.473862615741</v>
+        <v>43922.627440856479</v>
       </c>
       <c r="X26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43917.473862615741</v>
+        <v>43923.627440856479</v>
       </c>
       <c r="Y26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43918.473862615741</v>
+        <v>43924.627440856479</v>
       </c>
       <c r="Z26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43919.473862615741</v>
+        <v>43925.627440856479</v>
       </c>
       <c r="AA26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43920.473862615741</v>
+        <v>43926.627440856479</v>
       </c>
       <c r="AB26" s="88">
         <f t="shared" ca="1" si="2"/>
-        <v>43921.473862615741</v>
+        <v>43927.627440856479</v>
       </c>
       <c r="AC26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43922.473862615741</v>
+        <v>43928.627440856479</v>
       </c>
       <c r="AD26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43923.473862615741</v>
+        <v>43929.627440856479</v>
       </c>
       <c r="AE26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43924.473862615741</v>
+        <v>43930.627440856479</v>
       </c>
       <c r="AF26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43925.473862615741</v>
+        <v>43931.627440856479</v>
       </c>
       <c r="AG26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43926.473862615741</v>
+        <v>43932.627440856479</v>
       </c>
       <c r="AH26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43927.473862615741</v>
+        <v>43933.627440856479</v>
       </c>
       <c r="AI26" s="88">
         <f t="shared" ca="1" si="2"/>
-        <v>43928.473862615741</v>
+        <v>43934.627440856479</v>
       </c>
       <c r="AJ26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43929.473862615741</v>
+        <v>43935.627440856479</v>
       </c>
       <c r="AK26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43930.473862615741</v>
+        <v>43936.627440856479</v>
       </c>
       <c r="AL26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43931.473862615741</v>
+        <v>43937.627440856479</v>
       </c>
       <c r="AM26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43932.473862615741</v>
+        <v>43938.627440856479</v>
       </c>
       <c r="AN26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43933.473862615741</v>
+        <v>43939.627440856479</v>
       </c>
       <c r="AO26" s="87">
         <f ca="1">AP26-1</f>
-        <v>43934.473862615741</v>
+        <v>43940.627440856479</v>
       </c>
       <c r="AP26" s="108">
         <f ca="1">NOW()</f>
-        <v>43935.473862615741</v>
+        <v>43941.627440856479</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -33860,59 +33898,59 @@
       <c r="A28" s="132" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="289" t="s">
+      <c r="B28" s="292" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="290"/>
-      <c r="D28" s="290"/>
-      <c r="E28" s="290"/>
-      <c r="F28" s="290"/>
-      <c r="G28" s="291"/>
-      <c r="H28" s="295" t="s">
+      <c r="C28" s="293"/>
+      <c r="D28" s="293"/>
+      <c r="E28" s="293"/>
+      <c r="F28" s="293"/>
+      <c r="G28" s="294"/>
+      <c r="H28" s="298" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="295"/>
-      <c r="J28" s="295"/>
-      <c r="K28" s="295"/>
-      <c r="L28" s="295"/>
-      <c r="M28" s="295"/>
-      <c r="N28" s="296"/>
-      <c r="O28" s="294" t="s">
+      <c r="I28" s="298"/>
+      <c r="J28" s="298"/>
+      <c r="K28" s="298"/>
+      <c r="L28" s="298"/>
+      <c r="M28" s="298"/>
+      <c r="N28" s="299"/>
+      <c r="O28" s="297" t="s">
         <v>56</v>
       </c>
-      <c r="P28" s="295"/>
-      <c r="Q28" s="295"/>
-      <c r="R28" s="295"/>
-      <c r="S28" s="295"/>
-      <c r="T28" s="295"/>
-      <c r="U28" s="296"/>
-      <c r="V28" s="294" t="s">
+      <c r="P28" s="298"/>
+      <c r="Q28" s="298"/>
+      <c r="R28" s="298"/>
+      <c r="S28" s="298"/>
+      <c r="T28" s="298"/>
+      <c r="U28" s="299"/>
+      <c r="V28" s="297" t="s">
         <v>57</v>
       </c>
-      <c r="W28" s="295"/>
-      <c r="X28" s="295"/>
-      <c r="Y28" s="295"/>
-      <c r="Z28" s="295"/>
-      <c r="AA28" s="295"/>
-      <c r="AB28" s="296"/>
-      <c r="AC28" s="294" t="s">
+      <c r="W28" s="298"/>
+      <c r="X28" s="298"/>
+      <c r="Y28" s="298"/>
+      <c r="Z28" s="298"/>
+      <c r="AA28" s="298"/>
+      <c r="AB28" s="299"/>
+      <c r="AC28" s="297" t="s">
         <v>58</v>
       </c>
-      <c r="AD28" s="295"/>
-      <c r="AE28" s="295"/>
-      <c r="AF28" s="295"/>
-      <c r="AG28" s="295"/>
-      <c r="AH28" s="295"/>
-      <c r="AI28" s="296"/>
-      <c r="AJ28" s="294" t="s">
+      <c r="AD28" s="298"/>
+      <c r="AE28" s="298"/>
+      <c r="AF28" s="298"/>
+      <c r="AG28" s="298"/>
+      <c r="AH28" s="298"/>
+      <c r="AI28" s="299"/>
+      <c r="AJ28" s="297" t="s">
         <v>59</v>
       </c>
-      <c r="AK28" s="295"/>
-      <c r="AL28" s="295"/>
-      <c r="AM28" s="295"/>
-      <c r="AN28" s="295"/>
-      <c r="AO28" s="295"/>
-      <c r="AP28" s="296"/>
+      <c r="AK28" s="298"/>
+      <c r="AL28" s="298"/>
+      <c r="AM28" s="298"/>
+      <c r="AN28" s="298"/>
+      <c r="AO28" s="298"/>
+      <c r="AP28" s="299"/>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B29" s="51" t="s">
@@ -33923,43 +33961,43 @@
       <c r="E29" s="93"/>
       <c r="F29" s="93"/>
       <c r="G29" s="94"/>
-      <c r="H29" s="292" t="s">
+      <c r="H29" s="295" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="292"/>
-      <c r="J29" s="292"/>
-      <c r="K29" s="292"/>
-      <c r="L29" s="292"/>
-      <c r="M29" s="292"/>
-      <c r="N29" s="292"/>
-      <c r="O29" s="292"/>
-      <c r="P29" s="292"/>
-      <c r="Q29" s="292"/>
-      <c r="R29" s="292"/>
-      <c r="S29" s="292"/>
-      <c r="T29" s="292"/>
-      <c r="U29" s="292"/>
-      <c r="V29" s="292"/>
-      <c r="W29" s="292"/>
-      <c r="X29" s="292"/>
-      <c r="Y29" s="292"/>
-      <c r="Z29" s="292"/>
-      <c r="AA29" s="292"/>
-      <c r="AB29" s="292"/>
-      <c r="AC29" s="292"/>
-      <c r="AD29" s="292"/>
-      <c r="AE29" s="292"/>
-      <c r="AF29" s="292"/>
-      <c r="AG29" s="292"/>
-      <c r="AH29" s="292"/>
-      <c r="AI29" s="292"/>
-      <c r="AJ29" s="292"/>
-      <c r="AK29" s="292"/>
-      <c r="AL29" s="292"/>
-      <c r="AM29" s="292"/>
-      <c r="AN29" s="292"/>
-      <c r="AO29" s="292"/>
-      <c r="AP29" s="293"/>
+      <c r="I29" s="295"/>
+      <c r="J29" s="295"/>
+      <c r="K29" s="295"/>
+      <c r="L29" s="295"/>
+      <c r="M29" s="295"/>
+      <c r="N29" s="295"/>
+      <c r="O29" s="295"/>
+      <c r="P29" s="295"/>
+      <c r="Q29" s="295"/>
+      <c r="R29" s="295"/>
+      <c r="S29" s="295"/>
+      <c r="T29" s="295"/>
+      <c r="U29" s="295"/>
+      <c r="V29" s="295"/>
+      <c r="W29" s="295"/>
+      <c r="X29" s="295"/>
+      <c r="Y29" s="295"/>
+      <c r="Z29" s="295"/>
+      <c r="AA29" s="295"/>
+      <c r="AB29" s="295"/>
+      <c r="AC29" s="295"/>
+      <c r="AD29" s="295"/>
+      <c r="AE29" s="295"/>
+      <c r="AF29" s="295"/>
+      <c r="AG29" s="295"/>
+      <c r="AH29" s="295"/>
+      <c r="AI29" s="295"/>
+      <c r="AJ29" s="295"/>
+      <c r="AK29" s="295"/>
+      <c r="AL29" s="295"/>
+      <c r="AM29" s="295"/>
+      <c r="AN29" s="295"/>
+      <c r="AO29" s="295"/>
+      <c r="AP29" s="296"/>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B31" s="57" t="s">
@@ -33971,7 +34009,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="82">
         <f>VLOOKUP(C31,B43:C54,2,FALSE)</f>
-        <v>9.0999999999999998E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -34134,7 +34172,7 @@
       </c>
       <c r="C45" s="27">
         <f>Projections!B14</f>
-        <v>9.0999999999999998E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
@@ -34243,8 +34281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BB0FAD-39ED-4D53-8BC6-75164ED434B0}">
   <dimension ref="A1:AL94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34308,15 +34346,15 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D3" s="156"/>
-      <c r="E3" s="271">
+      <c r="E3" s="270">
         <v>43878</v>
       </c>
-      <c r="F3" s="272" t="s">
+      <c r="F3" s="271" t="s">
         <v>197</v>
       </c>
-      <c r="G3" s="272"/>
-      <c r="H3" s="272"/>
-      <c r="I3" s="271">
+      <c r="G3" s="271"/>
+      <c r="H3" s="271"/>
+      <c r="I3" s="270">
         <v>43892</v>
       </c>
       <c r="S3" s="69"/>
@@ -34392,7 +34430,7 @@
       <c r="A6" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="B6" s="241">
+      <c r="B6" s="240">
         <v>272886000</v>
       </c>
       <c r="C6" t="s">
@@ -34432,7 +34470,7 @@
       <c r="A7" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="248">
+      <c r="B7" s="247">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="C7" t="s">
@@ -34475,7 +34513,7 @@
       <c r="B8" s="111">
         <v>0.05</v>
       </c>
-      <c r="C8" s="249"/>
+      <c r="C8" s="248"/>
       <c r="D8" s="69"/>
       <c r="E8" s="69"/>
       <c r="F8" s="69"/>
@@ -34504,7 +34542,7 @@
       <c r="A9" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="264">
+      <c r="B9" s="263">
         <v>0.6</v>
       </c>
       <c r="C9" s="64">
@@ -34541,7 +34579,7 @@
       <c r="A10" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="250">
+      <c r="B10" s="249">
         <v>2.7</v>
       </c>
       <c r="C10" s="61">
@@ -34625,7 +34663,7 @@
       <c r="N12" s="69"/>
       <c r="O12" s="47"/>
       <c r="P12" s="69"/>
-      <c r="Q12" s="270"/>
+      <c r="Q12" s="269"/>
       <c r="R12" s="220"/>
       <c r="S12" s="156"/>
       <c r="T12" s="69"/>
@@ -34650,7 +34688,7 @@
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
-      <c r="Q13" s="232"/>
+      <c r="Q13" s="231"/>
       <c r="R13" s="188"/>
       <c r="S13" s="16"/>
       <c r="V13" s="206"/>
@@ -34666,16 +34704,16 @@
         <v>114</v>
       </c>
       <c r="B14" s="65">
-        <v>9.0999999999999998E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="170" t="s">
         <v>161</v>
       </c>
-      <c r="O14" s="232"/>
+      <c r="O14" s="231"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
-      <c r="R14" s="232"/>
+      <c r="R14" s="231"/>
       <c r="S14" s="16"/>
       <c r="V14" s="206"/>
       <c r="AB14" s="167"/>
@@ -34688,7 +34726,7 @@
         <v>43892</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="273">
+      <c r="D15" s="272">
         <f>(AB18-J18)/(LOG(AB19/J19)/LOG(2))</f>
         <v>6.7222222222222223</v>
       </c>
@@ -34773,7 +34811,7 @@
         <v>170</v>
       </c>
       <c r="AE17" s="202"/>
-      <c r="AI17" s="227" t="s">
+      <c r="AI17" s="226" t="s">
         <v>175</v>
       </c>
     </row>
@@ -34781,7 +34819,7 @@
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="263">
+      <c r="B18" s="262">
         <v>3</v>
       </c>
       <c r="C18" s="148">
@@ -34795,82 +34833,82 @@
       <c r="G18" s="209"/>
       <c r="H18" s="209"/>
       <c r="I18" s="209"/>
-      <c r="J18" s="277">
+      <c r="J18" s="287">
         <v>43900</v>
       </c>
-      <c r="K18" s="278">
+      <c r="K18" s="288">
         <f t="shared" ref="K18:AG18" si="0">J18+HLOOKUP(J18+1, $B$17:$I$18,2,TRUE)</f>
         <v>43903</v>
       </c>
-      <c r="L18" s="278">
+      <c r="L18" s="288">
         <f t="shared" si="0"/>
         <v>43906</v>
       </c>
-      <c r="M18" s="278">
+      <c r="M18" s="288">
         <f t="shared" si="0"/>
         <v>43909</v>
       </c>
-      <c r="N18" s="279">
+      <c r="N18" s="289">
         <f t="shared" si="0"/>
         <v>43912</v>
       </c>
-      <c r="O18" s="280">
+      <c r="O18" s="290">
         <f t="shared" si="0"/>
         <v>43917</v>
       </c>
-      <c r="P18" s="280">
+      <c r="P18" s="290">
         <f t="shared" si="0"/>
         <v>43925</v>
       </c>
-      <c r="Q18" s="281">
+      <c r="Q18" s="290">
         <f t="shared" si="0"/>
         <v>43933</v>
       </c>
-      <c r="R18" s="280">
+      <c r="R18" s="291">
         <f t="shared" si="0"/>
         <v>43941</v>
       </c>
-      <c r="S18" s="280">
+      <c r="S18" s="285">
         <f t="shared" si="0"/>
         <v>43949</v>
       </c>
-      <c r="T18" s="280">
+      <c r="T18" s="285">
         <f t="shared" si="0"/>
         <v>43957</v>
       </c>
-      <c r="U18" s="280">
+      <c r="U18" s="285">
         <f t="shared" si="0"/>
         <v>43965</v>
       </c>
-      <c r="V18" s="280">
+      <c r="V18" s="285">
         <f t="shared" si="0"/>
         <v>43973</v>
       </c>
-      <c r="W18" s="280">
+      <c r="W18" s="285">
         <f t="shared" si="0"/>
         <v>43981</v>
       </c>
-      <c r="X18" s="280">
+      <c r="X18" s="285">
         <f t="shared" si="0"/>
         <v>43989</v>
       </c>
-      <c r="Y18" s="280">
+      <c r="Y18" s="285">
         <f t="shared" si="0"/>
         <v>43997</v>
       </c>
-      <c r="Z18" s="280">
+      <c r="Z18" s="285">
         <f t="shared" si="0"/>
         <v>44005</v>
       </c>
-      <c r="AA18" s="280">
+      <c r="AA18" s="285">
         <f t="shared" si="0"/>
         <v>44013</v>
       </c>
-      <c r="AB18" s="280">
+      <c r="AB18" s="286">
         <f t="shared" si="0"/>
         <v>44021</v>
       </c>
-      <c r="AC18" s="221">
+      <c r="AC18" s="215">
         <f t="shared" si="0"/>
         <v>44029</v>
       </c>
@@ -34890,11 +34928,11 @@
         <f t="shared" si="0"/>
         <v>44061</v>
       </c>
-      <c r="AH18" s="222">
+      <c r="AH18" s="221">
         <f>AG18+HLOOKUP(AG18+1, $B$17:$I$18,2,TRUE)</f>
         <v>44069</v>
       </c>
-      <c r="AI18" s="252">
+      <c r="AI18" s="251">
         <f>AH18+(7*8)</f>
         <v>44125</v>
       </c>
@@ -34914,78 +34952,78 @@
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="283">
+      <c r="J19" s="282">
         <v>31.25</v>
       </c>
-      <c r="K19" s="284">
+      <c r="K19" s="283">
         <f>J19*2</f>
         <v>62.5</v>
       </c>
-      <c r="L19" s="284">
+      <c r="L19" s="283">
         <f t="shared" ref="L19:Z19" si="3">K19*2</f>
         <v>125</v>
       </c>
-      <c r="M19" s="284">
+      <c r="M19" s="283">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="N19" s="284">
+      <c r="N19" s="283">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="O19" s="284">
+      <c r="O19" s="283">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="P19" s="284">
+      <c r="P19" s="283">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="Q19" s="284">
+      <c r="Q19" s="283">
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-      <c r="R19" s="284">
+      <c r="R19" s="283">
         <f t="shared" si="3"/>
         <v>8000</v>
       </c>
-      <c r="S19" s="284">
+      <c r="S19" s="283">
         <f>R19*2</f>
         <v>16000</v>
       </c>
-      <c r="T19" s="284">
+      <c r="T19" s="283">
         <f>S19*2</f>
         <v>32000</v>
       </c>
-      <c r="U19" s="284">
+      <c r="U19" s="283">
         <f>T19*2</f>
         <v>64000</v>
       </c>
-      <c r="V19" s="284">
+      <c r="V19" s="283">
         <f>U19*2</f>
         <v>128000</v>
       </c>
-      <c r="W19" s="284">
+      <c r="W19" s="283">
         <f t="shared" si="3"/>
         <v>256000</v>
       </c>
-      <c r="X19" s="284">
+      <c r="X19" s="283">
         <f t="shared" si="3"/>
         <v>512000</v>
       </c>
-      <c r="Y19" s="284">
+      <c r="Y19" s="283">
         <f t="shared" si="3"/>
         <v>1024000</v>
       </c>
-      <c r="Z19" s="284">
+      <c r="Z19" s="283">
         <f t="shared" si="3"/>
         <v>2048000</v>
       </c>
-      <c r="AA19" s="284">
+      <c r="AA19" s="283">
         <f>Z19*2</f>
         <v>4096000</v>
       </c>
-      <c r="AB19" s="285">
+      <c r="AB19" s="284">
         <f>AA19*2</f>
         <v>8192000</v>
       </c>
@@ -35013,7 +35051,7 @@
         <f>$B$6</f>
         <v>272886000</v>
       </c>
-      <c r="AI19" s="253">
+      <c r="AI19" s="252">
         <f>B6*AI20</f>
         <v>13644300</v>
       </c>
@@ -35105,19 +35143,19 @@
         <f>AA19/$B$6</f>
         <v>1.5009930886890496E-2</v>
       </c>
-      <c r="AB20" s="286">
+      <c r="AB20" s="277">
         <f>AB19/$B$6</f>
         <v>3.0019861773780993E-2</v>
       </c>
-      <c r="AC20" s="251">
+      <c r="AC20" s="250">
         <f>AC19/$B$6</f>
         <v>6.0039723547561985E-2</v>
       </c>
-      <c r="AD20" s="251">
+      <c r="AD20" s="250">
         <f t="shared" ref="AD20:AG20" si="6">AD19/$B$6</f>
         <v>0.12007944709512397</v>
       </c>
-      <c r="AE20" s="251">
+      <c r="AE20" s="250">
         <f t="shared" si="6"/>
         <v>0.24015889419024794</v>
       </c>
@@ -35133,7 +35171,7 @@
         <f t="shared" ref="AH20" si="7">AH19/$B$6</f>
         <v>1</v>
       </c>
-      <c r="AI20" s="254">
+      <c r="AI20" s="253">
         <f>B8</f>
         <v>0.05</v>
       </c>
@@ -35153,107 +35191,107 @@
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
-      <c r="J21" s="287">
+      <c r="J21" s="278">
         <f>MAX(J19-(J27-J28)-(J29-J30)-(J31-J32),0)</f>
         <v>31.181614788291355</v>
       </c>
-      <c r="K21" s="282">
+      <c r="K21" s="276">
         <f t="shared" ref="K21:S21" si="8">MAX(K19-(K27-K28)-(K29-K30)-(K31-K32),0)</f>
         <v>62.264644903424632</v>
       </c>
-      <c r="L21" s="282">
+      <c r="L21" s="276">
         <f t="shared" si="8"/>
         <v>124.19</v>
       </c>
-      <c r="M21" s="282">
+      <c r="M21" s="276">
         <f>MAX(M19-(M27-M28)-(M29-M30)-(M31-M32),0)</f>
         <v>247.21229746223111</v>
       </c>
-      <c r="N21" s="282">
+      <c r="N21" s="276">
         <f>MAX(N19-(N27-N28)-(N29-N30)-(N31-N32),0)</f>
         <v>490.40582044557635</v>
       </c>
-      <c r="O21" s="282">
+      <c r="O21" s="276">
         <f t="shared" si="8"/>
         <v>935.3125</v>
       </c>
-      <c r="P21" s="282">
+      <c r="P21" s="276">
         <f t="shared" si="8"/>
         <v>1502.0645736639731</v>
       </c>
-      <c r="Q21" s="282">
+      <c r="Q21" s="276">
         <f>MAX(Q19-(Q27-Q28)-(Q29-Q30)-(Q31-Q32),0)</f>
         <v>2492.1912971035408</v>
       </c>
-      <c r="R21" s="282">
+      <c r="R21" s="276">
         <f t="shared" si="8"/>
         <v>5214.6512135578741</v>
       </c>
-      <c r="S21" s="282">
+      <c r="S21" s="276">
         <f t="shared" si="8"/>
         <v>10549.615694708977</v>
       </c>
-      <c r="T21" s="282">
+      <c r="T21" s="276">
         <f>MAX(T19-(T27-T28)-(T29-T30)-(T31-T32),0)</f>
-        <v>20649.822380034293</v>
-      </c>
-      <c r="U21" s="282">
+        <v>21314.964209499329</v>
+      </c>
+      <c r="U21" s="276">
         <f t="shared" ref="U21:AC21" si="9">MAX(U19-(U27-U28)-(U29-U30)-(U31-U32),0)</f>
-        <v>41419.241309108707</v>
-      </c>
-      <c r="V21" s="282">
+        <v>42716.818662840567</v>
+      </c>
+      <c r="V21" s="276">
         <f t="shared" si="9"/>
-        <v>83657.385893762519</v>
-      </c>
-      <c r="W21" s="282">
+        <v>86206.394043361113</v>
+      </c>
+      <c r="W21" s="276">
         <f t="shared" si="9"/>
-        <v>168336.66529179667</v>
-      </c>
-      <c r="X21" s="282">
+        <v>173366.09155621388</v>
+      </c>
+      <c r="X21" s="276">
         <f t="shared" si="9"/>
-        <v>338200.72604820685</v>
-      </c>
-      <c r="Y21" s="282">
+        <v>348360.43773583323</v>
+      </c>
+      <c r="Y21" s="276">
         <f t="shared" si="9"/>
-        <v>678750.54691758647</v>
-      </c>
-      <c r="Z21" s="282">
+        <v>698872.31830817705</v>
+      </c>
+      <c r="Z21" s="276">
         <f t="shared" si="9"/>
-        <v>1361250.1885239698</v>
-      </c>
-      <c r="AA21" s="282">
+        <v>1401179.629996876</v>
+      </c>
+      <c r="AA21" s="276">
         <f t="shared" si="9"/>
-        <v>2728642.2599519957</v>
-      </c>
-      <c r="AB21" s="288">
+        <v>2807988.0883202837</v>
+      </c>
+      <c r="AB21" s="279">
         <f t="shared" si="9"/>
-        <v>5467548.5698845871</v>
+        <v>5625384.6996647725</v>
       </c>
       <c r="AC21" s="189">
         <f t="shared" si="9"/>
-        <v>10952524.515083538</v>
+        <v>11266746.626713719</v>
       </c>
       <c r="AD21" s="189">
         <f t="shared" ref="AD21:AG21" si="10">MAX(AD19-(AD27-AD28)-(AD29-AD30)-(AD31-AD32),0)</f>
-        <v>21935028.447768278</v>
+        <v>22560981.443401601</v>
       </c>
       <c r="AE21" s="189">
         <f t="shared" si="10"/>
-        <v>43922199.862520337</v>
+        <v>45169777.733784661</v>
       </c>
       <c r="AF21" s="189">
         <f t="shared" si="10"/>
-        <v>87935950.822917536</v>
+        <v>90423514.543279409</v>
       </c>
       <c r="AG21" s="189">
         <f t="shared" si="10"/>
-        <v>176033965.5487681</v>
+        <v>180995664.42052048</v>
       </c>
       <c r="AH21" s="190">
         <f t="shared" ref="AH21" si="11">MAX(AH19-(AH27-AH28)-(AH29-AH30)-(AH31-AH32),0)</f>
-        <v>100954885.09963743</v>
-      </c>
-      <c r="AI21" s="255"/>
+        <v>110854356.94194041</v>
+      </c>
+      <c r="AI21" s="254"/>
       <c r="AJ21" s="45"/>
       <c r="AK21" s="45"/>
       <c r="AL21" s="69"/>
@@ -35272,105 +35310,105 @@
       <c r="I22" s="16"/>
       <c r="J22" s="83">
         <f>MAX(J19-J21-J34,0)</f>
-        <v>6.838386836016444E-2</v>
+        <v>6.8384134077446215E-2</v>
       </c>
       <c r="K22" s="84">
         <f>MAX(K19-K21-K34,0)</f>
-        <v>0.23535047329639666</v>
+        <v>0.23535138779113832</v>
       </c>
       <c r="L22" s="84">
         <f>MAX(L19-L21-L34,0)</f>
-        <v>0.8099840884857773</v>
+        <v>0.80998723581826138</v>
       </c>
       <c r="M22" s="118">
         <f>MAX(M19-M21-M34,0)</f>
-        <v>2.78764777657311</v>
+        <v>2.7876586084579906</v>
       </c>
       <c r="N22" s="118">
         <f t="shared" ref="N22:AB22" si="12">MAX(N19-N21-N34,0)</f>
-        <v>9.5939910878502435</v>
+        <v>9.5940283669526742</v>
       </c>
       <c r="O22" s="118">
         <f t="shared" si="12"/>
-        <v>64.686021447713841</v>
+        <v>64.686313908605612</v>
       </c>
       <c r="P22" s="118">
         <f t="shared" si="12"/>
-        <v>497.89550542430072</v>
+        <v>497.90340186837841</v>
       </c>
       <c r="Q22" s="118">
         <f t="shared" si="12"/>
-        <v>1506.730838279851</v>
+        <v>1506.9440422699495</v>
       </c>
       <c r="R22" s="118">
         <f t="shared" si="12"/>
-        <v>2771.2353605161998</v>
+        <v>2774.0270271828667</v>
       </c>
       <c r="S22" s="118">
         <f t="shared" si="12"/>
-        <v>5361.922188361611</v>
+        <v>5379.4201895124834</v>
       </c>
       <c r="T22" s="118">
         <f t="shared" si="12"/>
-        <v>11027.203631855156</v>
+        <v>10425.946767071327</v>
       </c>
       <c r="U22" s="118">
         <f t="shared" si="12"/>
-        <v>22054.827517698031</v>
+        <v>20861.280505916486</v>
       </c>
       <c r="V22" s="118">
         <f t="shared" si="12"/>
-        <v>43381.579493349513</v>
+        <v>41022.666102344148</v>
       </c>
       <c r="W22" s="118">
         <f t="shared" si="12"/>
-        <v>85862.165491227293</v>
+        <v>81280.810818623271</v>
       </c>
       <c r="X22" s="118">
         <f t="shared" si="12"/>
-        <v>170351.14972919048</v>
+        <v>161046.19867947011</v>
       </c>
       <c r="Y22" s="118">
         <f t="shared" si="12"/>
-        <v>338566.85909597325</v>
+        <v>320097.4328976578</v>
       </c>
       <c r="Z22" s="118">
         <f t="shared" si="12"/>
-        <v>673697.9746671865</v>
+        <v>636989.53655285307</v>
       </c>
       <c r="AA22" s="118">
         <f t="shared" si="12"/>
-        <v>1341733.1762097913</v>
+        <v>1268701.5959211772</v>
       </c>
       <c r="AB22" s="119">
         <f t="shared" si="12"/>
-        <v>2673958.5092627387</v>
+        <v>2528549.4734488935</v>
       </c>
       <c r="AC22" s="203">
         <f>MAX(AC19-AC21-AC34,0)</f>
-        <v>5331713.4883357408</v>
+        <v>5042019.9389471253</v>
       </c>
       <c r="AD22" s="203">
         <f t="shared" ref="AD22:AH22" si="13">MAX(AD19-AD21-AD34,0)</f>
-        <v>10635468.763778599</v>
+        <v>10058035.557332238</v>
       </c>
       <c r="AE22" s="203">
         <f t="shared" si="13"/>
-        <v>21222188.901701603</v>
+        <v>20070748.850817468</v>
       </c>
       <c r="AF22" s="203">
         <f t="shared" si="13"/>
-        <v>42358607.608571798</v>
+        <v>40061784.651371039</v>
       </c>
       <c r="AG22" s="203">
         <f t="shared" si="13"/>
-        <v>84565115.107356712</v>
+        <v>79982253.640724629</v>
       </c>
       <c r="AH22" s="203">
         <f t="shared" si="13"/>
-        <v>168858627.21057266</v>
-      </c>
-      <c r="AI22" s="256"/>
+        <v>159712227.73971418</v>
+      </c>
+      <c r="AI22" s="255"/>
       <c r="AJ22" s="25"/>
       <c r="AK22" s="25"/>
       <c r="AL22" s="69"/>
@@ -35463,7 +35501,7 @@
         <f t="shared" si="14"/>
         <v>146285714.28571427</v>
       </c>
-      <c r="AC23" s="223">
+      <c r="AC23" s="222">
         <f>$B$6</f>
         <v>272886000</v>
       </c>
@@ -35487,7 +35525,7 @@
         <f t="shared" ref="AH23" si="15">$B$6</f>
         <v>272886000</v>
       </c>
-      <c r="AI23" s="255">
+      <c r="AI23" s="254">
         <f>($B$6*$B$8)/$B$7</f>
         <v>243648214.28571427</v>
       </c>
@@ -35583,7 +35621,7 @@
         <f t="shared" si="16"/>
         <v>0.53606896024608908</v>
       </c>
-      <c r="AC24" s="224">
+      <c r="AC24" s="223">
         <f>AC23/$B$6</f>
         <v>1</v>
       </c>
@@ -35607,7 +35645,7 @@
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="AI24" s="254">
+      <c r="AI24" s="253">
         <f>AI23/B6</f>
         <v>0.89285714285714279</v>
       </c>
@@ -35703,7 +35741,7 @@
         <f>AB23-AB19</f>
         <v>138093714.28571427</v>
       </c>
-      <c r="AC25" s="225">
+      <c r="AC25" s="224">
         <f>AC23-AC19</f>
         <v>256502000</v>
       </c>
@@ -35727,7 +35765,7 @@
         <f t="shared" si="20"/>
         <v>272886000</v>
       </c>
-      <c r="AI25" s="257">
+      <c r="AI25" s="256">
         <f>AI23-AI19</f>
         <v>230003914.28571427</v>
       </c>
@@ -35789,47 +35827,47 @@
       </c>
       <c r="T26" s="188">
         <f t="shared" si="22"/>
-        <v>232064.08769332882</v>
+        <v>218253.00319447005</v>
       </c>
       <c r="U26" s="188">
         <f t="shared" si="22"/>
-        <v>456076.07472779683</v>
+        <v>429133.02336293273</v>
       </c>
       <c r="V26" s="188">
         <f t="shared" si="22"/>
-        <v>900741.46670694626</v>
+        <v>847813.55662391905</v>
       </c>
       <c r="W26" s="188">
         <f t="shared" si="22"/>
-        <v>1784468.0546111665</v>
+        <v>1680036.4461307428</v>
       </c>
       <c r="X26" s="188">
         <f t="shared" si="22"/>
-        <v>3542588.5434029391</v>
+        <v>3335925.2868217304</v>
       </c>
       <c r="Y26" s="188">
         <f t="shared" si="22"/>
-        <v>7043172.3515995499</v>
+        <v>6633346.2891949192</v>
       </c>
       <c r="Z26" s="188">
         <f t="shared" si="22"/>
-        <v>14017809.986340372</v>
+        <v>13203860.125840008</v>
       </c>
       <c r="AA26" s="188">
         <f t="shared" si="22"/>
-        <v>27921671.024128921</v>
+        <v>26303239.69943006</v>
       </c>
       <c r="AB26" s="188">
         <f t="shared" si="22"/>
-        <v>55650896.909596331</v>
-      </c>
-      <c r="AC26" s="226">
+        <v>52430007.487580039</v>
+      </c>
+      <c r="AC26" s="225">
         <f t="shared" si="22"/>
-        <v>110972459.43048574</v>
+        <v>104557990.02730283</v>
       </c>
       <c r="AD26" s="193">
         <f t="shared" si="22"/>
-        <v>221374926.41252059</v>
+        <v>208593214.6511839</v>
       </c>
       <c r="AE26" s="193">
         <f t="shared" si="22"/>
@@ -35847,7 +35885,7 @@
         <f t="shared" si="22"/>
         <v>272886000</v>
       </c>
-      <c r="AI26" s="257"/>
+      <c r="AI26" s="256"/>
       <c r="AJ26" s="25"/>
       <c r="AK26" s="25"/>
       <c r="AL26" s="69"/>
@@ -35940,7 +35978,7 @@
         <f t="shared" si="23"/>
         <v>6635520</v>
       </c>
-      <c r="AC27" s="223">
+      <c r="AC27" s="222">
         <f t="shared" si="23"/>
         <v>13271040</v>
       </c>
@@ -35964,7 +36002,7 @@
         <f t="shared" si="24"/>
         <v>221037660</v>
       </c>
-      <c r="AI27" s="257">
+      <c r="AI27" s="256">
         <f>AI19*B11</f>
         <v>11051883</v>
       </c>
@@ -36026,65 +36064,65 @@
       </c>
       <c r="T28" s="195">
         <f t="shared" si="26"/>
-        <v>15393.572982230604</v>
+        <v>16020.043775098837</v>
       </c>
       <c r="U28" s="195">
         <f t="shared" si="26"/>
-        <v>31152.389250347132</v>
+        <v>32374.526060257369</v>
       </c>
       <c r="V28" s="195">
         <f t="shared" si="26"/>
-        <v>62822.367070172913</v>
+        <v>65223.17707153903</v>
       </c>
       <c r="W28" s="195">
         <f t="shared" si="26"/>
-        <v>126416.52904283747</v>
+        <v>131153.5468035095</v>
       </c>
       <c r="X28" s="195">
         <f t="shared" si="26"/>
-        <v>254028.18367124267</v>
+        <v>263402.42898976628</v>
       </c>
       <c r="Y28" s="195">
         <f t="shared" si="26"/>
-        <v>509961.70213144441</v>
+        <v>528551.41232211841</v>
       </c>
       <c r="Z28" s="195">
         <f t="shared" si="26"/>
-        <v>1023032.1390196007</v>
+        <v>1059952.9046918973</v>
       </c>
       <c r="AA28" s="195">
         <f t="shared" si="26"/>
-        <v>2051233.0023455119</v>
+        <v>2124645.0472338526</v>
       </c>
       <c r="AB28" s="195">
         <f t="shared" si="26"/>
-        <v>4111195.3161807102</v>
-      </c>
-      <c r="AC28" s="226">
+        <v>4257294.8603633698</v>
+      </c>
+      <c r="AC28" s="225">
         <f t="shared" si="26"/>
-        <v>8237329.2402331661</v>
+        <v>8528289.5723615438</v>
       </c>
       <c r="AD28" s="193">
         <f t="shared" si="26"/>
-        <v>16500513.337928066</v>
+        <v>17080291.783422299</v>
       </c>
       <c r="AE28" s="193">
         <f t="shared" si="26"/>
-        <v>33046213.65714455</v>
+        <v>34202029.216898546</v>
       </c>
       <c r="AF28" s="193">
         <f t="shared" si="26"/>
-        <v>66172077.532634072</v>
+        <v>68477118.005518839</v>
       </c>
       <c r="AG28" s="193">
         <f t="shared" si="26"/>
-        <v>132485611.37255399</v>
+        <v>137083994.02886903</v>
       </c>
       <c r="AH28" s="194">
         <f t="shared" si="26"/>
-        <v>61588505.14834848</v>
-      </c>
-      <c r="AI28" s="255"/>
+        <v>70764366.055970341</v>
+      </c>
+      <c r="AI28" s="254"/>
       <c r="AJ28" s="25"/>
       <c r="AK28" s="25"/>
       <c r="AL28" s="69"/>
@@ -36139,69 +36177,69 @@
       </c>
       <c r="S29" s="201">
         <f t="shared" si="27"/>
-        <v>2146.0698153437766</v>
+        <v>2021.2305365835839</v>
       </c>
       <c r="T29" s="201">
         <f t="shared" si="27"/>
-        <v>4254.744839540178</v>
+        <v>4008.1752568286956</v>
       </c>
       <c r="U29" s="201">
         <f t="shared" si="27"/>
-        <v>8456.0969036322695</v>
+        <v>7967.3869643480639</v>
       </c>
       <c r="V29" s="201">
         <f t="shared" si="27"/>
-        <v>16832.137089527751</v>
+        <v>15861.347566631119</v>
       </c>
       <c r="W29" s="201">
         <f t="shared" si="27"/>
-        <v>33539.781230218767</v>
+        <v>31608.499934736999</v>
       </c>
       <c r="X29" s="201">
         <f t="shared" si="27"/>
-        <v>66880.425035996013</v>
+        <v>63034.318361740952</v>
       </c>
       <c r="Y29" s="201">
         <f t="shared" si="27"/>
-        <v>133435.05797238005</v>
+        <v>125769.74524111008</v>
       </c>
       <c r="Z29" s="201">
         <f t="shared" si="27"/>
-        <v>266327.22565870034</v>
+        <v>251041.39691410301</v>
       </c>
       <c r="AA29" s="201">
         <f t="shared" si="27"/>
-        <v>531735.85276854225</v>
+        <v>501239.95143751008</v>
       </c>
       <c r="AB29" s="201">
         <f t="shared" si="27"/>
-        <v>1061897.169950285</v>
-      </c>
-      <c r="AC29" s="223">
+        <v>1001035.1564074021</v>
+      </c>
+      <c r="AC29" s="222">
         <f t="shared" si="27"/>
-        <v>2121065.453462604</v>
+        <v>1999566.2765000709</v>
       </c>
       <c r="AD29" s="198">
         <f t="shared" si="27"/>
-        <v>4237355.8294200813</v>
+        <v>3994750.78348336</v>
       </c>
       <c r="AE29" s="198">
         <f t="shared" si="27"/>
-        <v>8466285.7908583581</v>
+        <v>7981769.4926947402</v>
       </c>
       <c r="AF29" s="198">
         <f t="shared" si="27"/>
-        <v>16917593.431604102</v>
+        <v>15949793.805981761</v>
       </c>
       <c r="AG29" s="198">
         <f t="shared" si="27"/>
-        <v>33808385.735544287</v>
+        <v>31874992.14915872</v>
       </c>
       <c r="AH29" s="199">
         <f t="shared" si="27"/>
-        <v>67568532.488110214</v>
-      </c>
-      <c r="AI29" s="255">
+        <v>63705714.373781249</v>
+      </c>
+      <c r="AI29" s="254">
         <f>AI19*(B12+B13)</f>
         <v>2592417</v>
       </c>
@@ -36259,69 +36297,69 @@
       </c>
       <c r="S30" s="197">
         <f t="shared" si="28"/>
-        <v>2146.0698153437766</v>
+        <v>2021.2305365835839</v>
       </c>
       <c r="T30" s="188">
         <f t="shared" ref="T30:AH30" si="29">MAX(T29-($J$19*$B$12)*(2^(((T18 - 42) - $J$18)/HLOOKUP((T18-42)-$B$15,$J$42:$AI$44,3,TRUE)))-T32,0)</f>
-        <v>3608.4524725694473</v>
+        <v>3400.5539264547692</v>
       </c>
       <c r="U30" s="188">
         <f t="shared" si="29"/>
-        <v>6851.9221344780563</v>
+        <v>6438.6527390154697</v>
       </c>
       <c r="V30" s="188">
         <f t="shared" si="29"/>
-        <v>13875.196909209641</v>
+        <v>13052.605534545486</v>
       </c>
       <c r="W30" s="188">
         <f t="shared" si="29"/>
-        <v>27809.570895098856</v>
+        <v>26107.823882758403</v>
       </c>
       <c r="X30" s="188">
         <f t="shared" si="29"/>
-        <v>55667.54116164297</v>
+        <v>52488.603535682283</v>
       </c>
       <c r="Y30" s="188">
         <f t="shared" si="29"/>
-        <v>111335.65769612671</v>
+        <v>104976.02711358332</v>
       </c>
       <c r="Z30" s="188">
         <f t="shared" si="29"/>
-        <v>222596.61406902754</v>
+        <v>209881.56978776041</v>
       </c>
       <c r="AA30" s="188">
         <f t="shared" si="29"/>
-        <v>444984.54105536331</v>
+        <v>419569.23619417322</v>
       </c>
       <c r="AB30" s="188">
         <f t="shared" si="29"/>
-        <v>889513.78676002729</v>
-      </c>
-      <c r="AC30" s="226">
+        <v>838717.47987752676</v>
+      </c>
+      <c r="AC30" s="225">
         <f t="shared" si="29"/>
-        <v>1778115.0121485386</v>
+        <v>1676593.080399612</v>
       </c>
       <c r="AD30" s="193">
         <f t="shared" si="29"/>
-        <v>3554468.9548938796</v>
+        <v>3351563.5936449673</v>
       </c>
       <c r="AE30" s="193">
         <f t="shared" si="29"/>
-        <v>7105603.0049034115</v>
+        <v>6700057.061223235</v>
       </c>
       <c r="AF30" s="193">
         <f t="shared" si="29"/>
-        <v>14204952.418871453</v>
+        <v>13394360.210420109</v>
       </c>
       <c r="AG30" s="193">
         <f t="shared" si="29"/>
-        <v>28398236.69410738</v>
+        <v>26777988.800231323</v>
       </c>
       <c r="AH30" s="194">
         <f t="shared" si="29"/>
-        <v>56774752.48873426</v>
-      </c>
-      <c r="AI30" s="257"/>
+        <v>53536005.888755009</v>
+      </c>
+      <c r="AI30" s="256"/>
       <c r="AJ30" s="45"/>
       <c r="AK30" s="45"/>
       <c r="AL30" s="69"/>
@@ -36380,65 +36418,65 @@
       </c>
       <c r="T31" s="201">
         <f t="shared" si="31"/>
-        <v>649.7794455413208</v>
+        <v>611.10840894451621</v>
       </c>
       <c r="U31" s="201">
         <f t="shared" si="31"/>
-        <v>1277.0130092378313</v>
+        <v>1201.5724654162118</v>
       </c>
       <c r="V31" s="201">
         <f t="shared" si="31"/>
-        <v>2522.0761067794497</v>
+        <v>2373.8779585469738</v>
       </c>
       <c r="W31" s="201">
         <f t="shared" si="31"/>
-        <v>4996.510552911267</v>
+        <v>4704.1020491660802</v>
       </c>
       <c r="X31" s="201">
         <f t="shared" si="31"/>
-        <v>9919.247921528231</v>
+        <v>9340.5908031008457</v>
       </c>
       <c r="Y31" s="201">
         <f t="shared" si="31"/>
-        <v>19720.882584478743</v>
+        <v>18573.369609745776</v>
       </c>
       <c r="Z31" s="201">
         <f t="shared" si="31"/>
-        <v>39249.867961753043</v>
+        <v>36970.808352352025</v>
       </c>
       <c r="AA31" s="201">
         <f t="shared" si="31"/>
-        <v>78180.678867561001</v>
+        <v>73649.071158404171</v>
       </c>
       <c r="AB31" s="201">
         <f t="shared" si="31"/>
-        <v>155822.51134686972</v>
-      </c>
-      <c r="AC31" s="223">
+        <v>146804.02096522413</v>
+      </c>
+      <c r="AC31" s="222">
         <f t="shared" si="31"/>
-        <v>310722.88640536013</v>
+        <v>292762.37207644794</v>
       </c>
       <c r="AD31" s="198">
         <f t="shared" si="31"/>
-        <v>619849.79395505774</v>
+        <v>584061.00102331501</v>
       </c>
       <c r="AE31" s="198">
         <f t="shared" si="31"/>
-        <v>1236910.2680774969</v>
+        <v>1165563.6285865097</v>
       </c>
       <c r="AF31" s="198">
         <f t="shared" si="31"/>
-        <v>2468903.8560102424</v>
+        <v>2326617.4070667382</v>
       </c>
       <c r="AG31" s="198">
         <f t="shared" si="31"/>
-        <v>4929075.8412003703</v>
+        <v>4645225.0599463563</v>
       </c>
       <c r="AH31" s="199">
         <f t="shared" si="31"/>
-        <v>9842540.4229414519</v>
-      </c>
-      <c r="AI31" s="255">
+        <v>9276129.2558043003</v>
+      </c>
+      <c r="AI31" s="254">
         <f>AI19*B13</f>
         <v>682215</v>
       </c>
@@ -36500,65 +36538,65 @@
       </c>
       <c r="T32" s="195">
         <f t="shared" si="33"/>
-        <v>472.32121031574314</v>
+        <v>433.65017371893856</v>
       </c>
       <c r="U32" s="195">
         <f t="shared" si="33"/>
-        <v>988.0398371536221</v>
+        <v>912.59929333200262</v>
       </c>
       <c r="V32" s="195">
         <f t="shared" si="33"/>
-        <v>1994.0351106871613</v>
+        <v>1845.8369624546854</v>
       </c>
       <c r="W32" s="195">
         <f t="shared" si="33"/>
-        <v>4006.8571369903711</v>
+        <v>3777.322853849058</v>
       </c>
       <c r="X32" s="195">
         <f t="shared" si="33"/>
-        <v>8024.6741728454535</v>
+        <v>7564.3143752264223</v>
       </c>
       <c r="Y32" s="195">
         <f t="shared" si="33"/>
-        <v>16049.127646874183</v>
+        <v>15127.993723331283</v>
       </c>
       <c r="Z32" s="195">
         <f t="shared" si="33"/>
-        <v>32078.529055794999</v>
+        <v>30237.360783673292</v>
       </c>
       <c r="AA32" s="195">
         <f t="shared" si="33"/>
-        <v>64101.248187224133</v>
+        <v>60422.82748817197</v>
       </c>
       <c r="AB32" s="195">
         <f t="shared" si="33"/>
-        <v>128079.14824100489</v>
-      </c>
-      <c r="AC32" s="226">
+        <v>120731.53679650216</v>
+      </c>
+      <c r="AC32" s="225">
         <f t="shared" si="33"/>
-        <v>255908.602569799</v>
+        <v>241232.6225290813</v>
       </c>
       <c r="AD32" s="193">
         <f t="shared" si="33"/>
-        <v>511331.77832147357</v>
+        <v>482017.85084101255</v>
       </c>
       <c r="AE32" s="193">
         <f t="shared" si="33"/>
-        <v>1021739.259408233</v>
+        <v>963184.57694413222</v>
       </c>
       <c r="AF32" s="193">
         <f t="shared" si="33"/>
-        <v>2041738.1590263587</v>
+        <v>1924767.5403889618</v>
       </c>
       <c r="AG32" s="193">
         <f t="shared" si="33"/>
-        <v>4080219.0588513683</v>
+        <v>3846538.8005252024</v>
       </c>
       <c r="AH32" s="194">
         <f t="shared" si="33"/>
-        <v>8154360.373606354</v>
-      </c>
-      <c r="AI32" s="255"/>
+        <v>7687488.6268006088</v>
+      </c>
+      <c r="AI32" s="254"/>
       <c r="AJ32" s="45"/>
       <c r="AK32" s="45"/>
       <c r="AL32" s="69"/>
@@ -36577,107 +36615,107 @@
       <c r="I33" s="16"/>
       <c r="J33" s="213">
         <f t="shared" ref="J33:AC33" si="34">J19*$B$14</f>
-        <v>2.84375</v>
+        <v>2.28125</v>
       </c>
       <c r="K33" s="214">
         <f t="shared" si="34"/>
-        <v>5.6875</v>
+        <v>4.5625</v>
       </c>
       <c r="L33" s="214">
         <f t="shared" si="34"/>
-        <v>11.375</v>
+        <v>9.125</v>
       </c>
       <c r="M33" s="214">
         <f t="shared" si="34"/>
-        <v>22.75</v>
+        <v>18.25</v>
       </c>
       <c r="N33" s="214">
         <f t="shared" si="34"/>
-        <v>45.5</v>
+        <v>36.5</v>
       </c>
       <c r="O33" s="214">
         <f t="shared" si="34"/>
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="P33" s="214">
         <f t="shared" si="34"/>
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="Q33" s="214">
         <f t="shared" si="34"/>
-        <v>364</v>
+        <v>292</v>
       </c>
       <c r="R33" s="214">
         <f t="shared" si="34"/>
-        <v>728</v>
+        <v>584</v>
       </c>
       <c r="S33" s="214">
         <f t="shared" si="34"/>
-        <v>1456</v>
+        <v>1168</v>
       </c>
       <c r="T33" s="214">
         <f t="shared" si="34"/>
-        <v>2912</v>
+        <v>2336</v>
       </c>
       <c r="U33" s="214">
         <f t="shared" si="34"/>
-        <v>5824</v>
+        <v>4672</v>
       </c>
       <c r="V33" s="214">
         <f t="shared" si="34"/>
-        <v>11648</v>
+        <v>9344</v>
       </c>
       <c r="W33" s="214">
         <f t="shared" si="34"/>
-        <v>23296</v>
+        <v>18688</v>
       </c>
       <c r="X33" s="214">
         <f t="shared" si="34"/>
-        <v>46592</v>
+        <v>37376</v>
       </c>
       <c r="Y33" s="214">
         <f t="shared" si="34"/>
-        <v>93184</v>
+        <v>74752</v>
       </c>
       <c r="Z33" s="214">
         <f t="shared" si="34"/>
-        <v>186368</v>
+        <v>149504</v>
       </c>
       <c r="AA33" s="214">
         <f t="shared" si="34"/>
-        <v>372736</v>
-      </c>
-      <c r="AB33" s="266">
+        <v>299008</v>
+      </c>
+      <c r="AB33" s="265">
         <f t="shared" si="34"/>
-        <v>745472</v>
-      </c>
-      <c r="AC33" s="225">
+        <v>598016</v>
+      </c>
+      <c r="AC33" s="224">
         <f t="shared" si="34"/>
-        <v>1490944</v>
+        <v>1196032</v>
       </c>
       <c r="AD33" s="189">
         <f t="shared" ref="AD33:AH33" si="35">AD19*$B$14</f>
-        <v>2981888</v>
+        <v>2392064</v>
       </c>
       <c r="AE33" s="189">
         <f t="shared" si="35"/>
-        <v>5963776</v>
+        <v>4784128</v>
       </c>
       <c r="AF33" s="189">
         <f t="shared" si="35"/>
-        <v>11927552</v>
+        <v>9568256</v>
       </c>
       <c r="AG33" s="189">
         <f t="shared" si="35"/>
-        <v>23855104</v>
+        <v>19136512</v>
       </c>
       <c r="AH33" s="190">
         <f t="shared" si="35"/>
-        <v>24832626</v>
-      </c>
-      <c r="AI33" s="255">
+        <v>19920678</v>
+      </c>
+      <c r="AI33" s="254">
         <f>AI19*B14</f>
-        <v>1241631.3</v>
+        <v>996033.89999999991</v>
       </c>
       <c r="AJ33" s="45"/>
       <c r="AK33" s="45"/>
@@ -36697,107 +36735,107 @@
       <c r="I34" s="39"/>
       <c r="J34" s="191">
         <f t="shared" ref="J34:P34" si="36">(1*$B$14)*(2^(((J18-35)-$B$15)/$J$44))</f>
-        <v>1.3433484800983592E-6</v>
+        <v>1.0776311983206616E-6</v>
       </c>
       <c r="K34" s="192">
         <f t="shared" si="36"/>
-        <v>4.6232789717014757E-6</v>
+        <v>3.7087842300462388E-6</v>
       </c>
       <c r="L34" s="192">
         <f t="shared" si="36"/>
-        <v>1.5911514224970111E-5</v>
+        <v>1.2764181740910089E-5</v>
       </c>
       <c r="M34" s="192">
         <f t="shared" si="36"/>
-        <v>5.4761195783574262E-5</v>
+        <v>4.3929310903306828E-5</v>
       </c>
       <c r="N34" s="192">
         <f t="shared" si="36"/>
-        <v>1.8846657340386376E-4</v>
+        <v>1.5118747097233026E-4</v>
       </c>
       <c r="O34" s="192">
         <f t="shared" si="36"/>
-        <v>1.4785522861565051E-3</v>
+        <v>1.1860913943892843E-3</v>
       </c>
       <c r="P34" s="192">
         <f t="shared" si="36"/>
-        <v>3.9920911726225604E-2</v>
+        <v>3.2024467648510649E-2</v>
       </c>
       <c r="Q34" s="192">
         <f>(1*$B$14)*(2^(((Q18-35)-$B$15)/$J$44))</f>
-        <v>1.0778646166080907</v>
+        <v>0.86466062650978703</v>
       </c>
       <c r="R34" s="200">
         <f t="shared" ref="R34:AH34" si="37">($J$19*$B$14)*(2^(((R18-35)-$J$18)/HLOOKUP((R18-35)-$B$15,$J$42:$AI$44,3,TRUE)))</f>
-        <v>14.113425925925926</v>
+        <v>11.32175925925926</v>
       </c>
       <c r="S34" s="200">
         <f t="shared" si="37"/>
-        <v>88.462116929412431</v>
+        <v>70.96411577853965</v>
       </c>
       <c r="T34" s="200">
         <f t="shared" si="37"/>
-        <v>322.97398811055137</v>
+        <v>259.0890234293434</v>
       </c>
       <c r="U34" s="200">
         <f t="shared" si="37"/>
-        <v>525.93117319326086</v>
+        <v>421.90083124294551</v>
       </c>
       <c r="V34" s="200">
         <f t="shared" si="37"/>
-        <v>961.03461288796507</v>
+        <v>770.93985429474117</v>
       </c>
       <c r="W34" s="200">
         <f t="shared" si="37"/>
-        <v>1801.1692169760304</v>
+        <v>1353.0976251628524</v>
       </c>
       <c r="X34" s="200">
         <f t="shared" si="37"/>
-        <v>3448.1242226026557</v>
+        <v>2593.3635846966577</v>
       </c>
       <c r="Y34" s="200">
         <f t="shared" si="37"/>
-        <v>6682.5939864402972</v>
+        <v>5030.2487941651589</v>
       </c>
       <c r="Z34" s="200">
         <f t="shared" si="37"/>
-        <v>13051.836808843636</v>
+        <v>9830.8334502709513</v>
       </c>
       <c r="AA34" s="200">
         <f t="shared" si="37"/>
-        <v>25624.563838213093</v>
-      </c>
-      <c r="AB34" s="267">
+        <v>19310.315758539018</v>
+      </c>
+      <c r="AB34" s="266">
         <f t="shared" si="37"/>
-        <v>50492.920852674004</v>
-      </c>
-      <c r="AC34" s="226">
+        <v>38065.826886334078</v>
+      </c>
+      <c r="AC34" s="225">
         <f t="shared" si="37"/>
-        <v>99761.996580721257</v>
+        <v>75233.434339155283</v>
       </c>
       <c r="AD34" s="193">
         <f t="shared" si="37"/>
-        <v>197502.78845312318</v>
+        <v>148982.99926616155</v>
       </c>
       <c r="AE34" s="193">
         <f t="shared" si="37"/>
-        <v>391611.23577806039</v>
+        <v>295473.41539787123</v>
       </c>
       <c r="AF34" s="193">
         <f t="shared" si="37"/>
-        <v>777441.56851066824</v>
+        <v>586700.80534955359</v>
       </c>
       <c r="AG34" s="193">
         <f t="shared" si="37"/>
-        <v>1544919.3438751842</v>
+        <v>1166081.9387548848</v>
       </c>
       <c r="AH34" s="194">
         <f t="shared" si="37"/>
-        <v>3072487.6897898782</v>
-      </c>
-      <c r="AI34" s="258">
+        <v>2319415.3183453898</v>
+      </c>
+      <c r="AI34" s="257">
         <f>($J$19*$B$14)*(2^(((AI18 - 35) - $J$18)/AI44))</f>
-        <v>2338308.1316702603</v>
+        <v>1875785.6440871318</v>
       </c>
       <c r="AJ34" s="45"/>
       <c r="AK34" s="45"/>
@@ -37232,7 +37270,7 @@
       <c r="G41" s="47"/>
       <c r="H41" s="47"/>
       <c r="I41" s="47"/>
-      <c r="J41" s="235">
+      <c r="J41" s="234">
         <f t="shared" ref="J41:AI41" si="42">(J18-$B$15)/7</f>
         <v>1.1428571428571428</v>
       </c>
@@ -37248,75 +37286,75 @@
         <f t="shared" si="42"/>
         <v>2.4285714285714284</v>
       </c>
-      <c r="N41" s="269">
+      <c r="N41" s="268">
         <f t="shared" si="42"/>
         <v>2.8571428571428572</v>
       </c>
-      <c r="O41" s="236">
+      <c r="O41" s="235">
         <f t="shared" si="42"/>
         <v>3.5714285714285716</v>
       </c>
-      <c r="P41" s="269">
+      <c r="P41" s="268">
         <f t="shared" si="42"/>
         <v>4.7142857142857144</v>
       </c>
-      <c r="Q41" s="237">
+      <c r="Q41" s="236">
         <f t="shared" si="42"/>
         <v>5.8571428571428568</v>
       </c>
-      <c r="R41" s="235">
+      <c r="R41" s="234">
         <f t="shared" si="42"/>
         <v>7</v>
       </c>
-      <c r="S41" s="238">
+      <c r="S41" s="237">
         <f t="shared" si="42"/>
         <v>8.1428571428571423</v>
       </c>
-      <c r="T41" s="269">
+      <c r="T41" s="268">
         <f t="shared" si="42"/>
         <v>9.2857142857142865</v>
       </c>
-      <c r="U41" s="237">
+      <c r="U41" s="236">
         <f t="shared" si="42"/>
         <v>10.428571428571429</v>
       </c>
-      <c r="V41" s="235">
+      <c r="V41" s="234">
         <f t="shared" si="42"/>
         <v>11.571428571428571</v>
       </c>
-      <c r="W41" s="269">
+      <c r="W41" s="268">
         <f t="shared" si="42"/>
         <v>12.714285714285714</v>
       </c>
-      <c r="X41" s="236">
+      <c r="X41" s="235">
         <f t="shared" si="42"/>
         <v>13.857142857142858</v>
       </c>
-      <c r="Y41" s="236">
+      <c r="Y41" s="235">
         <f t="shared" si="42"/>
         <v>15</v>
       </c>
-      <c r="Z41" s="235">
+      <c r="Z41" s="234">
         <f t="shared" si="42"/>
         <v>16.142857142857142</v>
       </c>
-      <c r="AA41" s="269">
+      <c r="AA41" s="268">
         <f t="shared" si="42"/>
         <v>17.285714285714285</v>
       </c>
-      <c r="AB41" s="236">
+      <c r="AB41" s="235">
         <f t="shared" si="42"/>
         <v>18.428571428571427</v>
       </c>
-      <c r="AC41" s="237">
+      <c r="AC41" s="236">
         <f t="shared" si="42"/>
         <v>19.571428571428573</v>
       </c>
-      <c r="AD41" s="269">
+      <c r="AD41" s="268">
         <f t="shared" ref="AD41:AH41" si="43">(AD18-$B$15)/7</f>
         <v>20.714285714285715</v>
       </c>
-      <c r="AE41" s="236">
+      <c r="AE41" s="235">
         <f t="shared" si="43"/>
         <v>21.857142857142858</v>
       </c>
@@ -37324,15 +37362,15 @@
         <f t="shared" si="43"/>
         <v>23</v>
       </c>
-      <c r="AG41" s="269">
+      <c r="AG41" s="268">
         <f t="shared" si="43"/>
         <v>24.142857142857142</v>
       </c>
-      <c r="AH41" s="269">
+      <c r="AH41" s="268">
         <f t="shared" si="43"/>
         <v>25.285714285714285</v>
       </c>
-      <c r="AI41" s="269">
+      <c r="AI41" s="268">
         <f t="shared" si="42"/>
         <v>33.285714285714285</v>
       </c>
@@ -37349,19 +37387,19 @@
       <c r="G42" s="47"/>
       <c r="H42" s="47"/>
       <c r="I42" s="47"/>
-      <c r="J42" s="239">
+      <c r="J42" s="238">
         <f>J18-$B$15</f>
         <v>8</v>
       </c>
-      <c r="K42" s="268">
+      <c r="K42" s="267">
         <f t="shared" ref="K42:O42" si="44">K18-$B$15</f>
         <v>11</v>
       </c>
-      <c r="L42" s="268">
+      <c r="L42" s="267">
         <f t="shared" si="44"/>
         <v>14</v>
       </c>
-      <c r="M42" s="268">
+      <c r="M42" s="267">
         <f t="shared" si="44"/>
         <v>17</v>
       </c>
@@ -37425,19 +37463,19 @@
         <f t="shared" si="45"/>
         <v>129</v>
       </c>
-      <c r="AC42" s="234">
+      <c r="AC42" s="233">
         <f t="shared" si="45"/>
         <v>137</v>
       </c>
-      <c r="AD42" s="234">
+      <c r="AD42" s="233">
         <f t="shared" ref="AD42:AH42" si="46">AD18-$B$15</f>
         <v>145</v>
       </c>
-      <c r="AE42" s="234">
+      <c r="AE42" s="233">
         <f t="shared" si="46"/>
         <v>153</v>
       </c>
-      <c r="AF42" s="234">
+      <c r="AF42" s="233">
         <f t="shared" si="46"/>
         <v>161</v>
       </c>
@@ -37445,7 +37483,7 @@
         <f t="shared" si="46"/>
         <v>169</v>
       </c>
-      <c r="AH42" s="233">
+      <c r="AH42" s="232">
         <f t="shared" si="46"/>
         <v>177</v>
       </c>
@@ -37466,93 +37504,92 @@
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
-      <c r="J43" s="259">
+      <c r="J43" s="258">
         <v>27</v>
       </c>
-      <c r="K43" s="260">
+      <c r="K43" s="259">
         <v>69</v>
       </c>
-      <c r="L43" s="261">
+      <c r="L43" s="260">
         <v>134</v>
       </c>
-      <c r="M43" s="261">
+      <c r="M43" s="260">
         <v>309</v>
       </c>
-      <c r="N43" s="261">
+      <c r="N43" s="260">
         <v>514</v>
       </c>
-      <c r="O43" s="261">
+      <c r="O43" s="260">
         <v>1046</v>
       </c>
-      <c r="P43" s="261">
+      <c r="P43" s="260">
         <v>2092</v>
       </c>
-      <c r="Q43" s="261">
+      <c r="Q43" s="260">
         <v>4241</v>
       </c>
-      <c r="R43" s="262">
-        <f t="shared" ref="R43:S43" si="47">Q43*2</f>
-        <v>8482</v>
-      </c>
-      <c r="S43" s="262">
-        <f t="shared" si="47"/>
-        <v>16964</v>
-      </c>
-      <c r="T43" s="262">
+      <c r="R43" s="261">
+        <v>8000</v>
+      </c>
+      <c r="S43" s="261">
+        <f t="shared" ref="S43" si="47">R43*2</f>
+        <v>16000</v>
+      </c>
+      <c r="T43" s="261">
         <f t="shared" ref="T43" si="48">S43*2</f>
-        <v>33928</v>
-      </c>
-      <c r="U43" s="262">
+        <v>32000</v>
+      </c>
+      <c r="U43" s="261">
         <f t="shared" ref="U43" si="49">T43*2</f>
-        <v>67856</v>
-      </c>
-      <c r="V43" s="262">
+        <v>64000</v>
+      </c>
+      <c r="V43" s="261">
         <f t="shared" ref="V43" si="50">U43*2</f>
-        <v>135712</v>
-      </c>
-      <c r="W43" s="262">
+        <v>128000</v>
+      </c>
+      <c r="W43" s="261">
         <f t="shared" ref="W43" si="51">V43*2</f>
-        <v>271424</v>
-      </c>
-      <c r="X43" s="262">
+        <v>256000</v>
+      </c>
+      <c r="X43" s="261">
         <f t="shared" ref="X43" si="52">W43*2</f>
-        <v>542848</v>
-      </c>
-      <c r="Y43" s="262">
+        <v>512000</v>
+      </c>
+      <c r="Y43" s="261">
         <f t="shared" ref="Y43" si="53">X43*2</f>
-        <v>1085696</v>
-      </c>
-      <c r="Z43" s="262">
+        <v>1024000</v>
+      </c>
+      <c r="Z43" s="261">
         <f t="shared" ref="Z43:AC43" si="54">Y43*2</f>
-        <v>2171392</v>
-      </c>
-      <c r="AA43" s="262">
+        <v>2048000</v>
+      </c>
+      <c r="AA43" s="261">
         <f t="shared" si="54"/>
-        <v>4342784</v>
-      </c>
-      <c r="AB43" s="262">
+        <v>4096000</v>
+      </c>
+      <c r="AB43" s="261">
         <f t="shared" si="54"/>
-        <v>8685568</v>
+        <v>8192000</v>
       </c>
       <c r="AC43" s="177">
         <f t="shared" si="54"/>
-        <v>17371136</v>
+        <v>16384000</v>
       </c>
       <c r="AD43" s="177">
         <f t="shared" ref="AD43" si="55">AC43*2</f>
-        <v>34742272</v>
+        <v>32768000</v>
       </c>
       <c r="AE43" s="177">
         <f t="shared" ref="AE43" si="56">AD43*2</f>
-        <v>69484544</v>
+        <v>65536000</v>
       </c>
       <c r="AF43" s="177">
         <f>AE43*2</f>
-        <v>138969088</v>
+        <v>131072000</v>
       </c>
       <c r="AG43" s="177">
         <f t="shared" ref="AG43" si="57">AF43*2</f>
-        <v>277938176</v>
+        <v>262144000</v>
       </c>
       <c r="AH43" s="177">
         <f>AH19</f>
@@ -37609,67 +37646,67 @@
       </c>
       <c r="R44" s="174">
         <f>(R18-$J$18)/(LOG(R43/$J$43)/LOG(2))</f>
-        <v>4.9425570799760505</v>
+        <v>4.9933644382658393</v>
       </c>
       <c r="S44" s="174">
         <f t="shared" si="58"/>
-        <v>5.2714805685986157</v>
+        <v>5.3197860270352395</v>
       </c>
       <c r="T44" s="174">
         <f t="shared" si="58"/>
-        <v>5.5365062692609692</v>
+        <v>5.5822716862340114</v>
       </c>
       <c r="U44" s="174">
         <f t="shared" si="58"/>
-        <v>5.7546052533295091</v>
+        <v>5.7979304654264405</v>
       </c>
       <c r="V44" s="174">
         <f t="shared" si="58"/>
-        <v>5.937227435429528</v>
+        <v>5.9782668955672387</v>
       </c>
       <c r="W44" s="174">
         <f t="shared" si="58"/>
-        <v>6.0923779298326579</v>
+        <v>6.1313021616599306</v>
       </c>
       <c r="X44" s="174">
         <f t="shared" si="58"/>
-        <v>6.2258219220051139</v>
+        <v>6.2627996925294429</v>
       </c>
       <c r="Y44" s="174">
         <f t="shared" si="58"/>
-        <v>6.3418168963574333</v>
+        <v>6.3770073117323651</v>
       </c>
       <c r="Z44" s="174">
         <f t="shared" si="58"/>
-        <v>6.4435752545879774</v>
+        <v>6.4771247025247014</v>
       </c>
       <c r="AA44" s="174">
         <f t="shared" si="58"/>
-        <v>6.5335664447687893</v>
+        <v>6.5656079068992623</v>
       </c>
       <c r="AB44" s="174">
         <f t="shared" si="58"/>
-        <v>6.6137200062737795</v>
+        <v>6.6443735003915743</v>
       </c>
       <c r="AC44" s="179">
         <f t="shared" si="58"/>
-        <v>6.6855654765598391</v>
+        <v>6.7149389984501244</v>
       </c>
       <c r="AD44" s="179">
         <f t="shared" ref="AD44" si="59">(AD18-$J$18)/(LOG(AD43/$J$43)/LOG(2))</f>
-        <v>6.7503309366162956</v>
+        <v>6.7785215804294987</v>
       </c>
       <c r="AE44" s="179">
         <f t="shared" ref="AE44" si="60">(AE18-$J$18)/(LOG(AE43/$J$43)/LOG(2))</f>
-        <v>6.8090137910078514</v>
+        <v>6.8361088871848805</v>
       </c>
       <c r="AF44" s="179">
         <f t="shared" ref="AF44" si="61">(AF18-$J$18)/(LOG(AF43/$J$43)/LOG(2))</f>
-        <v>6.8624324999462534</v>
+        <v>6.8885106935690432</v>
       </c>
       <c r="AG44" s="179">
         <f t="shared" ref="AG44" si="62">(AG18-$J$18)/(LOG(AG43/$J$43)/LOG(2))</f>
-        <v>6.911264987111454</v>
+        <v>6.9363972236262983</v>
       </c>
       <c r="AH44" s="179">
         <f t="shared" ref="AH44:AI44" si="63">(AH18-$J$18)/(LOG(AH43/$J$43)/LOG(2))</f>
@@ -37692,41 +37729,41 @@
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
-      <c r="J45" s="274">
+      <c r="J45" s="273">
         <v>25</v>
       </c>
-      <c r="K45" s="275">
+      <c r="K45" s="274">
         <v>60</v>
       </c>
-      <c r="L45" s="275">
+      <c r="L45" s="274">
         <v>121</v>
       </c>
-      <c r="M45" s="275">
+      <c r="M45" s="274">
         <v>269</v>
       </c>
-      <c r="N45" s="275">
+      <c r="N45" s="274">
         <v>437</v>
       </c>
-      <c r="O45" s="275">
+      <c r="O45" s="274">
         <v>913</v>
       </c>
-      <c r="P45" s="275">
+      <c r="P45" s="274">
         <v>1751</v>
       </c>
-      <c r="Q45" s="275">
+      <c r="Q45" s="274">
         <v>3509</v>
       </c>
-      <c r="R45" s="276"/>
-      <c r="S45" s="276"/>
-      <c r="T45" s="276"/>
-      <c r="U45" s="276"/>
-      <c r="V45" s="276"/>
-      <c r="W45" s="276"/>
-      <c r="X45" s="276"/>
-      <c r="Y45" s="276"/>
-      <c r="Z45" s="276"/>
-      <c r="AA45" s="276"/>
-      <c r="AB45" s="276"/>
+      <c r="R45" s="275"/>
+      <c r="S45" s="275"/>
+      <c r="T45" s="275"/>
+      <c r="U45" s="275"/>
+      <c r="V45" s="275"/>
+      <c r="W45" s="275"/>
+      <c r="X45" s="275"/>
+      <c r="Y45" s="275"/>
+      <c r="Z45" s="275"/>
+      <c r="AA45" s="275"/>
+      <c r="AB45" s="275"/>
       <c r="AC45" s="177"/>
       <c r="AD45" s="177"/>
       <c r="AE45" s="177"/>
@@ -37779,8 +37816,8 @@
         <f t="shared" si="64"/>
         <v>359</v>
       </c>
-      <c r="R46" s="297">
-        <v>380</v>
+      <c r="R46" s="280">
+        <v>686</v>
       </c>
       <c r="S46" s="175"/>
       <c r="T46" s="175"/>
@@ -37836,8 +37873,8 @@
       <c r="Q47" s="52">
         <v>373</v>
       </c>
-      <c r="R47" s="298">
-        <v>399</v>
+      <c r="R47" s="281">
+        <v>582</v>
       </c>
       <c r="S47" s="176"/>
       <c r="T47" s="176"/>
@@ -41331,7 +41368,7 @@
       <c r="A82" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B82" s="265">
+      <c r="B82" s="264">
         <v>4.2999999999999999E-4</v>
       </c>
       <c r="C82" s="10">
@@ -42003,7 +42040,7 @@
       <c r="E92" s="2"/>
     </row>
     <row r="94" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="E94" s="242"/>
+      <c r="E94" s="241"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J30:AD30 AF30:AI30">
@@ -42149,7 +42186,7 @@
   <dimension ref="B3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42195,7 +42232,7 @@
         <v>118</v>
       </c>
       <c r="C6" s="154">
-        <v>3512</v>
+        <v>6575</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -42204,7 +42241,7 @@
       </c>
       <c r="C7" s="152">
         <f ca="1">NOW()</f>
-        <v>43935.473862615741</v>
+        <v>43941.627440856479</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -42213,7 +42250,7 @@
       </c>
       <c r="C8" s="153">
         <f ca="1">C7-C5</f>
-        <v>35.473862615741382</v>
+        <v>41.627440856478643</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -42222,7 +42259,7 @@
       </c>
       <c r="C9" s="155">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>5.2073308390489927</v>
+        <v>5.3942581280820017</v>
       </c>
       <c r="D9" t="s">
         <v>96</v>
@@ -42255,7 +42292,7 @@
       </c>
       <c r="C12" s="160">
         <f>C6/Projections!B7</f>
-        <v>62714.28571428571</v>
+        <v>117410.71428571429</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -42264,7 +42301,7 @@
       </c>
       <c r="C13" s="161">
         <f ca="1">(C4/Projections!B7)*(2^(((C7-21)-C5)/C9))</f>
-        <v>3831.5974089249562</v>
+        <v>7902.9532483266612</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -42273,7 +42310,7 @@
       </c>
       <c r="C14" s="144">
         <f ca="1">C12-C13</f>
-        <v>58882.688305360753</v>
+        <v>109507.76103738762</v>
       </c>
       <c r="E14" s="157"/>
       <c r="F14" s="158" t="s">
@@ -42287,7 +42324,7 @@
       </c>
       <c r="C15" s="64">
         <f>C6*Projections!B11</f>
-        <v>2844.7200000000003</v>
+        <v>5325.75</v>
       </c>
       <c r="I15" s="151"/>
     </row>
@@ -42297,7 +42334,7 @@
       </c>
       <c r="C16" s="80">
         <f ca="1">(C4*Projections!B11)*(2^(((C7-21)-C5)/C9))</f>
-        <v>173.80125846883604</v>
+        <v>358.47795934409737</v>
       </c>
       <c r="I16" s="151"/>
     </row>
@@ -42307,7 +42344,7 @@
       </c>
       <c r="C17" s="80">
         <f ca="1">C15-C16</f>
-        <v>2670.9187415311644</v>
+        <v>4967.2720406559029</v>
       </c>
       <c r="F17" t="s">
         <v>142</v>
@@ -42320,7 +42357,7 @@
       </c>
       <c r="C18" s="64">
         <f>C6*Projections!B12</f>
-        <v>491.68000000000006</v>
+        <v>920.50000000000011</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -42329,7 +42366,7 @@
       </c>
       <c r="C19" s="80">
         <f ca="1">(C4*Projections!B12)*(2^(((C7-49)-C5)/C9))</f>
-        <v>0.72284822870797449</v>
+        <v>1.6964759956824884</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -42338,7 +42375,7 @@
       </c>
       <c r="C20" s="80">
         <f ca="1">C18-C19</f>
-        <v>490.9571517712921</v>
+        <v>918.80352400431764</v>
       </c>
       <c r="F20" t="s">
         <v>147</v>
@@ -42350,7 +42387,7 @@
       </c>
       <c r="C21" s="64">
         <f>C6*Projections!B13</f>
-        <v>175.60000000000002</v>
+        <v>328.75</v>
       </c>
       <c r="I21" s="151"/>
     </row>
@@ -42360,7 +42397,7 @@
       </c>
       <c r="C22" s="80">
         <f ca="1">(C4*Projections!B13)*(2^(((C7-49)-C5)/C9))</f>
-        <v>0.25816008168141946</v>
+        <v>0.60588428417231732</v>
       </c>
       <c r="I22" s="151"/>
     </row>
@@ -42370,7 +42407,7 @@
       </c>
       <c r="C23" s="80">
         <f ca="1">C21-C22</f>
-        <v>175.34183991831861</v>
+        <v>328.1441157158277</v>
       </c>
       <c r="I23" s="151"/>
     </row>
@@ -42380,7 +42417,7 @@
       </c>
       <c r="C24" s="64">
         <f>C6*Projections!B14</f>
-        <v>319.59199999999998</v>
+        <v>479.97499999999997</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -42389,7 +42426,7 @@
       </c>
       <c r="C25" s="61">
         <f ca="1">(C4*Projections!B14)*(2^(((C7-42)-C5)/C9))</f>
-        <v>1.1929512069520674</v>
+        <v>2.1746130129454007</v>
       </c>
       <c r="F25" t="s">
         <v>153</v>
@@ -42401,7 +42438,7 @@
       </c>
       <c r="C26" s="164">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>51.369403418350039</v>
+        <v>48.333233460718866</v>
       </c>
       <c r="D26" t="s">
         <v>96</v>
@@ -42416,7 +42453,7 @@
       </c>
       <c r="C27" s="163">
         <f ca="1">C7+C26</f>
-        <v>43986.843266034091</v>
+        <v>43989.960674317197</v>
       </c>
       <c r="F27" t="s">
         <v>155</v>
@@ -42428,7 +42465,7 @@
       </c>
       <c r="C28" s="162">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>28.072163569563568</v>
+        <v>24.199693783577189</v>
       </c>
       <c r="D28" t="s">
         <v>96</v>
@@ -42440,7 +42477,7 @@
       </c>
       <c r="C29" s="163">
         <f ca="1">C7+C28</f>
-        <v>43963.546026185308</v>
+        <v>43965.827134640058</v>
       </c>
       <c r="F29" t="s">
         <v>155</v>
@@ -42452,7 +42489,7 @@
       </c>
       <c r="C30" s="162">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>59.104512344624339</v>
+        <v>56.346009196853011</v>
       </c>
       <c r="D30" t="s">
         <v>96</v>
@@ -42464,7 +42501,7 @@
       </c>
       <c r="C31" s="163">
         <f ca="1">C7+C30</f>
-        <v>43994.578374960365</v>
+        <v>43997.97345005333</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -42473,7 +42510,7 @@
       </c>
       <c r="C34" s="152">
         <f ca="1">C7+30</f>
-        <v>43965.473862615741</v>
+        <v>43971.627440856479</v>
       </c>
       <c r="F34" t="s">
         <v>168</v>
@@ -42485,7 +42522,7 @@
       </c>
       <c r="C35" s="80">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>190467.59233226304</v>
+        <v>310502.27174853761</v>
       </c>
       <c r="F35" t="s">
         <v>140</v>
@@ -42497,7 +42534,7 @@
       </c>
       <c r="C36" s="80">
         <f ca="1">C35/Projections!B7</f>
-        <v>3401207.0059332685</v>
+        <v>5544683.4240810284</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -42506,7 +42543,7 @@
       </c>
       <c r="C37" s="80">
         <f ca="1">C35*Projections!B11</f>
-        <v>154278.74978913309</v>
+        <v>251506.84011631546</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -42515,7 +42552,7 @@
       </c>
       <c r="C38" s="80">
         <f ca="1">C35*Projections!B12</f>
-        <v>26665.46292651683</v>
+        <v>43470.318044795269</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -42524,7 +42561,7 @@
       </c>
       <c r="C39" s="80">
         <f ca="1">C35*Projections!B13</f>
-        <v>9523.3796166131524</v>
+        <v>15525.11358742688</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -42533,7 +42570,7 @@
       </c>
       <c r="C40" s="61">
         <f ca="1">C35*Projections!B14</f>
-        <v>17332.550902235937</v>
+        <v>22666.665837643242</v>
       </c>
     </row>
   </sheetData>
@@ -42561,7 +42598,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="227" t="s">
         <v>177</v>
       </c>
       <c r="B2" t="s">
@@ -42575,23 +42612,23 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="229" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="243">
+      <c r="B3" s="242">
         <v>4.2799999999999998E-2</v>
       </c>
-      <c r="C3" s="243">
+      <c r="C3" s="242">
         <v>4.4699999999999997E-2</v>
       </c>
-      <c r="D3" s="243">
+      <c r="D3" s="242">
         <f>SUM(B3:C3)</f>
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="231" t="s">
+      <c r="A4" s="230" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="44">
@@ -42604,29 +42641,29 @@
         <f t="shared" ref="D4:D20" si="0">SUM(B4:C4)</f>
         <v>8.9900000000000008E-2</v>
       </c>
-      <c r="E4" s="244">
+      <c r="E4" s="243">
         <f>SUM(D3:D4)</f>
         <v>0.1774</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="230" t="s">
+      <c r="A5" s="229" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="243">
+      <c r="B5" s="242">
         <v>4.24E-2</v>
       </c>
-      <c r="C5" s="243">
+      <c r="C5" s="242">
         <v>4.4200000000000003E-2</v>
       </c>
-      <c r="D5" s="243">
+      <c r="D5" s="242">
         <f t="shared" si="0"/>
         <v>8.660000000000001E-2</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="231" t="s">
+      <c r="A6" s="230" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="44">
@@ -42639,29 +42676,29 @@
         <f t="shared" si="0"/>
         <v>8.6300000000000002E-2</v>
       </c>
-      <c r="E6" s="244">
+      <c r="E6" s="243">
         <f>SUM(D5:D6)</f>
         <v>0.1729</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="230" t="s">
+      <c r="A7" s="229" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="243">
+      <c r="B7" s="242">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="C7" s="243">
+      <c r="C7" s="242">
         <v>4.19E-2</v>
       </c>
-      <c r="D7" s="243">
+      <c r="D7" s="242">
         <f t="shared" si="0"/>
         <v>8.1600000000000006E-2</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="231" t="s">
+      <c r="A8" s="230" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="44">
@@ -42674,29 +42711,29 @@
         <f t="shared" si="0"/>
         <v>7.9199999999999993E-2</v>
       </c>
-      <c r="E8" s="244">
+      <c r="E8" s="243">
         <f>SUM(D7:D8)</f>
         <v>0.1608</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="230" t="s">
+      <c r="A9" s="229" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="243">
+      <c r="B9" s="242">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="C9" s="243">
+      <c r="C9" s="242">
         <v>3.8899999999999997E-2</v>
       </c>
-      <c r="D9" s="243">
+      <c r="D9" s="242">
         <f t="shared" si="0"/>
         <v>7.6899999999999996E-2</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="231" t="s">
+      <c r="A10" s="230" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="44">
@@ -42709,29 +42746,29 @@
         <f t="shared" si="0"/>
         <v>7.6200000000000004E-2</v>
       </c>
-      <c r="E10" s="244">
+      <c r="E10" s="243">
         <f>SUM(D9:D10)</f>
         <v>0.15310000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="230" t="s">
+      <c r="A11" s="229" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="243">
+      <c r="B11" s="242">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="C11" s="243">
+      <c r="C11" s="242">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="D11" s="243">
+      <c r="D11" s="242">
         <f t="shared" si="0"/>
         <v>7.0599999999999996E-2</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="231" t="s">
+      <c r="A12" s="230" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="44">
@@ -42744,29 +42781,29 @@
         <f t="shared" si="0"/>
         <v>6.5299999999999997E-2</v>
       </c>
-      <c r="E12" s="244">
+      <c r="E12" s="243">
         <f>SUM(D11:D12)</f>
         <v>0.13589999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="230" t="s">
+      <c r="A13" s="229" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="243">
+      <c r="B13" s="242">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="C13" s="243">
+      <c r="C13" s="242">
         <v>2.87E-2</v>
       </c>
-      <c r="D13" s="243">
+      <c r="D13" s="242">
         <f t="shared" si="0"/>
         <v>5.7499999999999996E-2</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="231" t="s">
+      <c r="A14" s="230" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="44">
@@ -42779,29 +42816,29 @@
         <f t="shared" si="0"/>
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="E14" s="244">
+      <c r="E14" s="243">
         <f>SUM(D13:D14)</f>
         <v>0.105</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="230" t="s">
+      <c r="A15" s="229" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="243">
+      <c r="B15" s="242">
         <v>1.9E-2</v>
       </c>
-      <c r="C15" s="243">
+      <c r="C15" s="242">
         <v>1.83E-2</v>
       </c>
-      <c r="D15" s="243">
+      <c r="D15" s="242">
         <f t="shared" si="0"/>
         <v>3.73E-2</v>
       </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="231" t="s">
+      <c r="A16" s="230" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="44">
@@ -42814,29 +42851,29 @@
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E16" s="244">
+      <c r="E16" s="243">
         <f>SUM(D15:D16)</f>
         <v>6.2300000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="230" t="s">
+      <c r="A17" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="243">
+      <c r="B17" s="242">
         <v>8.6E-3</v>
       </c>
-      <c r="C17" s="243">
+      <c r="C17" s="242">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="D17" s="243">
+      <c r="D17" s="242">
         <f t="shared" si="0"/>
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="231" t="s">
+      <c r="A18" s="230" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="44">
@@ -42849,32 +42886,32 @@
         <f t="shared" si="0"/>
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="E18" s="244">
+      <c r="E18" s="243">
         <f>SUM(D17:D18)</f>
         <v>2.5399999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="245" t="s">
+      <c r="A19" s="244" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="246">
+      <c r="B19" s="245">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="C19" s="246">
+      <c r="C19" s="245">
         <v>2.8E-3</v>
       </c>
-      <c r="D19" s="246">
+      <c r="D19" s="245">
         <f t="shared" si="0"/>
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="E19" s="247">
+      <c r="E19" s="246">
         <f>D19</f>
         <v>7.4000000000000003E-3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="229" t="s">
+      <c r="A20" s="228" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="1">
@@ -42970,7 +43007,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="240" t="s">
+      <c r="A2" s="239" t="s">
         <v>179</v>
       </c>
     </row>

--- a/Indonesian COVID-19 Infection Projections.xlsx
+++ b/Indonesian COVID-19 Infection Projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6187C853-4248-4F9C-9AA1-B8DAE43F7B2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9F70EA-E4E0-4E3B-9310-A26C1E42BD0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="2775" windowWidth="36225" windowHeight="15435" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="201">
   <si>
     <t>By Age</t>
   </si>
@@ -638,6 +638,9 @@
   <si>
     <t>Ban of Eid-al-Fitr homecoming, "Mudik"</t>
   </si>
+  <si>
+    <t>Lack of testing and lack of transparency in reporting by the government means that these numbers are not reflective of what is actually happening</t>
+  </si>
 </sst>
 </file>
 
@@ -1063,7 +1066,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="296">
+  <cellXfs count="297">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1394,6 +1397,7 @@
     <xf numFmtId="14" fontId="0" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1740,46 +1744,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43907.763846064816</c:v>
+                  <c:v>43912.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43910.763846064816</c:v>
+                  <c:v>43915.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43913.763846064816</c:v>
+                  <c:v>43918.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43916.763846064816</c:v>
+                  <c:v>43921.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43919.763846064816</c:v>
+                  <c:v>43924.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43922.763846064816</c:v>
+                  <c:v>43927.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43925.763846064816</c:v>
+                  <c:v>43930.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43928.763846064816</c:v>
+                  <c:v>43933.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43931.763846064816</c:v>
+                  <c:v>43936.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43934.763846064816</c:v>
+                  <c:v>43939.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43937.763846064816</c:v>
+                  <c:v>43942.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43940.763846064816</c:v>
+                  <c:v>43945.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43943.763846064816</c:v>
+                  <c:v>43948.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43946.763846064816</c:v>
+                  <c:v>43951.452342708333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1889,46 +1893,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43907.763846064816</c:v>
+                  <c:v>43912.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43910.763846064816</c:v>
+                  <c:v>43915.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43913.763846064816</c:v>
+                  <c:v>43918.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43916.763846064816</c:v>
+                  <c:v>43921.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43919.763846064816</c:v>
+                  <c:v>43924.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43922.763846064816</c:v>
+                  <c:v>43927.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43925.763846064816</c:v>
+                  <c:v>43930.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43928.763846064816</c:v>
+                  <c:v>43933.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43931.763846064816</c:v>
+                  <c:v>43936.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43934.763846064816</c:v>
+                  <c:v>43939.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43937.763846064816</c:v>
+                  <c:v>43942.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43940.763846064816</c:v>
+                  <c:v>43945.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43943.763846064816</c:v>
+                  <c:v>43948.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43946.763846064816</c:v>
+                  <c:v>43951.452342708333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2038,46 +2042,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43907.763846064816</c:v>
+                  <c:v>43912.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43910.763846064816</c:v>
+                  <c:v>43915.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43913.763846064816</c:v>
+                  <c:v>43918.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43916.763846064816</c:v>
+                  <c:v>43921.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43919.763846064816</c:v>
+                  <c:v>43924.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43922.763846064816</c:v>
+                  <c:v>43927.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43925.763846064816</c:v>
+                  <c:v>43930.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43928.763846064816</c:v>
+                  <c:v>43933.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43931.763846064816</c:v>
+                  <c:v>43936.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43934.763846064816</c:v>
+                  <c:v>43939.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43937.763846064816</c:v>
+                  <c:v>43942.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43940.763846064816</c:v>
+                  <c:v>43945.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43943.763846064816</c:v>
+                  <c:v>43948.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43946.763846064816</c:v>
+                  <c:v>43951.452342708333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2652,7 +2656,7 @@
                   <c:v>8211</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="#,##0">
-                  <c:v>16422</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3621,31 +3625,31 @@
                   <c:v>3408.2260145989767</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6336.9735739330599</c:v>
+                  <c:v>6160.047639136711</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12085.185292213608</c:v>
+                  <c:v>11752.437986725925</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23374.686298801396</c:v>
+                  <c:v>22737.453333240272</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45602.629604895155</c:v>
+                  <c:v>44368.624818396449</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>89474.510306153345</c:v>
+                  <c:v>87067.26070629961</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>176244.4922496294</c:v>
+                  <c:v>171524.56381234428</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>348146.67103623319</c:v>
+                  <c:v>338858.17078094679</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>689168.22670647188</c:v>
+                  <c:v>670838.9293881472</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1366434.918389379</c:v>
+                  <c:v>1330189.1687817471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3800,31 +3804,31 @@
                   <c:v>3408.2260145989767</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4450.0428848594911</c:v>
+                  <c:v>4273.1169500631422</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7975.1117037414515</c:v>
+                  <c:v>7730.553223986215</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16265.189818905459</c:v>
+                  <c:v>15756.425639065415</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32530.629064926456</c:v>
+                  <c:v>31676.814510334072</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>64846.867986595811</c:v>
+                  <c:v>63144.506482174853</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>129149.19580592136</c:v>
+                  <c:v>125760.77778378499</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>257193.57109507438</c:v>
+                  <c:v>250451.67088919078</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>512298.56791421853</c:v>
+                  <c:v>498882.44517513155</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1020757.59282513</c:v>
+                  <c:v>994051.44022641238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3982,28 +3986,28 @@
                   <c:v>1692.9232398422837</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2926.2692876263877</c:v>
+                  <c:v>2838.0804618939405</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5321.4149868852674</c:v>
+                  <c:v>5165.1448241823364</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9953.6436381835811</c:v>
+                  <c:v>9666.743885176269</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18942.630275309377</c:v>
+                  <c:v>18404.266427784616</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36461.050299088725</c:v>
+                  <c:v>35436.13451285768</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>70734.55515090916</c:v>
+                  <c:v>68763.699078722624</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>138005.06207922511</c:v>
+                  <c:v>134187.6392587974</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>270390.24585092824</c:v>
+                  <c:v>262956.01341610006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4161,28 +4165,28 @@
                   <c:v>1406.8526866615316</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2386.7203903426166</c:v>
+                  <c:v>2298.5315646101694</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4257.9443393291185</c:v>
+                  <c:v>4129.4755536080365</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7846.8413196633101</c:v>
+                  <c:v>7614.8548700449956</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14757.140554455607</c:v>
+                  <c:v>14327.642647852814</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28131.547178152312</c:v>
+                  <c:v>27322.948009413747</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>54139.260010595513</c:v>
+                  <c:v>52598.865469643584</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>104915.40839736396</c:v>
+                  <c:v>101955.47083936943</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>204374.80057601014</c:v>
+                  <c:v>198649.96133742295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11245,7 +11249,7 @@
                   <c:v>8211</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="#,##0">
-                  <c:v>16422</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12103,46 +12107,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43907.763846064816</c:v>
+                  <c:v>43912.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43910.763846064816</c:v>
+                  <c:v>43915.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43913.763846064816</c:v>
+                  <c:v>43918.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43916.763846064816</c:v>
+                  <c:v>43921.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43919.763846064816</c:v>
+                  <c:v>43924.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43922.763846064816</c:v>
+                  <c:v>43927.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43925.763846064816</c:v>
+                  <c:v>43930.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43928.763846064816</c:v>
+                  <c:v>43933.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43931.763846064816</c:v>
+                  <c:v>43936.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43934.763846064816</c:v>
+                  <c:v>43939.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43937.763846064816</c:v>
+                  <c:v>43942.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43940.763846064816</c:v>
+                  <c:v>43945.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43943.763846064816</c:v>
+                  <c:v>43948.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43946.763846064816</c:v>
+                  <c:v>43951.452342708333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12243,46 +12247,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43907.763846064816</c:v>
+                  <c:v>43912.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43910.763846064816</c:v>
+                  <c:v>43915.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43913.763846064816</c:v>
+                  <c:v>43918.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43916.763846064816</c:v>
+                  <c:v>43921.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43919.763846064816</c:v>
+                  <c:v>43924.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43922.763846064816</c:v>
+                  <c:v>43927.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43925.763846064816</c:v>
+                  <c:v>43930.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43928.763846064816</c:v>
+                  <c:v>43933.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43931.763846064816</c:v>
+                  <c:v>43936.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43934.763846064816</c:v>
+                  <c:v>43939.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43937.763846064816</c:v>
+                  <c:v>43942.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43940.763846064816</c:v>
+                  <c:v>43945.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43943.763846064816</c:v>
+                  <c:v>43948.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43946.763846064816</c:v>
+                  <c:v>43951.452342708333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12386,46 +12390,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43907.763846064816</c:v>
+                  <c:v>43912.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43910.763846064816</c:v>
+                  <c:v>43915.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43913.763846064816</c:v>
+                  <c:v>43918.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43916.763846064816</c:v>
+                  <c:v>43921.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43919.763846064816</c:v>
+                  <c:v>43924.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43922.763846064816</c:v>
+                  <c:v>43927.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43925.763846064816</c:v>
+                  <c:v>43930.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43928.763846064816</c:v>
+                  <c:v>43933.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43931.763846064816</c:v>
+                  <c:v>43936.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43934.763846064816</c:v>
+                  <c:v>43939.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43937.763846064816</c:v>
+                  <c:v>43942.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43940.763846064816</c:v>
+                  <c:v>43945.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43943.763846064816</c:v>
+                  <c:v>43948.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43946.763846064816</c:v>
+                  <c:v>43951.452342708333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12523,46 +12527,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43907.763846064816</c:v>
+                  <c:v>43912.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43910.763846064816</c:v>
+                  <c:v>43915.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43913.763846064816</c:v>
+                  <c:v>43918.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43916.763846064816</c:v>
+                  <c:v>43921.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43919.763846064816</c:v>
+                  <c:v>43924.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43922.763846064816</c:v>
+                  <c:v>43927.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43925.763846064816</c:v>
+                  <c:v>43930.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43928.763846064816</c:v>
+                  <c:v>43933.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43931.763846064816</c:v>
+                  <c:v>43936.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43934.763846064816</c:v>
+                  <c:v>43939.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43937.763846064816</c:v>
+                  <c:v>43942.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43940.763846064816</c:v>
+                  <c:v>43945.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43943.763846064816</c:v>
+                  <c:v>43948.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43946.763846064816</c:v>
+                  <c:v>43951.452342708333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12930,46 +12934,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43907.763846064816</c:v>
+                  <c:v>43912.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43910.763846064816</c:v>
+                  <c:v>43915.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43913.763846064816</c:v>
+                  <c:v>43918.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43916.763846064816</c:v>
+                  <c:v>43921.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43919.763846064816</c:v>
+                  <c:v>43924.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43922.763846064816</c:v>
+                  <c:v>43927.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43925.763846064816</c:v>
+                  <c:v>43930.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43928.763846064816</c:v>
+                  <c:v>43933.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43931.763846064816</c:v>
+                  <c:v>43936.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43934.763846064816</c:v>
+                  <c:v>43939.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43937.763846064816</c:v>
+                  <c:v>43942.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43940.763846064816</c:v>
+                  <c:v>43945.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43943.763846064816</c:v>
+                  <c:v>43948.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43946.763846064816</c:v>
+                  <c:v>43951.452342708333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13079,46 +13083,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43907.763846064816</c:v>
+                  <c:v>43912.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43910.763846064816</c:v>
+                  <c:v>43915.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43913.763846064816</c:v>
+                  <c:v>43918.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43916.763846064816</c:v>
+                  <c:v>43921.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43919.763846064816</c:v>
+                  <c:v>43924.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43922.763846064816</c:v>
+                  <c:v>43927.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43925.763846064816</c:v>
+                  <c:v>43930.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43928.763846064816</c:v>
+                  <c:v>43933.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43931.763846064816</c:v>
+                  <c:v>43936.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43934.763846064816</c:v>
+                  <c:v>43939.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43937.763846064816</c:v>
+                  <c:v>43942.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43940.763846064816</c:v>
+                  <c:v>43945.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43943.763846064816</c:v>
+                  <c:v>43948.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43946.763846064816</c:v>
+                  <c:v>43951.452342708333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13228,46 +13232,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43907.763846064816</c:v>
+                  <c:v>43912.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43910.763846064816</c:v>
+                  <c:v>43915.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43913.763846064816</c:v>
+                  <c:v>43918.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43916.763846064816</c:v>
+                  <c:v>43921.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43919.763846064816</c:v>
+                  <c:v>43924.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43922.763846064816</c:v>
+                  <c:v>43927.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43925.763846064816</c:v>
+                  <c:v>43930.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43928.763846064816</c:v>
+                  <c:v>43933.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43931.763846064816</c:v>
+                  <c:v>43936.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43934.763846064816</c:v>
+                  <c:v>43939.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43937.763846064816</c:v>
+                  <c:v>43942.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43940.763846064816</c:v>
+                  <c:v>43945.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43943.763846064816</c:v>
+                  <c:v>43948.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43946.763846064816</c:v>
+                  <c:v>43951.452342708333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13645,46 +13649,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43907.763846064816</c:v>
+                  <c:v>43912.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43910.763846064816</c:v>
+                  <c:v>43915.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43913.763846064816</c:v>
+                  <c:v>43918.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43916.763846064816</c:v>
+                  <c:v>43921.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43919.763846064816</c:v>
+                  <c:v>43924.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43922.763846064816</c:v>
+                  <c:v>43927.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43925.763846064816</c:v>
+                  <c:v>43930.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43928.763846064816</c:v>
+                  <c:v>43933.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43931.763846064816</c:v>
+                  <c:v>43936.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43934.763846064816</c:v>
+                  <c:v>43939.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43937.763846064816</c:v>
+                  <c:v>43942.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43940.763846064816</c:v>
+                  <c:v>43945.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43943.763846064816</c:v>
+                  <c:v>43948.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43946.763846064816</c:v>
+                  <c:v>43951.452342708333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13785,46 +13789,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43907.763846064816</c:v>
+                  <c:v>43912.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43910.763846064816</c:v>
+                  <c:v>43915.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43913.763846064816</c:v>
+                  <c:v>43918.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43916.763846064816</c:v>
+                  <c:v>43921.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43919.763846064816</c:v>
+                  <c:v>43924.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43922.763846064816</c:v>
+                  <c:v>43927.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43925.763846064816</c:v>
+                  <c:v>43930.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43928.763846064816</c:v>
+                  <c:v>43933.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43931.763846064816</c:v>
+                  <c:v>43936.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43934.763846064816</c:v>
+                  <c:v>43939.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43937.763846064816</c:v>
+                  <c:v>43942.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43940.763846064816</c:v>
+                  <c:v>43945.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43943.763846064816</c:v>
+                  <c:v>43948.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43946.763846064816</c:v>
+                  <c:v>43951.452342708333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13928,46 +13932,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43907.763846064816</c:v>
+                  <c:v>43912.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43910.763846064816</c:v>
+                  <c:v>43915.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43913.763846064816</c:v>
+                  <c:v>43918.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43916.763846064816</c:v>
+                  <c:v>43921.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43919.763846064816</c:v>
+                  <c:v>43924.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43922.763846064816</c:v>
+                  <c:v>43927.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43925.763846064816</c:v>
+                  <c:v>43930.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43928.763846064816</c:v>
+                  <c:v>43933.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43931.763846064816</c:v>
+                  <c:v>43936.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43934.763846064816</c:v>
+                  <c:v>43939.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43937.763846064816</c:v>
+                  <c:v>43942.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43940.763846064816</c:v>
+                  <c:v>43945.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43943.763846064816</c:v>
+                  <c:v>43948.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43946.763846064816</c:v>
+                  <c:v>43951.452342708333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14065,46 +14069,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43907.763846064816</c:v>
+                  <c:v>43912.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43910.763846064816</c:v>
+                  <c:v>43915.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43913.763846064816</c:v>
+                  <c:v>43918.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43916.763846064816</c:v>
+                  <c:v>43921.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43919.763846064816</c:v>
+                  <c:v>43924.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43922.763846064816</c:v>
+                  <c:v>43927.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43925.763846064816</c:v>
+                  <c:v>43930.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43928.763846064816</c:v>
+                  <c:v>43933.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43931.763846064816</c:v>
+                  <c:v>43936.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43934.763846064816</c:v>
+                  <c:v>43939.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43937.763846064816</c:v>
+                  <c:v>43942.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43940.763846064816</c:v>
+                  <c:v>43945.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43943.763846064816</c:v>
+                  <c:v>43948.452342708333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43946.763846064816</c:v>
+                  <c:v>43951.452342708333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14586,31 +14590,31 @@
                   <c:v>3408.2260145989767</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6336.9735739330599</c:v>
+                  <c:v>6160.047639136711</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12085.185292213608</c:v>
+                  <c:v>11752.437986725925</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23374.686298801396</c:v>
+                  <c:v>22737.453333240272</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45602.629604895155</c:v>
+                  <c:v>44368.624818396449</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>89474.510306153345</c:v>
+                  <c:v>87067.26070629961</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>176244.4922496294</c:v>
+                  <c:v>171524.56381234428</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>348146.67103623319</c:v>
+                  <c:v>338858.17078094679</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>689168.22670647188</c:v>
+                  <c:v>670838.9293881472</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1366434.918389379</c:v>
+                  <c:v>1330189.1687817471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14765,31 +14769,31 @@
                   <c:v>3408.2260145989767</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4450.0428848594911</c:v>
+                  <c:v>4273.1169500631422</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7975.1117037414515</c:v>
+                  <c:v>7730.553223986215</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16265.189818905459</c:v>
+                  <c:v>15756.425639065415</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32530.629064926456</c:v>
+                  <c:v>31676.814510334072</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>64846.867986595811</c:v>
+                  <c:v>63144.506482174853</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>129149.19580592136</c:v>
+                  <c:v>125760.77778378499</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>257193.57109507438</c:v>
+                  <c:v>250451.67088919078</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>512298.56791421853</c:v>
+                  <c:v>498882.44517513155</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1020757.59282513</c:v>
+                  <c:v>994051.44022641238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14947,28 +14951,28 @@
                   <c:v>1692.9232398422837</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2926.2692876263877</c:v>
+                  <c:v>2838.0804618939405</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5321.4149868852674</c:v>
+                  <c:v>5165.1448241823364</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9953.6436381835811</c:v>
+                  <c:v>9666.743885176269</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18942.630275309377</c:v>
+                  <c:v>18404.266427784616</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36461.050299088725</c:v>
+                  <c:v>35436.13451285768</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>70734.55515090916</c:v>
+                  <c:v>68763.699078722624</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>138005.06207922511</c:v>
+                  <c:v>134187.6392587974</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>270390.24585092824</c:v>
+                  <c:v>262956.01341610006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15126,28 +15130,28 @@
                   <c:v>1406.8526866615316</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2386.7203903426166</c:v>
+                  <c:v>2298.5315646101694</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4257.9443393291185</c:v>
+                  <c:v>4129.4755536080365</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7846.8413196633101</c:v>
+                  <c:v>7614.8548700449956</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14757.140554455607</c:v>
+                  <c:v>14327.642647852814</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28131.547178152312</c:v>
+                  <c:v>27322.948009413747</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>54139.260010595513</c:v>
+                  <c:v>52598.865469643584</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>104915.40839736396</c:v>
+                  <c:v>101955.47083936943</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>204374.80057601014</c:v>
+                  <c:v>198649.96133742295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -33644,167 +33648,167 @@
       </c>
       <c r="B26" s="86">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>43907.763846064816</v>
+        <v>43912.452342708333</v>
       </c>
       <c r="C26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43908.763846064816</v>
+        <v>43913.452342708333</v>
       </c>
       <c r="D26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43909.763846064816</v>
+        <v>43914.452342708333</v>
       </c>
       <c r="E26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43910.763846064816</v>
+        <v>43915.452342708333</v>
       </c>
       <c r="F26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43911.763846064816</v>
+        <v>43916.452342708333</v>
       </c>
       <c r="G26" s="88">
         <f t="shared" ca="1" si="0"/>
-        <v>43912.763846064816</v>
+        <v>43917.452342708333</v>
       </c>
       <c r="H26" s="87">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>43913.763846064816</v>
+        <v>43918.452342708333</v>
       </c>
       <c r="I26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43914.763846064816</v>
+        <v>43919.452342708333</v>
       </c>
       <c r="J26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43915.763846064816</v>
+        <v>43920.452342708333</v>
       </c>
       <c r="K26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43916.763846064816</v>
+        <v>43921.452342708333</v>
       </c>
       <c r="L26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43917.763846064816</v>
+        <v>43922.452342708333</v>
       </c>
       <c r="M26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43918.763846064816</v>
+        <v>43923.452342708333</v>
       </c>
       <c r="N26" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>43919.763846064816</v>
+        <v>43924.452342708333</v>
       </c>
       <c r="O26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43920.763846064816</v>
+        <v>43925.452342708333</v>
       </c>
       <c r="P26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43921.763846064816</v>
+        <v>43926.452342708333</v>
       </c>
       <c r="Q26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43922.763846064816</v>
+        <v>43927.452342708333</v>
       </c>
       <c r="R26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43923.763846064816</v>
+        <v>43928.452342708333</v>
       </c>
       <c r="S26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43924.763846064816</v>
+        <v>43929.452342708333</v>
       </c>
       <c r="T26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43925.763846064816</v>
+        <v>43930.452342708333</v>
       </c>
       <c r="U26" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>43926.763846064816</v>
+        <v>43931.452342708333</v>
       </c>
       <c r="V26" s="86">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>43927.763846064816</v>
+        <v>43932.452342708333</v>
       </c>
       <c r="W26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43928.763846064816</v>
+        <v>43933.452342708333</v>
       </c>
       <c r="X26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43929.763846064816</v>
+        <v>43934.452342708333</v>
       </c>
       <c r="Y26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43930.763846064816</v>
+        <v>43935.452342708333</v>
       </c>
       <c r="Z26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43931.763846064816</v>
+        <v>43936.452342708333</v>
       </c>
       <c r="AA26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43932.763846064816</v>
+        <v>43937.452342708333</v>
       </c>
       <c r="AB26" s="88">
         <f t="shared" ca="1" si="2"/>
-        <v>43933.763846064816</v>
+        <v>43938.452342708333</v>
       </c>
       <c r="AC26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43934.763846064816</v>
+        <v>43939.452342708333</v>
       </c>
       <c r="AD26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43935.763846064816</v>
+        <v>43940.452342708333</v>
       </c>
       <c r="AE26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43936.763846064816</v>
+        <v>43941.452342708333</v>
       </c>
       <c r="AF26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43937.763846064816</v>
+        <v>43942.452342708333</v>
       </c>
       <c r="AG26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43938.763846064816</v>
+        <v>43943.452342708333</v>
       </c>
       <c r="AH26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43939.763846064816</v>
+        <v>43944.452342708333</v>
       </c>
       <c r="AI26" s="88">
         <f t="shared" ca="1" si="2"/>
-        <v>43940.763846064816</v>
+        <v>43945.452342708333</v>
       </c>
       <c r="AJ26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43941.763846064816</v>
+        <v>43946.452342708333</v>
       </c>
       <c r="AK26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43942.763846064816</v>
+        <v>43947.452342708333</v>
       </c>
       <c r="AL26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43943.763846064816</v>
+        <v>43948.452342708333</v>
       </c>
       <c r="AM26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43944.763846064816</v>
+        <v>43949.452342708333</v>
       </c>
       <c r="AN26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43945.763846064816</v>
+        <v>43950.452342708333</v>
       </c>
       <c r="AO26" s="87">
         <f ca="1">AP26-1</f>
-        <v>43946.763846064816</v>
+        <v>43951.452342708333</v>
       </c>
       <c r="AP26" s="108">
         <f ca="1">NOW()</f>
-        <v>43947.763846064816</v>
+        <v>43952.452342708333</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -33939,59 +33943,59 @@
       <c r="A28" s="132" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="288" t="s">
+      <c r="B28" s="289" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="289"/>
-      <c r="D28" s="289"/>
-      <c r="E28" s="289"/>
-      <c r="F28" s="289"/>
-      <c r="G28" s="290"/>
-      <c r="H28" s="294" t="s">
+      <c r="C28" s="290"/>
+      <c r="D28" s="290"/>
+      <c r="E28" s="290"/>
+      <c r="F28" s="290"/>
+      <c r="G28" s="291"/>
+      <c r="H28" s="295" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="294"/>
-      <c r="J28" s="294"/>
-      <c r="K28" s="294"/>
-      <c r="L28" s="294"/>
-      <c r="M28" s="294"/>
-      <c r="N28" s="295"/>
-      <c r="O28" s="293" t="s">
+      <c r="I28" s="295"/>
+      <c r="J28" s="295"/>
+      <c r="K28" s="295"/>
+      <c r="L28" s="295"/>
+      <c r="M28" s="295"/>
+      <c r="N28" s="296"/>
+      <c r="O28" s="294" t="s">
         <v>56</v>
       </c>
-      <c r="P28" s="294"/>
-      <c r="Q28" s="294"/>
-      <c r="R28" s="294"/>
-      <c r="S28" s="294"/>
-      <c r="T28" s="294"/>
-      <c r="U28" s="295"/>
-      <c r="V28" s="293" t="s">
+      <c r="P28" s="295"/>
+      <c r="Q28" s="295"/>
+      <c r="R28" s="295"/>
+      <c r="S28" s="295"/>
+      <c r="T28" s="295"/>
+      <c r="U28" s="296"/>
+      <c r="V28" s="294" t="s">
         <v>57</v>
       </c>
-      <c r="W28" s="294"/>
-      <c r="X28" s="294"/>
-      <c r="Y28" s="294"/>
-      <c r="Z28" s="294"/>
-      <c r="AA28" s="294"/>
-      <c r="AB28" s="295"/>
-      <c r="AC28" s="293" t="s">
+      <c r="W28" s="295"/>
+      <c r="X28" s="295"/>
+      <c r="Y28" s="295"/>
+      <c r="Z28" s="295"/>
+      <c r="AA28" s="295"/>
+      <c r="AB28" s="296"/>
+      <c r="AC28" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="AD28" s="294"/>
-      <c r="AE28" s="294"/>
-      <c r="AF28" s="294"/>
-      <c r="AG28" s="294"/>
-      <c r="AH28" s="294"/>
-      <c r="AI28" s="295"/>
-      <c r="AJ28" s="293" t="s">
+      <c r="AD28" s="295"/>
+      <c r="AE28" s="295"/>
+      <c r="AF28" s="295"/>
+      <c r="AG28" s="295"/>
+      <c r="AH28" s="295"/>
+      <c r="AI28" s="296"/>
+      <c r="AJ28" s="294" t="s">
         <v>59</v>
       </c>
-      <c r="AK28" s="294"/>
-      <c r="AL28" s="294"/>
-      <c r="AM28" s="294"/>
-      <c r="AN28" s="294"/>
-      <c r="AO28" s="294"/>
-      <c r="AP28" s="295"/>
+      <c r="AK28" s="295"/>
+      <c r="AL28" s="295"/>
+      <c r="AM28" s="295"/>
+      <c r="AN28" s="295"/>
+      <c r="AO28" s="295"/>
+      <c r="AP28" s="296"/>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B29" s="51" t="s">
@@ -34002,43 +34006,43 @@
       <c r="E29" s="93"/>
       <c r="F29" s="93"/>
       <c r="G29" s="94"/>
-      <c r="H29" s="291" t="s">
+      <c r="H29" s="292" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="291"/>
-      <c r="J29" s="291"/>
-      <c r="K29" s="291"/>
-      <c r="L29" s="291"/>
-      <c r="M29" s="291"/>
-      <c r="N29" s="291"/>
-      <c r="O29" s="291"/>
-      <c r="P29" s="291"/>
-      <c r="Q29" s="291"/>
-      <c r="R29" s="291"/>
-      <c r="S29" s="291"/>
-      <c r="T29" s="291"/>
-      <c r="U29" s="291"/>
-      <c r="V29" s="291"/>
-      <c r="W29" s="291"/>
-      <c r="X29" s="291"/>
-      <c r="Y29" s="291"/>
-      <c r="Z29" s="291"/>
-      <c r="AA29" s="291"/>
-      <c r="AB29" s="291"/>
-      <c r="AC29" s="291"/>
-      <c r="AD29" s="291"/>
-      <c r="AE29" s="291"/>
-      <c r="AF29" s="291"/>
-      <c r="AG29" s="291"/>
-      <c r="AH29" s="291"/>
-      <c r="AI29" s="291"/>
-      <c r="AJ29" s="291"/>
-      <c r="AK29" s="291"/>
-      <c r="AL29" s="291"/>
-      <c r="AM29" s="291"/>
-      <c r="AN29" s="291"/>
-      <c r="AO29" s="291"/>
-      <c r="AP29" s="292"/>
+      <c r="I29" s="292"/>
+      <c r="J29" s="292"/>
+      <c r="K29" s="292"/>
+      <c r="L29" s="292"/>
+      <c r="M29" s="292"/>
+      <c r="N29" s="292"/>
+      <c r="O29" s="292"/>
+      <c r="P29" s="292"/>
+      <c r="Q29" s="292"/>
+      <c r="R29" s="292"/>
+      <c r="S29" s="292"/>
+      <c r="T29" s="292"/>
+      <c r="U29" s="292"/>
+      <c r="V29" s="292"/>
+      <c r="W29" s="292"/>
+      <c r="X29" s="292"/>
+      <c r="Y29" s="292"/>
+      <c r="Z29" s="292"/>
+      <c r="AA29" s="292"/>
+      <c r="AB29" s="292"/>
+      <c r="AC29" s="292"/>
+      <c r="AD29" s="292"/>
+      <c r="AE29" s="292"/>
+      <c r="AF29" s="292"/>
+      <c r="AG29" s="292"/>
+      <c r="AH29" s="292"/>
+      <c r="AI29" s="292"/>
+      <c r="AJ29" s="292"/>
+      <c r="AK29" s="292"/>
+      <c r="AL29" s="292"/>
+      <c r="AM29" s="292"/>
+      <c r="AN29" s="292"/>
+      <c r="AO29" s="292"/>
+      <c r="AP29" s="293"/>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B31" s="57" t="s">
@@ -34322,8 +34326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BB0FAD-39ED-4D53-8BC6-75164ED434B0}">
   <dimension ref="A1:AL94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34578,7 +34582,10 @@
       <c r="T8" s="156"/>
       <c r="U8" s="69"/>
       <c r="V8" s="69"/>
-      <c r="W8" s="156"/>
+      <c r="W8" s="288">
+        <f>6000/300</f>
+        <v>20</v>
+      </c>
       <c r="X8" s="156"/>
       <c r="Y8" s="69"/>
       <c r="Z8" s="69"/>
@@ -34713,7 +34720,7 @@
       <c r="S12" s="156"/>
       <c r="T12" s="69"/>
       <c r="U12" s="69"/>
-      <c r="V12" s="156"/>
+      <c r="V12" s="288"/>
       <c r="W12" s="69"/>
       <c r="X12" s="69"/>
       <c r="Y12" s="69"/>
@@ -34796,7 +34803,9 @@
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
+      <c r="J16" s="16" t="s">
+        <v>200</v>
+      </c>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
@@ -35286,59 +35295,59 @@
       </c>
       <c r="U21" s="276">
         <f t="shared" ref="U21:AC21" si="9">MAX(U19-(U27-U28)-(U29-U30)-(U31-U32),0)</f>
-        <v>11944.815054696592</v>
+        <v>13461.662857294687</v>
       </c>
       <c r="V21" s="276">
         <f t="shared" si="9"/>
-        <v>33620.110085006578</v>
+        <v>36307.956883497005</v>
       </c>
       <c r="W21" s="276">
         <f t="shared" si="9"/>
-        <v>79572.170202937021</v>
+        <v>84655.049736950779</v>
       </c>
       <c r="X21" s="276">
         <f t="shared" si="9"/>
-        <v>176316.25749957675</v>
+        <v>185851.50586583262</v>
       </c>
       <c r="Y21" s="276">
         <f t="shared" si="9"/>
-        <v>377906.18559011823</v>
+        <v>396057.64835970226</v>
       </c>
       <c r="Z21" s="276">
         <f t="shared" si="9"/>
-        <v>794551.81147379905</v>
+        <v>829456.74142385845</v>
       </c>
       <c r="AA21" s="276">
         <f t="shared" si="9"/>
-        <v>1650358.6818424382</v>
+        <v>1717971.5913750387</v>
       </c>
       <c r="AB21" s="279">
         <f t="shared" si="9"/>
-        <v>3399985.2463757955</v>
+        <v>3531668.8020251673</v>
       </c>
       <c r="AC21" s="189">
         <f t="shared" si="9"/>
-        <v>6964079.7255619625</v>
+        <v>7221615.6978233075</v>
       </c>
       <c r="AD21" s="189">
         <f t="shared" ref="AD21:AG21" si="10">MAX(AD19-(AD27-AD28)-(AD29-AD30)-(AD31-AD32),0)</f>
-        <v>14203974.848742373</v>
+        <v>14709282.017427832</v>
       </c>
       <c r="AE21" s="189">
         <f t="shared" si="10"/>
-        <v>28877980.220328581</v>
+        <v>29872005.906061672</v>
       </c>
       <c r="AF21" s="189">
         <f t="shared" si="10"/>
-        <v>58566488.748762004</v>
+        <v>60526012.207813784</v>
       </c>
       <c r="AG21" s="189">
         <f t="shared" si="10"/>
-        <v>118544994.69979282</v>
+        <v>122414462.12466919</v>
       </c>
       <c r="AH21" s="190">
         <f t="shared" ref="AH21" si="11">MAX(AH19-(AH27-AH28)-(AH29-AH30)-(AH31-AH32),0)</f>
-        <v>27280851.623108014</v>
+        <v>27938127.791624188</v>
       </c>
       <c r="AI21" s="254"/>
       <c r="AJ21" s="45"/>
@@ -35403,59 +35412,59 @@
       </c>
       <c r="U22" s="118">
         <f t="shared" si="12"/>
-        <v>51127.160841975325</v>
+        <v>49610.31303937723</v>
       </c>
       <c r="V22" s="118">
         <f t="shared" si="12"/>
-        <v>92550.720401196857</v>
+        <v>89910.691971115186</v>
       </c>
       <c r="W22" s="118">
         <f t="shared" si="12"/>
-        <v>172804.1298092081</v>
+        <v>167815.70115702343</v>
       </c>
       <c r="X22" s="118">
         <f t="shared" si="12"/>
-        <v>328484.70018055476</v>
+        <v>319136.70123268466</v>
       </c>
       <c r="Y22" s="118">
         <f t="shared" si="12"/>
-        <v>631767.06904187123</v>
+        <v>613987.67085437418</v>
       </c>
       <c r="Z22" s="118">
         <f t="shared" si="12"/>
-        <v>1224904.2808848615</v>
+        <v>1190739.7447685257</v>
       </c>
       <c r="AA22" s="118">
         <f t="shared" si="12"/>
-        <v>2388727.113824761</v>
+        <v>2322589.078943545</v>
       </c>
       <c r="AB22" s="119">
         <f t="shared" si="12"/>
-        <v>4678468.1877513453</v>
+        <v>4549724.7883995082</v>
       </c>
       <c r="AC22" s="203">
         <f>MAX(AC19-AC21-AC34,0)</f>
-        <v>9193293.8220740333</v>
+        <v>8941622.2867078651</v>
       </c>
       <c r="AD22" s="203">
         <f t="shared" ref="AD22:AH22" si="13">MAX(AD19-AD21-AD34,0)</f>
-        <v>18111557.705561884</v>
+        <v>17617952.702593744</v>
       </c>
       <c r="AE22" s="203">
         <f t="shared" si="13"/>
-        <v>35754425.151846126</v>
+        <v>34783758.241764404</v>
       </c>
       <c r="AF22" s="203">
         <f t="shared" si="13"/>
-        <v>70700635.862142861</v>
+        <v>68787751.331467524</v>
       </c>
       <c r="AG22" s="203">
         <f t="shared" si="13"/>
-        <v>139993289.76185429</v>
+        <v>136216963.11927214</v>
       </c>
       <c r="AH22" s="203">
         <f t="shared" si="13"/>
-        <v>238400816.66992632</v>
+        <v>237929580.96527368</v>
       </c>
       <c r="AI22" s="255"/>
       <c r="AJ22" s="25"/>
@@ -35880,39 +35889,39 @@
       </c>
       <c r="U26" s="188">
         <f t="shared" si="22"/>
-        <v>1045096.1741522813</v>
+        <v>1013600.1649621214</v>
       </c>
       <c r="V26" s="188">
         <f t="shared" si="22"/>
-        <v>1900505.3524590237</v>
+        <v>1844694.5800651198</v>
       </c>
       <c r="W26" s="188">
         <f t="shared" si="22"/>
-        <v>3554872.7279227073</v>
+        <v>3452408.5304200961</v>
       </c>
       <c r="X26" s="188">
         <f t="shared" si="22"/>
-        <v>6765225.0983247766</v>
+        <v>6572952.2956373626</v>
       </c>
       <c r="Y26" s="188">
         <f t="shared" si="22"/>
-        <v>13021803.678245971</v>
+        <v>12655762.3260206</v>
       </c>
       <c r="Z26" s="188">
         <f t="shared" si="22"/>
-        <v>25262341.125324696</v>
+        <v>24558463.956686649</v>
       </c>
       <c r="AA26" s="188">
         <f t="shared" si="22"/>
-        <v>49287522.171151824</v>
+        <v>47924156.878141917</v>
       </c>
       <c r="AB26" s="188">
         <f t="shared" si="22"/>
-        <v>96567944.946760073</v>
+        <v>93912861.934321433</v>
       </c>
       <c r="AC26" s="225">
         <f t="shared" si="22"/>
-        <v>189814945.10980472</v>
+        <v>184622819.90477672</v>
       </c>
       <c r="AD26" s="193">
         <f t="shared" si="22"/>
@@ -36117,55 +36126,55 @@
       </c>
       <c r="U28" s="195">
         <f t="shared" si="26"/>
-        <v>4434.4375404525199</v>
+        <v>5863.0965173181685</v>
       </c>
       <c r="V28" s="195">
         <f t="shared" si="26"/>
-        <v>17473.077212458666</v>
+        <v>20004.653848246162</v>
       </c>
       <c r="W28" s="195">
         <f t="shared" si="26"/>
-        <v>46110.97306142599</v>
+        <v>50758.749060144444</v>
       </c>
       <c r="X28" s="195">
         <f t="shared" si="26"/>
-        <v>107849.38953998807</v>
+        <v>116570.88386988919</v>
       </c>
       <c r="Y28" s="195">
         <f t="shared" si="26"/>
-        <v>238770.98515476263</v>
+        <v>255374.6208917055</v>
       </c>
       <c r="Z28" s="195">
         <f t="shared" si="26"/>
-        <v>512980.20655527152</v>
+        <v>544908.07492469344</v>
       </c>
       <c r="AA28" s="195">
         <f t="shared" si="26"/>
-        <v>1082077.9943165528</v>
+        <v>1143920.2440074822</v>
       </c>
       <c r="AB28" s="195">
         <f t="shared" si="26"/>
-        <v>2255198.0172149623</v>
+        <v>2375632.5826591793</v>
       </c>
       <c r="AC28" s="225">
         <f t="shared" si="26"/>
-        <v>4661034.0898192562</v>
+        <v>4896548.8891193271</v>
       </c>
       <c r="AD28" s="193">
         <f t="shared" si="26"/>
-        <v>9575413.9389390238</v>
+        <v>10037471.353062402</v>
       </c>
       <c r="AE28" s="193">
         <f t="shared" si="26"/>
-        <v>19582804.519200057</v>
+        <v>20491669.075016249</v>
       </c>
       <c r="AF28" s="193">
         <f t="shared" si="26"/>
-        <v>39910857.077626973</v>
+        <v>41702348.394098058</v>
       </c>
       <c r="AG28" s="193">
         <f t="shared" si="26"/>
-        <v>81120507.247292534</v>
+        <v>84657873.597488627</v>
       </c>
       <c r="AH28" s="194">
         <f t="shared" si="26"/>
@@ -36230,63 +36239,63 @@
       </c>
       <c r="T29" s="201">
         <f t="shared" si="27"/>
-        <v>6336.9735739330599</v>
+        <v>6160.047639136711</v>
       </c>
       <c r="U29" s="201">
         <f t="shared" si="27"/>
-        <v>12085.185292213608</v>
+        <v>11752.437986725925</v>
       </c>
       <c r="V29" s="201">
         <f t="shared" si="27"/>
-        <v>23374.686298801396</v>
+        <v>22737.453333240272</v>
       </c>
       <c r="W29" s="201">
         <f t="shared" si="27"/>
-        <v>45602.629604895155</v>
+        <v>44368.624818396449</v>
       </c>
       <c r="X29" s="201">
         <f t="shared" si="27"/>
-        <v>89474.510306153345</v>
+        <v>87067.26070629961</v>
       </c>
       <c r="Y29" s="201">
         <f t="shared" si="27"/>
-        <v>176244.4922496294</v>
+        <v>171524.56381234428</v>
       </c>
       <c r="Z29" s="201">
         <f t="shared" si="27"/>
-        <v>348146.67103623319</v>
+        <v>338858.17078094679</v>
       </c>
       <c r="AA29" s="201">
         <f t="shared" si="27"/>
-        <v>689168.22670647188</v>
+        <v>670838.9293881472</v>
       </c>
       <c r="AB29" s="201">
         <f t="shared" si="27"/>
-        <v>1366434.918389379</v>
+        <v>1330189.1687817471</v>
       </c>
       <c r="AC29" s="222">
         <f t="shared" si="27"/>
-        <v>2712691.963169157</v>
+        <v>2640899.0937538599</v>
       </c>
       <c r="AD29" s="198">
         <f t="shared" si="27"/>
-        <v>5390740.3243211815</v>
+        <v>5248352.1409105612</v>
       </c>
       <c r="AE29" s="198">
         <f t="shared" si="27"/>
-        <v>10721353.643233279</v>
+        <v>10438652.83073201</v>
       </c>
       <c r="AF29" s="198">
         <f t="shared" si="27"/>
-        <v>21337367.394655619</v>
+        <v>20775597.584483378</v>
       </c>
       <c r="AG29" s="198">
         <f t="shared" si="27"/>
-        <v>42488660.365076795</v>
+        <v>41371529.081123106</v>
       </c>
       <c r="AH29" s="199">
         <f t="shared" si="27"/>
-        <v>84646240.253197685</v>
+        <v>82423368.935938209</v>
       </c>
       <c r="AI29" s="254">
         <f>AI19*(B12+B13)</f>
@@ -36350,63 +36359,63 @@
       </c>
       <c r="T30" s="188">
         <f t="shared" ref="T30:AH30" si="29">MAX(T29-($J$19*$B$12)*(2^(((T18 - 42) - $J$18)/HLOOKUP((T18-42)-$B$15,$J$42:$AI$44,3,TRUE)))-T32,0)</f>
-        <v>4450.0428848594911</v>
+        <v>4273.1169500631422</v>
       </c>
       <c r="U30" s="188">
         <f t="shared" si="29"/>
-        <v>7975.1117037414515</v>
+        <v>7730.553223986215</v>
       </c>
       <c r="V30" s="188">
         <f t="shared" si="29"/>
-        <v>16265.189818905459</v>
+        <v>15756.425639065415</v>
       </c>
       <c r="W30" s="188">
         <f t="shared" si="29"/>
-        <v>32530.629064926456</v>
+        <v>31676.814510334072</v>
       </c>
       <c r="X30" s="188">
         <f t="shared" si="29"/>
-        <v>64846.867986595811</v>
+        <v>63144.506482174853</v>
       </c>
       <c r="Y30" s="188">
         <f t="shared" si="29"/>
-        <v>129149.19580592136</v>
+        <v>125760.77778378499</v>
       </c>
       <c r="Z30" s="188">
         <f t="shared" si="29"/>
-        <v>257193.57109507438</v>
+        <v>250451.67088919078</v>
       </c>
       <c r="AA30" s="188">
         <f t="shared" si="29"/>
-        <v>512298.56791421853</v>
+        <v>498882.44517513155</v>
       </c>
       <c r="AB30" s="188">
         <f t="shared" si="29"/>
-        <v>1020757.59282513</v>
+        <v>994051.44022641238</v>
       </c>
       <c r="AC30" s="225">
         <f t="shared" si="29"/>
-        <v>2034537.1642397731</v>
+        <v>1981355.9114513444</v>
       </c>
       <c r="AD30" s="193">
         <f t="shared" si="29"/>
-        <v>4056443.7025522897</v>
+        <v>3950501.6889843764</v>
       </c>
       <c r="AE30" s="193">
         <f t="shared" si="29"/>
-        <v>8090035.0582137126</v>
+        <v>7878914.6921111075</v>
       </c>
       <c r="AF30" s="193">
         <f t="shared" si="29"/>
-        <v>16138665.222241299</v>
+        <v>15717811.898616945</v>
       </c>
       <c r="AG30" s="193">
         <f t="shared" si="29"/>
-        <v>32202134.0608055</v>
+        <v>31362952.233919151</v>
       </c>
       <c r="AH30" s="194">
         <f t="shared" si="29"/>
-        <v>64267316.822215967</v>
+        <v>62593558.613086894</v>
       </c>
       <c r="AI30" s="256"/>
       <c r="AJ30" s="45"/>
@@ -36471,59 +36480,59 @@
       </c>
       <c r="U31" s="201">
         <f t="shared" si="31"/>
-        <v>2926.2692876263877</v>
+        <v>2838.0804618939405</v>
       </c>
       <c r="V31" s="201">
         <f t="shared" si="31"/>
-        <v>5321.4149868852674</v>
+        <v>5165.1448241823364</v>
       </c>
       <c r="W31" s="201">
         <f t="shared" si="31"/>
-        <v>9953.6436381835811</v>
+        <v>9666.743885176269</v>
       </c>
       <c r="X31" s="201">
         <f t="shared" si="31"/>
-        <v>18942.630275309377</v>
+        <v>18404.266427784616</v>
       </c>
       <c r="Y31" s="201">
         <f t="shared" si="31"/>
-        <v>36461.050299088725</v>
+        <v>35436.13451285768</v>
       </c>
       <c r="Z31" s="201">
         <f t="shared" si="31"/>
-        <v>70734.55515090916</v>
+        <v>68763.699078722624</v>
       </c>
       <c r="AA31" s="201">
         <f t="shared" si="31"/>
-        <v>138005.06207922511</v>
+        <v>134187.6392587974</v>
       </c>
       <c r="AB31" s="201">
         <f t="shared" si="31"/>
-        <v>270390.24585092824</v>
+        <v>262956.01341610006</v>
       </c>
       <c r="AC31" s="222">
         <f t="shared" si="31"/>
-        <v>531481.84630745323</v>
+        <v>516943.89573337487</v>
       </c>
       <c r="AD31" s="198">
         <f t="shared" si="31"/>
-        <v>1047325.065497591</v>
+        <v>1018803.0028973826</v>
       </c>
       <c r="AE31" s="198">
         <f t="shared" si="31"/>
-        <v>2067984.9062222186</v>
+        <v>2011882.1558631945</v>
       </c>
       <c r="AF31" s="198">
         <f t="shared" si="31"/>
-        <v>4089966.8470600634</v>
+        <v>3979380.9633272802</v>
       </c>
       <c r="AG31" s="198">
         <f t="shared" si="31"/>
-        <v>8099761.2810313255</v>
+        <v>7881405.3334883563</v>
       </c>
       <c r="AH31" s="199">
         <f t="shared" si="31"/>
-        <v>16058561.162140727</v>
+        <v>15626789.564231241</v>
       </c>
       <c r="AI31" s="254">
         <f>AI19*B13</f>
@@ -36591,59 +36600,59 @@
       </c>
       <c r="U32" s="195">
         <f t="shared" si="33"/>
-        <v>2386.7203903426166</v>
+        <v>2298.5315646101694</v>
       </c>
       <c r="V32" s="195">
         <f t="shared" si="33"/>
-        <v>4257.9443393291185</v>
+        <v>4129.4755536080365</v>
       </c>
       <c r="W32" s="195">
         <f t="shared" si="33"/>
-        <v>7846.8413196633101</v>
+        <v>7614.8548700449956</v>
       </c>
       <c r="X32" s="195">
         <f t="shared" si="33"/>
-        <v>14757.140554455607</v>
+        <v>14327.642647852814</v>
       </c>
       <c r="Y32" s="195">
         <f t="shared" si="33"/>
-        <v>28131.547178152312</v>
+        <v>27322.948009413747</v>
       </c>
       <c r="Z32" s="195">
         <f t="shared" si="33"/>
-        <v>54139.260010595513</v>
+        <v>52598.865469643584</v>
       </c>
       <c r="AA32" s="195">
         <f t="shared" si="33"/>
-        <v>104915.40839736396</v>
+        <v>101955.47083936943</v>
       </c>
       <c r="AB32" s="195">
         <f t="shared" si="33"/>
-        <v>204374.80057601014</v>
+        <v>198649.96133742295</v>
       </c>
       <c r="AC32" s="225">
         <f t="shared" si="33"/>
-        <v>399722.28097954346</v>
+        <v>388593.88673987088</v>
       </c>
       <c r="AD32" s="193">
         <f t="shared" si="33"/>
-        <v>784262.5970698325</v>
+        <v>762544.11918899685</v>
       </c>
       <c r="AE32" s="193">
         <f t="shared" si="33"/>
-        <v>1542639.1923703069</v>
+        <v>1500117.1255295177</v>
       </c>
       <c r="AF32" s="193">
         <f t="shared" si="33"/>
-        <v>3040620.690609409</v>
+        <v>2957150.4629094359</v>
       </c>
       <c r="AG32" s="193">
         <f t="shared" si="33"/>
-        <v>6003415.0378028983</v>
+        <v>5839210.7078728611</v>
       </c>
       <c r="AH32" s="194">
         <f t="shared" si="33"/>
-        <v>11869996.21623046</v>
+        <v>11546387.678706747</v>
       </c>
       <c r="AI32" s="254"/>
       <c r="AJ32" s="45"/>
@@ -36832,55 +36841,55 @@
       </c>
       <c r="V34" s="200">
         <f t="shared" si="37"/>
-        <v>1829.1695137965769</v>
+        <v>1781.3511453877954</v>
       </c>
       <c r="W34" s="200">
         <f t="shared" si="37"/>
-        <v>3623.6999878548659</v>
+        <v>3529.2491060257912</v>
       </c>
       <c r="X34" s="200">
         <f t="shared" si="37"/>
-        <v>7199.042319868483</v>
+        <v>7011.7929014827005</v>
       </c>
       <c r="Y34" s="200">
         <f t="shared" si="37"/>
-        <v>14326.74536801063</v>
+        <v>13954.680785923565</v>
       </c>
       <c r="Z34" s="200">
         <f t="shared" si="37"/>
-        <v>28543.907641339472</v>
+        <v>27803.513807615942</v>
       </c>
       <c r="AA34" s="200">
         <f t="shared" si="37"/>
-        <v>56914.204332801186</v>
+        <v>55439.329681416093</v>
       </c>
       <c r="AB34" s="266">
         <f t="shared" si="37"/>
-        <v>113546.56587285918</v>
+        <v>110606.40957532461</v>
       </c>
       <c r="AC34" s="225">
         <f t="shared" si="37"/>
-        <v>226626.45236400483</v>
+        <v>220762.01546882684</v>
       </c>
       <c r="AD34" s="193">
         <f t="shared" si="37"/>
-        <v>452467.44569574477</v>
+        <v>440765.2799784235</v>
       </c>
       <c r="AE34" s="193">
         <f t="shared" si="37"/>
-        <v>903594.6278252881</v>
+        <v>880235.8521739241</v>
       </c>
       <c r="AF34" s="193">
         <f t="shared" si="37"/>
-        <v>1804875.3890951255</v>
+        <v>1758236.460718692</v>
       </c>
       <c r="AG34" s="193">
         <f t="shared" si="37"/>
-        <v>3605715.5383528946</v>
+        <v>3512574.7560586515</v>
       </c>
       <c r="AH34" s="194">
         <f t="shared" si="37"/>
-        <v>7204331.7069656579</v>
+        <v>7018291.2431021295</v>
       </c>
       <c r="AI34" s="257">
         <f>($J$19*$B$14)*(2^(((AI18 - 35) - $J$18)/AI44))</f>
@@ -37581,64 +37590,64 @@
         <v>8211</v>
       </c>
       <c r="S43" s="261">
-        <f t="shared" ref="S43" si="47">R43*2</f>
-        <v>16422</v>
+        <f>S19</f>
+        <v>16000</v>
       </c>
       <c r="T43" s="261">
-        <f t="shared" ref="T43" si="48">S43*2</f>
-        <v>32844</v>
+        <f t="shared" ref="T43:AB43" si="47">T19</f>
+        <v>32000</v>
       </c>
       <c r="U43" s="261">
-        <f t="shared" ref="U43" si="49">T43*2</f>
-        <v>65688</v>
+        <f t="shared" si="47"/>
+        <v>64000</v>
       </c>
       <c r="V43" s="261">
-        <f t="shared" ref="V43" si="50">U43*2</f>
-        <v>131376</v>
+        <f t="shared" si="47"/>
+        <v>128000</v>
       </c>
       <c r="W43" s="261">
-        <f t="shared" ref="W43" si="51">V43*2</f>
-        <v>262752</v>
+        <f t="shared" si="47"/>
+        <v>256000</v>
       </c>
       <c r="X43" s="261">
-        <f t="shared" ref="X43" si="52">W43*2</f>
-        <v>525504</v>
+        <f t="shared" si="47"/>
+        <v>512000</v>
       </c>
       <c r="Y43" s="261">
-        <f t="shared" ref="Y43" si="53">X43*2</f>
-        <v>1051008</v>
+        <f t="shared" si="47"/>
+        <v>1024000</v>
       </c>
       <c r="Z43" s="261">
-        <f t="shared" ref="Z43:AC43" si="54">Y43*2</f>
-        <v>2102016</v>
+        <f t="shared" si="47"/>
+        <v>2048000</v>
       </c>
       <c r="AA43" s="261">
-        <f t="shared" si="54"/>
-        <v>4204032</v>
+        <f t="shared" si="47"/>
+        <v>4096000</v>
       </c>
       <c r="AB43" s="261">
-        <f t="shared" si="54"/>
-        <v>8408064</v>
+        <f t="shared" si="47"/>
+        <v>8192000</v>
       </c>
       <c r="AC43" s="177">
-        <f t="shared" si="54"/>
-        <v>16816128</v>
+        <f t="shared" ref="AC43" si="48">AB43*2</f>
+        <v>16384000</v>
       </c>
       <c r="AD43" s="177">
-        <f t="shared" ref="AD43" si="55">AC43*2</f>
-        <v>33632256</v>
+        <f t="shared" ref="AD43" si="49">AC43*2</f>
+        <v>32768000</v>
       </c>
       <c r="AE43" s="177">
-        <f t="shared" ref="AE43" si="56">AD43*2</f>
-        <v>67264512</v>
+        <f t="shared" ref="AE43" si="50">AD43*2</f>
+        <v>65536000</v>
       </c>
       <c r="AF43" s="177">
         <f>AE43*2</f>
-        <v>134529024</v>
+        <v>131072000</v>
       </c>
       <c r="AG43" s="177">
-        <f t="shared" ref="AG43" si="57">AF43*2</f>
-        <v>269058048</v>
+        <f t="shared" ref="AG43" si="51">AF43*2</f>
+        <v>262144000</v>
       </c>
       <c r="AH43" s="177">
         <f>AH19</f>
@@ -37670,27 +37679,27 @@
         <v>2.2162515508849423</v>
       </c>
       <c r="L44" s="165">
-        <f t="shared" ref="L44:AC44" si="58">(L18-$J$18)/(LOG(L43/$J$43)/LOG(2))</f>
+        <f t="shared" ref="L44:AC44" si="52">(L18-$J$18)/(LOG(L43/$J$43)/LOG(2))</f>
         <v>2.5960521015489895</v>
       </c>
       <c r="M44" s="165">
-        <f t="shared" si="58"/>
+        <f t="shared" si="52"/>
         <v>2.5593080353659667</v>
       </c>
       <c r="N44" s="165">
-        <f t="shared" si="58"/>
+        <f t="shared" si="52"/>
         <v>2.8230398322058692</v>
       </c>
       <c r="O44" s="165">
-        <f t="shared" si="58"/>
+        <f t="shared" si="52"/>
         <v>3.2222725699484793</v>
       </c>
       <c r="P44" s="165">
-        <f t="shared" si="58"/>
+        <f t="shared" si="52"/>
         <v>3.9835688086028611</v>
       </c>
       <c r="Q44" s="165">
-        <f t="shared" si="58"/>
+        <f t="shared" si="52"/>
         <v>4.5234595254294128</v>
       </c>
       <c r="R44" s="165">
@@ -37698,71 +37707,71 @@
         <v>5.4555673200486643</v>
       </c>
       <c r="S44" s="174">
-        <f t="shared" si="58"/>
-        <v>6.1631917697060574</v>
+        <f t="shared" si="52"/>
+        <v>6.188322521245075</v>
       </c>
       <c r="T44" s="174">
-        <f t="shared" si="58"/>
-        <v>6.732722337088715</v>
+        <f t="shared" si="52"/>
+        <v>6.7574867780727512</v>
       </c>
       <c r="U44" s="174">
-        <f t="shared" si="58"/>
-        <v>7.2009891163929609</v>
+        <f t="shared" si="52"/>
+        <v>7.2251133492237178</v>
       </c>
       <c r="V44" s="174">
-        <f t="shared" si="58"/>
-        <v>7.5927945313719496</v>
+        <f t="shared" si="52"/>
+        <v>7.6161482368185371</v>
       </c>
       <c r="W44" s="174">
-        <f t="shared" si="58"/>
-        <v>7.9254526082921153</v>
+        <f t="shared" si="52"/>
+        <v>7.9479842836332431</v>
       </c>
       <c r="X44" s="174">
-        <f t="shared" si="58"/>
-        <v>8.2114167687833337</v>
+        <f t="shared" si="52"/>
+        <v>8.2331186969207284</v>
       </c>
       <c r="Y44" s="174">
-        <f t="shared" si="58"/>
-        <v>8.4598736322033155</v>
+        <f t="shared" si="52"/>
+        <v>8.4807623011698468</v>
       </c>
       <c r="Z44" s="174">
-        <f t="shared" si="58"/>
-        <v>8.6777482811625042</v>
+        <f t="shared" si="52"/>
+        <v>8.6978531719617411</v>
       </c>
       <c r="AA44" s="174">
-        <f t="shared" si="58"/>
-        <v>8.870359838149426</v>
+        <f t="shared" si="52"/>
+        <v>8.889716900491921</v>
       </c>
       <c r="AB44" s="174">
-        <f t="shared" si="58"/>
-        <v>9.0418614918635232</v>
+        <f t="shared" si="52"/>
+        <v>9.0605093187157824</v>
       </c>
       <c r="AC44" s="179">
-        <f t="shared" si="58"/>
-        <v>9.195543361472625</v>
+        <f t="shared" si="52"/>
+        <v>9.213520951361799</v>
       </c>
       <c r="AD44" s="179">
-        <f t="shared" ref="AD44" si="59">(AD18-$J$18)/(LOG(AD43/$J$43)/LOG(2))</f>
-        <v>9.3340456164642145</v>
+        <f t="shared" ref="AD44" si="53">(AD18-$J$18)/(LOG(AD43/$J$43)/LOG(2))</f>
+        <v>9.3513910854100377</v>
       </c>
       <c r="AE44" s="179">
-        <f t="shared" ref="AE44" si="60">(AE18-$J$18)/(LOG(AE43/$J$43)/LOG(2))</f>
-        <v>9.4595114171036894</v>
+        <f t="shared" ref="AE44" si="54">(AE18-$J$18)/(LOG(AE43/$J$43)/LOG(2))</f>
+        <v>9.4762612849942141</v>
       </c>
       <c r="AF44" s="179">
-        <f t="shared" ref="AF44" si="61">(AF18-$J$18)/(LOG(AF43/$J$43)/LOG(2))</f>
-        <v>9.5736986096573258</v>
+        <f t="shared" ref="AF44" si="55">(AF18-$J$18)/(LOG(AF43/$J$43)/LOG(2))</f>
+        <v>9.5898874361451387</v>
       </c>
       <c r="AG44" s="179">
-        <f t="shared" ref="AG44" si="62">(AG18-$J$18)/(LOG(AG43/$J$43)/LOG(2))</f>
-        <v>9.6780625951256685</v>
+        <f t="shared" ref="AG44" si="56">(AG18-$J$18)/(LOG(AG43/$J$43)/LOG(2))</f>
+        <v>9.6937228280491752</v>
       </c>
       <c r="AH44" s="179">
-        <f t="shared" ref="AH44:AI44" si="63">(AH18-$J$18)/(LOG(AH43/$J$43)/LOG(2))</f>
+        <f t="shared" ref="AH44:AI44" si="57">(AH18-$J$18)/(LOG(AH43/$J$43)/LOG(2))</f>
         <v>10.185296921825813</v>
       </c>
       <c r="AI44" s="180">
-        <f t="shared" si="63"/>
+        <f t="shared" si="57"/>
         <v>12.591949359050478</v>
       </c>
     </row>
@@ -37844,31 +37853,31 @@
         <v>5</v>
       </c>
       <c r="L46" s="142">
-        <f t="shared" ref="L46:Q46" si="64">L43-L47-L45</f>
+        <f t="shared" ref="L46:Q46" si="58">L43-L47-L45</f>
         <v>8</v>
       </c>
       <c r="M46" s="142">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>15</v>
       </c>
       <c r="N46" s="142">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>29</v>
       </c>
       <c r="O46" s="142">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>46</v>
       </c>
       <c r="P46" s="142">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>150</v>
       </c>
       <c r="Q46" s="142">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>359</v>
       </c>
       <c r="R46" s="142">
-        <f t="shared" ref="R46" si="65">R43-R47-R45</f>
+        <f t="shared" ref="R46" si="59">R43-R47-R45</f>
         <v>1002</v>
       </c>
       <c r="S46" s="175"/>
@@ -38042,103 +38051,103 @@
       <c r="H51" s="16"/>
       <c r="I51" s="16"/>
       <c r="J51" s="18">
-        <f t="shared" ref="J51:AH51" si="66">J$19*$D$51</f>
+        <f t="shared" ref="J51:AH51" si="60">J$19*$D$51</f>
         <v>0.3125</v>
       </c>
       <c r="K51" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>0.625</v>
       </c>
       <c r="L51" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>1.25</v>
       </c>
       <c r="M51" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>2.5</v>
       </c>
       <c r="N51" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>5</v>
       </c>
       <c r="O51" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>10</v>
       </c>
       <c r="P51" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>20</v>
       </c>
       <c r="Q51" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>40</v>
       </c>
       <c r="R51" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>80</v>
       </c>
       <c r="S51" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>160</v>
       </c>
       <c r="T51" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>320</v>
       </c>
       <c r="U51" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>640</v>
       </c>
       <c r="V51" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>1280</v>
       </c>
       <c r="W51" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>2560</v>
       </c>
       <c r="X51" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>5120</v>
       </c>
       <c r="Y51" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>10240</v>
       </c>
       <c r="Z51" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>20480</v>
       </c>
       <c r="AA51" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>40960</v>
       </c>
       <c r="AB51" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>81920</v>
       </c>
       <c r="AC51" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>163840</v>
       </c>
       <c r="AD51" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>327680</v>
       </c>
       <c r="AE51" s="60">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>655360</v>
       </c>
       <c r="AF51" s="18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>1310720</v>
       </c>
       <c r="AG51" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>2621440</v>
       </c>
       <c r="AH51" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="60"/>
         <v>2728860</v>
       </c>
       <c r="AI51" s="45"/>
@@ -38156,103 +38165,103 @@
       <c r="H52" s="15"/>
       <c r="I52" s="10"/>
       <c r="J52" s="29">
-        <f t="shared" ref="J52:AH52" si="67">J$19*$D$51*$E$52</f>
+        <f t="shared" ref="J52:AH52" si="61">J$19*$D$51*$E$52</f>
         <v>4.6249999999999999E-2</v>
       </c>
       <c r="K52" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>9.2499999999999999E-2</v>
       </c>
       <c r="L52" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>0.185</v>
       </c>
       <c r="M52" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>0.37</v>
       </c>
       <c r="N52" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>0.74</v>
       </c>
       <c r="O52" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>1.48</v>
       </c>
       <c r="P52" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>2.96</v>
       </c>
       <c r="Q52" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>5.92</v>
       </c>
       <c r="R52" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>11.84</v>
       </c>
       <c r="S52" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>23.68</v>
       </c>
       <c r="T52" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>47.36</v>
       </c>
       <c r="U52" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>94.72</v>
       </c>
       <c r="V52" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>189.44</v>
       </c>
       <c r="W52" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>378.88</v>
       </c>
       <c r="X52" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>757.76</v>
       </c>
       <c r="Y52" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>1515.52</v>
       </c>
       <c r="Z52" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>3031.04</v>
       </c>
       <c r="AA52" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>6062.08</v>
       </c>
       <c r="AB52" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>12124.16</v>
       </c>
       <c r="AC52" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>24248.32</v>
       </c>
       <c r="AD52" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>48496.639999999999</v>
       </c>
       <c r="AE52" s="71">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>96993.279999999999</v>
       </c>
       <c r="AF52" s="29">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>193986.56</v>
       </c>
       <c r="AG52" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>387973.12</v>
       </c>
       <c r="AH52" s="30">
-        <f t="shared" si="67"/>
+        <f t="shared" si="61"/>
         <v>403871.27999999997</v>
       </c>
       <c r="AI52" s="45"/>
@@ -38266,7 +38275,7 @@
         <v>2.5399999999999999E-2</v>
       </c>
       <c r="C53" s="10">
-        <f t="shared" ref="C53:C67" si="68">$B$6*B53</f>
+        <f t="shared" ref="C53:C67" si="62">$B$6*B53</f>
         <v>6931304.3999999994</v>
       </c>
       <c r="D53" s="23">
@@ -38279,103 +38288,103 @@
       <c r="H53" s="16"/>
       <c r="I53" s="16"/>
       <c r="J53" s="20">
-        <f t="shared" ref="J53:AH53" si="69">J$19*$D$53</f>
+        <f t="shared" ref="J53:AH53" si="63">J$19*$D$53</f>
         <v>0.90625</v>
       </c>
       <c r="K53" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>1.8125</v>
       </c>
       <c r="L53" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>3.625</v>
       </c>
       <c r="M53" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>7.25</v>
       </c>
       <c r="N53" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>14.5</v>
       </c>
       <c r="O53" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>29</v>
       </c>
       <c r="P53" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>58</v>
       </c>
       <c r="Q53" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>116</v>
       </c>
       <c r="R53" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>232</v>
       </c>
       <c r="S53" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>464</v>
       </c>
       <c r="T53" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>928</v>
       </c>
       <c r="U53" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>1856</v>
       </c>
       <c r="V53" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>3712</v>
       </c>
       <c r="W53" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>7424</v>
       </c>
       <c r="X53" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>14848</v>
       </c>
       <c r="Y53" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>29696</v>
       </c>
       <c r="Z53" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>59392</v>
       </c>
       <c r="AA53" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>118784</v>
       </c>
       <c r="AB53" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>237568</v>
       </c>
       <c r="AC53" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>475136</v>
       </c>
       <c r="AD53" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>950272</v>
       </c>
       <c r="AE53" s="72">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>1900544</v>
       </c>
       <c r="AF53" s="20">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>3801088</v>
       </c>
       <c r="AG53" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>7602176</v>
       </c>
       <c r="AH53" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="63"/>
         <v>7913694</v>
       </c>
       <c r="AI53" s="45"/>
@@ -38393,103 +38402,103 @@
       <c r="H54" s="15"/>
       <c r="I54" s="10"/>
       <c r="J54" s="29">
-        <f t="shared" ref="J54:AH54" si="70">J$19*$D$53*$E$54</f>
+        <f t="shared" ref="J54:AH54" si="64">J$19*$D$53*$E$54</f>
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="K54" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>0.14499999999999999</v>
       </c>
       <c r="L54" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="M54" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="N54" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>1.1599999999999999</v>
       </c>
       <c r="O54" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>2.3199999999999998</v>
       </c>
       <c r="P54" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>4.6399999999999997</v>
       </c>
       <c r="Q54" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>9.2799999999999994</v>
       </c>
       <c r="R54" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>18.559999999999999</v>
       </c>
       <c r="S54" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>37.119999999999997</v>
       </c>
       <c r="T54" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>74.239999999999995</v>
       </c>
       <c r="U54" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>148.47999999999999</v>
       </c>
       <c r="V54" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>296.95999999999998</v>
       </c>
       <c r="W54" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>593.91999999999996</v>
       </c>
       <c r="X54" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>1187.8399999999999</v>
       </c>
       <c r="Y54" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>2375.6799999999998</v>
       </c>
       <c r="Z54" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>4751.3599999999997</v>
       </c>
       <c r="AA54" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>9502.7199999999993</v>
       </c>
       <c r="AB54" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>19005.439999999999</v>
       </c>
       <c r="AC54" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>38010.879999999997</v>
       </c>
       <c r="AD54" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>76021.759999999995</v>
       </c>
       <c r="AE54" s="71">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>152043.51999999999</v>
       </c>
       <c r="AF54" s="29">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>304087.03999999998</v>
       </c>
       <c r="AG54" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>608174.07999999996</v>
       </c>
       <c r="AH54" s="30">
-        <f t="shared" si="70"/>
+        <f t="shared" si="64"/>
         <v>633095.52</v>
       </c>
       <c r="AI54" s="45"/>
@@ -38503,7 +38512,7 @@
         <v>6.2300000000000001E-2</v>
       </c>
       <c r="C55" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="62"/>
         <v>17000797.800000001</v>
       </c>
       <c r="D55" s="23">
@@ -38516,103 +38525,103 @@
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
       <c r="J55" s="20">
-        <f t="shared" ref="J55:AH55" si="71">J$19*$D$55</f>
+        <f t="shared" ref="J55:AH55" si="65">J$19*$D$55</f>
         <v>3.78125</v>
       </c>
       <c r="K55" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>7.5625</v>
       </c>
       <c r="L55" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>15.125</v>
       </c>
       <c r="M55" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>30.25</v>
       </c>
       <c r="N55" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>60.5</v>
       </c>
       <c r="O55" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>121</v>
       </c>
       <c r="P55" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>242</v>
       </c>
       <c r="Q55" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>484</v>
       </c>
       <c r="R55" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>968</v>
       </c>
       <c r="S55" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>1936</v>
       </c>
       <c r="T55" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>3872</v>
       </c>
       <c r="U55" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>7744</v>
       </c>
       <c r="V55" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>15488</v>
       </c>
       <c r="W55" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>30976</v>
       </c>
       <c r="X55" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>61952</v>
       </c>
       <c r="Y55" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>123904</v>
       </c>
       <c r="Z55" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>247808</v>
       </c>
       <c r="AA55" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>495616</v>
       </c>
       <c r="AB55" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>991232</v>
       </c>
       <c r="AC55" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>1982464</v>
       </c>
       <c r="AD55" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>3964928</v>
       </c>
       <c r="AE55" s="72">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>7929856</v>
       </c>
       <c r="AF55" s="20">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>15859712</v>
       </c>
       <c r="AG55" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>31719424</v>
       </c>
       <c r="AH55" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>33019206</v>
       </c>
       <c r="AI55" s="45"/>
@@ -38630,103 +38639,103 @@
       <c r="H56" s="15"/>
       <c r="I56" s="10"/>
       <c r="J56" s="29">
-        <f t="shared" ref="J56:AH56" si="72">J$19*$D$55*$E$56</f>
+        <f t="shared" ref="J56:AH56" si="66">J$19*$D$55*$E$56</f>
         <v>0.136125</v>
       </c>
       <c r="K56" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>0.27224999999999999</v>
       </c>
       <c r="L56" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>0.54449999999999998</v>
       </c>
       <c r="M56" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>1.089</v>
       </c>
       <c r="N56" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>2.1779999999999999</v>
       </c>
       <c r="O56" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>4.3559999999999999</v>
       </c>
       <c r="P56" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>8.7119999999999997</v>
       </c>
       <c r="Q56" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>17.423999999999999</v>
       </c>
       <c r="R56" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>34.847999999999999</v>
       </c>
       <c r="S56" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>69.695999999999998</v>
       </c>
       <c r="T56" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>139.392</v>
       </c>
       <c r="U56" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>278.78399999999999</v>
       </c>
       <c r="V56" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>557.56799999999998</v>
       </c>
       <c r="W56" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>1115.136</v>
       </c>
       <c r="X56" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>2230.2719999999999</v>
       </c>
       <c r="Y56" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>4460.5439999999999</v>
       </c>
       <c r="Z56" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>8921.0879999999997</v>
       </c>
       <c r="AA56" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>17842.175999999999</v>
       </c>
       <c r="AB56" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>35684.351999999999</v>
       </c>
       <c r="AC56" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>71368.703999999998</v>
       </c>
       <c r="AD56" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>142737.408</v>
       </c>
       <c r="AE56" s="71">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>285474.81599999999</v>
       </c>
       <c r="AF56" s="29">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>570949.63199999998</v>
       </c>
       <c r="AG56" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>1141899.264</v>
       </c>
       <c r="AH56" s="30">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>1188691.416</v>
       </c>
       <c r="AI56" s="45"/>
@@ -38740,7 +38749,7 @@
         <v>0.105</v>
       </c>
       <c r="C57" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="62"/>
         <v>28653030</v>
       </c>
       <c r="D57" s="23">
@@ -38753,103 +38762,103 @@
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
       <c r="J57" s="20">
-        <f t="shared" ref="J57:AH57" si="73">J$19*$D$57</f>
+        <f t="shared" ref="J57:AH57" si="67">J$19*$D$57</f>
         <v>4.96875</v>
       </c>
       <c r="K57" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>9.9375</v>
       </c>
       <c r="L57" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>19.875</v>
       </c>
       <c r="M57" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>39.75</v>
       </c>
       <c r="N57" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>79.5</v>
       </c>
       <c r="O57" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>159</v>
       </c>
       <c r="P57" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>318</v>
       </c>
       <c r="Q57" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>636</v>
       </c>
       <c r="R57" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>1272</v>
       </c>
       <c r="S57" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>2544</v>
       </c>
       <c r="T57" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>5088</v>
       </c>
       <c r="U57" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>10176</v>
       </c>
       <c r="V57" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>20352</v>
       </c>
       <c r="W57" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>40704</v>
       </c>
       <c r="X57" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>81408</v>
       </c>
       <c r="Y57" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>162816</v>
       </c>
       <c r="Z57" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>325632</v>
       </c>
       <c r="AA57" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>651264</v>
       </c>
       <c r="AB57" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>1302528</v>
       </c>
       <c r="AC57" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>2605056</v>
       </c>
       <c r="AD57" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>5210112</v>
       </c>
       <c r="AE57" s="72">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>10420224</v>
       </c>
       <c r="AF57" s="20">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>20840448</v>
       </c>
       <c r="AG57" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>41680896</v>
       </c>
       <c r="AH57" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>43388874</v>
       </c>
       <c r="AI57" s="45"/>
@@ -38867,103 +38876,103 @@
       <c r="H58" s="15"/>
       <c r="I58" s="10"/>
       <c r="J58" s="29">
-        <f t="shared" ref="J58:AH58" si="74">J$19*$D$57*$E$58</f>
+        <f t="shared" ref="J58:AH58" si="68">J$19*$D$57*$E$58</f>
         <v>6.4593749999999991E-2</v>
       </c>
       <c r="K58" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>0.12918749999999998</v>
       </c>
       <c r="L58" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>0.25837499999999997</v>
       </c>
       <c r="M58" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>0.51674999999999993</v>
       </c>
       <c r="N58" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>1.0334999999999999</v>
       </c>
       <c r="O58" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>2.0669999999999997</v>
       </c>
       <c r="P58" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>4.1339999999999995</v>
       </c>
       <c r="Q58" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>8.2679999999999989</v>
       </c>
       <c r="R58" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>16.535999999999998</v>
       </c>
       <c r="S58" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>33.071999999999996</v>
       </c>
       <c r="T58" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>66.143999999999991</v>
       </c>
       <c r="U58" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>132.28799999999998</v>
       </c>
       <c r="V58" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>264.57599999999996</v>
       </c>
       <c r="W58" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>529.15199999999993</v>
       </c>
       <c r="X58" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>1058.3039999999999</v>
       </c>
       <c r="Y58" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>2116.6079999999997</v>
       </c>
       <c r="Z58" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>4233.2159999999994</v>
       </c>
       <c r="AA58" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>8466.4319999999989</v>
       </c>
       <c r="AB58" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>16932.863999999998</v>
       </c>
       <c r="AC58" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>33865.727999999996</v>
       </c>
       <c r="AD58" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>67731.455999999991</v>
       </c>
       <c r="AE58" s="71">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>135462.91199999998</v>
       </c>
       <c r="AF58" s="29">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>270925.82399999996</v>
       </c>
       <c r="AG58" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>541851.64799999993</v>
       </c>
       <c r="AH58" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>564055.36199999996</v>
       </c>
       <c r="AI58" s="45"/>
@@ -38977,7 +38986,7 @@
         <v>0.13589999999999999</v>
       </c>
       <c r="C59" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="62"/>
         <v>37085207.399999999</v>
       </c>
       <c r="D59" s="23">
@@ -38990,103 +38999,103 @@
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
       <c r="J59" s="20">
-        <f t="shared" ref="J59:AH59" si="75">J$19*$D$59</f>
+        <f t="shared" ref="J59:AH59" si="69">J$19*$D$59</f>
         <v>5.34375</v>
       </c>
       <c r="K59" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>10.6875</v>
       </c>
       <c r="L59" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>21.375</v>
       </c>
       <c r="M59" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>42.75</v>
       </c>
       <c r="N59" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>85.5</v>
       </c>
       <c r="O59" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>171</v>
       </c>
       <c r="P59" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>342</v>
       </c>
       <c r="Q59" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>684</v>
       </c>
       <c r="R59" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>1368</v>
       </c>
       <c r="S59" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>2736</v>
       </c>
       <c r="T59" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>5472</v>
       </c>
       <c r="U59" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>10944</v>
       </c>
       <c r="V59" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>21888</v>
       </c>
       <c r="W59" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>43776</v>
       </c>
       <c r="X59" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>87552</v>
       </c>
       <c r="Y59" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>175104</v>
       </c>
       <c r="Z59" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>350208</v>
       </c>
       <c r="AA59" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>700416</v>
       </c>
       <c r="AB59" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>1400832</v>
       </c>
       <c r="AC59" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>2801664</v>
       </c>
       <c r="AD59" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>5603328</v>
       </c>
       <c r="AE59" s="72">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>11206656</v>
       </c>
       <c r="AF59" s="20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>22413312</v>
       </c>
       <c r="AG59" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>44826624</v>
       </c>
       <c r="AH59" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="69"/>
         <v>46663506</v>
       </c>
       <c r="AI59" s="45"/>
@@ -39104,103 +39113,103 @@
       <c r="H60" s="15"/>
       <c r="I60" s="10"/>
       <c r="J60" s="29">
-        <f t="shared" ref="J60:AH60" si="76">J$19*$D$59*$E$60</f>
+        <f t="shared" ref="J60:AH60" si="70">J$19*$D$59*$E$60</f>
         <v>2.1375000000000002E-2</v>
       </c>
       <c r="K60" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>4.2750000000000003E-2</v>
       </c>
       <c r="L60" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>8.5500000000000007E-2</v>
       </c>
       <c r="M60" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>0.17100000000000001</v>
       </c>
       <c r="N60" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>0.34200000000000003</v>
       </c>
       <c r="O60" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>0.68400000000000005</v>
       </c>
       <c r="P60" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>1.3680000000000001</v>
       </c>
       <c r="Q60" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>2.7360000000000002</v>
       </c>
       <c r="R60" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>5.4720000000000004</v>
       </c>
       <c r="S60" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>10.944000000000001</v>
       </c>
       <c r="T60" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>21.888000000000002</v>
       </c>
       <c r="U60" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>43.776000000000003</v>
       </c>
       <c r="V60" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>87.552000000000007</v>
       </c>
       <c r="W60" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>175.10400000000001</v>
       </c>
       <c r="X60" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>350.20800000000003</v>
       </c>
       <c r="Y60" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>700.41600000000005</v>
       </c>
       <c r="Z60" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>1400.8320000000001</v>
       </c>
       <c r="AA60" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>2801.6640000000002</v>
       </c>
       <c r="AB60" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>5603.3280000000004</v>
       </c>
       <c r="AC60" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>11206.656000000001</v>
       </c>
       <c r="AD60" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>22413.312000000002</v>
       </c>
       <c r="AE60" s="71">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>44826.624000000003</v>
       </c>
       <c r="AF60" s="29">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>89653.248000000007</v>
       </c>
       <c r="AG60" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>179306.49600000001</v>
       </c>
       <c r="AH60" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="70"/>
         <v>186654.024</v>
       </c>
       <c r="AI60" s="45"/>
@@ -39214,7 +39223,7 @@
         <v>0.15310000000000001</v>
       </c>
       <c r="C61" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="62"/>
         <v>41778846.600000001</v>
       </c>
       <c r="D61" s="23">
@@ -39227,103 +39236,103 @@
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
       <c r="J61" s="20">
-        <f t="shared" ref="J61:AH61" si="77">J$19*$D$61</f>
+        <f t="shared" ref="J61:AH61" si="71">J$19*$D$61</f>
         <v>6.84375</v>
       </c>
       <c r="K61" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>13.6875</v>
       </c>
       <c r="L61" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>27.375</v>
       </c>
       <c r="M61" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>54.75</v>
       </c>
       <c r="N61" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>109.5</v>
       </c>
       <c r="O61" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>219</v>
       </c>
       <c r="P61" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>438</v>
       </c>
       <c r="Q61" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>876</v>
       </c>
       <c r="R61" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>1752</v>
       </c>
       <c r="S61" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>3504</v>
       </c>
       <c r="T61" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>7008</v>
       </c>
       <c r="U61" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>14016</v>
       </c>
       <c r="V61" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>28032</v>
       </c>
       <c r="W61" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>56064</v>
       </c>
       <c r="X61" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>112128</v>
       </c>
       <c r="Y61" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>224256</v>
       </c>
       <c r="Z61" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>448512</v>
       </c>
       <c r="AA61" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>897024</v>
       </c>
       <c r="AB61" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>1794048</v>
       </c>
       <c r="AC61" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>3588096</v>
       </c>
       <c r="AD61" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>7176192</v>
       </c>
       <c r="AE61" s="72">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>14352384</v>
       </c>
       <c r="AF61" s="20">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>28704768</v>
       </c>
       <c r="AG61" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>57409536</v>
       </c>
       <c r="AH61" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="71"/>
         <v>59762034</v>
       </c>
       <c r="AI61" s="45"/>
@@ -39341,103 +39350,103 @@
       <c r="H62" s="15"/>
       <c r="I62" s="10"/>
       <c r="J62" s="29">
-        <f t="shared" ref="J62:AH62" si="78">J$19*$D$61*$E$62</f>
+        <f t="shared" ref="J62:AH62" si="72">J$19*$D$61*$E$62</f>
         <v>1.36875E-2</v>
       </c>
       <c r="K62" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>2.7375E-2</v>
       </c>
       <c r="L62" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>5.475E-2</v>
       </c>
       <c r="M62" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>0.1095</v>
       </c>
       <c r="N62" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>0.219</v>
       </c>
       <c r="O62" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>0.438</v>
       </c>
       <c r="P62" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>0.876</v>
       </c>
       <c r="Q62" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>1.752</v>
       </c>
       <c r="R62" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>3.504</v>
       </c>
       <c r="S62" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>7.008</v>
       </c>
       <c r="T62" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>14.016</v>
       </c>
       <c r="U62" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>28.032</v>
       </c>
       <c r="V62" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>56.064</v>
       </c>
       <c r="W62" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>112.128</v>
       </c>
       <c r="X62" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>224.256</v>
       </c>
       <c r="Y62" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>448.512</v>
       </c>
       <c r="Z62" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>897.024</v>
       </c>
       <c r="AA62" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>1794.048</v>
       </c>
       <c r="AB62" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>3588.096</v>
       </c>
       <c r="AC62" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>7176.192</v>
       </c>
       <c r="AD62" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>14352.384</v>
       </c>
       <c r="AE62" s="71">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>28704.768</v>
       </c>
       <c r="AF62" s="29">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>57409.536</v>
       </c>
       <c r="AG62" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>114819.072</v>
       </c>
       <c r="AH62" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="72"/>
         <v>119524.068</v>
       </c>
       <c r="AI62" s="45"/>
@@ -39451,7 +39460,7 @@
         <v>0.1608</v>
       </c>
       <c r="C63" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="62"/>
         <v>43880068.799999997</v>
       </c>
       <c r="D63" s="23">
@@ -39464,103 +39473,103 @@
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
       <c r="J63" s="20">
-        <f t="shared" ref="J63:AH63" si="79">J$19*$D$63</f>
+        <f t="shared" ref="J63:AH63" si="73">J$19*$D$63</f>
         <v>7.25</v>
       </c>
       <c r="K63" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>14.5</v>
       </c>
       <c r="L63" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>29</v>
       </c>
       <c r="M63" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>58</v>
       </c>
       <c r="N63" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>116</v>
       </c>
       <c r="O63" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>232</v>
       </c>
       <c r="P63" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>464</v>
       </c>
       <c r="Q63" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>928</v>
       </c>
       <c r="R63" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>1856</v>
       </c>
       <c r="S63" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>3712</v>
       </c>
       <c r="T63" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>7424</v>
       </c>
       <c r="U63" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>14848</v>
       </c>
       <c r="V63" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>29696</v>
       </c>
       <c r="W63" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>59392</v>
       </c>
       <c r="X63" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>118784</v>
       </c>
       <c r="Y63" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>237568</v>
       </c>
       <c r="Z63" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>475136</v>
       </c>
       <c r="AA63" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>950272</v>
       </c>
       <c r="AB63" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>1900544</v>
       </c>
       <c r="AC63" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>3801088</v>
       </c>
       <c r="AD63" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>7602176</v>
       </c>
       <c r="AE63" s="72">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>15204352</v>
       </c>
       <c r="AF63" s="20">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>30408704</v>
       </c>
       <c r="AG63" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>60817408</v>
       </c>
       <c r="AH63" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="73"/>
         <v>63309552</v>
       </c>
       <c r="AI63" s="45"/>
@@ -39578,103 +39587,103 @@
       <c r="H64" s="15"/>
       <c r="I64" s="10"/>
       <c r="J64" s="29">
-        <f t="shared" ref="J64:AH64" si="80">J$19*$D$63*$E$64</f>
+        <f t="shared" ref="J64:AH64" si="74">J$19*$D$63*$E$64</f>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="K64" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="L64" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="M64" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>0.11600000000000001</v>
       </c>
       <c r="N64" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>0.23200000000000001</v>
       </c>
       <c r="O64" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>0.46400000000000002</v>
       </c>
       <c r="P64" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>0.92800000000000005</v>
       </c>
       <c r="Q64" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>1.8560000000000001</v>
       </c>
       <c r="R64" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>3.7120000000000002</v>
       </c>
       <c r="S64" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>7.4240000000000004</v>
       </c>
       <c r="T64" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>14.848000000000001</v>
       </c>
       <c r="U64" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>29.696000000000002</v>
       </c>
       <c r="V64" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>59.392000000000003</v>
       </c>
       <c r="W64" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>118.78400000000001</v>
       </c>
       <c r="X64" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>237.56800000000001</v>
       </c>
       <c r="Y64" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>475.13600000000002</v>
       </c>
       <c r="Z64" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>950.27200000000005</v>
       </c>
       <c r="AA64" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>1900.5440000000001</v>
       </c>
       <c r="AB64" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>3801.0880000000002</v>
       </c>
       <c r="AC64" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>7602.1760000000004</v>
       </c>
       <c r="AD64" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>15204.352000000001</v>
       </c>
       <c r="AE64" s="71">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>30408.704000000002</v>
       </c>
       <c r="AF64" s="29">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>60817.408000000003</v>
       </c>
       <c r="AG64" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>121634.81600000001</v>
       </c>
       <c r="AH64" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="74"/>
         <v>126619.10400000001</v>
       </c>
       <c r="AI64" s="45"/>
@@ -39688,7 +39697,7 @@
         <v>0.1729</v>
       </c>
       <c r="C65" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="62"/>
         <v>47181989.399999999</v>
       </c>
       <c r="D65" s="23">
@@ -39701,103 +39710,103 @@
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
       <c r="J65" s="20">
-        <f t="shared" ref="J65:AH65" si="81">J$19*$D$65</f>
+        <f t="shared" ref="J65:AH65" si="75">J$19*$D$65</f>
         <v>1.1875</v>
       </c>
       <c r="K65" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>2.375</v>
       </c>
       <c r="L65" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>4.75</v>
       </c>
       <c r="M65" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>9.5</v>
       </c>
       <c r="N65" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>19</v>
       </c>
       <c r="O65" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>38</v>
       </c>
       <c r="P65" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>76</v>
       </c>
       <c r="Q65" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>152</v>
       </c>
       <c r="R65" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>304</v>
       </c>
       <c r="S65" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>608</v>
       </c>
       <c r="T65" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>1216</v>
       </c>
       <c r="U65" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>2432</v>
       </c>
       <c r="V65" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>4864</v>
       </c>
       <c r="W65" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>9728</v>
       </c>
       <c r="X65" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>19456</v>
       </c>
       <c r="Y65" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>38912</v>
       </c>
       <c r="Z65" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>77824</v>
       </c>
       <c r="AA65" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>155648</v>
       </c>
       <c r="AB65" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>311296</v>
       </c>
       <c r="AC65" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>622592</v>
       </c>
       <c r="AD65" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>1245184</v>
       </c>
       <c r="AE65" s="72">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>2490368</v>
       </c>
       <c r="AF65" s="20">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>4980736</v>
       </c>
       <c r="AG65" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>9961472</v>
       </c>
       <c r="AH65" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="75"/>
         <v>10369668</v>
       </c>
       <c r="AI65" s="45"/>
@@ -39815,103 +39824,103 @@
       <c r="H66" s="15"/>
       <c r="I66" s="10"/>
       <c r="J66" s="29">
-        <f t="shared" ref="J66:AH66" si="82">J$19*$D$65*$E$66</f>
+        <f t="shared" ref="J66:AH66" si="76">J$19*$D$65*$E$66</f>
         <v>2.3749999999999999E-3</v>
       </c>
       <c r="K66" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>4.7499999999999999E-3</v>
       </c>
       <c r="L66" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="M66" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>1.9E-2</v>
       </c>
       <c r="N66" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="O66" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="P66" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0.152</v>
       </c>
       <c r="Q66" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0.30399999999999999</v>
       </c>
       <c r="R66" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>0.60799999999999998</v>
       </c>
       <c r="S66" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>1.216</v>
       </c>
       <c r="T66" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>2.4319999999999999</v>
       </c>
       <c r="U66" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>4.8639999999999999</v>
       </c>
       <c r="V66" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>9.7279999999999998</v>
       </c>
       <c r="W66" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>19.456</v>
       </c>
       <c r="X66" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>38.911999999999999</v>
       </c>
       <c r="Y66" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>77.823999999999998</v>
       </c>
       <c r="Z66" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>155.648</v>
       </c>
       <c r="AA66" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>311.29599999999999</v>
       </c>
       <c r="AB66" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>622.59199999999998</v>
       </c>
       <c r="AC66" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>1245.184</v>
       </c>
       <c r="AD66" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>2490.3679999999999</v>
       </c>
       <c r="AE66" s="71">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>4980.7359999999999</v>
       </c>
       <c r="AF66" s="29">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>9961.4719999999998</v>
       </c>
       <c r="AG66" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>19922.944</v>
       </c>
       <c r="AH66" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="76"/>
         <v>20739.335999999999</v>
       </c>
       <c r="AI66" s="45"/>
@@ -39925,7 +39934,7 @@
         <v>0.1774</v>
       </c>
       <c r="C67" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="62"/>
         <v>48409976.399999999</v>
       </c>
       <c r="D67" s="23">
@@ -39938,103 +39947,103 @@
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
       <c r="J67" s="20">
-        <f t="shared" ref="J67:AH67" si="83">J$19*$D$67</f>
+        <f t="shared" ref="J67:AH67" si="77">J$19*$D$67</f>
         <v>0.65625</v>
       </c>
       <c r="K67" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>1.3125</v>
       </c>
       <c r="L67" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>2.625</v>
       </c>
       <c r="M67" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>5.25</v>
       </c>
       <c r="N67" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>10.5</v>
       </c>
       <c r="O67" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>21</v>
       </c>
       <c r="P67" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>42</v>
       </c>
       <c r="Q67" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>84</v>
       </c>
       <c r="R67" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>168</v>
       </c>
       <c r="S67" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>336</v>
       </c>
       <c r="T67" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>672</v>
       </c>
       <c r="U67" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>1344</v>
       </c>
       <c r="V67" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>2688</v>
       </c>
       <c r="W67" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>5376</v>
       </c>
       <c r="X67" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>10752</v>
       </c>
       <c r="Y67" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>21504</v>
       </c>
       <c r="Z67" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>43008</v>
       </c>
       <c r="AA67" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>86016</v>
       </c>
       <c r="AB67" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>172032</v>
       </c>
       <c r="AC67" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>344064</v>
       </c>
       <c r="AD67" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>688128</v>
       </c>
       <c r="AE67" s="72">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>1376256</v>
       </c>
       <c r="AF67" s="20">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>2752512</v>
       </c>
       <c r="AG67" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>5505024</v>
       </c>
       <c r="AH67" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="77"/>
         <v>5730606</v>
       </c>
       <c r="AI67" s="45"/>
@@ -40052,103 +40061,103 @@
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
       <c r="J68" s="31">
-        <f t="shared" ref="J68:AH68" si="84">J$19*$D$67*$E$68</f>
+        <f t="shared" ref="J68:AH68" si="78">J$19*$D$67*$E$68</f>
         <v>0</v>
       </c>
       <c r="K68" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="L68" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="M68" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="N68" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="O68" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="P68" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="Q68" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="R68" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="S68" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="T68" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="U68" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="V68" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="W68" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="X68" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="Y68" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="Z68" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="AA68" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="AB68" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="AC68" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="AD68" s="32">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="AE68" s="73">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="AF68" s="29">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="AG68" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="AH68" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="AI68" s="45"/>
@@ -40166,23 +40175,23 @@
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
       <c r="J69" s="18">
-        <f t="shared" ref="J69:Z69" si="85">SUM(J51,J53,J55,J57,J59,J61,J63,J65,J67)</f>
+        <f t="shared" ref="J69:Z69" si="79">SUM(J51,J53,J55,J57,J59,J61,J63,J65,J67)</f>
         <v>31.25</v>
       </c>
       <c r="K69" s="19">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>62.5</v>
       </c>
       <c r="L69" s="19">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>125</v>
       </c>
       <c r="M69" s="19">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>250</v>
       </c>
       <c r="N69" s="19">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>500</v>
       </c>
       <c r="O69" s="19">
@@ -40190,79 +40199,79 @@
         <v>1000</v>
       </c>
       <c r="P69" s="19">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>2000</v>
       </c>
       <c r="Q69" s="19">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>4000</v>
       </c>
       <c r="R69" s="19">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>8000</v>
       </c>
       <c r="S69" s="19">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>16000</v>
       </c>
       <c r="T69" s="19">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>32000</v>
       </c>
       <c r="U69" s="19">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>64000</v>
       </c>
       <c r="V69" s="19">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>128000</v>
       </c>
       <c r="W69" s="19">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>256000</v>
       </c>
       <c r="X69" s="19">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>512000</v>
       </c>
       <c r="Y69" s="19">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>1024000</v>
       </c>
       <c r="Z69" s="19">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>2048000</v>
       </c>
       <c r="AA69" s="19">
-        <f t="shared" ref="AA69:AC70" si="86">SUM(AA51,AA53,AA55,AA57,AA59,AA61,AA63,AA65,AA67)</f>
+        <f t="shared" ref="AA69:AC70" si="80">SUM(AA51,AA53,AA55,AA57,AA59,AA61,AA63,AA65,AA67)</f>
         <v>4096000</v>
       </c>
       <c r="AB69" s="19">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>8192000</v>
       </c>
       <c r="AC69" s="19">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>16384000</v>
       </c>
       <c r="AD69" s="19">
-        <f t="shared" ref="AD69:AH69" si="87">SUM(AD51,AD53,AD55,AD57,AD59,AD61,AD63,AD65,AD67)</f>
+        <f t="shared" ref="AD69:AH69" si="81">SUM(AD51,AD53,AD55,AD57,AD59,AD61,AD63,AD65,AD67)</f>
         <v>32768000</v>
       </c>
       <c r="AE69" s="19">
-        <f t="shared" si="87"/>
+        <f t="shared" si="81"/>
         <v>65536000</v>
       </c>
       <c r="AF69" s="18">
-        <f t="shared" si="87"/>
+        <f t="shared" si="81"/>
         <v>131072000</v>
       </c>
       <c r="AG69" s="19">
-        <f t="shared" si="87"/>
+        <f t="shared" si="81"/>
         <v>262144000</v>
       </c>
       <c r="AH69" s="19">
-        <f t="shared" si="87"/>
+        <f t="shared" si="81"/>
         <v>272886000</v>
       </c>
       <c r="AI69" s="45"/>
@@ -40288,95 +40297,95 @@
         <v>0.74281249999999999</v>
       </c>
       <c r="L70" s="32">
-        <f t="shared" ref="L70:Z70" si="88">SUM(L52,L54,L56,L58,L60,L62,L64,L66,L68)</f>
+        <f t="shared" ref="L70:Z70" si="82">SUM(L52,L54,L56,L58,L60,L62,L64,L66,L68)</f>
         <v>1.485625</v>
       </c>
       <c r="M70" s="32">
-        <f t="shared" si="88"/>
+        <f t="shared" si="82"/>
         <v>2.9712499999999999</v>
       </c>
       <c r="N70" s="32">
-        <f t="shared" si="88"/>
+        <f t="shared" si="82"/>
         <v>5.9424999999999999</v>
       </c>
       <c r="O70" s="32">
-        <f t="shared" si="88"/>
+        <f t="shared" si="82"/>
         <v>11.885</v>
       </c>
       <c r="P70" s="32">
-        <f t="shared" si="88"/>
+        <f t="shared" si="82"/>
         <v>23.77</v>
       </c>
       <c r="Q70" s="32">
-        <f t="shared" si="88"/>
+        <f t="shared" si="82"/>
         <v>47.54</v>
       </c>
       <c r="R70" s="32">
-        <f t="shared" si="88"/>
+        <f t="shared" si="82"/>
         <v>95.08</v>
       </c>
       <c r="S70" s="32">
-        <f t="shared" si="88"/>
+        <f t="shared" si="82"/>
         <v>190.16</v>
       </c>
       <c r="T70" s="32">
-        <f t="shared" si="88"/>
+        <f t="shared" si="82"/>
         <v>380.32</v>
       </c>
       <c r="U70" s="32">
-        <f t="shared" si="88"/>
+        <f t="shared" si="82"/>
         <v>760.64</v>
       </c>
       <c r="V70" s="32">
-        <f t="shared" si="88"/>
+        <f t="shared" si="82"/>
         <v>1521.28</v>
       </c>
       <c r="W70" s="32">
-        <f t="shared" si="88"/>
+        <f t="shared" si="82"/>
         <v>3042.56</v>
       </c>
       <c r="X70" s="32">
-        <f t="shared" si="88"/>
+        <f t="shared" si="82"/>
         <v>6085.12</v>
       </c>
       <c r="Y70" s="32">
-        <f t="shared" si="88"/>
+        <f t="shared" si="82"/>
         <v>12170.24</v>
       </c>
       <c r="Z70" s="32">
-        <f t="shared" si="88"/>
+        <f t="shared" si="82"/>
         <v>24340.48</v>
       </c>
       <c r="AA70" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>48680.959999999999</v>
       </c>
       <c r="AB70" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>97361.919999999998</v>
       </c>
       <c r="AC70" s="32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>194723.84</v>
       </c>
       <c r="AD70" s="32">
-        <f t="shared" ref="AD70:AH70" si="89">SUM(AD52,AD54,AD56,AD58,AD60,AD62,AD64,AD66,AD68)</f>
+        <f t="shared" ref="AD70:AH70" si="83">SUM(AD52,AD54,AD56,AD58,AD60,AD62,AD64,AD66,AD68)</f>
         <v>389447.67999999999</v>
       </c>
       <c r="AE70" s="32">
-        <f t="shared" si="89"/>
+        <f t="shared" si="83"/>
         <v>778895.35999999999</v>
       </c>
       <c r="AF70" s="31">
-        <f t="shared" si="89"/>
+        <f t="shared" si="83"/>
         <v>1557790.72</v>
       </c>
       <c r="AG70" s="32">
-        <f t="shared" si="89"/>
+        <f t="shared" si="83"/>
         <v>3115581.4399999999</v>
       </c>
       <c r="AH70" s="32">
-        <f t="shared" si="89"/>
+        <f t="shared" si="83"/>
         <v>3243250.11</v>
       </c>
       <c r="AI70" s="45"/>
@@ -40502,103 +40511,103 @@
       <c r="H74" s="16"/>
       <c r="I74" s="16"/>
       <c r="J74" s="18">
-        <f t="shared" ref="J74:AH74" si="90">J$19*$B$74</f>
+        <f t="shared" ref="J74:AH74" si="84">J$19*$B$74</f>
         <v>9.125</v>
       </c>
       <c r="K74" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>18.25</v>
       </c>
       <c r="L74" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>36.5</v>
       </c>
       <c r="M74" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>73</v>
       </c>
       <c r="N74" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>146</v>
       </c>
       <c r="O74" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>292</v>
       </c>
       <c r="P74" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>584</v>
       </c>
       <c r="Q74" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>1168</v>
       </c>
       <c r="R74" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>2336</v>
       </c>
       <c r="S74" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>4672</v>
       </c>
       <c r="T74" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>9344</v>
       </c>
       <c r="U74" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>18688</v>
       </c>
       <c r="V74" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>37376</v>
       </c>
       <c r="W74" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>74752</v>
       </c>
       <c r="X74" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>149504</v>
       </c>
       <c r="Y74" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>299008</v>
       </c>
       <c r="Z74" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>598016</v>
       </c>
       <c r="AA74" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>1196032</v>
       </c>
       <c r="AB74" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>2392064</v>
       </c>
       <c r="AC74" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>4784128</v>
       </c>
       <c r="AD74" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>9568256</v>
       </c>
       <c r="AE74" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>19136512</v>
       </c>
       <c r="AF74" s="18">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>38273024</v>
       </c>
       <c r="AG74" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>76546048</v>
       </c>
       <c r="AH74" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>79682712</v>
       </c>
       <c r="AI74" s="45"/>
@@ -40620,67 +40629,67 @@
         <v>0.958125</v>
       </c>
       <c r="K75" s="30">
-        <f t="shared" ref="K75:Z75" si="91">K74*$E$75</f>
+        <f t="shared" ref="K75:Z75" si="85">K74*$E$75</f>
         <v>1.91625</v>
       </c>
       <c r="L75" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>3.8325</v>
       </c>
       <c r="M75" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>7.665</v>
       </c>
       <c r="N75" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>15.33</v>
       </c>
       <c r="O75" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>30.66</v>
       </c>
       <c r="P75" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>61.32</v>
       </c>
       <c r="Q75" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>122.64</v>
       </c>
       <c r="R75" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>245.28</v>
       </c>
       <c r="S75" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>490.56</v>
       </c>
       <c r="T75" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>981.12</v>
       </c>
       <c r="U75" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>1962.24</v>
       </c>
       <c r="V75" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>3924.48</v>
       </c>
       <c r="W75" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>7848.96</v>
       </c>
       <c r="X75" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>15697.92</v>
       </c>
       <c r="Y75" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>31395.84</v>
       </c>
       <c r="Z75" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="85"/>
         <v>62791.68</v>
       </c>
       <c r="AA75" s="30">
@@ -40696,23 +40705,23 @@
         <v>502333.44</v>
       </c>
       <c r="AD75" s="30">
-        <f t="shared" ref="AD75:AH75" si="92">AD74*$E$75</f>
+        <f t="shared" ref="AD75:AH75" si="86">AD74*$E$75</f>
         <v>1004666.88</v>
       </c>
       <c r="AE75" s="30">
-        <f t="shared" si="92"/>
+        <f t="shared" si="86"/>
         <v>2009333.76</v>
       </c>
       <c r="AF75" s="29">
-        <f t="shared" si="92"/>
+        <f t="shared" si="86"/>
         <v>4018667.52</v>
       </c>
       <c r="AG75" s="30">
-        <f t="shared" si="92"/>
+        <f t="shared" si="86"/>
         <v>8037335.04</v>
       </c>
       <c r="AH75" s="30">
-        <f t="shared" si="92"/>
+        <f t="shared" si="86"/>
         <v>8366684.7599999998</v>
       </c>
       <c r="AI75" s="45"/>
@@ -40735,103 +40744,103 @@
       <c r="H76" s="16"/>
       <c r="I76" s="16"/>
       <c r="J76" s="20">
-        <f t="shared" ref="J76:AH76" si="93">J$19*$B$76</f>
+        <f t="shared" ref="J76:AH76" si="87">J$19*$B$76</f>
         <v>2.1875</v>
       </c>
       <c r="K76" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>4.375</v>
       </c>
       <c r="L76" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>8.75</v>
       </c>
       <c r="M76" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>17.5</v>
       </c>
       <c r="N76" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>35</v>
       </c>
       <c r="O76" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>70</v>
       </c>
       <c r="P76" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>140</v>
       </c>
       <c r="Q76" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>280</v>
       </c>
       <c r="R76" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>560</v>
       </c>
       <c r="S76" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>1120</v>
       </c>
       <c r="T76" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>2240</v>
       </c>
       <c r="U76" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>4480</v>
       </c>
       <c r="V76" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>8960</v>
       </c>
       <c r="W76" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>17920</v>
       </c>
       <c r="X76" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>35840</v>
       </c>
       <c r="Y76" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>71680</v>
       </c>
       <c r="Z76" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>143360</v>
       </c>
       <c r="AA76" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>286720</v>
       </c>
       <c r="AB76" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>573440</v>
       </c>
       <c r="AC76" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>1146880</v>
       </c>
       <c r="AD76" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>2293760</v>
       </c>
       <c r="AE76" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>4587520</v>
       </c>
       <c r="AF76" s="20">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>9175040</v>
       </c>
       <c r="AG76" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>18350080</v>
       </c>
       <c r="AH76" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="87"/>
         <v>19102020</v>
       </c>
       <c r="AI76" s="45"/>
@@ -40849,71 +40858,71 @@
       <c r="H77" s="16"/>
       <c r="I77" s="16"/>
       <c r="J77" s="29">
-        <f t="shared" ref="J77:Z77" si="94">J76*$E$77</f>
+        <f t="shared" ref="J77:Z77" si="88">J76*$E$77</f>
         <v>0.15968749999999998</v>
       </c>
       <c r="K77" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>0.31937499999999996</v>
       </c>
       <c r="L77" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>0.63874999999999993</v>
       </c>
       <c r="M77" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>1.2774999999999999</v>
       </c>
       <c r="N77" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>2.5549999999999997</v>
       </c>
       <c r="O77" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>5.1099999999999994</v>
       </c>
       <c r="P77" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>10.219999999999999</v>
       </c>
       <c r="Q77" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>20.439999999999998</v>
       </c>
       <c r="R77" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>40.879999999999995</v>
       </c>
       <c r="S77" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>81.759999999999991</v>
       </c>
       <c r="T77" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>163.51999999999998</v>
       </c>
       <c r="U77" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>327.03999999999996</v>
       </c>
       <c r="V77" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>654.07999999999993</v>
       </c>
       <c r="W77" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>1308.1599999999999</v>
       </c>
       <c r="X77" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>2616.3199999999997</v>
       </c>
       <c r="Y77" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>5232.6399999999994</v>
       </c>
       <c r="Z77" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="88"/>
         <v>10465.279999999999</v>
       </c>
       <c r="AA77" s="30">
@@ -40929,23 +40938,23 @@
         <v>83722.239999999991</v>
       </c>
       <c r="AD77" s="30">
-        <f t="shared" ref="AD77:AH77" si="95">AD76*$E$77</f>
+        <f t="shared" ref="AD77:AH77" si="89">AD76*$E$77</f>
         <v>167444.47999999998</v>
       </c>
       <c r="AE77" s="30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="89"/>
         <v>334888.95999999996</v>
       </c>
       <c r="AF77" s="29">
-        <f t="shared" si="95"/>
+        <f t="shared" si="89"/>
         <v>669777.91999999993</v>
       </c>
       <c r="AG77" s="30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="89"/>
         <v>1339555.8399999999</v>
       </c>
       <c r="AH77" s="30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="89"/>
         <v>1394447.46</v>
       </c>
       <c r="AI77" s="45"/>
@@ -40968,103 +40977,103 @@
       <c r="H78" s="16"/>
       <c r="I78" s="16"/>
       <c r="J78" s="20">
-        <f t="shared" ref="J78:AH78" si="96">J$19*$B$78</f>
+        <f t="shared" ref="J78:AH78" si="90">J$19*$B$78</f>
         <v>6.25</v>
       </c>
       <c r="K78" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>12.5</v>
       </c>
       <c r="L78" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>25</v>
       </c>
       <c r="M78" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>50</v>
       </c>
       <c r="N78" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>100</v>
       </c>
       <c r="O78" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>200</v>
       </c>
       <c r="P78" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>400</v>
       </c>
       <c r="Q78" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>800</v>
       </c>
       <c r="R78" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>1600</v>
       </c>
       <c r="S78" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>3200</v>
       </c>
       <c r="T78" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>6400</v>
       </c>
       <c r="U78" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>12800</v>
       </c>
       <c r="V78" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>25600</v>
       </c>
       <c r="W78" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>51200</v>
       </c>
       <c r="X78" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>102400</v>
       </c>
       <c r="Y78" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>204800</v>
       </c>
       <c r="Z78" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>409600</v>
       </c>
       <c r="AA78" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>819200</v>
       </c>
       <c r="AB78" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>1638400</v>
       </c>
       <c r="AC78" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>3276800</v>
       </c>
       <c r="AD78" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>6553600</v>
       </c>
       <c r="AE78" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>13107200</v>
       </c>
       <c r="AF78" s="20">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>26214400</v>
       </c>
       <c r="AG78" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>52428800</v>
       </c>
       <c r="AH78" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>54577200</v>
       </c>
       <c r="AI78" s="45"/>
@@ -41082,71 +41091,71 @@
       <c r="H79" s="16"/>
       <c r="I79" s="16"/>
       <c r="J79" s="29">
-        <f t="shared" ref="J79:Z79" si="97">J78*$E$79</f>
+        <f t="shared" ref="J79:Z79" si="91">J78*$E$79</f>
         <v>0.39374999999999999</v>
       </c>
       <c r="K79" s="30">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>0.78749999999999998</v>
       </c>
       <c r="L79" s="30">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>1.575</v>
       </c>
       <c r="M79" s="30">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>3.15</v>
       </c>
       <c r="N79" s="30">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>6.3</v>
       </c>
       <c r="O79" s="30">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>12.6</v>
       </c>
       <c r="P79" s="30">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>25.2</v>
       </c>
       <c r="Q79" s="30">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>50.4</v>
       </c>
       <c r="R79" s="30">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>100.8</v>
       </c>
       <c r="S79" s="30">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>201.6</v>
       </c>
       <c r="T79" s="30">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>403.2</v>
       </c>
       <c r="U79" s="30">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>806.4</v>
       </c>
       <c r="V79" s="30">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>1612.8</v>
       </c>
       <c r="W79" s="30">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>3225.6</v>
       </c>
       <c r="X79" s="30">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>6451.2</v>
       </c>
       <c r="Y79" s="30">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>12902.4</v>
       </c>
       <c r="Z79" s="30">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>25804.799999999999</v>
       </c>
       <c r="AA79" s="30">
@@ -41162,11 +41171,11 @@
         <v>206438.39999999999</v>
       </c>
       <c r="AD79" s="30">
-        <f t="shared" ref="AD79:AH79" si="98">AD78*$E$79</f>
+        <f t="shared" ref="AD79:AH79" si="92">AD78*$E$79</f>
         <v>412876.79999999999</v>
       </c>
       <c r="AE79" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="92"/>
         <v>825753.59999999998</v>
       </c>
       <c r="AF79" s="29">
@@ -41174,11 +41183,11 @@
         <v>1651507.2</v>
       </c>
       <c r="AG79" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="92"/>
         <v>3303014.3999999999</v>
       </c>
       <c r="AH79" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="92"/>
         <v>3438363.6</v>
       </c>
       <c r="AI79" s="45"/>
@@ -41201,103 +41210,103 @@
       <c r="H80" s="16"/>
       <c r="I80" s="16"/>
       <c r="J80" s="20">
-        <f t="shared" ref="J80:AH80" si="99">J$19*$B$80</f>
+        <f t="shared" ref="J80:AH80" si="93">J$19*$B$80</f>
         <v>10.4375</v>
       </c>
       <c r="K80" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="93"/>
         <v>20.875</v>
       </c>
       <c r="L80" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="93"/>
         <v>41.75</v>
       </c>
       <c r="M80" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="93"/>
         <v>83.5</v>
       </c>
       <c r="N80" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="93"/>
         <v>167</v>
       </c>
       <c r="O80" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="93"/>
         <v>334</v>
       </c>
       <c r="P80" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="93"/>
         <v>668</v>
       </c>
       <c r="Q80" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="93"/>
         <v>1336</v>
       </c>
       <c r="R80" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="93"/>
         <v>2672</v>
       </c>
       <c r="S80" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="93"/>
         <v>5344</v>
       </c>
       <c r="T80" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="93"/>
         <v>10688</v>
       </c>
       <c r="U80" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="93"/>
         <v>21376</v>
       </c>
       <c r="V80" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="93"/>
         <v>42752</v>
       </c>
       <c r="W80" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="93"/>
         <v>85504</v>
       </c>
       <c r="X80" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="93"/>
         <v>171008</v>
       </c>
       <c r="Y80" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="93"/>
         <v>342016</v>
       </c>
       <c r="Z80" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="93"/>
         <v>684032</v>
       </c>
       <c r="AA80" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="93"/>
         <v>1368064</v>
       </c>
       <c r="AB80" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="93"/>
         <v>2736128</v>
       </c>
       <c r="AC80" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="93"/>
         <v>5472256</v>
       </c>
       <c r="AD80" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="93"/>
         <v>10944512</v>
       </c>
       <c r="AE80" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="93"/>
         <v>21889024</v>
       </c>
       <c r="AF80" s="20">
-        <f t="shared" si="99"/>
+        <f t="shared" si="93"/>
         <v>43778048</v>
       </c>
       <c r="AG80" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="93"/>
         <v>87556096</v>
       </c>
       <c r="AH80" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="93"/>
         <v>91143924</v>
       </c>
       <c r="AI80" s="45"/>
@@ -41315,71 +41324,71 @@
       <c r="H81" s="16"/>
       <c r="I81" s="16"/>
       <c r="J81" s="29">
-        <f t="shared" ref="J81:Z81" si="100">J80*$E$81</f>
+        <f t="shared" ref="J81:Z81" si="94">J80*$E$81</f>
         <v>0.62624999999999997</v>
       </c>
       <c r="K81" s="30">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>1.2524999999999999</v>
       </c>
       <c r="L81" s="30">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>2.5049999999999999</v>
       </c>
       <c r="M81" s="30">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>5.01</v>
       </c>
       <c r="N81" s="30">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>10.02</v>
       </c>
       <c r="O81" s="30">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>20.04</v>
       </c>
       <c r="P81" s="30">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>40.08</v>
       </c>
       <c r="Q81" s="30">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>80.16</v>
       </c>
       <c r="R81" s="30">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>160.32</v>
       </c>
       <c r="S81" s="30">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>320.64</v>
       </c>
       <c r="T81" s="30">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>641.28</v>
       </c>
       <c r="U81" s="30">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>1282.56</v>
       </c>
       <c r="V81" s="30">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>2565.12</v>
       </c>
       <c r="W81" s="30">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>5130.24</v>
       </c>
       <c r="X81" s="30">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>10260.48</v>
       </c>
       <c r="Y81" s="30">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>20520.96</v>
       </c>
       <c r="Z81" s="30">
-        <f t="shared" si="100"/>
+        <f t="shared" si="94"/>
         <v>41041.919999999998</v>
       </c>
       <c r="AA81" s="30">
@@ -41395,23 +41404,23 @@
         <v>328335.35999999999</v>
       </c>
       <c r="AD81" s="30">
-        <f t="shared" ref="AD81:AH81" si="101">AD80*$E$81</f>
+        <f t="shared" ref="AD81:AH81" si="95">AD80*$E$81</f>
         <v>656670.71999999997</v>
       </c>
       <c r="AE81" s="30">
-        <f t="shared" si="101"/>
+        <f t="shared" si="95"/>
         <v>1313341.4399999999</v>
       </c>
       <c r="AF81" s="29">
-        <f t="shared" si="101"/>
+        <f t="shared" si="95"/>
         <v>2626682.8799999999</v>
       </c>
       <c r="AG81" s="30">
-        <f t="shared" si="101"/>
+        <f t="shared" si="95"/>
         <v>5253365.7599999998</v>
       </c>
       <c r="AH81" s="30">
-        <f t="shared" si="101"/>
+        <f t="shared" si="95"/>
         <v>5468635.4399999995</v>
       </c>
       <c r="AI81" s="45"/>
@@ -41434,103 +41443,103 @@
       <c r="H82" s="16"/>
       <c r="I82" s="16"/>
       <c r="J82" s="20">
-        <f t="shared" ref="J82:AH82" si="102">J$19*$B$82</f>
+        <f t="shared" ref="J82:AH82" si="96">J$19*$B$82</f>
         <v>1.34375E-2</v>
       </c>
       <c r="K82" s="21">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>2.6875E-2</v>
       </c>
       <c r="L82" s="21">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>5.3749999999999999E-2</v>
       </c>
       <c r="M82" s="21">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>0.1075</v>
       </c>
       <c r="N82" s="21">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>0.215</v>
       </c>
       <c r="O82" s="21">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>0.43</v>
       </c>
       <c r="P82" s="21">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>0.86</v>
       </c>
       <c r="Q82" s="21">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>1.72</v>
       </c>
       <c r="R82" s="21">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>3.44</v>
       </c>
       <c r="S82" s="21">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>6.88</v>
       </c>
       <c r="T82" s="21">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>13.76</v>
       </c>
       <c r="U82" s="21">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>27.52</v>
       </c>
       <c r="V82" s="21">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>55.04</v>
       </c>
       <c r="W82" s="21">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>110.08</v>
       </c>
       <c r="X82" s="21">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>220.16</v>
       </c>
       <c r="Y82" s="21">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>440.32</v>
       </c>
       <c r="Z82" s="21">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>880.64</v>
       </c>
       <c r="AA82" s="21">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>1761.28</v>
       </c>
       <c r="AB82" s="21">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>3522.56</v>
       </c>
       <c r="AC82" s="21">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>7045.12</v>
       </c>
       <c r="AD82" s="21">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>14090.24</v>
       </c>
       <c r="AE82" s="21">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>28180.48</v>
       </c>
       <c r="AF82" s="20">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>56360.959999999999</v>
       </c>
       <c r="AG82" s="21">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>112721.92</v>
       </c>
       <c r="AH82" s="21">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>117340.98</v>
       </c>
       <c r="AI82" s="45"/>
@@ -41548,71 +41557,71 @@
       <c r="H83" s="16"/>
       <c r="I83" s="16"/>
       <c r="J83" s="29">
-        <f t="shared" ref="J83:Z83" si="103">J82*$E$83</f>
+        <f t="shared" ref="J83:Z83" si="97">J82*$E$83</f>
         <v>7.5250000000000002E-4</v>
       </c>
       <c r="K83" s="30">
-        <f t="shared" si="103"/>
+        <f t="shared" si="97"/>
         <v>1.505E-3</v>
       </c>
       <c r="L83" s="30">
-        <f t="shared" si="103"/>
+        <f t="shared" si="97"/>
         <v>3.0100000000000001E-3</v>
       </c>
       <c r="M83" s="30">
-        <f t="shared" si="103"/>
+        <f t="shared" si="97"/>
         <v>6.0200000000000002E-3</v>
       </c>
       <c r="N83" s="30">
-        <f t="shared" si="103"/>
+        <f t="shared" si="97"/>
         <v>1.204E-2</v>
       </c>
       <c r="O83" s="30">
-        <f t="shared" si="103"/>
+        <f t="shared" si="97"/>
         <v>2.4080000000000001E-2</v>
       </c>
       <c r="P83" s="30">
-        <f t="shared" si="103"/>
+        <f t="shared" si="97"/>
         <v>4.8160000000000001E-2</v>
       </c>
       <c r="Q83" s="30">
-        <f t="shared" si="103"/>
+        <f t="shared" si="97"/>
         <v>9.6320000000000003E-2</v>
       </c>
       <c r="R83" s="30">
-        <f t="shared" si="103"/>
+        <f t="shared" si="97"/>
         <v>0.19264000000000001</v>
       </c>
       <c r="S83" s="30">
-        <f t="shared" si="103"/>
+        <f t="shared" si="97"/>
         <v>0.38528000000000001</v>
       </c>
       <c r="T83" s="30">
-        <f t="shared" si="103"/>
+        <f t="shared" si="97"/>
         <v>0.77056000000000002</v>
       </c>
       <c r="U83" s="30">
-        <f t="shared" si="103"/>
+        <f t="shared" si="97"/>
         <v>1.54112</v>
       </c>
       <c r="V83" s="30">
-        <f t="shared" si="103"/>
+        <f t="shared" si="97"/>
         <v>3.0822400000000001</v>
       </c>
       <c r="W83" s="30">
-        <f t="shared" si="103"/>
+        <f t="shared" si="97"/>
         <v>6.1644800000000002</v>
       </c>
       <c r="X83" s="30">
-        <f t="shared" si="103"/>
+        <f t="shared" si="97"/>
         <v>12.32896</v>
       </c>
       <c r="Y83" s="30">
-        <f t="shared" si="103"/>
+        <f t="shared" si="97"/>
         <v>24.657920000000001</v>
       </c>
       <c r="Z83" s="30">
-        <f t="shared" si="103"/>
+        <f t="shared" si="97"/>
         <v>49.315840000000001</v>
       </c>
       <c r="AA83" s="30">
@@ -41628,23 +41637,23 @@
         <v>394.52672000000001</v>
       </c>
       <c r="AD83" s="30">
-        <f t="shared" ref="AD83:AH83" si="104">AD82*$E$83</f>
+        <f t="shared" ref="AD83:AH83" si="98">AD82*$E$83</f>
         <v>789.05344000000002</v>
       </c>
       <c r="AE83" s="30">
-        <f t="shared" si="104"/>
+        <f t="shared" si="98"/>
         <v>1578.10688</v>
       </c>
       <c r="AF83" s="29">
-        <f t="shared" si="104"/>
+        <f t="shared" si="98"/>
         <v>3156.2137600000001</v>
       </c>
       <c r="AG83" s="30">
-        <f t="shared" si="104"/>
+        <f t="shared" si="98"/>
         <v>6312.4275200000002</v>
       </c>
       <c r="AH83" s="30">
-        <f t="shared" si="104"/>
+        <f t="shared" si="98"/>
         <v>6571.0948799999996</v>
       </c>
       <c r="AI83" s="45"/>
@@ -41667,103 +41676,103 @@
       <c r="H84" s="16"/>
       <c r="I84" s="16"/>
       <c r="J84" s="20">
-        <f t="shared" ref="J84:AH84" si="105">J$19*$B$84</f>
+        <f t="shared" ref="J84:AH84" si="99">J$19*$B$84</f>
         <v>10.875</v>
       </c>
       <c r="K84" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="99"/>
         <v>21.75</v>
       </c>
       <c r="L84" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="99"/>
         <v>43.5</v>
       </c>
       <c r="M84" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="99"/>
         <v>87</v>
       </c>
       <c r="N84" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="99"/>
         <v>174</v>
       </c>
       <c r="O84" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="99"/>
         <v>348</v>
       </c>
       <c r="P84" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="99"/>
         <v>696</v>
       </c>
       <c r="Q84" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="99"/>
         <v>1392</v>
       </c>
       <c r="R84" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="99"/>
         <v>2784</v>
       </c>
       <c r="S84" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="99"/>
         <v>5568</v>
       </c>
       <c r="T84" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="99"/>
         <v>11136</v>
       </c>
       <c r="U84" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="99"/>
         <v>22272</v>
       </c>
       <c r="V84" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="99"/>
         <v>44544</v>
       </c>
       <c r="W84" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="99"/>
         <v>89088</v>
       </c>
       <c r="X84" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="99"/>
         <v>178176</v>
       </c>
       <c r="Y84" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="99"/>
         <v>356352</v>
       </c>
       <c r="Z84" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="99"/>
         <v>712704</v>
       </c>
       <c r="AA84" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="99"/>
         <v>1425408</v>
       </c>
       <c r="AB84" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="99"/>
         <v>2850816</v>
       </c>
       <c r="AC84" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="99"/>
         <v>5701632</v>
       </c>
       <c r="AD84" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="99"/>
         <v>11403264</v>
       </c>
       <c r="AE84" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="99"/>
         <v>22806528</v>
       </c>
       <c r="AF84" s="20">
-        <f t="shared" si="105"/>
+        <f t="shared" si="99"/>
         <v>45613056</v>
       </c>
       <c r="AG84" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="99"/>
         <v>91226112</v>
       </c>
       <c r="AH84" s="21">
-        <f t="shared" si="105"/>
+        <f t="shared" si="99"/>
         <v>94964328</v>
       </c>
       <c r="AI84" s="45"/>
@@ -41874,23 +41883,23 @@
         <v>38.888437499999995</v>
       </c>
       <c r="K86" s="19">
-        <f t="shared" ref="K86:Z86" si="106">SUM(K74,K76,K78,K80,K82,K84)</f>
+        <f t="shared" ref="K86:Z86" si="100">SUM(K74,K76,K78,K80,K82,K84)</f>
         <v>77.77687499999999</v>
       </c>
       <c r="L86" s="19">
-        <f t="shared" si="106"/>
+        <f t="shared" si="100"/>
         <v>155.55374999999998</v>
       </c>
       <c r="M86" s="19">
-        <f t="shared" si="106"/>
+        <f t="shared" si="100"/>
         <v>311.10749999999996</v>
       </c>
       <c r="N86" s="19">
-        <f t="shared" si="106"/>
+        <f t="shared" si="100"/>
         <v>622.21499999999992</v>
       </c>
       <c r="O86" s="19">
-        <f t="shared" si="106"/>
+        <f t="shared" si="100"/>
         <v>1244.4299999999998</v>
       </c>
       <c r="P86" s="19">
@@ -41898,75 +41907,75 @@
         <v>2488.8599999999997</v>
       </c>
       <c r="Q86" s="19">
-        <f t="shared" si="106"/>
+        <f t="shared" si="100"/>
         <v>4977.7199999999993</v>
       </c>
       <c r="R86" s="19">
-        <f t="shared" si="106"/>
+        <f t="shared" si="100"/>
         <v>9955.4399999999987</v>
       </c>
       <c r="S86" s="19">
-        <f t="shared" si="106"/>
+        <f t="shared" si="100"/>
         <v>19910.879999999997</v>
       </c>
       <c r="T86" s="19">
-        <f t="shared" si="106"/>
+        <f t="shared" si="100"/>
         <v>39821.759999999995</v>
       </c>
       <c r="U86" s="19">
-        <f t="shared" si="106"/>
+        <f t="shared" si="100"/>
         <v>79643.51999999999</v>
       </c>
       <c r="V86" s="19">
-        <f t="shared" si="106"/>
+        <f t="shared" si="100"/>
         <v>159287.03999999998</v>
       </c>
       <c r="W86" s="19">
-        <f t="shared" si="106"/>
+        <f t="shared" si="100"/>
         <v>318574.07999999996</v>
       </c>
       <c r="X86" s="19">
-        <f t="shared" si="106"/>
+        <f t="shared" si="100"/>
         <v>637148.15999999992</v>
       </c>
       <c r="Y86" s="19">
-        <f t="shared" si="106"/>
+        <f t="shared" si="100"/>
         <v>1274296.3199999998</v>
       </c>
       <c r="Z86" s="19">
-        <f t="shared" si="106"/>
+        <f t="shared" si="100"/>
         <v>2548592.6399999997</v>
       </c>
       <c r="AA86" s="19">
-        <f t="shared" ref="AA86:AC87" si="107">SUM(AA74,AA76,AA78,AA80,AA82,AA84)</f>
+        <f t="shared" ref="AA86:AC87" si="101">SUM(AA74,AA76,AA78,AA80,AA82,AA84)</f>
         <v>5097185.2799999993</v>
       </c>
       <c r="AB86" s="19">
-        <f t="shared" si="107"/>
+        <f t="shared" si="101"/>
         <v>10194370.559999999</v>
       </c>
       <c r="AC86" s="19">
-        <f t="shared" si="107"/>
+        <f t="shared" si="101"/>
         <v>20388741.119999997</v>
       </c>
       <c r="AD86" s="19">
-        <f t="shared" ref="AD86:AH86" si="108">SUM(AD74,AD76,AD78,AD80,AD82,AD84)</f>
+        <f t="shared" ref="AD86:AH86" si="102">SUM(AD74,AD76,AD78,AD80,AD82,AD84)</f>
         <v>40777482.239999995</v>
       </c>
       <c r="AE86" s="19">
-        <f t="shared" si="108"/>
+        <f t="shared" si="102"/>
         <v>81554964.479999989</v>
       </c>
       <c r="AF86" s="18">
-        <f t="shared" si="108"/>
+        <f t="shared" si="102"/>
         <v>163109928.95999998</v>
       </c>
       <c r="AG86" s="19">
-        <f t="shared" si="108"/>
+        <f t="shared" si="102"/>
         <v>326219857.91999996</v>
       </c>
       <c r="AH86" s="19">
-        <f t="shared" si="108"/>
+        <f t="shared" si="102"/>
         <v>339587524.98000002</v>
       </c>
       <c r="AI86" s="45"/>
@@ -41988,99 +41997,99 @@
         <v>2.1385649999999998</v>
       </c>
       <c r="K87" s="32">
-        <f t="shared" ref="K87:Z87" si="109">SUM(K75,K77,K79,K81,K83,K85)</f>
+        <f t="shared" ref="K87:Z87" si="103">SUM(K75,K77,K79,K81,K83,K85)</f>
         <v>4.2771299999999997</v>
       </c>
       <c r="L87" s="32">
-        <f t="shared" si="109"/>
+        <f t="shared" si="103"/>
         <v>8.5542599999999993</v>
       </c>
       <c r="M87" s="32">
-        <f t="shared" si="109"/>
+        <f t="shared" si="103"/>
         <v>17.108519999999999</v>
       </c>
       <c r="N87" s="32">
-        <f t="shared" si="109"/>
+        <f t="shared" si="103"/>
         <v>34.217039999999997</v>
       </c>
       <c r="O87" s="32">
-        <f t="shared" si="109"/>
+        <f t="shared" si="103"/>
         <v>68.434079999999994</v>
       </c>
       <c r="P87" s="32">
-        <f t="shared" si="109"/>
+        <f t="shared" si="103"/>
         <v>136.86815999999999</v>
       </c>
       <c r="Q87" s="32">
-        <f t="shared" si="109"/>
+        <f t="shared" si="103"/>
         <v>273.73631999999998</v>
       </c>
       <c r="R87" s="32">
-        <f t="shared" si="109"/>
+        <f t="shared" si="103"/>
         <v>547.47263999999996</v>
       </c>
       <c r="S87" s="32">
-        <f t="shared" si="109"/>
+        <f t="shared" si="103"/>
         <v>1094.9452799999999</v>
       </c>
       <c r="T87" s="32">
-        <f t="shared" si="109"/>
+        <f t="shared" si="103"/>
         <v>2189.8905599999998</v>
       </c>
       <c r="U87" s="32">
-        <f t="shared" si="109"/>
+        <f t="shared" si="103"/>
         <v>4379.7811199999996</v>
       </c>
       <c r="V87" s="32">
-        <f t="shared" si="109"/>
+        <f t="shared" si="103"/>
         <v>8759.5622399999993</v>
       </c>
       <c r="W87" s="32">
-        <f t="shared" si="109"/>
+        <f t="shared" si="103"/>
         <v>17519.124479999999</v>
       </c>
       <c r="X87" s="32">
-        <f t="shared" si="109"/>
+        <f t="shared" si="103"/>
         <v>35038.248959999997</v>
       </c>
       <c r="Y87" s="32">
-        <f t="shared" si="109"/>
+        <f t="shared" si="103"/>
         <v>70076.497919999994</v>
       </c>
       <c r="Z87" s="32">
-        <f t="shared" si="109"/>
+        <f t="shared" si="103"/>
         <v>140152.99583999999</v>
       </c>
       <c r="AA87" s="32">
-        <f t="shared" si="107"/>
+        <f t="shared" si="101"/>
         <v>280305.99167999998</v>
       </c>
       <c r="AB87" s="32">
-        <f t="shared" si="107"/>
+        <f t="shared" si="101"/>
         <v>560611.98335999995</v>
       </c>
       <c r="AC87" s="32">
-        <f t="shared" si="107"/>
+        <f t="shared" si="101"/>
         <v>1121223.9667199999</v>
       </c>
       <c r="AD87" s="32">
-        <f t="shared" ref="AD87:AH87" si="110">SUM(AD75,AD77,AD79,AD81,AD83,AD85)</f>
+        <f t="shared" ref="AD87:AH87" si="104">SUM(AD75,AD77,AD79,AD81,AD83,AD85)</f>
         <v>2242447.9334399998</v>
       </c>
       <c r="AE87" s="32">
-        <f t="shared" si="110"/>
+        <f t="shared" si="104"/>
         <v>4484895.8668799996</v>
       </c>
       <c r="AF87" s="31">
-        <f t="shared" si="110"/>
+        <f t="shared" si="104"/>
         <v>8969791.7337599993</v>
       </c>
       <c r="AG87" s="32">
-        <f t="shared" si="110"/>
+        <f t="shared" si="104"/>
         <v>17939583.467519999</v>
       </c>
       <c r="AH87" s="32">
-        <f t="shared" si="110"/>
+        <f t="shared" si="104"/>
         <v>18674702.354879998</v>
       </c>
       <c r="AI87" s="45"/>
@@ -42293,7 +42302,7 @@
       </c>
       <c r="C7" s="152">
         <f ca="1">NOW()</f>
-        <v>43947.763846064816</v>
+        <v>43952.452342708333</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -42302,7 +42311,7 @@
       </c>
       <c r="C8" s="153">
         <f ca="1">C7-C5</f>
-        <v>47.76384606481588</v>
+        <v>52.452342708333163</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -42311,7 +42320,7 @@
       </c>
       <c r="C9" s="155">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>6.189439215153949</v>
+        <v>6.7969942463405983</v>
       </c>
       <c r="D9" t="s">
         <v>96</v>
@@ -42353,7 +42362,7 @@
       </c>
       <c r="C13" s="161">
         <f ca="1">(C4/Projections!B7)*(2^(((C7-21)-C5)/C9))</f>
-        <v>11177.643940882883</v>
+        <v>13792.568968551181</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -42362,7 +42371,7 @@
       </c>
       <c r="C14" s="144">
         <f ca="1">C12-C13</f>
-        <v>106233.0703448314</v>
+        <v>103618.14531716311</v>
       </c>
       <c r="E14" s="157"/>
       <c r="F14" s="158" t="s">
@@ -42386,7 +42395,7 @@
       </c>
       <c r="C16" s="80">
         <f ca="1">(C4*Projections!B11)*(2^(((C7-21)-C5)/C9))</f>
-        <v>507.01792915844766</v>
+        <v>625.63092841348168</v>
       </c>
       <c r="I16" s="151"/>
     </row>
@@ -42396,7 +42405,7 @@
       </c>
       <c r="C17" s="80">
         <f ca="1">C15-C16</f>
-        <v>4818.7320708415527</v>
+        <v>4700.1190715865187</v>
       </c>
       <c r="F17" t="s">
         <v>142</v>
@@ -42418,7 +42427,7 @@
       </c>
       <c r="C19" s="80">
         <f ca="1">(C4*Projections!B12)*(2^(((C7-49)-C5)/C9))</f>
-        <v>3.8093983442106709</v>
+        <v>6.2212521782809498</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -42427,7 +42436,7 @@
       </c>
       <c r="C20" s="80">
         <f ca="1">C18-C19</f>
-        <v>916.69060165578946</v>
+        <v>914.27874782171921</v>
       </c>
       <c r="F20" t="s">
         <v>147</v>
@@ -42449,7 +42458,7 @@
       </c>
       <c r="C22" s="80">
         <f ca="1">(C4*Projections!B13)*(2^(((C7-49)-C5)/C9))</f>
-        <v>1.3604994086466682</v>
+        <v>2.2218757779574818</v>
       </c>
       <c r="I22" s="151"/>
     </row>
@@ -42459,7 +42468,7 @@
       </c>
       <c r="C23" s="80">
         <f ca="1">C21-C22</f>
-        <v>327.38950059135334</v>
+        <v>326.52812422204249</v>
       </c>
       <c r="I23" s="151"/>
     </row>
@@ -42478,7 +42487,7 @@
       </c>
       <c r="C25" s="61">
         <f ca="1">(C4*Projections!B14)*(2^(((C7-42)-C5)/C9))</f>
-        <v>5.1248279578030527</v>
+        <v>7.8031342107444015</v>
       </c>
       <c r="F25" t="s">
         <v>153</v>
@@ -42490,7 +42499,7 @@
       </c>
       <c r="C26" s="164">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>55.458156334712328</v>
+        <v>60.901926073818196</v>
       </c>
       <c r="D26" t="s">
         <v>96</v>
@@ -42505,7 +42514,7 @@
       </c>
       <c r="C27" s="163">
         <f ca="1">C7+C26</f>
-        <v>44003.222002399525</v>
+        <v>44013.354268782154</v>
       </c>
       <c r="F27" t="s">
         <v>155</v>
@@ -42517,7 +42526,7 @@
       </c>
       <c r="C28" s="162">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>27.767031191747403</v>
+        <v>30.492641528199048</v>
       </c>
       <c r="D28" t="s">
         <v>96</v>
@@ -42529,7 +42538,7 @@
       </c>
       <c r="C29" s="163">
         <f ca="1">C7+C28</f>
-        <v>43975.530877256562</v>
+        <v>43982.944984236536</v>
       </c>
       <c r="F29" t="s">
         <v>155</v>
@@ -42541,7 +42550,7 @@
       </c>
       <c r="C30" s="162">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>64.652115390041544</v>
+        <v>70.998363671454314</v>
       </c>
       <c r="D30" t="s">
         <v>96</v>
@@ -42553,7 +42562,7 @@
       </c>
       <c r="C31" s="163">
         <f ca="1">C7+C30</f>
-        <v>44012.415961454855</v>
+        <v>44023.450706379786</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -42562,7 +42571,7 @@
       </c>
       <c r="C34" s="152">
         <f ca="1">C7+30</f>
-        <v>43977.763846064816</v>
+        <v>43982.452342708333</v>
       </c>
       <c r="F34" t="s">
         <v>168</v>
@@ -42574,7 +42583,7 @@
       </c>
       <c r="C35" s="80">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>189224.70695578429</v>
+        <v>140138.20988412382</v>
       </c>
       <c r="F35" t="s">
         <v>140</v>
@@ -42586,7 +42595,7 @@
       </c>
       <c r="C36" s="80">
         <f ca="1">C35/Projections!B7</f>
-        <v>3379012.6242104336</v>
+        <v>2502468.0336450683</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -42595,7 +42604,7 @@
       </c>
       <c r="C37" s="80">
         <f ca="1">C35*Projections!B11</f>
-        <v>153272.01263418529</v>
+        <v>113511.95000614029</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -42604,7 +42613,7 @@
       </c>
       <c r="C38" s="80">
         <f ca="1">C35*Projections!B12</f>
-        <v>26491.458973809804</v>
+        <v>19619.349383777335</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -42613,7 +42622,7 @@
       </c>
       <c r="C39" s="80">
         <f ca="1">C35*Projections!B13</f>
-        <v>9461.2353477892157</v>
+        <v>7006.9104942061913</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -42622,7 +42631,7 @@
       </c>
       <c r="C40" s="61">
         <f ca="1">C35*Projections!B14</f>
-        <v>16273.324798197447</v>
+        <v>12051.886050034647</v>
       </c>
     </row>
   </sheetData>

--- a/Indonesian COVID-19 Infection Projections.xlsx
+++ b/Indonesian COVID-19 Infection Projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1067BEB1-7AAE-4222-AEC7-5B9350A6C6DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D15920-4FE7-4091-A632-A61CCFE77879}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
+    <workbookView xWindow="1095" yWindow="1545" windowWidth="36225" windowHeight="15435" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="205">
   <si>
     <t>By Age</t>
   </si>
@@ -649,6 +649,9 @@
   </si>
   <si>
     <t>Health Minister Terawan Agus Putranto when asked why there has been no confirmed coroavirus infections on Indonesian soil: "Medically, [it’s thanks] to doa (prayer). It’s all because of doa, I am certain that doa is what makes [Indonesians] like this (seemingly immune to COVID-19)."</t>
+  </si>
+  <si>
+    <t>Travel restrictions to be eased</t>
   </si>
 </sst>
 </file>
@@ -1755,46 +1758,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.759150115744</c:v>
+                  <c:v>43922.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.759150115744</c:v>
+                  <c:v>43925.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.759150115744</c:v>
+                  <c:v>43928.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.759150115744</c:v>
+                  <c:v>43931.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.759150115744</c:v>
+                  <c:v>43934.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.759150115744</c:v>
+                  <c:v>43937.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.759150115744</c:v>
+                  <c:v>43940.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.759150115744</c:v>
+                  <c:v>43943.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.759150115744</c:v>
+                  <c:v>43946.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.759150115744</c:v>
+                  <c:v>43949.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.759150115744</c:v>
+                  <c:v>43952.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.759150115744</c:v>
+                  <c:v>43955.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.759150115744</c:v>
+                  <c:v>43958.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.759150115744</c:v>
+                  <c:v>43961.735050578704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1904,46 +1907,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.759150115744</c:v>
+                  <c:v>43922.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.759150115744</c:v>
+                  <c:v>43925.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.759150115744</c:v>
+                  <c:v>43928.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.759150115744</c:v>
+                  <c:v>43931.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.759150115744</c:v>
+                  <c:v>43934.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.759150115744</c:v>
+                  <c:v>43937.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.759150115744</c:v>
+                  <c:v>43940.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.759150115744</c:v>
+                  <c:v>43943.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.759150115744</c:v>
+                  <c:v>43946.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.759150115744</c:v>
+                  <c:v>43949.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.759150115744</c:v>
+                  <c:v>43952.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.759150115744</c:v>
+                  <c:v>43955.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.759150115744</c:v>
+                  <c:v>43958.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.759150115744</c:v>
+                  <c:v>43961.735050578704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2053,46 +2056,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.759150115744</c:v>
+                  <c:v>43922.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.759150115744</c:v>
+                  <c:v>43925.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.759150115744</c:v>
+                  <c:v>43928.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.759150115744</c:v>
+                  <c:v>43931.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.759150115744</c:v>
+                  <c:v>43934.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.759150115744</c:v>
+                  <c:v>43937.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.759150115744</c:v>
+                  <c:v>43940.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.759150115744</c:v>
+                  <c:v>43943.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.759150115744</c:v>
+                  <c:v>43946.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.759150115744</c:v>
+                  <c:v>43949.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.759150115744</c:v>
+                  <c:v>43952.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.759150115744</c:v>
+                  <c:v>43955.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.759150115744</c:v>
+                  <c:v>43958.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.759150115744</c:v>
+                  <c:v>43961.735050578704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3198,7 +3201,7 @@
                   <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="#,##0">
-                  <c:v>930</c:v>
+                  <c:v>973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11795,7 +11798,7 @@
                   <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="#,##0">
-                  <c:v>930</c:v>
+                  <c:v>973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12124,46 +12127,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.759150115744</c:v>
+                  <c:v>43922.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.759150115744</c:v>
+                  <c:v>43925.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.759150115744</c:v>
+                  <c:v>43928.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.759150115744</c:v>
+                  <c:v>43931.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.759150115744</c:v>
+                  <c:v>43934.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.759150115744</c:v>
+                  <c:v>43937.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.759150115744</c:v>
+                  <c:v>43940.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.759150115744</c:v>
+                  <c:v>43943.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.759150115744</c:v>
+                  <c:v>43946.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.759150115744</c:v>
+                  <c:v>43949.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.759150115744</c:v>
+                  <c:v>43952.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.759150115744</c:v>
+                  <c:v>43955.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.759150115744</c:v>
+                  <c:v>43958.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.759150115744</c:v>
+                  <c:v>43961.735050578704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12264,46 +12267,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.759150115744</c:v>
+                  <c:v>43922.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.759150115744</c:v>
+                  <c:v>43925.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.759150115744</c:v>
+                  <c:v>43928.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.759150115744</c:v>
+                  <c:v>43931.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.759150115744</c:v>
+                  <c:v>43934.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.759150115744</c:v>
+                  <c:v>43937.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.759150115744</c:v>
+                  <c:v>43940.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.759150115744</c:v>
+                  <c:v>43943.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.759150115744</c:v>
+                  <c:v>43946.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.759150115744</c:v>
+                  <c:v>43949.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.759150115744</c:v>
+                  <c:v>43952.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.759150115744</c:v>
+                  <c:v>43955.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.759150115744</c:v>
+                  <c:v>43958.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.759150115744</c:v>
+                  <c:v>43961.735050578704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12407,46 +12410,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.759150115744</c:v>
+                  <c:v>43922.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.759150115744</c:v>
+                  <c:v>43925.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.759150115744</c:v>
+                  <c:v>43928.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.759150115744</c:v>
+                  <c:v>43931.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.759150115744</c:v>
+                  <c:v>43934.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.759150115744</c:v>
+                  <c:v>43937.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.759150115744</c:v>
+                  <c:v>43940.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.759150115744</c:v>
+                  <c:v>43943.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.759150115744</c:v>
+                  <c:v>43946.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.759150115744</c:v>
+                  <c:v>43949.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.759150115744</c:v>
+                  <c:v>43952.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.759150115744</c:v>
+                  <c:v>43955.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.759150115744</c:v>
+                  <c:v>43958.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.759150115744</c:v>
+                  <c:v>43961.735050578704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12544,46 +12547,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.759150115744</c:v>
+                  <c:v>43922.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.759150115744</c:v>
+                  <c:v>43925.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.759150115744</c:v>
+                  <c:v>43928.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.759150115744</c:v>
+                  <c:v>43931.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.759150115744</c:v>
+                  <c:v>43934.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.759150115744</c:v>
+                  <c:v>43937.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.759150115744</c:v>
+                  <c:v>43940.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.759150115744</c:v>
+                  <c:v>43943.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.759150115744</c:v>
+                  <c:v>43946.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.759150115744</c:v>
+                  <c:v>43949.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.759150115744</c:v>
+                  <c:v>43952.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.759150115744</c:v>
+                  <c:v>43955.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.759150115744</c:v>
+                  <c:v>43958.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.759150115744</c:v>
+                  <c:v>43961.735050578704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12951,46 +12954,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.759150115744</c:v>
+                  <c:v>43922.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.759150115744</c:v>
+                  <c:v>43925.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.759150115744</c:v>
+                  <c:v>43928.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.759150115744</c:v>
+                  <c:v>43931.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.759150115744</c:v>
+                  <c:v>43934.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.759150115744</c:v>
+                  <c:v>43937.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.759150115744</c:v>
+                  <c:v>43940.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.759150115744</c:v>
+                  <c:v>43943.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.759150115744</c:v>
+                  <c:v>43946.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.759150115744</c:v>
+                  <c:v>43949.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.759150115744</c:v>
+                  <c:v>43952.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.759150115744</c:v>
+                  <c:v>43955.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.759150115744</c:v>
+                  <c:v>43958.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.759150115744</c:v>
+                  <c:v>43961.735050578704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13100,46 +13103,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.759150115744</c:v>
+                  <c:v>43922.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.759150115744</c:v>
+                  <c:v>43925.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.759150115744</c:v>
+                  <c:v>43928.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.759150115744</c:v>
+                  <c:v>43931.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.759150115744</c:v>
+                  <c:v>43934.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.759150115744</c:v>
+                  <c:v>43937.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.759150115744</c:v>
+                  <c:v>43940.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.759150115744</c:v>
+                  <c:v>43943.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.759150115744</c:v>
+                  <c:v>43946.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.759150115744</c:v>
+                  <c:v>43949.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.759150115744</c:v>
+                  <c:v>43952.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.759150115744</c:v>
+                  <c:v>43955.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.759150115744</c:v>
+                  <c:v>43958.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.759150115744</c:v>
+                  <c:v>43961.735050578704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13249,46 +13252,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.759150115744</c:v>
+                  <c:v>43922.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.759150115744</c:v>
+                  <c:v>43925.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.759150115744</c:v>
+                  <c:v>43928.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.759150115744</c:v>
+                  <c:v>43931.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.759150115744</c:v>
+                  <c:v>43934.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.759150115744</c:v>
+                  <c:v>43937.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.759150115744</c:v>
+                  <c:v>43940.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.759150115744</c:v>
+                  <c:v>43943.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.759150115744</c:v>
+                  <c:v>43946.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.759150115744</c:v>
+                  <c:v>43949.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.759150115744</c:v>
+                  <c:v>43952.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.759150115744</c:v>
+                  <c:v>43955.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.759150115744</c:v>
+                  <c:v>43958.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.759150115744</c:v>
+                  <c:v>43961.735050578704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13666,46 +13669,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.759150115744</c:v>
+                  <c:v>43922.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.759150115744</c:v>
+                  <c:v>43925.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.759150115744</c:v>
+                  <c:v>43928.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.759150115744</c:v>
+                  <c:v>43931.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.759150115744</c:v>
+                  <c:v>43934.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.759150115744</c:v>
+                  <c:v>43937.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.759150115744</c:v>
+                  <c:v>43940.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.759150115744</c:v>
+                  <c:v>43943.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.759150115744</c:v>
+                  <c:v>43946.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.759150115744</c:v>
+                  <c:v>43949.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.759150115744</c:v>
+                  <c:v>43952.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.759150115744</c:v>
+                  <c:v>43955.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.759150115744</c:v>
+                  <c:v>43958.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.759150115744</c:v>
+                  <c:v>43961.735050578704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13806,46 +13809,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.759150115744</c:v>
+                  <c:v>43922.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.759150115744</c:v>
+                  <c:v>43925.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.759150115744</c:v>
+                  <c:v>43928.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.759150115744</c:v>
+                  <c:v>43931.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.759150115744</c:v>
+                  <c:v>43934.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.759150115744</c:v>
+                  <c:v>43937.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.759150115744</c:v>
+                  <c:v>43940.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.759150115744</c:v>
+                  <c:v>43943.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.759150115744</c:v>
+                  <c:v>43946.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.759150115744</c:v>
+                  <c:v>43949.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.759150115744</c:v>
+                  <c:v>43952.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.759150115744</c:v>
+                  <c:v>43955.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.759150115744</c:v>
+                  <c:v>43958.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.759150115744</c:v>
+                  <c:v>43961.735050578704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13949,46 +13952,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.759150115744</c:v>
+                  <c:v>43922.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.759150115744</c:v>
+                  <c:v>43925.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.759150115744</c:v>
+                  <c:v>43928.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.759150115744</c:v>
+                  <c:v>43931.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.759150115744</c:v>
+                  <c:v>43934.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.759150115744</c:v>
+                  <c:v>43937.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.759150115744</c:v>
+                  <c:v>43940.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.759150115744</c:v>
+                  <c:v>43943.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.759150115744</c:v>
+                  <c:v>43946.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.759150115744</c:v>
+                  <c:v>43949.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.759150115744</c:v>
+                  <c:v>43952.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.759150115744</c:v>
+                  <c:v>43955.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.759150115744</c:v>
+                  <c:v>43958.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.759150115744</c:v>
+                  <c:v>43961.735050578704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14086,46 +14089,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43919.759150115744</c:v>
+                  <c:v>43922.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43922.759150115744</c:v>
+                  <c:v>43925.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43925.759150115744</c:v>
+                  <c:v>43928.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43928.759150115744</c:v>
+                  <c:v>43931.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43931.759150115744</c:v>
+                  <c:v>43934.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43934.759150115744</c:v>
+                  <c:v>43937.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43937.759150115744</c:v>
+                  <c:v>43940.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43940.759150115744</c:v>
+                  <c:v>43943.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43943.759150115744</c:v>
+                  <c:v>43946.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43946.759150115744</c:v>
+                  <c:v>43949.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43949.759150115744</c:v>
+                  <c:v>43952.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43952.759150115744</c:v>
+                  <c:v>43955.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43955.759150115744</c:v>
+                  <c:v>43958.735050578704</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43958.759150115744</c:v>
+                  <c:v>43961.735050578704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -33665,167 +33668,167 @@
       </c>
       <c r="B26" s="86">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>43919.759150115744</v>
+        <v>43922.735050578704</v>
       </c>
       <c r="C26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43920.759150115744</v>
+        <v>43923.735050578704</v>
       </c>
       <c r="D26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43921.759150115744</v>
+        <v>43924.735050578704</v>
       </c>
       <c r="E26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.759150115744</v>
+        <v>43925.735050578704</v>
       </c>
       <c r="F26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43923.759150115744</v>
+        <v>43926.735050578704</v>
       </c>
       <c r="G26" s="88">
         <f t="shared" ca="1" si="0"/>
-        <v>43924.759150115744</v>
+        <v>43927.735050578704</v>
       </c>
       <c r="H26" s="87">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>43925.759150115744</v>
+        <v>43928.735050578704</v>
       </c>
       <c r="I26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43926.759150115744</v>
+        <v>43929.735050578704</v>
       </c>
       <c r="J26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43927.759150115744</v>
+        <v>43930.735050578704</v>
       </c>
       <c r="K26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43928.759150115744</v>
+        <v>43931.735050578704</v>
       </c>
       <c r="L26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43929.759150115744</v>
+        <v>43932.735050578704</v>
       </c>
       <c r="M26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43930.759150115744</v>
+        <v>43933.735050578704</v>
       </c>
       <c r="N26" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>43931.759150115744</v>
+        <v>43934.735050578704</v>
       </c>
       <c r="O26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43932.759150115744</v>
+        <v>43935.735050578704</v>
       </c>
       <c r="P26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43933.759150115744</v>
+        <v>43936.735050578704</v>
       </c>
       <c r="Q26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43934.759150115744</v>
+        <v>43937.735050578704</v>
       </c>
       <c r="R26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43935.759150115744</v>
+        <v>43938.735050578704</v>
       </c>
       <c r="S26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43936.759150115744</v>
+        <v>43939.735050578704</v>
       </c>
       <c r="T26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43937.759150115744</v>
+        <v>43940.735050578704</v>
       </c>
       <c r="U26" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>43938.759150115744</v>
+        <v>43941.735050578704</v>
       </c>
       <c r="V26" s="86">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>43939.759150115744</v>
+        <v>43942.735050578704</v>
       </c>
       <c r="W26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43940.759150115744</v>
+        <v>43943.735050578704</v>
       </c>
       <c r="X26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43941.759150115744</v>
+        <v>43944.735050578704</v>
       </c>
       <c r="Y26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43942.759150115744</v>
+        <v>43945.735050578704</v>
       </c>
       <c r="Z26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43943.759150115744</v>
+        <v>43946.735050578704</v>
       </c>
       <c r="AA26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43944.759150115744</v>
+        <v>43947.735050578704</v>
       </c>
       <c r="AB26" s="88">
         <f t="shared" ca="1" si="2"/>
-        <v>43945.759150115744</v>
+        <v>43948.735050578704</v>
       </c>
       <c r="AC26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43946.759150115744</v>
+        <v>43949.735050578704</v>
       </c>
       <c r="AD26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43947.759150115744</v>
+        <v>43950.735050578704</v>
       </c>
       <c r="AE26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43948.759150115744</v>
+        <v>43951.735050578704</v>
       </c>
       <c r="AF26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43949.759150115744</v>
+        <v>43952.735050578704</v>
       </c>
       <c r="AG26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43950.759150115744</v>
+        <v>43953.735050578704</v>
       </c>
       <c r="AH26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43951.759150115744</v>
+        <v>43954.735050578704</v>
       </c>
       <c r="AI26" s="88">
         <f t="shared" ca="1" si="2"/>
-        <v>43952.759150115744</v>
+        <v>43955.735050578704</v>
       </c>
       <c r="AJ26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43953.759150115744</v>
+        <v>43956.735050578704</v>
       </c>
       <c r="AK26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43954.759150115744</v>
+        <v>43957.735050578704</v>
       </c>
       <c r="AL26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43955.759150115744</v>
+        <v>43958.735050578704</v>
       </c>
       <c r="AM26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43956.759150115744</v>
+        <v>43959.735050578704</v>
       </c>
       <c r="AN26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43957.759150115744</v>
+        <v>43960.735050578704</v>
       </c>
       <c r="AO26" s="87">
         <f ca="1">AP26-1</f>
-        <v>43958.759150115744</v>
+        <v>43961.735050578704</v>
       </c>
       <c r="AP26" s="108">
         <f ca="1">NOW()</f>
-        <v>43959.759150115744</v>
+        <v>43962.735050578704</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -34344,7 +34347,7 @@
   <dimension ref="A1:AL95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15"/>
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34717,8 +34720,12 @@
       <c r="O12" s="69"/>
       <c r="P12" s="143"/>
       <c r="Q12" s="156"/>
-      <c r="R12" s="156"/>
-      <c r="S12" s="69"/>
+      <c r="R12" s="156">
+        <v>43958</v>
+      </c>
+      <c r="S12" s="69" t="s">
+        <v>204</v>
+      </c>
       <c r="T12" s="69"/>
       <c r="U12" s="69"/>
       <c r="V12" s="156"/>
@@ -37920,7 +37927,7 @@
         <v>1002</v>
       </c>
       <c r="S47" s="289">
-        <v>2381</v>
+        <v>2698</v>
       </c>
       <c r="T47" s="175"/>
       <c r="U47" s="175"/>
@@ -37979,7 +37986,7 @@
         <v>689</v>
       </c>
       <c r="S48" s="290">
-        <v>930</v>
+        <v>973</v>
       </c>
       <c r="T48" s="176"/>
       <c r="U48" s="176"/>
@@ -42290,7 +42297,7 @@
   <dimension ref="B3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42336,7 +42343,7 @@
         <v>118</v>
       </c>
       <c r="C6" s="154">
-        <v>12776</v>
+        <v>14032</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -42345,7 +42352,7 @@
       </c>
       <c r="C7" s="152">
         <f ca="1">NOW()</f>
-        <v>43959.759150115744</v>
+        <v>43962.735050578704</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -42354,7 +42361,7 @@
       </c>
       <c r="C8" s="153">
         <f ca="1">C7-C5</f>
-        <v>59.759150115743978</v>
+        <v>62.735050578703522</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -42363,7 +42370,7 @@
       </c>
       <c r="C9" s="155">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>6.888373555439407</v>
+        <v>7.1203667714584471</v>
       </c>
       <c r="D9" t="s">
         <v>96</v>
@@ -42396,7 +42403,7 @@
       </c>
       <c r="C12" s="160">
         <f>C6/Projections!B8</f>
-        <v>228142.85714285713</v>
+        <v>250571.42857142858</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -42405,7 +42412,7 @@
       </c>
       <c r="C13" s="161">
         <f ca="1">(C4/Projections!B8)*(2^(((C7-21)-C5)/C9))</f>
-        <v>27572.888833207213</v>
+        <v>32442.02197273045</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -42414,7 +42421,7 @@
       </c>
       <c r="C14" s="144">
         <f ca="1">C12-C13</f>
-        <v>200569.96830964991</v>
+        <v>218129.40659869811</v>
       </c>
       <c r="E14" s="157"/>
       <c r="F14" s="158" t="s">
@@ -42428,7 +42435,7 @@
       </c>
       <c r="C15" s="64">
         <f>C6*Projections!B12</f>
-        <v>10348.560000000001</v>
+        <v>11365.92</v>
       </c>
       <c r="I15" s="151"/>
     </row>
@@ -42438,7 +42445,7 @@
       </c>
       <c r="C16" s="80">
         <f ca="1">(C4*Projections!B12)*(2^(((C7-21)-C5)/C9))</f>
-        <v>1250.7062374742793</v>
+        <v>1471.5701166830534</v>
       </c>
       <c r="I16" s="151"/>
     </row>
@@ -42448,7 +42455,7 @@
       </c>
       <c r="C17" s="80">
         <f ca="1">C15-C16</f>
-        <v>9097.8537625257213</v>
+        <v>9894.3498833169469</v>
       </c>
       <c r="F17" t="s">
         <v>142</v>
@@ -42461,7 +42468,7 @@
       </c>
       <c r="C18" s="64">
         <f>C6*Projections!B13</f>
-        <v>1788.64</v>
+        <v>1964.4800000000002</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -42470,7 +42477,7 @@
       </c>
       <c r="C19" s="80">
         <f ca="1">(C4*Projections!B13)*(2^(((C7-49)-C5)/C9))</f>
-        <v>12.917114944008395</v>
+        <v>16.659391342497415</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -42479,7 +42486,7 @@
       </c>
       <c r="C20" s="80">
         <f ca="1">C18-C19</f>
-        <v>1775.7228850559918</v>
+        <v>1947.8206086575028</v>
       </c>
       <c r="F20" t="s">
         <v>147</v>
@@ -42491,7 +42498,7 @@
       </c>
       <c r="C21" s="64">
         <f>C6*Projections!B14</f>
-        <v>638.80000000000007</v>
+        <v>701.6</v>
       </c>
       <c r="I21" s="151"/>
     </row>
@@ -42501,7 +42508,7 @@
       </c>
       <c r="C22" s="80">
         <f ca="1">(C4*Projections!B14)*(2^(((C7-49)-C5)/C9))</f>
-        <v>4.6132553371458549</v>
+        <v>5.9497826223205053</v>
       </c>
       <c r="I22" s="151"/>
     </row>
@@ -42511,7 +42518,7 @@
       </c>
       <c r="C23" s="80">
         <f ca="1">C21-C22</f>
-        <v>634.18674466285427</v>
+        <v>695.6502173776795</v>
       </c>
       <c r="I23" s="151"/>
     </row>
@@ -42521,7 +42528,7 @@
       </c>
       <c r="C24" s="64">
         <f>C6*Projections!B15</f>
-        <v>1098.7359999999999</v>
+        <v>1206.752</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -42530,7 +42537,7 @@
       </c>
       <c r="C25" s="61">
         <f ca="1">(C4*Projections!B15)*(2^(((C7-42)-C5)/C9))</f>
-        <v>16.048858273942706</v>
+        <v>20.228829663433693</v>
       </c>
       <c r="F25" t="s">
         <v>153</v>
@@ -42542,7 +42549,7 @@
       </c>
       <c r="C26" s="164">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>55.119062102182752</v>
+        <v>56.012139662621721</v>
       </c>
       <c r="D26" t="s">
         <v>96</v>
@@ -42557,7 +42564,7 @@
       </c>
       <c r="C27" s="163">
         <f ca="1">C7+C26</f>
-        <v>44014.878212217925</v>
+        <v>44018.747190241324</v>
       </c>
       <c r="F27" t="s">
         <v>155</v>
@@ -42569,7 +42576,7 @@
       </c>
       <c r="C28" s="162">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>24.30095281561816</v>
+        <v>24.156108691428013</v>
       </c>
       <c r="D28" t="s">
         <v>96</v>
@@ -42581,7 +42588,7 @@
       </c>
       <c r="C29" s="163">
         <f ca="1">C7+C28</f>
-        <v>43984.060102931362</v>
+        <v>43986.891159270133</v>
       </c>
       <c r="F29" t="s">
         <v>155</v>
@@ -42593,7 +42600,7 @@
       </c>
       <c r="C30" s="162">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>65.3512369770025</v>
+        <v>66.588923484237668</v>
       </c>
       <c r="D30" t="s">
         <v>96</v>
@@ -42605,7 +42612,7 @@
       </c>
       <c r="C31" s="163">
         <f ca="1">C7+C30</f>
-        <v>44025.110387092747</v>
+        <v>44029.323974062943</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -42614,7 +42621,7 @@
       </c>
       <c r="C34" s="152">
         <f ca="1">C7+30</f>
-        <v>43989.759150115744</v>
+        <v>43992.735050578704</v>
       </c>
       <c r="F34" t="s">
         <v>168</v>
@@ -42626,7 +42633,7 @@
       </c>
       <c r="C35" s="80">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>261474.92971584207</v>
+        <v>260278.95503684389</v>
       </c>
       <c r="F35" t="s">
         <v>140</v>
@@ -42638,7 +42645,7 @@
       </c>
       <c r="C36" s="80">
         <f ca="1">C35/Projections!B8</f>
-        <v>4669195.1734971795</v>
+        <v>4647838.4828007836</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -42647,7 +42654,7 @@
       </c>
       <c r="C37" s="80">
         <f ca="1">C35*Projections!B12</f>
-        <v>211794.69306983208</v>
+        <v>210825.95357984357</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -42656,7 +42663,7 @@
       </c>
       <c r="C38" s="80">
         <f ca="1">C35*Projections!B13</f>
-        <v>36606.490160217894</v>
+        <v>36439.053705158149</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -42665,7 +42672,7 @@
       </c>
       <c r="C39" s="80">
         <f ca="1">C35*Projections!B14</f>
-        <v>13073.746485792104</v>
+        <v>13013.947751842195</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -42674,7 +42681,7 @@
       </c>
       <c r="C40" s="61">
         <f ca="1">C35*Projections!B15</f>
-        <v>22486.843955562417</v>
+        <v>22383.990133168572</v>
       </c>
     </row>
   </sheetData>

--- a/Indonesian COVID-19 Infection Projections.xlsx
+++ b/Indonesian COVID-19 Infection Projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D15920-4FE7-4091-A632-A61CCFE77879}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F5F013-F841-45A3-BD48-E3909893272F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="1545" windowWidth="36225" windowHeight="15435" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -651,7 +651,7 @@
     <t>Health Minister Terawan Agus Putranto when asked why there has been no confirmed coroavirus infections on Indonesian soil: "Medically, [it’s thanks] to doa (prayer). It’s all because of doa, I am certain that doa is what makes [Indonesians] like this (seemingly immune to COVID-19)."</t>
   </si>
   <si>
-    <t>Travel restrictions to be eased</t>
+    <t>Travel restrictions eased</t>
   </si>
 </sst>
 </file>
@@ -733,7 +733,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -833,6 +833,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,14 +1035,14 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="5" tint="-0.249977111117893"/>
+        <color rgb="FFFF0000"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="5" tint="-0.249977111117893"/>
+        <color rgb="FFFF0000"/>
       </top>
       <bottom style="thin">
-        <color theme="5" tint="-0.249977111117893"/>
+        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1044,23 +1050,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="5" tint="-0.249977111117893"/>
+        <color rgb="FFFF0000"/>
       </top>
       <bottom style="thin">
-        <color theme="5" tint="-0.249977111117893"/>
+        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="5" tint="-0.249977111117893"/>
+        <color rgb="FFFF0000"/>
       </right>
       <top style="thin">
-        <color theme="5" tint="-0.249977111117893"/>
+        <color rgb="FFFF0000"/>
       </top>
       <bottom style="thin">
-        <color theme="5" tint="-0.249977111117893"/>
+        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1404,14 +1410,7 @@
     <xf numFmtId="171" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="6" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1436,6 +1435,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="18" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Heading" xfId="3" xr:uid="{DB9EF5E1-A693-41C3-82C7-CA90563DBB00}"/>
@@ -1758,46 +1764,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43922.735050578704</c:v>
+                  <c:v>43926.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43925.735050578704</c:v>
+                  <c:v>43929.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43928.735050578704</c:v>
+                  <c:v>43932.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43931.735050578704</c:v>
+                  <c:v>43935.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43934.735050578704</c:v>
+                  <c:v>43938.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43937.735050578704</c:v>
+                  <c:v>43941.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43940.735050578704</c:v>
+                  <c:v>43944.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43943.735050578704</c:v>
+                  <c:v>43947.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43946.735050578704</c:v>
+                  <c:v>43950.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43949.735050578704</c:v>
+                  <c:v>43953.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43952.735050578704</c:v>
+                  <c:v>43956.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43955.735050578704</c:v>
+                  <c:v>43959.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43958.735050578704</c:v>
+                  <c:v>43962.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43961.735050578704</c:v>
+                  <c:v>43965.832545949073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1816,46 +1822,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>207.64119601328906</c:v>
+                  <c:v>274.72527472527469</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>415.28239202657812</c:v>
+                  <c:v>549.45054945054937</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>830.56478405315625</c:v>
+                  <c:v>1098.9010989010987</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1661.1295681063125</c:v>
+                  <c:v>2197.8021978021975</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3322.259136212625</c:v>
+                  <c:v>4395.604395604395</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6644.51827242525</c:v>
+                  <c:v>8791.20879120879</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13289.0365448505</c:v>
+                  <c:v>17582.41758241758</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26578.073089701</c:v>
+                  <c:v>35164.83516483516</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53156.146179402</c:v>
+                  <c:v>70329.67032967032</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>106312.292358804</c:v>
+                  <c:v>140659.34065934064</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>212624.584717608</c:v>
+                  <c:v>281318.68131868128</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>425249.169435216</c:v>
+                  <c:v>562637.36263736256</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>850498.338870432</c:v>
+                  <c:v>1125274.7252747251</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1700996.677740864</c:v>
+                  <c:v>2250549.4505494502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1907,46 +1913,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43922.735050578704</c:v>
+                  <c:v>43926.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43925.735050578704</c:v>
+                  <c:v>43929.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43928.735050578704</c:v>
+                  <c:v>43932.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43931.735050578704</c:v>
+                  <c:v>43935.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43934.735050578704</c:v>
+                  <c:v>43938.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43937.735050578704</c:v>
+                  <c:v>43941.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43940.735050578704</c:v>
+                  <c:v>43944.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43943.735050578704</c:v>
+                  <c:v>43947.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43946.735050578704</c:v>
+                  <c:v>43950.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43949.735050578704</c:v>
+                  <c:v>43953.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43952.735050578704</c:v>
+                  <c:v>43956.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43955.735050578704</c:v>
+                  <c:v>43959.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43958.735050578704</c:v>
+                  <c:v>43962.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43961.735050578704</c:v>
+                  <c:v>43965.832545949073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1965,46 +1971,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>196.01328903654488</c:v>
+                  <c:v>259.34065934065927</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>392.02657807308975</c:v>
+                  <c:v>518.68131868131854</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>784.0531561461795</c:v>
+                  <c:v>1037.3626373626371</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1568.106312292359</c:v>
+                  <c:v>2074.7252747252742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3136.212624584718</c:v>
+                  <c:v>4149.4505494505484</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6272.425249169436</c:v>
+                  <c:v>8298.9010989010967</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12544.850498338872</c:v>
+                  <c:v>16597.802197802193</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25089.700996677744</c:v>
+                  <c:v>33195.604395604387</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50179.401993355488</c:v>
+                  <c:v>66391.208791208774</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100358.80398671098</c:v>
+                  <c:v>132782.41758241755</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>200717.60797342195</c:v>
+                  <c:v>265564.83516483509</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>401435.21594684391</c:v>
+                  <c:v>531129.67032967019</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>802870.43189368781</c:v>
+                  <c:v>1062259.3406593404</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1605740.8637873756</c:v>
+                  <c:v>2124518.6813186808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2056,46 +2062,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43922.735050578704</c:v>
+                  <c:v>43926.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43925.735050578704</c:v>
+                  <c:v>43929.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43928.735050578704</c:v>
+                  <c:v>43932.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43931.735050578704</c:v>
+                  <c:v>43935.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43934.735050578704</c:v>
+                  <c:v>43938.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43937.735050578704</c:v>
+                  <c:v>43941.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43940.735050578704</c:v>
+                  <c:v>43944.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43943.735050578704</c:v>
+                  <c:v>43947.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43946.735050578704</c:v>
+                  <c:v>43950.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43949.735050578704</c:v>
+                  <c:v>43953.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43952.735050578704</c:v>
+                  <c:v>43956.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43955.735050578704</c:v>
+                  <c:v>43959.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43958.735050578704</c:v>
+                  <c:v>43962.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43961.735050578704</c:v>
+                  <c:v>43965.832545949073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2114,37 +2120,37 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="3">
-                  <c:v>11.627906976744198</c:v>
+                  <c:v>15.384615384615396</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.255813953488396</c:v>
+                  <c:v>30.769230769230791</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.511627906976791</c:v>
+                  <c:v>61.538461538461583</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93.023255813953583</c:v>
+                  <c:v>123.07692307692317</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>186.04651162790717</c:v>
+                  <c:v>246.15384615384633</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>372.09302325581433</c:v>
+                  <c:v>492.30769230769266</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>744.18604651162866</c:v>
+                  <c:v>984.61538461538532</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1488.3720930232573</c:v>
+                  <c:v>1969.2307692307706</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2976.7441860465146</c:v>
+                  <c:v>3938.4615384615413</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5953.4883720930293</c:v>
+                  <c:v>7876.9230769230826</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11906.976744186059</c:v>
+                  <c:v>15753.846153846165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2467,10 +2473,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$19:$S$19</c:f>
+              <c:f>Projections!$J$19:$T$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>43900</c:v>
                 </c:pt>
@@ -2499,7 +2505,10 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2513,10 +2522,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$20:$S$20</c:f>
+              <c:f>Projections!$J$20:$T$20</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>31.25</c:v>
                 </c:pt>
@@ -2546,6 +2555,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2592,10 +2604,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$19:$S$19</c:f>
+              <c:f>Projections!$J$19:$T$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>43900</c:v>
                 </c:pt>
@@ -2624,7 +2636,10 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2638,10 +2653,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$44:$S$44</c:f>
+              <c:f>Projections!$J$44:$T$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>27</c:v>
                 </c:pt>
@@ -2670,7 +2685,10 @@
                   <c:v>8211</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="#,##0">
-                  <c:v>16000</c:v>
+                  <c:v>16006</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2998,10 +3016,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$19:$S$19</c:f>
+              <c:f>Projections!$J$19:$T$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>43900</c:v>
                 </c:pt>
@@ -3030,7 +3048,10 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3044,39 +3065,42 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$34:$S$34</c:f>
+              <c:f>Projections!$J$34:$T$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.6875</c:v>
+                  <c:v>2.03125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.375</c:v>
+                  <c:v>4.0625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.75</c:v>
+                  <c:v>8.125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.5</c:v>
+                  <c:v>16.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>32.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>86</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>172</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>344</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>688</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1376</c:v>
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2080</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3123,10 +3147,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$19:$S$19</c:f>
+              <c:f>Projections!$J$19:$T$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>43900</c:v>
                 </c:pt>
@@ -3155,7 +3179,10 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3169,10 +3196,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$48:$S$48</c:f>
+              <c:f>Projections!$J$48:$T$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3201,7 +3228,7 @@
                   <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="#,##0">
-                  <c:v>973</c:v>
+                  <c:v>1043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3566,34 +3593,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3639,34 +3666,34 @@
                   <c:v>2006.5557851506962</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15655.622130820409</c:v>
+                  <c:v>9417.9493258412858</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16963.000604866222</c:v>
+                  <c:v>12621.369485300986</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25660.477649150489</c:v>
+                  <c:v>20772.956736341464</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43528.905097544681</c:v>
+                  <c:v>36834.452616120703</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>78097.468979505124</c:v>
+                  <c:v>67879.374781062565</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>144616.7455313582</c:v>
+                  <c:v>127946.18626912229</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>273083.23120738496</c:v>
+                  <c:v>244656.62158375539</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>522389.95387238695</c:v>
+                  <c:v>472392.39671564603</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1008345.9993335202</c:v>
+                  <c:v>918398.3213394488</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1959112.285150025</c:v>
+                  <c:v>1794511.5280716242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3745,34 +3772,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3818,34 +3845,34 @@
                   <c:v>1674.924813620803</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13768.691441746842</c:v>
+                  <c:v>8072.3760871510385</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14111.448464299401</c:v>
+                  <c:v>8667.2937644494159</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20262.705580252445</c:v>
+                  <c:v>6136.1442748773734</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>33127.557622511937</c:v>
+                  <c:v>18670.643517762248</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>57931.338226565917</c:v>
+                  <c:v>38911.048961878099</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>105242.47288523339</c:v>
+                  <c:v>77403.521300187858</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>195795.52619676935</c:v>
+                  <c:v>152410.85056483332</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>370096.42480577377</c:v>
+                  <c:v>299628.25629917264</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>707407.40217635967</c:v>
+                  <c:v>589548.73467925633</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1363189.2530242254</c:v>
+                  <c:v>1161738.1307051717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3924,34 +3951,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3997,34 +4024,34 @@
                   <c:v>343.89466772533825</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1692.9232398422837</c:v>
+                  <c:v>1018.4114787738645</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2335.7425474159127</c:v>
+                  <c:v>1669.9398664034841</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3963.8835450463944</c:v>
+                  <c:v>3051.963846753596</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7195.8494033892748</c:v>
+                  <c:v>5774.0810590627425</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13500.956685830628</c:v>
+                  <c:v>11120.052800246654</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25805.901023510705</c:v>
+                  <c:v>21639.968372480063</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49896.544006986354</c:v>
+                  <c:v>42392.248095710806</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>97214.209413732518</c:v>
+                  <c:v>83418.477125702266</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>190410.96783179365</c:v>
+                  <c:v>164670.00278196469</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>374387.9056811888</c:v>
+                  <c:v>325818.77616720641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4103,34 +4130,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4176,34 +4203,34 @@
                   <c:v>320.4504159743376</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1406.8526866615316</c:v>
+                  <c:v>729.43830668965529</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>773.03828361427975</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>880.84048796722982</c:v>
+                  <c:v>1538.26130675169</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2215.3226090607068</c:v>
+                  <c:v>2965.9511577796379</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4718.5040821514649</c:v>
+                  <c:v>5757.8680940624008</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9640.9632299434015</c:v>
+                  <c:v>11247.945839988062</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19415.778682631149</c:v>
+                  <c:v>22076.637056356114</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>38873.226864302967</c:v>
+                  <c:v>43482.920325387648</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>77633.638027972193</c:v>
+                  <c:v>85872.718360181199</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>154873.16730590566</c:v>
+                  <c:v>169931.81907246844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4282,34 +4309,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4328,61 +4355,61 @@
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2.6875</c:v>
+                  <c:v>2.03125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.375</c:v>
+                  <c:v>4.0625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.75</c:v>
+                  <c:v>8.125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.5</c:v>
+                  <c:v>16.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>32.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>86</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>172</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>344</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>688</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1376</c:v>
+                  <c:v>1040</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2752</c:v>
+                  <c:v>2080</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5504</c:v>
+                  <c:v>4160</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11008</c:v>
+                  <c:v>8320</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22016</c:v>
+                  <c:v>16640</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44032</c:v>
+                  <c:v>33280</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>88064</c:v>
+                  <c:v>66560</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>176128</c:v>
+                  <c:v>133120</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>352256</c:v>
+                  <c:v>266240</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>704512</c:v>
+                  <c:v>532480</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4743,34 +4770,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4924,34 +4951,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5105,34 +5132,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5287,34 +5314,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5469,34 +5496,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5650,34 +5677,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5829,34 +5856,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6011,34 +6038,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6192,34 +6219,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6653,34 +6680,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6834,34 +6861,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7015,34 +7042,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7197,34 +7224,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7376,34 +7403,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7557,34 +7584,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7736,34 +7763,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7915,34 +7942,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8096,34 +8123,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8557,34 +8584,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8738,34 +8765,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8919,34 +8946,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9098,34 +9125,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9279,34 +9306,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9458,34 +9485,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9919,34 +9946,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10100,34 +10127,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10279,34 +10306,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10460,34 +10487,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10639,34 +10666,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11063,10 +11090,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$19:$S$19</c:f>
+              <c:f>Projections!$J$19:$T$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>43900</c:v>
                 </c:pt>
@@ -11095,7 +11122,10 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11109,10 +11139,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$20:$S$20</c:f>
+              <c:f>Projections!$J$20:$T$20</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>31.25</c:v>
                 </c:pt>
@@ -11142,6 +11172,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11188,10 +11221,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$19:$S$19</c:f>
+              <c:f>Projections!$J$19:$T$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>43900</c:v>
                 </c:pt>
@@ -11220,7 +11253,10 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11234,10 +11270,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$44:$S$44</c:f>
+              <c:f>Projections!$J$44:$T$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>27</c:v>
                 </c:pt>
@@ -11266,7 +11302,10 @@
                   <c:v>8211</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="#,##0">
-                  <c:v>16000</c:v>
+                  <c:v>16006</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>32000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11595,10 +11634,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$19:$S$19</c:f>
+              <c:f>Projections!$J$19:$T$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>43900</c:v>
                 </c:pt>
@@ -11627,7 +11666,10 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11641,39 +11683,42 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$34:$S$34</c:f>
+              <c:f>Projections!$J$34:$T$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.6875</c:v>
+                  <c:v>2.03125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.375</c:v>
+                  <c:v>4.0625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.75</c:v>
+                  <c:v>8.125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.5</c:v>
+                  <c:v>16.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>32.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>86</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>172</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>344</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>688</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1376</c:v>
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2080</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11720,10 +11765,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$19:$S$19</c:f>
+              <c:f>Projections!$J$19:$T$19</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>43900</c:v>
                 </c:pt>
@@ -11752,7 +11797,10 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11766,10 +11814,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$J$48:$S$48</c:f>
+              <c:f>Projections!$J$48:$T$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11798,7 +11846,7 @@
                   <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="#,##0">
-                  <c:v>973</c:v>
+                  <c:v>1043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12127,46 +12175,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43922.735050578704</c:v>
+                  <c:v>43926.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43925.735050578704</c:v>
+                  <c:v>43929.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43928.735050578704</c:v>
+                  <c:v>43932.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43931.735050578704</c:v>
+                  <c:v>43935.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43934.735050578704</c:v>
+                  <c:v>43938.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43937.735050578704</c:v>
+                  <c:v>43941.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43940.735050578704</c:v>
+                  <c:v>43944.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43943.735050578704</c:v>
+                  <c:v>43947.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43946.735050578704</c:v>
+                  <c:v>43950.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43949.735050578704</c:v>
+                  <c:v>43953.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43952.735050578704</c:v>
+                  <c:v>43956.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43955.735050578704</c:v>
+                  <c:v>43959.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43958.735050578704</c:v>
+                  <c:v>43962.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43961.735050578704</c:v>
+                  <c:v>43965.832545949073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12185,37 +12233,37 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="3">
-                  <c:v>11.627906976744198</c:v>
+                  <c:v>15.384615384615396</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.255813953488396</c:v>
+                  <c:v>30.769230769230791</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.511627906976791</c:v>
+                  <c:v>61.538461538461583</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93.023255813953583</c:v>
+                  <c:v>123.07692307692317</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>186.04651162790717</c:v>
+                  <c:v>246.15384615384633</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>372.09302325581433</c:v>
+                  <c:v>492.30769230769266</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>744.18604651162866</c:v>
+                  <c:v>984.61538461538532</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1488.3720930232573</c:v>
+                  <c:v>1969.2307692307706</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2976.7441860465146</c:v>
+                  <c:v>3938.4615384615413</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5953.4883720930293</c:v>
+                  <c:v>7876.9230769230826</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11906.976744186059</c:v>
+                  <c:v>15753.846153846165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12267,46 +12315,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43922.735050578704</c:v>
+                  <c:v>43926.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43925.735050578704</c:v>
+                  <c:v>43929.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43928.735050578704</c:v>
+                  <c:v>43932.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43931.735050578704</c:v>
+                  <c:v>43935.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43934.735050578704</c:v>
+                  <c:v>43938.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43937.735050578704</c:v>
+                  <c:v>43941.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43940.735050578704</c:v>
+                  <c:v>43944.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43943.735050578704</c:v>
+                  <c:v>43947.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43946.735050578704</c:v>
+                  <c:v>43950.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43949.735050578704</c:v>
+                  <c:v>43953.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43952.735050578704</c:v>
+                  <c:v>43956.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43955.735050578704</c:v>
+                  <c:v>43959.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43958.735050578704</c:v>
+                  <c:v>43962.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43961.735050578704</c:v>
+                  <c:v>43965.832545949073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12325,40 +12373,40 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="2">
-                  <c:v>11.627906976744185</c:v>
+                  <c:v>15.384615384615415</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.255813953488371</c:v>
+                  <c:v>30.76923076923083</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.674418604651166</c:v>
+                  <c:v>49.846153846153946</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75.348837209302332</c:v>
+                  <c:v>99.692307692307892</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>150.69767441860466</c:v>
+                  <c:v>199.38461538461578</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>291.97674418604652</c:v>
+                  <c:v>386.30769230769306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>583.95348837209303</c:v>
+                  <c:v>772.61538461538612</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1167.9069767441861</c:v>
+                  <c:v>1545.2307692307722</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2335.8139534883721</c:v>
+                  <c:v>3090.4615384615445</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4671.6279069767443</c:v>
+                  <c:v>6180.923076923089</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9352.6744186046526</c:v>
+                  <c:v>12374.307692307717</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18705.348837209305</c:v>
+                  <c:v>24748.615384615434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12410,46 +12458,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43922.735050578704</c:v>
+                  <c:v>43926.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43925.735050578704</c:v>
+                  <c:v>43929.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43928.735050578704</c:v>
+                  <c:v>43932.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43931.735050578704</c:v>
+                  <c:v>43935.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43934.735050578704</c:v>
+                  <c:v>43938.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43937.735050578704</c:v>
+                  <c:v>43941.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43940.735050578704</c:v>
+                  <c:v>43944.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43943.735050578704</c:v>
+                  <c:v>43947.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43946.735050578704</c:v>
+                  <c:v>43950.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43949.735050578704</c:v>
+                  <c:v>43953.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43952.735050578704</c:v>
+                  <c:v>43956.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43955.735050578704</c:v>
+                  <c:v>43959.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43958.735050578704</c:v>
+                  <c:v>43962.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43961.735050578704</c:v>
+                  <c:v>43965.832545949073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12468,34 +12516,34 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="4">
-                  <c:v>8.8372093023255811</c:v>
+                  <c:v>11.692307692307716</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.674418604651162</c:v>
+                  <c:v>23.384615384615433</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.046511627906977</c:v>
+                  <c:v>34.461538461538531</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.093023255813954</c:v>
+                  <c:v>68.923076923077062</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>104.18604651162791</c:v>
+                  <c:v>137.84615384615412</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>208.37209302325581</c:v>
+                  <c:v>275.69230769230825</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>416.74418604651163</c:v>
+                  <c:v>551.3846153846165</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>833.48837209302326</c:v>
+                  <c:v>1102.769230769233</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1666.9767441860465</c:v>
+                  <c:v>2205.538461538466</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3333.953488372093</c:v>
+                  <c:v>4411.076923076932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12547,46 +12595,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43922.735050578704</c:v>
+                  <c:v>43926.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43925.735050578704</c:v>
+                  <c:v>43929.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43928.735050578704</c:v>
+                  <c:v>43932.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43931.735050578704</c:v>
+                  <c:v>43935.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43934.735050578704</c:v>
+                  <c:v>43938.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43937.735050578704</c:v>
+                  <c:v>43941.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43940.735050578704</c:v>
+                  <c:v>43944.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43943.735050578704</c:v>
+                  <c:v>43947.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43946.735050578704</c:v>
+                  <c:v>43950.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43949.735050578704</c:v>
+                  <c:v>43953.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43952.735050578704</c:v>
+                  <c:v>43956.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43955.735050578704</c:v>
+                  <c:v>43959.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43958.735050578704</c:v>
+                  <c:v>43962.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43961.735050578704</c:v>
+                  <c:v>43965.832545949073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12605,28 +12653,28 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="6">
-                  <c:v>9.3023255813953494</c:v>
+                  <c:v>12.307692307692333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.604651162790699</c:v>
+                  <c:v>24.615384615384666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.209302325581397</c:v>
+                  <c:v>49.230769230769333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74.418604651162795</c:v>
+                  <c:v>98.461538461538666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>148.83720930232559</c:v>
+                  <c:v>196.92307692307733</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>297.67441860465118</c:v>
+                  <c:v>393.84615384615466</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>595.34883720930236</c:v>
+                  <c:v>787.69230769230933</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1190.6976744186047</c:v>
+                  <c:v>1575.3846153846187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12954,46 +13002,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43922.735050578704</c:v>
+                  <c:v>43926.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43925.735050578704</c:v>
+                  <c:v>43929.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43928.735050578704</c:v>
+                  <c:v>43932.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43931.735050578704</c:v>
+                  <c:v>43935.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43934.735050578704</c:v>
+                  <c:v>43938.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43937.735050578704</c:v>
+                  <c:v>43941.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43940.735050578704</c:v>
+                  <c:v>43944.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43943.735050578704</c:v>
+                  <c:v>43947.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43946.735050578704</c:v>
+                  <c:v>43950.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43949.735050578704</c:v>
+                  <c:v>43953.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43952.735050578704</c:v>
+                  <c:v>43956.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43955.735050578704</c:v>
+                  <c:v>43959.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43958.735050578704</c:v>
+                  <c:v>43962.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43961.735050578704</c:v>
+                  <c:v>43965.832545949073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13012,46 +13060,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>207.64119601328906</c:v>
+                  <c:v>274.72527472527469</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>415.28239202657812</c:v>
+                  <c:v>549.45054945054937</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>830.56478405315625</c:v>
+                  <c:v>1098.9010989010987</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1661.1295681063125</c:v>
+                  <c:v>2197.8021978021975</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3322.259136212625</c:v>
+                  <c:v>4395.604395604395</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6644.51827242525</c:v>
+                  <c:v>8791.20879120879</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13289.0365448505</c:v>
+                  <c:v>17582.41758241758</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26578.073089701</c:v>
+                  <c:v>35164.83516483516</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53156.146179402</c:v>
+                  <c:v>70329.67032967032</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>106312.292358804</c:v>
+                  <c:v>140659.34065934064</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>212624.584717608</c:v>
+                  <c:v>281318.68131868128</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>425249.169435216</c:v>
+                  <c:v>562637.36263736256</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>850498.338870432</c:v>
+                  <c:v>1125274.7252747251</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1700996.677740864</c:v>
+                  <c:v>2250549.4505494502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13103,46 +13151,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43922.735050578704</c:v>
+                  <c:v>43926.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43925.735050578704</c:v>
+                  <c:v>43929.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43928.735050578704</c:v>
+                  <c:v>43932.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43931.735050578704</c:v>
+                  <c:v>43935.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43934.735050578704</c:v>
+                  <c:v>43938.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43937.735050578704</c:v>
+                  <c:v>43941.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43940.735050578704</c:v>
+                  <c:v>43944.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43943.735050578704</c:v>
+                  <c:v>43947.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43946.735050578704</c:v>
+                  <c:v>43950.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43949.735050578704</c:v>
+                  <c:v>43953.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43952.735050578704</c:v>
+                  <c:v>43956.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43955.735050578704</c:v>
+                  <c:v>43959.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43958.735050578704</c:v>
+                  <c:v>43962.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43961.735050578704</c:v>
+                  <c:v>43965.832545949073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13161,46 +13209,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>196.01328903654488</c:v>
+                  <c:v>259.34065934065927</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>392.02657807308975</c:v>
+                  <c:v>518.68131868131854</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>784.0531561461795</c:v>
+                  <c:v>1037.3626373626371</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1568.106312292359</c:v>
+                  <c:v>2074.7252747252742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3136.212624584718</c:v>
+                  <c:v>4149.4505494505484</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6272.425249169436</c:v>
+                  <c:v>8298.9010989010967</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12544.850498338872</c:v>
+                  <c:v>16597.802197802193</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25089.700996677744</c:v>
+                  <c:v>33195.604395604387</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50179.401993355488</c:v>
+                  <c:v>66391.208791208774</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100358.80398671098</c:v>
+                  <c:v>132782.41758241755</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>200717.60797342195</c:v>
+                  <c:v>265564.83516483509</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>401435.21594684391</c:v>
+                  <c:v>531129.67032967019</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>802870.43189368781</c:v>
+                  <c:v>1062259.3406593404</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1605740.8637873756</c:v>
+                  <c:v>2124518.6813186808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13252,46 +13300,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43922.735050578704</c:v>
+                  <c:v>43926.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43925.735050578704</c:v>
+                  <c:v>43929.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43928.735050578704</c:v>
+                  <c:v>43932.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43931.735050578704</c:v>
+                  <c:v>43935.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43934.735050578704</c:v>
+                  <c:v>43938.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43937.735050578704</c:v>
+                  <c:v>43941.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43940.735050578704</c:v>
+                  <c:v>43944.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43943.735050578704</c:v>
+                  <c:v>43947.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43946.735050578704</c:v>
+                  <c:v>43950.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43949.735050578704</c:v>
+                  <c:v>43953.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43952.735050578704</c:v>
+                  <c:v>43956.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43955.735050578704</c:v>
+                  <c:v>43959.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43958.735050578704</c:v>
+                  <c:v>43962.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43961.735050578704</c:v>
+                  <c:v>43965.832545949073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13310,37 +13358,37 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="3">
-                  <c:v>11.627906976744198</c:v>
+                  <c:v>15.384615384615396</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.255813953488396</c:v>
+                  <c:v>30.769230769230791</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.511627906976791</c:v>
+                  <c:v>61.538461538461583</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93.023255813953583</c:v>
+                  <c:v>123.07692307692317</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>186.04651162790717</c:v>
+                  <c:v>246.15384615384633</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>372.09302325581433</c:v>
+                  <c:v>492.30769230769266</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>744.18604651162866</c:v>
+                  <c:v>984.61538461538532</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1488.3720930232573</c:v>
+                  <c:v>1969.2307692307706</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2976.7441860465146</c:v>
+                  <c:v>3938.4615384615413</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5953.4883720930293</c:v>
+                  <c:v>7876.9230769230826</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11906.976744186059</c:v>
+                  <c:v>15753.846153846165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13669,46 +13717,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43922.735050578704</c:v>
+                  <c:v>43926.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43925.735050578704</c:v>
+                  <c:v>43929.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43928.735050578704</c:v>
+                  <c:v>43932.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43931.735050578704</c:v>
+                  <c:v>43935.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43934.735050578704</c:v>
+                  <c:v>43938.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43937.735050578704</c:v>
+                  <c:v>43941.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43940.735050578704</c:v>
+                  <c:v>43944.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43943.735050578704</c:v>
+                  <c:v>43947.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43946.735050578704</c:v>
+                  <c:v>43950.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43949.735050578704</c:v>
+                  <c:v>43953.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43952.735050578704</c:v>
+                  <c:v>43956.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43955.735050578704</c:v>
+                  <c:v>43959.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43958.735050578704</c:v>
+                  <c:v>43962.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43961.735050578704</c:v>
+                  <c:v>43965.832545949073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13727,37 +13775,37 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="3">
-                  <c:v>11.627906976744198</c:v>
+                  <c:v>15.384615384615396</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.255813953488396</c:v>
+                  <c:v>30.769230769230791</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.511627906976791</c:v>
+                  <c:v>61.538461538461583</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93.023255813953583</c:v>
+                  <c:v>123.07692307692317</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>186.04651162790717</c:v>
+                  <c:v>246.15384615384633</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>372.09302325581433</c:v>
+                  <c:v>492.30769230769266</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>744.18604651162866</c:v>
+                  <c:v>984.61538461538532</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1488.3720930232573</c:v>
+                  <c:v>1969.2307692307706</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2976.7441860465146</c:v>
+                  <c:v>3938.4615384615413</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5953.4883720930293</c:v>
+                  <c:v>7876.9230769230826</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11906.976744186059</c:v>
+                  <c:v>15753.846153846165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13809,46 +13857,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43922.735050578704</c:v>
+                  <c:v>43926.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43925.735050578704</c:v>
+                  <c:v>43929.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43928.735050578704</c:v>
+                  <c:v>43932.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43931.735050578704</c:v>
+                  <c:v>43935.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43934.735050578704</c:v>
+                  <c:v>43938.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43937.735050578704</c:v>
+                  <c:v>43941.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43940.735050578704</c:v>
+                  <c:v>43944.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43943.735050578704</c:v>
+                  <c:v>43947.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43946.735050578704</c:v>
+                  <c:v>43950.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43949.735050578704</c:v>
+                  <c:v>43953.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43952.735050578704</c:v>
+                  <c:v>43956.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43955.735050578704</c:v>
+                  <c:v>43959.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43958.735050578704</c:v>
+                  <c:v>43962.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43961.735050578704</c:v>
+                  <c:v>43965.832545949073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13867,40 +13915,40 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="2">
-                  <c:v>11.627906976744185</c:v>
+                  <c:v>15.384615384615415</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.255813953488371</c:v>
+                  <c:v>30.76923076923083</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.674418604651166</c:v>
+                  <c:v>49.846153846153946</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75.348837209302332</c:v>
+                  <c:v>99.692307692307892</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>150.69767441860466</c:v>
+                  <c:v>199.38461538461578</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>291.97674418604652</c:v>
+                  <c:v>386.30769230769306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>583.95348837209303</c:v>
+                  <c:v>772.61538461538612</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1167.9069767441861</c:v>
+                  <c:v>1545.2307692307722</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2335.8139534883721</c:v>
+                  <c:v>3090.4615384615445</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4671.6279069767443</c:v>
+                  <c:v>6180.923076923089</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9352.6744186046526</c:v>
+                  <c:v>12374.307692307717</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18705.348837209305</c:v>
+                  <c:v>24748.615384615434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13952,46 +14000,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43922.735050578704</c:v>
+                  <c:v>43926.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43925.735050578704</c:v>
+                  <c:v>43929.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43928.735050578704</c:v>
+                  <c:v>43932.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43931.735050578704</c:v>
+                  <c:v>43935.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43934.735050578704</c:v>
+                  <c:v>43938.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43937.735050578704</c:v>
+                  <c:v>43941.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43940.735050578704</c:v>
+                  <c:v>43944.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43943.735050578704</c:v>
+                  <c:v>43947.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43946.735050578704</c:v>
+                  <c:v>43950.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43949.735050578704</c:v>
+                  <c:v>43953.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43952.735050578704</c:v>
+                  <c:v>43956.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43955.735050578704</c:v>
+                  <c:v>43959.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43958.735050578704</c:v>
+                  <c:v>43962.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43961.735050578704</c:v>
+                  <c:v>43965.832545949073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14010,34 +14058,34 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="4">
-                  <c:v>8.8372093023255811</c:v>
+                  <c:v>11.692307692307716</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.674418604651162</c:v>
+                  <c:v>23.384615384615433</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.046511627906977</c:v>
+                  <c:v>34.461538461538531</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.093023255813954</c:v>
+                  <c:v>68.923076923077062</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>104.18604651162791</c:v>
+                  <c:v>137.84615384615412</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>208.37209302325581</c:v>
+                  <c:v>275.69230769230825</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>416.74418604651163</c:v>
+                  <c:v>551.3846153846165</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>833.48837209302326</c:v>
+                  <c:v>1102.769230769233</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1666.9767441860465</c:v>
+                  <c:v>2205.538461538466</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3333.953488372093</c:v>
+                  <c:v>4411.076923076932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14089,46 +14137,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43922.735050578704</c:v>
+                  <c:v>43926.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43925.735050578704</c:v>
+                  <c:v>43929.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43928.735050578704</c:v>
+                  <c:v>43932.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43931.735050578704</c:v>
+                  <c:v>43935.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43934.735050578704</c:v>
+                  <c:v>43938.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43937.735050578704</c:v>
+                  <c:v>43941.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43940.735050578704</c:v>
+                  <c:v>43944.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43943.735050578704</c:v>
+                  <c:v>43947.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43946.735050578704</c:v>
+                  <c:v>43950.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43949.735050578704</c:v>
+                  <c:v>43953.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43952.735050578704</c:v>
+                  <c:v>43956.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43955.735050578704</c:v>
+                  <c:v>43959.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43958.735050578704</c:v>
+                  <c:v>43962.832545949073</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43961.735050578704</c:v>
+                  <c:v>43965.832545949073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14147,28 +14195,28 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="6">
-                  <c:v>9.3023255813953494</c:v>
+                  <c:v>12.307692307692333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.604651162790699</c:v>
+                  <c:v>24.615384615384666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.209302325581397</c:v>
+                  <c:v>49.230769230769333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74.418604651162795</c:v>
+                  <c:v>98.461538461538666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>148.83720930232559</c:v>
+                  <c:v>196.92307692307733</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>297.67441860465118</c:v>
+                  <c:v>393.84615384615466</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>595.34883720930236</c:v>
+                  <c:v>787.69230769230933</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1190.6976744186047</c:v>
+                  <c:v>1575.3846153846187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14534,34 +14582,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14607,34 +14655,34 @@
                   <c:v>2006.5557851506962</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15655.622130820409</c:v>
+                  <c:v>9417.9493258412858</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16963.000604866222</c:v>
+                  <c:v>12621.369485300986</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25660.477649150489</c:v>
+                  <c:v>20772.956736341464</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43528.905097544681</c:v>
+                  <c:v>36834.452616120703</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>78097.468979505124</c:v>
+                  <c:v>67879.374781062565</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>144616.7455313582</c:v>
+                  <c:v>127946.18626912229</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>273083.23120738496</c:v>
+                  <c:v>244656.62158375539</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>522389.95387238695</c:v>
+                  <c:v>472392.39671564603</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1008345.9993335202</c:v>
+                  <c:v>918398.3213394488</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1959112.285150025</c:v>
+                  <c:v>1794511.5280716242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14713,34 +14761,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14786,34 +14834,34 @@
                   <c:v>1674.924813620803</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13768.691441746842</c:v>
+                  <c:v>8072.3760871510385</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14111.448464299401</c:v>
+                  <c:v>8667.2937644494159</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20262.705580252445</c:v>
+                  <c:v>6136.1442748773734</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>33127.557622511937</c:v>
+                  <c:v>18670.643517762248</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>57931.338226565917</c:v>
+                  <c:v>38911.048961878099</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>105242.47288523339</c:v>
+                  <c:v>77403.521300187858</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>195795.52619676935</c:v>
+                  <c:v>152410.85056483332</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>370096.42480577377</c:v>
+                  <c:v>299628.25629917264</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>707407.40217635967</c:v>
+                  <c:v>589548.73467925633</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1363189.2530242254</c:v>
+                  <c:v>1161738.1307051717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14892,34 +14940,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14965,34 +15013,34 @@
                   <c:v>343.89466772533825</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1692.9232398422837</c:v>
+                  <c:v>1018.4114787738645</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2335.7425474159127</c:v>
+                  <c:v>1669.9398664034841</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3963.8835450463944</c:v>
+                  <c:v>3051.963846753596</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7195.8494033892748</c:v>
+                  <c:v>5774.0810590627425</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13500.956685830628</c:v>
+                  <c:v>11120.052800246654</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25805.901023510705</c:v>
+                  <c:v>21639.968372480063</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49896.544006986354</c:v>
+                  <c:v>42392.248095710806</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>97214.209413732518</c:v>
+                  <c:v>83418.477125702266</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>190410.96783179365</c:v>
+                  <c:v>164670.00278196469</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>374387.9056811888</c:v>
+                  <c:v>325818.77616720641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15071,34 +15119,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15144,34 +15192,34 @@
                   <c:v>320.4504159743376</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1406.8526866615316</c:v>
+                  <c:v>729.43830668965529</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>773.03828361427975</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>880.84048796722982</c:v>
+                  <c:v>1538.26130675169</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2215.3226090607068</c:v>
+                  <c:v>2965.9511577796379</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4718.5040821514649</c:v>
+                  <c:v>5757.8680940624008</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9640.9632299434015</c:v>
+                  <c:v>11247.945839988062</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19415.778682631149</c:v>
+                  <c:v>22076.637056356114</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>38873.226864302967</c:v>
+                  <c:v>43482.920325387648</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>77633.638027972193</c:v>
+                  <c:v>85872.718360181199</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>154873.16730590566</c:v>
+                  <c:v>169931.81907246844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15250,34 +15298,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15296,61 +15344,61 @@
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2.6875</c:v>
+                  <c:v>2.03125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.375</c:v>
+                  <c:v>4.0625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.75</c:v>
+                  <c:v>8.125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.5</c:v>
+                  <c:v>16.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>32.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>86</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>172</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>344</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>688</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1376</c:v>
+                  <c:v>1040</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2752</c:v>
+                  <c:v>2080</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5504</c:v>
+                  <c:v>4160</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11008</c:v>
+                  <c:v>8320</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22016</c:v>
+                  <c:v>16640</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44032</c:v>
+                  <c:v>33280</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>88064</c:v>
+                  <c:v>66560</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>176128</c:v>
+                  <c:v>133120</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>352256</c:v>
+                  <c:v>266240</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>704512</c:v>
+                  <c:v>532480</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15710,34 +15758,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15891,34 +15939,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16072,34 +16120,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16254,34 +16302,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16436,34 +16484,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16617,34 +16665,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16796,34 +16844,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16978,34 +17026,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17159,34 +17207,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17619,34 +17667,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17800,34 +17848,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17981,34 +18029,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18163,34 +18211,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18342,34 +18390,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18523,34 +18571,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18702,34 +18750,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18881,34 +18929,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19062,34 +19110,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19522,34 +19570,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19703,34 +19751,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19884,34 +19932,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20063,34 +20111,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20244,34 +20292,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20423,34 +20471,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20883,34 +20931,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21064,34 +21112,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21243,34 +21291,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21424,34 +21472,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21603,34 +21651,34 @@
                   <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43969</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43993</c:v>
+                  <c:v>43985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44017</c:v>
+                  <c:v>44005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44041</c:v>
+                  <c:v>44025</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>44089</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>44113</c:v>
+                  <c:v>44085</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44137</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44161</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44185</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32954,85 +33002,85 @@
       </c>
       <c r="B17" s="99">
         <f>(AP25/E31) /Projections!B8</f>
-        <v>207.64119601328906</v>
+        <v>274.72527472527469</v>
       </c>
       <c r="C17" s="100"/>
       <c r="D17" s="101"/>
       <c r="E17" s="95">
         <f>B17*2</f>
-        <v>415.28239202657812</v>
+        <v>549.45054945054937</v>
       </c>
       <c r="F17" s="100"/>
       <c r="G17" s="95"/>
       <c r="H17" s="95">
         <f>E17*2</f>
-        <v>830.56478405315625</v>
+        <v>1098.9010989010987</v>
       </c>
       <c r="I17" s="100"/>
       <c r="J17" s="101"/>
       <c r="K17" s="92">
         <f>H17*2</f>
-        <v>1661.1295681063125</v>
+        <v>2197.8021978021975</v>
       </c>
       <c r="L17" s="90"/>
       <c r="M17" s="91"/>
       <c r="N17" s="92">
         <f>K17*2</f>
-        <v>3322.259136212625</v>
+        <v>4395.604395604395</v>
       </c>
       <c r="O17" s="90"/>
       <c r="P17" s="91"/>
       <c r="Q17" s="92">
         <f>N17*2</f>
-        <v>6644.51827242525</v>
+        <v>8791.20879120879</v>
       </c>
       <c r="R17" s="90"/>
       <c r="S17" s="91"/>
       <c r="T17" s="92">
         <f>Q17*2</f>
-        <v>13289.0365448505</v>
+        <v>17582.41758241758</v>
       </c>
       <c r="U17" s="90"/>
       <c r="V17" s="91"/>
       <c r="W17" s="92">
         <f>T17*2</f>
-        <v>26578.073089701</v>
+        <v>35164.83516483516</v>
       </c>
       <c r="X17" s="90"/>
       <c r="Y17" s="91"/>
       <c r="Z17" s="92">
         <f>W17*2</f>
-        <v>53156.146179402</v>
+        <v>70329.67032967032</v>
       </c>
       <c r="AA17" s="90"/>
       <c r="AB17" s="91"/>
       <c r="AC17" s="92">
         <f>Z17*2</f>
-        <v>106312.292358804</v>
+        <v>140659.34065934064</v>
       </c>
       <c r="AD17" s="90"/>
       <c r="AE17" s="91"/>
       <c r="AF17" s="92">
         <f>AC17*2</f>
-        <v>212624.584717608</v>
+        <v>281318.68131868128</v>
       </c>
       <c r="AG17" s="90"/>
       <c r="AH17" s="91"/>
       <c r="AI17" s="92">
         <f>AF17*2</f>
-        <v>425249.169435216</v>
+        <v>562637.36263736256</v>
       </c>
       <c r="AJ17" s="90"/>
       <c r="AK17" s="91"/>
       <c r="AL17" s="92">
         <f>AI17*2</f>
-        <v>850498.338870432</v>
+        <v>1125274.7252747251</v>
       </c>
       <c r="AM17" s="90"/>
       <c r="AN17" s="91"/>
       <c r="AO17" s="92">
         <f>AL17*2</f>
-        <v>1700996.677740864</v>
+        <v>2250549.4505494502</v>
       </c>
       <c r="AP17" s="95"/>
       <c r="AQ17" t="s">
@@ -33045,85 +33093,85 @@
       </c>
       <c r="B18" s="85">
         <f>B17*$E$34</f>
-        <v>196.01328903654488</v>
+        <v>259.34065934065927</v>
       </c>
       <c r="C18" s="102"/>
       <c r="D18" s="102"/>
       <c r="E18" s="102">
         <f>E17*$E$34</f>
-        <v>392.02657807308975</v>
+        <v>518.68131868131854</v>
       </c>
       <c r="F18" s="102"/>
       <c r="G18" s="33"/>
       <c r="H18" s="102">
         <f>H17*$E$34</f>
-        <v>784.0531561461795</v>
+        <v>1037.3626373626371</v>
       </c>
       <c r="I18" s="102"/>
       <c r="J18" s="102"/>
       <c r="K18" s="102">
         <f>K17*$E$34</f>
-        <v>1568.106312292359</v>
+        <v>2074.7252747252742</v>
       </c>
       <c r="L18" s="102"/>
       <c r="M18" s="102"/>
       <c r="N18" s="102">
         <f>N17*$E$34</f>
-        <v>3136.212624584718</v>
+        <v>4149.4505494505484</v>
       </c>
       <c r="O18" s="102"/>
       <c r="P18" s="102"/>
       <c r="Q18" s="102">
         <f>Q17*$E$34</f>
-        <v>6272.425249169436</v>
+        <v>8298.9010989010967</v>
       </c>
       <c r="R18" s="102"/>
       <c r="S18" s="102"/>
       <c r="T18" s="102">
         <f>T17*$E$34</f>
-        <v>12544.850498338872</v>
+        <v>16597.802197802193</v>
       </c>
       <c r="U18" s="102"/>
       <c r="V18" s="102"/>
       <c r="W18" s="102">
         <f>W17*$E$34</f>
-        <v>25089.700996677744</v>
+        <v>33195.604395604387</v>
       </c>
       <c r="X18" s="102"/>
       <c r="Y18" s="102"/>
       <c r="Z18" s="102">
         <f>Z17*$E$34</f>
-        <v>50179.401993355488</v>
+        <v>66391.208791208774</v>
       </c>
       <c r="AA18" s="102"/>
       <c r="AB18" s="102"/>
       <c r="AC18" s="102">
         <f>AC17*$E$34</f>
-        <v>100358.80398671098</v>
+        <v>132782.41758241755</v>
       </c>
       <c r="AD18" s="102"/>
       <c r="AE18" s="102"/>
       <c r="AF18" s="102">
         <f>AF17*$E$34</f>
-        <v>200717.60797342195</v>
+        <v>265564.83516483509</v>
       </c>
       <c r="AG18" s="102"/>
       <c r="AH18" s="102"/>
       <c r="AI18" s="102">
         <f>AI17*$E$34</f>
-        <v>401435.21594684391</v>
+        <v>531129.67032967019</v>
       </c>
       <c r="AJ18" s="102"/>
       <c r="AK18" s="102"/>
       <c r="AL18" s="102">
         <f>AL17*$E$34</f>
-        <v>802870.43189368781</v>
+        <v>1062259.3406593404</v>
       </c>
       <c r="AM18" s="102"/>
       <c r="AN18" s="102"/>
       <c r="AO18" s="102">
         <f>AO17*$E$34</f>
-        <v>1605740.8637873756</v>
+        <v>2124518.6813186808</v>
       </c>
       <c r="AP18" s="33"/>
       <c r="AQ18" t="s">
@@ -33136,85 +33184,85 @@
       </c>
       <c r="B19" s="83">
         <f>B18</f>
-        <v>196.01328903654488</v>
+        <v>259.34065934065927</v>
       </c>
       <c r="C19" s="84"/>
       <c r="D19" s="84"/>
       <c r="E19" s="84">
         <f>E18</f>
-        <v>392.02657807308975</v>
+        <v>518.68131868131854</v>
       </c>
       <c r="F19" s="84"/>
       <c r="G19" s="34"/>
       <c r="H19" s="84">
         <f>H18</f>
-        <v>784.0531561461795</v>
+        <v>1037.3626373626371</v>
       </c>
       <c r="I19" s="84"/>
       <c r="J19" s="84"/>
       <c r="K19" s="84">
         <f>K18</f>
-        <v>1568.106312292359</v>
+        <v>2074.7252747252742</v>
       </c>
       <c r="L19" s="84"/>
       <c r="M19" s="84"/>
       <c r="N19" s="84">
         <f>N18</f>
-        <v>3136.212624584718</v>
+        <v>4149.4505494505484</v>
       </c>
       <c r="O19" s="84"/>
       <c r="P19" s="84"/>
       <c r="Q19" s="84">
         <f>Q18</f>
-        <v>6272.425249169436</v>
+        <v>8298.9010989010967</v>
       </c>
       <c r="R19" s="84"/>
       <c r="S19" s="84"/>
       <c r="T19" s="84">
         <f>T18</f>
-        <v>12544.850498338872</v>
+        <v>16597.802197802193</v>
       </c>
       <c r="U19" s="84"/>
       <c r="V19" s="84"/>
       <c r="W19" s="118">
         <f>W18-B18</f>
-        <v>24893.687707641198</v>
+        <v>32936.263736263725</v>
       </c>
       <c r="X19" s="118"/>
       <c r="Y19" s="118"/>
       <c r="Z19" s="118">
         <f>Z18-E18</f>
-        <v>49787.375415282397</v>
+        <v>65872.52747252745</v>
       </c>
       <c r="AA19" s="118"/>
       <c r="AB19" s="118"/>
       <c r="AC19" s="118">
         <f>AC18-H18</f>
-        <v>99574.750830564793</v>
+        <v>131745.0549450549</v>
       </c>
       <c r="AD19" s="118"/>
       <c r="AE19" s="118"/>
       <c r="AF19" s="118">
         <f>AF18-K18</f>
-        <v>199149.50166112959</v>
+        <v>263490.1098901098</v>
       </c>
       <c r="AG19" s="118"/>
       <c r="AH19" s="118"/>
       <c r="AI19" s="118">
         <f>AI18-N18</f>
-        <v>398299.00332225917</v>
+        <v>526980.2197802196</v>
       </c>
       <c r="AJ19" s="118"/>
       <c r="AK19" s="118"/>
       <c r="AL19" s="118">
         <f>AL18-Q18</f>
-        <v>796598.00664451835</v>
+        <v>1053960.4395604392</v>
       </c>
       <c r="AM19" s="118"/>
       <c r="AN19" s="118"/>
       <c r="AO19" s="118">
         <f>AO18-T18</f>
-        <v>1593196.0132890367</v>
+        <v>2107920.8791208784</v>
       </c>
       <c r="AP19" s="119"/>
       <c r="AQ19" t="s">
@@ -33236,67 +33284,67 @@
       <c r="J20" s="105"/>
       <c r="K20" s="128">
         <f>B17*(1-$E$34)</f>
-        <v>11.627906976744198</v>
+        <v>15.384615384615396</v>
       </c>
       <c r="L20" s="125"/>
       <c r="M20" s="126"/>
       <c r="N20" s="127">
         <f>E17*(1-$E$34)</f>
-        <v>23.255813953488396</v>
+        <v>30.769230769230791</v>
       </c>
       <c r="O20" s="125"/>
       <c r="P20" s="126"/>
       <c r="Q20" s="127">
         <f>H17*(1-$E$34)</f>
-        <v>46.511627906976791</v>
+        <v>61.538461538461583</v>
       </c>
       <c r="R20" s="125"/>
       <c r="S20" s="126"/>
       <c r="T20" s="127">
         <f>K17*(1-$E$34)</f>
-        <v>93.023255813953583</v>
+        <v>123.07692307692317</v>
       </c>
       <c r="U20" s="125"/>
       <c r="V20" s="126"/>
       <c r="W20" s="127">
         <f>N17*(1-$E$34)</f>
-        <v>186.04651162790717</v>
+        <v>246.15384615384633</v>
       </c>
       <c r="X20" s="125"/>
       <c r="Y20" s="126"/>
       <c r="Z20" s="127">
         <f>Q17*(1-$E$34)</f>
-        <v>372.09302325581433</v>
+        <v>492.30769230769266</v>
       </c>
       <c r="AA20" s="125"/>
       <c r="AB20" s="126"/>
       <c r="AC20" s="127">
         <f>T17*(1-$E$34)</f>
-        <v>744.18604651162866</v>
+        <v>984.61538461538532</v>
       </c>
       <c r="AD20" s="125"/>
       <c r="AE20" s="126"/>
       <c r="AF20" s="127">
         <f>W17*(1-$E$34)</f>
-        <v>1488.3720930232573</v>
+        <v>1969.2307692307706</v>
       </c>
       <c r="AG20" s="125"/>
       <c r="AH20" s="126"/>
       <c r="AI20" s="127">
         <f>Z17*(1-$E$34)</f>
-        <v>2976.7441860465146</v>
+        <v>3938.4615384615413</v>
       </c>
       <c r="AJ20" s="125"/>
       <c r="AK20" s="126"/>
       <c r="AL20" s="127">
         <f>AC17*(1-$E$34)</f>
-        <v>5953.4883720930293</v>
+        <v>7876.9230769230826</v>
       </c>
       <c r="AM20" s="125"/>
       <c r="AN20" s="126"/>
       <c r="AO20" s="127">
         <f>AF17*(1-$E$34)</f>
-        <v>11906.976744186059</v>
+        <v>15753.846153846165</v>
       </c>
       <c r="AP20" s="76"/>
       <c r="AQ20" t="s">
@@ -33315,73 +33363,73 @@
       <c r="G21" s="79"/>
       <c r="H21" s="120">
         <f>B17-B18</f>
-        <v>11.627906976744185</v>
+        <v>15.384615384615415</v>
       </c>
       <c r="I21" s="120"/>
       <c r="J21" s="120"/>
       <c r="K21" s="120">
         <f>E17-E18</f>
-        <v>23.255813953488371</v>
+        <v>30.76923076923083</v>
       </c>
       <c r="L21" s="120"/>
       <c r="M21" s="120"/>
       <c r="N21" s="120">
         <f>(H17-H18)*$E$35</f>
-        <v>37.674418604651166</v>
+        <v>49.846153846153946</v>
       </c>
       <c r="O21" s="120"/>
       <c r="P21" s="120"/>
       <c r="Q21" s="120">
         <f>(K17-K18)*$E$35</f>
-        <v>75.348837209302332</v>
+        <v>99.692307692307892</v>
       </c>
       <c r="R21" s="120"/>
       <c r="S21" s="120"/>
       <c r="T21" s="120">
         <f>(N17-N18)*$E$35</f>
-        <v>150.69767441860466</v>
+        <v>199.38461538461578</v>
       </c>
       <c r="U21" s="120"/>
       <c r="V21" s="120"/>
       <c r="W21" s="120">
         <f>((Q17-Q18)*$E$35)-(H21*$E$35)</f>
-        <v>291.97674418604652</v>
+        <v>386.30769230769306</v>
       </c>
       <c r="X21" s="120"/>
       <c r="Y21" s="120"/>
       <c r="Z21" s="120">
         <f>((T17-T18)*$E$35)-(K21*$E$35)</f>
-        <v>583.95348837209303</v>
+        <v>772.61538461538612</v>
       </c>
       <c r="AA21" s="120"/>
       <c r="AB21" s="120"/>
       <c r="AC21" s="120">
         <f>((W17-W18)*$E$35)-N21</f>
-        <v>1167.9069767441861</v>
+        <v>1545.2307692307722</v>
       </c>
       <c r="AD21" s="120"/>
       <c r="AE21" s="120"/>
       <c r="AF21" s="120">
         <f>((Z17-Z18)*$E$35)-Q21</f>
-        <v>2335.8139534883721</v>
+        <v>3090.4615384615445</v>
       </c>
       <c r="AG21" s="120"/>
       <c r="AH21" s="120"/>
       <c r="AI21" s="120">
         <f>((AC17-AC18)*$E$35)-T21</f>
-        <v>4671.6279069767443</v>
+        <v>6180.923076923089</v>
       </c>
       <c r="AJ21" s="120"/>
       <c r="AK21" s="120"/>
       <c r="AL21" s="120">
         <f>((AF17-AF18)*$E$35)-W21</f>
-        <v>9352.6744186046526</v>
+        <v>12374.307692307717</v>
       </c>
       <c r="AM21" s="120"/>
       <c r="AN21" s="120"/>
       <c r="AO21" s="120">
         <f>((AI17-AI18)*$E$35)-Z21</f>
-        <v>18705.348837209305</v>
+        <v>24748.615384615434</v>
       </c>
       <c r="AP21" s="121"/>
       <c r="AQ21" s="69" t="s">
@@ -33406,61 +33454,61 @@
       <c r="M22" s="105"/>
       <c r="N22" s="122">
         <f>(H17-H18)*($E$36+$E$37)</f>
-        <v>8.8372093023255811</v>
+        <v>11.692307692307716</v>
       </c>
       <c r="O22" s="122"/>
       <c r="P22" s="122"/>
       <c r="Q22" s="122">
         <f>(K17-K18)*($E$36+$E$37)</f>
-        <v>17.674418604651162</v>
+        <v>23.384615384615433</v>
       </c>
       <c r="R22" s="122"/>
       <c r="S22" s="122"/>
       <c r="T22" s="122">
         <f>(N17-N18)*$E$36</f>
-        <v>26.046511627906977</v>
+        <v>34.461538461538531</v>
       </c>
       <c r="U22" s="122"/>
       <c r="V22" s="122"/>
       <c r="W22" s="122">
         <f>(Q17-Q18)*$E$36</f>
-        <v>52.093023255813954</v>
+        <v>68.923076923077062</v>
       </c>
       <c r="X22" s="122"/>
       <c r="Y22" s="122"/>
       <c r="Z22" s="122">
         <f>(T17-T18)*$E$36</f>
-        <v>104.18604651162791</v>
+        <v>137.84615384615412</v>
       </c>
       <c r="AA22" s="122"/>
       <c r="AB22" s="122"/>
       <c r="AC22" s="122">
         <f>(W17-W18)*$E$36</f>
-        <v>208.37209302325581</v>
+        <v>275.69230769230825</v>
       </c>
       <c r="AD22" s="122"/>
       <c r="AE22" s="122"/>
       <c r="AF22" s="122">
         <f>(Z17-Z18)*$E$36</f>
-        <v>416.74418604651163</v>
+        <v>551.3846153846165</v>
       </c>
       <c r="AG22" s="122"/>
       <c r="AH22" s="122"/>
       <c r="AI22" s="122">
         <f>(AC17-AC18)*$E$36</f>
-        <v>833.48837209302326</v>
+        <v>1102.769230769233</v>
       </c>
       <c r="AJ22" s="122"/>
       <c r="AK22" s="122"/>
       <c r="AL22" s="122">
         <f>(AF17-AF18)*$E$36</f>
-        <v>1666.9767441860465</v>
+        <v>2205.538461538466</v>
       </c>
       <c r="AM22" s="122"/>
       <c r="AN22" s="122"/>
       <c r="AO22" s="122">
         <f>(AI17-AI18)*$E$36</f>
-        <v>3333.953488372093</v>
+        <v>4411.076923076932</v>
       </c>
       <c r="AP22" s="123"/>
       <c r="AQ22" s="69" t="s">
@@ -33491,49 +33539,49 @@
       <c r="S23" s="105"/>
       <c r="T23" s="40">
         <f>(N17-N18)*$E$37</f>
-        <v>9.3023255813953494</v>
+        <v>12.307692307692333</v>
       </c>
       <c r="U23" s="40"/>
       <c r="V23" s="40"/>
       <c r="W23" s="40">
         <f>(Q17-Q18)*$E$37</f>
-        <v>18.604651162790699</v>
+        <v>24.615384615384666</v>
       </c>
       <c r="X23" s="40"/>
       <c r="Y23" s="40"/>
       <c r="Z23" s="40">
         <f>(T17-T18)*$E$37</f>
-        <v>37.209302325581397</v>
+        <v>49.230769230769333</v>
       </c>
       <c r="AA23" s="40"/>
       <c r="AB23" s="40"/>
       <c r="AC23" s="40">
         <f>(W17-W18)*$E$37</f>
-        <v>74.418604651162795</v>
+        <v>98.461538461538666</v>
       </c>
       <c r="AD23" s="40"/>
       <c r="AE23" s="40"/>
       <c r="AF23" s="40">
         <f>(Z17-Z18)*$E$37</f>
-        <v>148.83720930232559</v>
+        <v>196.92307692307733</v>
       </c>
       <c r="AG23" s="40"/>
       <c r="AH23" s="40"/>
       <c r="AI23" s="40">
         <f>(AC17-AC18)*$E$37</f>
-        <v>297.67441860465118</v>
+        <v>393.84615384615466</v>
       </c>
       <c r="AJ23" s="40"/>
       <c r="AK23" s="40"/>
       <c r="AL23" s="40">
         <f>(AF17-AF18)*$E$37</f>
-        <v>595.34883720930236</v>
+        <v>787.69230769230933</v>
       </c>
       <c r="AM23" s="40"/>
       <c r="AN23" s="40"/>
       <c r="AO23" s="40">
         <f>(AI17-AI18)*$E$37</f>
-        <v>1190.6976744186047</v>
+        <v>1575.3846153846187</v>
       </c>
       <c r="AP23" s="124"/>
       <c r="AQ23" s="47" t="s">
@@ -33566,43 +33614,43 @@
       <c r="U24" s="105"/>
       <c r="V24" s="106">
         <f>H21*$E$35</f>
-        <v>9.4186046511627914</v>
+        <v>12.461538461538487</v>
       </c>
       <c r="W24" s="106"/>
       <c r="X24" s="106"/>
       <c r="Y24" s="106">
         <f>K21*$E$35</f>
-        <v>18.837209302325583</v>
+        <v>24.923076923076973</v>
       </c>
       <c r="Z24" s="106"/>
       <c r="AA24" s="106"/>
       <c r="AB24" s="106">
         <f>N21</f>
-        <v>37.674418604651166</v>
+        <v>49.846153846153946</v>
       </c>
       <c r="AC24" s="106"/>
       <c r="AD24" s="106"/>
       <c r="AE24" s="106">
         <f>Q21</f>
-        <v>75.348837209302332</v>
+        <v>99.692307692307892</v>
       </c>
       <c r="AF24" s="106"/>
       <c r="AG24" s="106"/>
       <c r="AH24" s="106">
         <f>T21</f>
-        <v>150.69767441860466</v>
+        <v>199.38461538461578</v>
       </c>
       <c r="AI24" s="106"/>
       <c r="AJ24" s="106"/>
       <c r="AK24" s="106">
         <f>W21</f>
-        <v>291.97674418604652</v>
+        <v>386.30769230769306</v>
       </c>
       <c r="AL24" s="106"/>
       <c r="AM24" s="106"/>
       <c r="AN24" s="106">
         <f>Z21</f>
-        <v>583.95348837209303</v>
+        <v>772.61538461538612</v>
       </c>
       <c r="AO24" s="106"/>
       <c r="AP24" s="107"/>
@@ -33668,167 +33716,167 @@
       </c>
       <c r="B26" s="86">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>43922.735050578704</v>
+        <v>43926.832545949073</v>
       </c>
       <c r="C26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43923.735050578704</v>
+        <v>43927.832545949073</v>
       </c>
       <c r="D26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43924.735050578704</v>
+        <v>43928.832545949073</v>
       </c>
       <c r="E26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43925.735050578704</v>
+        <v>43929.832545949073</v>
       </c>
       <c r="F26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43926.735050578704</v>
+        <v>43930.832545949073</v>
       </c>
       <c r="G26" s="88">
         <f t="shared" ca="1" si="0"/>
-        <v>43927.735050578704</v>
+        <v>43931.832545949073</v>
       </c>
       <c r="H26" s="87">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>43928.735050578704</v>
+        <v>43932.832545949073</v>
       </c>
       <c r="I26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43929.735050578704</v>
+        <v>43933.832545949073</v>
       </c>
       <c r="J26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43930.735050578704</v>
+        <v>43934.832545949073</v>
       </c>
       <c r="K26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43931.735050578704</v>
+        <v>43935.832545949073</v>
       </c>
       <c r="L26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43932.735050578704</v>
+        <v>43936.832545949073</v>
       </c>
       <c r="M26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43933.735050578704</v>
+        <v>43937.832545949073</v>
       </c>
       <c r="N26" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>43934.735050578704</v>
+        <v>43938.832545949073</v>
       </c>
       <c r="O26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43935.735050578704</v>
+        <v>43939.832545949073</v>
       </c>
       <c r="P26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43936.735050578704</v>
+        <v>43940.832545949073</v>
       </c>
       <c r="Q26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43937.735050578704</v>
+        <v>43941.832545949073</v>
       </c>
       <c r="R26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43938.735050578704</v>
+        <v>43942.832545949073</v>
       </c>
       <c r="S26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43939.735050578704</v>
+        <v>43943.832545949073</v>
       </c>
       <c r="T26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43940.735050578704</v>
+        <v>43944.832545949073</v>
       </c>
       <c r="U26" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>43941.735050578704</v>
+        <v>43945.832545949073</v>
       </c>
       <c r="V26" s="86">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>43942.735050578704</v>
+        <v>43946.832545949073</v>
       </c>
       <c r="W26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43943.735050578704</v>
+        <v>43947.832545949073</v>
       </c>
       <c r="X26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43944.735050578704</v>
+        <v>43948.832545949073</v>
       </c>
       <c r="Y26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43945.735050578704</v>
+        <v>43949.832545949073</v>
       </c>
       <c r="Z26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43946.735050578704</v>
+        <v>43950.832545949073</v>
       </c>
       <c r="AA26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43947.735050578704</v>
+        <v>43951.832545949073</v>
       </c>
       <c r="AB26" s="88">
         <f t="shared" ca="1" si="2"/>
-        <v>43948.735050578704</v>
+        <v>43952.832545949073</v>
       </c>
       <c r="AC26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43949.735050578704</v>
+        <v>43953.832545949073</v>
       </c>
       <c r="AD26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43950.735050578704</v>
+        <v>43954.832545949073</v>
       </c>
       <c r="AE26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43951.735050578704</v>
+        <v>43955.832545949073</v>
       </c>
       <c r="AF26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43952.735050578704</v>
+        <v>43956.832545949073</v>
       </c>
       <c r="AG26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43953.735050578704</v>
+        <v>43957.832545949073</v>
       </c>
       <c r="AH26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43954.735050578704</v>
+        <v>43958.832545949073</v>
       </c>
       <c r="AI26" s="88">
         <f t="shared" ca="1" si="2"/>
-        <v>43955.735050578704</v>
+        <v>43959.832545949073</v>
       </c>
       <c r="AJ26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43956.735050578704</v>
+        <v>43960.832545949073</v>
       </c>
       <c r="AK26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43957.735050578704</v>
+        <v>43961.832545949073</v>
       </c>
       <c r="AL26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43958.735050578704</v>
+        <v>43962.832545949073</v>
       </c>
       <c r="AM26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43959.735050578704</v>
+        <v>43963.832545949073</v>
       </c>
       <c r="AN26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43960.735050578704</v>
+        <v>43964.832545949073</v>
       </c>
       <c r="AO26" s="87">
         <f ca="1">AP26-1</f>
-        <v>43961.735050578704</v>
+        <v>43965.832545949073</v>
       </c>
       <c r="AP26" s="108">
         <f ca="1">NOW()</f>
-        <v>43962.735050578704</v>
+        <v>43966.832545949073</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -33963,59 +34011,59 @@
       <c r="A28" s="132" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="291" t="s">
+      <c r="B28" s="284" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="292"/>
-      <c r="D28" s="292"/>
-      <c r="E28" s="292"/>
-      <c r="F28" s="292"/>
-      <c r="G28" s="293"/>
-      <c r="H28" s="297" t="s">
+      <c r="C28" s="285"/>
+      <c r="D28" s="285"/>
+      <c r="E28" s="285"/>
+      <c r="F28" s="285"/>
+      <c r="G28" s="286"/>
+      <c r="H28" s="290" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="297"/>
-      <c r="J28" s="297"/>
-      <c r="K28" s="297"/>
-      <c r="L28" s="297"/>
-      <c r="M28" s="297"/>
-      <c r="N28" s="298"/>
-      <c r="O28" s="296" t="s">
+      <c r="I28" s="290"/>
+      <c r="J28" s="290"/>
+      <c r="K28" s="290"/>
+      <c r="L28" s="290"/>
+      <c r="M28" s="290"/>
+      <c r="N28" s="291"/>
+      <c r="O28" s="289" t="s">
         <v>56</v>
       </c>
-      <c r="P28" s="297"/>
-      <c r="Q28" s="297"/>
-      <c r="R28" s="297"/>
-      <c r="S28" s="297"/>
-      <c r="T28" s="297"/>
-      <c r="U28" s="298"/>
-      <c r="V28" s="296" t="s">
+      <c r="P28" s="290"/>
+      <c r="Q28" s="290"/>
+      <c r="R28" s="290"/>
+      <c r="S28" s="290"/>
+      <c r="T28" s="290"/>
+      <c r="U28" s="291"/>
+      <c r="V28" s="289" t="s">
         <v>57</v>
       </c>
-      <c r="W28" s="297"/>
-      <c r="X28" s="297"/>
-      <c r="Y28" s="297"/>
-      <c r="Z28" s="297"/>
-      <c r="AA28" s="297"/>
-      <c r="AB28" s="298"/>
-      <c r="AC28" s="296" t="s">
+      <c r="W28" s="290"/>
+      <c r="X28" s="290"/>
+      <c r="Y28" s="290"/>
+      <c r="Z28" s="290"/>
+      <c r="AA28" s="290"/>
+      <c r="AB28" s="291"/>
+      <c r="AC28" s="289" t="s">
         <v>58</v>
       </c>
-      <c r="AD28" s="297"/>
-      <c r="AE28" s="297"/>
-      <c r="AF28" s="297"/>
-      <c r="AG28" s="297"/>
-      <c r="AH28" s="297"/>
-      <c r="AI28" s="298"/>
-      <c r="AJ28" s="296" t="s">
+      <c r="AD28" s="290"/>
+      <c r="AE28" s="290"/>
+      <c r="AF28" s="290"/>
+      <c r="AG28" s="290"/>
+      <c r="AH28" s="290"/>
+      <c r="AI28" s="291"/>
+      <c r="AJ28" s="289" t="s">
         <v>59</v>
       </c>
-      <c r="AK28" s="297"/>
-      <c r="AL28" s="297"/>
-      <c r="AM28" s="297"/>
-      <c r="AN28" s="297"/>
-      <c r="AO28" s="297"/>
-      <c r="AP28" s="298"/>
+      <c r="AK28" s="290"/>
+      <c r="AL28" s="290"/>
+      <c r="AM28" s="290"/>
+      <c r="AN28" s="290"/>
+      <c r="AO28" s="290"/>
+      <c r="AP28" s="291"/>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B29" s="51" t="s">
@@ -34026,43 +34074,43 @@
       <c r="E29" s="93"/>
       <c r="F29" s="93"/>
       <c r="G29" s="94"/>
-      <c r="H29" s="294" t="s">
+      <c r="H29" s="287" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="294"/>
-      <c r="J29" s="294"/>
-      <c r="K29" s="294"/>
-      <c r="L29" s="294"/>
-      <c r="M29" s="294"/>
-      <c r="N29" s="294"/>
-      <c r="O29" s="294"/>
-      <c r="P29" s="294"/>
-      <c r="Q29" s="294"/>
-      <c r="R29" s="294"/>
-      <c r="S29" s="294"/>
-      <c r="T29" s="294"/>
-      <c r="U29" s="294"/>
-      <c r="V29" s="294"/>
-      <c r="W29" s="294"/>
-      <c r="X29" s="294"/>
-      <c r="Y29" s="294"/>
-      <c r="Z29" s="294"/>
-      <c r="AA29" s="294"/>
-      <c r="AB29" s="294"/>
-      <c r="AC29" s="294"/>
-      <c r="AD29" s="294"/>
-      <c r="AE29" s="294"/>
-      <c r="AF29" s="294"/>
-      <c r="AG29" s="294"/>
-      <c r="AH29" s="294"/>
-      <c r="AI29" s="294"/>
-      <c r="AJ29" s="294"/>
-      <c r="AK29" s="294"/>
-      <c r="AL29" s="294"/>
-      <c r="AM29" s="294"/>
-      <c r="AN29" s="294"/>
-      <c r="AO29" s="294"/>
-      <c r="AP29" s="295"/>
+      <c r="I29" s="287"/>
+      <c r="J29" s="287"/>
+      <c r="K29" s="287"/>
+      <c r="L29" s="287"/>
+      <c r="M29" s="287"/>
+      <c r="N29" s="287"/>
+      <c r="O29" s="287"/>
+      <c r="P29" s="287"/>
+      <c r="Q29" s="287"/>
+      <c r="R29" s="287"/>
+      <c r="S29" s="287"/>
+      <c r="T29" s="287"/>
+      <c r="U29" s="287"/>
+      <c r="V29" s="287"/>
+      <c r="W29" s="287"/>
+      <c r="X29" s="287"/>
+      <c r="Y29" s="287"/>
+      <c r="Z29" s="287"/>
+      <c r="AA29" s="287"/>
+      <c r="AB29" s="287"/>
+      <c r="AC29" s="287"/>
+      <c r="AD29" s="287"/>
+      <c r="AE29" s="287"/>
+      <c r="AF29" s="287"/>
+      <c r="AG29" s="287"/>
+      <c r="AH29" s="287"/>
+      <c r="AI29" s="287"/>
+      <c r="AJ29" s="287"/>
+      <c r="AK29" s="287"/>
+      <c r="AL29" s="287"/>
+      <c r="AM29" s="287"/>
+      <c r="AN29" s="287"/>
+      <c r="AO29" s="287"/>
+      <c r="AP29" s="288"/>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B31" s="57" t="s">
@@ -34074,7 +34122,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="82">
         <f>VLOOKUP(C31,B43:C54,2,FALSE)</f>
-        <v>8.5999999999999993E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -34237,7 +34285,7 @@
       </c>
       <c r="C45" s="27">
         <f>Projections!B15</f>
-        <v>8.5999999999999993E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
@@ -34347,7 +34395,7 @@
   <dimension ref="A1:AL95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34612,7 +34660,7 @@
       <c r="T9" s="156"/>
       <c r="U9" s="69"/>
       <c r="V9" s="69"/>
-      <c r="W9" s="288"/>
+      <c r="W9" s="283"/>
       <c r="X9" s="156"/>
       <c r="Y9" s="69"/>
       <c r="Z9" s="69"/>
@@ -34720,10 +34768,10 @@
       <c r="O12" s="69"/>
       <c r="P12" s="143"/>
       <c r="Q12" s="156"/>
-      <c r="R12" s="156">
+      <c r="R12" s="270">
         <v>43958</v>
       </c>
-      <c r="S12" s="69" t="s">
+      <c r="S12" s="271" t="s">
         <v>204</v>
       </c>
       <c r="T12" s="69"/>
@@ -34760,7 +34808,7 @@
       <c r="S13" s="156"/>
       <c r="T13" s="69"/>
       <c r="U13" s="69"/>
-      <c r="V13" s="288"/>
+      <c r="V13" s="283"/>
       <c r="W13" s="69"/>
       <c r="X13" s="69"/>
       <c r="Y13" s="69"/>
@@ -34797,7 +34845,7 @@
         <v>114</v>
       </c>
       <c r="B15" s="65">
-        <v>8.5999999999999993E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="170" t="s">
@@ -34821,7 +34869,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="272">
         <f>(AB19-J19)/(LOG(AB20/J20)/LOG(2))</f>
-        <v>15.833333333333334</v>
+        <v>13.611111111111111</v>
       </c>
       <c r="E16" s="166"/>
       <c r="M16" s="16"/>
@@ -34919,126 +34967,126 @@
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="262">
+      <c r="B19" s="296">
         <v>3</v>
       </c>
-      <c r="C19" s="148">
+      <c r="C19" s="262">
         <v>5</v>
       </c>
-      <c r="D19" s="81">
+      <c r="D19" s="148">
         <v>8</v>
       </c>
-      <c r="E19" s="209">
+      <c r="E19" s="81">
         <v>12</v>
       </c>
       <c r="F19" s="209">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G19" s="209"/>
       <c r="H19" s="209"/>
       <c r="I19" s="209"/>
-      <c r="J19" s="283">
+      <c r="J19" s="297">
         <v>43900</v>
       </c>
-      <c r="K19" s="284">
+      <c r="K19" s="298">
         <f t="shared" ref="K19:AG19" si="0">J19+HLOOKUP(J19+1, $B$18:$I$19,2,TRUE)</f>
         <v>43903</v>
       </c>
-      <c r="L19" s="284">
+      <c r="L19" s="298">
         <f t="shared" si="0"/>
         <v>43906</v>
       </c>
-      <c r="M19" s="284">
+      <c r="M19" s="298">
         <f t="shared" si="0"/>
         <v>43909</v>
       </c>
-      <c r="N19" s="285">
+      <c r="N19" s="292">
         <f t="shared" si="0"/>
         <v>43912</v>
       </c>
-      <c r="O19" s="286">
+      <c r="O19" s="293">
         <f t="shared" si="0"/>
         <v>43917</v>
       </c>
-      <c r="P19" s="286">
+      <c r="P19" s="293">
         <f t="shared" si="0"/>
         <v>43925</v>
       </c>
-      <c r="Q19" s="286">
+      <c r="Q19" s="293">
         <f t="shared" si="0"/>
         <v>43933</v>
       </c>
-      <c r="R19" s="287">
+      <c r="R19" s="294">
         <f t="shared" si="0"/>
         <v>43945</v>
       </c>
-      <c r="S19" s="215">
+      <c r="S19" s="295">
         <f>R19+HLOOKUP(R19+1, $B$18:$I$19,2,TRUE)</f>
-        <v>43969</v>
+        <v>43965</v>
       </c>
       <c r="T19" s="215">
         <f t="shared" si="0"/>
-        <v>43993</v>
+        <v>43985</v>
       </c>
       <c r="U19" s="215">
         <f t="shared" si="0"/>
-        <v>44017</v>
+        <v>44005</v>
       </c>
       <c r="V19" s="215">
         <f t="shared" si="0"/>
-        <v>44041</v>
+        <v>44025</v>
       </c>
       <c r="W19" s="215">
         <f t="shared" si="0"/>
-        <v>44065</v>
+        <v>44045</v>
       </c>
       <c r="X19" s="215">
         <f t="shared" si="0"/>
-        <v>44089</v>
+        <v>44065</v>
       </c>
       <c r="Y19" s="215">
         <f t="shared" si="0"/>
-        <v>44113</v>
+        <v>44085</v>
       </c>
       <c r="Z19" s="215">
         <f t="shared" si="0"/>
-        <v>44137</v>
+        <v>44105</v>
       </c>
       <c r="AA19" s="215">
         <f t="shared" si="0"/>
-        <v>44161</v>
+        <v>44125</v>
       </c>
       <c r="AB19" s="221">
         <f t="shared" si="0"/>
-        <v>44185</v>
+        <v>44145</v>
       </c>
       <c r="AC19" s="215">
         <f t="shared" si="0"/>
-        <v>44209</v>
+        <v>44165</v>
       </c>
       <c r="AD19" s="215">
         <f t="shared" ref="AD19" si="1">AC19+HLOOKUP(AC19+1, $B$18:$I$19,2,TRUE)</f>
-        <v>44233</v>
+        <v>44185</v>
       </c>
       <c r="AE19" s="215">
         <f t="shared" ref="AE19" si="2">AD19+HLOOKUP(AD19+1, $B$18:$I$19,2,TRUE)</f>
-        <v>44257</v>
+        <v>44205</v>
       </c>
       <c r="AF19" s="215">
         <f>AE19+HLOOKUP(AE19+1, $B$18:$I$19,2,TRUE)</f>
-        <v>44281</v>
+        <v>44225</v>
       </c>
       <c r="AG19" s="215">
         <f t="shared" si="0"/>
-        <v>44305</v>
+        <v>44245</v>
       </c>
       <c r="AH19" s="221">
         <f>AG19+HLOOKUP(AG19+1, $B$18:$I$19,2,TRUE)</f>
-        <v>44329</v>
+        <v>44265</v>
       </c>
       <c r="AI19" s="251">
         <f>AH19+(7*8)</f>
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="AJ19" s="70"/>
       <c r="AK19" s="70"/>
@@ -35333,67 +35381,67 @@
       </c>
       <c r="S22" s="276">
         <f t="shared" si="8"/>
-        <v>866.99875774568</v>
+        <v>1405.4535892255435</v>
       </c>
       <c r="T22" s="276">
         <f>MAX(T20-(T28-T29)-(T30-T31)-(T32-T33),0)</f>
-        <v>892.70531201726681</v>
+        <v>1229.0226963592258</v>
       </c>
       <c r="U22" s="276">
         <f t="shared" ref="U22:AC22" si="9">MAX(U20-(U28-U29)-(U30-U31)-(U32-U33),0)</f>
-        <v>3679.1848740227911</v>
+        <v>0</v>
       </c>
       <c r="V22" s="276">
         <f t="shared" si="9"/>
-        <v>8938.1257306386869</v>
+        <v>13487.947843542013</v>
       </c>
       <c r="W22" s="276">
         <f t="shared" si="9"/>
-        <v>19691.416643381628</v>
+        <v>41524.634110635481</v>
       </c>
       <c r="X22" s="276">
         <f t="shared" si="9"/>
-        <v>41740.789560307887</v>
+        <v>100497.82486439653</v>
       </c>
       <c r="Y22" s="276">
         <f t="shared" si="9"/>
-        <v>107907.51675185018</v>
+        <v>224684.19879120812</v>
       </c>
       <c r="Z22" s="276">
         <f t="shared" si="9"/>
-        <v>262495.29588149034</v>
+        <v>483920.97334683529</v>
       </c>
       <c r="AA22" s="276">
         <f t="shared" si="9"/>
-        <v>597626.39416396106</v>
+        <v>1020699.083850196</v>
       </c>
       <c r="AB22" s="279">
         <f t="shared" si="9"/>
-        <v>1311478.1574636586</v>
+        <v>2125075.4716300657</v>
       </c>
       <c r="AC22" s="189">
         <f t="shared" si="9"/>
-        <v>2813132.1052329927</v>
+        <v>4386112.1645030566</v>
       </c>
       <c r="AD22" s="189">
         <f t="shared" ref="AD22:AG22" si="10">MAX(AD20-(AD28-AD29)-(AD30-AD31)-(AD32-AD33),0)</f>
-        <v>5943182.9406496165</v>
+        <v>8997723.3100278154</v>
       </c>
       <c r="AE22" s="189">
         <f t="shared" si="10"/>
-        <v>12422600.58824503</v>
+        <v>18375741.647452392</v>
       </c>
       <c r="AF22" s="189">
         <f t="shared" si="10"/>
-        <v>25764290.865063757</v>
+        <v>37401782.892626517</v>
       </c>
       <c r="AG22" s="189">
         <f t="shared" si="10"/>
-        <v>53121365.263706721</v>
+        <v>75928664.137146667</v>
       </c>
       <c r="AH22" s="190">
         <f t="shared" ref="AH22" si="11">MAX(AH20-(AH28-AH29)-(AH30-AH31)-(AH32-AH33),0)</f>
-        <v>2213377.4722661078</v>
+        <v>6491596.1320630517</v>
       </c>
       <c r="AI22" s="254"/>
       <c r="AJ22" s="45"/>
@@ -35414,103 +35462,103 @@
       <c r="I23" s="16"/>
       <c r="J23" s="83">
         <f>MAX(J20-J22-J35,0)</f>
-        <v>6.838394217052049E-2</v>
+        <v>6.8384252174015892E-2</v>
       </c>
       <c r="K23" s="84">
         <f>MAX(K20-K22-K35,0)</f>
-        <v>0.23535072732271378</v>
+        <v>0.2353517942332457</v>
       </c>
       <c r="L23" s="84">
         <f>MAX(L20-L22-L35,0)</f>
-        <v>0.8099849627448007</v>
+        <v>0.80998863463269877</v>
       </c>
       <c r="M23" s="118">
         <f>MAX(M20-M22-M35,0)</f>
-        <v>2.7876507854300212</v>
+        <v>2.7876634226290484</v>
       </c>
       <c r="N23" s="118">
         <f t="shared" ref="N23:AB23" si="12">MAX(N20-N22-N35,0)</f>
-        <v>9.5940014431564737</v>
+        <v>9.5940449354426445</v>
       </c>
       <c r="O23" s="118">
         <f t="shared" si="12"/>
-        <v>64.686102686850447</v>
+        <v>64.686443891224172</v>
       </c>
       <c r="P23" s="118">
         <f t="shared" si="12"/>
-        <v>497.89769888098897</v>
+        <v>497.9069113990796</v>
       </c>
       <c r="Q23" s="118">
         <f t="shared" si="12"/>
-        <v>1506.7900616104339</v>
+        <v>1507.038799598882</v>
       </c>
       <c r="R23" s="118">
         <f t="shared" si="12"/>
-        <v>5885.8447274196524</v>
+        <v>5895.6913131550727</v>
       </c>
       <c r="S23" s="118">
         <f t="shared" si="12"/>
-        <v>14640.959890783426</v>
+        <v>14218.881287064984</v>
       </c>
       <c r="T23" s="118">
         <f t="shared" si="12"/>
-        <v>26844.433414180887</v>
+        <v>29605.005246014811</v>
       </c>
       <c r="U23" s="118">
         <f t="shared" si="12"/>
-        <v>55017.98106780104</v>
+        <v>62032.186697997524</v>
       </c>
       <c r="V23" s="118">
         <f t="shared" si="12"/>
-        <v>110495.36818311618</v>
+        <v>110861.48328478995</v>
       </c>
       <c r="W23" s="118">
         <f t="shared" si="12"/>
-        <v>221202.76487829018</v>
+        <v>207504.52577132499</v>
       </c>
       <c r="X23" s="118">
         <f t="shared" si="12"/>
-        <v>442455.51743475639</v>
+        <v>397992.54584336386</v>
       </c>
       <c r="Y23" s="118">
         <f t="shared" si="12"/>
-        <v>863665.56689025892</v>
+        <v>772905.5068576308</v>
       </c>
       <c r="Z23" s="118">
         <f t="shared" si="12"/>
-        <v>1685158.214133491</v>
+        <v>1512162.8028127558</v>
       </c>
       <c r="AA23" s="118">
         <f t="shared" si="12"/>
-        <v>3304396.5985734658</v>
+        <v>2972864.4464014852</v>
       </c>
       <c r="AB23" s="119">
         <f t="shared" si="12"/>
-        <v>6502956.4925308544</v>
+        <v>5864271.4841467747</v>
       </c>
       <c r="AC23" s="203">
         <f>MAX(AC20-AC22-AC35,0)</f>
-        <v>12832280.420912396</v>
+        <v>11596196.179435622</v>
       </c>
       <c r="AD23" s="203">
         <f t="shared" ref="AD23:AH23" si="13">MAX(AD20-AD22-AD35,0)</f>
-        <v>25374603.414919984</v>
+        <v>22972892.458514955</v>
       </c>
       <c r="AE23" s="203">
         <f t="shared" si="13"/>
-        <v>50257750.933534905</v>
+        <v>45575606.652425036</v>
       </c>
       <c r="AF23" s="203">
         <f t="shared" si="13"/>
-        <v>99671961.710080892</v>
+        <v>90518204.811418653</v>
       </c>
       <c r="AG23" s="203">
         <f t="shared" si="13"/>
-        <v>197880308.4405202</v>
+        <v>179941204.89109433</v>
       </c>
       <c r="AH23" s="203">
         <f t="shared" si="13"/>
-        <v>248611334.95288572</v>
+        <v>253898337.37230998</v>
       </c>
       <c r="AI23" s="255"/>
       <c r="AJ23" s="25"/>
@@ -35939,35 +35987,35 @@
       </c>
       <c r="V27" s="188">
         <f t="shared" si="22"/>
-        <v>2157714.2857142854</v>
+        <v>2062171.8068081222</v>
       </c>
       <c r="W27" s="188">
         <f t="shared" si="22"/>
-        <v>4315428.5714285709</v>
+        <v>3971447.4286595187</v>
       </c>
       <c r="X27" s="188">
         <f t="shared" si="22"/>
-        <v>8630857.1428571418</v>
+        <v>7728560.1330285929</v>
       </c>
       <c r="Y27" s="188">
         <f t="shared" si="22"/>
-        <v>17261714.285714284</v>
+        <v>15140088.605611</v>
       </c>
       <c r="Z27" s="188">
         <f t="shared" si="22"/>
-        <v>34523428.571428567</v>
+        <v>29792313.25917938</v>
       </c>
       <c r="AA27" s="188">
         <f t="shared" si="22"/>
-        <v>68003917.082783431</v>
+        <v>58810715.2792731</v>
       </c>
       <c r="AB27" s="188">
         <f t="shared" si="22"/>
-        <v>133709966.31471027</v>
+        <v>116363848.63114513</v>
       </c>
       <c r="AC27" s="225">
         <f t="shared" si="22"/>
-        <v>256502000</v>
+        <v>230643848.74777496</v>
       </c>
       <c r="AD27" s="193">
         <f t="shared" si="22"/>
@@ -36172,55 +36220,55 @@
       </c>
       <c r="U29" s="195">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2398.1856825917494</v>
       </c>
       <c r="V29" s="195">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>10139.886843183573</v>
       </c>
       <c r="W29" s="195">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>27215.144636004203</v>
       </c>
       <c r="X29" s="195">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>64152.512365822971</v>
       </c>
       <c r="Y29" s="195">
         <f t="shared" si="26"/>
-        <v>21115.987086820998</v>
+        <v>142685.58084948489</v>
       </c>
       <c r="Z29" s="195">
         <f t="shared" si="26"/>
-        <v>84009.807497533038</v>
+        <v>307500.67056362331</v>
       </c>
       <c r="AA29" s="195">
         <f t="shared" si="26"/>
-        <v>233102.32112494297</v>
+        <v>650105.95493217185</v>
       </c>
       <c r="AB29" s="195">
         <f t="shared" si="26"/>
-        <v>570435.92796474136</v>
+        <v>1357255.826091256</v>
       </c>
       <c r="AC29" s="225">
         <f t="shared" si="26"/>
-        <v>1311540.2023076285</v>
+        <v>2809035.0208009277</v>
       </c>
       <c r="AD29" s="193">
         <f t="shared" si="26"/>
-        <v>2907649.7555960938</v>
+        <v>5777252.0695443153</v>
       </c>
       <c r="AE29" s="193">
         <f t="shared" si="26"/>
-        <v>6297019.6462535039</v>
+        <v>11826248.87438038</v>
       </c>
       <c r="AF29" s="193">
         <f t="shared" si="26"/>
-        <v>13420010.709534571</v>
+        <v>24121821.830263942</v>
       </c>
       <c r="AG29" s="193">
         <f t="shared" si="26"/>
-        <v>28271899.336623102</v>
+        <v>49062371.310383052</v>
       </c>
       <c r="AH29" s="194">
         <f t="shared" si="26"/>
@@ -36281,67 +36329,67 @@
       </c>
       <c r="S30" s="201">
         <f t="shared" si="27"/>
-        <v>15655.622130820409</v>
+        <v>9417.9493258412858</v>
       </c>
       <c r="T30" s="201">
         <f t="shared" si="27"/>
-        <v>16963.000604866222</v>
+        <v>12621.369485300986</v>
       </c>
       <c r="U30" s="201">
         <f t="shared" si="27"/>
-        <v>25660.477649150489</v>
+        <v>20772.956736341464</v>
       </c>
       <c r="V30" s="201">
         <f t="shared" si="27"/>
-        <v>43528.905097544681</v>
+        <v>36834.452616120703</v>
       </c>
       <c r="W30" s="201">
         <f t="shared" si="27"/>
-        <v>78097.468979505124</v>
+        <v>67879.374781062565</v>
       </c>
       <c r="X30" s="201">
         <f t="shared" si="27"/>
-        <v>144616.7455313582</v>
+        <v>127946.18626912229</v>
       </c>
       <c r="Y30" s="201">
         <f t="shared" si="27"/>
-        <v>273083.23120738496</v>
+        <v>244656.62158375539</v>
       </c>
       <c r="Z30" s="201">
         <f t="shared" si="27"/>
-        <v>522389.95387238695</v>
+        <v>472392.39671564603</v>
       </c>
       <c r="AA30" s="201">
         <f t="shared" si="27"/>
-        <v>1008345.9993335202</v>
+        <v>918398.3213394488</v>
       </c>
       <c r="AB30" s="201">
         <f t="shared" si="27"/>
-        <v>1959112.285150025</v>
+        <v>1794511.5280716242</v>
       </c>
       <c r="AC30" s="222">
         <f t="shared" si="27"/>
-        <v>3824968.4294025884</v>
+        <v>3519758.1553441482</v>
       </c>
       <c r="AD30" s="198">
         <f t="shared" si="27"/>
-        <v>7495859.9605656713</v>
+        <v>6923997.3526550038</v>
       </c>
       <c r="AE30" s="198">
         <f t="shared" si="27"/>
-        <v>14732918.524544267</v>
+        <v>13652416.01250953</v>
       </c>
       <c r="AF30" s="198">
         <f t="shared" si="27"/>
-        <v>29025047.549451362</v>
+        <v>26969461.901751667</v>
       </c>
       <c r="AG30" s="198">
         <f t="shared" si="27"/>
-        <v>57290388.293329775</v>
+        <v>53357519.435881287</v>
       </c>
       <c r="AH30" s="199">
         <f t="shared" si="27"/>
-        <v>113257939.48316073</v>
+        <v>105697491.19089943</v>
       </c>
       <c r="AI30" s="254">
         <f>AI20*(B13+B14)</f>
@@ -36401,67 +36449,67 @@
       </c>
       <c r="S31" s="188">
         <f t="shared" si="29"/>
-        <v>13768.691441746842</v>
+        <v>8072.3760871510385</v>
       </c>
       <c r="T31" s="188">
         <f t="shared" si="29"/>
-        <v>14111.448464299401</v>
+        <v>8667.2937644494159</v>
       </c>
       <c r="U31" s="188">
         <f t="shared" si="29"/>
-        <v>20262.705580252445</v>
+        <v>6136.1442748773734</v>
       </c>
       <c r="V31" s="188">
         <f t="shared" si="29"/>
-        <v>33127.557622511937</v>
+        <v>18670.643517762248</v>
       </c>
       <c r="W31" s="188">
         <f t="shared" si="29"/>
-        <v>57931.338226565917</v>
+        <v>38911.048961878099</v>
       </c>
       <c r="X31" s="188">
         <f t="shared" si="29"/>
-        <v>105242.47288523339</v>
+        <v>77403.521300187858</v>
       </c>
       <c r="Y31" s="188">
         <f t="shared" si="29"/>
-        <v>195795.52619676935</v>
+        <v>152410.85056483332</v>
       </c>
       <c r="Z31" s="188">
         <f t="shared" si="29"/>
-        <v>370096.42480577377</v>
+        <v>299628.25629917264</v>
       </c>
       <c r="AA31" s="188">
         <f t="shared" si="29"/>
-        <v>707407.40217635967</v>
+        <v>589548.73467925633</v>
       </c>
       <c r="AB31" s="188">
         <f t="shared" si="29"/>
-        <v>1363189.2530242254</v>
+        <v>1161738.1307051717</v>
       </c>
       <c r="AC31" s="225">
         <f t="shared" si="29"/>
-        <v>2643011.6543364469</v>
+        <v>2292868.8806319092</v>
       </c>
       <c r="AD31" s="193">
         <f t="shared" si="29"/>
-        <v>5148620.6133112861</v>
+        <v>4531921.0788748348</v>
       </c>
       <c r="AE31" s="193">
         <f t="shared" si="29"/>
-        <v>10066920.209686991</v>
+        <v>8969031.6318296734</v>
       </c>
       <c r="AF31" s="193">
         <f t="shared" si="29"/>
-        <v>19742245.045012724</v>
+        <v>17770367.807156421</v>
       </c>
       <c r="AG31" s="193">
         <f t="shared" si="29"/>
-        <v>38810590.904002391</v>
+        <v>35242706.856305696</v>
       </c>
       <c r="AH31" s="194">
         <f t="shared" si="29"/>
-        <v>76449306.940803707</v>
+        <v>69953106.165752441</v>
       </c>
       <c r="AI31" s="256"/>
       <c r="AJ31" s="45"/>
@@ -36518,67 +36566,67 @@
       </c>
       <c r="S32" s="201">
         <f t="shared" si="31"/>
-        <v>1692.9232398422837</v>
+        <v>1018.4114787738645</v>
       </c>
       <c r="T32" s="201">
         <f t="shared" si="31"/>
-        <v>2335.7425474159127</v>
+        <v>1669.9398664034841</v>
       </c>
       <c r="U32" s="201">
         <f t="shared" si="31"/>
-        <v>3963.8835450463944</v>
+        <v>3051.963846753596</v>
       </c>
       <c r="V32" s="201">
         <f t="shared" si="31"/>
-        <v>7195.8494033892748</v>
+        <v>5774.0810590627425</v>
       </c>
       <c r="W32" s="201">
         <f t="shared" si="31"/>
-        <v>13500.956685830628</v>
+        <v>11120.052800246654</v>
       </c>
       <c r="X32" s="201">
         <f t="shared" si="31"/>
-        <v>25805.901023510705</v>
+        <v>21639.968372480063</v>
       </c>
       <c r="Y32" s="201">
         <f t="shared" si="31"/>
-        <v>49896.544006986354</v>
+        <v>42392.248095710806</v>
       </c>
       <c r="Z32" s="201">
         <f t="shared" si="31"/>
-        <v>97214.209413732518</v>
+        <v>83418.477125702266</v>
       </c>
       <c r="AA32" s="201">
         <f t="shared" si="31"/>
-        <v>190410.96783179365</v>
+        <v>164670.00278196469</v>
       </c>
       <c r="AB32" s="201">
         <f t="shared" si="31"/>
-        <v>374387.9056811888</v>
+        <v>325818.77616720641</v>
       </c>
       <c r="AC32" s="222">
         <f t="shared" si="31"/>
-        <v>738240.72825261555</v>
+        <v>645802.77649376995</v>
       </c>
       <c r="AD32" s="198">
         <f t="shared" si="31"/>
-        <v>1458915.4471854263</v>
+        <v>1281779.5018799806</v>
       </c>
       <c r="AE32" s="198">
         <f t="shared" si="31"/>
-        <v>2888095.0835645986</v>
+        <v>2546784.6373839271</v>
       </c>
       <c r="AF32" s="198">
         <f t="shared" si="31"/>
-        <v>5725204.277189224</v>
+        <v>5064598.6524528433</v>
       </c>
       <c r="AG32" s="198">
         <f t="shared" si="31"/>
-        <v>11362021.028603513</v>
+        <v>10078658.561087467</v>
       </c>
       <c r="AH32" s="199">
         <f t="shared" si="31"/>
-        <v>22569350.019642837</v>
+        <v>20068378.844225034</v>
       </c>
       <c r="AI32" s="254">
         <f>AI20*B14</f>
@@ -36638,67 +36686,67 @@
       </c>
       <c r="S33" s="195">
         <f t="shared" si="33"/>
-        <v>1406.8526866615316</v>
+        <v>729.43830668965529</v>
       </c>
       <c r="T33" s="195">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>773.03828361427975</v>
       </c>
       <c r="U33" s="195">
         <f t="shared" si="33"/>
-        <v>880.84048796722982</v>
+        <v>1538.26130675169</v>
       </c>
       <c r="V33" s="195">
         <f t="shared" si="33"/>
-        <v>2215.3226090607068</v>
+        <v>2965.9511577796379</v>
       </c>
       <c r="W33" s="195">
         <f t="shared" si="33"/>
-        <v>4718.5040821514649</v>
+        <v>5757.8680940624008</v>
       </c>
       <c r="X33" s="195">
         <f t="shared" si="33"/>
-        <v>9640.9632299434015</v>
+        <v>11247.945839988062</v>
       </c>
       <c r="Y33" s="195">
         <f t="shared" si="33"/>
-        <v>19415.778682631149</v>
+        <v>22076.637056356114</v>
       </c>
       <c r="Z33" s="195">
         <f t="shared" si="33"/>
-        <v>38873.226864302967</v>
+        <v>43482.920325387648</v>
       </c>
       <c r="AA33" s="195">
         <f t="shared" si="33"/>
-        <v>77633.638027972193</v>
+        <v>85872.718360181199</v>
       </c>
       <c r="AB33" s="195">
         <f t="shared" si="33"/>
-        <v>154873.16730590566</v>
+        <v>169931.81907246844</v>
       </c>
       <c r="AC33" s="225">
         <f t="shared" si="33"/>
-        <v>308829.40624412132</v>
+        <v>336809.19490813761</v>
       </c>
       <c r="AD33" s="193">
         <f t="shared" si="33"/>
-        <v>615767.97949333396</v>
+        <v>668407.016143649</v>
       </c>
       <c r="AE33" s="193">
         <f t="shared" si="33"/>
-        <v>1227834.3404134016</v>
+        <v>1327821.7911357966</v>
       </c>
       <c r="AF33" s="193">
         <f t="shared" si="33"/>
-        <v>2448606.937157047</v>
+        <v>2639973.8094106656</v>
       </c>
       <c r="AG33" s="193">
         <f t="shared" si="33"/>
-        <v>4883924.3450145135</v>
+        <v>5252403.9674266791</v>
       </c>
       <c r="AH33" s="194">
         <f t="shared" si="33"/>
-        <v>9743020.0342659727</v>
+        <v>10456020.001435077</v>
       </c>
       <c r="AI33" s="254"/>
       <c r="AJ33" s="45"/>
@@ -36719,107 +36767,107 @@
       <c r="I34" s="16"/>
       <c r="J34" s="213">
         <f t="shared" ref="J34:AC34" si="34">J20*$B$15</f>
-        <v>2.6875</v>
+        <v>2.03125</v>
       </c>
       <c r="K34" s="214">
         <f t="shared" si="34"/>
-        <v>5.375</v>
+        <v>4.0625</v>
       </c>
       <c r="L34" s="214">
         <f t="shared" si="34"/>
-        <v>10.75</v>
+        <v>8.125</v>
       </c>
       <c r="M34" s="214">
         <f t="shared" si="34"/>
-        <v>21.5</v>
+        <v>16.25</v>
       </c>
       <c r="N34" s="214">
         <f t="shared" si="34"/>
-        <v>43</v>
+        <v>32.5</v>
       </c>
       <c r="O34" s="214">
         <f t="shared" si="34"/>
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="P34" s="214">
         <f t="shared" si="34"/>
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="Q34" s="214">
         <f t="shared" si="34"/>
-        <v>344</v>
+        <v>260</v>
       </c>
       <c r="R34" s="214">
         <f t="shared" si="34"/>
-        <v>688</v>
+        <v>520</v>
       </c>
       <c r="S34" s="214">
         <f t="shared" si="34"/>
-        <v>1376</v>
+        <v>1040</v>
       </c>
       <c r="T34" s="214">
         <f t="shared" si="34"/>
-        <v>2752</v>
+        <v>2080</v>
       </c>
       <c r="U34" s="214">
         <f t="shared" si="34"/>
-        <v>5504</v>
+        <v>4160</v>
       </c>
       <c r="V34" s="214">
         <f t="shared" si="34"/>
-        <v>11008</v>
+        <v>8320</v>
       </c>
       <c r="W34" s="214">
         <f t="shared" si="34"/>
-        <v>22016</v>
+        <v>16640</v>
       </c>
       <c r="X34" s="214">
         <f t="shared" si="34"/>
-        <v>44032</v>
+        <v>33280</v>
       </c>
       <c r="Y34" s="214">
         <f t="shared" si="34"/>
-        <v>88064</v>
+        <v>66560</v>
       </c>
       <c r="Z34" s="214">
         <f t="shared" si="34"/>
-        <v>176128</v>
+        <v>133120</v>
       </c>
       <c r="AA34" s="214">
         <f t="shared" si="34"/>
-        <v>352256</v>
+        <v>266240</v>
       </c>
       <c r="AB34" s="265">
         <f t="shared" si="34"/>
-        <v>704512</v>
+        <v>532480</v>
       </c>
       <c r="AC34" s="224">
         <f t="shared" si="34"/>
-        <v>1409024</v>
+        <v>1064960</v>
       </c>
       <c r="AD34" s="189">
         <f t="shared" ref="AD34:AH34" si="35">AD20*$B$15</f>
-        <v>2818048</v>
+        <v>2129920</v>
       </c>
       <c r="AE34" s="189">
         <f t="shared" si="35"/>
-        <v>5636096</v>
+        <v>4259840</v>
       </c>
       <c r="AF34" s="189">
         <f t="shared" si="35"/>
-        <v>11272192</v>
+        <v>8519680</v>
       </c>
       <c r="AG34" s="189">
         <f t="shared" si="35"/>
-        <v>22544384</v>
+        <v>17039360</v>
       </c>
       <c r="AH34" s="190">
         <f t="shared" si="35"/>
-        <v>23468195.999999996</v>
+        <v>17737590</v>
       </c>
       <c r="AI34" s="254">
         <f>AI20*B15</f>
-        <v>1173409.7999999998</v>
+        <v>886879.5</v>
       </c>
       <c r="AJ34" s="45"/>
       <c r="AK34" s="45"/>
@@ -36839,107 +36887,107 @@
       <c r="I35" s="39"/>
       <c r="J35" s="191">
         <f t="shared" ref="J35:P35" si="36">(1*$B$15)*(2^(((J19-35)-$B$16)/$J$45))</f>
-        <v>1.2695381240489986E-6</v>
+        <v>9.5953462864168518E-7</v>
       </c>
       <c r="K35" s="192">
         <f t="shared" si="36"/>
-        <v>4.3692526545750213E-6</v>
+        <v>3.3023421226439117E-6</v>
       </c>
       <c r="L35" s="192">
         <f t="shared" si="36"/>
-        <v>1.5037255201620104E-5</v>
+        <v>1.1365367303550079E-5</v>
       </c>
       <c r="M35" s="192">
         <f t="shared" si="36"/>
-        <v>5.1752338872388865E-5</v>
+        <v>3.9115139845410189E-5</v>
       </c>
       <c r="N35" s="192">
         <f t="shared" si="36"/>
-        <v>1.7811126717288221E-4</v>
+        <v>1.3461898100275982E-4</v>
       </c>
       <c r="O35" s="192">
         <f t="shared" si="36"/>
-        <v>1.3973131495544993E-3</v>
+        <v>1.0561087758260753E-3</v>
       </c>
       <c r="P35" s="192">
         <f t="shared" si="36"/>
-        <v>3.7727455037971452E-2</v>
+        <v>2.8514936947304007E-2</v>
       </c>
       <c r="Q35" s="192">
         <f>(1*$B$15)*(2^(((Q19-35)-$B$16)/$J$45))</f>
-        <v>1.0186412860252285</v>
+        <v>0.76990329757720777</v>
       </c>
       <c r="R35" s="200">
         <f t="shared" ref="R35:AH35" si="37">($J$20*$B$15)*(2^(((R19-35)-$J$19)/HLOOKUP((R19-35)-$B$16,$J$43:$AI$45,3,TRUE)))</f>
-        <v>40.324113011721096</v>
+        <v>30.477527276300826</v>
       </c>
       <c r="S35" s="200">
         <f t="shared" si="37"/>
-        <v>492.04135147089363</v>
+        <v>375.66512370947203</v>
       </c>
       <c r="T35" s="200">
         <f t="shared" si="37"/>
-        <v>4262.8612738018455</v>
+        <v>1165.9720576259656</v>
       </c>
       <c r="U35" s="200">
         <f t="shared" si="37"/>
-        <v>5302.8340581761631</v>
+        <v>1967.8133020024779</v>
       </c>
       <c r="V35" s="200">
         <f t="shared" si="37"/>
-        <v>8566.5060862451373</v>
+        <v>3650.5688716680361</v>
       </c>
       <c r="W35" s="200">
         <f t="shared" si="37"/>
-        <v>15105.818478328161</v>
+        <v>6970.8401180395294</v>
       </c>
       <c r="X35" s="200">
         <f t="shared" si="37"/>
-        <v>27803.693004935765</v>
+        <v>13509.629292239602</v>
       </c>
       <c r="Y35" s="200">
         <f t="shared" si="37"/>
-        <v>52426.916357890957</v>
+        <v>26410.294351161097</v>
       </c>
       <c r="Z35" s="200">
         <f t="shared" si="37"/>
-        <v>100346.48998501884</v>
+        <v>51916.223840409002</v>
       </c>
       <c r="AA35" s="200">
         <f t="shared" si="37"/>
-        <v>193977.00726257291</v>
+        <v>102436.46974831854</v>
       </c>
       <c r="AB35" s="266">
         <f t="shared" si="37"/>
-        <v>377565.35000548704</v>
+        <v>202653.04422315935</v>
       </c>
       <c r="AC35" s="225">
         <f t="shared" si="37"/>
-        <v>738587.47385461011</v>
+        <v>401691.65606132208</v>
       </c>
       <c r="AD35" s="193">
         <f t="shared" si="37"/>
-        <v>1450213.6444303987</v>
+        <v>797384.23145723098</v>
       </c>
       <c r="AE35" s="193">
         <f t="shared" si="37"/>
-        <v>2855648.4782200586</v>
+        <v>1584651.7001225697</v>
       </c>
       <c r="AF35" s="193">
         <f t="shared" si="37"/>
-        <v>5635747.4248553449</v>
+        <v>3152012.2959548309</v>
       </c>
       <c r="AG35" s="193">
         <f t="shared" si="37"/>
-        <v>11142326.29577308</v>
+        <v>6274130.9717590241</v>
       </c>
       <c r="AH35" s="194">
         <f t="shared" si="37"/>
-        <v>22061287.574848209</v>
+        <v>12496066.495626943</v>
       </c>
       <c r="AI35" s="257">
         <f>($J$20*$B$15)*(2^(((AI19 - 35) - $J$19)/AI45))</f>
-        <v>8481606.1930997018</v>
+        <v>5370926.9945303807</v>
       </c>
       <c r="AJ35" s="45"/>
       <c r="AK35" s="45"/>
@@ -36995,47 +37043,47 @@
       </c>
       <c r="S36" s="143">
         <f t="shared" si="38"/>
-        <v>43962</v>
+        <v>43958</v>
       </c>
       <c r="T36" s="143">
         <f t="shared" si="38"/>
-        <v>43986</v>
+        <v>43978</v>
       </c>
       <c r="U36" s="143">
         <f t="shared" si="38"/>
-        <v>44010</v>
+        <v>43998</v>
       </c>
       <c r="V36" s="143">
         <f t="shared" si="38"/>
-        <v>44034</v>
+        <v>44018</v>
       </c>
       <c r="W36" s="143">
         <f t="shared" si="38"/>
-        <v>44058</v>
+        <v>44038</v>
       </c>
       <c r="X36" s="143">
         <f t="shared" si="38"/>
-        <v>44082</v>
+        <v>44058</v>
       </c>
       <c r="Y36" s="143">
         <f t="shared" si="38"/>
-        <v>44106</v>
+        <v>44078</v>
       </c>
       <c r="Z36" s="143">
         <f t="shared" si="38"/>
-        <v>44130</v>
+        <v>44098</v>
       </c>
       <c r="AA36" s="143">
         <f t="shared" si="38"/>
-        <v>44154</v>
+        <v>44118</v>
       </c>
       <c r="AB36" s="143">
         <f t="shared" si="38"/>
-        <v>44178</v>
+        <v>44138</v>
       </c>
       <c r="AC36" s="143">
         <f t="shared" si="38"/>
-        <v>44202</v>
+        <v>44158</v>
       </c>
       <c r="AD36" s="143"/>
       <c r="AE36" s="143"/>
@@ -37096,47 +37144,47 @@
       </c>
       <c r="S37" s="143">
         <f t="shared" si="39"/>
-        <v>43955</v>
+        <v>43951</v>
       </c>
       <c r="T37" s="143">
         <f t="shared" si="39"/>
-        <v>43979</v>
+        <v>43971</v>
       </c>
       <c r="U37" s="143">
         <f t="shared" si="39"/>
-        <v>44003</v>
+        <v>43991</v>
       </c>
       <c r="V37" s="143">
         <f t="shared" si="39"/>
-        <v>44027</v>
+        <v>44011</v>
       </c>
       <c r="W37" s="143">
         <f t="shared" si="39"/>
-        <v>44051</v>
+        <v>44031</v>
       </c>
       <c r="X37" s="143">
         <f t="shared" si="39"/>
-        <v>44075</v>
+        <v>44051</v>
       </c>
       <c r="Y37" s="143">
         <f t="shared" si="39"/>
-        <v>44099</v>
+        <v>44071</v>
       </c>
       <c r="Z37" s="143">
         <f t="shared" si="39"/>
-        <v>44123</v>
+        <v>44091</v>
       </c>
       <c r="AA37" s="143">
         <f t="shared" si="39"/>
-        <v>44147</v>
+        <v>44111</v>
       </c>
       <c r="AB37" s="143">
         <f t="shared" si="39"/>
-        <v>44171</v>
+        <v>44131</v>
       </c>
       <c r="AC37" s="143">
         <f t="shared" si="39"/>
-        <v>44195</v>
+        <v>44151</v>
       </c>
       <c r="AD37" s="143"/>
       <c r="AE37" s="143"/>
@@ -37197,47 +37245,47 @@
       </c>
       <c r="S38" s="143">
         <f t="shared" si="40"/>
-        <v>43934</v>
+        <v>43930</v>
       </c>
       <c r="T38" s="143">
         <f t="shared" si="40"/>
-        <v>43958</v>
+        <v>43950</v>
       </c>
       <c r="U38" s="143">
         <f t="shared" si="40"/>
-        <v>43982</v>
+        <v>43970</v>
       </c>
       <c r="V38" s="143">
         <f t="shared" si="40"/>
-        <v>44006</v>
+        <v>43990</v>
       </c>
       <c r="W38" s="143">
         <f t="shared" si="40"/>
-        <v>44030</v>
+        <v>44010</v>
       </c>
       <c r="X38" s="143">
         <f t="shared" si="40"/>
-        <v>44054</v>
+        <v>44030</v>
       </c>
       <c r="Y38" s="143">
         <f t="shared" si="40"/>
-        <v>44078</v>
+        <v>44050</v>
       </c>
       <c r="Z38" s="143">
         <f t="shared" si="40"/>
-        <v>44102</v>
+        <v>44070</v>
       </c>
       <c r="AA38" s="143">
         <f t="shared" si="40"/>
-        <v>44126</v>
+        <v>44090</v>
       </c>
       <c r="AB38" s="143">
         <f t="shared" si="40"/>
-        <v>44150</v>
+        <v>44110</v>
       </c>
       <c r="AC38" s="143">
         <f t="shared" si="40"/>
-        <v>44174</v>
+        <v>44130</v>
       </c>
       <c r="AD38" s="143"/>
       <c r="AE38" s="143"/>
@@ -37298,47 +37346,47 @@
       </c>
       <c r="S39" s="143">
         <f t="shared" si="41"/>
-        <v>43927</v>
+        <v>43923</v>
       </c>
       <c r="T39" s="143">
         <f t="shared" si="41"/>
-        <v>43951</v>
+        <v>43943</v>
       </c>
       <c r="U39" s="143">
         <f t="shared" si="41"/>
-        <v>43975</v>
+        <v>43963</v>
       </c>
       <c r="V39" s="143">
         <f t="shared" si="41"/>
-        <v>43999</v>
+        <v>43983</v>
       </c>
       <c r="W39" s="143">
         <f t="shared" si="41"/>
-        <v>44023</v>
+        <v>44003</v>
       </c>
       <c r="X39" s="143">
         <f t="shared" si="41"/>
-        <v>44047</v>
+        <v>44023</v>
       </c>
       <c r="Y39" s="143">
         <f t="shared" si="41"/>
-        <v>44071</v>
+        <v>44043</v>
       </c>
       <c r="Z39" s="143">
         <f t="shared" si="41"/>
-        <v>44095</v>
+        <v>44063</v>
       </c>
       <c r="AA39" s="143">
         <f t="shared" si="41"/>
-        <v>44119</v>
+        <v>44083</v>
       </c>
       <c r="AB39" s="143">
         <f t="shared" si="41"/>
-        <v>44143</v>
+        <v>44103</v>
       </c>
       <c r="AC39" s="143">
         <f t="shared" si="41"/>
-        <v>44167</v>
+        <v>44123</v>
       </c>
       <c r="AD39" s="143"/>
       <c r="AE39" s="143"/>
@@ -37412,71 +37460,71 @@
       </c>
       <c r="S42" s="237">
         <f t="shared" si="42"/>
-        <v>11</v>
+        <v>10.428571428571429</v>
       </c>
       <c r="T42" s="268">
         <f t="shared" si="42"/>
-        <v>14.428571428571429</v>
+        <v>13.285714285714286</v>
       </c>
       <c r="U42" s="236">
         <f t="shared" si="42"/>
-        <v>17.857142857142858</v>
+        <v>16.142857142857142</v>
       </c>
       <c r="V42" s="234">
         <f t="shared" si="42"/>
-        <v>21.285714285714285</v>
+        <v>19</v>
       </c>
       <c r="W42" s="268">
         <f t="shared" si="42"/>
-        <v>24.714285714285715</v>
+        <v>21.857142857142858</v>
       </c>
       <c r="X42" s="235">
         <f t="shared" si="42"/>
-        <v>28.142857142857142</v>
+        <v>24.714285714285715</v>
       </c>
       <c r="Y42" s="235">
         <f t="shared" si="42"/>
-        <v>31.571428571428573</v>
+        <v>27.571428571428573</v>
       </c>
       <c r="Z42" s="234">
         <f t="shared" si="42"/>
-        <v>35</v>
+        <v>30.428571428571427</v>
       </c>
       <c r="AA42" s="268">
         <f t="shared" si="42"/>
-        <v>38.428571428571431</v>
+        <v>33.285714285714285</v>
       </c>
       <c r="AB42" s="235">
         <f t="shared" si="42"/>
-        <v>41.857142857142854</v>
+        <v>36.142857142857146</v>
       </c>
       <c r="AC42" s="236">
         <f t="shared" si="42"/>
-        <v>45.285714285714285</v>
+        <v>39</v>
       </c>
       <c r="AD42" s="268">
         <f t="shared" ref="AD42:AH42" si="43">(AD19-$B$16)/7</f>
-        <v>48.714285714285715</v>
+        <v>41.857142857142854</v>
       </c>
       <c r="AE42" s="235">
         <f t="shared" si="43"/>
-        <v>52.142857142857146</v>
+        <v>44.714285714285715</v>
       </c>
       <c r="AF42" s="141">
         <f t="shared" si="43"/>
-        <v>55.571428571428569</v>
+        <v>47.571428571428569</v>
       </c>
       <c r="AG42" s="268">
         <f t="shared" si="43"/>
-        <v>59</v>
+        <v>50.428571428571431</v>
       </c>
       <c r="AH42" s="268">
         <f t="shared" si="43"/>
-        <v>62.428571428571431</v>
+        <v>53.285714285714285</v>
       </c>
       <c r="AI42" s="268">
         <f t="shared" si="42"/>
-        <v>70.428571428571431</v>
+        <v>61.285714285714285</v>
       </c>
     </row>
     <row r="43" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -37529,71 +37577,71 @@
       </c>
       <c r="S43" s="219">
         <f t="shared" si="45"/>
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="T43" s="219">
         <f t="shared" si="45"/>
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="U43" s="219">
         <f t="shared" si="45"/>
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="V43" s="219">
         <f t="shared" si="45"/>
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="W43" s="219">
         <f t="shared" si="45"/>
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="X43" s="219">
         <f t="shared" si="45"/>
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="Y43" s="219">
         <f t="shared" si="45"/>
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="Z43" s="219">
         <f t="shared" si="45"/>
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="AA43" s="219">
         <f t="shared" si="45"/>
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="AB43" s="219">
         <f t="shared" si="45"/>
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="AC43" s="233">
         <f t="shared" si="45"/>
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="AD43" s="233">
         <f t="shared" ref="AD43:AH43" si="46">AD19-$B$16</f>
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="AE43" s="233">
         <f t="shared" si="46"/>
-        <v>365</v>
+        <v>313</v>
       </c>
       <c r="AF43" s="233">
         <f t="shared" si="46"/>
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="AG43" s="181">
         <f t="shared" si="46"/>
-        <v>413</v>
+        <v>353</v>
       </c>
       <c r="AH43" s="232">
         <f t="shared" si="46"/>
-        <v>437</v>
+        <v>373</v>
       </c>
       <c r="AI43" s="181">
         <f t="shared" si="45"/>
-        <v>493</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.25">
@@ -37635,9 +37683,8 @@
       <c r="R44" s="260">
         <v>8211</v>
       </c>
-      <c r="S44" s="261">
-        <f>S20</f>
-        <v>16000</v>
+      <c r="S44" s="260">
+        <v>16006</v>
       </c>
       <c r="T44" s="261">
         <f t="shared" ref="T44:AB44" si="47">T20</f>
@@ -37752,73 +37799,73 @@
         <f>(R19-$J$19)/(LOG(R44/$J$44)/LOG(2))</f>
         <v>5.4555673200486643</v>
       </c>
-      <c r="S45" s="174">
+      <c r="S45" s="165">
         <f t="shared" si="52"/>
-        <v>7.4911272625598277</v>
+        <v>7.0564446262708183</v>
       </c>
       <c r="T45" s="174">
         <f t="shared" si="52"/>
-        <v>9.1079169617502291</v>
+        <v>8.3244402338577377</v>
       </c>
       <c r="U45" s="174">
         <f t="shared" si="52"/>
-        <v>10.436274837767593</v>
+        <v>9.3658876749196338</v>
       </c>
       <c r="V45" s="174">
         <f t="shared" si="52"/>
-        <v>11.547063455821652</v>
+        <v>10.236758382820614</v>
       </c>
       <c r="W45" s="174">
         <f t="shared" si="52"/>
-        <v>12.489689588566526</v>
+        <v>10.97578782025543</v>
       </c>
       <c r="X45" s="174">
         <f t="shared" si="52"/>
-        <v>13.299653279641177</v>
+        <v>11.610808418734361</v>
       </c>
       <c r="Y45" s="174">
         <f t="shared" si="52"/>
-        <v>14.003119148443234</v>
+        <v>12.162333532685439</v>
       </c>
       <c r="Z45" s="174">
         <f t="shared" si="52"/>
-        <v>14.619795757127182</v>
+        <v>12.645814895405369</v>
       </c>
       <c r="AA45" s="174">
         <f t="shared" si="52"/>
-        <v>15.1648111831921</v>
+        <v>13.073113088958708</v>
       </c>
       <c r="AB45" s="174">
         <f t="shared" si="52"/>
-        <v>15.64997064141817</v>
+        <v>13.453483533850708</v>
       </c>
       <c r="AC45" s="179">
         <f t="shared" si="52"/>
-        <v>16.084621321868905</v>
+        <v>13.794254531699869</v>
       </c>
       <c r="AD45" s="179">
         <f t="shared" ref="AD45" si="53">(AD19-$J$19)/(LOG(AD44/$J$44)/LOG(2))</f>
-        <v>16.476260483817686</v>
+        <v>14.101304017681803</v>
       </c>
       <c r="AE45" s="179">
         <f t="shared" ref="AE45" si="54">(AE19-$J$19)/(LOG(AE44/$J$44)/LOG(2))</f>
-        <v>16.8309715360345</v>
+        <v>14.379401452354404</v>
       </c>
       <c r="AF45" s="179">
         <f t="shared" ref="AF45" si="55">(AF19-$J$19)/(LOG(AF44/$J$44)/LOG(2))</f>
-        <v>17.153742315358208</v>
+        <v>14.632457355620517</v>
       </c>
       <c r="AG45" s="179">
         <f t="shared" ref="AG45" si="56">(AG19-$J$19)/(LOG(AG44/$J$44)/LOG(2))</f>
-        <v>17.448701090488516</v>
+        <v>14.863708336342068</v>
       </c>
       <c r="AH45" s="179">
         <f t="shared" ref="AH45:AI45" si="57">(AH19-$J$19)/(LOG(AH44/$J$44)/LOG(2))</f>
-        <v>18.436676706596092</v>
+        <v>15.686216778339332</v>
       </c>
       <c r="AI45" s="180">
         <f t="shared" si="57"/>
-        <v>20.843329143820757</v>
+        <v>18.092869215563997</v>
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.25">
@@ -37860,7 +37907,9 @@
       <c r="R46" s="274">
         <v>6520</v>
       </c>
-      <c r="S46" s="275"/>
+      <c r="S46" s="274">
+        <v>11445</v>
+      </c>
       <c r="T46" s="275"/>
       <c r="U46" s="275"/>
       <c r="V46" s="275"/>
@@ -37923,11 +37972,12 @@
         <v>359</v>
       </c>
       <c r="R47" s="142">
-        <f t="shared" ref="R47" si="59">R44-R48-R46</f>
+        <f t="shared" ref="R47:S47" si="59">R44-R48-R46</f>
         <v>1002</v>
       </c>
-      <c r="S47" s="289">
-        <v>2698</v>
+      <c r="S47" s="142">
+        <f t="shared" si="59"/>
+        <v>3518</v>
       </c>
       <c r="T47" s="175"/>
       <c r="U47" s="175"/>
@@ -37985,8 +38035,8 @@
       <c r="R48" s="52">
         <v>689</v>
       </c>
-      <c r="S48" s="290">
-        <v>973</v>
+      <c r="S48" s="52">
+        <v>1043</v>
       </c>
       <c r="T48" s="176"/>
       <c r="U48" s="176"/>
@@ -42297,7 +42347,7 @@
   <dimension ref="B3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42343,7 +42393,7 @@
         <v>118</v>
       </c>
       <c r="C6" s="154">
-        <v>14032</v>
+        <v>16006</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -42352,7 +42402,7 @@
       </c>
       <c r="C7" s="152">
         <f ca="1">NOW()</f>
-        <v>43962.735050578704</v>
+        <v>43966.832545949073</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -42361,7 +42411,7 @@
       </c>
       <c r="C8" s="153">
         <f ca="1">C7-C5</f>
-        <v>62.735050578703522</v>
+        <v>66.832545949073392</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -42370,7 +42420,7 @@
       </c>
       <c r="C9" s="155">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>7.1203667714584471</v>
+        <v>7.4253921651048005</v>
       </c>
       <c r="D9" t="s">
         <v>96</v>
@@ -42403,7 +42453,7 @@
       </c>
       <c r="C12" s="160">
         <f>C6/Projections!B8</f>
-        <v>250571.42857142858</v>
+        <v>285821.42857142858</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -42412,7 +42462,7 @@
       </c>
       <c r="C13" s="161">
         <f ca="1">(C4/Projections!B8)*(2^(((C7-21)-C5)/C9))</f>
-        <v>32442.02197273045</v>
+        <v>40247.766413127691</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -42421,7 +42471,7 @@
       </c>
       <c r="C14" s="144">
         <f ca="1">C12-C13</f>
-        <v>218129.40659869811</v>
+        <v>245573.6621583009</v>
       </c>
       <c r="E14" s="157"/>
       <c r="F14" s="158" t="s">
@@ -42435,7 +42485,7 @@
       </c>
       <c r="C15" s="64">
         <f>C6*Projections!B12</f>
-        <v>11365.92</v>
+        <v>12964.86</v>
       </c>
       <c r="I15" s="151"/>
     </row>
@@ -42445,7 +42495,7 @@
       </c>
       <c r="C16" s="80">
         <f ca="1">(C4*Projections!B12)*(2^(((C7-21)-C5)/C9))</f>
-        <v>1471.5701166830534</v>
+        <v>1825.6386844994722</v>
       </c>
       <c r="I16" s="151"/>
     </row>
@@ -42455,7 +42505,7 @@
       </c>
       <c r="C17" s="80">
         <f ca="1">C15-C16</f>
-        <v>9894.3498833169469</v>
+        <v>11139.221315500528</v>
       </c>
       <c r="F17" t="s">
         <v>142</v>
@@ -42468,7 +42518,7 @@
       </c>
       <c r="C18" s="64">
         <f>C6*Projections!B13</f>
-        <v>1964.4800000000002</v>
+        <v>2240.84</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -42477,7 +42527,7 @@
       </c>
       <c r="C19" s="80">
         <f ca="1">(C4*Projections!B13)*(2^(((C7-49)-C5)/C9))</f>
-        <v>16.659391342497415</v>
+        <v>23.116416502721293</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -42486,7 +42536,7 @@
       </c>
       <c r="C20" s="80">
         <f ca="1">C18-C19</f>
-        <v>1947.8206086575028</v>
+        <v>2217.7235834972789</v>
       </c>
       <c r="F20" t="s">
         <v>147</v>
@@ -42498,7 +42548,7 @@
       </c>
       <c r="C21" s="64">
         <f>C6*Projections!B14</f>
-        <v>701.6</v>
+        <v>800.30000000000007</v>
       </c>
       <c r="I21" s="151"/>
     </row>
@@ -42508,7 +42558,7 @@
       </c>
       <c r="C22" s="80">
         <f ca="1">(C4*Projections!B14)*(2^(((C7-49)-C5)/C9))</f>
-        <v>5.9497826223205053</v>
+        <v>8.2558630366861756</v>
       </c>
       <c r="I22" s="151"/>
     </row>
@@ -42518,7 +42568,7 @@
       </c>
       <c r="C23" s="80">
         <f ca="1">C21-C22</f>
-        <v>695.6502173776795</v>
+        <v>792.04413696331392</v>
       </c>
       <c r="I23" s="151"/>
     </row>
@@ -42528,7 +42578,7 @@
       </c>
       <c r="C24" s="64">
         <f>C6*Projections!B15</f>
-        <v>1206.752</v>
+        <v>1040.3900000000001</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -42537,7 +42587,7 @@
       </c>
       <c r="C25" s="61">
         <f ca="1">(C4*Projections!B15)*(2^(((C7-42)-C5)/C9))</f>
-        <v>20.228829663433693</v>
+        <v>20.629569525298106</v>
       </c>
       <c r="F25" t="s">
         <v>153</v>
@@ -42549,7 +42599,7 @@
       </c>
       <c r="C26" s="164">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>56.012139662621721</v>
+        <v>57.001588491945043</v>
       </c>
       <c r="D26" t="s">
         <v>96</v>
@@ -42564,7 +42614,7 @@
       </c>
       <c r="C27" s="163">
         <f ca="1">C7+C26</f>
-        <v>44018.747190241324</v>
+        <v>44023.834134441022</v>
       </c>
       <c r="F27" t="s">
         <v>155</v>
@@ -42576,7 +42626,7 @@
       </c>
       <c r="C28" s="162">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>24.156108691428013</v>
+        <v>23.780894898883542</v>
       </c>
       <c r="D28" t="s">
         <v>96</v>
@@ -42588,7 +42638,7 @@
       </c>
       <c r="C29" s="163">
         <f ca="1">C7+C28</f>
-        <v>43986.891159270133</v>
+        <v>43990.613440847956</v>
       </c>
       <c r="F29" t="s">
         <v>155</v>
@@ -42600,7 +42650,7 @@
       </c>
       <c r="C30" s="162">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>66.588923484237668</v>
+        <v>68.031465216251434</v>
       </c>
       <c r="D30" t="s">
         <v>96</v>
@@ -42612,7 +42662,7 @@
       </c>
       <c r="C31" s="163">
         <f ca="1">C7+C30</f>
-        <v>44029.323974062943</v>
+        <v>44034.864011165322</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -42621,7 +42671,7 @@
       </c>
       <c r="C34" s="152">
         <f ca="1">C7+30</f>
-        <v>43992.735050578704</v>
+        <v>43996.832545949073</v>
       </c>
       <c r="F34" t="s">
         <v>168</v>
@@ -42633,7 +42683,7 @@
       </c>
       <c r="C35" s="80">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>260278.95503684389</v>
+        <v>263330.63505134551</v>
       </c>
       <c r="F35" t="s">
         <v>140</v>
@@ -42645,7 +42695,7 @@
       </c>
       <c r="C36" s="80">
         <f ca="1">C35/Projections!B8</f>
-        <v>4647838.4828007836</v>
+        <v>4702332.768774027</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -42654,7 +42704,7 @@
       </c>
       <c r="C37" s="80">
         <f ca="1">C35*Projections!B12</f>
-        <v>210825.95357984357</v>
+        <v>213297.81439158987</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -42663,7 +42713,7 @@
       </c>
       <c r="C38" s="80">
         <f ca="1">C35*Projections!B13</f>
-        <v>36439.053705158149</v>
+        <v>36866.288907188376</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -42672,7 +42722,7 @@
       </c>
       <c r="C39" s="80">
         <f ca="1">C35*Projections!B14</f>
-        <v>13013.947751842195</v>
+        <v>13166.531752567276</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -42681,7 +42731,7 @@
       </c>
       <c r="C40" s="61">
         <f ca="1">C35*Projections!B15</f>
-        <v>22383.990133168572</v>
+        <v>17116.49127833746</v>
       </c>
     </row>
   </sheetData>

--- a/Indonesian COVID-19 Infection Projections.xlsx
+++ b/Indonesian COVID-19 Infection Projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F5F013-F841-45A3-BD48-E3909893272F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A05506-BDCB-41F9-80F9-04323324B7B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
+    <workbookView xWindow="225" yWindow="0" windowWidth="37605" windowHeight="21000" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -1084,7 +1084,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1411,6 +1411,15 @@
     <xf numFmtId="171" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="18" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1435,13 +1444,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="18" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Heading" xfId="3" xr:uid="{DB9EF5E1-A693-41C3-82C7-CA90563DBB00}"/>
@@ -1764,46 +1766,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.832545949073</c:v>
+                  <c:v>43931.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.832545949073</c:v>
+                  <c:v>43934.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.832545949073</c:v>
+                  <c:v>43937.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.832545949073</c:v>
+                  <c:v>43940.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.832545949073</c:v>
+                  <c:v>43943.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.832545949073</c:v>
+                  <c:v>43946.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.832545949073</c:v>
+                  <c:v>43949.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.832545949073</c:v>
+                  <c:v>43952.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.832545949073</c:v>
+                  <c:v>43955.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.832545949073</c:v>
+                  <c:v>43958.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.832545949073</c:v>
+                  <c:v>43961.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.832545949073</c:v>
+                  <c:v>43964.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.832545949073</c:v>
+                  <c:v>43967.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.832545949073</c:v>
+                  <c:v>43970.498406018516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1913,46 +1915,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.832545949073</c:v>
+                  <c:v>43931.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.832545949073</c:v>
+                  <c:v>43934.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.832545949073</c:v>
+                  <c:v>43937.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.832545949073</c:v>
+                  <c:v>43940.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.832545949073</c:v>
+                  <c:v>43943.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.832545949073</c:v>
+                  <c:v>43946.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.832545949073</c:v>
+                  <c:v>43949.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.832545949073</c:v>
+                  <c:v>43952.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.832545949073</c:v>
+                  <c:v>43955.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.832545949073</c:v>
+                  <c:v>43958.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.832545949073</c:v>
+                  <c:v>43961.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.832545949073</c:v>
+                  <c:v>43964.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.832545949073</c:v>
+                  <c:v>43967.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.832545949073</c:v>
+                  <c:v>43970.498406018516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2062,46 +2064,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.832545949073</c:v>
+                  <c:v>43931.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.832545949073</c:v>
+                  <c:v>43934.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.832545949073</c:v>
+                  <c:v>43937.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.832545949073</c:v>
+                  <c:v>43940.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.832545949073</c:v>
+                  <c:v>43943.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.832545949073</c:v>
+                  <c:v>43946.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.832545949073</c:v>
+                  <c:v>43949.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.832545949073</c:v>
+                  <c:v>43952.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.832545949073</c:v>
+                  <c:v>43955.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.832545949073</c:v>
+                  <c:v>43958.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.832545949073</c:v>
+                  <c:v>43961.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.832545949073</c:v>
+                  <c:v>43964.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.832545949073</c:v>
+                  <c:v>43967.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.832545949073</c:v>
+                  <c:v>43970.498406018516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3229,6 +3231,9 @@
                 </c:pt>
                 <c:pt idx="9" formatCode="#,##0">
                   <c:v>1043</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>1221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11848,6 +11853,9 @@
                 <c:pt idx="9" formatCode="#,##0">
                   <c:v>1043</c:v>
                 </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>1221</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12175,46 +12183,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.832545949073</c:v>
+                  <c:v>43931.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.832545949073</c:v>
+                  <c:v>43934.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.832545949073</c:v>
+                  <c:v>43937.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.832545949073</c:v>
+                  <c:v>43940.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.832545949073</c:v>
+                  <c:v>43943.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.832545949073</c:v>
+                  <c:v>43946.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.832545949073</c:v>
+                  <c:v>43949.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.832545949073</c:v>
+                  <c:v>43952.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.832545949073</c:v>
+                  <c:v>43955.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.832545949073</c:v>
+                  <c:v>43958.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.832545949073</c:v>
+                  <c:v>43961.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.832545949073</c:v>
+                  <c:v>43964.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.832545949073</c:v>
+                  <c:v>43967.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.832545949073</c:v>
+                  <c:v>43970.498406018516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12315,46 +12323,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.832545949073</c:v>
+                  <c:v>43931.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.832545949073</c:v>
+                  <c:v>43934.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.832545949073</c:v>
+                  <c:v>43937.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.832545949073</c:v>
+                  <c:v>43940.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.832545949073</c:v>
+                  <c:v>43943.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.832545949073</c:v>
+                  <c:v>43946.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.832545949073</c:v>
+                  <c:v>43949.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.832545949073</c:v>
+                  <c:v>43952.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.832545949073</c:v>
+                  <c:v>43955.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.832545949073</c:v>
+                  <c:v>43958.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.832545949073</c:v>
+                  <c:v>43961.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.832545949073</c:v>
+                  <c:v>43964.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.832545949073</c:v>
+                  <c:v>43967.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.832545949073</c:v>
+                  <c:v>43970.498406018516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12458,46 +12466,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.832545949073</c:v>
+                  <c:v>43931.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.832545949073</c:v>
+                  <c:v>43934.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.832545949073</c:v>
+                  <c:v>43937.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.832545949073</c:v>
+                  <c:v>43940.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.832545949073</c:v>
+                  <c:v>43943.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.832545949073</c:v>
+                  <c:v>43946.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.832545949073</c:v>
+                  <c:v>43949.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.832545949073</c:v>
+                  <c:v>43952.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.832545949073</c:v>
+                  <c:v>43955.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.832545949073</c:v>
+                  <c:v>43958.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.832545949073</c:v>
+                  <c:v>43961.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.832545949073</c:v>
+                  <c:v>43964.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.832545949073</c:v>
+                  <c:v>43967.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.832545949073</c:v>
+                  <c:v>43970.498406018516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12595,46 +12603,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.832545949073</c:v>
+                  <c:v>43931.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.832545949073</c:v>
+                  <c:v>43934.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.832545949073</c:v>
+                  <c:v>43937.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.832545949073</c:v>
+                  <c:v>43940.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.832545949073</c:v>
+                  <c:v>43943.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.832545949073</c:v>
+                  <c:v>43946.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.832545949073</c:v>
+                  <c:v>43949.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.832545949073</c:v>
+                  <c:v>43952.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.832545949073</c:v>
+                  <c:v>43955.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.832545949073</c:v>
+                  <c:v>43958.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.832545949073</c:v>
+                  <c:v>43961.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.832545949073</c:v>
+                  <c:v>43964.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.832545949073</c:v>
+                  <c:v>43967.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.832545949073</c:v>
+                  <c:v>43970.498406018516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13002,46 +13010,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.832545949073</c:v>
+                  <c:v>43931.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.832545949073</c:v>
+                  <c:v>43934.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.832545949073</c:v>
+                  <c:v>43937.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.832545949073</c:v>
+                  <c:v>43940.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.832545949073</c:v>
+                  <c:v>43943.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.832545949073</c:v>
+                  <c:v>43946.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.832545949073</c:v>
+                  <c:v>43949.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.832545949073</c:v>
+                  <c:v>43952.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.832545949073</c:v>
+                  <c:v>43955.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.832545949073</c:v>
+                  <c:v>43958.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.832545949073</c:v>
+                  <c:v>43961.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.832545949073</c:v>
+                  <c:v>43964.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.832545949073</c:v>
+                  <c:v>43967.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.832545949073</c:v>
+                  <c:v>43970.498406018516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13151,46 +13159,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.832545949073</c:v>
+                  <c:v>43931.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.832545949073</c:v>
+                  <c:v>43934.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.832545949073</c:v>
+                  <c:v>43937.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.832545949073</c:v>
+                  <c:v>43940.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.832545949073</c:v>
+                  <c:v>43943.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.832545949073</c:v>
+                  <c:v>43946.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.832545949073</c:v>
+                  <c:v>43949.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.832545949073</c:v>
+                  <c:v>43952.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.832545949073</c:v>
+                  <c:v>43955.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.832545949073</c:v>
+                  <c:v>43958.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.832545949073</c:v>
+                  <c:v>43961.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.832545949073</c:v>
+                  <c:v>43964.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.832545949073</c:v>
+                  <c:v>43967.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.832545949073</c:v>
+                  <c:v>43970.498406018516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13300,46 +13308,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.832545949073</c:v>
+                  <c:v>43931.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.832545949073</c:v>
+                  <c:v>43934.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.832545949073</c:v>
+                  <c:v>43937.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.832545949073</c:v>
+                  <c:v>43940.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.832545949073</c:v>
+                  <c:v>43943.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.832545949073</c:v>
+                  <c:v>43946.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.832545949073</c:v>
+                  <c:v>43949.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.832545949073</c:v>
+                  <c:v>43952.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.832545949073</c:v>
+                  <c:v>43955.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.832545949073</c:v>
+                  <c:v>43958.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.832545949073</c:v>
+                  <c:v>43961.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.832545949073</c:v>
+                  <c:v>43964.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.832545949073</c:v>
+                  <c:v>43967.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.832545949073</c:v>
+                  <c:v>43970.498406018516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13717,46 +13725,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.832545949073</c:v>
+                  <c:v>43931.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.832545949073</c:v>
+                  <c:v>43934.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.832545949073</c:v>
+                  <c:v>43937.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.832545949073</c:v>
+                  <c:v>43940.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.832545949073</c:v>
+                  <c:v>43943.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.832545949073</c:v>
+                  <c:v>43946.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.832545949073</c:v>
+                  <c:v>43949.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.832545949073</c:v>
+                  <c:v>43952.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.832545949073</c:v>
+                  <c:v>43955.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.832545949073</c:v>
+                  <c:v>43958.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.832545949073</c:v>
+                  <c:v>43961.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.832545949073</c:v>
+                  <c:v>43964.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.832545949073</c:v>
+                  <c:v>43967.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.832545949073</c:v>
+                  <c:v>43970.498406018516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13857,46 +13865,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.832545949073</c:v>
+                  <c:v>43931.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.832545949073</c:v>
+                  <c:v>43934.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.832545949073</c:v>
+                  <c:v>43937.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.832545949073</c:v>
+                  <c:v>43940.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.832545949073</c:v>
+                  <c:v>43943.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.832545949073</c:v>
+                  <c:v>43946.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.832545949073</c:v>
+                  <c:v>43949.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.832545949073</c:v>
+                  <c:v>43952.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.832545949073</c:v>
+                  <c:v>43955.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.832545949073</c:v>
+                  <c:v>43958.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.832545949073</c:v>
+                  <c:v>43961.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.832545949073</c:v>
+                  <c:v>43964.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.832545949073</c:v>
+                  <c:v>43967.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.832545949073</c:v>
+                  <c:v>43970.498406018516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14000,46 +14008,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.832545949073</c:v>
+                  <c:v>43931.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.832545949073</c:v>
+                  <c:v>43934.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.832545949073</c:v>
+                  <c:v>43937.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.832545949073</c:v>
+                  <c:v>43940.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.832545949073</c:v>
+                  <c:v>43943.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.832545949073</c:v>
+                  <c:v>43946.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.832545949073</c:v>
+                  <c:v>43949.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.832545949073</c:v>
+                  <c:v>43952.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.832545949073</c:v>
+                  <c:v>43955.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.832545949073</c:v>
+                  <c:v>43958.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.832545949073</c:v>
+                  <c:v>43961.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.832545949073</c:v>
+                  <c:v>43964.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.832545949073</c:v>
+                  <c:v>43967.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.832545949073</c:v>
+                  <c:v>43970.498406018516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14137,46 +14145,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43926.832545949073</c:v>
+                  <c:v>43931.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929.832545949073</c:v>
+                  <c:v>43934.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43932.832545949073</c:v>
+                  <c:v>43937.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43935.832545949073</c:v>
+                  <c:v>43940.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43938.832545949073</c:v>
+                  <c:v>43943.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43941.832545949073</c:v>
+                  <c:v>43946.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43944.832545949073</c:v>
+                  <c:v>43949.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43947.832545949073</c:v>
+                  <c:v>43952.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43950.832545949073</c:v>
+                  <c:v>43955.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43953.832545949073</c:v>
+                  <c:v>43958.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43956.832545949073</c:v>
+                  <c:v>43961.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43959.832545949073</c:v>
+                  <c:v>43964.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43962.832545949073</c:v>
+                  <c:v>43967.498406018516</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43965.832545949073</c:v>
+                  <c:v>43970.498406018516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -33716,167 +33724,167 @@
       </c>
       <c r="B26" s="86">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>43926.832545949073</v>
+        <v>43931.498406018516</v>
       </c>
       <c r="C26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43927.832545949073</v>
+        <v>43932.498406018516</v>
       </c>
       <c r="D26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43928.832545949073</v>
+        <v>43933.498406018516</v>
       </c>
       <c r="E26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43929.832545949073</v>
+        <v>43934.498406018516</v>
       </c>
       <c r="F26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43930.832545949073</v>
+        <v>43935.498406018516</v>
       </c>
       <c r="G26" s="88">
         <f t="shared" ca="1" si="0"/>
-        <v>43931.832545949073</v>
+        <v>43936.498406018516</v>
       </c>
       <c r="H26" s="87">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>43932.832545949073</v>
+        <v>43937.498406018516</v>
       </c>
       <c r="I26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43933.832545949073</v>
+        <v>43938.498406018516</v>
       </c>
       <c r="J26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43934.832545949073</v>
+        <v>43939.498406018516</v>
       </c>
       <c r="K26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43935.832545949073</v>
+        <v>43940.498406018516</v>
       </c>
       <c r="L26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43936.832545949073</v>
+        <v>43941.498406018516</v>
       </c>
       <c r="M26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43937.832545949073</v>
+        <v>43942.498406018516</v>
       </c>
       <c r="N26" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>43938.832545949073</v>
+        <v>43943.498406018516</v>
       </c>
       <c r="O26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43939.832545949073</v>
+        <v>43944.498406018516</v>
       </c>
       <c r="P26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43940.832545949073</v>
+        <v>43945.498406018516</v>
       </c>
       <c r="Q26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43941.832545949073</v>
+        <v>43946.498406018516</v>
       </c>
       <c r="R26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43942.832545949073</v>
+        <v>43947.498406018516</v>
       </c>
       <c r="S26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43943.832545949073</v>
+        <v>43948.498406018516</v>
       </c>
       <c r="T26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43944.832545949073</v>
+        <v>43949.498406018516</v>
       </c>
       <c r="U26" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>43945.832545949073</v>
+        <v>43950.498406018516</v>
       </c>
       <c r="V26" s="86">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>43946.832545949073</v>
+        <v>43951.498406018516</v>
       </c>
       <c r="W26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43947.832545949073</v>
+        <v>43952.498406018516</v>
       </c>
       <c r="X26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43948.832545949073</v>
+        <v>43953.498406018516</v>
       </c>
       <c r="Y26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43949.832545949073</v>
+        <v>43954.498406018516</v>
       </c>
       <c r="Z26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43950.832545949073</v>
+        <v>43955.498406018516</v>
       </c>
       <c r="AA26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43951.832545949073</v>
+        <v>43956.498406018516</v>
       </c>
       <c r="AB26" s="88">
         <f t="shared" ca="1" si="2"/>
-        <v>43952.832545949073</v>
+        <v>43957.498406018516</v>
       </c>
       <c r="AC26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43953.832545949073</v>
+        <v>43958.498406018516</v>
       </c>
       <c r="AD26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43954.832545949073</v>
+        <v>43959.498406018516</v>
       </c>
       <c r="AE26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43955.832545949073</v>
+        <v>43960.498406018516</v>
       </c>
       <c r="AF26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43956.832545949073</v>
+        <v>43961.498406018516</v>
       </c>
       <c r="AG26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43957.832545949073</v>
+        <v>43962.498406018516</v>
       </c>
       <c r="AH26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43958.832545949073</v>
+        <v>43963.498406018516</v>
       </c>
       <c r="AI26" s="88">
         <f t="shared" ca="1" si="2"/>
-        <v>43959.832545949073</v>
+        <v>43964.498406018516</v>
       </c>
       <c r="AJ26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43960.832545949073</v>
+        <v>43965.498406018516</v>
       </c>
       <c r="AK26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43961.832545949073</v>
+        <v>43966.498406018516</v>
       </c>
       <c r="AL26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43962.832545949073</v>
+        <v>43967.498406018516</v>
       </c>
       <c r="AM26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43963.832545949073</v>
+        <v>43968.498406018516</v>
       </c>
       <c r="AN26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43964.832545949073</v>
+        <v>43969.498406018516</v>
       </c>
       <c r="AO26" s="87">
         <f ca="1">AP26-1</f>
-        <v>43965.832545949073</v>
+        <v>43970.498406018516</v>
       </c>
       <c r="AP26" s="108">
         <f ca="1">NOW()</f>
-        <v>43966.832545949073</v>
+        <v>43971.498406018516</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -34011,59 +34019,59 @@
       <c r="A28" s="132" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="284" t="s">
+      <c r="B28" s="293" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="285"/>
-      <c r="D28" s="285"/>
-      <c r="E28" s="285"/>
-      <c r="F28" s="285"/>
-      <c r="G28" s="286"/>
-      <c r="H28" s="290" t="s">
+      <c r="C28" s="294"/>
+      <c r="D28" s="294"/>
+      <c r="E28" s="294"/>
+      <c r="F28" s="294"/>
+      <c r="G28" s="295"/>
+      <c r="H28" s="299" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="290"/>
-      <c r="J28" s="290"/>
-      <c r="K28" s="290"/>
-      <c r="L28" s="290"/>
-      <c r="M28" s="290"/>
-      <c r="N28" s="291"/>
-      <c r="O28" s="289" t="s">
+      <c r="I28" s="299"/>
+      <c r="J28" s="299"/>
+      <c r="K28" s="299"/>
+      <c r="L28" s="299"/>
+      <c r="M28" s="299"/>
+      <c r="N28" s="300"/>
+      <c r="O28" s="298" t="s">
         <v>56</v>
       </c>
-      <c r="P28" s="290"/>
-      <c r="Q28" s="290"/>
-      <c r="R28" s="290"/>
-      <c r="S28" s="290"/>
-      <c r="T28" s="290"/>
-      <c r="U28" s="291"/>
-      <c r="V28" s="289" t="s">
+      <c r="P28" s="299"/>
+      <c r="Q28" s="299"/>
+      <c r="R28" s="299"/>
+      <c r="S28" s="299"/>
+      <c r="T28" s="299"/>
+      <c r="U28" s="300"/>
+      <c r="V28" s="298" t="s">
         <v>57</v>
       </c>
-      <c r="W28" s="290"/>
-      <c r="X28" s="290"/>
-      <c r="Y28" s="290"/>
-      <c r="Z28" s="290"/>
-      <c r="AA28" s="290"/>
-      <c r="AB28" s="291"/>
-      <c r="AC28" s="289" t="s">
+      <c r="W28" s="299"/>
+      <c r="X28" s="299"/>
+      <c r="Y28" s="299"/>
+      <c r="Z28" s="299"/>
+      <c r="AA28" s="299"/>
+      <c r="AB28" s="300"/>
+      <c r="AC28" s="298" t="s">
         <v>58</v>
       </c>
-      <c r="AD28" s="290"/>
-      <c r="AE28" s="290"/>
-      <c r="AF28" s="290"/>
-      <c r="AG28" s="290"/>
-      <c r="AH28" s="290"/>
-      <c r="AI28" s="291"/>
-      <c r="AJ28" s="289" t="s">
+      <c r="AD28" s="299"/>
+      <c r="AE28" s="299"/>
+      <c r="AF28" s="299"/>
+      <c r="AG28" s="299"/>
+      <c r="AH28" s="299"/>
+      <c r="AI28" s="300"/>
+      <c r="AJ28" s="298" t="s">
         <v>59</v>
       </c>
-      <c r="AK28" s="290"/>
-      <c r="AL28" s="290"/>
-      <c r="AM28" s="290"/>
-      <c r="AN28" s="290"/>
-      <c r="AO28" s="290"/>
-      <c r="AP28" s="291"/>
+      <c r="AK28" s="299"/>
+      <c r="AL28" s="299"/>
+      <c r="AM28" s="299"/>
+      <c r="AN28" s="299"/>
+      <c r="AO28" s="299"/>
+      <c r="AP28" s="300"/>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B29" s="51" t="s">
@@ -34074,43 +34082,43 @@
       <c r="E29" s="93"/>
       <c r="F29" s="93"/>
       <c r="G29" s="94"/>
-      <c r="H29" s="287" t="s">
+      <c r="H29" s="296" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="287"/>
-      <c r="J29" s="287"/>
-      <c r="K29" s="287"/>
-      <c r="L29" s="287"/>
-      <c r="M29" s="287"/>
-      <c r="N29" s="287"/>
-      <c r="O29" s="287"/>
-      <c r="P29" s="287"/>
-      <c r="Q29" s="287"/>
-      <c r="R29" s="287"/>
-      <c r="S29" s="287"/>
-      <c r="T29" s="287"/>
-      <c r="U29" s="287"/>
-      <c r="V29" s="287"/>
-      <c r="W29" s="287"/>
-      <c r="X29" s="287"/>
-      <c r="Y29" s="287"/>
-      <c r="Z29" s="287"/>
-      <c r="AA29" s="287"/>
-      <c r="AB29" s="287"/>
-      <c r="AC29" s="287"/>
-      <c r="AD29" s="287"/>
-      <c r="AE29" s="287"/>
-      <c r="AF29" s="287"/>
-      <c r="AG29" s="287"/>
-      <c r="AH29" s="287"/>
-      <c r="AI29" s="287"/>
-      <c r="AJ29" s="287"/>
-      <c r="AK29" s="287"/>
-      <c r="AL29" s="287"/>
-      <c r="AM29" s="287"/>
-      <c r="AN29" s="287"/>
-      <c r="AO29" s="287"/>
-      <c r="AP29" s="288"/>
+      <c r="I29" s="296"/>
+      <c r="J29" s="296"/>
+      <c r="K29" s="296"/>
+      <c r="L29" s="296"/>
+      <c r="M29" s="296"/>
+      <c r="N29" s="296"/>
+      <c r="O29" s="296"/>
+      <c r="P29" s="296"/>
+      <c r="Q29" s="296"/>
+      <c r="R29" s="296"/>
+      <c r="S29" s="296"/>
+      <c r="T29" s="296"/>
+      <c r="U29" s="296"/>
+      <c r="V29" s="296"/>
+      <c r="W29" s="296"/>
+      <c r="X29" s="296"/>
+      <c r="Y29" s="296"/>
+      <c r="Z29" s="296"/>
+      <c r="AA29" s="296"/>
+      <c r="AB29" s="296"/>
+      <c r="AC29" s="296"/>
+      <c r="AD29" s="296"/>
+      <c r="AE29" s="296"/>
+      <c r="AF29" s="296"/>
+      <c r="AG29" s="296"/>
+      <c r="AH29" s="296"/>
+      <c r="AI29" s="296"/>
+      <c r="AJ29" s="296"/>
+      <c r="AK29" s="296"/>
+      <c r="AL29" s="296"/>
+      <c r="AM29" s="296"/>
+      <c r="AN29" s="296"/>
+      <c r="AO29" s="296"/>
+      <c r="AP29" s="297"/>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B31" s="57" t="s">
@@ -34395,7 +34403,7 @@
   <dimension ref="A1:AL95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34967,7 +34975,7 @@
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="296">
+      <c r="B19" s="288">
         <v>3</v>
       </c>
       <c r="C19" s="262">
@@ -34985,42 +34993,42 @@
       <c r="G19" s="209"/>
       <c r="H19" s="209"/>
       <c r="I19" s="209"/>
-      <c r="J19" s="297">
+      <c r="J19" s="289">
         <v>43900</v>
       </c>
-      <c r="K19" s="298">
+      <c r="K19" s="290">
         <f t="shared" ref="K19:AG19" si="0">J19+HLOOKUP(J19+1, $B$18:$I$19,2,TRUE)</f>
         <v>43903</v>
       </c>
-      <c r="L19" s="298">
+      <c r="L19" s="290">
         <f t="shared" si="0"/>
         <v>43906</v>
       </c>
-      <c r="M19" s="298">
+      <c r="M19" s="290">
         <f t="shared" si="0"/>
         <v>43909</v>
       </c>
-      <c r="N19" s="292">
+      <c r="N19" s="284">
         <f t="shared" si="0"/>
         <v>43912</v>
       </c>
-      <c r="O19" s="293">
+      <c r="O19" s="285">
         <f t="shared" si="0"/>
         <v>43917</v>
       </c>
-      <c r="P19" s="293">
+      <c r="P19" s="285">
         <f t="shared" si="0"/>
         <v>43925</v>
       </c>
-      <c r="Q19" s="293">
+      <c r="Q19" s="285">
         <f t="shared" si="0"/>
         <v>43933</v>
       </c>
-      <c r="R19" s="294">
+      <c r="R19" s="286">
         <f t="shared" si="0"/>
         <v>43945</v>
       </c>
-      <c r="S19" s="295">
+      <c r="S19" s="287">
         <f>R19+HLOOKUP(R19+1, $B$18:$I$19,2,TRUE)</f>
         <v>43965</v>
       </c>
@@ -37979,7 +37987,9 @@
         <f t="shared" si="59"/>
         <v>3518</v>
       </c>
-      <c r="T47" s="175"/>
+      <c r="T47" s="291">
+        <v>4467</v>
+      </c>
       <c r="U47" s="175"/>
       <c r="V47" s="175"/>
       <c r="W47" s="175"/>
@@ -38038,7 +38048,9 @@
       <c r="S48" s="52">
         <v>1043</v>
       </c>
-      <c r="T48" s="176"/>
+      <c r="T48" s="292">
+        <v>1221</v>
+      </c>
       <c r="U48" s="176"/>
       <c r="V48" s="176"/>
       <c r="W48" s="176"/>
@@ -42347,7 +42359,7 @@
   <dimension ref="B3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42393,7 +42405,7 @@
         <v>118</v>
       </c>
       <c r="C6" s="154">
-        <v>16006</v>
+        <v>18496</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -42402,7 +42414,7 @@
       </c>
       <c r="C7" s="152">
         <f ca="1">NOW()</f>
-        <v>43966.832545949073</v>
+        <v>43971.498406018516</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -42411,7 +42423,7 @@
       </c>
       <c r="C8" s="153">
         <f ca="1">C7-C5</f>
-        <v>66.832545949073392</v>
+        <v>71.498406018516107</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -42420,7 +42432,7 @@
       </c>
       <c r="C9" s="155">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>7.4253921651048005</v>
+        <v>7.763851474285862</v>
       </c>
       <c r="D9" t="s">
         <v>96</v>
@@ -42453,7 +42465,7 @@
       </c>
       <c r="C12" s="160">
         <f>C6/Projections!B8</f>
-        <v>285821.42857142858</v>
+        <v>330285.71428571426</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -42462,7 +42474,7 @@
       </c>
       <c r="C13" s="161">
         <f ca="1">(C4/Projections!B8)*(2^(((C7-21)-C5)/C9))</f>
-        <v>40247.766413127691</v>
+        <v>50658.332074566184</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -42471,7 +42483,7 @@
       </c>
       <c r="C14" s="144">
         <f ca="1">C12-C13</f>
-        <v>245573.6621583009</v>
+        <v>279627.3822111481</v>
       </c>
       <c r="E14" s="157"/>
       <c r="F14" s="158" t="s">
@@ -42485,7 +42497,7 @@
       </c>
       <c r="C15" s="64">
         <f>C6*Projections!B12</f>
-        <v>12964.86</v>
+        <v>14981.76</v>
       </c>
       <c r="I15" s="151"/>
     </row>
@@ -42495,7 +42507,7 @@
       </c>
       <c r="C16" s="80">
         <f ca="1">(C4*Projections!B12)*(2^(((C7-21)-C5)/C9))</f>
-        <v>1825.6386844994722</v>
+        <v>2297.8619429023224</v>
       </c>
       <c r="I16" s="151"/>
     </row>
@@ -42505,7 +42517,7 @@
       </c>
       <c r="C17" s="80">
         <f ca="1">C15-C16</f>
-        <v>11139.221315500528</v>
+        <v>12683.898057097678</v>
       </c>
       <c r="F17" t="s">
         <v>142</v>
@@ -42518,7 +42530,7 @@
       </c>
       <c r="C18" s="64">
         <f>C6*Projections!B13</f>
-        <v>2240.84</v>
+        <v>2589.44</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -42527,7 +42539,7 @@
       </c>
       <c r="C19" s="80">
         <f ca="1">(C4*Projections!B13)*(2^(((C7-49)-C5)/C9))</f>
-        <v>23.116416502721293</v>
+        <v>32.607317954811016</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -42536,7 +42548,7 @@
       </c>
       <c r="C20" s="80">
         <f ca="1">C18-C19</f>
-        <v>2217.7235834972789</v>
+        <v>2556.8326820451889</v>
       </c>
       <c r="F20" t="s">
         <v>147</v>
@@ -42548,7 +42560,7 @@
       </c>
       <c r="C21" s="64">
         <f>C6*Projections!B14</f>
-        <v>800.30000000000007</v>
+        <v>924.80000000000007</v>
       </c>
       <c r="I21" s="151"/>
     </row>
@@ -42558,7 +42570,7 @@
       </c>
       <c r="C22" s="80">
         <f ca="1">(C4*Projections!B14)*(2^(((C7-49)-C5)/C9))</f>
-        <v>8.2558630366861756</v>
+        <v>11.645470698146793</v>
       </c>
       <c r="I22" s="151"/>
     </row>
@@ -42568,7 +42580,7 @@
       </c>
       <c r="C23" s="80">
         <f ca="1">C21-C22</f>
-        <v>792.04413696331392</v>
+        <v>913.15452930185324</v>
       </c>
       <c r="I23" s="151"/>
     </row>
@@ -42578,7 +42590,7 @@
       </c>
       <c r="C24" s="64">
         <f>C6*Projections!B15</f>
-        <v>1040.3900000000001</v>
+        <v>1202.24</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -42587,7 +42599,7 @@
       </c>
       <c r="C25" s="61">
         <f ca="1">(C4*Projections!B15)*(2^(((C7-42)-C5)/C9))</f>
-        <v>20.629569525298106</v>
+        <v>28.28221158587483</v>
       </c>
       <c r="F25" t="s">
         <v>153</v>
@@ -42599,7 +42611,7 @@
       </c>
       <c r="C26" s="164">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>57.001588491945043</v>
+        <v>57.980253945734439</v>
       </c>
       <c r="D26" t="s">
         <v>96</v>
@@ -42614,7 +42626,7 @@
       </c>
       <c r="C27" s="163">
         <f ca="1">C7+C26</f>
-        <v>44023.834134441022</v>
+        <v>44029.478659964254</v>
       </c>
       <c r="F27" t="s">
         <v>155</v>
@@ -42626,7 +42638,7 @@
       </c>
       <c r="C28" s="162">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>23.780894898883542</v>
+        <v>23.245316693346339</v>
       </c>
       <c r="D28" t="s">
         <v>96</v>
@@ -42638,7 +42650,7 @@
       </c>
       <c r="C29" s="163">
         <f ca="1">C7+C28</f>
-        <v>43990.613440847956</v>
+        <v>43994.743722711864</v>
       </c>
       <c r="F29" t="s">
         <v>155</v>
@@ -42650,7 +42662,7 @@
       </c>
       <c r="C30" s="162">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>68.031465216251434</v>
+        <v>69.512887207803885</v>
       </c>
       <c r="D30" t="s">
         <v>96</v>
@@ -42662,7 +42674,7 @@
       </c>
       <c r="C31" s="163">
         <f ca="1">C7+C30</f>
-        <v>44034.864011165322</v>
+        <v>44041.011293226322</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -42671,7 +42683,7 @@
       </c>
       <c r="C34" s="152">
         <f ca="1">C7+30</f>
-        <v>43996.832545949073</v>
+        <v>44001.498406018516</v>
       </c>
       <c r="F34" t="s">
         <v>168</v>
@@ -42683,7 +42695,7 @@
       </c>
       <c r="C35" s="80">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>263330.63505134551</v>
+        <v>269324.74037669261</v>
       </c>
       <c r="F35" t="s">
         <v>140</v>
@@ -42695,7 +42707,7 @@
       </c>
       <c r="C36" s="80">
         <f ca="1">C35/Projections!B8</f>
-        <v>4702332.768774027</v>
+        <v>4809370.3638695106</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -42704,7 +42716,7 @@
       </c>
       <c r="C37" s="80">
         <f ca="1">C35*Projections!B12</f>
-        <v>213297.81439158987</v>
+        <v>218153.03970512105</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -42713,7 +42725,7 @@
       </c>
       <c r="C38" s="80">
         <f ca="1">C35*Projections!B13</f>
-        <v>36866.288907188376</v>
+        <v>37705.463652736973</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -42722,7 +42734,7 @@
       </c>
       <c r="C39" s="80">
         <f ca="1">C35*Projections!B14</f>
-        <v>13166.531752567276</v>
+        <v>13466.237018834632</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -42731,7 +42743,7 @@
       </c>
       <c r="C40" s="61">
         <f ca="1">C35*Projections!B15</f>
-        <v>17116.49127833746</v>
+        <v>17506.108124485021</v>
       </c>
     </row>
   </sheetData>

--- a/Indonesian COVID-19 Infection Projections.xlsx
+++ b/Indonesian COVID-19 Infection Projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA0FED1-7C2A-4B2A-B41F-6611CD07BF1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF523CDA-E97C-437A-BB76-F8F8A249CC37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="37605" windowHeight="21000" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -1782,46 +1782,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.649908101848</c:v>
+                  <c:v>43946.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.649908101848</c:v>
+                  <c:v>43949.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.649908101848</c:v>
+                  <c:v>43952.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.649908101848</c:v>
+                  <c:v>43955.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.649908101848</c:v>
+                  <c:v>43958.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.649908101848</c:v>
+                  <c:v>43961.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.649908101848</c:v>
+                  <c:v>43964.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.649908101848</c:v>
+                  <c:v>43967.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.649908101848</c:v>
+                  <c:v>43970.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.649908101848</c:v>
+                  <c:v>43973.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.649908101848</c:v>
+                  <c:v>43976.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.649908101848</c:v>
+                  <c:v>43979.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.649908101848</c:v>
+                  <c:v>43982.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.649908101848</c:v>
+                  <c:v>43985.723058217591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1931,46 +1931,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.649908101848</c:v>
+                  <c:v>43946.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.649908101848</c:v>
+                  <c:v>43949.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.649908101848</c:v>
+                  <c:v>43952.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.649908101848</c:v>
+                  <c:v>43955.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.649908101848</c:v>
+                  <c:v>43958.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.649908101848</c:v>
+                  <c:v>43961.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.649908101848</c:v>
+                  <c:v>43964.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.649908101848</c:v>
+                  <c:v>43967.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.649908101848</c:v>
+                  <c:v>43970.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.649908101848</c:v>
+                  <c:v>43973.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.649908101848</c:v>
+                  <c:v>43976.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.649908101848</c:v>
+                  <c:v>43979.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.649908101848</c:v>
+                  <c:v>43982.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.649908101848</c:v>
+                  <c:v>43985.723058217591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2080,46 +2080,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.649908101848</c:v>
+                  <c:v>43946.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.649908101848</c:v>
+                  <c:v>43949.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.649908101848</c:v>
+                  <c:v>43952.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.649908101848</c:v>
+                  <c:v>43955.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.649908101848</c:v>
+                  <c:v>43958.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.649908101848</c:v>
+                  <c:v>43961.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.649908101848</c:v>
+                  <c:v>43964.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.649908101848</c:v>
+                  <c:v>43967.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.649908101848</c:v>
+                  <c:v>43970.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.649908101848</c:v>
+                  <c:v>43973.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.649908101848</c:v>
+                  <c:v>43976.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.649908101848</c:v>
+                  <c:v>43979.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.649908101848</c:v>
+                  <c:v>43982.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.649908101848</c:v>
+                  <c:v>43985.723058217591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2526,7 +2526,7 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2657,7 +2657,7 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3069,7 +3069,7 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3200,7 +3200,7 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3249,7 +3249,7 @@
                   <c:v>1043</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
-                  <c:v>1520</c:v>
+                  <c:v>1698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3617,31 +3617,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3690,31 +3690,31 @@
                   <c:v>9417.9493258412858</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12621.369485300986</c:v>
+                  <c:v>22754.549361870868</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20772.956736341464</c:v>
+                  <c:v>30843.906363401031</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36834.452616120703</c:v>
+                  <c:v>49712.649411245402</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>67879.374781062565</c:v>
+                  <c:v>86666.044260322815</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>127946.18626912229</c:v>
+                  <c:v>157610.17409973365</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>244656.62158375539</c:v>
+                  <c:v>293989.24903645838</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>472392.39671564603</c:v>
+                  <c:v>557447.55204824312</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>918398.3213394488</c:v>
+                  <c:v>1068936.2993260135</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1794511.5280716242</c:v>
+                  <c:v>2066245.6792790841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3796,31 +3796,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3869,31 +3869,31 @@
                   <c:v>8072.3760871510385</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8667.2937644494159</c:v>
+                  <c:v>19454.468985720312</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6136.1442748773734</c:v>
+                  <c:v>23917.626490418144</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18670.643517762248</c:v>
+                  <c:v>37156.000573756573</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38911.048961878099</c:v>
+                  <c:v>62902.099702650485</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>77403.521300187858</c:v>
+                  <c:v>111999.97760369445</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>152410.85056483332</c:v>
+                  <c:v>205569.4947676711</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>299628.25629917264</c:v>
+                  <c:v>384843.5064523755</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>589548.73467925633</c:v>
+                  <c:v>730334.06845132634</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1161738.1307051717</c:v>
+                  <c:v>1399612.5612485504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3975,31 +3975,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4048,31 +4048,31 @@
                   <c:v>1018.4114787738645</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1669.9398664034841</c:v>
+                  <c:v>3010.666090212153</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3051.963846753596</c:v>
+                  <c:v>4709.1300681077128</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5774.0810590627425</c:v>
+                  <c:v>8218.0964075521497</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11120.052800246654</c:v>
+                  <c:v>15070.54125385202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21639.968372480063</c:v>
+                  <c:v>28384.285682285208</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42392.248095710806</c:v>
+                  <c:v>54322.780209631834</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>83418.477125702266</c:v>
+                  <c:v>105047.62500464392</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>164670.00278196469</c:v>
+                  <c:v>204583.02304470658</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>325818.77616720641</c:v>
+                  <c:v>400453.69550606533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4154,31 +4154,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4227,31 +4227,31 @@
                   <c:v>729.43830668965529</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>773.03828361427975</c:v>
+                  <c:v>1088.3900086193387</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1538.26130675169</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2965.9511577796379</c:v>
+                  <c:v>1270.5726840098332</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5757.8680940624008</c:v>
+                  <c:v>3615.5662281823661</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11247.945839988062</c:v>
+                  <c:v>8123.5625781271337</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22076.637056356114</c:v>
+                  <c:v>17106.151610125329</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43482.920325387648</c:v>
+                  <c:v>35116.278377955954</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>85872.718360181199</c:v>
+                  <c:v>71236.382301032922</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>169931.81907246844</c:v>
+                  <c:v>143618.62111953986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4333,31 +4333,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4794,31 +4794,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4975,31 +4975,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5156,31 +5156,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5338,31 +5338,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5520,31 +5520,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5701,31 +5701,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5880,31 +5880,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6062,31 +6062,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6243,31 +6243,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6704,31 +6704,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6885,31 +6885,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7066,31 +7066,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7248,31 +7248,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7427,31 +7427,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7608,31 +7608,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7787,31 +7787,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7966,31 +7966,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8147,31 +8147,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8608,31 +8608,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8789,31 +8789,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8970,31 +8970,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9149,31 +9149,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9330,31 +9330,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9509,31 +9509,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9970,31 +9970,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10151,31 +10151,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10330,31 +10330,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10511,31 +10511,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10690,31 +10690,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11146,7 +11146,7 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11277,7 +11277,7 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11690,7 +11690,7 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11821,7 +11821,7 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11870,7 +11870,7 @@
                   <c:v>1043</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0">
-                  <c:v>1520</c:v>
+                  <c:v>1698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12199,46 +12199,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.649908101848</c:v>
+                  <c:v>43946.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.649908101848</c:v>
+                  <c:v>43949.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.649908101848</c:v>
+                  <c:v>43952.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.649908101848</c:v>
+                  <c:v>43955.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.649908101848</c:v>
+                  <c:v>43958.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.649908101848</c:v>
+                  <c:v>43961.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.649908101848</c:v>
+                  <c:v>43964.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.649908101848</c:v>
+                  <c:v>43967.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.649908101848</c:v>
+                  <c:v>43970.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.649908101848</c:v>
+                  <c:v>43973.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.649908101848</c:v>
+                  <c:v>43976.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.649908101848</c:v>
+                  <c:v>43979.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.649908101848</c:v>
+                  <c:v>43982.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.649908101848</c:v>
+                  <c:v>43985.723058217591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12339,46 +12339,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.649908101848</c:v>
+                  <c:v>43946.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.649908101848</c:v>
+                  <c:v>43949.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.649908101848</c:v>
+                  <c:v>43952.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.649908101848</c:v>
+                  <c:v>43955.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.649908101848</c:v>
+                  <c:v>43958.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.649908101848</c:v>
+                  <c:v>43961.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.649908101848</c:v>
+                  <c:v>43964.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.649908101848</c:v>
+                  <c:v>43967.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.649908101848</c:v>
+                  <c:v>43970.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.649908101848</c:v>
+                  <c:v>43973.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.649908101848</c:v>
+                  <c:v>43976.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.649908101848</c:v>
+                  <c:v>43979.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.649908101848</c:v>
+                  <c:v>43982.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.649908101848</c:v>
+                  <c:v>43985.723058217591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12482,46 +12482,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.649908101848</c:v>
+                  <c:v>43946.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.649908101848</c:v>
+                  <c:v>43949.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.649908101848</c:v>
+                  <c:v>43952.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.649908101848</c:v>
+                  <c:v>43955.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.649908101848</c:v>
+                  <c:v>43958.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.649908101848</c:v>
+                  <c:v>43961.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.649908101848</c:v>
+                  <c:v>43964.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.649908101848</c:v>
+                  <c:v>43967.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.649908101848</c:v>
+                  <c:v>43970.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.649908101848</c:v>
+                  <c:v>43973.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.649908101848</c:v>
+                  <c:v>43976.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.649908101848</c:v>
+                  <c:v>43979.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.649908101848</c:v>
+                  <c:v>43982.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.649908101848</c:v>
+                  <c:v>43985.723058217591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12619,46 +12619,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.649908101848</c:v>
+                  <c:v>43946.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.649908101848</c:v>
+                  <c:v>43949.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.649908101848</c:v>
+                  <c:v>43952.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.649908101848</c:v>
+                  <c:v>43955.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.649908101848</c:v>
+                  <c:v>43958.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.649908101848</c:v>
+                  <c:v>43961.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.649908101848</c:v>
+                  <c:v>43964.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.649908101848</c:v>
+                  <c:v>43967.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.649908101848</c:v>
+                  <c:v>43970.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.649908101848</c:v>
+                  <c:v>43973.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.649908101848</c:v>
+                  <c:v>43976.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.649908101848</c:v>
+                  <c:v>43979.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.649908101848</c:v>
+                  <c:v>43982.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.649908101848</c:v>
+                  <c:v>43985.723058217591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13026,46 +13026,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.649908101848</c:v>
+                  <c:v>43946.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.649908101848</c:v>
+                  <c:v>43949.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.649908101848</c:v>
+                  <c:v>43952.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.649908101848</c:v>
+                  <c:v>43955.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.649908101848</c:v>
+                  <c:v>43958.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.649908101848</c:v>
+                  <c:v>43961.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.649908101848</c:v>
+                  <c:v>43964.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.649908101848</c:v>
+                  <c:v>43967.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.649908101848</c:v>
+                  <c:v>43970.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.649908101848</c:v>
+                  <c:v>43973.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.649908101848</c:v>
+                  <c:v>43976.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.649908101848</c:v>
+                  <c:v>43979.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.649908101848</c:v>
+                  <c:v>43982.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.649908101848</c:v>
+                  <c:v>43985.723058217591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13175,46 +13175,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.649908101848</c:v>
+                  <c:v>43946.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.649908101848</c:v>
+                  <c:v>43949.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.649908101848</c:v>
+                  <c:v>43952.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.649908101848</c:v>
+                  <c:v>43955.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.649908101848</c:v>
+                  <c:v>43958.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.649908101848</c:v>
+                  <c:v>43961.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.649908101848</c:v>
+                  <c:v>43964.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.649908101848</c:v>
+                  <c:v>43967.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.649908101848</c:v>
+                  <c:v>43970.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.649908101848</c:v>
+                  <c:v>43973.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.649908101848</c:v>
+                  <c:v>43976.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.649908101848</c:v>
+                  <c:v>43979.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.649908101848</c:v>
+                  <c:v>43982.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.649908101848</c:v>
+                  <c:v>43985.723058217591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13324,46 +13324,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.649908101848</c:v>
+                  <c:v>43946.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.649908101848</c:v>
+                  <c:v>43949.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.649908101848</c:v>
+                  <c:v>43952.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.649908101848</c:v>
+                  <c:v>43955.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.649908101848</c:v>
+                  <c:v>43958.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.649908101848</c:v>
+                  <c:v>43961.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.649908101848</c:v>
+                  <c:v>43964.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.649908101848</c:v>
+                  <c:v>43967.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.649908101848</c:v>
+                  <c:v>43970.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.649908101848</c:v>
+                  <c:v>43973.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.649908101848</c:v>
+                  <c:v>43976.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.649908101848</c:v>
+                  <c:v>43979.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.649908101848</c:v>
+                  <c:v>43982.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.649908101848</c:v>
+                  <c:v>43985.723058217591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13741,46 +13741,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.649908101848</c:v>
+                  <c:v>43946.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.649908101848</c:v>
+                  <c:v>43949.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.649908101848</c:v>
+                  <c:v>43952.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.649908101848</c:v>
+                  <c:v>43955.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.649908101848</c:v>
+                  <c:v>43958.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.649908101848</c:v>
+                  <c:v>43961.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.649908101848</c:v>
+                  <c:v>43964.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.649908101848</c:v>
+                  <c:v>43967.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.649908101848</c:v>
+                  <c:v>43970.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.649908101848</c:v>
+                  <c:v>43973.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.649908101848</c:v>
+                  <c:v>43976.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.649908101848</c:v>
+                  <c:v>43979.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.649908101848</c:v>
+                  <c:v>43982.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.649908101848</c:v>
+                  <c:v>43985.723058217591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13881,46 +13881,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.649908101848</c:v>
+                  <c:v>43946.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.649908101848</c:v>
+                  <c:v>43949.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.649908101848</c:v>
+                  <c:v>43952.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.649908101848</c:v>
+                  <c:v>43955.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.649908101848</c:v>
+                  <c:v>43958.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.649908101848</c:v>
+                  <c:v>43961.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.649908101848</c:v>
+                  <c:v>43964.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.649908101848</c:v>
+                  <c:v>43967.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.649908101848</c:v>
+                  <c:v>43970.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.649908101848</c:v>
+                  <c:v>43973.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.649908101848</c:v>
+                  <c:v>43976.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.649908101848</c:v>
+                  <c:v>43979.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.649908101848</c:v>
+                  <c:v>43982.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.649908101848</c:v>
+                  <c:v>43985.723058217591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14024,46 +14024,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.649908101848</c:v>
+                  <c:v>43946.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.649908101848</c:v>
+                  <c:v>43949.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.649908101848</c:v>
+                  <c:v>43952.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.649908101848</c:v>
+                  <c:v>43955.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.649908101848</c:v>
+                  <c:v>43958.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.649908101848</c:v>
+                  <c:v>43961.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.649908101848</c:v>
+                  <c:v>43964.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.649908101848</c:v>
+                  <c:v>43967.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.649908101848</c:v>
+                  <c:v>43970.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.649908101848</c:v>
+                  <c:v>43973.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.649908101848</c:v>
+                  <c:v>43976.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.649908101848</c:v>
+                  <c:v>43979.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.649908101848</c:v>
+                  <c:v>43982.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.649908101848</c:v>
+                  <c:v>43985.723058217591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14161,46 +14161,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43941.649908101848</c:v>
+                  <c:v>43946.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43944.649908101848</c:v>
+                  <c:v>43949.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43947.649908101848</c:v>
+                  <c:v>43952.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43950.649908101848</c:v>
+                  <c:v>43955.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43953.649908101848</c:v>
+                  <c:v>43958.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43956.649908101848</c:v>
+                  <c:v>43961.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43959.649908101848</c:v>
+                  <c:v>43964.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43962.649908101848</c:v>
+                  <c:v>43967.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43965.649908101848</c:v>
+                  <c:v>43970.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43968.649908101848</c:v>
+                  <c:v>43973.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43971.649908101848</c:v>
+                  <c:v>43976.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43974.649908101848</c:v>
+                  <c:v>43979.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43977.649908101848</c:v>
+                  <c:v>43982.723058217591</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43980.649908101848</c:v>
+                  <c:v>43985.723058217591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14609,31 +14609,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14682,31 +14682,31 @@
                   <c:v>9417.9493258412858</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12621.369485300986</c:v>
+                  <c:v>22754.549361870868</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20772.956736341464</c:v>
+                  <c:v>30843.906363401031</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36834.452616120703</c:v>
+                  <c:v>49712.649411245402</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>67879.374781062565</c:v>
+                  <c:v>86666.044260322815</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>127946.18626912229</c:v>
+                  <c:v>157610.17409973365</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>244656.62158375539</c:v>
+                  <c:v>293989.24903645838</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>472392.39671564603</c:v>
+                  <c:v>557447.55204824312</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>918398.3213394488</c:v>
+                  <c:v>1068936.2993260135</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1794511.5280716242</c:v>
+                  <c:v>2066245.6792790841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14788,31 +14788,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14861,31 +14861,31 @@
                   <c:v>8072.3760871510385</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8667.2937644494159</c:v>
+                  <c:v>19454.468985720312</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6136.1442748773734</c:v>
+                  <c:v>23917.626490418144</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18670.643517762248</c:v>
+                  <c:v>37156.000573756573</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38911.048961878099</c:v>
+                  <c:v>62902.099702650485</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>77403.521300187858</c:v>
+                  <c:v>111999.97760369445</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>152410.85056483332</c:v>
+                  <c:v>205569.4947676711</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>299628.25629917264</c:v>
+                  <c:v>384843.5064523755</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>589548.73467925633</c:v>
+                  <c:v>730334.06845132634</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1161738.1307051717</c:v>
+                  <c:v>1399612.5612485504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14967,31 +14967,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15040,31 +15040,31 @@
                   <c:v>1018.4114787738645</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1669.9398664034841</c:v>
+                  <c:v>3010.666090212153</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3051.963846753596</c:v>
+                  <c:v>4709.1300681077128</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5774.0810590627425</c:v>
+                  <c:v>8218.0964075521497</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11120.052800246654</c:v>
+                  <c:v>15070.54125385202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21639.968372480063</c:v>
+                  <c:v>28384.285682285208</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42392.248095710806</c:v>
+                  <c:v>54322.780209631834</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>83418.477125702266</c:v>
+                  <c:v>105047.62500464392</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>164670.00278196469</c:v>
+                  <c:v>204583.02304470658</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>325818.77616720641</c:v>
+                  <c:v>400453.69550606533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15146,31 +15146,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15219,31 +15219,31 @@
                   <c:v>729.43830668965529</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>773.03828361427975</c:v>
+                  <c:v>1088.3900086193387</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1538.26130675169</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2965.9511577796379</c:v>
+                  <c:v>1270.5726840098332</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5757.8680940624008</c:v>
+                  <c:v>3615.5662281823661</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11247.945839988062</c:v>
+                  <c:v>8123.5625781271337</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22076.637056356114</c:v>
+                  <c:v>17106.151610125329</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43482.920325387648</c:v>
+                  <c:v>35116.278377955954</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>85872.718360181199</c:v>
+                  <c:v>71236.382301032922</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>169931.81907246844</c:v>
+                  <c:v>143618.62111953986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15325,31 +15325,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15785,31 +15785,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15966,31 +15966,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16147,31 +16147,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16329,31 +16329,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16511,31 +16511,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16692,31 +16692,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16871,31 +16871,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17053,31 +17053,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17234,31 +17234,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17694,31 +17694,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17875,31 +17875,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18056,31 +18056,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18238,31 +18238,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18417,31 +18417,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18598,31 +18598,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18777,31 +18777,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18956,31 +18956,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19137,31 +19137,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19597,31 +19597,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19778,31 +19778,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19959,31 +19959,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20138,31 +20138,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20319,31 +20319,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20498,31 +20498,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20958,31 +20958,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21139,31 +21139,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21318,31 +21318,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21499,31 +21499,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21678,31 +21678,31 @@
                   <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43985</c:v>
+                  <c:v>43991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44005</c:v>
+                  <c:v>44017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44025</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44045</c:v>
+                  <c:v>44069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44065</c:v>
+                  <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44085</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44105</c:v>
+                  <c:v>44147</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44125</c:v>
+                  <c:v>44173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44145</c:v>
+                  <c:v>44199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -33740,167 +33740,167 @@
       </c>
       <c r="B26" s="86">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>43941.649908101848</v>
+        <v>43946.723058217591</v>
       </c>
       <c r="C26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43942.649908101848</v>
+        <v>43947.723058217591</v>
       </c>
       <c r="D26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43943.649908101848</v>
+        <v>43948.723058217591</v>
       </c>
       <c r="E26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43944.649908101848</v>
+        <v>43949.723058217591</v>
       </c>
       <c r="F26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43945.649908101848</v>
+        <v>43950.723058217591</v>
       </c>
       <c r="G26" s="88">
         <f t="shared" ca="1" si="0"/>
-        <v>43946.649908101848</v>
+        <v>43951.723058217591</v>
       </c>
       <c r="H26" s="87">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>43947.649908101848</v>
+        <v>43952.723058217591</v>
       </c>
       <c r="I26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43948.649908101848</v>
+        <v>43953.723058217591</v>
       </c>
       <c r="J26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43949.649908101848</v>
+        <v>43954.723058217591</v>
       </c>
       <c r="K26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43950.649908101848</v>
+        <v>43955.723058217591</v>
       </c>
       <c r="L26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43951.649908101848</v>
+        <v>43956.723058217591</v>
       </c>
       <c r="M26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43952.649908101848</v>
+        <v>43957.723058217591</v>
       </c>
       <c r="N26" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>43953.649908101848</v>
+        <v>43958.723058217591</v>
       </c>
       <c r="O26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43954.649908101848</v>
+        <v>43959.723058217591</v>
       </c>
       <c r="P26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43955.649908101848</v>
+        <v>43960.723058217591</v>
       </c>
       <c r="Q26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43956.649908101848</v>
+        <v>43961.723058217591</v>
       </c>
       <c r="R26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43957.649908101848</v>
+        <v>43962.723058217591</v>
       </c>
       <c r="S26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43958.649908101848</v>
+        <v>43963.723058217591</v>
       </c>
       <c r="T26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43959.649908101848</v>
+        <v>43964.723058217591</v>
       </c>
       <c r="U26" s="88">
         <f t="shared" ca="1" si="1"/>
-        <v>43960.649908101848</v>
+        <v>43965.723058217591</v>
       </c>
       <c r="V26" s="86">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>43961.649908101848</v>
+        <v>43966.723058217591</v>
       </c>
       <c r="W26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43962.649908101848</v>
+        <v>43967.723058217591</v>
       </c>
       <c r="X26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43963.649908101848</v>
+        <v>43968.723058217591</v>
       </c>
       <c r="Y26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43964.649908101848</v>
+        <v>43969.723058217591</v>
       </c>
       <c r="Z26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43965.649908101848</v>
+        <v>43970.723058217591</v>
       </c>
       <c r="AA26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43966.649908101848</v>
+        <v>43971.723058217591</v>
       </c>
       <c r="AB26" s="88">
         <f t="shared" ca="1" si="2"/>
-        <v>43967.649908101848</v>
+        <v>43972.723058217591</v>
       </c>
       <c r="AC26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43968.649908101848</v>
+        <v>43973.723058217591</v>
       </c>
       <c r="AD26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43969.649908101848</v>
+        <v>43974.723058217591</v>
       </c>
       <c r="AE26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43970.649908101848</v>
+        <v>43975.723058217591</v>
       </c>
       <c r="AF26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43971.649908101848</v>
+        <v>43976.723058217591</v>
       </c>
       <c r="AG26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43972.649908101848</v>
+        <v>43977.723058217591</v>
       </c>
       <c r="AH26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43973.649908101848</v>
+        <v>43978.723058217591</v>
       </c>
       <c r="AI26" s="88">
         <f t="shared" ca="1" si="2"/>
-        <v>43974.649908101848</v>
+        <v>43979.723058217591</v>
       </c>
       <c r="AJ26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43975.649908101848</v>
+        <v>43980.723058217591</v>
       </c>
       <c r="AK26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43976.649908101848</v>
+        <v>43981.723058217591</v>
       </c>
       <c r="AL26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43977.649908101848</v>
+        <v>43982.723058217591</v>
       </c>
       <c r="AM26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43978.649908101848</v>
+        <v>43983.723058217591</v>
       </c>
       <c r="AN26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43979.649908101848</v>
+        <v>43984.723058217591</v>
       </c>
       <c r="AO26" s="87">
         <f ca="1">AP26-1</f>
-        <v>43980.649908101848</v>
+        <v>43985.723058217591</v>
       </c>
       <c r="AP26" s="108">
         <f ca="1">NOW()</f>
-        <v>43981.649908101848</v>
+        <v>43986.723058217591</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -34418,8 +34418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BB0FAD-39ED-4D53-8BC6-75164ED434B0}">
   <dimension ref="A1:AL100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34943,7 +34943,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="272">
         <f>(AB24-J24)/(LOG(AB25/J25)/LOG(2))</f>
-        <v>13.611111111111111</v>
+        <v>16.611111111111111</v>
       </c>
       <c r="E21" s="166"/>
       <c r="M21" s="16"/>
@@ -35007,7 +35007,9 @@
       <c r="F23" s="182">
         <v>43945</v>
       </c>
-      <c r="G23" s="182"/>
+      <c r="G23" s="182">
+        <v>43965</v>
+      </c>
       <c r="H23" s="182"/>
       <c r="I23" s="182"/>
       <c r="J23" t="s">
@@ -35056,7 +35058,9 @@
       <c r="F24" s="209">
         <v>20</v>
       </c>
-      <c r="G24" s="209"/>
+      <c r="G24" s="209">
+        <v>26</v>
+      </c>
       <c r="H24" s="209"/>
       <c r="I24" s="209"/>
       <c r="J24" s="289">
@@ -35100,67 +35104,67 @@
       </c>
       <c r="T24" s="215">
         <f t="shared" si="0"/>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="U24" s="215">
         <f t="shared" si="0"/>
-        <v>44005</v>
+        <v>44017</v>
       </c>
       <c r="V24" s="215">
         <f t="shared" si="0"/>
-        <v>44025</v>
+        <v>44043</v>
       </c>
       <c r="W24" s="215">
         <f t="shared" si="0"/>
-        <v>44045</v>
+        <v>44069</v>
       </c>
       <c r="X24" s="215">
         <f t="shared" si="0"/>
-        <v>44065</v>
+        <v>44095</v>
       </c>
       <c r="Y24" s="215">
         <f t="shared" si="0"/>
-        <v>44085</v>
+        <v>44121</v>
       </c>
       <c r="Z24" s="215">
         <f t="shared" si="0"/>
-        <v>44105</v>
+        <v>44147</v>
       </c>
       <c r="AA24" s="215">
         <f t="shared" si="0"/>
-        <v>44125</v>
+        <v>44173</v>
       </c>
       <c r="AB24" s="221">
         <f t="shared" si="0"/>
-        <v>44145</v>
+        <v>44199</v>
       </c>
       <c r="AC24" s="215">
         <f t="shared" si="0"/>
-        <v>44165</v>
+        <v>44225</v>
       </c>
       <c r="AD24" s="215">
         <f t="shared" ref="AD24" si="1">AC24+HLOOKUP(AC24+1, $B$23:$I$24,2,TRUE)</f>
-        <v>44185</v>
+        <v>44251</v>
       </c>
       <c r="AE24" s="215">
         <f t="shared" ref="AE24" si="2">AD24+HLOOKUP(AD24+1, $B$23:$I$24,2,TRUE)</f>
-        <v>44205</v>
+        <v>44277</v>
       </c>
       <c r="AF24" s="215">
         <f>AE24+HLOOKUP(AE24+1, $B$23:$I$24,2,TRUE)</f>
-        <v>44225</v>
+        <v>44303</v>
       </c>
       <c r="AG24" s="215">
         <f t="shared" si="0"/>
-        <v>44245</v>
+        <v>44329</v>
       </c>
       <c r="AH24" s="221">
         <f>AG24+HLOOKUP(AG24+1, $B$23:$I$24,2,TRUE)</f>
-        <v>44265</v>
+        <v>44355</v>
       </c>
       <c r="AI24" s="251">
         <f>AH24+(7*8)</f>
-        <v>44321</v>
+        <v>44411</v>
       </c>
       <c r="AJ24" s="70"/>
       <c r="AK24" s="70"/>
@@ -35459,63 +35463,63 @@
       </c>
       <c r="T27" s="276">
         <f>MAX(T25-(T33-T34)-(T35-T36)-(T37-T38),0)</f>
-        <v>1229.0226963592258</v>
+        <v>857.64354225662987</v>
       </c>
       <c r="U27" s="276">
         <f t="shared" ref="U27:AC27" si="9">MAX(U25-(U33-U34)-(U35-U36)-(U37-U38),0)</f>
-        <v>0</v>
+        <v>524.5900589094008</v>
       </c>
       <c r="V27" s="276">
         <f t="shared" si="9"/>
-        <v>13487.947843542013</v>
+        <v>4815.8274389688549</v>
       </c>
       <c r="W27" s="276">
         <f t="shared" si="9"/>
-        <v>41524.634110635481</v>
+        <v>13421.080416658016</v>
       </c>
       <c r="X27" s="276">
         <f t="shared" si="9"/>
-        <v>100497.82486439653</v>
+        <v>31409.080399802733</v>
       </c>
       <c r="Y27" s="276">
         <f t="shared" si="9"/>
-        <v>224684.19879120812</v>
+        <v>68923.617131706211</v>
       </c>
       <c r="Z27" s="276">
         <f t="shared" si="9"/>
-        <v>483920.97334683529</v>
+        <v>146584.60777744441</v>
       </c>
       <c r="AA27" s="276">
         <f t="shared" si="9"/>
-        <v>1020699.083850196</v>
+        <v>309806.15505739243</v>
       </c>
       <c r="AB27" s="279">
         <f t="shared" si="9"/>
-        <v>2125075.4716300657</v>
+        <v>781181.94038468227</v>
       </c>
       <c r="AC27" s="189">
         <f t="shared" si="9"/>
-        <v>4386112.1645030566</v>
+        <v>1823720.9114373857</v>
       </c>
       <c r="AD27" s="189">
         <f t="shared" ref="AD27:AG27" si="10">MAX(AD25-(AD33-AD34)-(AD35-AD36)-(AD37-AD38),0)</f>
-        <v>8997723.3100278154</v>
+        <v>4078886.5909906309</v>
       </c>
       <c r="AE27" s="189">
         <f t="shared" si="10"/>
-        <v>18375741.647452392</v>
+        <v>8882033.8433666434</v>
       </c>
       <c r="AF27" s="189">
         <f t="shared" si="10"/>
-        <v>37401782.892626517</v>
+        <v>18997102.591995977</v>
       </c>
       <c r="AG27" s="189">
         <f t="shared" si="10"/>
-        <v>75928664.137146667</v>
+        <v>40118715.46549838</v>
       </c>
       <c r="AH27" s="190">
         <f t="shared" ref="AH27" si="11">MAX(AH25-(AH33-AH34)-(AH35-AH36)-(AH37-AH38),0)</f>
-        <v>6491596.1320630517</v>
+        <v>0</v>
       </c>
       <c r="AI27" s="254"/>
       <c r="AJ27" s="45"/>
@@ -35576,63 +35580,63 @@
       </c>
       <c r="T28" s="118">
         <f t="shared" si="12"/>
-        <v>29605.005246014811</v>
+        <v>28643.397551672715</v>
       </c>
       <c r="U28" s="118">
         <f t="shared" si="12"/>
-        <v>62032.186697997524</v>
+        <v>57079.425352687409</v>
       </c>
       <c r="V28" s="118">
         <f t="shared" si="12"/>
-        <v>110861.48328478995</v>
+        <v>114152.39172042612</v>
       </c>
       <c r="W28" s="118">
         <f t="shared" si="12"/>
-        <v>207504.52577132499</v>
+        <v>227687.45204997144</v>
       </c>
       <c r="X28" s="118">
         <f t="shared" si="12"/>
-        <v>397992.54584336386</v>
+        <v>454251.97956479178</v>
       </c>
       <c r="Y28" s="118">
         <f t="shared" si="12"/>
-        <v>772905.5068576308</v>
+        <v>906694.76568893529</v>
       </c>
       <c r="Z28" s="118">
         <f t="shared" si="12"/>
-        <v>1512162.8028127558</v>
+        <v>1810504.6416078613</v>
       </c>
       <c r="AA28" s="118">
         <f t="shared" si="12"/>
-        <v>2972864.4464014852</v>
+        <v>3612843.2119758315</v>
       </c>
       <c r="AB28" s="119">
         <f t="shared" si="12"/>
-        <v>5864271.4841467747</v>
+        <v>7076932.4629128342</v>
       </c>
       <c r="AC28" s="203">
         <f>MAX(AC25-AC27-AC40,0)</f>
-        <v>11596196.179435622</v>
+        <v>13912561.488398267</v>
       </c>
       <c r="AD28" s="203">
         <f t="shared" ref="AD28:AH28" si="13">MAX(AD25-AD27-AD40,0)</f>
-        <v>22972892.458514955</v>
+        <v>27425900.180541672</v>
       </c>
       <c r="AE28" s="203">
         <f t="shared" si="13"/>
-        <v>45575606.652425036</v>
+        <v>54180432.201490834</v>
       </c>
       <c r="AF28" s="203">
         <f t="shared" si="13"/>
-        <v>90518204.811418653</v>
+        <v>107216193.99704359</v>
       </c>
       <c r="AG28" s="203">
         <f t="shared" si="13"/>
-        <v>179941204.89109433</v>
+        <v>212457694.56252676</v>
       </c>
       <c r="AH28" s="203">
         <f t="shared" si="13"/>
-        <v>253898337.37230998</v>
+        <v>254008024.92555186</v>
       </c>
       <c r="AI28" s="255"/>
       <c r="AJ28" s="25"/>
@@ -36089,15 +36093,15 @@
       </c>
       <c r="AC32" s="225">
         <f t="shared" si="22"/>
-        <v>59967400.674421497</v>
+        <v>73059374.678040817</v>
       </c>
       <c r="AD32" s="193">
         <f t="shared" si="22"/>
-        <v>119022382.31742677</v>
+        <v>143952677.06235656</v>
       </c>
       <c r="AE32" s="193">
         <f t="shared" si="22"/>
-        <v>236487144.89993611</v>
+        <v>272886000</v>
       </c>
       <c r="AF32" s="193">
         <f t="shared" si="22"/>
@@ -36294,55 +36298,55 @@
       </c>
       <c r="U34" s="195">
         <f t="shared" si="26"/>
-        <v>2398.1856825917494</v>
+        <v>0</v>
       </c>
       <c r="V34" s="195">
         <f t="shared" si="26"/>
-        <v>10139.886843183573</v>
+        <v>0</v>
       </c>
       <c r="W34" s="195">
         <f t="shared" si="26"/>
-        <v>27215.144636004203</v>
+        <v>0</v>
       </c>
       <c r="X34" s="195">
         <f t="shared" si="26"/>
-        <v>64152.512365822971</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="195">
         <f t="shared" si="26"/>
-        <v>142685.58084948489</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="195">
         <f t="shared" si="26"/>
-        <v>307500.67056362331</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="195">
         <f t="shared" si="26"/>
-        <v>650105.95493217185</v>
+        <v>3515.0266757532954</v>
       </c>
       <c r="AB34" s="195">
         <f t="shared" si="26"/>
-        <v>1357255.826091256</v>
+        <v>148170.13280174136</v>
       </c>
       <c r="AC34" s="225">
         <f t="shared" si="26"/>
-        <v>2809035.0208009277</v>
+        <v>524989.09463103488</v>
       </c>
       <c r="AD34" s="193">
         <f t="shared" si="26"/>
-        <v>5777252.0695443153</v>
+        <v>1427874.4940442592</v>
       </c>
       <c r="AE34" s="193">
         <f t="shared" si="26"/>
-        <v>11826248.87438038</v>
+        <v>3490728.7213977203</v>
       </c>
       <c r="AF34" s="193">
         <f t="shared" si="26"/>
-        <v>24121821.830263942</v>
+        <v>8063356.8683893681</v>
       </c>
       <c r="AG34" s="193">
         <f t="shared" si="26"/>
-        <v>49062371.310383052</v>
+        <v>17992073.300586164</v>
       </c>
       <c r="AH34" s="194">
         <f t="shared" si="26"/>
@@ -36407,63 +36411,63 @@
       </c>
       <c r="T35" s="201">
         <f t="shared" si="27"/>
-        <v>12621.369485300986</v>
+        <v>22754.549361870868</v>
       </c>
       <c r="U35" s="201">
         <f t="shared" si="27"/>
-        <v>20772.956736341464</v>
+        <v>30843.906363401031</v>
       </c>
       <c r="V35" s="201">
         <f t="shared" si="27"/>
-        <v>36834.452616120703</v>
+        <v>49712.649411245402</v>
       </c>
       <c r="W35" s="201">
         <f t="shared" si="27"/>
-        <v>67879.374781062565</v>
+        <v>86666.044260322815</v>
       </c>
       <c r="X35" s="201">
         <f t="shared" si="27"/>
-        <v>127946.18626912229</v>
+        <v>157610.17409973365</v>
       </c>
       <c r="Y35" s="201">
         <f t="shared" si="27"/>
-        <v>244656.62158375539</v>
+        <v>293989.24903645838</v>
       </c>
       <c r="Z35" s="201">
         <f t="shared" si="27"/>
-        <v>472392.39671564603</v>
+        <v>557447.55204824312</v>
       </c>
       <c r="AA35" s="201">
         <f t="shared" si="27"/>
-        <v>918398.3213394488</v>
+        <v>1068936.2993260135</v>
       </c>
       <c r="AB35" s="201">
         <f t="shared" si="27"/>
-        <v>1794511.5280716242</v>
+        <v>2066245.6792790841</v>
       </c>
       <c r="AC35" s="222">
         <f t="shared" si="27"/>
-        <v>3519758.1553441482</v>
+        <v>4017778.4102911735</v>
       </c>
       <c r="AD35" s="198">
         <f t="shared" si="27"/>
-        <v>6923997.3526550038</v>
+        <v>7847768.0554114915</v>
       </c>
       <c r="AE35" s="198">
         <f t="shared" si="27"/>
-        <v>13652416.01250953</v>
+        <v>15382530.727281841</v>
       </c>
       <c r="AF35" s="198">
         <f t="shared" si="27"/>
-        <v>26969461.901751667</v>
+        <v>30235426.18249996</v>
       </c>
       <c r="AG35" s="198">
         <f t="shared" si="27"/>
-        <v>53357519.435881287</v>
+        <v>59563131.08450342</v>
       </c>
       <c r="AH35" s="199">
         <f t="shared" si="27"/>
-        <v>105697491.19089943</v>
+        <v>117553383.75409047</v>
       </c>
       <c r="AI35" s="254">
         <f>AI25*(B18+B19)</f>
@@ -36527,63 +36531,63 @@
       </c>
       <c r="T36" s="188">
         <f t="shared" si="29"/>
-        <v>8667.2937644494159</v>
+        <v>19454.468985720312</v>
       </c>
       <c r="U36" s="188">
         <f t="shared" si="29"/>
-        <v>6136.1442748773734</v>
+        <v>23917.626490418144</v>
       </c>
       <c r="V36" s="188">
         <f t="shared" si="29"/>
-        <v>18670.643517762248</v>
+        <v>37156.000573756573</v>
       </c>
       <c r="W36" s="188">
         <f t="shared" si="29"/>
-        <v>38911.048961878099</v>
+        <v>62902.099702650485</v>
       </c>
       <c r="X36" s="188">
         <f t="shared" si="29"/>
-        <v>77403.521300187858</v>
+        <v>111999.97760369445</v>
       </c>
       <c r="Y36" s="188">
         <f t="shared" si="29"/>
-        <v>152410.85056483332</v>
+        <v>205569.4947676711</v>
       </c>
       <c r="Z36" s="188">
         <f t="shared" si="29"/>
-        <v>299628.25629917264</v>
+        <v>384843.5064523755</v>
       </c>
       <c r="AA36" s="188">
         <f t="shared" si="29"/>
-        <v>589548.73467925633</v>
+        <v>730334.06845132634</v>
       </c>
       <c r="AB36" s="188">
         <f t="shared" si="29"/>
-        <v>1161738.1307051717</v>
+        <v>1399612.5612485504</v>
       </c>
       <c r="AC36" s="225">
         <f t="shared" si="29"/>
-        <v>2292868.8806319092</v>
+        <v>2701794.5349162533</v>
       </c>
       <c r="AD36" s="193">
         <f t="shared" si="29"/>
-        <v>4531921.0788748348</v>
+        <v>5244562.6357945511</v>
       </c>
       <c r="AE36" s="193">
         <f t="shared" si="29"/>
-        <v>8969031.6318296734</v>
+        <v>10224714.276283471</v>
       </c>
       <c r="AF36" s="193">
         <f t="shared" si="29"/>
-        <v>17770367.807156421</v>
+        <v>20002956.068383813</v>
       </c>
       <c r="AG36" s="193">
         <f t="shared" si="29"/>
-        <v>35242706.856305696</v>
+        <v>39242097.843242444</v>
       </c>
       <c r="AH36" s="194">
         <f t="shared" si="29"/>
-        <v>69953106.165752441</v>
+        <v>77162748.21207878</v>
       </c>
       <c r="AI36" s="256"/>
       <c r="AJ36" s="45"/>
@@ -36644,63 +36648,63 @@
       </c>
       <c r="T37" s="201">
         <f t="shared" si="31"/>
-        <v>1669.9398664034841</v>
+        <v>3010.666090212153</v>
       </c>
       <c r="U37" s="201">
         <f t="shared" si="31"/>
-        <v>3051.963846753596</v>
+        <v>4709.1300681077128</v>
       </c>
       <c r="V37" s="201">
         <f t="shared" si="31"/>
-        <v>5774.0810590627425</v>
+        <v>8218.0964075521497</v>
       </c>
       <c r="W37" s="201">
         <f t="shared" si="31"/>
-        <v>11120.052800246654</v>
+        <v>15070.54125385202</v>
       </c>
       <c r="X37" s="201">
         <f t="shared" si="31"/>
-        <v>21639.968372480063</v>
+        <v>28384.285682285208</v>
       </c>
       <c r="Y37" s="201">
         <f t="shared" si="31"/>
-        <v>42392.248095710806</v>
+        <v>54322.780209631834</v>
       </c>
       <c r="Z37" s="201">
         <f t="shared" si="31"/>
-        <v>83418.477125702266</v>
+        <v>105047.62500464392</v>
       </c>
       <c r="AA37" s="201">
         <f t="shared" si="31"/>
-        <v>164670.00278196469</v>
+        <v>204583.02304470658</v>
       </c>
       <c r="AB37" s="201">
         <f t="shared" si="31"/>
-        <v>325818.77616720641</v>
+        <v>400453.69550606533</v>
       </c>
       <c r="AC37" s="222">
         <f t="shared" si="31"/>
-        <v>645802.77649376995</v>
+        <v>786793.26576351642</v>
       </c>
       <c r="AD37" s="198">
         <f t="shared" si="31"/>
-        <v>1281779.5018799806</v>
+        <v>1550259.5991330706</v>
       </c>
       <c r="AE37" s="198">
         <f t="shared" si="31"/>
-        <v>2546784.6373839271</v>
+        <v>3061322.9184322394</v>
       </c>
       <c r="AF37" s="198">
         <f t="shared" si="31"/>
-        <v>5064598.6524528433</v>
+        <v>6055861.9217043603</v>
       </c>
       <c r="AG37" s="198">
         <f t="shared" si="31"/>
-        <v>10078658.561087467</v>
+        <v>11996578.191321841</v>
       </c>
       <c r="AH37" s="199">
         <f t="shared" si="31"/>
-        <v>20068378.844225034</v>
+        <v>23792587.258142494</v>
       </c>
       <c r="AI37" s="254">
         <f>AI25*B19</f>
@@ -36764,63 +36768,63 @@
       </c>
       <c r="T38" s="195">
         <f t="shared" si="33"/>
-        <v>773.03828361427975</v>
+        <v>1088.3900086193387</v>
       </c>
       <c r="U38" s="195">
         <f t="shared" si="33"/>
-        <v>1538.26130675169</v>
+        <v>0</v>
       </c>
       <c r="V38" s="195">
         <f t="shared" si="33"/>
-        <v>2965.9511577796379</v>
+        <v>1270.5726840098332</v>
       </c>
       <c r="W38" s="195">
         <f t="shared" si="33"/>
-        <v>5757.8680940624008</v>
+        <v>3615.5662281823661</v>
       </c>
       <c r="X38" s="195">
         <f t="shared" si="33"/>
-        <v>11247.945839988062</v>
+        <v>8123.5625781271337</v>
       </c>
       <c r="Y38" s="195">
         <f t="shared" si="33"/>
-        <v>22076.637056356114</v>
+        <v>17106.151610125329</v>
       </c>
       <c r="Z38" s="195">
         <f t="shared" si="33"/>
-        <v>43482.920325387648</v>
+        <v>35116.278377955954</v>
       </c>
       <c r="AA38" s="195">
         <f t="shared" si="33"/>
-        <v>85872.718360181199</v>
+        <v>71236.382301032922</v>
       </c>
       <c r="AB38" s="195">
         <f t="shared" si="33"/>
-        <v>169931.81907246844</v>
+        <v>143618.62111953986</v>
       </c>
       <c r="AC38" s="225">
         <f t="shared" si="33"/>
-        <v>336809.19490813761</v>
+        <v>288548.95794478751</v>
       </c>
       <c r="AD38" s="193">
         <f t="shared" si="33"/>
-        <v>668407.016143649</v>
+        <v>578557.11569638248</v>
       </c>
       <c r="AE38" s="193">
         <f t="shared" si="33"/>
-        <v>1327821.7911357966</v>
+        <v>1158604.4913995317</v>
       </c>
       <c r="AF38" s="193">
         <f t="shared" si="33"/>
-        <v>2639973.8094106656</v>
+        <v>2318397.7594271176</v>
       </c>
       <c r="AG38" s="193">
         <f t="shared" si="33"/>
-        <v>5252403.9674266791</v>
+        <v>4636893.5974950315</v>
       </c>
       <c r="AH38" s="194">
         <f t="shared" si="33"/>
-        <v>10456020.001435077</v>
+        <v>9271067.9701054543</v>
       </c>
       <c r="AI38" s="254"/>
       <c r="AJ38" s="45"/>
@@ -37001,67 +37005,67 @@
       </c>
       <c r="T40" s="200">
         <f t="shared" si="37"/>
-        <v>1165.9720576259656</v>
+        <v>2498.9589060706585</v>
       </c>
       <c r="U40" s="200">
         <f t="shared" si="37"/>
-        <v>1967.8133020024779</v>
+        <v>6395.9845884031929</v>
       </c>
       <c r="V40" s="200">
         <f t="shared" si="37"/>
-        <v>3650.5688716680361</v>
+        <v>9031.7808406050117</v>
       </c>
       <c r="W40" s="200">
         <f t="shared" si="37"/>
-        <v>6970.8401180395294</v>
+        <v>14891.467533370549</v>
       </c>
       <c r="X40" s="200">
         <f t="shared" si="37"/>
-        <v>13509.629292239602</v>
+        <v>26338.940035405496</v>
       </c>
       <c r="Y40" s="200">
         <f t="shared" si="37"/>
-        <v>26410.294351161097</v>
+        <v>48381.617179358458</v>
       </c>
       <c r="Z40" s="200">
         <f t="shared" si="37"/>
-        <v>51916.223840409002</v>
+        <v>90910.750614694363</v>
       </c>
       <c r="AA40" s="200">
         <f t="shared" si="37"/>
-        <v>102436.46974831854</v>
+        <v>173350.63296677577</v>
       </c>
       <c r="AB40" s="266">
         <f t="shared" si="37"/>
-        <v>202653.04422315935</v>
+        <v>333885.59670248308</v>
       </c>
       <c r="AC40" s="225">
         <f t="shared" si="37"/>
-        <v>401691.65606132208</v>
+        <v>647717.60016434756</v>
       </c>
       <c r="AD40" s="193">
         <f t="shared" si="37"/>
-        <v>797384.23145723098</v>
+        <v>1263213.2284676945</v>
       </c>
       <c r="AE40" s="193">
         <f t="shared" si="37"/>
-        <v>1584651.7001225697</v>
+        <v>2473533.9551425199</v>
       </c>
       <c r="AF40" s="193">
         <f t="shared" si="37"/>
-        <v>3152012.2959548309</v>
+        <v>4858703.4109604154</v>
       </c>
       <c r="AG40" s="193">
         <f t="shared" si="37"/>
-        <v>6274130.9717590241</v>
+        <v>9567589.9719748516</v>
       </c>
       <c r="AH40" s="194">
         <f t="shared" si="37"/>
-        <v>12496066.495626943</v>
+        <v>18877975.07444815</v>
       </c>
       <c r="AI40" s="257">
         <f>($J$25*$B$20)*(2^(((AI24 - 35) - $J$24)/AI50))</f>
-        <v>5370926.9945303807</v>
+        <v>6801622.8756109215</v>
       </c>
       <c r="AJ40" s="45"/>
       <c r="AK40" s="45"/>
@@ -37121,43 +37125,43 @@
       </c>
       <c r="T41" s="143">
         <f t="shared" si="38"/>
-        <v>43978</v>
+        <v>43984</v>
       </c>
       <c r="U41" s="143">
         <f t="shared" si="38"/>
-        <v>43998</v>
+        <v>44010</v>
       </c>
       <c r="V41" s="143">
         <f t="shared" si="38"/>
-        <v>44018</v>
+        <v>44036</v>
       </c>
       <c r="W41" s="143">
         <f t="shared" si="38"/>
-        <v>44038</v>
+        <v>44062</v>
       </c>
       <c r="X41" s="143">
         <f t="shared" si="38"/>
-        <v>44058</v>
+        <v>44088</v>
       </c>
       <c r="Y41" s="143">
         <f t="shared" si="38"/>
-        <v>44078</v>
+        <v>44114</v>
       </c>
       <c r="Z41" s="143">
         <f t="shared" si="38"/>
-        <v>44098</v>
+        <v>44140</v>
       </c>
       <c r="AA41" s="143">
         <f t="shared" si="38"/>
-        <v>44118</v>
+        <v>44166</v>
       </c>
       <c r="AB41" s="143">
         <f t="shared" si="38"/>
-        <v>44138</v>
+        <v>44192</v>
       </c>
       <c r="AC41" s="143">
         <f t="shared" si="38"/>
-        <v>44158</v>
+        <v>44218</v>
       </c>
       <c r="AD41" s="143"/>
       <c r="AE41" s="143"/>
@@ -37222,43 +37226,43 @@
       </c>
       <c r="T42" s="143">
         <f t="shared" si="39"/>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="U42" s="143">
         <f t="shared" si="39"/>
-        <v>43991</v>
+        <v>44003</v>
       </c>
       <c r="V42" s="143">
         <f t="shared" si="39"/>
-        <v>44011</v>
+        <v>44029</v>
       </c>
       <c r="W42" s="143">
         <f t="shared" si="39"/>
-        <v>44031</v>
+        <v>44055</v>
       </c>
       <c r="X42" s="143">
         <f t="shared" si="39"/>
-        <v>44051</v>
+        <v>44081</v>
       </c>
       <c r="Y42" s="143">
         <f t="shared" si="39"/>
-        <v>44071</v>
+        <v>44107</v>
       </c>
       <c r="Z42" s="143">
         <f t="shared" si="39"/>
-        <v>44091</v>
+        <v>44133</v>
       </c>
       <c r="AA42" s="143">
         <f t="shared" si="39"/>
-        <v>44111</v>
+        <v>44159</v>
       </c>
       <c r="AB42" s="143">
         <f t="shared" si="39"/>
-        <v>44131</v>
+        <v>44185</v>
       </c>
       <c r="AC42" s="143">
         <f t="shared" si="39"/>
-        <v>44151</v>
+        <v>44211</v>
       </c>
       <c r="AD42" s="143"/>
       <c r="AE42" s="143"/>
@@ -37323,43 +37327,43 @@
       </c>
       <c r="T43" s="143">
         <f t="shared" si="40"/>
-        <v>43950</v>
+        <v>43956</v>
       </c>
       <c r="U43" s="143">
         <f t="shared" si="40"/>
-        <v>43970</v>
+        <v>43982</v>
       </c>
       <c r="V43" s="143">
         <f t="shared" si="40"/>
-        <v>43990</v>
+        <v>44008</v>
       </c>
       <c r="W43" s="143">
         <f t="shared" si="40"/>
-        <v>44010</v>
+        <v>44034</v>
       </c>
       <c r="X43" s="143">
         <f t="shared" si="40"/>
-        <v>44030</v>
+        <v>44060</v>
       </c>
       <c r="Y43" s="143">
         <f t="shared" si="40"/>
-        <v>44050</v>
+        <v>44086</v>
       </c>
       <c r="Z43" s="143">
         <f t="shared" si="40"/>
-        <v>44070</v>
+        <v>44112</v>
       </c>
       <c r="AA43" s="143">
         <f t="shared" si="40"/>
-        <v>44090</v>
+        <v>44138</v>
       </c>
       <c r="AB43" s="143">
         <f t="shared" si="40"/>
-        <v>44110</v>
+        <v>44164</v>
       </c>
       <c r="AC43" s="143">
         <f t="shared" si="40"/>
-        <v>44130</v>
+        <v>44190</v>
       </c>
       <c r="AD43" s="143"/>
       <c r="AE43" s="143"/>
@@ -37424,43 +37428,43 @@
       </c>
       <c r="T44" s="143">
         <f t="shared" si="41"/>
-        <v>43943</v>
+        <v>43949</v>
       </c>
       <c r="U44" s="143">
         <f t="shared" si="41"/>
-        <v>43963</v>
+        <v>43975</v>
       </c>
       <c r="V44" s="143">
         <f t="shared" si="41"/>
-        <v>43983</v>
+        <v>44001</v>
       </c>
       <c r="W44" s="143">
         <f t="shared" si="41"/>
-        <v>44003</v>
+        <v>44027</v>
       </c>
       <c r="X44" s="143">
         <f t="shared" si="41"/>
-        <v>44023</v>
+        <v>44053</v>
       </c>
       <c r="Y44" s="143">
         <f t="shared" si="41"/>
-        <v>44043</v>
+        <v>44079</v>
       </c>
       <c r="Z44" s="143">
         <f t="shared" si="41"/>
-        <v>44063</v>
+        <v>44105</v>
       </c>
       <c r="AA44" s="143">
         <f t="shared" si="41"/>
-        <v>44083</v>
+        <v>44131</v>
       </c>
       <c r="AB44" s="143">
         <f t="shared" si="41"/>
-        <v>44103</v>
+        <v>44157</v>
       </c>
       <c r="AC44" s="143">
         <f t="shared" si="41"/>
-        <v>44123</v>
+        <v>44183</v>
       </c>
       <c r="AD44" s="143"/>
       <c r="AE44" s="143"/>
@@ -37538,67 +37542,67 @@
       </c>
       <c r="T47" s="268">
         <f t="shared" si="42"/>
-        <v>13.285714285714286</v>
+        <v>14.142857142857142</v>
       </c>
       <c r="U47" s="236">
         <f t="shared" si="42"/>
-        <v>16.142857142857142</v>
+        <v>17.857142857142858</v>
       </c>
       <c r="V47" s="234">
         <f t="shared" si="42"/>
-        <v>19</v>
+        <v>21.571428571428573</v>
       </c>
       <c r="W47" s="268">
         <f t="shared" si="42"/>
-        <v>21.857142857142858</v>
+        <v>25.285714285714285</v>
       </c>
       <c r="X47" s="235">
         <f t="shared" si="42"/>
-        <v>24.714285714285715</v>
+        <v>29</v>
       </c>
       <c r="Y47" s="235">
         <f t="shared" si="42"/>
-        <v>27.571428571428573</v>
+        <v>32.714285714285715</v>
       </c>
       <c r="Z47" s="234">
         <f t="shared" si="42"/>
-        <v>30.428571428571427</v>
+        <v>36.428571428571431</v>
       </c>
       <c r="AA47" s="268">
         <f t="shared" si="42"/>
-        <v>33.285714285714285</v>
+        <v>40.142857142857146</v>
       </c>
       <c r="AB47" s="235">
         <f t="shared" si="42"/>
-        <v>36.142857142857146</v>
+        <v>43.857142857142854</v>
       </c>
       <c r="AC47" s="236">
         <f t="shared" si="42"/>
-        <v>39</v>
+        <v>47.571428571428569</v>
       </c>
       <c r="AD47" s="268">
         <f t="shared" ref="AD47:AH47" si="43">(AD24-$B$21)/7</f>
-        <v>41.857142857142854</v>
+        <v>51.285714285714285</v>
       </c>
       <c r="AE47" s="235">
         <f t="shared" si="43"/>
-        <v>44.714285714285715</v>
+        <v>55</v>
       </c>
       <c r="AF47" s="141">
         <f t="shared" si="43"/>
-        <v>47.571428571428569</v>
+        <v>58.714285714285715</v>
       </c>
       <c r="AG47" s="268">
         <f t="shared" si="43"/>
-        <v>50.428571428571431</v>
+        <v>62.428571428571431</v>
       </c>
       <c r="AH47" s="268">
         <f t="shared" si="43"/>
-        <v>53.285714285714285</v>
+        <v>66.142857142857139</v>
       </c>
       <c r="AI47" s="268">
         <f t="shared" si="42"/>
-        <v>61.285714285714285</v>
+        <v>74.142857142857139</v>
       </c>
     </row>
     <row r="48" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -37655,67 +37659,67 @@
       </c>
       <c r="T48" s="219">
         <f t="shared" si="45"/>
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="U48" s="219">
         <f t="shared" si="45"/>
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="V48" s="219">
         <f t="shared" si="45"/>
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="W48" s="219">
         <f t="shared" si="45"/>
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="X48" s="219">
         <f t="shared" si="45"/>
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="Y48" s="219">
         <f t="shared" si="45"/>
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="Z48" s="219">
         <f t="shared" si="45"/>
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="AA48" s="219">
         <f t="shared" si="45"/>
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="AB48" s="219">
         <f t="shared" si="45"/>
-        <v>253</v>
+        <v>307</v>
       </c>
       <c r="AC48" s="233">
         <f t="shared" si="45"/>
-        <v>273</v>
+        <v>333</v>
       </c>
       <c r="AD48" s="233">
         <f t="shared" ref="AD48:AH48" si="46">AD24-$B$21</f>
-        <v>293</v>
+        <v>359</v>
       </c>
       <c r="AE48" s="233">
         <f t="shared" si="46"/>
-        <v>313</v>
+        <v>385</v>
       </c>
       <c r="AF48" s="233">
         <f t="shared" si="46"/>
-        <v>333</v>
+        <v>411</v>
       </c>
       <c r="AG48" s="181">
         <f t="shared" si="46"/>
-        <v>353</v>
+        <v>437</v>
       </c>
       <c r="AH48" s="232">
         <f t="shared" si="46"/>
-        <v>373</v>
+        <v>463</v>
       </c>
       <c r="AI48" s="181">
         <f t="shared" si="45"/>
-        <v>429</v>
+        <v>519</v>
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.25">
@@ -37879,67 +37883,67 @@
       </c>
       <c r="T50" s="174">
         <f t="shared" si="52"/>
-        <v>8.3244402338577377</v>
+        <v>8.9120477797771063</v>
       </c>
       <c r="U50" s="174">
         <f t="shared" si="52"/>
-        <v>9.3658876749196338</v>
+        <v>10.436274837767593</v>
       </c>
       <c r="V50" s="174">
         <f t="shared" si="52"/>
-        <v>10.236758382820614</v>
+        <v>11.710851589946783</v>
       </c>
       <c r="W50" s="174">
         <f t="shared" si="52"/>
-        <v>10.97578782025543</v>
+        <v>12.792469942228744</v>
       </c>
       <c r="X50" s="174">
         <f t="shared" si="52"/>
-        <v>11.610808418734361</v>
+        <v>13.72186449486788</v>
       </c>
       <c r="Y50" s="174">
         <f t="shared" si="52"/>
-        <v>12.162333532685439</v>
+        <v>14.529057895802605</v>
       </c>
       <c r="Z50" s="174">
         <f t="shared" si="52"/>
-        <v>12.645814895405369</v>
+        <v>15.23666477641525</v>
       </c>
       <c r="AA50" s="174">
         <f t="shared" si="52"/>
-        <v>13.073113088958708</v>
+        <v>15.862043881269898</v>
       </c>
       <c r="AB50" s="174">
         <f t="shared" si="52"/>
-        <v>13.453483533850708</v>
+        <v>16.418741129066781</v>
       </c>
       <c r="AC50" s="179">
         <f t="shared" si="52"/>
-        <v>13.794254531699869</v>
+        <v>16.917481972839461</v>
       </c>
       <c r="AD50" s="179">
         <f t="shared" ref="AD50" si="53">(AD24-$J$24)/(LOG(AD49/$J$49)/LOG(2))</f>
-        <v>14.101304017681803</v>
+        <v>17.366869158618641</v>
       </c>
       <c r="AE50" s="179">
         <f t="shared" ref="AE50" si="54">(AE24-$J$24)/(LOG(AE49/$J$49)/LOG(2))</f>
-        <v>14.379401452354404</v>
+        <v>17.773883106680689</v>
       </c>
       <c r="AF50" s="179">
         <f t="shared" ref="AF50" si="55">(AF24-$J$24)/(LOG(AF49/$J$49)/LOG(2))</f>
-        <v>14.632457355620517</v>
+        <v>18.144247120969442</v>
       </c>
       <c r="AG50" s="179">
         <f t="shared" ref="AG50" si="56">(AG24-$J$24)/(LOG(AG49/$J$49)/LOG(2))</f>
-        <v>14.863708336342068</v>
+        <v>18.482698192147094</v>
       </c>
       <c r="AH50" s="179">
         <f t="shared" ref="AH50:AI50" si="57">(AH24-$J$24)/(LOG(AH49/$J$49)/LOG(2))</f>
-        <v>15.686216778339332</v>
+        <v>19.554051052450401</v>
       </c>
       <c r="AI50" s="180">
         <f t="shared" si="57"/>
-        <v>18.092869215563997</v>
+        <v>21.960703489675065</v>
       </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.25">
@@ -38054,7 +38058,7 @@
         <v>3518</v>
       </c>
       <c r="T52" s="291">
-        <v>6492</v>
+        <v>8406</v>
       </c>
       <c r="U52" s="175"/>
       <c r="V52" s="175"/>
@@ -38115,7 +38119,7 @@
         <v>1043</v>
       </c>
       <c r="T53" s="292">
-        <v>1520</v>
+        <v>1698</v>
       </c>
       <c r="U53" s="176"/>
       <c r="V53" s="176"/>
@@ -42426,7 +42430,7 @@
   <dimension ref="B3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42472,7 +42476,7 @@
         <v>117</v>
       </c>
       <c r="C6" s="154">
-        <v>25216</v>
+        <v>28233</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -42481,7 +42485,7 @@
       </c>
       <c r="C7" s="152">
         <f ca="1">NOW()</f>
-        <v>43981.649908101848</v>
+        <v>43986.723058217591</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -42490,7 +42494,7 @@
       </c>
       <c r="C8" s="153">
         <f ca="1">C7-C5</f>
-        <v>81.649908101848268</v>
+        <v>86.723058217590733</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -42499,7 +42503,7 @@
       </c>
       <c r="C9" s="155">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>8.4556385588572738</v>
+        <v>8.8318887509590915</v>
       </c>
       <c r="D9" t="s">
         <v>96</v>
@@ -42532,7 +42536,7 @@
       </c>
       <c r="C12" s="160">
         <f>C6/Projections!B13</f>
-        <v>117074.28571428572</v>
+        <v>131081.78571428571</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -42541,7 +42545,7 @@
       </c>
       <c r="C13" s="161">
         <f ca="1">(C4/Projections!B13)*(2^(((C7-21)-C5)/C9))</f>
-        <v>20933.339248147284</v>
+        <v>25221.393450759391</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -42550,7 +42554,7 @@
       </c>
       <c r="C14" s="144">
         <f ca="1">C12-C13</f>
-        <v>96140.946466138441</v>
+        <v>105860.39226352632</v>
       </c>
       <c r="E14" s="157"/>
       <c r="F14" s="158" t="s">
@@ -42564,7 +42568,7 @@
       </c>
       <c r="C15" s="64">
         <f>C6*Projections!B17</f>
-        <v>20424.960000000003</v>
+        <v>22868.730000000003</v>
       </c>
       <c r="I15" s="151"/>
     </row>
@@ -42574,7 +42578,7 @@
       </c>
       <c r="C16" s="80">
         <f ca="1">(C4*Projections!B17)*(2^(((C7-21)-C5)/C9))</f>
-        <v>3652.0625703690798</v>
+        <v>4400.1631035632536</v>
       </c>
       <c r="I16" s="151"/>
     </row>
@@ -42584,7 +42588,7 @@
       </c>
       <c r="C17" s="80">
         <f ca="1">C15-C16</f>
-        <v>16772.897429630924</v>
+        <v>18468.566896436751</v>
       </c>
       <c r="F17" t="s">
         <v>141</v>
@@ -42597,7 +42601,7 @@
       </c>
       <c r="C18" s="64">
         <f>C6*Projections!B18</f>
-        <v>3530.2400000000002</v>
+        <v>3952.6200000000003</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -42606,7 +42610,7 @@
       </c>
       <c r="C19" s="80">
         <f ca="1">(C4*Projections!B18)*(2^(((C7-49)-C5)/C9))</f>
-        <v>63.584396417397123</v>
+        <v>84.478740288304238</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -42615,7 +42619,7 @@
       </c>
       <c r="C20" s="80">
         <f ca="1">C18-C19</f>
-        <v>3466.6556035826029</v>
+        <v>3868.141259711696</v>
       </c>
       <c r="F20" t="s">
         <v>146</v>
@@ -42627,7 +42631,7 @@
       </c>
       <c r="C21" s="64">
         <f>C6*Projections!B19</f>
-        <v>1260.8000000000002</v>
+        <v>1411.65</v>
       </c>
       <c r="I21" s="151"/>
     </row>
@@ -42637,7 +42641,7 @@
       </c>
       <c r="C22" s="80">
         <f ca="1">(C4*Projections!B19)*(2^(((C7-49)-C5)/C9))</f>
-        <v>22.708713006213259</v>
+        <v>30.170978674394373</v>
       </c>
       <c r="I22" s="151"/>
     </row>
@@ -42647,7 +42651,7 @@
       </c>
       <c r="C23" s="80">
         <f ca="1">C21-C22</f>
-        <v>1238.091286993787</v>
+        <v>1381.4790213256058</v>
       </c>
       <c r="I23" s="151"/>
     </row>
@@ -42657,7 +42661,7 @@
       </c>
       <c r="C24" s="64">
         <f>C6*Projections!B20</f>
-        <v>1639.04</v>
+        <v>1835.145</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -42666,7 +42670,7 @@
       </c>
       <c r="C25" s="61">
         <f ca="1">(C4*Projections!B20)*(2^(((C7-42)-C5)/C9))</f>
-        <v>52.40147869929509</v>
+        <v>67.939733791722034</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -42678,7 +42682,7 @@
       </c>
       <c r="C26" s="164">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>59.365766060515995</v>
+        <v>60.56738444671943</v>
       </c>
       <c r="D26" t="s">
         <v>96</v>
@@ -42693,7 +42697,7 @@
       </c>
       <c r="C27" s="163">
         <f ca="1">C7+C26</f>
-        <v>44041.015674162365</v>
+        <v>44047.290442664307</v>
       </c>
       <c r="F27" t="s">
         <v>154</v>
@@ -42705,7 +42709,7 @@
       </c>
       <c r="C28" s="162">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>21.535820994778309</v>
+        <v>21.05412191192136</v>
       </c>
       <c r="D28" t="s">
         <v>96</v>
@@ -42717,7 +42721,7 @@
       </c>
       <c r="C29" s="163">
         <f ca="1">C7+C28</f>
-        <v>44003.185729096629</v>
+        <v>44007.777180129509</v>
       </c>
       <c r="F29" t="s">
         <v>154</v>
@@ -42729,7 +42733,7 @@
       </c>
       <c r="C30" s="162">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>88.358825670161409</v>
+        <v>90.850547006226833</v>
       </c>
       <c r="D30" t="s">
         <v>96</v>
@@ -42741,7 +42745,7 @@
       </c>
       <c r="C31" s="163">
         <f ca="1">C7+C30</f>
-        <v>44070.008733772011</v>
+        <v>44077.573605223821</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -42750,7 +42754,7 @@
       </c>
       <c r="C34" s="152">
         <f ca="1">C7+30</f>
-        <v>44011.649908101848</v>
+        <v>44016.723058217591</v>
       </c>
       <c r="F34" t="s">
         <v>167</v>
@@ -42762,7 +42766,7 @@
       </c>
       <c r="C35" s="80">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>294923.28331327939</v>
+        <v>297365.28982203203</v>
       </c>
       <c r="F35" t="s">
         <v>139</v>
@@ -42774,7 +42778,7 @@
       </c>
       <c r="C36" s="80">
         <f ca="1">C35/Projections!B13</f>
-        <v>1369286.6725259402</v>
+        <v>1380624.559888006</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -42783,7 +42787,7 @@
       </c>
       <c r="C37" s="80">
         <f ca="1">C35*Projections!B17</f>
-        <v>238887.85948375633</v>
+        <v>240865.88475584597</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -42792,7 +42796,7 @@
       </c>
       <c r="C38" s="80">
         <f ca="1">C35*Projections!B18</f>
-        <v>41289.25966385912</v>
+        <v>41631.140575084486</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -42801,7 +42805,7 @@
       </c>
       <c r="C39" s="80">
         <f ca="1">C35*Projections!B19</f>
-        <v>14746.164165663969</v>
+        <v>14868.264491101603</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -42810,7 +42814,7 @@
       </c>
       <c r="C40" s="61">
         <f ca="1">C35*Projections!B20</f>
-        <v>19170.013415363162</v>
+        <v>19328.743838432081</v>
       </c>
     </row>
   </sheetData>

--- a/Indonesian COVID-19 Infection Projections.xlsx
+++ b/Indonesian COVID-19 Infection Projections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730987E7-4092-4E4C-A04C-C25DC329D061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0034BC7-7BC7-4A8D-9240-860866CD374C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="214">
   <si>
     <t>By Age</t>
   </si>
@@ -676,6 +676,9 @@
   </si>
   <si>
     <t>Tourism sites allowed to reopen</t>
+  </si>
+  <si>
+    <t>The official death rate of children to COVID-19 in Indonesia is 2.1% with 28 deaths of children recorded, but it is suspected that the actual number is in the hundreds with 380 deaths of people under 18 with severe COVID-19 symptoms but not testing positive and probably the highest rate of child death due to COVID-19 in the world.  Achmad Yurianto, a senior health ministry official, described Indonesian children as being caught in a "devil's circle" — a cycle of malnutrition and anaemia that increased their vulnerability to the coronavirus.  He compared malnourished children to weak structures that "crumble after an earthquake".</t>
   </si>
 </sst>
 </file>
@@ -1441,6 +1444,8 @@
     <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1465,8 +1470,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Heading" xfId="3" xr:uid="{DB9EF5E1-A693-41C3-82C7-CA90563DBB00}"/>
@@ -1831,46 +1834,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43952.54217789352</c:v>
+                  <c:v>43959.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43955.54217789352</c:v>
+                  <c:v>43962.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43958.54217789352</c:v>
+                  <c:v>43965.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43961.54217789352</c:v>
+                  <c:v>43968.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43964.54217789352</c:v>
+                  <c:v>43971.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43967.54217789352</c:v>
+                  <c:v>43974.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43970.54217789352</c:v>
+                  <c:v>43977.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43973.54217789352</c:v>
+                  <c:v>43980.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43976.54217789352</c:v>
+                  <c:v>43983.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43979.54217789352</c:v>
+                  <c:v>43986.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43982.54217789352</c:v>
+                  <c:v>43989.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43985.54217789352</c:v>
+                  <c:v>43992.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43988.54217789352</c:v>
+                  <c:v>43995.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43991.54217789352</c:v>
+                  <c:v>43998.842825925924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1980,46 +1983,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43952.54217789352</c:v>
+                  <c:v>43959.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43955.54217789352</c:v>
+                  <c:v>43962.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43958.54217789352</c:v>
+                  <c:v>43965.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43961.54217789352</c:v>
+                  <c:v>43968.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43964.54217789352</c:v>
+                  <c:v>43971.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43967.54217789352</c:v>
+                  <c:v>43974.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43970.54217789352</c:v>
+                  <c:v>43977.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43973.54217789352</c:v>
+                  <c:v>43980.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43976.54217789352</c:v>
+                  <c:v>43983.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43979.54217789352</c:v>
+                  <c:v>43986.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43982.54217789352</c:v>
+                  <c:v>43989.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43985.54217789352</c:v>
+                  <c:v>43992.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43988.54217789352</c:v>
+                  <c:v>43995.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43991.54217789352</c:v>
+                  <c:v>43998.842825925924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2129,46 +2132,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43952.54217789352</c:v>
+                  <c:v>43959.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43955.54217789352</c:v>
+                  <c:v>43962.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43958.54217789352</c:v>
+                  <c:v>43965.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43961.54217789352</c:v>
+                  <c:v>43968.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43964.54217789352</c:v>
+                  <c:v>43971.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43967.54217789352</c:v>
+                  <c:v>43974.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43970.54217789352</c:v>
+                  <c:v>43977.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43973.54217789352</c:v>
+                  <c:v>43980.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43976.54217789352</c:v>
+                  <c:v>43983.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43979.54217789352</c:v>
+                  <c:v>43986.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43982.54217789352</c:v>
+                  <c:v>43989.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43985.54217789352</c:v>
+                  <c:v>43992.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43988.54217789352</c:v>
+                  <c:v>43995.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43991.54217789352</c:v>
+                  <c:v>43998.842825925924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3322,7 +3325,7 @@
                   <c:v>1883</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0">
-                  <c:v>1923</c:v>
+                  <c:v>2276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11967,7 +11970,7 @@
                   <c:v>1883</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0">
-                  <c:v>1923</c:v>
+                  <c:v>2276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12296,46 +12299,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43952.54217789352</c:v>
+                  <c:v>43959.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43955.54217789352</c:v>
+                  <c:v>43962.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43958.54217789352</c:v>
+                  <c:v>43965.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43961.54217789352</c:v>
+                  <c:v>43968.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43964.54217789352</c:v>
+                  <c:v>43971.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43967.54217789352</c:v>
+                  <c:v>43974.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43970.54217789352</c:v>
+                  <c:v>43977.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43973.54217789352</c:v>
+                  <c:v>43980.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43976.54217789352</c:v>
+                  <c:v>43983.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43979.54217789352</c:v>
+                  <c:v>43986.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43982.54217789352</c:v>
+                  <c:v>43989.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43985.54217789352</c:v>
+                  <c:v>43992.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43988.54217789352</c:v>
+                  <c:v>43995.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43991.54217789352</c:v>
+                  <c:v>43998.842825925924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12436,46 +12439,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43952.54217789352</c:v>
+                  <c:v>43959.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43955.54217789352</c:v>
+                  <c:v>43962.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43958.54217789352</c:v>
+                  <c:v>43965.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43961.54217789352</c:v>
+                  <c:v>43968.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43964.54217789352</c:v>
+                  <c:v>43971.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43967.54217789352</c:v>
+                  <c:v>43974.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43970.54217789352</c:v>
+                  <c:v>43977.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43973.54217789352</c:v>
+                  <c:v>43980.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43976.54217789352</c:v>
+                  <c:v>43983.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43979.54217789352</c:v>
+                  <c:v>43986.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43982.54217789352</c:v>
+                  <c:v>43989.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43985.54217789352</c:v>
+                  <c:v>43992.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43988.54217789352</c:v>
+                  <c:v>43995.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43991.54217789352</c:v>
+                  <c:v>43998.842825925924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12579,46 +12582,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43952.54217789352</c:v>
+                  <c:v>43959.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43955.54217789352</c:v>
+                  <c:v>43962.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43958.54217789352</c:v>
+                  <c:v>43965.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43961.54217789352</c:v>
+                  <c:v>43968.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43964.54217789352</c:v>
+                  <c:v>43971.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43967.54217789352</c:v>
+                  <c:v>43974.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43970.54217789352</c:v>
+                  <c:v>43977.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43973.54217789352</c:v>
+                  <c:v>43980.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43976.54217789352</c:v>
+                  <c:v>43983.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43979.54217789352</c:v>
+                  <c:v>43986.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43982.54217789352</c:v>
+                  <c:v>43989.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43985.54217789352</c:v>
+                  <c:v>43992.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43988.54217789352</c:v>
+                  <c:v>43995.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43991.54217789352</c:v>
+                  <c:v>43998.842825925924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12716,46 +12719,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43952.54217789352</c:v>
+                  <c:v>43959.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43955.54217789352</c:v>
+                  <c:v>43962.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43958.54217789352</c:v>
+                  <c:v>43965.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43961.54217789352</c:v>
+                  <c:v>43968.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43964.54217789352</c:v>
+                  <c:v>43971.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43967.54217789352</c:v>
+                  <c:v>43974.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43970.54217789352</c:v>
+                  <c:v>43977.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43973.54217789352</c:v>
+                  <c:v>43980.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43976.54217789352</c:v>
+                  <c:v>43983.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43979.54217789352</c:v>
+                  <c:v>43986.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43982.54217789352</c:v>
+                  <c:v>43989.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43985.54217789352</c:v>
+                  <c:v>43992.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43988.54217789352</c:v>
+                  <c:v>43995.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43991.54217789352</c:v>
+                  <c:v>43998.842825925924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13123,46 +13126,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43952.54217789352</c:v>
+                  <c:v>43959.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43955.54217789352</c:v>
+                  <c:v>43962.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43958.54217789352</c:v>
+                  <c:v>43965.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43961.54217789352</c:v>
+                  <c:v>43968.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43964.54217789352</c:v>
+                  <c:v>43971.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43967.54217789352</c:v>
+                  <c:v>43974.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43970.54217789352</c:v>
+                  <c:v>43977.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43973.54217789352</c:v>
+                  <c:v>43980.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43976.54217789352</c:v>
+                  <c:v>43983.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43979.54217789352</c:v>
+                  <c:v>43986.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43982.54217789352</c:v>
+                  <c:v>43989.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43985.54217789352</c:v>
+                  <c:v>43992.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43988.54217789352</c:v>
+                  <c:v>43995.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43991.54217789352</c:v>
+                  <c:v>43998.842825925924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13272,46 +13275,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43952.54217789352</c:v>
+                  <c:v>43959.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43955.54217789352</c:v>
+                  <c:v>43962.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43958.54217789352</c:v>
+                  <c:v>43965.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43961.54217789352</c:v>
+                  <c:v>43968.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43964.54217789352</c:v>
+                  <c:v>43971.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43967.54217789352</c:v>
+                  <c:v>43974.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43970.54217789352</c:v>
+                  <c:v>43977.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43973.54217789352</c:v>
+                  <c:v>43980.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43976.54217789352</c:v>
+                  <c:v>43983.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43979.54217789352</c:v>
+                  <c:v>43986.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43982.54217789352</c:v>
+                  <c:v>43989.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43985.54217789352</c:v>
+                  <c:v>43992.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43988.54217789352</c:v>
+                  <c:v>43995.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43991.54217789352</c:v>
+                  <c:v>43998.842825925924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13421,46 +13424,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43952.54217789352</c:v>
+                  <c:v>43959.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43955.54217789352</c:v>
+                  <c:v>43962.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43958.54217789352</c:v>
+                  <c:v>43965.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43961.54217789352</c:v>
+                  <c:v>43968.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43964.54217789352</c:v>
+                  <c:v>43971.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43967.54217789352</c:v>
+                  <c:v>43974.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43970.54217789352</c:v>
+                  <c:v>43977.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43973.54217789352</c:v>
+                  <c:v>43980.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43976.54217789352</c:v>
+                  <c:v>43983.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43979.54217789352</c:v>
+                  <c:v>43986.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43982.54217789352</c:v>
+                  <c:v>43989.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43985.54217789352</c:v>
+                  <c:v>43992.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43988.54217789352</c:v>
+                  <c:v>43995.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43991.54217789352</c:v>
+                  <c:v>43998.842825925924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13838,46 +13841,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43952.54217789352</c:v>
+                  <c:v>43959.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43955.54217789352</c:v>
+                  <c:v>43962.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43958.54217789352</c:v>
+                  <c:v>43965.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43961.54217789352</c:v>
+                  <c:v>43968.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43964.54217789352</c:v>
+                  <c:v>43971.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43967.54217789352</c:v>
+                  <c:v>43974.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43970.54217789352</c:v>
+                  <c:v>43977.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43973.54217789352</c:v>
+                  <c:v>43980.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43976.54217789352</c:v>
+                  <c:v>43983.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43979.54217789352</c:v>
+                  <c:v>43986.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43982.54217789352</c:v>
+                  <c:v>43989.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43985.54217789352</c:v>
+                  <c:v>43992.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43988.54217789352</c:v>
+                  <c:v>43995.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43991.54217789352</c:v>
+                  <c:v>43998.842825925924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13978,46 +13981,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43952.54217789352</c:v>
+                  <c:v>43959.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43955.54217789352</c:v>
+                  <c:v>43962.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43958.54217789352</c:v>
+                  <c:v>43965.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43961.54217789352</c:v>
+                  <c:v>43968.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43964.54217789352</c:v>
+                  <c:v>43971.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43967.54217789352</c:v>
+                  <c:v>43974.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43970.54217789352</c:v>
+                  <c:v>43977.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43973.54217789352</c:v>
+                  <c:v>43980.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43976.54217789352</c:v>
+                  <c:v>43983.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43979.54217789352</c:v>
+                  <c:v>43986.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43982.54217789352</c:v>
+                  <c:v>43989.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43985.54217789352</c:v>
+                  <c:v>43992.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43988.54217789352</c:v>
+                  <c:v>43995.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43991.54217789352</c:v>
+                  <c:v>43998.842825925924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14121,46 +14124,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43952.54217789352</c:v>
+                  <c:v>43959.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43955.54217789352</c:v>
+                  <c:v>43962.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43958.54217789352</c:v>
+                  <c:v>43965.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43961.54217789352</c:v>
+                  <c:v>43968.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43964.54217789352</c:v>
+                  <c:v>43971.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43967.54217789352</c:v>
+                  <c:v>43974.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43970.54217789352</c:v>
+                  <c:v>43977.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43973.54217789352</c:v>
+                  <c:v>43980.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43976.54217789352</c:v>
+                  <c:v>43983.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43979.54217789352</c:v>
+                  <c:v>43986.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43982.54217789352</c:v>
+                  <c:v>43989.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43985.54217789352</c:v>
+                  <c:v>43992.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43988.54217789352</c:v>
+                  <c:v>43995.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43991.54217789352</c:v>
+                  <c:v>43998.842825925924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14258,46 +14261,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43952.54217789352</c:v>
+                  <c:v>43959.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43955.54217789352</c:v>
+                  <c:v>43962.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43958.54217789352</c:v>
+                  <c:v>43965.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43961.54217789352</c:v>
+                  <c:v>43968.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43964.54217789352</c:v>
+                  <c:v>43971.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43967.54217789352</c:v>
+                  <c:v>43974.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43970.54217789352</c:v>
+                  <c:v>43977.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43973.54217789352</c:v>
+                  <c:v>43980.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43976.54217789352</c:v>
+                  <c:v>43983.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43979.54217789352</c:v>
+                  <c:v>43986.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43982.54217789352</c:v>
+                  <c:v>43989.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43985.54217789352</c:v>
+                  <c:v>43992.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43988.54217789352</c:v>
+                  <c:v>43995.842825925924</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43991.54217789352</c:v>
+                  <c:v>43998.842825925924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -33837,167 +33840,167 @@
       </c>
       <c r="B26" s="85">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>43952.54217789352</v>
+        <v>43959.842825925924</v>
       </c>
       <c r="C26" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>43953.54217789352</v>
+        <v>43960.842825925924</v>
       </c>
       <c r="D26" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>43954.54217789352</v>
+        <v>43961.842825925924</v>
       </c>
       <c r="E26" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>43955.54217789352</v>
+        <v>43962.842825925924</v>
       </c>
       <c r="F26" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>43956.54217789352</v>
+        <v>43963.842825925924</v>
       </c>
       <c r="G26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43957.54217789352</v>
+        <v>43964.842825925924</v>
       </c>
       <c r="H26" s="86">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>43958.54217789352</v>
+        <v>43965.842825925924</v>
       </c>
       <c r="I26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43959.54217789352</v>
+        <v>43966.842825925924</v>
       </c>
       <c r="J26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43960.54217789352</v>
+        <v>43967.842825925924</v>
       </c>
       <c r="K26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43961.54217789352</v>
+        <v>43968.842825925924</v>
       </c>
       <c r="L26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43962.54217789352</v>
+        <v>43969.842825925924</v>
       </c>
       <c r="M26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43963.54217789352</v>
+        <v>43970.842825925924</v>
       </c>
       <c r="N26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43964.54217789352</v>
+        <v>43971.842825925924</v>
       </c>
       <c r="O26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>43965.54217789352</v>
+        <v>43972.842825925924</v>
       </c>
       <c r="P26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43966.54217789352</v>
+        <v>43973.842825925924</v>
       </c>
       <c r="Q26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43967.54217789352</v>
+        <v>43974.842825925924</v>
       </c>
       <c r="R26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43968.54217789352</v>
+        <v>43975.842825925924</v>
       </c>
       <c r="S26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43969.54217789352</v>
+        <v>43976.842825925924</v>
       </c>
       <c r="T26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43970.54217789352</v>
+        <v>43977.842825925924</v>
       </c>
       <c r="U26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43971.54217789352</v>
+        <v>43978.842825925924</v>
       </c>
       <c r="V26" s="85">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>43972.54217789352</v>
+        <v>43979.842825925924</v>
       </c>
       <c r="W26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43973.54217789352</v>
+        <v>43980.842825925924</v>
       </c>
       <c r="X26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43974.54217789352</v>
+        <v>43981.842825925924</v>
       </c>
       <c r="Y26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43975.54217789352</v>
+        <v>43982.842825925924</v>
       </c>
       <c r="Z26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43976.54217789352</v>
+        <v>43983.842825925924</v>
       </c>
       <c r="AA26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43977.54217789352</v>
+        <v>43984.842825925924</v>
       </c>
       <c r="AB26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43978.54217789352</v>
+        <v>43985.842825925924</v>
       </c>
       <c r="AC26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>43979.54217789352</v>
+        <v>43986.842825925924</v>
       </c>
       <c r="AD26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43980.54217789352</v>
+        <v>43987.842825925924</v>
       </c>
       <c r="AE26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43981.54217789352</v>
+        <v>43988.842825925924</v>
       </c>
       <c r="AF26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43982.54217789352</v>
+        <v>43989.842825925924</v>
       </c>
       <c r="AG26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43983.54217789352</v>
+        <v>43990.842825925924</v>
       </c>
       <c r="AH26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43984.54217789352</v>
+        <v>43991.842825925924</v>
       </c>
       <c r="AI26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43985.54217789352</v>
+        <v>43992.842825925924</v>
       </c>
       <c r="AJ26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>43986.54217789352</v>
+        <v>43993.842825925924</v>
       </c>
       <c r="AK26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43987.54217789352</v>
+        <v>43994.842825925924</v>
       </c>
       <c r="AL26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43988.54217789352</v>
+        <v>43995.842825925924</v>
       </c>
       <c r="AM26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43989.54217789352</v>
+        <v>43996.842825925924</v>
       </c>
       <c r="AN26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43990.54217789352</v>
+        <v>43997.842825925924</v>
       </c>
       <c r="AO26" s="86">
         <f ca="1">AP26-1</f>
-        <v>43991.54217789352</v>
+        <v>43998.842825925924</v>
       </c>
       <c r="AP26" s="107">
         <f ca="1">NOW()</f>
-        <v>43992.54217789352</v>
+        <v>43999.842825925924</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -34132,59 +34135,59 @@
       <c r="A28" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="290" t="s">
+      <c r="B28" s="292" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="291"/>
-      <c r="D28" s="291"/>
-      <c r="E28" s="291"/>
-      <c r="F28" s="291"/>
-      <c r="G28" s="292"/>
-      <c r="H28" s="296" t="s">
+      <c r="C28" s="293"/>
+      <c r="D28" s="293"/>
+      <c r="E28" s="293"/>
+      <c r="F28" s="293"/>
+      <c r="G28" s="294"/>
+      <c r="H28" s="298" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="296"/>
-      <c r="J28" s="296"/>
-      <c r="K28" s="296"/>
-      <c r="L28" s="296"/>
-      <c r="M28" s="296"/>
-      <c r="N28" s="297"/>
-      <c r="O28" s="295" t="s">
+      <c r="I28" s="298"/>
+      <c r="J28" s="298"/>
+      <c r="K28" s="298"/>
+      <c r="L28" s="298"/>
+      <c r="M28" s="298"/>
+      <c r="N28" s="299"/>
+      <c r="O28" s="297" t="s">
         <v>56</v>
       </c>
-      <c r="P28" s="296"/>
-      <c r="Q28" s="296"/>
-      <c r="R28" s="296"/>
-      <c r="S28" s="296"/>
-      <c r="T28" s="296"/>
-      <c r="U28" s="297"/>
-      <c r="V28" s="295" t="s">
+      <c r="P28" s="298"/>
+      <c r="Q28" s="298"/>
+      <c r="R28" s="298"/>
+      <c r="S28" s="298"/>
+      <c r="T28" s="298"/>
+      <c r="U28" s="299"/>
+      <c r="V28" s="297" t="s">
         <v>57</v>
       </c>
-      <c r="W28" s="296"/>
-      <c r="X28" s="296"/>
-      <c r="Y28" s="296"/>
-      <c r="Z28" s="296"/>
-      <c r="AA28" s="296"/>
-      <c r="AB28" s="297"/>
-      <c r="AC28" s="295" t="s">
+      <c r="W28" s="298"/>
+      <c r="X28" s="298"/>
+      <c r="Y28" s="298"/>
+      <c r="Z28" s="298"/>
+      <c r="AA28" s="298"/>
+      <c r="AB28" s="299"/>
+      <c r="AC28" s="297" t="s">
         <v>58</v>
       </c>
-      <c r="AD28" s="296"/>
-      <c r="AE28" s="296"/>
-      <c r="AF28" s="296"/>
-      <c r="AG28" s="296"/>
-      <c r="AH28" s="296"/>
-      <c r="AI28" s="297"/>
-      <c r="AJ28" s="295" t="s">
+      <c r="AD28" s="298"/>
+      <c r="AE28" s="298"/>
+      <c r="AF28" s="298"/>
+      <c r="AG28" s="298"/>
+      <c r="AH28" s="298"/>
+      <c r="AI28" s="299"/>
+      <c r="AJ28" s="297" t="s">
         <v>59</v>
       </c>
-      <c r="AK28" s="296"/>
-      <c r="AL28" s="296"/>
-      <c r="AM28" s="296"/>
-      <c r="AN28" s="296"/>
-      <c r="AO28" s="296"/>
-      <c r="AP28" s="297"/>
+      <c r="AK28" s="298"/>
+      <c r="AL28" s="298"/>
+      <c r="AM28" s="298"/>
+      <c r="AN28" s="298"/>
+      <c r="AO28" s="298"/>
+      <c r="AP28" s="299"/>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B29" s="51" t="s">
@@ -34195,43 +34198,43 @@
       <c r="E29" s="92"/>
       <c r="F29" s="92"/>
       <c r="G29" s="93"/>
-      <c r="H29" s="293" t="s">
+      <c r="H29" s="295" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="293"/>
-      <c r="J29" s="293"/>
-      <c r="K29" s="293"/>
-      <c r="L29" s="293"/>
-      <c r="M29" s="293"/>
-      <c r="N29" s="293"/>
-      <c r="O29" s="293"/>
-      <c r="P29" s="293"/>
-      <c r="Q29" s="293"/>
-      <c r="R29" s="293"/>
-      <c r="S29" s="293"/>
-      <c r="T29" s="293"/>
-      <c r="U29" s="293"/>
-      <c r="V29" s="293"/>
-      <c r="W29" s="293"/>
-      <c r="X29" s="293"/>
-      <c r="Y29" s="293"/>
-      <c r="Z29" s="293"/>
-      <c r="AA29" s="293"/>
-      <c r="AB29" s="293"/>
-      <c r="AC29" s="293"/>
-      <c r="AD29" s="293"/>
-      <c r="AE29" s="293"/>
-      <c r="AF29" s="293"/>
-      <c r="AG29" s="293"/>
-      <c r="AH29" s="293"/>
-      <c r="AI29" s="293"/>
-      <c r="AJ29" s="293"/>
-      <c r="AK29" s="293"/>
-      <c r="AL29" s="293"/>
-      <c r="AM29" s="293"/>
-      <c r="AN29" s="293"/>
-      <c r="AO29" s="293"/>
-      <c r="AP29" s="294"/>
+      <c r="I29" s="295"/>
+      <c r="J29" s="295"/>
+      <c r="K29" s="295"/>
+      <c r="L29" s="295"/>
+      <c r="M29" s="295"/>
+      <c r="N29" s="295"/>
+      <c r="O29" s="295"/>
+      <c r="P29" s="295"/>
+      <c r="Q29" s="295"/>
+      <c r="R29" s="295"/>
+      <c r="S29" s="295"/>
+      <c r="T29" s="295"/>
+      <c r="U29" s="295"/>
+      <c r="V29" s="295"/>
+      <c r="W29" s="295"/>
+      <c r="X29" s="295"/>
+      <c r="Y29" s="295"/>
+      <c r="Z29" s="295"/>
+      <c r="AA29" s="295"/>
+      <c r="AB29" s="295"/>
+      <c r="AC29" s="295"/>
+      <c r="AD29" s="295"/>
+      <c r="AE29" s="295"/>
+      <c r="AF29" s="295"/>
+      <c r="AG29" s="295"/>
+      <c r="AH29" s="295"/>
+      <c r="AI29" s="295"/>
+      <c r="AJ29" s="295"/>
+      <c r="AK29" s="295"/>
+      <c r="AL29" s="295"/>
+      <c r="AM29" s="295"/>
+      <c r="AN29" s="295"/>
+      <c r="AO29" s="295"/>
+      <c r="AP29" s="296"/>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B31" s="57" t="s">
@@ -34900,13 +34903,12 @@
       <c r="N18" s="155"/>
       <c r="O18" s="47"/>
       <c r="P18" s="69"/>
-      <c r="T18" s="266">
-        <v>43997</v>
-      </c>
-      <c r="U18" s="267" t="s">
-        <v>211</v>
-      </c>
-      <c r="V18" s="69"/>
+      <c r="T18" s="205">
+        <v>43994</v>
+      </c>
+      <c r="U18" t="s">
+        <v>213</v>
+      </c>
       <c r="W18" s="276"/>
       <c r="X18" s="155"/>
       <c r="Y18" s="69"/>
@@ -34939,10 +34941,10 @@
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
       <c r="T19" s="266">
-        <v>44002</v>
+        <v>43997</v>
       </c>
       <c r="U19" s="267" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="V19" s="69"/>
       <c r="W19" s="69"/>
@@ -34974,7 +34976,13 @@
       <c r="N20" s="69"/>
       <c r="O20" s="230"/>
       <c r="P20" s="16"/>
-      <c r="V20" s="155"/>
+      <c r="T20" s="266">
+        <v>44002</v>
+      </c>
+      <c r="U20" s="267" t="s">
+        <v>212</v>
+      </c>
+      <c r="V20" s="69"/>
       <c r="W20" s="69"/>
       <c r="X20" s="69"/>
       <c r="Y20" s="155"/>
@@ -38193,8 +38201,8 @@
         <f t="shared" ref="T56" si="62">T53-T57-T55</f>
         <v>10904</v>
       </c>
-      <c r="U56" s="298">
-        <v>11414</v>
+      <c r="U56" s="290">
+        <v>16243</v>
       </c>
       <c r="V56" s="174"/>
       <c r="W56" s="174"/>
@@ -38256,8 +38264,8 @@
       <c r="T57" s="52">
         <v>1883</v>
       </c>
-      <c r="U57" s="299">
-        <v>1923</v>
+      <c r="U57" s="291">
+        <v>2276</v>
       </c>
       <c r="V57" s="175"/>
       <c r="W57" s="175"/>
@@ -42643,7 +42651,7 @@
         <v>117</v>
       </c>
       <c r="C6" s="153">
-        <v>33076</v>
+        <v>41431</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -42652,7 +42660,7 @@
       </c>
       <c r="C7" s="151">
         <f ca="1">NOW()</f>
-        <v>43992.54217789352</v>
+        <v>43999.842825925924</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -42661,7 +42669,7 @@
       </c>
       <c r="C8" s="152">
         <f ca="1">C7-C5</f>
-        <v>92.542177893519693</v>
+        <v>99.842825925923535</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -42670,7 +42678,7 @@
       </c>
       <c r="C9" s="154">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>9.2102729341758156</v>
+        <v>9.6255956131301552</v>
       </c>
       <c r="D9" t="s">
         <v>96</v>
@@ -42703,7 +42711,7 @@
       </c>
       <c r="C12" s="159">
         <f>C6/Projections!B17</f>
-        <v>139391.71428571429</v>
+        <v>174602.07142857142</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -42712,7 +42720,7 @@
       </c>
       <c r="C13" s="160">
         <f ca="1">(C4/Projections!B17)*(2^(((C7-21)-C5)/C9))</f>
-        <v>28699.193150279509</v>
+        <v>38485.516105321993</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -42721,7 +42729,7 @@
       </c>
       <c r="C14" s="143">
         <f ca="1">C12-C13</f>
-        <v>110692.52113543478</v>
+        <v>136116.55532324943</v>
       </c>
       <c r="E14" s="156"/>
       <c r="F14" s="157" t="s">
@@ -42735,7 +42743,7 @@
       </c>
       <c r="C15" s="64">
         <f>C6*Projections!B21</f>
-        <v>26791.56</v>
+        <v>33559.11</v>
       </c>
       <c r="I15" s="150"/>
     </row>
@@ -42745,7 +42753,7 @@
       </c>
       <c r="C16" s="79">
         <f ca="1">(C4*Projections!B21)*(2^(((C7-21)-C5)/C9))</f>
-        <v>5516.0822088842324</v>
+        <v>7397.0466548195163</v>
       </c>
       <c r="I16" s="150"/>
     </row>
@@ -42755,7 +42763,7 @@
       </c>
       <c r="C17" s="79">
         <f ca="1">C15-C16</f>
-        <v>21275.477791115769</v>
+        <v>26162.063345180482</v>
       </c>
       <c r="F17" t="s">
         <v>141</v>
@@ -42768,7 +42776,7 @@
       </c>
       <c r="C18" s="64">
         <f>C6*Projections!B22</f>
-        <v>4630.6400000000003</v>
+        <v>5800.34</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -42777,7 +42785,7 @@
       </c>
       <c r="C19" s="79">
         <f ca="1">(C4*Projections!B22)*(2^(((C7-49)-C5)/C9))</f>
-        <v>115.90906007536512</v>
+        <v>170.22836936943932</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -42786,7 +42794,7 @@
       </c>
       <c r="C20" s="79">
         <f ca="1">C18-C19</f>
-        <v>4514.7309399246351</v>
+        <v>5630.1116306305612</v>
       </c>
       <c r="F20" t="s">
         <v>146</v>
@@ -42798,7 +42806,7 @@
       </c>
       <c r="C21" s="64">
         <f>C6*Projections!B23</f>
-        <v>1653.8000000000002</v>
+        <v>2071.5500000000002</v>
       </c>
       <c r="I21" s="150"/>
     </row>
@@ -42808,7 +42816,7 @@
       </c>
       <c r="C22" s="79">
         <f ca="1">(C4*Projections!B23)*(2^(((C7-49)-C5)/C9))</f>
-        <v>41.396092884058973</v>
+        <v>60.795846203371184</v>
       </c>
       <c r="I22" s="150"/>
     </row>
@@ -42818,7 +42826,7 @@
       </c>
       <c r="C23" s="79">
         <f ca="1">C21-C22</f>
-        <v>1612.4039071159411</v>
+        <v>2010.754153796629</v>
       </c>
       <c r="I23" s="150"/>
     </row>
@@ -42828,7 +42836,7 @@
       </c>
       <c r="C24" s="64">
         <f>C6*Projections!B24</f>
-        <v>1951.4839999999999</v>
+        <v>2444.4290000000001</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -42837,7 +42845,7 @@
       </c>
       <c r="C25" s="61">
         <f ca="1">(C4*Projections!B24)*(2^(((C7-42)-C5)/C9))</f>
-        <v>82.723795196630746</v>
+        <v>118.76084360765965</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -42849,7 +42857,7 @@
       </c>
       <c r="C26" s="163">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>61.058622092389733</v>
+        <v>60.684358999455242</v>
       </c>
       <c r="D26" t="s">
         <v>96</v>
@@ -42864,7 +42872,7 @@
       </c>
       <c r="C27" s="162">
         <f ca="1">C7+C26</f>
-        <v>44053.600799985907</v>
+        <v>44060.527184925377</v>
       </c>
       <c r="F27" t="s">
         <v>154</v>
@@ -42876,7 +42884,7 @@
       </c>
       <c r="C28" s="161">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>19.852494759126671</v>
+        <v>17.620106579596591</v>
       </c>
       <c r="D28" t="s">
         <v>96</v>
@@ -42888,7 +42896,7 @@
       </c>
       <c r="C29" s="162">
         <f ca="1">C7+C28</f>
-        <v>44012.394672652648</v>
+        <v>44017.462932505521</v>
       </c>
       <c r="F29" t="s">
         <v>154</v>
@@ -42900,7 +42908,7 @@
       </c>
       <c r="C30" s="161">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>93.926107931925898</v>
+        <v>95.033952086727552</v>
       </c>
       <c r="D30" t="s">
         <v>96</v>
@@ -42912,7 +42920,7 @@
       </c>
       <c r="C31" s="162">
         <f ca="1">C7+C30</f>
-        <v>44086.468285825445</v>
+        <v>44094.876778012651</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -42921,7 +42929,7 @@
       </c>
       <c r="C34" s="151">
         <f ca="1">C7+30</f>
-        <v>44022.54217789352</v>
+        <v>44029.842825925924</v>
       </c>
       <c r="F34" t="s">
         <v>167</v>
@@ -42933,7 +42941,7 @@
       </c>
       <c r="C35" s="79">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>316255.18730307918</v>
+        <v>359370.70224697684</v>
       </c>
       <c r="F35" t="s">
         <v>139</v>
@@ -42945,7 +42953,7 @@
       </c>
       <c r="C36" s="79">
         <f ca="1">C35/Projections!B17</f>
-        <v>1332789.7179201194</v>
+        <v>1514490.8166122595</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -42954,7 +42962,7 @@
       </c>
       <c r="C37" s="79">
         <f ca="1">C35*Projections!B21</f>
-        <v>256166.70171549416</v>
+        <v>291090.26882005128</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -42963,7 +42971,7 @@
       </c>
       <c r="C38" s="79">
         <f ca="1">C35*Projections!B22</f>
-        <v>44275.726222431091</v>
+        <v>50311.898314576763</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -42972,7 +42980,7 @@
       </c>
       <c r="C39" s="79">
         <f ca="1">C35*Projections!B23</f>
-        <v>15812.759365153959</v>
+        <v>17968.535112348844</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -42981,7 +42989,7 @@
       </c>
       <c r="C40" s="61">
         <f ca="1">C35*Projections!B24</f>
-        <v>18659.056050881671</v>
+        <v>21202.871432571632</v>
       </c>
     </row>
   </sheetData>

--- a/Indonesian COVID-19 Infection Projections.xlsx
+++ b/Indonesian COVID-19 Infection Projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0034BC7-7BC7-4A8D-9240-860866CD374C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED2CBDE-8D06-484E-BFB6-BED05B500873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
+    <workbookView xWindow="105" yWindow="0" windowWidth="37605" windowHeight="21000" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -1834,46 +1834,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.842825925924</c:v>
+                  <c:v>43960.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.842825925924</c:v>
+                  <c:v>43963.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.842825925924</c:v>
+                  <c:v>43966.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.842825925924</c:v>
+                  <c:v>43969.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.842825925924</c:v>
+                  <c:v>43972.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.842825925924</c:v>
+                  <c:v>43975.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.842825925924</c:v>
+                  <c:v>43978.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.842825925924</c:v>
+                  <c:v>43981.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.842825925924</c:v>
+                  <c:v>43984.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.842825925924</c:v>
+                  <c:v>43987.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.842825925924</c:v>
+                  <c:v>43990.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.842825925924</c:v>
+                  <c:v>43993.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.842825925924</c:v>
+                  <c:v>43996.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.842825925924</c:v>
+                  <c:v>43999.952111574072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1983,46 +1983,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.842825925924</c:v>
+                  <c:v>43960.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.842825925924</c:v>
+                  <c:v>43963.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.842825925924</c:v>
+                  <c:v>43966.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.842825925924</c:v>
+                  <c:v>43969.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.842825925924</c:v>
+                  <c:v>43972.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.842825925924</c:v>
+                  <c:v>43975.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.842825925924</c:v>
+                  <c:v>43978.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.842825925924</c:v>
+                  <c:v>43981.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.842825925924</c:v>
+                  <c:v>43984.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.842825925924</c:v>
+                  <c:v>43987.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.842825925924</c:v>
+                  <c:v>43990.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.842825925924</c:v>
+                  <c:v>43993.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.842825925924</c:v>
+                  <c:v>43996.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.842825925924</c:v>
+                  <c:v>43999.952111574072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2132,46 +2132,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.842825925924</c:v>
+                  <c:v>43960.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.842825925924</c:v>
+                  <c:v>43963.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.842825925924</c:v>
+                  <c:v>43966.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.842825925924</c:v>
+                  <c:v>43969.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.842825925924</c:v>
+                  <c:v>43972.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.842825925924</c:v>
+                  <c:v>43975.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.842825925924</c:v>
+                  <c:v>43978.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.842825925924</c:v>
+                  <c:v>43981.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.842825925924</c:v>
+                  <c:v>43984.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.842825925924</c:v>
+                  <c:v>43987.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.842825925924</c:v>
+                  <c:v>43990.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.842825925924</c:v>
+                  <c:v>43993.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.842825925924</c:v>
+                  <c:v>43996.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.842825925924</c:v>
+                  <c:v>43999.952111574072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3325,7 +3325,7 @@
                   <c:v>1883</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0">
-                  <c:v>2276</c:v>
+                  <c:v>2339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11970,7 +11970,7 @@
                   <c:v>1883</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0">
-                  <c:v>2276</c:v>
+                  <c:v>2339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12299,46 +12299,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.842825925924</c:v>
+                  <c:v>43960.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.842825925924</c:v>
+                  <c:v>43963.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.842825925924</c:v>
+                  <c:v>43966.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.842825925924</c:v>
+                  <c:v>43969.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.842825925924</c:v>
+                  <c:v>43972.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.842825925924</c:v>
+                  <c:v>43975.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.842825925924</c:v>
+                  <c:v>43978.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.842825925924</c:v>
+                  <c:v>43981.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.842825925924</c:v>
+                  <c:v>43984.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.842825925924</c:v>
+                  <c:v>43987.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.842825925924</c:v>
+                  <c:v>43990.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.842825925924</c:v>
+                  <c:v>43993.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.842825925924</c:v>
+                  <c:v>43996.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.842825925924</c:v>
+                  <c:v>43999.952111574072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12439,46 +12439,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.842825925924</c:v>
+                  <c:v>43960.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.842825925924</c:v>
+                  <c:v>43963.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.842825925924</c:v>
+                  <c:v>43966.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.842825925924</c:v>
+                  <c:v>43969.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.842825925924</c:v>
+                  <c:v>43972.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.842825925924</c:v>
+                  <c:v>43975.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.842825925924</c:v>
+                  <c:v>43978.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.842825925924</c:v>
+                  <c:v>43981.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.842825925924</c:v>
+                  <c:v>43984.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.842825925924</c:v>
+                  <c:v>43987.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.842825925924</c:v>
+                  <c:v>43990.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.842825925924</c:v>
+                  <c:v>43993.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.842825925924</c:v>
+                  <c:v>43996.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.842825925924</c:v>
+                  <c:v>43999.952111574072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12582,46 +12582,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.842825925924</c:v>
+                  <c:v>43960.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.842825925924</c:v>
+                  <c:v>43963.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.842825925924</c:v>
+                  <c:v>43966.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.842825925924</c:v>
+                  <c:v>43969.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.842825925924</c:v>
+                  <c:v>43972.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.842825925924</c:v>
+                  <c:v>43975.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.842825925924</c:v>
+                  <c:v>43978.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.842825925924</c:v>
+                  <c:v>43981.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.842825925924</c:v>
+                  <c:v>43984.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.842825925924</c:v>
+                  <c:v>43987.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.842825925924</c:v>
+                  <c:v>43990.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.842825925924</c:v>
+                  <c:v>43993.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.842825925924</c:v>
+                  <c:v>43996.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.842825925924</c:v>
+                  <c:v>43999.952111574072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12719,46 +12719,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.842825925924</c:v>
+                  <c:v>43960.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.842825925924</c:v>
+                  <c:v>43963.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.842825925924</c:v>
+                  <c:v>43966.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.842825925924</c:v>
+                  <c:v>43969.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.842825925924</c:v>
+                  <c:v>43972.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.842825925924</c:v>
+                  <c:v>43975.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.842825925924</c:v>
+                  <c:v>43978.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.842825925924</c:v>
+                  <c:v>43981.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.842825925924</c:v>
+                  <c:v>43984.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.842825925924</c:v>
+                  <c:v>43987.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.842825925924</c:v>
+                  <c:v>43990.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.842825925924</c:v>
+                  <c:v>43993.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.842825925924</c:v>
+                  <c:v>43996.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.842825925924</c:v>
+                  <c:v>43999.952111574072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13126,46 +13126,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.842825925924</c:v>
+                  <c:v>43960.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.842825925924</c:v>
+                  <c:v>43963.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.842825925924</c:v>
+                  <c:v>43966.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.842825925924</c:v>
+                  <c:v>43969.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.842825925924</c:v>
+                  <c:v>43972.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.842825925924</c:v>
+                  <c:v>43975.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.842825925924</c:v>
+                  <c:v>43978.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.842825925924</c:v>
+                  <c:v>43981.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.842825925924</c:v>
+                  <c:v>43984.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.842825925924</c:v>
+                  <c:v>43987.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.842825925924</c:v>
+                  <c:v>43990.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.842825925924</c:v>
+                  <c:v>43993.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.842825925924</c:v>
+                  <c:v>43996.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.842825925924</c:v>
+                  <c:v>43999.952111574072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13275,46 +13275,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.842825925924</c:v>
+                  <c:v>43960.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.842825925924</c:v>
+                  <c:v>43963.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.842825925924</c:v>
+                  <c:v>43966.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.842825925924</c:v>
+                  <c:v>43969.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.842825925924</c:v>
+                  <c:v>43972.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.842825925924</c:v>
+                  <c:v>43975.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.842825925924</c:v>
+                  <c:v>43978.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.842825925924</c:v>
+                  <c:v>43981.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.842825925924</c:v>
+                  <c:v>43984.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.842825925924</c:v>
+                  <c:v>43987.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.842825925924</c:v>
+                  <c:v>43990.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.842825925924</c:v>
+                  <c:v>43993.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.842825925924</c:v>
+                  <c:v>43996.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.842825925924</c:v>
+                  <c:v>43999.952111574072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13424,46 +13424,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.842825925924</c:v>
+                  <c:v>43960.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.842825925924</c:v>
+                  <c:v>43963.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.842825925924</c:v>
+                  <c:v>43966.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.842825925924</c:v>
+                  <c:v>43969.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.842825925924</c:v>
+                  <c:v>43972.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.842825925924</c:v>
+                  <c:v>43975.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.842825925924</c:v>
+                  <c:v>43978.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.842825925924</c:v>
+                  <c:v>43981.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.842825925924</c:v>
+                  <c:v>43984.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.842825925924</c:v>
+                  <c:v>43987.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.842825925924</c:v>
+                  <c:v>43990.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.842825925924</c:v>
+                  <c:v>43993.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.842825925924</c:v>
+                  <c:v>43996.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.842825925924</c:v>
+                  <c:v>43999.952111574072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13841,46 +13841,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.842825925924</c:v>
+                  <c:v>43960.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.842825925924</c:v>
+                  <c:v>43963.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.842825925924</c:v>
+                  <c:v>43966.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.842825925924</c:v>
+                  <c:v>43969.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.842825925924</c:v>
+                  <c:v>43972.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.842825925924</c:v>
+                  <c:v>43975.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.842825925924</c:v>
+                  <c:v>43978.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.842825925924</c:v>
+                  <c:v>43981.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.842825925924</c:v>
+                  <c:v>43984.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.842825925924</c:v>
+                  <c:v>43987.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.842825925924</c:v>
+                  <c:v>43990.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.842825925924</c:v>
+                  <c:v>43993.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.842825925924</c:v>
+                  <c:v>43996.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.842825925924</c:v>
+                  <c:v>43999.952111574072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13981,46 +13981,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.842825925924</c:v>
+                  <c:v>43960.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.842825925924</c:v>
+                  <c:v>43963.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.842825925924</c:v>
+                  <c:v>43966.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.842825925924</c:v>
+                  <c:v>43969.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.842825925924</c:v>
+                  <c:v>43972.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.842825925924</c:v>
+                  <c:v>43975.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.842825925924</c:v>
+                  <c:v>43978.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.842825925924</c:v>
+                  <c:v>43981.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.842825925924</c:v>
+                  <c:v>43984.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.842825925924</c:v>
+                  <c:v>43987.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.842825925924</c:v>
+                  <c:v>43990.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.842825925924</c:v>
+                  <c:v>43993.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.842825925924</c:v>
+                  <c:v>43996.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.842825925924</c:v>
+                  <c:v>43999.952111574072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14124,46 +14124,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.842825925924</c:v>
+                  <c:v>43960.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.842825925924</c:v>
+                  <c:v>43963.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.842825925924</c:v>
+                  <c:v>43966.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.842825925924</c:v>
+                  <c:v>43969.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.842825925924</c:v>
+                  <c:v>43972.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.842825925924</c:v>
+                  <c:v>43975.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.842825925924</c:v>
+                  <c:v>43978.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.842825925924</c:v>
+                  <c:v>43981.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.842825925924</c:v>
+                  <c:v>43984.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.842825925924</c:v>
+                  <c:v>43987.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.842825925924</c:v>
+                  <c:v>43990.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.842825925924</c:v>
+                  <c:v>43993.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.842825925924</c:v>
+                  <c:v>43996.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.842825925924</c:v>
+                  <c:v>43999.952111574072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14261,46 +14261,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.842825925924</c:v>
+                  <c:v>43960.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.842825925924</c:v>
+                  <c:v>43963.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.842825925924</c:v>
+                  <c:v>43966.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.842825925924</c:v>
+                  <c:v>43969.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.842825925924</c:v>
+                  <c:v>43972.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.842825925924</c:v>
+                  <c:v>43975.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.842825925924</c:v>
+                  <c:v>43978.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.842825925924</c:v>
+                  <c:v>43981.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.842825925924</c:v>
+                  <c:v>43984.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.842825925924</c:v>
+                  <c:v>43987.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.842825925924</c:v>
+                  <c:v>43990.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.842825925924</c:v>
+                  <c:v>43993.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.842825925924</c:v>
+                  <c:v>43996.952111574072</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.842825925924</c:v>
+                  <c:v>43999.952111574072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -33840,167 +33840,167 @@
       </c>
       <c r="B26" s="85">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>43959.842825925924</v>
+        <v>43960.952111574072</v>
       </c>
       <c r="C26" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>43960.842825925924</v>
+        <v>43961.952111574072</v>
       </c>
       <c r="D26" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>43961.842825925924</v>
+        <v>43962.952111574072</v>
       </c>
       <c r="E26" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>43962.842825925924</v>
+        <v>43963.952111574072</v>
       </c>
       <c r="F26" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>43963.842825925924</v>
+        <v>43964.952111574072</v>
       </c>
       <c r="G26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43964.842825925924</v>
+        <v>43965.952111574072</v>
       </c>
       <c r="H26" s="86">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>43965.842825925924</v>
+        <v>43966.952111574072</v>
       </c>
       <c r="I26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43966.842825925924</v>
+        <v>43967.952111574072</v>
       </c>
       <c r="J26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43967.842825925924</v>
+        <v>43968.952111574072</v>
       </c>
       <c r="K26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43968.842825925924</v>
+        <v>43969.952111574072</v>
       </c>
       <c r="L26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43969.842825925924</v>
+        <v>43970.952111574072</v>
       </c>
       <c r="M26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43970.842825925924</v>
+        <v>43971.952111574072</v>
       </c>
       <c r="N26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43971.842825925924</v>
+        <v>43972.952111574072</v>
       </c>
       <c r="O26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>43972.842825925924</v>
+        <v>43973.952111574072</v>
       </c>
       <c r="P26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43973.842825925924</v>
+        <v>43974.952111574072</v>
       </c>
       <c r="Q26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43974.842825925924</v>
+        <v>43975.952111574072</v>
       </c>
       <c r="R26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43975.842825925924</v>
+        <v>43976.952111574072</v>
       </c>
       <c r="S26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43976.842825925924</v>
+        <v>43977.952111574072</v>
       </c>
       <c r="T26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43977.842825925924</v>
+        <v>43978.952111574072</v>
       </c>
       <c r="U26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43978.842825925924</v>
+        <v>43979.952111574072</v>
       </c>
       <c r="V26" s="85">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>43979.842825925924</v>
+        <v>43980.952111574072</v>
       </c>
       <c r="W26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43980.842825925924</v>
+        <v>43981.952111574072</v>
       </c>
       <c r="X26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43981.842825925924</v>
+        <v>43982.952111574072</v>
       </c>
       <c r="Y26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43982.842825925924</v>
+        <v>43983.952111574072</v>
       </c>
       <c r="Z26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43983.842825925924</v>
+        <v>43984.952111574072</v>
       </c>
       <c r="AA26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43984.842825925924</v>
+        <v>43985.952111574072</v>
       </c>
       <c r="AB26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43985.842825925924</v>
+        <v>43986.952111574072</v>
       </c>
       <c r="AC26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>43986.842825925924</v>
+        <v>43987.952111574072</v>
       </c>
       <c r="AD26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43987.842825925924</v>
+        <v>43988.952111574072</v>
       </c>
       <c r="AE26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43988.842825925924</v>
+        <v>43989.952111574072</v>
       </c>
       <c r="AF26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43989.842825925924</v>
+        <v>43990.952111574072</v>
       </c>
       <c r="AG26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43990.842825925924</v>
+        <v>43991.952111574072</v>
       </c>
       <c r="AH26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43991.842825925924</v>
+        <v>43992.952111574072</v>
       </c>
       <c r="AI26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43992.842825925924</v>
+        <v>43993.952111574072</v>
       </c>
       <c r="AJ26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>43993.842825925924</v>
+        <v>43994.952111574072</v>
       </c>
       <c r="AK26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43994.842825925924</v>
+        <v>43995.952111574072</v>
       </c>
       <c r="AL26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43995.842825925924</v>
+        <v>43996.952111574072</v>
       </c>
       <c r="AM26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43996.842825925924</v>
+        <v>43997.952111574072</v>
       </c>
       <c r="AN26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43997.842825925924</v>
+        <v>43998.952111574072</v>
       </c>
       <c r="AO26" s="86">
         <f ca="1">AP26-1</f>
-        <v>43998.842825925924</v>
+        <v>43999.952111574072</v>
       </c>
       <c r="AP26" s="107">
         <f ca="1">NOW()</f>
-        <v>43999.842825925924</v>
+        <v>44000.952111574072</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -34519,7 +34519,7 @@
   <dimension ref="A1:AL104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+      <selection activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38202,7 +38202,7 @@
         <v>10904</v>
       </c>
       <c r="U56" s="290">
-        <v>16243</v>
+        <v>16798</v>
       </c>
       <c r="V56" s="174"/>
       <c r="W56" s="174"/>
@@ -38265,7 +38265,7 @@
         <v>1883</v>
       </c>
       <c r="U57" s="291">
-        <v>2276</v>
+        <v>2339</v>
       </c>
       <c r="V57" s="175"/>
       <c r="W57" s="175"/>
@@ -42651,7 +42651,7 @@
         <v>117</v>
       </c>
       <c r="C6" s="153">
-        <v>41431</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -42660,7 +42660,7 @@
       </c>
       <c r="C7" s="151">
         <f ca="1">NOW()</f>
-        <v>43999.842825925924</v>
+        <v>44000.952111574072</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -42669,7 +42669,7 @@
       </c>
       <c r="C8" s="152">
         <f ca="1">C7-C5</f>
-        <v>99.842825925923535</v>
+        <v>100.95211157407175</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -42678,7 +42678,7 @@
       </c>
       <c r="C9" s="154">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>9.6255956131301552</v>
+        <v>9.6899229357656527</v>
       </c>
       <c r="D9" t="s">
         <v>96</v>
@@ -42711,7 +42711,7 @@
       </c>
       <c r="C12" s="159">
         <f>C6/Projections!B17</f>
-        <v>174602.07142857142</v>
+        <v>180211.28571428571</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -42720,7 +42720,7 @@
       </c>
       <c r="C13" s="160">
         <f ca="1">(C4/Projections!B17)*(2^(((C7-21)-C5)/C9))</f>
-        <v>38485.516105321993</v>
+        <v>40122.668461686531</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -42729,7 +42729,7 @@
       </c>
       <c r="C14" s="143">
         <f ca="1">C12-C13</f>
-        <v>136116.55532324943</v>
+        <v>140088.61725259919</v>
       </c>
       <c r="E14" s="156"/>
       <c r="F14" s="157" t="s">
@@ -42743,7 +42743,7 @@
       </c>
       <c r="C15" s="64">
         <f>C6*Projections!B21</f>
-        <v>33559.11</v>
+        <v>34637.22</v>
       </c>
       <c r="I15" s="150"/>
     </row>
@@ -42753,7 +42753,7 @@
       </c>
       <c r="C16" s="79">
         <f ca="1">(C4*Projections!B21)*(2^(((C7-21)-C5)/C9))</f>
-        <v>7397.0466548195163</v>
+        <v>7711.7128873817855</v>
       </c>
       <c r="I16" s="150"/>
     </row>
@@ -42763,7 +42763,7 @@
       </c>
       <c r="C17" s="79">
         <f ca="1">C15-C16</f>
-        <v>26162.063345180482</v>
+        <v>26925.507112618216</v>
       </c>
       <c r="F17" t="s">
         <v>141</v>
@@ -42776,7 +42776,7 @@
       </c>
       <c r="C18" s="64">
         <f>C6*Projections!B22</f>
-        <v>5800.34</v>
+        <v>5986.68</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -42785,7 +42785,7 @@
       </c>
       <c r="C19" s="79">
         <f ca="1">(C4*Projections!B22)*(2^(((C7-49)-C5)/C9))</f>
-        <v>170.22836936943932</v>
+        <v>179.86126115641051</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -42794,7 +42794,7 @@
       </c>
       <c r="C20" s="79">
         <f ca="1">C18-C19</f>
-        <v>5630.1116306305612</v>
+        <v>5806.8187388435899</v>
       </c>
       <c r="F20" t="s">
         <v>146</v>
@@ -42806,7 +42806,7 @@
       </c>
       <c r="C21" s="64">
         <f>C6*Projections!B23</f>
-        <v>2071.5500000000002</v>
+        <v>2138.1</v>
       </c>
       <c r="I21" s="150"/>
     </row>
@@ -42816,7 +42816,7 @@
       </c>
       <c r="C22" s="79">
         <f ca="1">(C4*Projections!B23)*(2^(((C7-49)-C5)/C9))</f>
-        <v>60.795846203371184</v>
+        <v>64.236164698718028</v>
       </c>
       <c r="I22" s="150"/>
     </row>
@@ -42826,7 +42826,7 @@
       </c>
       <c r="C23" s="79">
         <f ca="1">C21-C22</f>
-        <v>2010.754153796629</v>
+        <v>2073.8638353012821</v>
       </c>
       <c r="I23" s="150"/>
     </row>
@@ -42836,7 +42836,7 @@
       </c>
       <c r="C24" s="64">
         <f>C6*Projections!B24</f>
-        <v>2444.4290000000001</v>
+        <v>2522.9580000000001</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -42845,7 +42845,7 @@
       </c>
       <c r="C25" s="61">
         <f ca="1">(C4*Projections!B24)*(2^(((C7-42)-C5)/C9))</f>
-        <v>118.76084360765965</v>
+        <v>125.06208617001869</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -42857,7 +42857,7 @@
       </c>
       <c r="C26" s="163">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>60.684358999455242</v>
+        <v>60.647867641810663</v>
       </c>
       <c r="D26" t="s">
         <v>96</v>
@@ -42872,7 +42872,7 @@
       </c>
       <c r="C27" s="162">
         <f ca="1">C7+C26</f>
-        <v>44060.527184925377</v>
+        <v>44061.599979215884</v>
       </c>
       <c r="F27" t="s">
         <v>154</v>
@@ -42884,7 +42884,7 @@
       </c>
       <c r="C28" s="161">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>17.620106579596591</v>
+        <v>17.295819206951141</v>
       </c>
       <c r="D28" t="s">
         <v>96</v>
@@ -42896,7 +42896,7 @@
       </c>
       <c r="C29" s="162">
         <f ca="1">C7+C28</f>
-        <v>44017.462932505521</v>
+        <v>44018.247930781021</v>
       </c>
       <c r="F29" t="s">
         <v>154</v>
@@ -42908,7 +42908,7 @@
       </c>
       <c r="C30" s="161">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>95.033952086727552</v>
+        <v>95.227017158184239</v>
       </c>
       <c r="D30" t="s">
         <v>96</v>
@@ -42920,7 +42920,7 @@
       </c>
       <c r="C31" s="162">
         <f ca="1">C7+C30</f>
-        <v>44094.876778012651</v>
+        <v>44096.179128732256</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -42929,7 +42929,7 @@
       </c>
       <c r="C34" s="151">
         <f ca="1">C7+30</f>
-        <v>44029.842825925924</v>
+        <v>44030.952111574072</v>
       </c>
       <c r="F34" t="s">
         <v>167</v>
@@ -42941,7 +42941,7 @@
       </c>
       <c r="C35" s="79">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>359370.70224697684</v>
+        <v>365634.21751374565</v>
       </c>
       <c r="F35" t="s">
         <v>139</v>
@@ -42953,7 +42953,7 @@
       </c>
       <c r="C36" s="79">
         <f ca="1">C35/Projections!B17</f>
-        <v>1514490.8166122595</v>
+        <v>1540887.0595222139</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -42962,7 +42962,7 @@
       </c>
       <c r="C37" s="79">
         <f ca="1">C35*Projections!B21</f>
-        <v>291090.26882005128</v>
+        <v>296163.71618613397</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -42971,7 +42971,7 @@
       </c>
       <c r="C38" s="79">
         <f ca="1">C35*Projections!B22</f>
-        <v>50311.898314576763</v>
+        <v>51188.790451924397</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -42980,7 +42980,7 @@
       </c>
       <c r="C39" s="79">
         <f ca="1">C35*Projections!B23</f>
-        <v>17968.535112348844</v>
+        <v>18281.710875687284</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -42989,7 +42989,7 @@
       </c>
       <c r="C40" s="61">
         <f ca="1">C35*Projections!B24</f>
-        <v>21202.871432571632</v>
+        <v>21572.418833310992</v>
       </c>
     </row>
   </sheetData>

--- a/Indonesian COVID-19 Infection Projections.xlsx
+++ b/Indonesian COVID-19 Infection Projections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED2CBDE-8D06-484E-BFB6-BED05B500873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86E98BA-296F-4CE3-8B84-531AE8EEC8E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="105" yWindow="0" windowWidth="37605" windowHeight="21000" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="213">
   <si>
     <t>By Age</t>
   </si>
@@ -673,9 +673,6 @@
   </si>
   <si>
     <t>Malls allowed to reopen</t>
-  </si>
-  <si>
-    <t>Tourism sites allowed to reopen</t>
   </si>
   <si>
     <t>The official death rate of children to COVID-19 in Indonesia is 2.1% with 28 deaths of children recorded, but it is suspected that the actual number is in the hundreds with 380 deaths of people under 18 with severe COVID-19 symptoms but not testing positive and probably the highest rate of child death due to COVID-19 in the world.  Achmad Yurianto, a senior health ministry official, described Indonesian children as being caught in a "devil's circle" — a cycle of malnutrition and anaemia that increased their vulnerability to the coronavirus.  He compared malnourished children to weak structures that "crumble after an earthquake".</t>
@@ -1834,46 +1831,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.952111574072</c:v>
+                  <c:v>43964.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.952111574072</c:v>
+                  <c:v>43967.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.952111574072</c:v>
+                  <c:v>43970.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.952111574072</c:v>
+                  <c:v>43973.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.952111574072</c:v>
+                  <c:v>43976.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.952111574072</c:v>
+                  <c:v>43979.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.952111574072</c:v>
+                  <c:v>43982.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.952111574072</c:v>
+                  <c:v>43985.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.952111574072</c:v>
+                  <c:v>43988.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.952111574072</c:v>
+                  <c:v>43991.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.952111574072</c:v>
+                  <c:v>43994.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.952111574072</c:v>
+                  <c:v>43997.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.952111574072</c:v>
+                  <c:v>44000.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.952111574072</c:v>
+                  <c:v>44003.934330787037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1983,46 +1980,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.952111574072</c:v>
+                  <c:v>43964.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.952111574072</c:v>
+                  <c:v>43967.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.952111574072</c:v>
+                  <c:v>43970.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.952111574072</c:v>
+                  <c:v>43973.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.952111574072</c:v>
+                  <c:v>43976.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.952111574072</c:v>
+                  <c:v>43979.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.952111574072</c:v>
+                  <c:v>43982.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.952111574072</c:v>
+                  <c:v>43985.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.952111574072</c:v>
+                  <c:v>43988.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.952111574072</c:v>
+                  <c:v>43991.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.952111574072</c:v>
+                  <c:v>43994.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.952111574072</c:v>
+                  <c:v>43997.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.952111574072</c:v>
+                  <c:v>44000.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.952111574072</c:v>
+                  <c:v>44003.934330787037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2132,46 +2129,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.952111574072</c:v>
+                  <c:v>43964.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.952111574072</c:v>
+                  <c:v>43967.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.952111574072</c:v>
+                  <c:v>43970.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.952111574072</c:v>
+                  <c:v>43973.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.952111574072</c:v>
+                  <c:v>43976.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.952111574072</c:v>
+                  <c:v>43979.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.952111574072</c:v>
+                  <c:v>43982.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.952111574072</c:v>
+                  <c:v>43985.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.952111574072</c:v>
+                  <c:v>43988.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.952111574072</c:v>
+                  <c:v>43991.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.952111574072</c:v>
+                  <c:v>43994.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.952111574072</c:v>
+                  <c:v>43997.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.952111574072</c:v>
+                  <c:v>44000.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.952111574072</c:v>
+                  <c:v>44003.934330787037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3325,7 +3322,7 @@
                   <c:v>1883</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0">
-                  <c:v>2339</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11970,7 +11967,7 @@
                   <c:v>1883</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0">
-                  <c:v>2339</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12299,46 +12296,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.952111574072</c:v>
+                  <c:v>43964.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.952111574072</c:v>
+                  <c:v>43967.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.952111574072</c:v>
+                  <c:v>43970.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.952111574072</c:v>
+                  <c:v>43973.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.952111574072</c:v>
+                  <c:v>43976.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.952111574072</c:v>
+                  <c:v>43979.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.952111574072</c:v>
+                  <c:v>43982.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.952111574072</c:v>
+                  <c:v>43985.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.952111574072</c:v>
+                  <c:v>43988.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.952111574072</c:v>
+                  <c:v>43991.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.952111574072</c:v>
+                  <c:v>43994.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.952111574072</c:v>
+                  <c:v>43997.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.952111574072</c:v>
+                  <c:v>44000.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.952111574072</c:v>
+                  <c:v>44003.934330787037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12439,46 +12436,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.952111574072</c:v>
+                  <c:v>43964.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.952111574072</c:v>
+                  <c:v>43967.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.952111574072</c:v>
+                  <c:v>43970.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.952111574072</c:v>
+                  <c:v>43973.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.952111574072</c:v>
+                  <c:v>43976.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.952111574072</c:v>
+                  <c:v>43979.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.952111574072</c:v>
+                  <c:v>43982.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.952111574072</c:v>
+                  <c:v>43985.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.952111574072</c:v>
+                  <c:v>43988.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.952111574072</c:v>
+                  <c:v>43991.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.952111574072</c:v>
+                  <c:v>43994.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.952111574072</c:v>
+                  <c:v>43997.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.952111574072</c:v>
+                  <c:v>44000.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.952111574072</c:v>
+                  <c:v>44003.934330787037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12582,46 +12579,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.952111574072</c:v>
+                  <c:v>43964.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.952111574072</c:v>
+                  <c:v>43967.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.952111574072</c:v>
+                  <c:v>43970.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.952111574072</c:v>
+                  <c:v>43973.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.952111574072</c:v>
+                  <c:v>43976.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.952111574072</c:v>
+                  <c:v>43979.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.952111574072</c:v>
+                  <c:v>43982.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.952111574072</c:v>
+                  <c:v>43985.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.952111574072</c:v>
+                  <c:v>43988.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.952111574072</c:v>
+                  <c:v>43991.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.952111574072</c:v>
+                  <c:v>43994.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.952111574072</c:v>
+                  <c:v>43997.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.952111574072</c:v>
+                  <c:v>44000.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.952111574072</c:v>
+                  <c:v>44003.934330787037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12719,46 +12716,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.952111574072</c:v>
+                  <c:v>43964.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.952111574072</c:v>
+                  <c:v>43967.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.952111574072</c:v>
+                  <c:v>43970.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.952111574072</c:v>
+                  <c:v>43973.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.952111574072</c:v>
+                  <c:v>43976.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.952111574072</c:v>
+                  <c:v>43979.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.952111574072</c:v>
+                  <c:v>43982.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.952111574072</c:v>
+                  <c:v>43985.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.952111574072</c:v>
+                  <c:v>43988.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.952111574072</c:v>
+                  <c:v>43991.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.952111574072</c:v>
+                  <c:v>43994.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.952111574072</c:v>
+                  <c:v>43997.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.952111574072</c:v>
+                  <c:v>44000.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.952111574072</c:v>
+                  <c:v>44003.934330787037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13126,46 +13123,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.952111574072</c:v>
+                  <c:v>43964.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.952111574072</c:v>
+                  <c:v>43967.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.952111574072</c:v>
+                  <c:v>43970.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.952111574072</c:v>
+                  <c:v>43973.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.952111574072</c:v>
+                  <c:v>43976.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.952111574072</c:v>
+                  <c:v>43979.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.952111574072</c:v>
+                  <c:v>43982.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.952111574072</c:v>
+                  <c:v>43985.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.952111574072</c:v>
+                  <c:v>43988.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.952111574072</c:v>
+                  <c:v>43991.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.952111574072</c:v>
+                  <c:v>43994.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.952111574072</c:v>
+                  <c:v>43997.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.952111574072</c:v>
+                  <c:v>44000.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.952111574072</c:v>
+                  <c:v>44003.934330787037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13275,46 +13272,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.952111574072</c:v>
+                  <c:v>43964.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.952111574072</c:v>
+                  <c:v>43967.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.952111574072</c:v>
+                  <c:v>43970.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.952111574072</c:v>
+                  <c:v>43973.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.952111574072</c:v>
+                  <c:v>43976.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.952111574072</c:v>
+                  <c:v>43979.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.952111574072</c:v>
+                  <c:v>43982.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.952111574072</c:v>
+                  <c:v>43985.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.952111574072</c:v>
+                  <c:v>43988.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.952111574072</c:v>
+                  <c:v>43991.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.952111574072</c:v>
+                  <c:v>43994.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.952111574072</c:v>
+                  <c:v>43997.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.952111574072</c:v>
+                  <c:v>44000.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.952111574072</c:v>
+                  <c:v>44003.934330787037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13424,46 +13421,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.952111574072</c:v>
+                  <c:v>43964.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.952111574072</c:v>
+                  <c:v>43967.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.952111574072</c:v>
+                  <c:v>43970.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.952111574072</c:v>
+                  <c:v>43973.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.952111574072</c:v>
+                  <c:v>43976.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.952111574072</c:v>
+                  <c:v>43979.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.952111574072</c:v>
+                  <c:v>43982.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.952111574072</c:v>
+                  <c:v>43985.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.952111574072</c:v>
+                  <c:v>43988.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.952111574072</c:v>
+                  <c:v>43991.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.952111574072</c:v>
+                  <c:v>43994.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.952111574072</c:v>
+                  <c:v>43997.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.952111574072</c:v>
+                  <c:v>44000.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.952111574072</c:v>
+                  <c:v>44003.934330787037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13841,46 +13838,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.952111574072</c:v>
+                  <c:v>43964.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.952111574072</c:v>
+                  <c:v>43967.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.952111574072</c:v>
+                  <c:v>43970.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.952111574072</c:v>
+                  <c:v>43973.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.952111574072</c:v>
+                  <c:v>43976.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.952111574072</c:v>
+                  <c:v>43979.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.952111574072</c:v>
+                  <c:v>43982.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.952111574072</c:v>
+                  <c:v>43985.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.952111574072</c:v>
+                  <c:v>43988.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.952111574072</c:v>
+                  <c:v>43991.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.952111574072</c:v>
+                  <c:v>43994.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.952111574072</c:v>
+                  <c:v>43997.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.952111574072</c:v>
+                  <c:v>44000.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.952111574072</c:v>
+                  <c:v>44003.934330787037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13981,46 +13978,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.952111574072</c:v>
+                  <c:v>43964.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.952111574072</c:v>
+                  <c:v>43967.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.952111574072</c:v>
+                  <c:v>43970.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.952111574072</c:v>
+                  <c:v>43973.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.952111574072</c:v>
+                  <c:v>43976.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.952111574072</c:v>
+                  <c:v>43979.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.952111574072</c:v>
+                  <c:v>43982.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.952111574072</c:v>
+                  <c:v>43985.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.952111574072</c:v>
+                  <c:v>43988.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.952111574072</c:v>
+                  <c:v>43991.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.952111574072</c:v>
+                  <c:v>43994.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.952111574072</c:v>
+                  <c:v>43997.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.952111574072</c:v>
+                  <c:v>44000.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.952111574072</c:v>
+                  <c:v>44003.934330787037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14124,46 +14121,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.952111574072</c:v>
+                  <c:v>43964.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.952111574072</c:v>
+                  <c:v>43967.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.952111574072</c:v>
+                  <c:v>43970.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.952111574072</c:v>
+                  <c:v>43973.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.952111574072</c:v>
+                  <c:v>43976.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.952111574072</c:v>
+                  <c:v>43979.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.952111574072</c:v>
+                  <c:v>43982.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.952111574072</c:v>
+                  <c:v>43985.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.952111574072</c:v>
+                  <c:v>43988.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.952111574072</c:v>
+                  <c:v>43991.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.952111574072</c:v>
+                  <c:v>43994.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.952111574072</c:v>
+                  <c:v>43997.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.952111574072</c:v>
+                  <c:v>44000.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.952111574072</c:v>
+                  <c:v>44003.934330787037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14261,46 +14258,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43960.952111574072</c:v>
+                  <c:v>43964.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43963.952111574072</c:v>
+                  <c:v>43967.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43966.952111574072</c:v>
+                  <c:v>43970.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43969.952111574072</c:v>
+                  <c:v>43973.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43972.952111574072</c:v>
+                  <c:v>43976.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43975.952111574072</c:v>
+                  <c:v>43979.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43978.952111574072</c:v>
+                  <c:v>43982.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43981.952111574072</c:v>
+                  <c:v>43985.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43984.952111574072</c:v>
+                  <c:v>43988.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43987.952111574072</c:v>
+                  <c:v>43991.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43990.952111574072</c:v>
+                  <c:v>43994.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43993.952111574072</c:v>
+                  <c:v>43997.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43996.952111574072</c:v>
+                  <c:v>44000.934330787037</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43999.952111574072</c:v>
+                  <c:v>44003.934330787037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -33840,167 +33837,167 @@
       </c>
       <c r="B26" s="85">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>43960.952111574072</v>
+        <v>43964.934330787037</v>
       </c>
       <c r="C26" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>43961.952111574072</v>
+        <v>43965.934330787037</v>
       </c>
       <c r="D26" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>43962.952111574072</v>
+        <v>43966.934330787037</v>
       </c>
       <c r="E26" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>43963.952111574072</v>
+        <v>43967.934330787037</v>
       </c>
       <c r="F26" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>43964.952111574072</v>
+        <v>43968.934330787037</v>
       </c>
       <c r="G26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43965.952111574072</v>
+        <v>43969.934330787037</v>
       </c>
       <c r="H26" s="86">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>43966.952111574072</v>
+        <v>43970.934330787037</v>
       </c>
       <c r="I26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43967.952111574072</v>
+        <v>43971.934330787037</v>
       </c>
       <c r="J26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43968.952111574072</v>
+        <v>43972.934330787037</v>
       </c>
       <c r="K26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43969.952111574072</v>
+        <v>43973.934330787037</v>
       </c>
       <c r="L26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43970.952111574072</v>
+        <v>43974.934330787037</v>
       </c>
       <c r="M26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43971.952111574072</v>
+        <v>43975.934330787037</v>
       </c>
       <c r="N26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43972.952111574072</v>
+        <v>43976.934330787037</v>
       </c>
       <c r="O26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>43973.952111574072</v>
+        <v>43977.934330787037</v>
       </c>
       <c r="P26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43974.952111574072</v>
+        <v>43978.934330787037</v>
       </c>
       <c r="Q26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43975.952111574072</v>
+        <v>43979.934330787037</v>
       </c>
       <c r="R26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43976.952111574072</v>
+        <v>43980.934330787037</v>
       </c>
       <c r="S26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43977.952111574072</v>
+        <v>43981.934330787037</v>
       </c>
       <c r="T26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43978.952111574072</v>
+        <v>43982.934330787037</v>
       </c>
       <c r="U26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43979.952111574072</v>
+        <v>43983.934330787037</v>
       </c>
       <c r="V26" s="85">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>43980.952111574072</v>
+        <v>43984.934330787037</v>
       </c>
       <c r="W26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43981.952111574072</v>
+        <v>43985.934330787037</v>
       </c>
       <c r="X26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43982.952111574072</v>
+        <v>43986.934330787037</v>
       </c>
       <c r="Y26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43983.952111574072</v>
+        <v>43987.934330787037</v>
       </c>
       <c r="Z26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43984.952111574072</v>
+        <v>43988.934330787037</v>
       </c>
       <c r="AA26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43985.952111574072</v>
+        <v>43989.934330787037</v>
       </c>
       <c r="AB26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43986.952111574072</v>
+        <v>43990.934330787037</v>
       </c>
       <c r="AC26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>43987.952111574072</v>
+        <v>43991.934330787037</v>
       </c>
       <c r="AD26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43988.952111574072</v>
+        <v>43992.934330787037</v>
       </c>
       <c r="AE26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43989.952111574072</v>
+        <v>43993.934330787037</v>
       </c>
       <c r="AF26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43990.952111574072</v>
+        <v>43994.934330787037</v>
       </c>
       <c r="AG26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43991.952111574072</v>
+        <v>43995.934330787037</v>
       </c>
       <c r="AH26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43992.952111574072</v>
+        <v>43996.934330787037</v>
       </c>
       <c r="AI26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43993.952111574072</v>
+        <v>43997.934330787037</v>
       </c>
       <c r="AJ26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>43994.952111574072</v>
+        <v>43998.934330787037</v>
       </c>
       <c r="AK26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43995.952111574072</v>
+        <v>43999.934330787037</v>
       </c>
       <c r="AL26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43996.952111574072</v>
+        <v>44000.934330787037</v>
       </c>
       <c r="AM26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43997.952111574072</v>
+        <v>44001.934330787037</v>
       </c>
       <c r="AN26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43998.952111574072</v>
+        <v>44002.934330787037</v>
       </c>
       <c r="AO26" s="86">
         <f ca="1">AP26-1</f>
-        <v>43999.952111574072</v>
+        <v>44003.934330787037</v>
       </c>
       <c r="AP26" s="107">
         <f ca="1">NOW()</f>
-        <v>44000.952111574072</v>
+        <v>44004.934330787037</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -34519,7 +34516,7 @@
   <dimension ref="A1:AL104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB24" sqref="AB24"/>
+      <selection activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34907,7 +34904,7 @@
         <v>43994</v>
       </c>
       <c r="U18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W18" s="276"/>
       <c r="X18" s="155"/>
@@ -34976,12 +34973,8 @@
       <c r="N20" s="69"/>
       <c r="O20" s="230"/>
       <c r="P20" s="16"/>
-      <c r="T20" s="266">
-        <v>44002</v>
-      </c>
-      <c r="U20" s="267" t="s">
-        <v>212</v>
-      </c>
+      <c r="T20" s="155"/>
+      <c r="U20" s="69"/>
       <c r="V20" s="69"/>
       <c r="W20" s="69"/>
       <c r="X20" s="69"/>
@@ -38202,7 +38195,7 @@
         <v>10904</v>
       </c>
       <c r="U56" s="290">
-        <v>16798</v>
+        <v>18735</v>
       </c>
       <c r="V56" s="174"/>
       <c r="W56" s="174"/>
@@ -38265,7 +38258,7 @@
         <v>1883</v>
       </c>
       <c r="U57" s="291">
-        <v>2339</v>
+        <v>2500</v>
       </c>
       <c r="V57" s="175"/>
       <c r="W57" s="175"/>
@@ -42605,7 +42598,7 @@
   <dimension ref="B3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42651,7 +42644,7 @@
         <v>117</v>
       </c>
       <c r="C6" s="153">
-        <v>42762</v>
+        <v>46845</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -42660,7 +42653,7 @@
       </c>
       <c r="C7" s="151">
         <f ca="1">NOW()</f>
-        <v>44000.952111574072</v>
+        <v>44004.934330787037</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -42669,7 +42662,7 @@
       </c>
       <c r="C8" s="152">
         <f ca="1">C7-C5</f>
-        <v>100.95211157407175</v>
+        <v>104.93433078703674</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -42678,7 +42671,7 @@
       </c>
       <c r="C9" s="154">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>9.6899229357656527</v>
+        <v>9.9465487853383294</v>
       </c>
       <c r="D9" t="s">
         <v>96</v>
@@ -42711,7 +42704,7 @@
       </c>
       <c r="C12" s="159">
         <f>C6/Projections!B17</f>
-        <v>180211.28571428571</v>
+        <v>197418.21428571429</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -42720,7 +42713,7 @@
       </c>
       <c r="C13" s="160">
         <f ca="1">(C4/Projections!B17)*(2^(((C7-21)-C5)/C9))</f>
-        <v>40122.668461686531</v>
+        <v>45690.623257041931</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -42729,7 +42722,7 @@
       </c>
       <c r="C14" s="143">
         <f ca="1">C12-C13</f>
-        <v>140088.61725259919</v>
+        <v>151727.59102867235</v>
       </c>
       <c r="E14" s="156"/>
       <c r="F14" s="157" t="s">
@@ -42743,7 +42736,7 @@
       </c>
       <c r="C15" s="64">
         <f>C6*Projections!B21</f>
-        <v>34637.22</v>
+        <v>37944.450000000004</v>
       </c>
       <c r="I15" s="150"/>
     </row>
@@ -42753,7 +42746,7 @@
       </c>
       <c r="C16" s="79">
         <f ca="1">(C4*Projections!B21)*(2^(((C7-21)-C5)/C9))</f>
-        <v>7711.7128873817855</v>
+        <v>8781.8926734721281</v>
       </c>
       <c r="I16" s="150"/>
     </row>
@@ -42763,7 +42756,7 @@
       </c>
       <c r="C17" s="79">
         <f ca="1">C15-C16</f>
-        <v>26925.507112618216</v>
+        <v>29162.557326527876</v>
       </c>
       <c r="F17" t="s">
         <v>141</v>
@@ -42776,7 +42769,7 @@
       </c>
       <c r="C18" s="64">
         <f>C6*Projections!B22</f>
-        <v>5986.68</v>
+        <v>6558.3</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -42785,7 +42778,7 @@
       </c>
       <c r="C19" s="79">
         <f ca="1">(C4*Projections!B22)*(2^(((C7-49)-C5)/C9))</f>
-        <v>179.86126115641051</v>
+        <v>215.68384937216845</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -42794,7 +42787,7 @@
       </c>
       <c r="C20" s="79">
         <f ca="1">C18-C19</f>
-        <v>5806.8187388435899</v>
+        <v>6342.6161506278313</v>
       </c>
       <c r="F20" t="s">
         <v>146</v>
@@ -42806,7 +42799,7 @@
       </c>
       <c r="C21" s="64">
         <f>C6*Projections!B23</f>
-        <v>2138.1</v>
+        <v>2342.25</v>
       </c>
       <c r="I21" s="150"/>
     </row>
@@ -42816,7 +42809,7 @@
       </c>
       <c r="C22" s="79">
         <f ca="1">(C4*Projections!B23)*(2^(((C7-49)-C5)/C9))</f>
-        <v>64.236164698718028</v>
+        <v>77.029946204345876</v>
       </c>
       <c r="I22" s="150"/>
     </row>
@@ -42826,7 +42819,7 @@
       </c>
       <c r="C23" s="79">
         <f ca="1">C21-C22</f>
-        <v>2073.8638353012821</v>
+        <v>2265.2200537956542</v>
       </c>
       <c r="I23" s="150"/>
     </row>
@@ -42836,7 +42829,7 @@
       </c>
       <c r="C24" s="64">
         <f>C6*Projections!B24</f>
-        <v>2522.9580000000001</v>
+        <v>2763.855</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -42845,7 +42838,7 @@
       </c>
       <c r="C25" s="61">
         <f ca="1">(C4*Projections!B24)*(2^(((C7-42)-C5)/C9))</f>
-        <v>125.06208617001869</v>
+        <v>148.04542152497879</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -42857,7 +42850,7 @@
       </c>
       <c r="C26" s="163">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>60.647867641810663</v>
+        <v>60.94542776580343</v>
       </c>
       <c r="D26" t="s">
         <v>96</v>
@@ -42872,7 +42865,7 @@
       </c>
       <c r="C27" s="162">
         <f ca="1">C7+C26</f>
-        <v>44061.599979215884</v>
+        <v>44065.879758552837</v>
       </c>
       <c r="F27" t="s">
         <v>154</v>
@@ -42884,7 +42877,7 @@
       </c>
       <c r="C28" s="161">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>17.295819206951141</v>
+        <v>16.445252938808405</v>
       </c>
       <c r="D28" t="s">
         <v>96</v>
@@ -42896,7 +42889,7 @@
       </c>
       <c r="C29" s="162">
         <f ca="1">C7+C28</f>
-        <v>44018.247930781021</v>
+        <v>44021.379583725844</v>
       </c>
       <c r="F29" t="s">
         <v>154</v>
@@ -42908,7 +42901,7 @@
       </c>
       <c r="C30" s="161">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>95.227017158184239</v>
+        <v>96.440364092966419</v>
       </c>
       <c r="D30" t="s">
         <v>96</v>
@@ -42920,7 +42913,7 @@
       </c>
       <c r="C31" s="162">
         <f ca="1">C7+C30</f>
-        <v>44096.179128732256</v>
+        <v>44101.374694880004</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -42929,7 +42922,7 @@
       </c>
       <c r="C34" s="151">
         <f ca="1">C7+30</f>
-        <v>44030.952111574072</v>
+        <v>44034.934330787037</v>
       </c>
       <c r="F34" t="s">
         <v>167</v>
@@ -42941,7 +42934,7 @@
       </c>
       <c r="C35" s="79">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>365634.21751374565</v>
+        <v>378971.27789195423</v>
       </c>
       <c r="F35" t="s">
         <v>139</v>
@@ -42953,7 +42946,7 @@
       </c>
       <c r="C36" s="79">
         <f ca="1">C35/Projections!B17</f>
-        <v>1540887.0595222139</v>
+        <v>1597093.2425446643</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -42962,7 +42955,7 @@
       </c>
       <c r="C37" s="79">
         <f ca="1">C35*Projections!B21</f>
-        <v>296163.71618613397</v>
+        <v>306966.73509248294</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -42971,7 +42964,7 @@
       </c>
       <c r="C38" s="79">
         <f ca="1">C35*Projections!B22</f>
-        <v>51188.790451924397</v>
+        <v>53055.978904873598</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -42980,7 +42973,7 @@
       </c>
       <c r="C39" s="79">
         <f ca="1">C35*Projections!B23</f>
-        <v>18281.710875687284</v>
+        <v>18948.563894597712</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -42989,7 +42982,7 @@
       </c>
       <c r="C40" s="61">
         <f ca="1">C35*Projections!B24</f>
-        <v>21572.418833310992</v>
+        <v>22359.305395625299</v>
       </c>
     </row>
   </sheetData>

--- a/Indonesian COVID-19 Infection Projections.xlsx
+++ b/Indonesian COVID-19 Infection Projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86E98BA-296F-4CE3-8B84-531AE8EEC8E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EB6B9B-0F56-49BC-A76D-1802F2CA9549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="0" windowWidth="37605" windowHeight="21000" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -1831,46 +1831,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43964.934330787037</c:v>
+                  <c:v>43970.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43967.934330787037</c:v>
+                  <c:v>43973.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43970.934330787037</c:v>
+                  <c:v>43976.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43973.934330787037</c:v>
+                  <c:v>43979.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43976.934330787037</c:v>
+                  <c:v>43982.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43979.934330787037</c:v>
+                  <c:v>43985.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43982.934330787037</c:v>
+                  <c:v>43988.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43985.934330787037</c:v>
+                  <c:v>43991.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43988.934330787037</c:v>
+                  <c:v>43994.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43991.934330787037</c:v>
+                  <c:v>43997.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43994.934330787037</c:v>
+                  <c:v>44000.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43997.934330787037</c:v>
+                  <c:v>44003.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44000.934330787037</c:v>
+                  <c:v>44006.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44003.934330787037</c:v>
+                  <c:v>44009.539140162036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1980,46 +1980,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43964.934330787037</c:v>
+                  <c:v>43970.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43967.934330787037</c:v>
+                  <c:v>43973.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43970.934330787037</c:v>
+                  <c:v>43976.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43973.934330787037</c:v>
+                  <c:v>43979.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43976.934330787037</c:v>
+                  <c:v>43982.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43979.934330787037</c:v>
+                  <c:v>43985.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43982.934330787037</c:v>
+                  <c:v>43988.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43985.934330787037</c:v>
+                  <c:v>43991.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43988.934330787037</c:v>
+                  <c:v>43994.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43991.934330787037</c:v>
+                  <c:v>43997.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43994.934330787037</c:v>
+                  <c:v>44000.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43997.934330787037</c:v>
+                  <c:v>44003.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44000.934330787037</c:v>
+                  <c:v>44006.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44003.934330787037</c:v>
+                  <c:v>44009.539140162036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2129,46 +2129,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43964.934330787037</c:v>
+                  <c:v>43970.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43967.934330787037</c:v>
+                  <c:v>43973.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43970.934330787037</c:v>
+                  <c:v>43976.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43973.934330787037</c:v>
+                  <c:v>43979.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43976.934330787037</c:v>
+                  <c:v>43982.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43979.934330787037</c:v>
+                  <c:v>43985.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43982.934330787037</c:v>
+                  <c:v>43988.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43985.934330787037</c:v>
+                  <c:v>43991.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43988.934330787037</c:v>
+                  <c:v>43994.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43991.934330787037</c:v>
+                  <c:v>43997.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43994.934330787037</c:v>
+                  <c:v>44000.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43997.934330787037</c:v>
+                  <c:v>44003.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44000.934330787037</c:v>
+                  <c:v>44006.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44003.934330787037</c:v>
+                  <c:v>44009.539140162036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3322,7 +3322,7 @@
                   <c:v>1883</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0">
-                  <c:v>2500</c:v>
+                  <c:v>2720</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11967,7 +11967,7 @@
                   <c:v>1883</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0">
-                  <c:v>2500</c:v>
+                  <c:v>2720</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12296,46 +12296,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43964.934330787037</c:v>
+                  <c:v>43970.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43967.934330787037</c:v>
+                  <c:v>43973.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43970.934330787037</c:v>
+                  <c:v>43976.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43973.934330787037</c:v>
+                  <c:v>43979.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43976.934330787037</c:v>
+                  <c:v>43982.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43979.934330787037</c:v>
+                  <c:v>43985.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43982.934330787037</c:v>
+                  <c:v>43988.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43985.934330787037</c:v>
+                  <c:v>43991.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43988.934330787037</c:v>
+                  <c:v>43994.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43991.934330787037</c:v>
+                  <c:v>43997.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43994.934330787037</c:v>
+                  <c:v>44000.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43997.934330787037</c:v>
+                  <c:v>44003.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44000.934330787037</c:v>
+                  <c:v>44006.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44003.934330787037</c:v>
+                  <c:v>44009.539140162036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12436,46 +12436,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43964.934330787037</c:v>
+                  <c:v>43970.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43967.934330787037</c:v>
+                  <c:v>43973.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43970.934330787037</c:v>
+                  <c:v>43976.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43973.934330787037</c:v>
+                  <c:v>43979.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43976.934330787037</c:v>
+                  <c:v>43982.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43979.934330787037</c:v>
+                  <c:v>43985.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43982.934330787037</c:v>
+                  <c:v>43988.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43985.934330787037</c:v>
+                  <c:v>43991.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43988.934330787037</c:v>
+                  <c:v>43994.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43991.934330787037</c:v>
+                  <c:v>43997.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43994.934330787037</c:v>
+                  <c:v>44000.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43997.934330787037</c:v>
+                  <c:v>44003.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44000.934330787037</c:v>
+                  <c:v>44006.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44003.934330787037</c:v>
+                  <c:v>44009.539140162036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12579,46 +12579,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43964.934330787037</c:v>
+                  <c:v>43970.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43967.934330787037</c:v>
+                  <c:v>43973.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43970.934330787037</c:v>
+                  <c:v>43976.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43973.934330787037</c:v>
+                  <c:v>43979.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43976.934330787037</c:v>
+                  <c:v>43982.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43979.934330787037</c:v>
+                  <c:v>43985.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43982.934330787037</c:v>
+                  <c:v>43988.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43985.934330787037</c:v>
+                  <c:v>43991.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43988.934330787037</c:v>
+                  <c:v>43994.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43991.934330787037</c:v>
+                  <c:v>43997.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43994.934330787037</c:v>
+                  <c:v>44000.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43997.934330787037</c:v>
+                  <c:v>44003.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44000.934330787037</c:v>
+                  <c:v>44006.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44003.934330787037</c:v>
+                  <c:v>44009.539140162036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12716,46 +12716,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43964.934330787037</c:v>
+                  <c:v>43970.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43967.934330787037</c:v>
+                  <c:v>43973.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43970.934330787037</c:v>
+                  <c:v>43976.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43973.934330787037</c:v>
+                  <c:v>43979.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43976.934330787037</c:v>
+                  <c:v>43982.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43979.934330787037</c:v>
+                  <c:v>43985.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43982.934330787037</c:v>
+                  <c:v>43988.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43985.934330787037</c:v>
+                  <c:v>43991.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43988.934330787037</c:v>
+                  <c:v>43994.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43991.934330787037</c:v>
+                  <c:v>43997.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43994.934330787037</c:v>
+                  <c:v>44000.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43997.934330787037</c:v>
+                  <c:v>44003.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44000.934330787037</c:v>
+                  <c:v>44006.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44003.934330787037</c:v>
+                  <c:v>44009.539140162036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13123,46 +13123,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43964.934330787037</c:v>
+                  <c:v>43970.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43967.934330787037</c:v>
+                  <c:v>43973.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43970.934330787037</c:v>
+                  <c:v>43976.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43973.934330787037</c:v>
+                  <c:v>43979.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43976.934330787037</c:v>
+                  <c:v>43982.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43979.934330787037</c:v>
+                  <c:v>43985.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43982.934330787037</c:v>
+                  <c:v>43988.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43985.934330787037</c:v>
+                  <c:v>43991.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43988.934330787037</c:v>
+                  <c:v>43994.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43991.934330787037</c:v>
+                  <c:v>43997.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43994.934330787037</c:v>
+                  <c:v>44000.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43997.934330787037</c:v>
+                  <c:v>44003.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44000.934330787037</c:v>
+                  <c:v>44006.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44003.934330787037</c:v>
+                  <c:v>44009.539140162036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13272,46 +13272,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43964.934330787037</c:v>
+                  <c:v>43970.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43967.934330787037</c:v>
+                  <c:v>43973.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43970.934330787037</c:v>
+                  <c:v>43976.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43973.934330787037</c:v>
+                  <c:v>43979.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43976.934330787037</c:v>
+                  <c:v>43982.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43979.934330787037</c:v>
+                  <c:v>43985.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43982.934330787037</c:v>
+                  <c:v>43988.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43985.934330787037</c:v>
+                  <c:v>43991.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43988.934330787037</c:v>
+                  <c:v>43994.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43991.934330787037</c:v>
+                  <c:v>43997.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43994.934330787037</c:v>
+                  <c:v>44000.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43997.934330787037</c:v>
+                  <c:v>44003.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44000.934330787037</c:v>
+                  <c:v>44006.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44003.934330787037</c:v>
+                  <c:v>44009.539140162036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13421,46 +13421,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43964.934330787037</c:v>
+                  <c:v>43970.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43967.934330787037</c:v>
+                  <c:v>43973.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43970.934330787037</c:v>
+                  <c:v>43976.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43973.934330787037</c:v>
+                  <c:v>43979.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43976.934330787037</c:v>
+                  <c:v>43982.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43979.934330787037</c:v>
+                  <c:v>43985.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43982.934330787037</c:v>
+                  <c:v>43988.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43985.934330787037</c:v>
+                  <c:v>43991.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43988.934330787037</c:v>
+                  <c:v>43994.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43991.934330787037</c:v>
+                  <c:v>43997.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43994.934330787037</c:v>
+                  <c:v>44000.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43997.934330787037</c:v>
+                  <c:v>44003.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44000.934330787037</c:v>
+                  <c:v>44006.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44003.934330787037</c:v>
+                  <c:v>44009.539140162036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13838,46 +13838,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43964.934330787037</c:v>
+                  <c:v>43970.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43967.934330787037</c:v>
+                  <c:v>43973.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43970.934330787037</c:v>
+                  <c:v>43976.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43973.934330787037</c:v>
+                  <c:v>43979.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43976.934330787037</c:v>
+                  <c:v>43982.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43979.934330787037</c:v>
+                  <c:v>43985.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43982.934330787037</c:v>
+                  <c:v>43988.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43985.934330787037</c:v>
+                  <c:v>43991.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43988.934330787037</c:v>
+                  <c:v>43994.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43991.934330787037</c:v>
+                  <c:v>43997.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43994.934330787037</c:v>
+                  <c:v>44000.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43997.934330787037</c:v>
+                  <c:v>44003.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44000.934330787037</c:v>
+                  <c:v>44006.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44003.934330787037</c:v>
+                  <c:v>44009.539140162036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13978,46 +13978,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43964.934330787037</c:v>
+                  <c:v>43970.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43967.934330787037</c:v>
+                  <c:v>43973.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43970.934330787037</c:v>
+                  <c:v>43976.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43973.934330787037</c:v>
+                  <c:v>43979.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43976.934330787037</c:v>
+                  <c:v>43982.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43979.934330787037</c:v>
+                  <c:v>43985.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43982.934330787037</c:v>
+                  <c:v>43988.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43985.934330787037</c:v>
+                  <c:v>43991.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43988.934330787037</c:v>
+                  <c:v>43994.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43991.934330787037</c:v>
+                  <c:v>43997.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43994.934330787037</c:v>
+                  <c:v>44000.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43997.934330787037</c:v>
+                  <c:v>44003.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44000.934330787037</c:v>
+                  <c:v>44006.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44003.934330787037</c:v>
+                  <c:v>44009.539140162036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14121,46 +14121,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43964.934330787037</c:v>
+                  <c:v>43970.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43967.934330787037</c:v>
+                  <c:v>43973.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43970.934330787037</c:v>
+                  <c:v>43976.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43973.934330787037</c:v>
+                  <c:v>43979.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43976.934330787037</c:v>
+                  <c:v>43982.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43979.934330787037</c:v>
+                  <c:v>43985.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43982.934330787037</c:v>
+                  <c:v>43988.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43985.934330787037</c:v>
+                  <c:v>43991.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43988.934330787037</c:v>
+                  <c:v>43994.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43991.934330787037</c:v>
+                  <c:v>43997.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43994.934330787037</c:v>
+                  <c:v>44000.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43997.934330787037</c:v>
+                  <c:v>44003.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44000.934330787037</c:v>
+                  <c:v>44006.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44003.934330787037</c:v>
+                  <c:v>44009.539140162036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14258,46 +14258,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43964.934330787037</c:v>
+                  <c:v>43970.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43967.934330787037</c:v>
+                  <c:v>43973.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43970.934330787037</c:v>
+                  <c:v>43976.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43973.934330787037</c:v>
+                  <c:v>43979.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43976.934330787037</c:v>
+                  <c:v>43982.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43979.934330787037</c:v>
+                  <c:v>43985.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43982.934330787037</c:v>
+                  <c:v>43988.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43985.934330787037</c:v>
+                  <c:v>43991.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43988.934330787037</c:v>
+                  <c:v>43994.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43991.934330787037</c:v>
+                  <c:v>43997.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43994.934330787037</c:v>
+                  <c:v>44000.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43997.934330787037</c:v>
+                  <c:v>44003.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44000.934330787037</c:v>
+                  <c:v>44006.539140162036</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44003.934330787037</c:v>
+                  <c:v>44009.539140162036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -33837,167 +33837,167 @@
       </c>
       <c r="B26" s="85">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>43964.934330787037</v>
+        <v>43970.539140162036</v>
       </c>
       <c r="C26" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>43965.934330787037</v>
+        <v>43971.539140162036</v>
       </c>
       <c r="D26" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>43966.934330787037</v>
+        <v>43972.539140162036</v>
       </c>
       <c r="E26" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>43967.934330787037</v>
+        <v>43973.539140162036</v>
       </c>
       <c r="F26" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>43968.934330787037</v>
+        <v>43974.539140162036</v>
       </c>
       <c r="G26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>43969.934330787037</v>
+        <v>43975.539140162036</v>
       </c>
       <c r="H26" s="86">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>43970.934330787037</v>
+        <v>43976.539140162036</v>
       </c>
       <c r="I26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43971.934330787037</v>
+        <v>43977.539140162036</v>
       </c>
       <c r="J26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43972.934330787037</v>
+        <v>43978.539140162036</v>
       </c>
       <c r="K26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43973.934330787037</v>
+        <v>43979.539140162036</v>
       </c>
       <c r="L26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43974.934330787037</v>
+        <v>43980.539140162036</v>
       </c>
       <c r="M26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43975.934330787037</v>
+        <v>43981.539140162036</v>
       </c>
       <c r="N26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43976.934330787037</v>
+        <v>43982.539140162036</v>
       </c>
       <c r="O26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>43977.934330787037</v>
+        <v>43983.539140162036</v>
       </c>
       <c r="P26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43978.934330787037</v>
+        <v>43984.539140162036</v>
       </c>
       <c r="Q26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43979.934330787037</v>
+        <v>43985.539140162036</v>
       </c>
       <c r="R26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43980.934330787037</v>
+        <v>43986.539140162036</v>
       </c>
       <c r="S26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43981.934330787037</v>
+        <v>43987.539140162036</v>
       </c>
       <c r="T26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>43982.934330787037</v>
+        <v>43988.539140162036</v>
       </c>
       <c r="U26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>43983.934330787037</v>
+        <v>43989.539140162036</v>
       </c>
       <c r="V26" s="85">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>43984.934330787037</v>
+        <v>43990.539140162036</v>
       </c>
       <c r="W26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43985.934330787037</v>
+        <v>43991.539140162036</v>
       </c>
       <c r="X26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43986.934330787037</v>
+        <v>43992.539140162036</v>
       </c>
       <c r="Y26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43987.934330787037</v>
+        <v>43993.539140162036</v>
       </c>
       <c r="Z26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43988.934330787037</v>
+        <v>43994.539140162036</v>
       </c>
       <c r="AA26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43989.934330787037</v>
+        <v>43995.539140162036</v>
       </c>
       <c r="AB26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43990.934330787037</v>
+        <v>43996.539140162036</v>
       </c>
       <c r="AC26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>43991.934330787037</v>
+        <v>43997.539140162036</v>
       </c>
       <c r="AD26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43992.934330787037</v>
+        <v>43998.539140162036</v>
       </c>
       <c r="AE26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43993.934330787037</v>
+        <v>43999.539140162036</v>
       </c>
       <c r="AF26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43994.934330787037</v>
+        <v>44000.539140162036</v>
       </c>
       <c r="AG26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43995.934330787037</v>
+        <v>44001.539140162036</v>
       </c>
       <c r="AH26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43996.934330787037</v>
+        <v>44002.539140162036</v>
       </c>
       <c r="AI26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>43997.934330787037</v>
+        <v>44003.539140162036</v>
       </c>
       <c r="AJ26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>43998.934330787037</v>
+        <v>44004.539140162036</v>
       </c>
       <c r="AK26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>43999.934330787037</v>
+        <v>44005.539140162036</v>
       </c>
       <c r="AL26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44000.934330787037</v>
+        <v>44006.539140162036</v>
       </c>
       <c r="AM26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44001.934330787037</v>
+        <v>44007.539140162036</v>
       </c>
       <c r="AN26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44002.934330787037</v>
+        <v>44008.539140162036</v>
       </c>
       <c r="AO26" s="86">
         <f ca="1">AP26-1</f>
-        <v>44003.934330787037</v>
+        <v>44009.539140162036</v>
       </c>
       <c r="AP26" s="107">
         <f ca="1">NOW()</f>
-        <v>44004.934330787037</v>
+        <v>44010.539140162036</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -34516,7 +34516,7 @@
   <dimension ref="A1:AL104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA23" sqref="AA23"/>
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38195,7 +38195,7 @@
         <v>10904</v>
       </c>
       <c r="U56" s="290">
-        <v>18735</v>
+        <v>21909</v>
       </c>
       <c r="V56" s="174"/>
       <c r="W56" s="174"/>
@@ -38258,7 +38258,7 @@
         <v>1883</v>
       </c>
       <c r="U57" s="291">
-        <v>2500</v>
+        <v>2720</v>
       </c>
       <c r="V57" s="175"/>
       <c r="W57" s="175"/>
@@ -42598,7 +42598,7 @@
   <dimension ref="B3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42644,7 +42644,7 @@
         <v>117</v>
       </c>
       <c r="C6" s="153">
-        <v>46845</v>
+        <v>52812</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -42653,7 +42653,7 @@
       </c>
       <c r="C7" s="151">
         <f ca="1">NOW()</f>
-        <v>44004.934330787037</v>
+        <v>44010.539140162036</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -42662,7 +42662,7 @@
       </c>
       <c r="C8" s="152">
         <f ca="1">C7-C5</f>
-        <v>104.93433078703674</v>
+        <v>110.53914016203635</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -42671,7 +42671,7 @@
       </c>
       <c r="C9" s="154">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>9.9465487853383294</v>
+        <v>10.308800250838219</v>
       </c>
       <c r="D9" t="s">
         <v>96</v>
@@ -42704,7 +42704,7 @@
       </c>
       <c r="C12" s="159">
         <f>C6/Projections!B17</f>
-        <v>197418.21428571429</v>
+        <v>222564.85714285713</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -42713,7 +42713,7 @@
       </c>
       <c r="C13" s="160">
         <f ca="1">(C4/Projections!B17)*(2^(((C7-21)-C5)/C9))</f>
-        <v>45690.623257041931</v>
+        <v>54228.807035440826</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -42722,7 +42722,7 @@
       </c>
       <c r="C14" s="143">
         <f ca="1">C12-C13</f>
-        <v>151727.59102867235</v>
+        <v>168336.05010741629</v>
       </c>
       <c r="E14" s="156"/>
       <c r="F14" s="157" t="s">
@@ -42736,7 +42736,7 @@
       </c>
       <c r="C15" s="64">
         <f>C6*Projections!B21</f>
-        <v>37944.450000000004</v>
+        <v>42777.72</v>
       </c>
       <c r="I15" s="150"/>
     </row>
@@ -42746,7 +42746,7 @@
       </c>
       <c r="C16" s="79">
         <f ca="1">(C4*Projections!B21)*(2^(((C7-21)-C5)/C9))</f>
-        <v>8781.8926734721281</v>
+        <v>10422.960538676256</v>
       </c>
       <c r="I16" s="150"/>
     </row>
@@ -42756,7 +42756,7 @@
       </c>
       <c r="C17" s="79">
         <f ca="1">C15-C16</f>
-        <v>29162.557326527876</v>
+        <v>32354.759461323745</v>
       </c>
       <c r="F17" t="s">
         <v>141</v>
@@ -42769,7 +42769,7 @@
       </c>
       <c r="C18" s="64">
         <f>C6*Projections!B22</f>
-        <v>6558.3</v>
+        <v>7393.68</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -42778,7 +42778,7 @@
       </c>
       <c r="C19" s="79">
         <f ca="1">(C4*Projections!B22)*(2^(((C7-49)-C5)/C9))</f>
-        <v>215.68384937216845</v>
+        <v>274.15661151522721</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -42787,7 +42787,7 @@
       </c>
       <c r="C20" s="79">
         <f ca="1">C18-C19</f>
-        <v>6342.6161506278313</v>
+        <v>7119.523388484773</v>
       </c>
       <c r="F20" t="s">
         <v>146</v>
@@ -42799,7 +42799,7 @@
       </c>
       <c r="C21" s="64">
         <f>C6*Projections!B23</f>
-        <v>2342.25</v>
+        <v>2640.6000000000004</v>
       </c>
       <c r="I21" s="150"/>
     </row>
@@ -42809,7 +42809,7 @@
       </c>
       <c r="C22" s="79">
         <f ca="1">(C4*Projections!B23)*(2^(((C7-49)-C5)/C9))</f>
-        <v>77.029946204345876</v>
+        <v>97.91307554115258</v>
       </c>
       <c r="I22" s="150"/>
     </row>
@@ -42819,7 +42819,7 @@
       </c>
       <c r="C23" s="79">
         <f ca="1">C21-C22</f>
-        <v>2265.2200537956542</v>
+        <v>2542.6869244588479</v>
       </c>
       <c r="I23" s="150"/>
     </row>
@@ -42829,7 +42829,7 @@
       </c>
       <c r="C24" s="64">
         <f>C6*Projections!B24</f>
-        <v>2763.855</v>
+        <v>3115.9079999999999</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -42838,7 +42838,7 @@
       </c>
       <c r="C25" s="61">
         <f ca="1">(C4*Projections!B24)*(2^(((C7-42)-C5)/C9))</f>
-        <v>148.04542152497879</v>
+        <v>184.98288410552144</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -42850,7 +42850,7 @@
       </c>
       <c r="C26" s="163">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>60.94542776580343</v>
+        <v>61.381928490354113</v>
       </c>
       <c r="D26" t="s">
         <v>96</v>
@@ -42865,7 +42865,7 @@
       </c>
       <c r="C27" s="162">
         <f ca="1">C7+C26</f>
-        <v>44065.879758552837</v>
+        <v>44071.921068652387</v>
       </c>
       <c r="F27" t="s">
         <v>154</v>
@@ -42877,7 +42877,7 @@
       </c>
       <c r="C28" s="161">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>16.445252938808405</v>
+        <v>15.261065533840007</v>
       </c>
       <c r="D28" t="s">
         <v>96</v>
@@ -42889,7 +42889,7 @@
       </c>
       <c r="C29" s="162">
         <f ca="1">C7+C28</f>
-        <v>44021.379583725844</v>
+        <v>44025.800205695879</v>
       </c>
       <c r="F29" t="s">
         <v>154</v>
@@ -42901,7 +42901,7 @@
       </c>
       <c r="C30" s="161">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>96.440364092966419</v>
+        <v>98.169583827883145</v>
       </c>
       <c r="D30" t="s">
         <v>96</v>
@@ -42913,7 +42913,7 @@
       </c>
       <c r="C31" s="162">
         <f ca="1">C7+C30</f>
-        <v>44101.374694880004</v>
+        <v>44108.708723989919</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -42922,7 +42922,7 @@
       </c>
       <c r="C34" s="151">
         <f ca="1">C7+30</f>
-        <v>44034.934330787037</v>
+        <v>44040.539140162036</v>
       </c>
       <c r="F34" t="s">
         <v>167</v>
@@ -42934,7 +42934,7 @@
       </c>
       <c r="C35" s="79">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>378971.27789195423</v>
+        <v>396981.73807255802</v>
       </c>
       <c r="F35" t="s">
         <v>139</v>
@@ -42946,7 +42946,7 @@
       </c>
       <c r="C36" s="79">
         <f ca="1">C35/Projections!B17</f>
-        <v>1597093.2425446643</v>
+        <v>1672994.4675914946</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -42955,7 +42955,7 @@
       </c>
       <c r="C37" s="79">
         <f ca="1">C35*Projections!B21</f>
-        <v>306966.73509248294</v>
+        <v>321555.20783877204</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -42964,7 +42964,7 @@
       </c>
       <c r="C38" s="79">
         <f ca="1">C35*Projections!B22</f>
-        <v>53055.978904873598</v>
+        <v>55577.44333015813</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -42973,7 +42973,7 @@
       </c>
       <c r="C39" s="79">
         <f ca="1">C35*Projections!B23</f>
-        <v>18948.563894597712</v>
+        <v>19849.086903627904</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -42982,7 +42982,7 @@
       </c>
       <c r="C40" s="61">
         <f ca="1">C35*Projections!B24</f>
-        <v>22359.305395625299</v>
+        <v>23421.922546280923</v>
       </c>
     </row>
   </sheetData>

--- a/Indonesian COVID-19 Infection Projections.xlsx
+++ b/Indonesian COVID-19 Infection Projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EEB8C3-5C42-4092-98CE-BCB066A4BF19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3B0C33-972A-494D-9C50-4B860BBF71C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="135" windowWidth="37605" windowHeight="21000" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="37605" windowHeight="21000" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="214">
   <si>
     <t>By Age</t>
   </si>
@@ -677,6 +677,9 @@
   <si>
     <t>The official death rate of children to COVID-19 in Indonesia is 2.1% with 28 deaths of children recorded, but it is suspected that the actual number is in the hundreds with 380 deaths of people under 18 with severe COVID-19 symptoms but not testing positive and probably the highest rate of child death due to COVID-19 in the world.  Achmad Yurianto, a senior health ministry official, described Indonesian children as being caught in a "devil's circle" — a cycle of malnutrition and anaemia that increased their vulnerability to the coronavirus.  He compared malnourished children to weak structures that "crumble after an earthquake".</t>
   </si>
+  <si>
+    <t>Bali reopens to internal domestic tourists</t>
+  </si>
 </sst>
 </file>
 
@@ -1289,8 +1292,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1441,6 +1442,8 @@
     <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1829,46 +1832,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44019.875672337963</c:v>
+                  <c:v>44033.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44022.875672337963</c:v>
+                  <c:v>44036.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44025.875672337963</c:v>
+                  <c:v>44039.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44028.875672337963</c:v>
+                  <c:v>44042.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44031.875672337963</c:v>
+                  <c:v>44045.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44034.875672337963</c:v>
+                  <c:v>44048.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44037.875672337963</c:v>
+                  <c:v>44051.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44040.875672337963</c:v>
+                  <c:v>44054.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44043.875672337963</c:v>
+                  <c:v>44057.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44046.875672337963</c:v>
+                  <c:v>44060.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44049.875672337963</c:v>
+                  <c:v>44063.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44052.875672337963</c:v>
+                  <c:v>44066.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44055.875672337963</c:v>
+                  <c:v>44069.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44058.875672337963</c:v>
+                  <c:v>44072.626594791669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1978,46 +1981,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44019.875672337963</c:v>
+                  <c:v>44033.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44022.875672337963</c:v>
+                  <c:v>44036.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44025.875672337963</c:v>
+                  <c:v>44039.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44028.875672337963</c:v>
+                  <c:v>44042.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44031.875672337963</c:v>
+                  <c:v>44045.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44034.875672337963</c:v>
+                  <c:v>44048.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44037.875672337963</c:v>
+                  <c:v>44051.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44040.875672337963</c:v>
+                  <c:v>44054.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44043.875672337963</c:v>
+                  <c:v>44057.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44046.875672337963</c:v>
+                  <c:v>44060.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44049.875672337963</c:v>
+                  <c:v>44063.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44052.875672337963</c:v>
+                  <c:v>44066.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44055.875672337963</c:v>
+                  <c:v>44069.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44058.875672337963</c:v>
+                  <c:v>44072.626594791669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2127,46 +2130,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44019.875672337963</c:v>
+                  <c:v>44033.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44022.875672337963</c:v>
+                  <c:v>44036.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44025.875672337963</c:v>
+                  <c:v>44039.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44028.875672337963</c:v>
+                  <c:v>44042.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44031.875672337963</c:v>
+                  <c:v>44045.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44034.875672337963</c:v>
+                  <c:v>44048.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44037.875672337963</c:v>
+                  <c:v>44051.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44040.875672337963</c:v>
+                  <c:v>44054.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44043.875672337963</c:v>
+                  <c:v>44057.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44046.875672337963</c:v>
+                  <c:v>44060.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44049.875672337963</c:v>
+                  <c:v>44063.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44052.875672337963</c:v>
+                  <c:v>44066.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44055.875672337963</c:v>
+                  <c:v>44069.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44058.875672337963</c:v>
+                  <c:v>44072.626594791669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2582,7 +2585,7 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2731,7 +2734,7 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3161,7 +3164,7 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3310,7 +3313,7 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3366,6 +3369,9 @@
                 </c:pt>
                 <c:pt idx="12" formatCode="#,##0">
                   <c:v>5824</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="#,##0">
+                  <c:v>7261</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3742,22 +3748,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3815,22 +3821,22 @@
                   <c:v>102710.09612911714</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>147455.19634666832</c:v>
+                  <c:v>522446.8790419146</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>237202.93849128578</c:v>
+                  <c:v>543759.81261100911</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>411521.20042706153</c:v>
+                  <c:v>756812.02751273487</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>742865.09068439575</c:v>
+                  <c:v>1199879.0605617096</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1375101.2089946831</c:v>
+                  <c:v>2041794.1867546767</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2588779.3991878093</c:v>
+                  <c:v>3626016.3448422872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3921,22 +3927,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3994,22 +4000,22 @@
                   <c:v>60651.770591143701</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42943.209831030341</c:v>
+                  <c:v>402212.29366926494</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>87597.771319499589</c:v>
+                  <c:v>391272.85589992796</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>171421.87698573436</c:v>
+                  <c:v>516288.28682434798</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>328470.72982816724</c:v>
+                  <c:v>784311.53644891572</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>631171.36994874617</c:v>
+                  <c:v>1289020.8108917708</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1219081.2304465859</c:v>
+                  <c:v>2224234.4419246931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4100,22 +4106,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4173,22 +4179,22 @@
                   <c:v>16983.201494721376</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26404.214385801133</c:v>
+                  <c:v>93552.480625937169</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44625.909320332474</c:v>
+                  <c:v>106056.86248110978</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80033.054415625185</c:v>
+                  <c:v>154851.29955059796</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>147969.88013328618</c:v>
+                  <c:v>253155.95583029068</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>278894.06233897299</c:v>
+                  <c:v>440076.78528489621</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>532511.78705035103</c:v>
+                  <c:v>793894.80437881697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4279,22 +4285,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4352,22 +4358,22 @@
                   <c:v>12770.219220985375</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18085.359553752627</c:v>
+                  <c:v>64078.037867143881</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28320.229512242684</c:v>
+                  <c:v>62876.670546779606</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>47729.395518948673</c:v>
+                  <c:v>82065.588118452171</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>83802.511894581301</c:v>
+                  <c:v>122691.87361826192</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>151219.64897731671</c:v>
+                  <c:v>198292.12798271945</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>278190.59004465013</c:v>
+                  <c:v>336687.29322769371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4458,22 +4464,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4919,22 +4925,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5100,22 +5106,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5281,22 +5287,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5463,22 +5469,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5645,22 +5651,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5826,22 +5832,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6005,22 +6011,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6187,22 +6193,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6368,22 +6374,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6829,22 +6835,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7010,22 +7016,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7191,22 +7197,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7373,22 +7379,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7552,22 +7558,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7733,22 +7739,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7912,22 +7918,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8091,22 +8097,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8272,22 +8278,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8733,22 +8739,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8914,22 +8920,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9095,22 +9101,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9274,22 +9280,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9455,22 +9461,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9634,22 +9640,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10095,22 +10101,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10276,22 +10282,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10455,22 +10461,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10636,22 +10642,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10815,22 +10821,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11271,7 +11277,7 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11420,7 +11426,7 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11851,7 +11857,7 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12000,7 +12006,7 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12056,6 +12062,9 @@
                 </c:pt>
                 <c:pt idx="12" formatCode="#,##0">
                   <c:v>5824</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="#,##0">
+                  <c:v>7261</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12384,46 +12393,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44019.875672337963</c:v>
+                  <c:v>44033.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44022.875672337963</c:v>
+                  <c:v>44036.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44025.875672337963</c:v>
+                  <c:v>44039.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44028.875672337963</c:v>
+                  <c:v>44042.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44031.875672337963</c:v>
+                  <c:v>44045.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44034.875672337963</c:v>
+                  <c:v>44048.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44037.875672337963</c:v>
+                  <c:v>44051.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44040.875672337963</c:v>
+                  <c:v>44054.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44043.875672337963</c:v>
+                  <c:v>44057.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44046.875672337963</c:v>
+                  <c:v>44060.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44049.875672337963</c:v>
+                  <c:v>44063.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44052.875672337963</c:v>
+                  <c:v>44066.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44055.875672337963</c:v>
+                  <c:v>44069.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44058.875672337963</c:v>
+                  <c:v>44072.626594791669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12524,46 +12533,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44019.875672337963</c:v>
+                  <c:v>44033.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44022.875672337963</c:v>
+                  <c:v>44036.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44025.875672337963</c:v>
+                  <c:v>44039.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44028.875672337963</c:v>
+                  <c:v>44042.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44031.875672337963</c:v>
+                  <c:v>44045.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44034.875672337963</c:v>
+                  <c:v>44048.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44037.875672337963</c:v>
+                  <c:v>44051.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44040.875672337963</c:v>
+                  <c:v>44054.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44043.875672337963</c:v>
+                  <c:v>44057.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44046.875672337963</c:v>
+                  <c:v>44060.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44049.875672337963</c:v>
+                  <c:v>44063.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44052.875672337963</c:v>
+                  <c:v>44066.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44055.875672337963</c:v>
+                  <c:v>44069.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44058.875672337963</c:v>
+                  <c:v>44072.626594791669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12667,46 +12676,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44019.875672337963</c:v>
+                  <c:v>44033.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44022.875672337963</c:v>
+                  <c:v>44036.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44025.875672337963</c:v>
+                  <c:v>44039.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44028.875672337963</c:v>
+                  <c:v>44042.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44031.875672337963</c:v>
+                  <c:v>44045.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44034.875672337963</c:v>
+                  <c:v>44048.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44037.875672337963</c:v>
+                  <c:v>44051.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44040.875672337963</c:v>
+                  <c:v>44054.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44043.875672337963</c:v>
+                  <c:v>44057.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44046.875672337963</c:v>
+                  <c:v>44060.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44049.875672337963</c:v>
+                  <c:v>44063.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44052.875672337963</c:v>
+                  <c:v>44066.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44055.875672337963</c:v>
+                  <c:v>44069.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44058.875672337963</c:v>
+                  <c:v>44072.626594791669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12804,46 +12813,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44019.875672337963</c:v>
+                  <c:v>44033.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44022.875672337963</c:v>
+                  <c:v>44036.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44025.875672337963</c:v>
+                  <c:v>44039.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44028.875672337963</c:v>
+                  <c:v>44042.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44031.875672337963</c:v>
+                  <c:v>44045.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44034.875672337963</c:v>
+                  <c:v>44048.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44037.875672337963</c:v>
+                  <c:v>44051.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44040.875672337963</c:v>
+                  <c:v>44054.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44043.875672337963</c:v>
+                  <c:v>44057.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44046.875672337963</c:v>
+                  <c:v>44060.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44049.875672337963</c:v>
+                  <c:v>44063.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44052.875672337963</c:v>
+                  <c:v>44066.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44055.875672337963</c:v>
+                  <c:v>44069.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44058.875672337963</c:v>
+                  <c:v>44072.626594791669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13211,46 +13220,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44019.875672337963</c:v>
+                  <c:v>44033.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44022.875672337963</c:v>
+                  <c:v>44036.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44025.875672337963</c:v>
+                  <c:v>44039.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44028.875672337963</c:v>
+                  <c:v>44042.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44031.875672337963</c:v>
+                  <c:v>44045.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44034.875672337963</c:v>
+                  <c:v>44048.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44037.875672337963</c:v>
+                  <c:v>44051.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44040.875672337963</c:v>
+                  <c:v>44054.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44043.875672337963</c:v>
+                  <c:v>44057.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44046.875672337963</c:v>
+                  <c:v>44060.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44049.875672337963</c:v>
+                  <c:v>44063.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44052.875672337963</c:v>
+                  <c:v>44066.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44055.875672337963</c:v>
+                  <c:v>44069.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44058.875672337963</c:v>
+                  <c:v>44072.626594791669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13360,46 +13369,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44019.875672337963</c:v>
+                  <c:v>44033.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44022.875672337963</c:v>
+                  <c:v>44036.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44025.875672337963</c:v>
+                  <c:v>44039.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44028.875672337963</c:v>
+                  <c:v>44042.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44031.875672337963</c:v>
+                  <c:v>44045.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44034.875672337963</c:v>
+                  <c:v>44048.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44037.875672337963</c:v>
+                  <c:v>44051.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44040.875672337963</c:v>
+                  <c:v>44054.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44043.875672337963</c:v>
+                  <c:v>44057.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44046.875672337963</c:v>
+                  <c:v>44060.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44049.875672337963</c:v>
+                  <c:v>44063.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44052.875672337963</c:v>
+                  <c:v>44066.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44055.875672337963</c:v>
+                  <c:v>44069.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44058.875672337963</c:v>
+                  <c:v>44072.626594791669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13509,46 +13518,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44019.875672337963</c:v>
+                  <c:v>44033.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44022.875672337963</c:v>
+                  <c:v>44036.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44025.875672337963</c:v>
+                  <c:v>44039.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44028.875672337963</c:v>
+                  <c:v>44042.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44031.875672337963</c:v>
+                  <c:v>44045.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44034.875672337963</c:v>
+                  <c:v>44048.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44037.875672337963</c:v>
+                  <c:v>44051.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44040.875672337963</c:v>
+                  <c:v>44054.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44043.875672337963</c:v>
+                  <c:v>44057.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44046.875672337963</c:v>
+                  <c:v>44060.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44049.875672337963</c:v>
+                  <c:v>44063.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44052.875672337963</c:v>
+                  <c:v>44066.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44055.875672337963</c:v>
+                  <c:v>44069.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44058.875672337963</c:v>
+                  <c:v>44072.626594791669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13926,46 +13935,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44019.875672337963</c:v>
+                  <c:v>44033.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44022.875672337963</c:v>
+                  <c:v>44036.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44025.875672337963</c:v>
+                  <c:v>44039.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44028.875672337963</c:v>
+                  <c:v>44042.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44031.875672337963</c:v>
+                  <c:v>44045.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44034.875672337963</c:v>
+                  <c:v>44048.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44037.875672337963</c:v>
+                  <c:v>44051.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44040.875672337963</c:v>
+                  <c:v>44054.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44043.875672337963</c:v>
+                  <c:v>44057.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44046.875672337963</c:v>
+                  <c:v>44060.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44049.875672337963</c:v>
+                  <c:v>44063.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44052.875672337963</c:v>
+                  <c:v>44066.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44055.875672337963</c:v>
+                  <c:v>44069.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44058.875672337963</c:v>
+                  <c:v>44072.626594791669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14066,46 +14075,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44019.875672337963</c:v>
+                  <c:v>44033.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44022.875672337963</c:v>
+                  <c:v>44036.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44025.875672337963</c:v>
+                  <c:v>44039.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44028.875672337963</c:v>
+                  <c:v>44042.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44031.875672337963</c:v>
+                  <c:v>44045.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44034.875672337963</c:v>
+                  <c:v>44048.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44037.875672337963</c:v>
+                  <c:v>44051.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44040.875672337963</c:v>
+                  <c:v>44054.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44043.875672337963</c:v>
+                  <c:v>44057.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44046.875672337963</c:v>
+                  <c:v>44060.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44049.875672337963</c:v>
+                  <c:v>44063.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44052.875672337963</c:v>
+                  <c:v>44066.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44055.875672337963</c:v>
+                  <c:v>44069.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44058.875672337963</c:v>
+                  <c:v>44072.626594791669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14209,46 +14218,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44019.875672337963</c:v>
+                  <c:v>44033.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44022.875672337963</c:v>
+                  <c:v>44036.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44025.875672337963</c:v>
+                  <c:v>44039.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44028.875672337963</c:v>
+                  <c:v>44042.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44031.875672337963</c:v>
+                  <c:v>44045.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44034.875672337963</c:v>
+                  <c:v>44048.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44037.875672337963</c:v>
+                  <c:v>44051.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44040.875672337963</c:v>
+                  <c:v>44054.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44043.875672337963</c:v>
+                  <c:v>44057.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44046.875672337963</c:v>
+                  <c:v>44060.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44049.875672337963</c:v>
+                  <c:v>44063.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44052.875672337963</c:v>
+                  <c:v>44066.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44055.875672337963</c:v>
+                  <c:v>44069.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44058.875672337963</c:v>
+                  <c:v>44072.626594791669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14346,46 +14355,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44019.875672337963</c:v>
+                  <c:v>44033.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44022.875672337963</c:v>
+                  <c:v>44036.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44025.875672337963</c:v>
+                  <c:v>44039.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44028.875672337963</c:v>
+                  <c:v>44042.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44031.875672337963</c:v>
+                  <c:v>44045.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44034.875672337963</c:v>
+                  <c:v>44048.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44037.875672337963</c:v>
+                  <c:v>44051.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44040.875672337963</c:v>
+                  <c:v>44054.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44043.875672337963</c:v>
+                  <c:v>44057.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44046.875672337963</c:v>
+                  <c:v>44060.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44049.875672337963</c:v>
+                  <c:v>44063.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44052.875672337963</c:v>
+                  <c:v>44066.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44055.875672337963</c:v>
+                  <c:v>44069.626594791669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44058.875672337963</c:v>
+                  <c:v>44072.626594791669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14803,22 +14812,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14876,22 +14885,22 @@
                   <c:v>102710.09612911714</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>147455.19634666832</c:v>
+                  <c:v>522446.8790419146</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>237202.93849128578</c:v>
+                  <c:v>543759.81261100911</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>411521.20042706153</c:v>
+                  <c:v>756812.02751273487</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>742865.09068439575</c:v>
+                  <c:v>1199879.0605617096</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1375101.2089946831</c:v>
+                  <c:v>2041794.1867546767</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2588779.3991878093</c:v>
+                  <c:v>3626016.3448422872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14982,22 +14991,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15055,22 +15064,22 @@
                   <c:v>60651.770591143701</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42943.209831030341</c:v>
+                  <c:v>402212.29366926494</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>87597.771319499589</c:v>
+                  <c:v>391272.85589992796</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>171421.87698573436</c:v>
+                  <c:v>516288.28682434798</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>328470.72982816724</c:v>
+                  <c:v>784311.53644891572</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>631171.36994874617</c:v>
+                  <c:v>1289020.8108917708</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1219081.2304465859</c:v>
+                  <c:v>2224234.4419246931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15161,22 +15170,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15234,22 +15243,22 @@
                   <c:v>16983.201494721376</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26404.214385801133</c:v>
+                  <c:v>93552.480625937169</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44625.909320332474</c:v>
+                  <c:v>106056.86248110978</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80033.054415625185</c:v>
+                  <c:v>154851.29955059796</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>147969.88013328618</c:v>
+                  <c:v>253155.95583029068</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>278894.06233897299</c:v>
+                  <c:v>440076.78528489621</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>532511.78705035103</c:v>
+                  <c:v>793894.80437881697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15340,22 +15349,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15413,22 +15422,22 @@
                   <c:v>12770.219220985375</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18085.359553752627</c:v>
+                  <c:v>64078.037867143881</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28320.229512242684</c:v>
+                  <c:v>62876.670546779606</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>47729.395518948673</c:v>
+                  <c:v>82065.588118452171</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>83802.511894581301</c:v>
+                  <c:v>122691.87361826192</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>151219.64897731671</c:v>
+                  <c:v>198292.12798271945</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>278190.59004465013</c:v>
+                  <c:v>336687.29322769371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15519,22 +15528,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15979,22 +15988,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16160,22 +16169,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16341,22 +16350,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16523,22 +16532,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16705,22 +16714,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16886,22 +16895,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17065,22 +17074,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17247,22 +17256,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17428,22 +17437,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17888,22 +17897,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18069,22 +18078,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18250,22 +18259,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18432,22 +18441,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18611,22 +18620,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18792,22 +18801,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18971,22 +18980,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19150,22 +19159,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19331,22 +19340,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19791,22 +19800,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19972,22 +19981,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20153,22 +20162,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20332,22 +20341,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20513,22 +20522,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20692,22 +20701,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21152,22 +21161,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21333,22 +21342,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21512,22 +21521,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21693,22 +21702,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21872,22 +21881,22 @@
                   <c:v>44054</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44091</c:v>
+                  <c:v>44114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44128</c:v>
+                  <c:v>44174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44165</c:v>
+                  <c:v>44234</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44202</c:v>
+                  <c:v>44294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44239</c:v>
+                  <c:v>44354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44276</c:v>
+                  <c:v>44414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -33925,167 +33934,167 @@
       </c>
       <c r="B26" s="85">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>44019.875672337963</v>
+        <v>44033.626594791669</v>
       </c>
       <c r="C26" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>44020.875672337963</v>
+        <v>44034.626594791669</v>
       </c>
       <c r="D26" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>44021.875672337963</v>
+        <v>44035.626594791669</v>
       </c>
       <c r="E26" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>44022.875672337963</v>
+        <v>44036.626594791669</v>
       </c>
       <c r="F26" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>44023.875672337963</v>
+        <v>44037.626594791669</v>
       </c>
       <c r="G26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>44024.875672337963</v>
+        <v>44038.626594791669</v>
       </c>
       <c r="H26" s="86">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>44025.875672337963</v>
+        <v>44039.626594791669</v>
       </c>
       <c r="I26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>44026.875672337963</v>
+        <v>44040.626594791669</v>
       </c>
       <c r="J26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>44027.875672337963</v>
+        <v>44041.626594791669</v>
       </c>
       <c r="K26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>44028.875672337963</v>
+        <v>44042.626594791669</v>
       </c>
       <c r="L26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>44029.875672337963</v>
+        <v>44043.626594791669</v>
       </c>
       <c r="M26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>44030.875672337963</v>
+        <v>44044.626594791669</v>
       </c>
       <c r="N26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>44031.875672337963</v>
+        <v>44045.626594791669</v>
       </c>
       <c r="O26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>44032.875672337963</v>
+        <v>44046.626594791669</v>
       </c>
       <c r="P26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>44033.875672337963</v>
+        <v>44047.626594791669</v>
       </c>
       <c r="Q26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>44034.875672337963</v>
+        <v>44048.626594791669</v>
       </c>
       <c r="R26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>44035.875672337963</v>
+        <v>44049.626594791669</v>
       </c>
       <c r="S26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>44036.875672337963</v>
+        <v>44050.626594791669</v>
       </c>
       <c r="T26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>44037.875672337963</v>
+        <v>44051.626594791669</v>
       </c>
       <c r="U26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>44038.875672337963</v>
+        <v>44052.626594791669</v>
       </c>
       <c r="V26" s="85">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>44039.875672337963</v>
+        <v>44053.626594791669</v>
       </c>
       <c r="W26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44040.875672337963</v>
+        <v>44054.626594791669</v>
       </c>
       <c r="X26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44041.875672337963</v>
+        <v>44055.626594791669</v>
       </c>
       <c r="Y26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44042.875672337963</v>
+        <v>44056.626594791669</v>
       </c>
       <c r="Z26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44043.875672337963</v>
+        <v>44057.626594791669</v>
       </c>
       <c r="AA26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44044.875672337963</v>
+        <v>44058.626594791669</v>
       </c>
       <c r="AB26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>44045.875672337963</v>
+        <v>44059.626594791669</v>
       </c>
       <c r="AC26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>44046.875672337963</v>
+        <v>44060.626594791669</v>
       </c>
       <c r="AD26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44047.875672337963</v>
+        <v>44061.626594791669</v>
       </c>
       <c r="AE26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44048.875672337963</v>
+        <v>44062.626594791669</v>
       </c>
       <c r="AF26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44049.875672337963</v>
+        <v>44063.626594791669</v>
       </c>
       <c r="AG26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44050.875672337963</v>
+        <v>44064.626594791669</v>
       </c>
       <c r="AH26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44051.875672337963</v>
+        <v>44065.626594791669</v>
       </c>
       <c r="AI26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>44052.875672337963</v>
+        <v>44066.626594791669</v>
       </c>
       <c r="AJ26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>44053.875672337963</v>
+        <v>44067.626594791669</v>
       </c>
       <c r="AK26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44054.875672337963</v>
+        <v>44068.626594791669</v>
       </c>
       <c r="AL26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44055.875672337963</v>
+        <v>44069.626594791669</v>
       </c>
       <c r="AM26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44056.875672337963</v>
+        <v>44070.626594791669</v>
       </c>
       <c r="AN26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44057.875672337963</v>
+        <v>44071.626594791669</v>
       </c>
       <c r="AO26" s="86">
         <f ca="1">AP26-1</f>
-        <v>44058.875672337963</v>
+        <v>44072.626594791669</v>
       </c>
       <c r="AP26" s="107">
         <f ca="1">NOW()</f>
-        <v>44059.875672337963</v>
+        <v>44073.626594791669</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -34603,8 +34612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BB0FAD-39ED-4D53-8BC6-75164ED434B0}">
   <dimension ref="A1:AN104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y23" sqref="Y23"/>
+    <sheetView tabSelected="1" topLeftCell="G2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD24" sqref="AD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34682,16 +34691,16 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="D4" s="155"/>
-      <c r="E4" s="266">
+      <c r="E4" s="264">
         <v>43878</v>
       </c>
-      <c r="F4" s="267" t="s">
+      <c r="F4" s="265" t="s">
         <v>196</v>
       </c>
-      <c r="G4" s="267"/>
-      <c r="H4" s="267"/>
-      <c r="I4" s="267"/>
-      <c r="J4" s="266">
+      <c r="G4" s="265"/>
+      <c r="H4" s="265"/>
+      <c r="I4" s="265"/>
+      <c r="J4" s="264">
         <v>43892</v>
       </c>
     </row>
@@ -34787,7 +34796,7 @@
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="Q9" s="155"/>
       <c r="R9" s="47"/>
-      <c r="S9" s="205">
+      <c r="S9" s="203">
         <v>43934</v>
       </c>
       <c r="T9" t="s">
@@ -34799,10 +34808,10 @@
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="Q10" s="47"/>
       <c r="R10" s="69"/>
-      <c r="S10" s="266">
+      <c r="S10" s="264">
         <v>43940</v>
       </c>
-      <c r="T10" s="266" t="s">
+      <c r="T10" s="264" t="s">
         <v>206</v>
       </c>
       <c r="V10" s="69"/>
@@ -34826,10 +34835,10 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="S12" s="155"/>
-      <c r="T12" s="266">
+      <c r="T12" s="264">
         <v>43958</v>
       </c>
-      <c r="U12" s="267" t="s">
+      <c r="U12" s="265" t="s">
         <v>204</v>
       </c>
       <c r="V12" s="69"/>
@@ -34841,10 +34850,10 @@
       <c r="AB12" s="69"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="U13" s="266">
+      <c r="U13" s="264">
         <v>43974</v>
       </c>
-      <c r="V13" s="267" t="s">
+      <c r="V13" s="265" t="s">
         <v>205</v>
       </c>
       <c r="X13" s="69"/>
@@ -34854,9 +34863,9 @@
       <c r="AB13" s="69"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="S14" s="265"/>
-      <c r="T14" s="219"/>
-      <c r="U14" s="205">
+      <c r="S14" s="263"/>
+      <c r="T14" s="217"/>
+      <c r="U14" s="203">
         <v>43976</v>
       </c>
       <c r="V14" t="s">
@@ -34868,13 +34877,13 @@
       <c r="Z14" s="69"/>
       <c r="AA14" s="69"/>
       <c r="AB14" s="69"/>
-      <c r="AC14" s="205"/>
+      <c r="AC14" s="203"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="B15" s="239">
+      <c r="B15" s="237">
         <v>272886000</v>
       </c>
       <c r="C15" t="s">
@@ -34895,9 +34904,9 @@
       <c r="P15" s="69"/>
       <c r="Q15" s="155"/>
       <c r="R15" s="69"/>
-      <c r="S15" s="230"/>
-      <c r="T15" s="187"/>
-      <c r="U15" s="205">
+      <c r="S15" s="228"/>
+      <c r="T15" s="185"/>
+      <c r="U15" s="203">
         <v>43980</v>
       </c>
       <c r="V15" t="s">
@@ -34913,7 +34922,7 @@
       <c r="A16" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="B16" s="284">
+      <c r="B16" s="282">
         <v>0.01</v>
       </c>
       <c r="D16" s="69"/>
@@ -34931,9 +34940,9 @@
       <c r="P16" s="69"/>
       <c r="Q16" s="155"/>
       <c r="R16" s="142"/>
-      <c r="S16" s="230"/>
-      <c r="T16" s="230"/>
-      <c r="U16" s="230">
+      <c r="S16" s="228"/>
+      <c r="T16" s="228"/>
+      <c r="U16" s="228">
         <v>43980</v>
       </c>
       <c r="V16" t="s">
@@ -34949,7 +34958,7 @@
       <c r="A17" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="246">
+      <c r="B17" s="244">
         <f>B16/B24</f>
         <v>0.21739130434782611</v>
       </c>
@@ -34970,10 +34979,10 @@
       <c r="O17" s="155"/>
       <c r="P17" s="155"/>
       <c r="Q17" s="69"/>
-      <c r="V17" s="266">
+      <c r="V17" s="264">
         <v>43990</v>
       </c>
-      <c r="W17" s="267" t="s">
+      <c r="W17" s="265" t="s">
         <v>210</v>
       </c>
       <c r="X17" s="155"/>
@@ -34989,7 +34998,7 @@
       <c r="B18" s="110">
         <v>0.05</v>
       </c>
-      <c r="C18" s="247"/>
+      <c r="C18" s="245"/>
       <c r="D18" s="69"/>
       <c r="E18" s="69"/>
       <c r="F18" s="69"/>
@@ -35005,13 +35014,13 @@
       <c r="P18" s="155"/>
       <c r="Q18" s="47"/>
       <c r="R18" s="69"/>
-      <c r="V18" s="205">
+      <c r="V18" s="203">
         <v>43994</v>
       </c>
       <c r="W18" t="s">
         <v>212</v>
       </c>
-      <c r="Y18" s="276"/>
+      <c r="Y18" s="274"/>
       <c r="Z18" s="155"/>
       <c r="AA18" s="69"/>
       <c r="AB18" s="69"/>
@@ -35020,7 +35029,7 @@
       <c r="A19" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B19" s="261">
+      <c r="B19" s="259">
         <v>0.6</v>
       </c>
       <c r="C19" s="64">
@@ -35044,10 +35053,10 @@
       <c r="P19" s="155"/>
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
-      <c r="V19" s="266">
+      <c r="V19" s="264">
         <v>43997</v>
       </c>
-      <c r="W19" s="267" t="s">
+      <c r="W19" s="265" t="s">
         <v>211</v>
       </c>
       <c r="X19" s="69"/>
@@ -35060,7 +35069,7 @@
       <c r="A20" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="B20" s="248">
+      <c r="B20" s="246">
         <v>2.7</v>
       </c>
       <c r="C20" s="61">
@@ -35080,11 +35089,15 @@
       <c r="N20" s="69"/>
       <c r="O20" s="69"/>
       <c r="P20" s="69"/>
-      <c r="Q20" s="230"/>
+      <c r="Q20" s="228"/>
       <c r="R20" s="16"/>
       <c r="V20" s="155"/>
-      <c r="W20" s="69"/>
-      <c r="X20" s="69"/>
+      <c r="W20" s="264">
+        <v>44043</v>
+      </c>
+      <c r="X20" s="265" t="s">
+        <v>213</v>
+      </c>
       <c r="Y20" s="69"/>
       <c r="Z20" s="69"/>
       <c r="AA20" s="155"/>
@@ -35138,7 +35151,7 @@
       <c r="N22" s="69"/>
       <c r="O22" s="69"/>
       <c r="P22" s="69"/>
-      <c r="X22" s="276"/>
+      <c r="X22" s="274"/>
       <c r="Y22" s="69"/>
       <c r="Z22" s="69"/>
       <c r="AA22" s="69"/>
@@ -35152,12 +35165,12 @@
         <v>0.05</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="201" t="s">
+      <c r="D23" s="199" t="s">
         <v>168</v>
       </c>
-      <c r="O23" s="205"/>
+      <c r="O23" s="203"/>
       <c r="P23" s="16"/>
-      <c r="X23" s="205"/>
+      <c r="X23" s="203"/>
       <c r="AE23" s="165"/>
       <c r="AF23" s="165"/>
       <c r="AG23" s="165"/>
@@ -35176,7 +35189,7 @@
       <c r="D24" s="169" t="s">
         <v>160</v>
       </c>
-      <c r="X24" s="205"/>
+      <c r="X24" s="203"/>
       <c r="AD24" s="166"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
@@ -35187,9 +35200,9 @@
         <v>43892</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="268">
+      <c r="D25" s="266">
         <f>(AD28-L28)/(LOG(AD29/L29)/LOG(2))</f>
-        <v>20.888888888888889</v>
+        <v>28.555555555555557</v>
       </c>
       <c r="E25" s="165"/>
       <c r="O25" s="16"/>
@@ -35243,32 +35256,34 @@
       <c r="A27" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="181">
+      <c r="B27" s="179">
         <v>43900</v>
       </c>
-      <c r="C27" s="181">
+      <c r="C27" s="179">
         <v>43912</v>
       </c>
-      <c r="D27" s="181">
+      <c r="D27" s="179">
         <v>43917</v>
       </c>
-      <c r="E27" s="181">
+      <c r="E27" s="179">
         <v>43933</v>
       </c>
-      <c r="F27" s="181">
+      <c r="F27" s="179">
         <v>43945</v>
       </c>
-      <c r="G27" s="181">
+      <c r="G27" s="179">
         <v>43965</v>
       </c>
-      <c r="H27" s="181">
+      <c r="H27" s="179">
         <v>43990</v>
       </c>
-      <c r="I27" s="181">
+      <c r="I27" s="179">
         <v>44017</v>
       </c>
-      <c r="J27" s="181"/>
-      <c r="K27" s="181"/>
+      <c r="J27" s="179">
+        <v>44054</v>
+      </c>
+      <c r="K27" s="179"/>
       <c r="L27" t="s">
         <v>184</v>
       </c>
@@ -35288,7 +35303,7 @@
       <c r="AA27" s="16"/>
       <c r="AB27" s="16"/>
       <c r="AC27" s="16"/>
-      <c r="AK27" s="225" t="s">
+      <c r="AK27" s="223" t="s">
         <v>174</v>
       </c>
     </row>
@@ -35296,10 +35311,10 @@
       <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="281">
+      <c r="B28" s="279">
         <v>3</v>
       </c>
-      <c r="C28" s="260">
+      <c r="C28" s="258">
         <v>5</v>
       </c>
       <c r="D28" s="147">
@@ -35308,122 +35323,124 @@
       <c r="E28" s="80">
         <v>12</v>
       </c>
-      <c r="F28" s="208">
+      <c r="F28" s="206">
         <v>20</v>
       </c>
-      <c r="G28" s="208">
+      <c r="G28" s="206">
         <v>25</v>
       </c>
-      <c r="H28" s="208">
+      <c r="H28" s="206">
         <v>27</v>
       </c>
-      <c r="I28" s="208">
+      <c r="I28" s="206">
         <v>37</v>
       </c>
-      <c r="J28" s="208"/>
-      <c r="K28" s="208"/>
-      <c r="L28" s="282">
+      <c r="J28" s="206">
+        <v>60</v>
+      </c>
+      <c r="K28" s="206"/>
+      <c r="L28" s="280">
         <v>43900</v>
       </c>
-      <c r="M28" s="283">
+      <c r="M28" s="281">
         <f t="shared" ref="M28:AE28" si="0">L28+HLOOKUP(L28+1, $B$27:$K$28,2,TRUE)</f>
         <v>43903</v>
       </c>
-      <c r="N28" s="283">
+      <c r="N28" s="281">
         <f t="shared" si="0"/>
         <v>43906</v>
       </c>
-      <c r="O28" s="283">
+      <c r="O28" s="281">
         <f t="shared" si="0"/>
         <v>43909</v>
       </c>
-      <c r="P28" s="277">
+      <c r="P28" s="275">
         <f t="shared" si="0"/>
         <v>43912</v>
       </c>
-      <c r="Q28" s="278">
+      <c r="Q28" s="276">
         <f t="shared" si="0"/>
         <v>43917</v>
       </c>
-      <c r="R28" s="278">
+      <c r="R28" s="276">
         <f t="shared" si="0"/>
         <v>43925</v>
       </c>
-      <c r="S28" s="278">
+      <c r="S28" s="276">
         <f t="shared" si="0"/>
         <v>43933</v>
       </c>
-      <c r="T28" s="279">
+      <c r="T28" s="277">
         <f t="shared" si="0"/>
         <v>43945</v>
       </c>
-      <c r="U28" s="285">
+      <c r="U28" s="283">
         <f t="shared" si="0"/>
         <v>43965</v>
       </c>
-      <c r="V28" s="285">
+      <c r="V28" s="283">
         <f t="shared" si="0"/>
         <v>43990</v>
       </c>
-      <c r="W28" s="285">
+      <c r="W28" s="283">
         <f t="shared" si="0"/>
         <v>44017</v>
       </c>
-      <c r="X28" s="280">
+      <c r="X28" s="278">
         <f t="shared" si="0"/>
         <v>44054</v>
       </c>
-      <c r="Y28" s="214">
+      <c r="Y28" s="212">
         <f t="shared" si="0"/>
-        <v>44091</v>
-      </c>
-      <c r="Z28" s="214">
+        <v>44114</v>
+      </c>
+      <c r="Z28" s="212">
         <f t="shared" si="0"/>
-        <v>44128</v>
-      </c>
-      <c r="AA28" s="214">
+        <v>44174</v>
+      </c>
+      <c r="AA28" s="212">
         <f t="shared" si="0"/>
-        <v>44165</v>
-      </c>
-      <c r="AB28" s="214">
+        <v>44234</v>
+      </c>
+      <c r="AB28" s="212">
         <f t="shared" si="0"/>
-        <v>44202</v>
-      </c>
-      <c r="AC28" s="214">
+        <v>44294</v>
+      </c>
+      <c r="AC28" s="212">
         <f t="shared" si="0"/>
-        <v>44239</v>
-      </c>
-      <c r="AD28" s="220">
+        <v>44354</v>
+      </c>
+      <c r="AD28" s="218">
         <f t="shared" si="0"/>
-        <v>44276</v>
-      </c>
-      <c r="AE28" s="214">
+        <v>44414</v>
+      </c>
+      <c r="AE28" s="212">
         <f t="shared" si="0"/>
-        <v>44313</v>
-      </c>
-      <c r="AF28" s="214">
+        <v>44474</v>
+      </c>
+      <c r="AF28" s="212">
         <f t="shared" ref="AF28" si="1">AE28+HLOOKUP(AE28+1, $B$27:$K$28,2,TRUE)</f>
-        <v>44350</v>
-      </c>
-      <c r="AG28" s="286">
+        <v>44534</v>
+      </c>
+      <c r="AG28" s="284">
         <f t="shared" ref="AG28" si="2">AF28+HLOOKUP(AF28+1, $B$27:$K$28,2,TRUE)</f>
-        <v>44387</v>
-      </c>
-      <c r="AH28" s="214">
+        <v>44594</v>
+      </c>
+      <c r="AH28" s="212">
         <f>AG28+HLOOKUP(AG28+1, $B$27:$K$28,2,TRUE)</f>
-        <v>44424</v>
-      </c>
-      <c r="AI28" s="214">
+        <v>44654</v>
+      </c>
+      <c r="AI28" s="212">
         <f>AH28+HLOOKUP(AH28+1, $B$27:$K$28,2,TRUE)</f>
-        <v>44461</v>
-      </c>
-      <c r="AJ28" s="220">
+        <v>44714</v>
+      </c>
+      <c r="AJ28" s="218">
         <f>AI28+HLOOKUP(AI28+1, $B$27:$K$28,2,TRUE)</f>
-        <v>44498</v>
-      </c>
-      <c r="AK28" s="249">
+        <v>44774</v>
+      </c>
+      <c r="AK28" s="247">
         <f>AJ28+(7*8)</f>
-        <v>44554</v>
+        <v>44830</v>
       </c>
       <c r="AL28" s="70"/>
       <c r="AM28" s="70"/>
@@ -35443,106 +35460,106 @@
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
-      <c r="L29" s="274">
+      <c r="L29" s="272">
         <v>31.25</v>
       </c>
-      <c r="M29" s="275">
+      <c r="M29" s="273">
         <f>L29*2</f>
         <v>62.5</v>
       </c>
-      <c r="N29" s="275">
+      <c r="N29" s="273">
         <f t="shared" ref="N29:AB29" si="3">M29*2</f>
         <v>125</v>
       </c>
-      <c r="O29" s="275">
+      <c r="O29" s="273">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="P29" s="275">
+      <c r="P29" s="273">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="Q29" s="275">
+      <c r="Q29" s="273">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="R29" s="275">
+      <c r="R29" s="273">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="S29" s="275">
+      <c r="S29" s="273">
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-      <c r="T29" s="275">
+      <c r="T29" s="273">
         <f t="shared" si="3"/>
         <v>8000</v>
       </c>
-      <c r="U29" s="275">
+      <c r="U29" s="273">
         <f>T29*2</f>
         <v>16000</v>
       </c>
-      <c r="V29" s="275">
+      <c r="V29" s="273">
         <f>U29*2</f>
         <v>32000</v>
       </c>
-      <c r="W29" s="275">
+      <c r="W29" s="273">
         <f>V29*2</f>
         <v>64000</v>
       </c>
-      <c r="X29" s="275">
+      <c r="X29" s="273">
         <f>W29*2</f>
         <v>128000</v>
       </c>
-      <c r="Y29" s="275">
+      <c r="Y29" s="273">
         <f t="shared" si="3"/>
         <v>256000</v>
       </c>
-      <c r="Z29" s="275">
+      <c r="Z29" s="273">
         <f t="shared" si="3"/>
         <v>512000</v>
       </c>
-      <c r="AA29" s="275">
+      <c r="AA29" s="273">
         <f t="shared" si="3"/>
         <v>1024000</v>
       </c>
-      <c r="AB29" s="275">
+      <c r="AB29" s="273">
         <f t="shared" si="3"/>
         <v>2048000</v>
       </c>
-      <c r="AC29" s="275">
+      <c r="AC29" s="273">
         <f>AB29*2</f>
         <v>4096000</v>
       </c>
-      <c r="AD29" s="275">
+      <c r="AD29" s="273">
         <f>AC29*2</f>
         <v>8192000</v>
       </c>
-      <c r="AE29" s="275">
+      <c r="AE29" s="273">
         <f>AD29*2</f>
         <v>16384000</v>
       </c>
-      <c r="AF29" s="275">
+      <c r="AF29" s="273">
         <f t="shared" ref="AF29:AI29" si="4">AE29*2</f>
         <v>32768000</v>
       </c>
-      <c r="AG29" s="223">
+      <c r="AG29" s="221">
         <f t="shared" si="4"/>
         <v>65536000</v>
       </c>
-      <c r="AH29" s="188">
+      <c r="AH29" s="186">
         <f>AG29*2</f>
         <v>131072000</v>
       </c>
-      <c r="AI29" s="188">
+      <c r="AI29" s="186">
         <f t="shared" si="4"/>
         <v>262144000</v>
       </c>
-      <c r="AJ29" s="189">
+      <c r="AJ29" s="187">
         <f>$B$15</f>
         <v>272886000</v>
       </c>
-      <c r="AK29" s="250">
+      <c r="AK29" s="248">
         <f>B15*AK30</f>
         <v>13644300</v>
       </c>
@@ -35564,31 +35581,31 @@
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
-      <c r="L30" s="206">
+      <c r="L30" s="204">
         <f t="shared" ref="L30:AB30" si="5">L29/$B$15</f>
         <v>1.1451668462288281E-7</v>
       </c>
-      <c r="M30" s="207">
+      <c r="M30" s="205">
         <f t="shared" si="5"/>
         <v>2.2903336924576563E-7</v>
       </c>
-      <c r="N30" s="207">
+      <c r="N30" s="205">
         <f t="shared" si="5"/>
         <v>4.5806673849153126E-7</v>
       </c>
-      <c r="O30" s="185">
+      <c r="O30" s="183">
         <f t="shared" si="5"/>
         <v>9.1613347698306252E-7</v>
       </c>
-      <c r="P30" s="185">
+      <c r="P30" s="183">
         <f t="shared" si="5"/>
         <v>1.832266953966125E-6</v>
       </c>
-      <c r="Q30" s="185">
+      <c r="Q30" s="183">
         <f t="shared" si="5"/>
         <v>3.6645339079322501E-6</v>
       </c>
-      <c r="R30" s="185">
+      <c r="R30" s="183">
         <f t="shared" si="5"/>
         <v>7.3290678158645001E-6</v>
       </c>
@@ -35648,7 +35665,7 @@
         <f t="shared" ref="AF30:AI30" si="6">AF29/$B$15</f>
         <v>0.12007944709512397</v>
       </c>
-      <c r="AG30" s="287">
+      <c r="AG30" s="285">
         <f t="shared" si="6"/>
         <v>0.24015889419024794</v>
       </c>
@@ -35664,7 +35681,7 @@
         <f t="shared" ref="AJ30" si="7">AJ29/$B$15</f>
         <v>1</v>
       </c>
-      <c r="AK30" s="251">
+      <c r="AK30" s="249">
         <f>B18</f>
         <v>0.05</v>
       </c>
@@ -35686,107 +35703,107 @@
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
-      <c r="L31" s="273">
+      <c r="L31" s="271">
         <f>MAX(L29-(L37-L38)-(L39-L40)-(L41-L42),0)</f>
         <v>31.181614788291355</v>
       </c>
-      <c r="M31" s="272">
+      <c r="M31" s="270">
         <f t="shared" ref="M31:U31" si="8">MAX(M29-(M37-M38)-(M39-M40)-(M41-M42),0)</f>
         <v>62.264644903424632</v>
       </c>
-      <c r="N31" s="272">
+      <c r="N31" s="270">
         <f t="shared" si="8"/>
         <v>124.19</v>
       </c>
-      <c r="O31" s="272">
+      <c r="O31" s="270">
         <f>MAX(O29-(O37-O38)-(O39-O40)-(O41-O42),0)</f>
         <v>247.21229746223111</v>
       </c>
-      <c r="P31" s="272">
+      <c r="P31" s="270">
         <f>MAX(P29-(P37-P38)-(P39-P40)-(P41-P42),0)</f>
         <v>490.40582044557635</v>
       </c>
-      <c r="Q31" s="272">
+      <c r="Q31" s="270">
         <f t="shared" si="8"/>
         <v>935.3125</v>
       </c>
-      <c r="R31" s="272">
+      <c r="R31" s="270">
         <f t="shared" si="8"/>
         <v>1502.0645736639731</v>
       </c>
-      <c r="S31" s="272">
+      <c r="S31" s="270">
         <f>MAX(S29-(S37-S38)-(S39-S40)-(S41-S42),0)</f>
         <v>2492.1912971035408</v>
       </c>
-      <c r="T31" s="272">
+      <c r="T31" s="270">
         <f t="shared" si="8"/>
         <v>2073.8311595686264</v>
       </c>
-      <c r="U31" s="272">
+      <c r="U31" s="270">
         <f t="shared" si="8"/>
         <v>1405.4535892255435</v>
       </c>
-      <c r="V31" s="272">
+      <c r="V31" s="270">
         <f>MAX(V29-(V37-V38)-(V39-V40)-(V41-V42),0)</f>
         <v>1403.2011857018542</v>
       </c>
-      <c r="W31" s="272">
+      <c r="W31" s="270">
         <f>MAX(W29-(W37-W38)-(W39-W40)-(W41-W42),0)</f>
         <v>80.129992813200261</v>
       </c>
-      <c r="X31" s="272">
+      <c r="X31" s="270">
         <f t="shared" ref="X31:AE31" si="9">MAX(X29-(X37-X38)-(X39-X40)-(X41-X42),0)</f>
         <v>0</v>
       </c>
-      <c r="Y31" s="272">
+      <c r="Y31" s="270">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z31" s="272">
+      <c r="Z31" s="270">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA31" s="272">
+      <c r="AA31" s="270">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB31" s="272">
+      <c r="AB31" s="270">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC31" s="272">
+      <c r="AC31" s="270">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD31" s="272">
+      <c r="AD31" s="270">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE31" s="272">
+      <c r="AE31" s="270">
         <f t="shared" si="9"/>
-        <v>40262.536963471561</v>
-      </c>
-      <c r="AF31" s="272">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="270">
         <f t="shared" ref="AF31:AI31" si="10">MAX(AF29-(AF37-AF38)-(AF39-AF40)-(AF41-AF42),0)</f>
-        <v>349035.68026538426</v>
-      </c>
-      <c r="AG31" s="223">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="221">
         <f t="shared" si="10"/>
-        <v>1122182.3393035633</v>
-      </c>
-      <c r="AH31" s="188">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="186">
         <f t="shared" si="10"/>
-        <v>2930912.7008011653</v>
-      </c>
-      <c r="AI31" s="188">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="186">
         <f t="shared" si="10"/>
-        <v>6995631.8637508685</v>
-      </c>
-      <c r="AJ31" s="189">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="187">
         <f t="shared" ref="AJ31" si="11">MAX(AJ29-(AJ37-AJ38)-(AJ39-AJ40)-(AJ41-AJ42),0)</f>
         <v>0</v>
       </c>
-      <c r="AK31" s="252"/>
+      <c r="AK31" s="250"/>
       <c r="AL31" s="45"/>
       <c r="AM31" s="45"/>
       <c r="AN31" s="69"/>
@@ -35859,53 +35876,53 @@
       </c>
       <c r="Y32" s="117">
         <f t="shared" si="12"/>
-        <v>248346.65355451536</v>
+        <v>228883.51266191018</v>
       </c>
       <c r="Z32" s="117">
         <f t="shared" si="12"/>
-        <v>496998.77457655739</v>
+        <v>472274.22342041624</v>
       </c>
       <c r="AA32" s="117">
         <f t="shared" si="12"/>
-        <v>994280.63381505758</v>
+        <v>957037.14548242581</v>
       </c>
       <c r="AB32" s="117">
         <f t="shared" si="12"/>
-        <v>1988966.0212203916</v>
+        <v>1927973.0443649336</v>
       </c>
       <c r="AC32" s="117">
         <f t="shared" si="12"/>
-        <v>3978539.539707276</v>
+        <v>3873558.1152819972</v>
       </c>
       <c r="AD32" s="117">
         <f t="shared" si="12"/>
-        <v>7958024.4987547556</v>
+        <v>7771369.0897409664</v>
       </c>
       <c r="AE32" s="117">
         <f>MAX(AE29-AE31-AE44,0)</f>
-        <v>15877299.654160697</v>
+        <v>15578121.540826082</v>
       </c>
       <c r="AF32" s="117">
         <f t="shared" ref="AF32:AJ32" si="13">MAX(AF29-AF31-AF44,0)</f>
-        <v>31488565.516377561</v>
-      </c>
-      <c r="AG32" s="288">
+        <v>31210101.00392833</v>
+      </c>
+      <c r="AG32" s="286">
         <f t="shared" si="13"/>
-        <v>62557148.998868302</v>
-      </c>
-      <c r="AH32" s="202">
+        <v>62504882.409944154</v>
+      </c>
+      <c r="AH32" s="200">
         <f t="shared" si="13"/>
-        <v>124434738.71276198</v>
-      </c>
-      <c r="AI32" s="202">
+        <v>125146358.01031268</v>
+      </c>
+      <c r="AI32" s="200">
         <f t="shared" si="13"/>
-        <v>247747653.52154845</v>
-      </c>
-      <c r="AJ32" s="289">
+        <v>250517654.84506729</v>
+      </c>
+      <c r="AJ32" s="287">
         <f t="shared" si="13"/>
-        <v>258105343.29931438</v>
-      </c>
-      <c r="AK32" s="253"/>
+        <v>250010116.63982606</v>
+      </c>
+      <c r="AK32" s="251"/>
       <c r="AL32" s="25"/>
       <c r="AM32" s="25"/>
       <c r="AN32" s="69"/>
@@ -35924,107 +35941,107 @@
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="186">
+      <c r="L33" s="184">
         <f t="shared" ref="L33:AD33" si="14">L29/$B$17</f>
         <v>143.74999999999997</v>
       </c>
-      <c r="M33" s="187">
+      <c r="M33" s="185">
         <f t="shared" si="14"/>
         <v>287.49999999999994</v>
       </c>
-      <c r="N33" s="187">
+      <c r="N33" s="185">
         <f t="shared" si="14"/>
         <v>574.99999999999989</v>
       </c>
-      <c r="O33" s="187">
+      <c r="O33" s="185">
         <f t="shared" si="14"/>
         <v>1149.9999999999998</v>
       </c>
-      <c r="P33" s="187">
+      <c r="P33" s="185">
         <f t="shared" si="14"/>
         <v>2299.9999999999995</v>
       </c>
-      <c r="Q33" s="187">
+      <c r="Q33" s="185">
         <f t="shared" si="14"/>
         <v>4599.9999999999991</v>
       </c>
-      <c r="R33" s="187">
+      <c r="R33" s="185">
         <f t="shared" si="14"/>
         <v>9199.9999999999982</v>
       </c>
-      <c r="S33" s="187">
+      <c r="S33" s="185">
         <f t="shared" si="14"/>
         <v>18399.999999999996</v>
       </c>
-      <c r="T33" s="187">
+      <c r="T33" s="185">
         <f t="shared" si="14"/>
         <v>36799.999999999993</v>
       </c>
-      <c r="U33" s="187">
+      <c r="U33" s="185">
         <f t="shared" si="14"/>
         <v>73599.999999999985</v>
       </c>
-      <c r="V33" s="187">
+      <c r="V33" s="185">
         <f t="shared" si="14"/>
         <v>147199.99999999997</v>
       </c>
-      <c r="W33" s="187">
+      <c r="W33" s="185">
         <f t="shared" si="14"/>
         <v>294399.99999999994</v>
       </c>
-      <c r="X33" s="187">
+      <c r="X33" s="185">
         <f t="shared" si="14"/>
         <v>588799.99999999988</v>
       </c>
-      <c r="Y33" s="187">
+      <c r="Y33" s="185">
         <f t="shared" si="14"/>
         <v>1177599.9999999998</v>
       </c>
-      <c r="Z33" s="187">
+      <c r="Z33" s="185">
         <f t="shared" si="14"/>
         <v>2355199.9999999995</v>
       </c>
-      <c r="AA33" s="187">
+      <c r="AA33" s="185">
         <f t="shared" si="14"/>
         <v>4710399.9999999991</v>
       </c>
-      <c r="AB33" s="187">
+      <c r="AB33" s="185">
         <f t="shared" si="14"/>
         <v>9420799.9999999981</v>
       </c>
-      <c r="AC33" s="187">
+      <c r="AC33" s="185">
         <f t="shared" si="14"/>
         <v>18841599.999999996</v>
       </c>
-      <c r="AD33" s="187">
+      <c r="AD33" s="185">
         <f t="shared" si="14"/>
         <v>37683199.999999993</v>
       </c>
-      <c r="AE33" s="187">
+      <c r="AE33" s="185">
         <f t="shared" ref="AE33:AF33" si="15">AE29/$B$17</f>
         <v>75366399.999999985</v>
       </c>
-      <c r="AF33" s="187">
+      <c r="AF33" s="185">
         <f t="shared" si="15"/>
         <v>150732799.99999997</v>
       </c>
-      <c r="AG33" s="221">
+      <c r="AG33" s="219">
         <f>$B$15</f>
         <v>272886000</v>
       </c>
-      <c r="AH33" s="197">
+      <c r="AH33" s="195">
         <f>$B$15</f>
         <v>272886000</v>
       </c>
-      <c r="AI33" s="197">
+      <c r="AI33" s="195">
         <f>$B$15</f>
         <v>272886000</v>
       </c>
-      <c r="AJ33" s="198">
+      <c r="AJ33" s="196">
         <f t="shared" ref="AJ33" si="16">$B$15</f>
         <v>272886000</v>
       </c>
-      <c r="AK33" s="252">
+      <c r="AK33" s="250">
         <f>($B$15*$B$18)/$B$17</f>
         <v>62763779.999999993</v>
       </c>
@@ -36046,15 +36063,15 @@
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" s="17"/>
-      <c r="L34" s="184">
+      <c r="L34" s="182">
         <f>L33/$B$15</f>
         <v>5.2677674926526088E-7</v>
       </c>
-      <c r="M34" s="185">
+      <c r="M34" s="183">
         <f t="shared" ref="M34:AC34" si="17">M33/$B$15</f>
         <v>1.0535534985305218E-6</v>
       </c>
-      <c r="N34" s="185">
+      <c r="N34" s="183">
         <f t="shared" si="17"/>
         <v>2.1071069970610435E-6</v>
       </c>
@@ -36130,7 +36147,7 @@
         <f>AF33/$B$15</f>
         <v>0.5523654566375702</v>
       </c>
-      <c r="AG34" s="222">
+      <c r="AG34" s="220">
         <f t="shared" ref="AG34:AJ34" si="18">AG33/$B$15</f>
         <v>1</v>
       </c>
@@ -36146,7 +36163,7 @@
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="AK34" s="251">
+      <c r="AK34" s="249">
         <f>AK33/B15</f>
         <v>0.22999999999999998</v>
       </c>
@@ -36168,107 +36185,107 @@
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
       <c r="K35" s="17"/>
-      <c r="L35" s="186">
+      <c r="L35" s="184">
         <f>L33-L29</f>
         <v>112.49999999999997</v>
       </c>
-      <c r="M35" s="187">
+      <c r="M35" s="185">
         <f t="shared" ref="M35:AC35" si="20">M33-M29</f>
         <v>224.99999999999994</v>
       </c>
-      <c r="N35" s="187">
+      <c r="N35" s="185">
         <f t="shared" si="20"/>
         <v>449.99999999999989</v>
       </c>
-      <c r="O35" s="187">
+      <c r="O35" s="185">
         <f t="shared" si="20"/>
         <v>899.99999999999977</v>
       </c>
-      <c r="P35" s="187">
+      <c r="P35" s="185">
         <f>P33-P29</f>
         <v>1799.9999999999995</v>
       </c>
-      <c r="Q35" s="187">
+      <c r="Q35" s="185">
         <f t="shared" si="20"/>
         <v>3599.9999999999991</v>
       </c>
-      <c r="R35" s="187">
+      <c r="R35" s="185">
         <f t="shared" si="20"/>
         <v>7199.9999999999982</v>
       </c>
-      <c r="S35" s="187">
+      <c r="S35" s="185">
         <f t="shared" si="20"/>
         <v>14399.999999999996</v>
       </c>
-      <c r="T35" s="187">
+      <c r="T35" s="185">
         <f t="shared" si="20"/>
         <v>28799.999999999993</v>
       </c>
-      <c r="U35" s="187">
+      <c r="U35" s="185">
         <f t="shared" si="20"/>
         <v>57599.999999999985</v>
       </c>
-      <c r="V35" s="187">
+      <c r="V35" s="185">
         <f t="shared" si="20"/>
         <v>115199.99999999997</v>
       </c>
-      <c r="W35" s="187">
+      <c r="W35" s="185">
         <f t="shared" si="20"/>
         <v>230399.99999999994</v>
       </c>
-      <c r="X35" s="187">
+      <c r="X35" s="185">
         <f t="shared" si="20"/>
         <v>460799.99999999988</v>
       </c>
-      <c r="Y35" s="187">
+      <c r="Y35" s="185">
         <f t="shared" si="20"/>
         <v>921599.99999999977</v>
       </c>
-      <c r="Z35" s="187">
+      <c r="Z35" s="185">
         <f t="shared" si="20"/>
         <v>1843199.9999999995</v>
       </c>
-      <c r="AA35" s="187">
+      <c r="AA35" s="185">
         <f t="shared" si="20"/>
         <v>3686399.9999999991</v>
       </c>
-      <c r="AB35" s="187">
+      <c r="AB35" s="185">
         <f t="shared" si="20"/>
         <v>7372799.9999999981</v>
       </c>
-      <c r="AC35" s="187">
+      <c r="AC35" s="185">
         <f t="shared" si="20"/>
         <v>14745599.999999996</v>
       </c>
-      <c r="AD35" s="187">
+      <c r="AD35" s="185">
         <f>AD33-AD29</f>
         <v>29491199.999999993</v>
       </c>
-      <c r="AE35" s="187">
+      <c r="AE35" s="185">
         <f>AE33-AE29</f>
         <v>58982399.999999985</v>
       </c>
-      <c r="AF35" s="187">
+      <c r="AF35" s="185">
         <f>AF33-AF29</f>
         <v>117964799.99999997</v>
       </c>
-      <c r="AG35" s="223">
+      <c r="AG35" s="221">
         <f t="shared" ref="AG35:AJ35" si="21">AG33</f>
         <v>272886000</v>
       </c>
-      <c r="AH35" s="188">
+      <c r="AH35" s="186">
         <f t="shared" si="21"/>
         <v>272886000</v>
       </c>
-      <c r="AI35" s="188">
+      <c r="AI35" s="186">
         <f t="shared" si="21"/>
         <v>272886000</v>
       </c>
-      <c r="AJ35" s="189">
+      <c r="AJ35" s="187">
         <f t="shared" si="21"/>
         <v>272886000</v>
       </c>
-      <c r="AK35" s="254">
+      <c r="AK35" s="252">
         <f>AK33-AK29</f>
         <v>49119479.999999993</v>
       </c>
@@ -36290,107 +36307,107 @@
       <c r="I36" s="39"/>
       <c r="J36" s="39"/>
       <c r="K36" s="63"/>
-      <c r="L36" s="195">
+      <c r="L36" s="193">
         <f>MIN((1/$B$17)*(2^(((L28 - 14) - $B$25)/$L$54)),L35)</f>
         <v>0.38836046155525861</v>
       </c>
-      <c r="M36" s="196">
+      <c r="M36" s="194">
         <f>MIN((1/$B$17)*(2^(((M28 - 14) - $B$25)/$L$54)),M35)</f>
         <v>1.3365844990699949</v>
       </c>
-      <c r="N36" s="196">
+      <c r="N36" s="194">
         <f>MIN((1/$B$17)*(2^(((N28 - 14) - $B$25)/$L$54)),N35)</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="O36" s="196">
+      <c r="O36" s="194">
         <f>MIN((1/$B$17)*(2^(((O28 - 14) - $B$25)/$L$54)),O35)</f>
         <v>15.8313971280703</v>
       </c>
-      <c r="P36" s="196">
+      <c r="P36" s="194">
         <f>MIN((1/$B$17)*(2^(((P28 - 14) - $B$25)/$L$54)),P35)</f>
         <v>54.485464136233155</v>
       </c>
-      <c r="Q36" s="187">
+      <c r="Q36" s="185">
         <f t="shared" ref="Q36:AJ36" si="22">MIN(($L$29/$B$17)*(2^(((Q28 - 14) - $L$28)/HLOOKUP((Q28-14)-$B$25,$L$52:$AK$54,3,TRUE))),Q35)</f>
         <v>367.36111111111103</v>
       </c>
-      <c r="R36" s="187">
+      <c r="R36" s="185">
         <f t="shared" si="22"/>
         <v>2827.7814335132389</v>
       </c>
-      <c r="S36" s="187">
+      <c r="S36" s="185">
         <f t="shared" si="22"/>
         <v>8562.8642386712472</v>
       </c>
-      <c r="T36" s="187">
+      <c r="T36" s="185">
         <f t="shared" si="22"/>
         <v>28799.999999999993</v>
       </c>
-      <c r="U36" s="187">
+      <c r="U36" s="185">
         <f t="shared" si="22"/>
         <v>57599.999999999985</v>
       </c>
-      <c r="V36" s="187">
+      <c r="V36" s="185">
         <f t="shared" si="22"/>
         <v>115199.99999999997</v>
       </c>
-      <c r="W36" s="187">
+      <c r="W36" s="185">
         <f t="shared" si="22"/>
         <v>230399.99999999994</v>
       </c>
-      <c r="X36" s="187">
+      <c r="X36" s="185">
         <f t="shared" si="22"/>
         <v>460799.99999999988</v>
       </c>
-      <c r="Y36" s="187">
+      <c r="Y36" s="185">
         <f t="shared" si="22"/>
         <v>921599.99999999977</v>
       </c>
-      <c r="Z36" s="187">
+      <c r="Z36" s="185">
         <f t="shared" si="22"/>
         <v>1843199.9999999995</v>
       </c>
-      <c r="AA36" s="187">
+      <c r="AA36" s="185">
         <f t="shared" si="22"/>
         <v>3686399.9999999991</v>
       </c>
-      <c r="AB36" s="187">
+      <c r="AB36" s="185">
         <f t="shared" si="22"/>
         <v>7372799.9999999981</v>
       </c>
-      <c r="AC36" s="187">
+      <c r="AC36" s="185">
         <f t="shared" si="22"/>
         <v>14745599.999999996</v>
       </c>
-      <c r="AD36" s="187">
+      <c r="AD36" s="185">
         <f t="shared" si="22"/>
         <v>29491199.999999993</v>
       </c>
-      <c r="AE36" s="187">
+      <c r="AE36" s="185">
         <f t="shared" si="22"/>
         <v>58982399.999999985</v>
       </c>
-      <c r="AF36" s="187">
+      <c r="AF36" s="185">
         <f t="shared" si="22"/>
         <v>117964799.99999997</v>
       </c>
-      <c r="AG36" s="224">
+      <c r="AG36" s="222">
         <f t="shared" si="22"/>
         <v>272886000</v>
       </c>
-      <c r="AH36" s="192">
+      <c r="AH36" s="190">
         <f t="shared" si="22"/>
         <v>272886000</v>
       </c>
-      <c r="AI36" s="192">
+      <c r="AI36" s="190">
         <f t="shared" si="22"/>
         <v>272886000</v>
       </c>
-      <c r="AJ36" s="193">
+      <c r="AJ36" s="191">
         <f t="shared" si="22"/>
         <v>272886000</v>
       </c>
-      <c r="AK36" s="254"/>
+      <c r="AK36" s="252"/>
       <c r="AL36" s="25"/>
       <c r="AM36" s="25"/>
       <c r="AN36" s="69"/>
@@ -36409,107 +36426,107 @@
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
       <c r="K37" s="16"/>
-      <c r="L37" s="203">
+      <c r="L37" s="201">
         <f t="shared" ref="L37:AE37" si="23">L29*$B$21</f>
         <v>25.3125</v>
       </c>
-      <c r="M37" s="204">
+      <c r="M37" s="202">
         <f t="shared" si="23"/>
         <v>50.625</v>
       </c>
-      <c r="N37" s="204">
+      <c r="N37" s="202">
         <f t="shared" si="23"/>
         <v>101.25</v>
       </c>
-      <c r="O37" s="204">
+      <c r="O37" s="202">
         <f t="shared" si="23"/>
         <v>202.5</v>
       </c>
-      <c r="P37" s="204">
+      <c r="P37" s="202">
         <f t="shared" si="23"/>
         <v>405</v>
       </c>
-      <c r="Q37" s="204">
+      <c r="Q37" s="202">
         <f t="shared" si="23"/>
         <v>810</v>
       </c>
-      <c r="R37" s="204">
+      <c r="R37" s="202">
         <f t="shared" si="23"/>
         <v>1620</v>
       </c>
-      <c r="S37" s="204">
+      <c r="S37" s="202">
         <f t="shared" si="23"/>
         <v>3240</v>
       </c>
-      <c r="T37" s="204">
+      <c r="T37" s="202">
         <f t="shared" si="23"/>
         <v>6480</v>
       </c>
-      <c r="U37" s="204">
+      <c r="U37" s="202">
         <f t="shared" si="23"/>
         <v>12960</v>
       </c>
-      <c r="V37" s="204">
+      <c r="V37" s="202">
         <f t="shared" si="23"/>
         <v>25920</v>
       </c>
-      <c r="W37" s="204">
+      <c r="W37" s="202">
         <f t="shared" si="23"/>
         <v>51840</v>
       </c>
-      <c r="X37" s="204">
+      <c r="X37" s="202">
         <f t="shared" si="23"/>
         <v>103680</v>
       </c>
-      <c r="Y37" s="204">
+      <c r="Y37" s="202">
         <f t="shared" si="23"/>
         <v>207360</v>
       </c>
-      <c r="Z37" s="204">
+      <c r="Z37" s="202">
         <f t="shared" si="23"/>
         <v>414720</v>
       </c>
-      <c r="AA37" s="204">
+      <c r="AA37" s="202">
         <f t="shared" si="23"/>
         <v>829440</v>
       </c>
-      <c r="AB37" s="204">
+      <c r="AB37" s="202">
         <f t="shared" si="23"/>
         <v>1658880</v>
       </c>
-      <c r="AC37" s="204">
+      <c r="AC37" s="202">
         <f t="shared" si="23"/>
         <v>3317760</v>
       </c>
-      <c r="AD37" s="204">
+      <c r="AD37" s="202">
         <f t="shared" si="23"/>
         <v>6635520</v>
       </c>
-      <c r="AE37" s="204">
+      <c r="AE37" s="202">
         <f t="shared" si="23"/>
         <v>13271040</v>
       </c>
-      <c r="AF37" s="204">
+      <c r="AF37" s="202">
         <f t="shared" ref="AF37:AJ37" si="24">AF29*$B$21</f>
         <v>26542080</v>
       </c>
-      <c r="AG37" s="221">
+      <c r="AG37" s="219">
         <f t="shared" si="24"/>
         <v>53084160</v>
       </c>
-      <c r="AH37" s="197">
+      <c r="AH37" s="195">
         <f t="shared" si="24"/>
         <v>106168320</v>
       </c>
-      <c r="AI37" s="197">
+      <c r="AI37" s="195">
         <f t="shared" si="24"/>
         <v>212336640</v>
       </c>
-      <c r="AJ37" s="198">
+      <c r="AJ37" s="196">
         <f t="shared" si="24"/>
         <v>221037660</v>
       </c>
-      <c r="AK37" s="254">
+      <c r="AK37" s="252">
         <f>AK29*B21</f>
         <v>11051883</v>
       </c>
@@ -36531,107 +36548,107 @@
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
       <c r="K38" s="16"/>
-      <c r="L38" s="195">
+      <c r="L38" s="193">
         <f>L37-(1*$B$21)*(2^(((L28 - 14) - $B$25)/$L$54))</f>
         <v>25.244114788291355</v>
       </c>
-      <c r="M38" s="196">
+      <c r="M38" s="194">
         <f>M37-(1*$B$21)*(2^(((M28 - 14) - $B$25)/$L$54))</f>
         <v>50.389644903424632</v>
       </c>
-      <c r="N38" s="196">
+      <c r="N38" s="194">
         <f>N37-(1*$B$21)*(2^(((N28 - 14) - $B$25)/$L$54))</f>
         <v>100.44</v>
       </c>
-      <c r="O38" s="196">
+      <c r="O38" s="194">
         <f>O37-(1*$B$21)*(2^(((O28 - 14) - $B$25)/$L$54))</f>
         <v>199.71229746223111</v>
       </c>
-      <c r="P38" s="196">
+      <c r="P38" s="194">
         <f>P37-(1*$B$21)*(2^(((P28 - 14) - $B$25)/$L$54))</f>
         <v>395.40582044557635</v>
       </c>
-      <c r="Q38" s="194">
+      <c r="Q38" s="192">
         <f t="shared" ref="Q38:AJ38" si="25">MAX(Q37-(($L$29*$B$21)*(2^(((Q28 -14) - $L$28)/HLOOKUP((Q28-14)-$B$25,$L$52:$AK$54,3,TRUE)))),0)</f>
         <v>745.3125</v>
       </c>
-      <c r="R38" s="194">
+      <c r="R38" s="192">
         <f t="shared" si="25"/>
         <v>1122.0645736639731</v>
       </c>
-      <c r="S38" s="194">
+      <c r="S38" s="192">
         <f t="shared" si="25"/>
         <v>1732.1912971035408</v>
       </c>
-      <c r="T38" s="194">
+      <c r="T38" s="192">
         <f t="shared" si="25"/>
         <v>908.90638284952001</v>
       </c>
-      <c r="U38" s="194">
+      <c r="U38" s="192">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="V38" s="194">
+      <c r="V38" s="192">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="W38" s="194">
+      <c r="W38" s="192">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="X38" s="194">
+      <c r="X38" s="192">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Y38" s="194">
+      <c r="Y38" s="192">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Z38" s="194">
+      <c r="Z38" s="192">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA38" s="194">
+      <c r="AA38" s="192">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AB38" s="194">
+      <c r="AB38" s="192">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AC38" s="194">
+      <c r="AC38" s="192">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AD38" s="194">
+      <c r="AD38" s="192">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AE38" s="194">
+      <c r="AE38" s="192">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AF38" s="194">
+      <c r="AF38" s="192">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AG38" s="224">
+      <c r="AG38" s="222">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AH38" s="192">
+      <c r="AH38" s="190">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AI38" s="192">
+      <c r="AI38" s="190">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AJ38" s="193">
+      <c r="AJ38" s="191">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AK38" s="252"/>
+      <c r="AK38" s="250"/>
       <c r="AL38" s="25"/>
       <c r="AM38" s="25"/>
       <c r="AN38" s="69"/>
@@ -36650,107 +36667,107 @@
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="211">
+      <c r="L39" s="209">
         <f>(1*($B$22+$B$23))*(2^(((L28 - 7) - $B$25)/$L$54))</f>
         <v>0.28686269321064994</v>
       </c>
-      <c r="M39" s="209">
+      <c r="M39" s="207">
         <f>(1*($B$22+$B$23))*(2^(((M28 - 7) - $B$25)/$L$54))</f>
         <v>0.98726896031425992</v>
       </c>
-      <c r="N39" s="209">
+      <c r="N39" s="207">
         <f>(1*($B$22+$B$23))*(2^(((N28 - 7) - $B$25)/$L$54))</f>
         <v>3.3977928223808966</v>
       </c>
-      <c r="O39" s="200">
+      <c r="O39" s="198">
         <f t="shared" ref="O39:AJ39" si="26">($L$29*($B$22+$B$23))*(2^(((O28-7)-$L$28)/HLOOKUP((O28-7)-$B$25,$L$52:$AK$54,3,TRUE)))</f>
         <v>13.534573150668992</v>
       </c>
-      <c r="P39" s="200">
+      <c r="P39" s="198">
         <f t="shared" si="26"/>
         <v>28.3625865126495</v>
       </c>
-      <c r="Q39" s="200">
+      <c r="Q39" s="198">
         <f t="shared" si="26"/>
         <v>89.088156653802415</v>
       </c>
-      <c r="R39" s="200">
+      <c r="R39" s="198">
         <f t="shared" si="26"/>
         <v>285.2286756025112</v>
       </c>
-      <c r="S39" s="200">
+      <c r="S39" s="198">
         <f t="shared" si="26"/>
         <v>547.48150861902241</v>
       </c>
-      <c r="T39" s="200">
+      <c r="T39" s="198">
         <f t="shared" si="26"/>
         <v>2006.5557851506962</v>
       </c>
-      <c r="U39" s="200">
+      <c r="U39" s="198">
         <f t="shared" si="26"/>
         <v>9417.9493258412858</v>
       </c>
-      <c r="V39" s="200">
+      <c r="V39" s="198">
         <f t="shared" si="26"/>
         <v>20625.664347928399</v>
       </c>
-      <c r="W39" s="200">
+      <c r="W39" s="198">
         <f t="shared" si="26"/>
         <v>33962.570261260051</v>
       </c>
-      <c r="X39" s="200">
+      <c r="X39" s="198">
         <f t="shared" si="26"/>
         <v>102710.09612911714</v>
       </c>
-      <c r="Y39" s="200">
+      <c r="Y39" s="198">
         <f t="shared" si="26"/>
-        <v>147455.19634666832</v>
-      </c>
-      <c r="Z39" s="200">
+        <v>522446.8790419146</v>
+      </c>
+      <c r="Z39" s="198">
         <f t="shared" si="26"/>
-        <v>237202.93849128578</v>
-      </c>
-      <c r="AA39" s="200">
+        <v>543759.81261100911</v>
+      </c>
+      <c r="AA39" s="198">
         <f t="shared" si="26"/>
-        <v>411521.20042706153</v>
-      </c>
-      <c r="AB39" s="200">
+        <v>756812.02751273487</v>
+      </c>
+      <c r="AB39" s="198">
         <f t="shared" si="26"/>
-        <v>742865.09068439575</v>
-      </c>
-      <c r="AC39" s="200">
+        <v>1199879.0605617096</v>
+      </c>
+      <c r="AC39" s="198">
         <f t="shared" si="26"/>
-        <v>1375101.2089946831</v>
-      </c>
-      <c r="AD39" s="200">
+        <v>2041794.1867546767</v>
+      </c>
+      <c r="AD39" s="198">
         <f t="shared" si="26"/>
-        <v>2588779.3991878093</v>
-      </c>
-      <c r="AE39" s="200">
+        <v>3626016.3448422872</v>
+      </c>
+      <c r="AE39" s="198">
         <f t="shared" si="26"/>
-        <v>4932027.7094687866</v>
-      </c>
-      <c r="AF39" s="200">
+        <v>6620596.0866099661</v>
+      </c>
+      <c r="AF39" s="198">
         <f t="shared" si="26"/>
-        <v>9478432.4100951403</v>
-      </c>
-      <c r="AG39" s="221">
+        <v>12320699.574388683</v>
+      </c>
+      <c r="AG39" s="219">
         <f t="shared" si="26"/>
-        <v>18335617.398896609</v>
-      </c>
-      <c r="AH39" s="197">
+        <v>23243223.917075671</v>
+      </c>
+      <c r="AH39" s="195">
         <f t="shared" si="26"/>
-        <v>35649499.244036146</v>
-      </c>
-      <c r="AI39" s="197">
+        <v>44293901.3811066</v>
+      </c>
+      <c r="AI39" s="195">
         <f t="shared" si="26"/>
-        <v>69589611.565917805</v>
-      </c>
-      <c r="AJ39" s="198">
+        <v>85061077.746303886</v>
+      </c>
+      <c r="AJ39" s="196">
         <f t="shared" si="26"/>
-        <v>136277941.31381959</v>
-      </c>
-      <c r="AK39" s="252">
+        <v>164330723.97734335</v>
+      </c>
+      <c r="AK39" s="250">
         <f>AK29*(B22+B23)</f>
         <v>2592417</v>
       </c>
@@ -36772,107 +36789,107 @@
       <c r="I40" s="39"/>
       <c r="J40" s="39"/>
       <c r="K40" s="63"/>
-      <c r="L40" s="195">
+      <c r="L40" s="193">
         <f t="shared" ref="L40:S40" si="27">L39</f>
         <v>0.28686269321064994</v>
       </c>
-      <c r="M40" s="196">
+      <c r="M40" s="194">
         <f t="shared" si="27"/>
         <v>0.98726896031425992</v>
       </c>
-      <c r="N40" s="196">
+      <c r="N40" s="194">
         <f t="shared" si="27"/>
         <v>3.3977928223808966</v>
       </c>
-      <c r="O40" s="196">
+      <c r="O40" s="194">
         <f t="shared" si="27"/>
         <v>13.534573150668992</v>
       </c>
-      <c r="P40" s="196">
+      <c r="P40" s="194">
         <f t="shared" si="27"/>
         <v>28.3625865126495</v>
       </c>
-      <c r="Q40" s="196">
+      <c r="Q40" s="194">
         <f t="shared" si="27"/>
         <v>89.088156653802415</v>
       </c>
-      <c r="R40" s="196">
+      <c r="R40" s="194">
         <f t="shared" si="27"/>
         <v>285.2286756025112</v>
       </c>
-      <c r="S40" s="196">
+      <c r="S40" s="194">
         <f t="shared" si="27"/>
         <v>547.48150861902241</v>
       </c>
-      <c r="T40" s="187">
+      <c r="T40" s="185">
         <f t="shared" ref="T40:AJ40" si="28">MAX(T39-($L$29*$B$22)*(2^(((T28 - 42) - $L$28)/HLOOKUP((T28-42)-$B$25,$L$52:$AK$54,3,TRUE)))-T42,0)</f>
         <v>1674.924813620803</v>
       </c>
-      <c r="U40" s="187">
+      <c r="U40" s="185">
         <f t="shared" si="28"/>
         <v>8072.3760871510385</v>
       </c>
-      <c r="V40" s="187">
+      <c r="V40" s="185">
         <f t="shared" si="28"/>
         <v>17641.788773472537</v>
       </c>
-      <c r="W40" s="187">
+      <c r="W40" s="185">
         <f t="shared" si="28"/>
         <v>26802.688398998784</v>
       </c>
-      <c r="X40" s="187">
+      <c r="X40" s="185">
         <f t="shared" si="28"/>
         <v>60651.770591143701</v>
       </c>
-      <c r="Y40" s="187">
+      <c r="Y40" s="185">
         <f t="shared" si="28"/>
-        <v>42943.209831030341</v>
-      </c>
-      <c r="Z40" s="187">
+        <v>402212.29366926494</v>
+      </c>
+      <c r="Z40" s="185">
         <f t="shared" si="28"/>
-        <v>87597.771319499589</v>
-      </c>
-      <c r="AA40" s="187">
+        <v>391272.85589992796</v>
+      </c>
+      <c r="AA40" s="185">
         <f t="shared" si="28"/>
-        <v>171421.87698573436</v>
-      </c>
-      <c r="AB40" s="187">
+        <v>516288.28682434798</v>
+      </c>
+      <c r="AB40" s="185">
         <f t="shared" si="28"/>
-        <v>328470.72982816724</v>
-      </c>
-      <c r="AC40" s="187">
+        <v>784311.53644891572</v>
+      </c>
+      <c r="AC40" s="185">
         <f t="shared" si="28"/>
-        <v>631171.36994874617</v>
-      </c>
-      <c r="AD40" s="187">
+        <v>1289020.8108917708</v>
+      </c>
+      <c r="AD40" s="185">
         <f t="shared" si="28"/>
-        <v>1219081.2304465859</v>
-      </c>
-      <c r="AE40" s="187">
+        <v>2224234.4419246931</v>
+      </c>
+      <c r="AE40" s="185">
         <f t="shared" si="28"/>
-        <v>2366327.8647755529</v>
-      </c>
-      <c r="AF40" s="187">
+        <v>3964171.3642471265</v>
+      </c>
+      <c r="AF40" s="185">
         <f t="shared" si="28"/>
-        <v>4612851.1374877561</v>
-      </c>
-      <c r="AG40" s="224">
+        <v>7227030.0422020713</v>
+      </c>
+      <c r="AG40" s="222">
         <f t="shared" si="28"/>
-        <v>9024077.8488829341</v>
-      </c>
-      <c r="AH40" s="192">
+        <v>13394712.870001731</v>
+      </c>
+      <c r="AH40" s="190">
         <f t="shared" si="28"/>
-        <v>17705371.712703452</v>
-      </c>
-      <c r="AI40" s="192">
+        <v>25136024.253198821</v>
+      </c>
+      <c r="AI40" s="190">
         <f t="shared" si="28"/>
-        <v>34822138.445647672</v>
-      </c>
-      <c r="AJ40" s="193">
+        <v>47623283.888448767</v>
+      </c>
+      <c r="AJ40" s="191">
         <f t="shared" si="28"/>
-        <v>68624107.74905178</v>
-      </c>
-      <c r="AK40" s="254"/>
+        <v>90912137.372088432</v>
+      </c>
+      <c r="AK40" s="252"/>
       <c r="AL40" s="45"/>
       <c r="AM40" s="45"/>
       <c r="AN40" s="69"/>
@@ -36891,107 +36908,107 @@
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="211">
+      <c r="L41" s="209">
         <f>(1*$B$23)*(2^(((L28 - 14) -$B$25)/$L$54))</f>
         <v>4.2213093647310721E-3</v>
       </c>
-      <c r="M41" s="209">
+      <c r="M41" s="207">
         <f>(1*$B$23)*(2^(((M28 - 14) -$B$25)/$L$54))</f>
         <v>1.4528092381195599E-2</v>
       </c>
-      <c r="N41" s="209">
+      <c r="N41" s="207">
         <f>(1*$B$23)*(2^(((N28 - 14) -$B$25)/$L$54))</f>
         <v>0.05</v>
       </c>
-      <c r="O41" s="209">
+      <c r="O41" s="207">
         <f>(1*$B$23)*(2^(((O28 - 14) -$B$25)/$L$54))</f>
         <v>0.17208040356598153</v>
       </c>
-      <c r="P41" s="209">
+      <c r="P41" s="207">
         <f>(1*$B$23)*(2^(((P28 - 14) -$B$25)/$L$54))</f>
         <v>0.59223330582862133</v>
       </c>
-      <c r="Q41" s="200">
+      <c r="Q41" s="198">
         <f t="shared" ref="Q41:AJ41" si="29">($L$29*$B$23)*(2^(((Q28 - 14) - $L$28)/HLOOKUP((Q28-14)-$B$25,$L$52:$AK$54,3,TRUE)))</f>
         <v>3.9930555555555554</v>
       </c>
-      <c r="R41" s="200">
+      <c r="R41" s="198">
         <f t="shared" si="29"/>
         <v>30.736754712100428</v>
       </c>
-      <c r="S41" s="200">
+      <c r="S41" s="198">
         <f t="shared" si="29"/>
         <v>93.07461128990488</v>
       </c>
-      <c r="T41" s="200">
+      <c r="T41" s="198">
         <f t="shared" si="29"/>
         <v>343.89466772533825</v>
       </c>
-      <c r="U41" s="200">
+      <c r="U41" s="198">
         <f t="shared" si="29"/>
         <v>1018.4114787738645</v>
       </c>
-      <c r="V41" s="200">
+      <c r="V41" s="198">
         <f t="shared" si="29"/>
         <v>2728.9922227359043</v>
       </c>
-      <c r="W41" s="200">
+      <c r="W41" s="198">
         <f t="shared" si="29"/>
         <v>5153.5901342039142</v>
       </c>
-      <c r="X41" s="200">
+      <c r="X41" s="198">
         <f t="shared" si="29"/>
         <v>16983.201494721376</v>
       </c>
-      <c r="Y41" s="200">
+      <c r="Y41" s="198">
         <f t="shared" si="29"/>
-        <v>26404.214385801133</v>
-      </c>
-      <c r="Z41" s="200">
+        <v>93552.480625937169</v>
+      </c>
+      <c r="Z41" s="198">
         <f t="shared" si="29"/>
-        <v>44625.909320332474</v>
-      </c>
-      <c r="AA41" s="200">
+        <v>106056.86248110978</v>
+      </c>
+      <c r="AA41" s="198">
         <f t="shared" si="29"/>
-        <v>80033.054415625185</v>
-      </c>
-      <c r="AB41" s="200">
+        <v>154851.29955059796</v>
+      </c>
+      <c r="AB41" s="198">
         <f t="shared" si="29"/>
-        <v>147969.88013328618</v>
-      </c>
-      <c r="AC41" s="200">
+        <v>253155.95583029068</v>
+      </c>
+      <c r="AC41" s="198">
         <f t="shared" si="29"/>
-        <v>278894.06233897299</v>
-      </c>
-      <c r="AD41" s="200">
+        <v>440076.78528489621</v>
+      </c>
+      <c r="AD41" s="198">
         <f t="shared" si="29"/>
-        <v>532511.78705035103</v>
-      </c>
-      <c r="AE41" s="200">
+        <v>793894.80437881697</v>
+      </c>
+      <c r="AE41" s="198">
         <f t="shared" si="29"/>
-        <v>1026083.9945235044</v>
-      </c>
-      <c r="AF41" s="200">
+        <v>1467085.930850547</v>
+      </c>
+      <c r="AF41" s="198">
         <f t="shared" si="29"/>
-        <v>1990375.5110551771</v>
-      </c>
-      <c r="AG41" s="221">
+        <v>2756301.3386667869</v>
+      </c>
+      <c r="AG41" s="219">
         <f t="shared" si="29"/>
-        <v>3880347.3305063182</v>
-      </c>
-      <c r="AH41" s="197">
+        <v>5240084.8152134186</v>
+      </c>
+      <c r="AH41" s="195">
         <f t="shared" si="29"/>
-        <v>7594374.1008503009</v>
-      </c>
-      <c r="AI41" s="197">
+        <v>10049793.746628528</v>
+      </c>
+      <c r="AI41" s="195">
         <f t="shared" si="29"/>
-        <v>14908778.734668033</v>
-      </c>
-      <c r="AJ41" s="198">
+        <v>19403242.408655349</v>
+      </c>
+      <c r="AJ41" s="196">
         <f t="shared" si="29"/>
-        <v>29339854.204554439</v>
-      </c>
-      <c r="AK41" s="252">
+        <v>37657275.054164097</v>
+      </c>
+      <c r="AK41" s="250">
         <f>AK29*B23</f>
         <v>682215</v>
       </c>
@@ -37013,107 +37030,107 @@
       <c r="I42" s="39"/>
       <c r="J42" s="39"/>
       <c r="K42" s="63"/>
-      <c r="L42" s="195">
+      <c r="L42" s="193">
         <f t="shared" ref="L42:S42" si="30">L41</f>
         <v>4.2213093647310721E-3</v>
       </c>
-      <c r="M42" s="196">
+      <c r="M42" s="194">
         <f t="shared" si="30"/>
         <v>1.4528092381195599E-2</v>
       </c>
-      <c r="N42" s="196">
+      <c r="N42" s="194">
         <f t="shared" si="30"/>
         <v>0.05</v>
       </c>
-      <c r="O42" s="196">
+      <c r="O42" s="194">
         <f t="shared" si="30"/>
         <v>0.17208040356598153</v>
       </c>
-      <c r="P42" s="196">
+      <c r="P42" s="194">
         <f t="shared" si="30"/>
         <v>0.59223330582862133</v>
       </c>
-      <c r="Q42" s="196">
+      <c r="Q42" s="194">
         <f t="shared" si="30"/>
         <v>3.9930555555555554</v>
       </c>
-      <c r="R42" s="196">
+      <c r="R42" s="194">
         <f t="shared" si="30"/>
         <v>30.736754712100428</v>
       </c>
-      <c r="S42" s="196">
+      <c r="S42" s="194">
         <f t="shared" si="30"/>
         <v>93.07461128990488</v>
       </c>
-      <c r="T42" s="194">
+      <c r="T42" s="192">
         <f t="shared" ref="T42:AJ42" si="31">MAX(T41-($L$29*$B$23)*(2^(((T28 - 35) - $L$28)/HLOOKUP((T28-35)-$B$25,$L$52:$AK$54,3,TRUE))),0)</f>
         <v>320.4504159743376</v>
       </c>
-      <c r="U42" s="194">
+      <c r="U42" s="192">
         <f t="shared" si="31"/>
         <v>729.43830668965529</v>
       </c>
-      <c r="V42" s="194">
+      <c r="V42" s="192">
         <f t="shared" si="31"/>
         <v>1036.0689828936206</v>
       </c>
-      <c r="W42" s="194">
+      <c r="W42" s="192">
         <f t="shared" si="31"/>
         <v>233.60198927838155</v>
       </c>
-      <c r="X42" s="194">
+      <c r="X42" s="192">
         <f t="shared" si="31"/>
         <v>12770.219220985375</v>
       </c>
-      <c r="Y42" s="194">
+      <c r="Y42" s="192">
         <f t="shared" si="31"/>
-        <v>18085.359553752627</v>
-      </c>
-      <c r="Z42" s="194">
+        <v>64078.037867143881</v>
+      </c>
+      <c r="Z42" s="192">
         <f t="shared" si="31"/>
-        <v>28320.229512242684</v>
-      </c>
-      <c r="AA42" s="194">
+        <v>62876.670546779606</v>
+      </c>
+      <c r="AA42" s="192">
         <f t="shared" si="31"/>
-        <v>47729.395518948673</v>
-      </c>
-      <c r="AB42" s="194">
+        <v>82065.588118452171</v>
+      </c>
+      <c r="AB42" s="192">
         <f t="shared" si="31"/>
-        <v>83802.511894581301</v>
-      </c>
-      <c r="AC42" s="194">
+        <v>122691.87361826192</v>
+      </c>
+      <c r="AC42" s="192">
         <f t="shared" si="31"/>
-        <v>151219.64897731671</v>
-      </c>
-      <c r="AD42" s="194">
+        <v>198292.12798271945</v>
+      </c>
+      <c r="AD42" s="192">
         <f t="shared" si="31"/>
-        <v>278190.59004465013</v>
-      </c>
-      <c r="AE42" s="194">
+        <v>336687.29322769371</v>
+      </c>
+      <c r="AE42" s="192">
         <f t="shared" si="31"/>
-        <v>519086.37618020969</v>
-      </c>
-      <c r="AF42" s="194">
+        <v>591131.08392237511</v>
+      </c>
+      <c r="AF42" s="192">
         <f t="shared" si="31"/>
-        <v>979072.46392794559</v>
-      </c>
-      <c r="AG42" s="224">
+        <v>1062932.8646758413</v>
+      </c>
+      <c r="AG42" s="222">
         <f t="shared" si="31"/>
-        <v>1862229.219823556</v>
-      </c>
-      <c r="AH42" s="192">
+        <v>1945391.7825440224</v>
+      </c>
+      <c r="AH42" s="190">
         <f t="shared" si="31"/>
-        <v>3565734.3329841602</v>
-      </c>
-      <c r="AI42" s="192">
+        <v>3608878.5404466512</v>
+      </c>
+      <c r="AI42" s="190">
         <f t="shared" si="31"/>
-        <v>6864523.7186890347</v>
-      </c>
-      <c r="AJ42" s="193">
+        <v>6765910.7185110953</v>
+      </c>
+      <c r="AJ42" s="191">
         <f t="shared" si="31"/>
-        <v>13273923.008157015</v>
-      </c>
-      <c r="AK42" s="252"/>
+        <v>12792184.445279386</v>
+      </c>
+      <c r="AK42" s="250"/>
       <c r="AL42" s="45"/>
       <c r="AM42" s="45"/>
       <c r="AN42" s="69"/>
@@ -37132,107 +37149,107 @@
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
       <c r="K43" s="16"/>
-      <c r="L43" s="212">
+      <c r="L43" s="210">
         <f t="shared" ref="L43:AE43" si="32">L29*$B$24</f>
         <v>1.4375</v>
       </c>
-      <c r="M43" s="213">
+      <c r="M43" s="211">
         <f t="shared" si="32"/>
         <v>2.875</v>
       </c>
-      <c r="N43" s="213">
+      <c r="N43" s="211">
         <f t="shared" si="32"/>
         <v>5.75</v>
       </c>
-      <c r="O43" s="213">
+      <c r="O43" s="211">
         <f t="shared" si="32"/>
         <v>11.5</v>
       </c>
-      <c r="P43" s="213">
+      <c r="P43" s="211">
         <f t="shared" si="32"/>
         <v>23</v>
       </c>
-      <c r="Q43" s="213">
+      <c r="Q43" s="211">
         <f t="shared" si="32"/>
         <v>46</v>
       </c>
-      <c r="R43" s="213">
+      <c r="R43" s="211">
         <f t="shared" si="32"/>
         <v>92</v>
       </c>
-      <c r="S43" s="213">
+      <c r="S43" s="211">
         <f t="shared" si="32"/>
         <v>184</v>
       </c>
-      <c r="T43" s="213">
+      <c r="T43" s="211">
         <f t="shared" si="32"/>
         <v>368</v>
       </c>
-      <c r="U43" s="213">
+      <c r="U43" s="211">
         <f t="shared" si="32"/>
         <v>736</v>
       </c>
-      <c r="V43" s="213">
+      <c r="V43" s="211">
         <f t="shared" si="32"/>
         <v>1472</v>
       </c>
-      <c r="W43" s="213">
+      <c r="W43" s="211">
         <f t="shared" si="32"/>
         <v>2944</v>
       </c>
-      <c r="X43" s="213">
+      <c r="X43" s="211">
         <f t="shared" si="32"/>
         <v>5888</v>
       </c>
-      <c r="Y43" s="213">
+      <c r="Y43" s="211">
         <f t="shared" si="32"/>
         <v>11776</v>
       </c>
-      <c r="Z43" s="213">
+      <c r="Z43" s="211">
         <f t="shared" si="32"/>
         <v>23552</v>
       </c>
-      <c r="AA43" s="213">
+      <c r="AA43" s="211">
         <f t="shared" si="32"/>
         <v>47104</v>
       </c>
-      <c r="AB43" s="213">
+      <c r="AB43" s="211">
         <f t="shared" si="32"/>
         <v>94208</v>
       </c>
-      <c r="AC43" s="213">
+      <c r="AC43" s="211">
         <f t="shared" si="32"/>
         <v>188416</v>
       </c>
-      <c r="AD43" s="213">
+      <c r="AD43" s="211">
         <f t="shared" si="32"/>
         <v>376832</v>
       </c>
-      <c r="AE43" s="213">
+      <c r="AE43" s="211">
         <f t="shared" si="32"/>
         <v>753664</v>
       </c>
-      <c r="AF43" s="213">
+      <c r="AF43" s="211">
         <f t="shared" ref="AF43:AJ43" si="33">AF29*$B$24</f>
         <v>1507328</v>
       </c>
-      <c r="AG43" s="223">
+      <c r="AG43" s="221">
         <f t="shared" si="33"/>
         <v>3014656</v>
       </c>
-      <c r="AH43" s="188">
+      <c r="AH43" s="186">
         <f t="shared" si="33"/>
         <v>6029312</v>
       </c>
-      <c r="AI43" s="188">
+      <c r="AI43" s="186">
         <f t="shared" si="33"/>
         <v>12058624</v>
       </c>
-      <c r="AJ43" s="189">
+      <c r="AJ43" s="187">
         <f t="shared" si="33"/>
         <v>12552756</v>
       </c>
-      <c r="AK43" s="252">
+      <c r="AK43" s="250">
         <f>AK29*B24</f>
         <v>627637.80000000005</v>
       </c>
@@ -37254,109 +37271,109 @@
       <c r="I44" s="39"/>
       <c r="J44" s="39"/>
       <c r="K44" s="39"/>
-      <c r="L44" s="190">
+      <c r="L44" s="188">
         <f t="shared" ref="L44:S44" si="34">(1*$B$24)*(2^(((L28-35)-$B$25)/$L$54))</f>
         <v>6.7905527565411564E-7</v>
       </c>
-      <c r="M44" s="191">
+      <c r="M44" s="189">
         <f t="shared" si="34"/>
         <v>2.3370421175633832E-6</v>
       </c>
-      <c r="N44" s="191">
+      <c r="N44" s="189">
         <f t="shared" si="34"/>
         <v>8.0431830148200557E-6</v>
       </c>
-      <c r="O44" s="191">
+      <c r="O44" s="189">
         <f t="shared" si="34"/>
         <v>2.7681483582905671E-5</v>
       </c>
-      <c r="P44" s="191">
+      <c r="P44" s="189">
         <f t="shared" si="34"/>
         <v>9.5268817325030027E-5</v>
       </c>
-      <c r="Q44" s="191">
+      <c r="Q44" s="189">
         <f t="shared" si="34"/>
         <v>7.4740005673845319E-4</v>
       </c>
-      <c r="R44" s="191">
+      <c r="R44" s="189">
         <f t="shared" si="34"/>
         <v>2.017980153193822E-2</v>
       </c>
-      <c r="S44" s="191">
+      <c r="S44" s="189">
         <f t="shared" si="34"/>
         <v>0.54485464136233164</v>
       </c>
-      <c r="T44" s="199">
+      <c r="T44" s="197">
         <f t="shared" ref="T44:AJ44" si="35">($L$29*$B$24)*(2^(((T28-35)-$L$28)/HLOOKUP((T28-35)-$B$25,$L$52:$AK$54,3,TRUE)))</f>
         <v>21.568711610920584</v>
       </c>
-      <c r="U44" s="199">
+      <c r="U44" s="197">
         <f t="shared" si="35"/>
         <v>265.85531831747249</v>
       </c>
-      <c r="V44" s="199">
+      <c r="V44" s="197">
         <f t="shared" si="35"/>
         <v>1557.489380654901</v>
       </c>
-      <c r="W44" s="199">
+      <c r="W44" s="197">
         <f t="shared" si="35"/>
         <v>4526.3890933314906</v>
       </c>
-      <c r="X44" s="199">
+      <c r="X44" s="197">
         <f t="shared" si="35"/>
         <v>3875.9436918371221</v>
       </c>
-      <c r="Y44" s="199">
+      <c r="Y44" s="197">
         <f t="shared" si="35"/>
-        <v>7653.346445484628</v>
-      </c>
-      <c r="Z44" s="199">
+        <v>27116.487338089824</v>
+      </c>
+      <c r="Z44" s="197">
         <f t="shared" si="35"/>
-        <v>15001.225423442605</v>
-      </c>
-      <c r="AA44" s="199">
+        <v>39725.776579583762</v>
+      </c>
+      <c r="AA44" s="197">
         <f t="shared" si="35"/>
-        <v>29719.366184942392</v>
-      </c>
-      <c r="AB44" s="199">
+        <v>66962.854517574131</v>
+      </c>
+      <c r="AB44" s="197">
         <f t="shared" si="35"/>
-        <v>59033.978779608486</v>
-      </c>
-      <c r="AC44" s="199">
+        <v>120026.95563506645</v>
+      </c>
+      <c r="AC44" s="197">
         <f t="shared" si="35"/>
-        <v>117460.46029272377</v>
-      </c>
-      <c r="AD44" s="199">
+        <v>222441.88471800264</v>
+      </c>
+      <c r="AD44" s="197">
         <f t="shared" si="35"/>
-        <v>233975.50124524481</v>
-      </c>
-      <c r="AE44" s="199">
+        <v>420630.91025903338</v>
+      </c>
+      <c r="AE44" s="197">
         <f t="shared" si="35"/>
-        <v>466437.80887583119</v>
-      </c>
-      <c r="AF44" s="199">
+        <v>805878.45917391812</v>
+      </c>
+      <c r="AF44" s="197">
         <f t="shared" si="35"/>
-        <v>930398.80335705308</v>
-      </c>
-      <c r="AG44" s="224">
+        <v>1557898.9960716697</v>
+      </c>
+      <c r="AG44" s="222">
         <f t="shared" si="35"/>
-        <v>1856668.6618281412</v>
-      </c>
-      <c r="AH44" s="192">
+        <v>3031117.5900558443</v>
+      </c>
+      <c r="AH44" s="190">
         <f t="shared" si="35"/>
-        <v>3706348.5864368496</v>
-      </c>
-      <c r="AI44" s="192">
+        <v>5925641.9896873273</v>
+      </c>
+      <c r="AI44" s="190">
         <f t="shared" si="35"/>
-        <v>7400714.6147006787</v>
-      </c>
-      <c r="AJ44" s="193">
+        <v>11626345.154932713</v>
+      </c>
+      <c r="AJ44" s="191">
         <f t="shared" si="35"/>
-        <v>14780656.70068563</v>
-      </c>
-      <c r="AK44" s="255">
+        <v>22875883.360173933</v>
+      </c>
+      <c r="AK44" s="253">
         <f>($L$29*$B$24)*(2^(((AK28 - 35) - $L$28)/AK54))</f>
-        <v>6128588.9552581133</v>
+        <v>7917912.6779223662</v>
       </c>
       <c r="AL44" s="45"/>
       <c r="AM44" s="45"/>
@@ -37430,31 +37447,31 @@
       </c>
       <c r="Y45" s="142">
         <f t="shared" si="36"/>
-        <v>44084</v>
+        <v>44107</v>
       </c>
       <c r="Z45" s="142">
         <f t="shared" si="36"/>
-        <v>44121</v>
+        <v>44167</v>
       </c>
       <c r="AA45" s="142">
         <f t="shared" si="36"/>
-        <v>44158</v>
+        <v>44227</v>
       </c>
       <c r="AB45" s="142">
         <f t="shared" si="36"/>
-        <v>44195</v>
+        <v>44287</v>
       </c>
       <c r="AC45" s="142">
         <f t="shared" si="36"/>
-        <v>44232</v>
+        <v>44347</v>
       </c>
       <c r="AD45" s="142">
         <f t="shared" si="36"/>
-        <v>44269</v>
+        <v>44407</v>
       </c>
       <c r="AE45" s="142">
         <f t="shared" si="36"/>
-        <v>44306</v>
+        <v>44467</v>
       </c>
       <c r="AF45" s="142"/>
       <c r="AG45" s="142"/>
@@ -37533,31 +37550,31 @@
       </c>
       <c r="Y46" s="142">
         <f t="shared" si="37"/>
-        <v>44077</v>
+        <v>44100</v>
       </c>
       <c r="Z46" s="142">
         <f t="shared" si="37"/>
-        <v>44114</v>
+        <v>44160</v>
       </c>
       <c r="AA46" s="142">
         <f t="shared" si="37"/>
-        <v>44151</v>
+        <v>44220</v>
       </c>
       <c r="AB46" s="142">
         <f t="shared" si="37"/>
-        <v>44188</v>
+        <v>44280</v>
       </c>
       <c r="AC46" s="142">
         <f t="shared" si="37"/>
-        <v>44225</v>
+        <v>44340</v>
       </c>
       <c r="AD46" s="142">
         <f t="shared" si="37"/>
-        <v>44262</v>
+        <v>44400</v>
       </c>
       <c r="AE46" s="142">
         <f t="shared" si="37"/>
-        <v>44299</v>
+        <v>44460</v>
       </c>
       <c r="AF46" s="142"/>
       <c r="AG46" s="142"/>
@@ -37636,31 +37653,31 @@
       </c>
       <c r="Y47" s="142">
         <f t="shared" si="38"/>
-        <v>44056</v>
+        <v>44079</v>
       </c>
       <c r="Z47" s="142">
         <f t="shared" si="38"/>
-        <v>44093</v>
+        <v>44139</v>
       </c>
       <c r="AA47" s="142">
         <f t="shared" si="38"/>
-        <v>44130</v>
+        <v>44199</v>
       </c>
       <c r="AB47" s="142">
         <f t="shared" si="38"/>
-        <v>44167</v>
+        <v>44259</v>
       </c>
       <c r="AC47" s="142">
         <f t="shared" si="38"/>
-        <v>44204</v>
+        <v>44319</v>
       </c>
       <c r="AD47" s="142">
         <f t="shared" si="38"/>
-        <v>44241</v>
+        <v>44379</v>
       </c>
       <c r="AE47" s="142">
         <f t="shared" si="38"/>
-        <v>44278</v>
+        <v>44439</v>
       </c>
       <c r="AF47" s="142"/>
       <c r="AG47" s="142"/>
@@ -37739,31 +37756,31 @@
       </c>
       <c r="Y48" s="142">
         <f t="shared" si="39"/>
-        <v>44049</v>
+        <v>44072</v>
       </c>
       <c r="Z48" s="142">
         <f t="shared" si="39"/>
-        <v>44086</v>
+        <v>44132</v>
       </c>
       <c r="AA48" s="142">
         <f t="shared" si="39"/>
-        <v>44123</v>
+        <v>44192</v>
       </c>
       <c r="AB48" s="142">
         <f t="shared" si="39"/>
-        <v>44160</v>
+        <v>44252</v>
       </c>
       <c r="AC48" s="142">
         <f t="shared" si="39"/>
-        <v>44197</v>
+        <v>44312</v>
       </c>
       <c r="AD48" s="142">
         <f t="shared" si="39"/>
-        <v>44234</v>
+        <v>44372</v>
       </c>
       <c r="AE48" s="142">
         <f t="shared" si="39"/>
-        <v>44271</v>
+        <v>44432</v>
       </c>
       <c r="AF48" s="142"/>
       <c r="AG48" s="142"/>
@@ -37803,7 +37820,7 @@
       <c r="I51" s="47"/>
       <c r="J51" s="47"/>
       <c r="K51" s="47"/>
-      <c r="L51" s="233">
+      <c r="L51" s="231">
         <f t="shared" ref="L51:AK51" si="40">(L28-$B$25)/7</f>
         <v>1.1428571428571428</v>
       </c>
@@ -37819,93 +37836,93 @@
         <f t="shared" si="40"/>
         <v>2.4285714285714284</v>
       </c>
-      <c r="P51" s="264">
+      <c r="P51" s="262">
         <f t="shared" si="40"/>
         <v>2.8571428571428572</v>
       </c>
-      <c r="Q51" s="234">
+      <c r="Q51" s="232">
         <f t="shared" si="40"/>
         <v>3.5714285714285716</v>
       </c>
-      <c r="R51" s="264">
+      <c r="R51" s="262">
         <f t="shared" si="40"/>
         <v>4.7142857142857144</v>
       </c>
-      <c r="S51" s="235">
+      <c r="S51" s="233">
         <f t="shared" si="40"/>
         <v>5.8571428571428568</v>
       </c>
-      <c r="T51" s="233">
+      <c r="T51" s="231">
         <f t="shared" si="40"/>
         <v>7.5714285714285712</v>
       </c>
-      <c r="U51" s="236">
+      <c r="U51" s="234">
         <f t="shared" si="40"/>
         <v>10.428571428571429</v>
       </c>
-      <c r="V51" s="264">
+      <c r="V51" s="262">
         <f t="shared" si="40"/>
         <v>14</v>
       </c>
-      <c r="W51" s="235">
+      <c r="W51" s="233">
         <f t="shared" si="40"/>
         <v>17.857142857142858</v>
       </c>
-      <c r="X51" s="233">
+      <c r="X51" s="231">
         <f t="shared" si="40"/>
         <v>23.142857142857142</v>
       </c>
-      <c r="Y51" s="264">
+      <c r="Y51" s="262">
         <f t="shared" si="40"/>
-        <v>28.428571428571427</v>
-      </c>
-      <c r="Z51" s="234">
+        <v>31.714285714285715</v>
+      </c>
+      <c r="Z51" s="232">
         <f t="shared" si="40"/>
-        <v>33.714285714285715</v>
-      </c>
-      <c r="AA51" s="234">
+        <v>40.285714285714285</v>
+      </c>
+      <c r="AA51" s="232">
         <f t="shared" si="40"/>
-        <v>39</v>
-      </c>
-      <c r="AB51" s="233">
+        <v>48.857142857142854</v>
+      </c>
+      <c r="AB51" s="231">
         <f t="shared" si="40"/>
-        <v>44.285714285714285</v>
-      </c>
-      <c r="AC51" s="264">
+        <v>57.428571428571431</v>
+      </c>
+      <c r="AC51" s="262">
         <f t="shared" si="40"/>
-        <v>49.571428571428569</v>
-      </c>
-      <c r="AD51" s="234">
+        <v>66</v>
+      </c>
+      <c r="AD51" s="232">
         <f t="shared" si="40"/>
-        <v>54.857142857142854</v>
-      </c>
-      <c r="AE51" s="235">
+        <v>74.571428571428569</v>
+      </c>
+      <c r="AE51" s="233">
         <f t="shared" si="40"/>
-        <v>60.142857142857146</v>
-      </c>
-      <c r="AF51" s="264">
+        <v>83.142857142857139</v>
+      </c>
+      <c r="AF51" s="262">
         <f t="shared" ref="AF51:AJ51" si="41">(AF28-$B$25)/7</f>
-        <v>65.428571428571431</v>
-      </c>
-      <c r="AG51" s="234">
+        <v>91.714285714285708</v>
+      </c>
+      <c r="AG51" s="232">
         <f t="shared" si="41"/>
-        <v>70.714285714285708</v>
+        <v>100.28571428571429</v>
       </c>
       <c r="AH51" s="140">
         <f t="shared" si="41"/>
-        <v>76</v>
-      </c>
-      <c r="AI51" s="264">
+        <v>108.85714285714286</v>
+      </c>
+      <c r="AI51" s="262">
         <f t="shared" si="41"/>
-        <v>81.285714285714292</v>
-      </c>
-      <c r="AJ51" s="264">
+        <v>117.42857142857143</v>
+      </c>
+      <c r="AJ51" s="262">
         <f t="shared" si="41"/>
-        <v>86.571428571428569</v>
-      </c>
-      <c r="AK51" s="264">
+        <v>126</v>
+      </c>
+      <c r="AK51" s="262">
         <f t="shared" si="40"/>
-        <v>94.571428571428569</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:37" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -37922,113 +37939,113 @@
       <c r="I52" s="47"/>
       <c r="J52" s="47"/>
       <c r="K52" s="47"/>
-      <c r="L52" s="237">
+      <c r="L52" s="235">
         <f>L28-$B$25</f>
         <v>8</v>
       </c>
-      <c r="M52" s="263">
+      <c r="M52" s="261">
         <f t="shared" ref="M52:Q52" si="42">M28-$B$25</f>
         <v>11</v>
       </c>
-      <c r="N52" s="263">
+      <c r="N52" s="261">
         <f t="shared" si="42"/>
         <v>14</v>
       </c>
-      <c r="O52" s="263">
+      <c r="O52" s="261">
         <f t="shared" si="42"/>
         <v>17</v>
       </c>
-      <c r="P52" s="218">
+      <c r="P52" s="216">
         <f t="shared" si="42"/>
         <v>20</v>
       </c>
-      <c r="Q52" s="218">
+      <c r="Q52" s="216">
         <f t="shared" si="42"/>
         <v>25</v>
       </c>
-      <c r="R52" s="218">
+      <c r="R52" s="216">
         <f>R28-$B$25</f>
         <v>33</v>
       </c>
-      <c r="S52" s="218">
+      <c r="S52" s="216">
         <f t="shared" ref="S52:AK52" si="43">S28-$B$25</f>
         <v>41</v>
       </c>
-      <c r="T52" s="218">
+      <c r="T52" s="216">
         <f t="shared" si="43"/>
         <v>53</v>
       </c>
-      <c r="U52" s="218">
+      <c r="U52" s="216">
         <f t="shared" si="43"/>
         <v>73</v>
       </c>
-      <c r="V52" s="218">
+      <c r="V52" s="216">
         <f t="shared" si="43"/>
         <v>98</v>
       </c>
-      <c r="W52" s="218">
+      <c r="W52" s="216">
         <f t="shared" si="43"/>
         <v>125</v>
       </c>
-      <c r="X52" s="218">
+      <c r="X52" s="216">
         <f t="shared" si="43"/>
         <v>162</v>
       </c>
-      <c r="Y52" s="218">
+      <c r="Y52" s="216">
         <f t="shared" si="43"/>
-        <v>199</v>
-      </c>
-      <c r="Z52" s="218">
+        <v>222</v>
+      </c>
+      <c r="Z52" s="216">
         <f t="shared" si="43"/>
-        <v>236</v>
-      </c>
-      <c r="AA52" s="218">
+        <v>282</v>
+      </c>
+      <c r="AA52" s="216">
         <f t="shared" si="43"/>
-        <v>273</v>
-      </c>
-      <c r="AB52" s="218">
+        <v>342</v>
+      </c>
+      <c r="AB52" s="216">
         <f t="shared" si="43"/>
-        <v>310</v>
-      </c>
-      <c r="AC52" s="218">
+        <v>402</v>
+      </c>
+      <c r="AC52" s="216">
         <f t="shared" si="43"/>
-        <v>347</v>
-      </c>
-      <c r="AD52" s="218">
+        <v>462</v>
+      </c>
+      <c r="AD52" s="216">
         <f t="shared" si="43"/>
-        <v>384</v>
-      </c>
-      <c r="AE52" s="218">
+        <v>522</v>
+      </c>
+      <c r="AE52" s="216">
         <f t="shared" si="43"/>
-        <v>421</v>
-      </c>
-      <c r="AF52" s="218">
+        <v>582</v>
+      </c>
+      <c r="AF52" s="216">
         <f t="shared" ref="AF52:AJ52" si="44">AF28-$B$25</f>
-        <v>458</v>
-      </c>
-      <c r="AG52" s="232">
+        <v>642</v>
+      </c>
+      <c r="AG52" s="230">
         <f t="shared" si="44"/>
-        <v>495</v>
-      </c>
-      <c r="AH52" s="232">
+        <v>702</v>
+      </c>
+      <c r="AH52" s="230">
         <f t="shared" si="44"/>
-        <v>532</v>
-      </c>
-      <c r="AI52" s="180">
+        <v>762</v>
+      </c>
+      <c r="AI52" s="178">
         <f t="shared" si="44"/>
-        <v>569</v>
-      </c>
-      <c r="AJ52" s="231">
+        <v>822</v>
+      </c>
+      <c r="AJ52" s="229">
         <f t="shared" si="44"/>
-        <v>606</v>
-      </c>
-      <c r="AK52" s="180">
+        <v>882</v>
+      </c>
+      <c r="AK52" s="178">
         <f t="shared" si="43"/>
-        <v>662</v>
+        <v>938</v>
       </c>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A53" s="210" t="s">
+      <c r="A53" s="208" t="s">
         <v>41</v>
       </c>
       <c r="B53" s="16"/>
@@ -38041,94 +38058,94 @@
       <c r="I53" s="16"/>
       <c r="J53" s="16"/>
       <c r="K53" s="16"/>
-      <c r="L53" s="256">
+      <c r="L53" s="254">
         <v>27</v>
       </c>
-      <c r="M53" s="257">
+      <c r="M53" s="255">
         <v>69</v>
       </c>
-      <c r="N53" s="258">
+      <c r="N53" s="256">
         <v>134</v>
       </c>
-      <c r="O53" s="258">
+      <c r="O53" s="256">
         <v>309</v>
       </c>
-      <c r="P53" s="258">
+      <c r="P53" s="256">
         <v>514</v>
       </c>
-      <c r="Q53" s="258">
+      <c r="Q53" s="256">
         <v>1046</v>
       </c>
-      <c r="R53" s="258">
+      <c r="R53" s="256">
         <v>2092</v>
       </c>
-      <c r="S53" s="258">
+      <c r="S53" s="256">
         <v>4241</v>
       </c>
-      <c r="T53" s="258">
+      <c r="T53" s="256">
         <v>8211</v>
       </c>
-      <c r="U53" s="258">
+      <c r="U53" s="256">
         <v>16006</v>
       </c>
-      <c r="V53" s="258">
+      <c r="V53" s="256">
         <v>32033</v>
       </c>
-      <c r="W53" s="258">
+      <c r="W53" s="256">
         <v>63749</v>
       </c>
-      <c r="X53" s="258">
+      <c r="X53" s="256">
         <v>128776</v>
       </c>
-      <c r="Y53" s="259">
-        <f t="shared" ref="X53:AD53" si="45">Y29</f>
+      <c r="Y53" s="257">
+        <f t="shared" ref="Y53:AD53" si="45">Y29</f>
         <v>256000</v>
       </c>
-      <c r="Z53" s="259">
+      <c r="Z53" s="257">
         <f t="shared" si="45"/>
         <v>512000</v>
       </c>
-      <c r="AA53" s="259">
+      <c r="AA53" s="257">
         <f t="shared" si="45"/>
         <v>1024000</v>
       </c>
-      <c r="AB53" s="259">
+      <c r="AB53" s="257">
         <f t="shared" si="45"/>
         <v>2048000</v>
       </c>
-      <c r="AC53" s="259">
+      <c r="AC53" s="257">
         <f t="shared" si="45"/>
         <v>4096000</v>
       </c>
-      <c r="AD53" s="259">
+      <c r="AD53" s="257">
         <f t="shared" si="45"/>
         <v>8192000</v>
       </c>
-      <c r="AE53" s="259">
+      <c r="AE53" s="257">
         <f t="shared" ref="AE53" si="46">AD53*2</f>
         <v>16384000</v>
       </c>
-      <c r="AF53" s="259">
+      <c r="AF53" s="257">
         <f t="shared" ref="AF53" si="47">AE53*2</f>
         <v>32768000</v>
       </c>
-      <c r="AG53" s="176">
+      <c r="AG53" s="174">
         <f t="shared" ref="AG53" si="48">AF53*2</f>
         <v>65536000</v>
       </c>
-      <c r="AH53" s="176">
+      <c r="AH53" s="174">
         <f>AG53*2</f>
         <v>131072000</v>
       </c>
-      <c r="AI53" s="176">
+      <c r="AI53" s="174">
         <f t="shared" ref="AI53" si="49">AH53*2</f>
         <v>262144000</v>
       </c>
-      <c r="AJ53" s="176">
+      <c r="AJ53" s="174">
         <f>AJ29</f>
         <v>272886000</v>
       </c>
-      <c r="AK53" s="177">
+      <c r="AK53" s="175">
         <f>AJ29</f>
         <v>272886000</v>
       </c>
@@ -38147,7 +38164,7 @@
       <c r="I54" s="16"/>
       <c r="J54" s="16"/>
       <c r="K54" s="16"/>
-      <c r="L54" s="183">
+      <c r="L54" s="181">
         <f>(L28-B25)/(LOG(L53/1)/LOG(2))</f>
         <v>1.68247934285722</v>
       </c>
@@ -38201,55 +38218,55 @@
       </c>
       <c r="Y54" s="173">
         <f t="shared" si="50"/>
-        <v>14.457761887370946</v>
+        <v>16.198748920928704</v>
       </c>
       <c r="Z54" s="173">
         <f t="shared" si="50"/>
-        <v>16.044026178614754</v>
+        <v>19.280978828686152</v>
       </c>
       <c r="AA54" s="173">
         <f t="shared" si="50"/>
-        <v>17.421721006279142</v>
+        <v>21.95794270225371</v>
       </c>
       <c r="AB54" s="173">
         <f t="shared" si="50"/>
-        <v>18.629444382499617</v>
+        <v>24.304639359949832</v>
       </c>
       <c r="AC54" s="173">
         <f t="shared" si="50"/>
-        <v>19.696823720697786</v>
+        <v>26.378637077276682</v>
       </c>
       <c r="AD54" s="173">
         <f t="shared" si="50"/>
-        <v>20.646978811134147</v>
+        <v>28.224859332241891</v>
       </c>
       <c r="AE54" s="173">
         <f t="shared" si="50"/>
-        <v>21.498215553177531</v>
+        <v>29.878875853568772</v>
       </c>
       <c r="AF54" s="173">
         <f t="shared" ref="AF54" si="51">(AF28-$L$28)/(LOG(AF53/$L$53)/LOG(2))</f>
-        <v>22.265216870023899</v>
-      </c>
-      <c r="AG54" s="178">
+        <v>31.369216656878116</v>
+      </c>
+      <c r="AG54" s="176">
         <f t="shared" ref="AG54" si="52">(AG28-$L$28)/(LOG(AG53/$L$53)/LOG(2))</f>
-        <v>22.959896745234737</v>
-      </c>
-      <c r="AH54" s="178">
+        <v>32.719031501422812</v>
+      </c>
+      <c r="AH54" s="176">
         <f t="shared" ref="AH54" si="53">(AH28-$L$28)/(LOG(AH53/$L$53)/LOG(2))</f>
-        <v>23.592023551831236</v>
-      </c>
-      <c r="AI54" s="178">
+        <v>33.947301065039603</v>
+      </c>
+      <c r="AI54" s="176">
         <f t="shared" ref="AI54" si="54">(AI28-$L$28)/(LOG(AI53/$L$53)/LOG(2))</f>
-        <v>24.169682251269275</v>
-      </c>
-      <c r="AJ54" s="178">
+        <v>35.069735031253458</v>
+      </c>
+      <c r="AJ54" s="176">
         <f t="shared" ref="AJ54:AK54" si="55">(AJ28-$L$28)/(LOG(AJ53/$L$53)/LOG(2))</f>
-        <v>25.699609954649098</v>
-      </c>
-      <c r="AK54" s="179">
+        <v>37.560968395256374</v>
+      </c>
+      <c r="AK54" s="177">
         <f t="shared" si="55"/>
-        <v>28.106262391873763</v>
+        <v>39.967620832481039</v>
       </c>
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.25">
@@ -38266,58 +38283,58 @@
       <c r="I55" s="16"/>
       <c r="J55" s="16"/>
       <c r="K55" s="16"/>
-      <c r="L55" s="269">
+      <c r="L55" s="267">
         <v>25</v>
       </c>
-      <c r="M55" s="270">
+      <c r="M55" s="268">
         <v>60</v>
       </c>
-      <c r="N55" s="270">
+      <c r="N55" s="268">
         <v>121</v>
       </c>
-      <c r="O55" s="270">
+      <c r="O55" s="268">
         <v>269</v>
       </c>
-      <c r="P55" s="270">
+      <c r="P55" s="268">
         <v>437</v>
       </c>
-      <c r="Q55" s="270">
+      <c r="Q55" s="268">
         <v>913</v>
       </c>
-      <c r="R55" s="270">
+      <c r="R55" s="268">
         <v>1751</v>
       </c>
-      <c r="S55" s="270">
+      <c r="S55" s="268">
         <v>3509</v>
       </c>
-      <c r="T55" s="270">
+      <c r="T55" s="268">
         <v>6520</v>
       </c>
-      <c r="U55" s="270">
+      <c r="U55" s="268">
         <v>11445</v>
       </c>
-      <c r="V55" s="270">
+      <c r="V55" s="268">
         <v>19246</v>
       </c>
-      <c r="W55" s="270">
+      <c r="W55" s="268">
         <v>31473</v>
       </c>
-      <c r="X55" s="270">
+      <c r="X55" s="268">
         <v>39242</v>
       </c>
-      <c r="Y55" s="271"/>
-      <c r="Z55" s="271"/>
-      <c r="AA55" s="271"/>
-      <c r="AB55" s="271"/>
-      <c r="AC55" s="271"/>
-      <c r="AD55" s="271"/>
-      <c r="AE55" s="271"/>
-      <c r="AF55" s="271"/>
-      <c r="AG55" s="176"/>
-      <c r="AH55" s="176"/>
-      <c r="AI55" s="176"/>
-      <c r="AJ55" s="176"/>
-      <c r="AK55" s="177"/>
+      <c r="Y55" s="269"/>
+      <c r="Z55" s="269"/>
+      <c r="AA55" s="269"/>
+      <c r="AB55" s="269"/>
+      <c r="AC55" s="269"/>
+      <c r="AD55" s="269"/>
+      <c r="AE55" s="269"/>
+      <c r="AF55" s="269"/>
+      <c r="AG55" s="174"/>
+      <c r="AH55" s="174"/>
+      <c r="AI55" s="174"/>
+      <c r="AJ55" s="174"/>
+      <c r="AK55" s="175"/>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="s">
@@ -38333,7 +38350,7 @@
       <c r="I56" s="16"/>
       <c r="J56" s="16"/>
       <c r="K56" s="16"/>
-      <c r="L56" s="217">
+      <c r="L56" s="215">
         <f>L53-L57-L55</f>
         <v>2</v>
       </c>
@@ -38385,14 +38402,16 @@
         <f t="shared" ref="X56" si="59">X53-X57-X55</f>
         <v>83710</v>
       </c>
-      <c r="Y56" s="174"/>
-      <c r="Z56" s="174"/>
-      <c r="AA56" s="174"/>
-      <c r="AB56" s="174"/>
-      <c r="AC56" s="174"/>
-      <c r="AD56" s="174"/>
-      <c r="AE56" s="174"/>
-      <c r="AF56" s="174"/>
+      <c r="Y56" s="288">
+        <v>122802</v>
+      </c>
+      <c r="Z56" s="288"/>
+      <c r="AA56" s="288"/>
+      <c r="AB56" s="288"/>
+      <c r="AC56" s="288"/>
+      <c r="AD56" s="288"/>
+      <c r="AE56" s="288"/>
+      <c r="AF56" s="288"/>
       <c r="AG56" s="103"/>
       <c r="AH56" s="103"/>
       <c r="AI56" s="103"/>
@@ -38452,14 +38471,16 @@
       <c r="X57" s="52">
         <v>5824</v>
       </c>
-      <c r="Y57" s="175"/>
-      <c r="Z57" s="175"/>
-      <c r="AA57" s="175"/>
-      <c r="AB57" s="175"/>
-      <c r="AC57" s="175"/>
-      <c r="AD57" s="175"/>
-      <c r="AE57" s="175"/>
-      <c r="AF57" s="175"/>
+      <c r="Y57" s="289">
+        <v>7261</v>
+      </c>
+      <c r="Z57" s="289"/>
+      <c r="AA57" s="289"/>
+      <c r="AB57" s="289"/>
+      <c r="AC57" s="289"/>
+      <c r="AD57" s="289"/>
+      <c r="AE57" s="289"/>
+      <c r="AF57" s="289"/>
       <c r="AG57" s="103"/>
       <c r="AH57" s="103"/>
       <c r="AI57" s="103"/>
@@ -38497,13 +38518,13 @@
       <c r="A60" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="182" t="s">
+      <c r="B60" s="180" t="s">
         <v>116</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="182" t="s">
+      <c r="D60" s="180" t="s">
         <v>49</v>
       </c>
       <c r="E60" s="58" t="s">
@@ -42004,7 +42025,7 @@
       <c r="A92" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B92" s="262">
+      <c r="B92" s="260">
         <v>4.2999999999999999E-4</v>
       </c>
       <c r="C92" s="10">
@@ -42688,7 +42709,7 @@
       <c r="E102" s="2"/>
     </row>
     <row r="104" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="E104" s="240"/>
+      <c r="E104" s="238"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AH40:AK40 L40:AC40">
@@ -42865,7 +42886,7 @@
   <dimension ref="B3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42911,7 +42932,7 @@
         <v>117</v>
       </c>
       <c r="C6" s="153">
-        <v>139549</v>
+        <v>169195</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -42920,7 +42941,7 @@
       </c>
       <c r="C7" s="151">
         <f ca="1">NOW()</f>
-        <v>44059.875672337963</v>
+        <v>44073.626594791669</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -42929,7 +42950,7 @@
       </c>
       <c r="C8" s="152">
         <f ca="1">C7-C5</f>
-        <v>159.8756723379629</v>
+        <v>173.62659479166905</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -42938,7 +42959,7 @@
       </c>
       <c r="C9" s="154">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>13.18602703976766</v>
+        <v>13.999273620335199</v>
       </c>
       <c r="D9" t="s">
         <v>96</v>
@@ -42971,7 +42992,7 @@
       </c>
       <c r="C12" s="159">
         <f>C6/Projections!B17</f>
-        <v>641925.39999999991</v>
+        <v>778296.99999999988</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -42980,7 +43001,7 @@
       </c>
       <c r="C13" s="160">
         <f ca="1">(C4/Projections!B17)*(2^(((C7-21)-C5)/C9))</f>
-        <v>212846.10696988227</v>
+        <v>275154.69880796521</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -42989,7 +43010,7 @@
       </c>
       <c r="C14" s="143">
         <f ca="1">C12-C13</f>
-        <v>429079.29303011764</v>
+        <v>503142.30119203468</v>
       </c>
       <c r="E14" s="156"/>
       <c r="F14" s="157" t="s">
@@ -43003,7 +43024,7 @@
       </c>
       <c r="C15" s="64">
         <f>C6*Projections!B21</f>
-        <v>113034.69</v>
+        <v>137047.95000000001</v>
       </c>
       <c r="I15" s="150"/>
     </row>
@@ -43013,7 +43034,7 @@
       </c>
       <c r="C16" s="79">
         <f ca="1">(C4*Projections!B21)*(2^(((C7-21)-C5)/C9))</f>
-        <v>37479.423183827101</v>
+        <v>48451.153485750408</v>
       </c>
       <c r="I16" s="150"/>
     </row>
@@ -43023,7 +43044,7 @@
       </c>
       <c r="C17" s="79">
         <f ca="1">C15-C16</f>
-        <v>75555.266816172894</v>
+        <v>88596.79651424961</v>
       </c>
       <c r="F17" t="s">
         <v>141</v>
@@ -43036,7 +43057,7 @@
       </c>
       <c r="C18" s="64">
         <f>C6*Projections!B22</f>
-        <v>19536.86</v>
+        <v>23687.300000000003</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -43045,7 +43066,7 @@
       </c>
       <c r="C19" s="79">
         <f ca="1">(C4*Projections!B22)*(2^(((C7-49)-C5)/C9))</f>
-        <v>1486.6570096526523</v>
+        <v>2093.4177743006235</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -43054,7 +43075,7 @@
       </c>
       <c r="C20" s="79">
         <f ca="1">C18-C19</f>
-        <v>18050.202990347349</v>
+        <v>21593.882225699381</v>
       </c>
       <c r="F20" t="s">
         <v>146</v>
@@ -43066,7 +43087,7 @@
       </c>
       <c r="C21" s="64">
         <f>C6*Projections!B23</f>
-        <v>6977.4500000000007</v>
+        <v>8459.75</v>
       </c>
       <c r="I21" s="150"/>
     </row>
@@ -43076,7 +43097,7 @@
       </c>
       <c r="C22" s="79">
         <f ca="1">(C4*Projections!B23)*(2^(((C7-49)-C5)/C9))</f>
-        <v>530.94893201880438</v>
+        <v>747.64920510736556</v>
       </c>
       <c r="I22" s="150"/>
     </row>
@@ -43086,7 +43107,7 @@
       </c>
       <c r="C23" s="79">
         <f ca="1">C21-C22</f>
-        <v>6446.5010679811967</v>
+        <v>7712.1007948926344</v>
       </c>
       <c r="I23" s="150"/>
     </row>
@@ -43096,7 +43117,7 @@
       </c>
       <c r="C24" s="64">
         <f>C6*Projections!B24</f>
-        <v>6419.2539999999999</v>
+        <v>7782.97</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -43105,7 +43126,7 @@
       </c>
       <c r="C25" s="61">
         <f ca="1">(C4*Projections!B24)*(2^(((C7-42)-C5)/C9))</f>
-        <v>705.74345947729421</v>
+        <v>972.76628685581545</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -43117,7 +43138,7 @@
       </c>
       <c r="C26" s="163">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>60.029244315344499</v>
+        <v>59.840930293953726</v>
       </c>
       <c r="D26" t="s">
         <v>96</v>
@@ -43132,7 +43153,7 @@
       </c>
       <c r="C27" s="162">
         <f ca="1">C7+C26</f>
-        <v>44119.904916653308</v>
+        <v>44133.467525085623</v>
       </c>
       <c r="F27" t="s">
         <v>154</v>
@@ -43144,7 +43165,7 @@
       </c>
       <c r="C28" s="161">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>1.0358666919334534</v>
+        <v>-2.7908565700631156</v>
       </c>
       <c r="D28" t="s">
         <v>96</v>
@@ -43156,7 +43177,7 @@
       </c>
       <c r="C29" s="162">
         <f ca="1">C7+C28</f>
-        <v>44060.911539029898</v>
+        <v>44070.835738221605</v>
       </c>
       <c r="F29" t="s">
         <v>154</v>
@@ -43168,7 +43189,7 @@
       </c>
       <c r="C30" s="161">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>105.41848101722302</v>
+        <v>108.02954253412355</v>
       </c>
       <c r="D30" t="s">
         <v>96</v>
@@ -43180,7 +43201,7 @@
       </c>
       <c r="C31" s="162">
         <f ca="1">C7+C30</f>
-        <v>44165.294153355186</v>
+        <v>44181.656137325794</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -43189,7 +43210,7 @@
       </c>
       <c r="C34" s="151">
         <f ca="1">C7+30</f>
-        <v>44089.875672337963</v>
+        <v>44103.626594791669</v>
       </c>
       <c r="F34" t="s">
         <v>167</v>
@@ -43201,7 +43222,7 @@
       </c>
       <c r="C35" s="79">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>675477.36257717514</v>
+        <v>747283.29084052239</v>
       </c>
       <c r="F35" t="s">
         <v>139</v>
@@ -43213,7 +43234,7 @@
       </c>
       <c r="C36" s="79">
         <f ca="1">C35/Projections!B17</f>
-        <v>3107195.8678550054</v>
+        <v>3437503.1378664025</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -43222,7 +43243,7 @@
       </c>
       <c r="C37" s="79">
         <f ca="1">C35*Projections!B21</f>
-        <v>547136.66368751193</v>
+        <v>605299.46558082313</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -43231,7 +43252,7 @@
       </c>
       <c r="C38" s="79">
         <f ca="1">C35*Projections!B22</f>
-        <v>94566.830760804529</v>
+        <v>104619.66071767315</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -43240,7 +43261,7 @@
       </c>
       <c r="C39" s="79">
         <f ca="1">C35*Projections!B23</f>
-        <v>33773.868128858761</v>
+        <v>37364.164542026119</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -43249,7 +43270,7 @@
       </c>
       <c r="C40" s="61">
         <f ca="1">C35*Projections!B24</f>
-        <v>31071.958678550054</v>
+        <v>34375.031378664033</v>
       </c>
     </row>
   </sheetData>
@@ -43277,7 +43298,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="226" t="s">
+      <c r="A2" s="224" t="s">
         <v>176</v>
       </c>
       <c r="B2" t="s">
@@ -43291,23 +43312,23 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="228" t="s">
+      <c r="A3" s="226" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="241">
+      <c r="B3" s="239">
         <v>4.2799999999999998E-2</v>
       </c>
-      <c r="C3" s="241">
+      <c r="C3" s="239">
         <v>4.4699999999999997E-2</v>
       </c>
-      <c r="D3" s="241">
+      <c r="D3" s="239">
         <f>SUM(B3:C3)</f>
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="227" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="44">
@@ -43320,29 +43341,29 @@
         <f t="shared" ref="D4:D20" si="0">SUM(B4:C4)</f>
         <v>8.9900000000000008E-2</v>
       </c>
-      <c r="E4" s="242">
+      <c r="E4" s="240">
         <f>SUM(D3:D4)</f>
         <v>0.1774</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="228" t="s">
+      <c r="A5" s="226" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="241">
+      <c r="B5" s="239">
         <v>4.24E-2</v>
       </c>
-      <c r="C5" s="241">
+      <c r="C5" s="239">
         <v>4.4200000000000003E-2</v>
       </c>
-      <c r="D5" s="241">
+      <c r="D5" s="239">
         <f t="shared" si="0"/>
         <v>8.660000000000001E-2</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="229" t="s">
+      <c r="A6" s="227" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="44">
@@ -43355,29 +43376,29 @@
         <f t="shared" si="0"/>
         <v>8.6300000000000002E-2</v>
       </c>
-      <c r="E6" s="242">
+      <c r="E6" s="240">
         <f>SUM(D5:D6)</f>
         <v>0.1729</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="228" t="s">
+      <c r="A7" s="226" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="241">
+      <c r="B7" s="239">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="C7" s="241">
+      <c r="C7" s="239">
         <v>4.19E-2</v>
       </c>
-      <c r="D7" s="241">
+      <c r="D7" s="239">
         <f t="shared" si="0"/>
         <v>8.1600000000000006E-2</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="229" t="s">
+      <c r="A8" s="227" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="44">
@@ -43390,29 +43411,29 @@
         <f t="shared" si="0"/>
         <v>7.9199999999999993E-2</v>
       </c>
-      <c r="E8" s="242">
+      <c r="E8" s="240">
         <f>SUM(D7:D8)</f>
         <v>0.1608</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="228" t="s">
+      <c r="A9" s="226" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="241">
+      <c r="B9" s="239">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="C9" s="241">
+      <c r="C9" s="239">
         <v>3.8899999999999997E-2</v>
       </c>
-      <c r="D9" s="241">
+      <c r="D9" s="239">
         <f t="shared" si="0"/>
         <v>7.6899999999999996E-2</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="229" t="s">
+      <c r="A10" s="227" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="44">
@@ -43425,29 +43446,29 @@
         <f t="shared" si="0"/>
         <v>7.6200000000000004E-2</v>
       </c>
-      <c r="E10" s="242">
+      <c r="E10" s="240">
         <f>SUM(D9:D10)</f>
         <v>0.15310000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="228" t="s">
+      <c r="A11" s="226" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="241">
+      <c r="B11" s="239">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="C11" s="241">
+      <c r="C11" s="239">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="D11" s="241">
+      <c r="D11" s="239">
         <f t="shared" si="0"/>
         <v>7.0599999999999996E-2</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="229" t="s">
+      <c r="A12" s="227" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="44">
@@ -43460,29 +43481,29 @@
         <f t="shared" si="0"/>
         <v>6.5299999999999997E-2</v>
       </c>
-      <c r="E12" s="242">
+      <c r="E12" s="240">
         <f>SUM(D11:D12)</f>
         <v>0.13589999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="228" t="s">
+      <c r="A13" s="226" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="241">
+      <c r="B13" s="239">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="C13" s="241">
+      <c r="C13" s="239">
         <v>2.87E-2</v>
       </c>
-      <c r="D13" s="241">
+      <c r="D13" s="239">
         <f t="shared" si="0"/>
         <v>5.7499999999999996E-2</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="229" t="s">
+      <c r="A14" s="227" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="44">
@@ -43495,29 +43516,29 @@
         <f t="shared" si="0"/>
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="E14" s="242">
+      <c r="E14" s="240">
         <f>SUM(D13:D14)</f>
         <v>0.105</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="228" t="s">
+      <c r="A15" s="226" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="241">
+      <c r="B15" s="239">
         <v>1.9E-2</v>
       </c>
-      <c r="C15" s="241">
+      <c r="C15" s="239">
         <v>1.83E-2</v>
       </c>
-      <c r="D15" s="241">
+      <c r="D15" s="239">
         <f t="shared" si="0"/>
         <v>3.73E-2</v>
       </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="229" t="s">
+      <c r="A16" s="227" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="44">
@@ -43530,29 +43551,29 @@
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E16" s="242">
+      <c r="E16" s="240">
         <f>SUM(D15:D16)</f>
         <v>6.2300000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="228" t="s">
+      <c r="A17" s="226" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="241">
+      <c r="B17" s="239">
         <v>8.6E-3</v>
       </c>
-      <c r="C17" s="241">
+      <c r="C17" s="239">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="D17" s="241">
+      <c r="D17" s="239">
         <f t="shared" si="0"/>
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="229" t="s">
+      <c r="A18" s="227" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="44">
@@ -43565,32 +43586,32 @@
         <f t="shared" si="0"/>
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="E18" s="242">
+      <c r="E18" s="240">
         <f>SUM(D17:D18)</f>
         <v>2.5399999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="243" t="s">
+      <c r="A19" s="241" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="244">
+      <c r="B19" s="242">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="C19" s="244">
+      <c r="C19" s="242">
         <v>2.8E-3</v>
       </c>
-      <c r="D19" s="244">
+      <c r="D19" s="242">
         <f t="shared" si="0"/>
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="E19" s="245">
+      <c r="E19" s="243">
         <f>D19</f>
         <v>7.4000000000000003E-3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="227" t="s">
+      <c r="A20" s="225" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="1">
@@ -43611,49 +43632,49 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="215"/>
+      <c r="A21" s="213"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="216"/>
+      <c r="A22" s="214"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="215"/>
+      <c r="A23" s="213"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="216"/>
+      <c r="A24" s="214"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="215"/>
+      <c r="A25" s="213"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="216"/>
+      <c r="A26" s="214"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="215"/>
+      <c r="A27" s="213"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="216"/>
+      <c r="A28" s="214"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="215"/>
+      <c r="A29" s="213"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="216"/>
+      <c r="A30" s="214"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="215"/>
+      <c r="A31" s="213"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="216"/>
+      <c r="A32" s="214"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="215"/>
+      <c r="A33" s="213"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="216"/>
+      <c r="A34" s="214"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="215"/>
+      <c r="A35" s="213"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
@@ -43686,7 +43707,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="238" t="s">
+      <c r="A2" s="236" t="s">
         <v>178</v>
       </c>
     </row>

--- a/Indonesian COVID-19 Infection Projections.xlsx
+++ b/Indonesian COVID-19 Infection Projections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A252F95-D84B-4F22-92B5-E514704665E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A668E9-6A68-43E0-B8C6-5E294D4E9A11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
@@ -1835,46 +1835,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.701382407409</c:v>
+                  <c:v>44110.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.701382407409</c:v>
+                  <c:v>44113.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.701382407409</c:v>
+                  <c:v>44116.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.701382407409</c:v>
+                  <c:v>44119.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.701382407409</c:v>
+                  <c:v>44122.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.701382407409</c:v>
+                  <c:v>44125.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.701382407409</c:v>
+                  <c:v>44128.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.701382407409</c:v>
+                  <c:v>44131.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.701382407409</c:v>
+                  <c:v>44134.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.701382407409</c:v>
+                  <c:v>44137.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.701382407409</c:v>
+                  <c:v>44140.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.701382407409</c:v>
+                  <c:v>44143.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.701382407409</c:v>
+                  <c:v>44146.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.701382407409</c:v>
+                  <c:v>44149.831563888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1984,46 +1984,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.701382407409</c:v>
+                  <c:v>44110.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.701382407409</c:v>
+                  <c:v>44113.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.701382407409</c:v>
+                  <c:v>44116.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.701382407409</c:v>
+                  <c:v>44119.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.701382407409</c:v>
+                  <c:v>44122.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.701382407409</c:v>
+                  <c:v>44125.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.701382407409</c:v>
+                  <c:v>44128.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.701382407409</c:v>
+                  <c:v>44131.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.701382407409</c:v>
+                  <c:v>44134.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.701382407409</c:v>
+                  <c:v>44137.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.701382407409</c:v>
+                  <c:v>44140.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.701382407409</c:v>
+                  <c:v>44143.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.701382407409</c:v>
+                  <c:v>44146.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.701382407409</c:v>
+                  <c:v>44149.831563888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2133,46 +2133,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.701382407409</c:v>
+                  <c:v>44110.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.701382407409</c:v>
+                  <c:v>44113.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.701382407409</c:v>
+                  <c:v>44116.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.701382407409</c:v>
+                  <c:v>44119.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.701382407409</c:v>
+                  <c:v>44122.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.701382407409</c:v>
+                  <c:v>44125.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.701382407409</c:v>
+                  <c:v>44128.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.701382407409</c:v>
+                  <c:v>44131.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.701382407409</c:v>
+                  <c:v>44134.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.701382407409</c:v>
+                  <c:v>44137.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.701382407409</c:v>
+                  <c:v>44140.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.701382407409</c:v>
+                  <c:v>44143.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.701382407409</c:v>
+                  <c:v>44146.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.701382407409</c:v>
+                  <c:v>44149.831563888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12396,46 +12396,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.701382407409</c:v>
+                  <c:v>44110.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.701382407409</c:v>
+                  <c:v>44113.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.701382407409</c:v>
+                  <c:v>44116.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.701382407409</c:v>
+                  <c:v>44119.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.701382407409</c:v>
+                  <c:v>44122.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.701382407409</c:v>
+                  <c:v>44125.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.701382407409</c:v>
+                  <c:v>44128.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.701382407409</c:v>
+                  <c:v>44131.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.701382407409</c:v>
+                  <c:v>44134.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.701382407409</c:v>
+                  <c:v>44137.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.701382407409</c:v>
+                  <c:v>44140.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.701382407409</c:v>
+                  <c:v>44143.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.701382407409</c:v>
+                  <c:v>44146.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.701382407409</c:v>
+                  <c:v>44149.831563888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12536,46 +12536,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.701382407409</c:v>
+                  <c:v>44110.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.701382407409</c:v>
+                  <c:v>44113.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.701382407409</c:v>
+                  <c:v>44116.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.701382407409</c:v>
+                  <c:v>44119.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.701382407409</c:v>
+                  <c:v>44122.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.701382407409</c:v>
+                  <c:v>44125.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.701382407409</c:v>
+                  <c:v>44128.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.701382407409</c:v>
+                  <c:v>44131.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.701382407409</c:v>
+                  <c:v>44134.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.701382407409</c:v>
+                  <c:v>44137.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.701382407409</c:v>
+                  <c:v>44140.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.701382407409</c:v>
+                  <c:v>44143.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.701382407409</c:v>
+                  <c:v>44146.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.701382407409</c:v>
+                  <c:v>44149.831563888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12679,46 +12679,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.701382407409</c:v>
+                  <c:v>44110.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.701382407409</c:v>
+                  <c:v>44113.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.701382407409</c:v>
+                  <c:v>44116.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.701382407409</c:v>
+                  <c:v>44119.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.701382407409</c:v>
+                  <c:v>44122.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.701382407409</c:v>
+                  <c:v>44125.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.701382407409</c:v>
+                  <c:v>44128.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.701382407409</c:v>
+                  <c:v>44131.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.701382407409</c:v>
+                  <c:v>44134.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.701382407409</c:v>
+                  <c:v>44137.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.701382407409</c:v>
+                  <c:v>44140.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.701382407409</c:v>
+                  <c:v>44143.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.701382407409</c:v>
+                  <c:v>44146.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.701382407409</c:v>
+                  <c:v>44149.831563888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12816,46 +12816,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.701382407409</c:v>
+                  <c:v>44110.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.701382407409</c:v>
+                  <c:v>44113.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.701382407409</c:v>
+                  <c:v>44116.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.701382407409</c:v>
+                  <c:v>44119.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.701382407409</c:v>
+                  <c:v>44122.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.701382407409</c:v>
+                  <c:v>44125.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.701382407409</c:v>
+                  <c:v>44128.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.701382407409</c:v>
+                  <c:v>44131.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.701382407409</c:v>
+                  <c:v>44134.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.701382407409</c:v>
+                  <c:v>44137.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.701382407409</c:v>
+                  <c:v>44140.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.701382407409</c:v>
+                  <c:v>44143.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.701382407409</c:v>
+                  <c:v>44146.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.701382407409</c:v>
+                  <c:v>44149.831563888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13223,46 +13223,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.701382407409</c:v>
+                  <c:v>44110.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.701382407409</c:v>
+                  <c:v>44113.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.701382407409</c:v>
+                  <c:v>44116.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.701382407409</c:v>
+                  <c:v>44119.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.701382407409</c:v>
+                  <c:v>44122.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.701382407409</c:v>
+                  <c:v>44125.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.701382407409</c:v>
+                  <c:v>44128.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.701382407409</c:v>
+                  <c:v>44131.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.701382407409</c:v>
+                  <c:v>44134.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.701382407409</c:v>
+                  <c:v>44137.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.701382407409</c:v>
+                  <c:v>44140.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.701382407409</c:v>
+                  <c:v>44143.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.701382407409</c:v>
+                  <c:v>44146.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.701382407409</c:v>
+                  <c:v>44149.831563888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13372,46 +13372,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.701382407409</c:v>
+                  <c:v>44110.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.701382407409</c:v>
+                  <c:v>44113.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.701382407409</c:v>
+                  <c:v>44116.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.701382407409</c:v>
+                  <c:v>44119.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.701382407409</c:v>
+                  <c:v>44122.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.701382407409</c:v>
+                  <c:v>44125.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.701382407409</c:v>
+                  <c:v>44128.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.701382407409</c:v>
+                  <c:v>44131.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.701382407409</c:v>
+                  <c:v>44134.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.701382407409</c:v>
+                  <c:v>44137.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.701382407409</c:v>
+                  <c:v>44140.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.701382407409</c:v>
+                  <c:v>44143.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.701382407409</c:v>
+                  <c:v>44146.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.701382407409</c:v>
+                  <c:v>44149.831563888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13521,46 +13521,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.701382407409</c:v>
+                  <c:v>44110.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.701382407409</c:v>
+                  <c:v>44113.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.701382407409</c:v>
+                  <c:v>44116.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.701382407409</c:v>
+                  <c:v>44119.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.701382407409</c:v>
+                  <c:v>44122.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.701382407409</c:v>
+                  <c:v>44125.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.701382407409</c:v>
+                  <c:v>44128.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.701382407409</c:v>
+                  <c:v>44131.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.701382407409</c:v>
+                  <c:v>44134.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.701382407409</c:v>
+                  <c:v>44137.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.701382407409</c:v>
+                  <c:v>44140.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.701382407409</c:v>
+                  <c:v>44143.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.701382407409</c:v>
+                  <c:v>44146.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.701382407409</c:v>
+                  <c:v>44149.831563888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13938,46 +13938,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.701382407409</c:v>
+                  <c:v>44110.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.701382407409</c:v>
+                  <c:v>44113.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.701382407409</c:v>
+                  <c:v>44116.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.701382407409</c:v>
+                  <c:v>44119.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.701382407409</c:v>
+                  <c:v>44122.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.701382407409</c:v>
+                  <c:v>44125.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.701382407409</c:v>
+                  <c:v>44128.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.701382407409</c:v>
+                  <c:v>44131.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.701382407409</c:v>
+                  <c:v>44134.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.701382407409</c:v>
+                  <c:v>44137.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.701382407409</c:v>
+                  <c:v>44140.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.701382407409</c:v>
+                  <c:v>44143.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.701382407409</c:v>
+                  <c:v>44146.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.701382407409</c:v>
+                  <c:v>44149.831563888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14078,46 +14078,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.701382407409</c:v>
+                  <c:v>44110.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.701382407409</c:v>
+                  <c:v>44113.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.701382407409</c:v>
+                  <c:v>44116.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.701382407409</c:v>
+                  <c:v>44119.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.701382407409</c:v>
+                  <c:v>44122.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.701382407409</c:v>
+                  <c:v>44125.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.701382407409</c:v>
+                  <c:v>44128.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.701382407409</c:v>
+                  <c:v>44131.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.701382407409</c:v>
+                  <c:v>44134.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.701382407409</c:v>
+                  <c:v>44137.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.701382407409</c:v>
+                  <c:v>44140.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.701382407409</c:v>
+                  <c:v>44143.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.701382407409</c:v>
+                  <c:v>44146.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.701382407409</c:v>
+                  <c:v>44149.831563888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14221,46 +14221,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.701382407409</c:v>
+                  <c:v>44110.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.701382407409</c:v>
+                  <c:v>44113.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.701382407409</c:v>
+                  <c:v>44116.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.701382407409</c:v>
+                  <c:v>44119.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.701382407409</c:v>
+                  <c:v>44122.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.701382407409</c:v>
+                  <c:v>44125.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.701382407409</c:v>
+                  <c:v>44128.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.701382407409</c:v>
+                  <c:v>44131.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.701382407409</c:v>
+                  <c:v>44134.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.701382407409</c:v>
+                  <c:v>44137.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.701382407409</c:v>
+                  <c:v>44140.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.701382407409</c:v>
+                  <c:v>44143.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.701382407409</c:v>
+                  <c:v>44146.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.701382407409</c:v>
+                  <c:v>44149.831563888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14358,46 +14358,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44096.701382407409</c:v>
+                  <c:v>44110.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44099.701382407409</c:v>
+                  <c:v>44113.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44102.701382407409</c:v>
+                  <c:v>44116.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44105.701382407409</c:v>
+                  <c:v>44119.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44108.701382407409</c:v>
+                  <c:v>44122.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111.701382407409</c:v>
+                  <c:v>44125.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44114.701382407409</c:v>
+                  <c:v>44128.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117.701382407409</c:v>
+                  <c:v>44131.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44120.701382407409</c:v>
+                  <c:v>44134.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44123.701382407409</c:v>
+                  <c:v>44137.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44126.701382407409</c:v>
+                  <c:v>44140.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44129.701382407409</c:v>
+                  <c:v>44143.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44132.701382407409</c:v>
+                  <c:v>44146.831563888889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44135.701382407409</c:v>
+                  <c:v>44149.831563888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -33937,167 +33937,167 @@
       </c>
       <c r="B26" s="85">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>44096.701382407409</v>
+        <v>44110.831563888889</v>
       </c>
       <c r="C26" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>44097.701382407409</v>
+        <v>44111.831563888889</v>
       </c>
       <c r="D26" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>44098.701382407409</v>
+        <v>44112.831563888889</v>
       </c>
       <c r="E26" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>44099.701382407409</v>
+        <v>44113.831563888889</v>
       </c>
       <c r="F26" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>44100.701382407409</v>
+        <v>44114.831563888889</v>
       </c>
       <c r="G26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>44101.701382407409</v>
+        <v>44115.831563888889</v>
       </c>
       <c r="H26" s="86">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>44102.701382407409</v>
+        <v>44116.831563888889</v>
       </c>
       <c r="I26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>44103.701382407409</v>
+        <v>44117.831563888889</v>
       </c>
       <c r="J26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>44104.701382407409</v>
+        <v>44118.831563888889</v>
       </c>
       <c r="K26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>44105.701382407409</v>
+        <v>44119.831563888889</v>
       </c>
       <c r="L26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>44106.701382407409</v>
+        <v>44120.831563888889</v>
       </c>
       <c r="M26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>44107.701382407409</v>
+        <v>44121.831563888889</v>
       </c>
       <c r="N26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>44108.701382407409</v>
+        <v>44122.831563888889</v>
       </c>
       <c r="O26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>44109.701382407409</v>
+        <v>44123.831563888889</v>
       </c>
       <c r="P26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>44110.701382407409</v>
+        <v>44124.831563888889</v>
       </c>
       <c r="Q26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>44111.701382407409</v>
+        <v>44125.831563888889</v>
       </c>
       <c r="R26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>44112.701382407409</v>
+        <v>44126.831563888889</v>
       </c>
       <c r="S26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>44113.701382407409</v>
+        <v>44127.831563888889</v>
       </c>
       <c r="T26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>44114.701382407409</v>
+        <v>44128.831563888889</v>
       </c>
       <c r="U26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>44115.701382407409</v>
+        <v>44129.831563888889</v>
       </c>
       <c r="V26" s="85">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>44116.701382407409</v>
+        <v>44130.831563888889</v>
       </c>
       <c r="W26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44117.701382407409</v>
+        <v>44131.831563888889</v>
       </c>
       <c r="X26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44118.701382407409</v>
+        <v>44132.831563888889</v>
       </c>
       <c r="Y26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44119.701382407409</v>
+        <v>44133.831563888889</v>
       </c>
       <c r="Z26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44120.701382407409</v>
+        <v>44134.831563888889</v>
       </c>
       <c r="AA26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44121.701382407409</v>
+        <v>44135.831563888889</v>
       </c>
       <c r="AB26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>44122.701382407409</v>
+        <v>44136.831563888889</v>
       </c>
       <c r="AC26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>44123.701382407409</v>
+        <v>44137.831563888889</v>
       </c>
       <c r="AD26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44124.701382407409</v>
+        <v>44138.831563888889</v>
       </c>
       <c r="AE26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44125.701382407409</v>
+        <v>44139.831563888889</v>
       </c>
       <c r="AF26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44126.701382407409</v>
+        <v>44140.831563888889</v>
       </c>
       <c r="AG26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44127.701382407409</v>
+        <v>44141.831563888889</v>
       </c>
       <c r="AH26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44128.701382407409</v>
+        <v>44142.831563888889</v>
       </c>
       <c r="AI26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>44129.701382407409</v>
+        <v>44143.831563888889</v>
       </c>
       <c r="AJ26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>44130.701382407409</v>
+        <v>44144.831563888889</v>
       </c>
       <c r="AK26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44131.701382407409</v>
+        <v>44145.831563888889</v>
       </c>
       <c r="AL26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44132.701382407409</v>
+        <v>44146.831563888889</v>
       </c>
       <c r="AM26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44133.701382407409</v>
+        <v>44147.831563888889</v>
       </c>
       <c r="AN26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44134.701382407409</v>
+        <v>44148.831563888889</v>
       </c>
       <c r="AO26" s="86">
         <f ca="1">AP26-1</f>
-        <v>44135.701382407409</v>
+        <v>44149.831563888889</v>
       </c>
       <c r="AP26" s="107">
         <f ca="1">NOW()</f>
-        <v>44136.701382407409</v>
+        <v>44150.831563888889</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -34616,7 +34616,7 @@
   <dimension ref="A1:AQ104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE23" sqref="AE23"/>
+      <selection activeCell="AG26" sqref="AG26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38548,7 +38548,7 @@
         <v>187958</v>
       </c>
       <c r="AC56" s="288">
-        <v>337801</v>
+        <v>388094</v>
       </c>
       <c r="AD56" s="288"/>
       <c r="AE56" s="288"/>
@@ -38622,7 +38622,7 @@
         <v>9977</v>
       </c>
       <c r="AC57" s="289">
-        <v>13869</v>
+        <v>15148</v>
       </c>
       <c r="AD57" s="289"/>
       <c r="AE57" s="289"/>
@@ -43195,7 +43195,7 @@
         <v>117</v>
       </c>
       <c r="C6" s="153">
-        <v>287008</v>
+        <v>463007</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -43204,7 +43204,7 @@
       </c>
       <c r="C7" s="151">
         <f ca="1">NOW()</f>
-        <v>44136.701382407409</v>
+        <v>44150.831563888889</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -43213,7 +43213,7 @@
       </c>
       <c r="C8" s="152">
         <f ca="1">C7-C5</f>
-        <v>236.70138240740926</v>
+        <v>250.83156388888892</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -43222,7 +43222,7 @@
       </c>
       <c r="C9" s="154">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>17.97966827206124</v>
+        <v>18.10418995462199</v>
       </c>
       <c r="D9" t="s">
         <v>96</v>
@@ -43255,7 +43255,7 @@
       </c>
       <c r="C12" s="159">
         <f>C6/Projections!B17</f>
-        <v>1119331.2</v>
+        <v>1805727.2999999998</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -43264,7 +43264,7 @@
       </c>
       <c r="C13" s="160">
         <f ca="1">(C4/Projections!B17)*(2^(((C7-21)-C5)/C9))</f>
-        <v>498149.61921749072</v>
+        <v>808112.22094927169</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -43273,7 +43273,7 @@
       </c>
       <c r="C14" s="143">
         <f ca="1">C12-C13</f>
-        <v>621181.58078250918</v>
+        <v>997615.07905072812</v>
       </c>
       <c r="E14" s="156"/>
       <c r="F14" s="157" t="s">
@@ -43287,7 +43287,7 @@
       </c>
       <c r="C15" s="64">
         <f>C6*Projections!B21</f>
-        <v>232476.48</v>
+        <v>375035.67000000004</v>
       </c>
       <c r="I15" s="150"/>
     </row>
@@ -43297,7 +43297,7 @@
       </c>
       <c r="C16" s="79">
         <f ca="1">(C4*Projections!B21)*(2^(((C7-21)-C5)/C9))</f>
-        <v>103461.843991325</v>
+        <v>167838.69204331029</v>
       </c>
       <c r="I16" s="150"/>
     </row>
@@ -43307,7 +43307,7 @@
       </c>
       <c r="C17" s="79">
         <f ca="1">C15-C16</f>
-        <v>129014.63600867501</v>
+        <v>207196.97795668975</v>
       </c>
       <c r="F17" t="s">
         <v>141</v>
@@ -43320,7 +43320,7 @@
       </c>
       <c r="C18" s="64">
         <f>C6*Projections!B22</f>
-        <v>40181.120000000003</v>
+        <v>64820.98</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -43329,7 +43329,7 @@
       </c>
       <c r="C19" s="79">
         <f ca="1">(C4*Projections!B22)*(2^(((C7-49)-C5)/C9))</f>
-        <v>6076.098735134753</v>
+        <v>9930.2713808288408</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -43338,7 +43338,7 @@
       </c>
       <c r="C20" s="79">
         <f ca="1">C18-C19</f>
-        <v>34105.021264865252</v>
+        <v>54890.708619171164</v>
       </c>
       <c r="F20" t="s">
         <v>146</v>
@@ -43350,7 +43350,7 @@
       </c>
       <c r="C21" s="64">
         <f>C6*Projections!B23</f>
-        <v>14350.400000000001</v>
+        <v>23150.350000000002</v>
       </c>
       <c r="I21" s="150"/>
     </row>
@@ -43360,7 +43360,7 @@
       </c>
       <c r="C22" s="79">
         <f ca="1">(C4*Projections!B23)*(2^(((C7-49)-C5)/C9))</f>
-        <v>2170.0352625481264</v>
+        <v>3546.5254931531576</v>
       </c>
       <c r="I22" s="150"/>
     </row>
@@ -43370,7 +43370,7 @@
       </c>
       <c r="C23" s="79">
         <f ca="1">C21-C22</f>
-        <v>12180.364737451875</v>
+        <v>19603.824506846846</v>
       </c>
       <c r="I23" s="150"/>
     </row>
@@ -43380,7 +43380,7 @@
       </c>
       <c r="C24" s="64">
         <f>C6*Projections!B24</f>
-        <v>11193.312</v>
+        <v>18057.273000000001</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -43389,7 +43389,7 @@
       </c>
       <c r="C25" s="61">
         <f ca="1">(C4*Projections!B24)*(2^(((C7-42)-C5)/C9))</f>
-        <v>2216.9760221686947</v>
+        <v>3616.5226147246362</v>
       </c>
       <c r="F25" t="s">
         <v>152</v>
@@ -43401,7 +43401,7 @@
       </c>
       <c r="C26" s="163">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>63.147650276768253</v>
+        <v>51.09413147332404</v>
       </c>
       <c r="D26" t="s">
         <v>96</v>
@@ -43416,7 +43416,7 @@
       </c>
       <c r="C27" s="162">
         <f ca="1">C7+C26</f>
-        <v>44199.849032684178</v>
+        <v>44201.92569536221</v>
       </c>
       <c r="F27" t="s">
         <v>154</v>
@@ -43428,7 +43428,7 @@
       </c>
       <c r="C28" s="161">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>-17.292148361477246</v>
+        <v>-29.902768604153632</v>
       </c>
       <c r="D28" t="s">
         <v>96</v>
@@ -43440,7 +43440,7 @@
       </c>
       <c r="C29" s="162">
         <f ca="1">C7+C28</f>
-        <v>44119.409234045932</v>
+        <v>44120.928795284737</v>
       </c>
       <c r="F29" t="s">
         <v>154</v>
@@ -43452,7 +43452,7 @@
       </c>
       <c r="C30" s="161">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>129.31969893429283</v>
+        <v>117.72446749814841</v>
       </c>
       <c r="D30" t="s">
         <v>96</v>
@@ -43464,7 +43464,7 @@
       </c>
       <c r="C31" s="162">
         <f ca="1">C7+C30</f>
-        <v>44266.0210813417</v>
+        <v>44268.556031387037</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -43473,7 +43473,7 @@
       </c>
       <c r="C34" s="151">
         <f ca="1">C7+30</f>
-        <v>44166.701382407409</v>
+        <v>44180.831563888889</v>
       </c>
       <c r="F34" t="s">
         <v>167</v>
@@ -43485,7 +43485,7 @@
       </c>
       <c r="C35" s="79">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>912384.73781541735</v>
+        <v>1460215.0745688325</v>
       </c>
       <c r="F35" t="s">
         <v>139</v>
@@ -43497,7 +43497,7 @@
       </c>
       <c r="C36" s="79">
         <f ca="1">C35/Projections!B17</f>
-        <v>3558300.477480127</v>
+        <v>5694838.7908184463</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -43506,7 +43506,7 @@
       </c>
       <c r="C37" s="79">
         <f ca="1">C35*Projections!B21</f>
-        <v>739031.63763048814</v>
+        <v>1182774.2104007544</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -43515,7 +43515,7 @@
       </c>
       <c r="C38" s="79">
         <f ca="1">C35*Projections!B22</f>
-        <v>127733.86329415844</v>
+        <v>204430.11043963657</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -43524,7 +43524,7 @@
       </c>
       <c r="C39" s="79">
         <f ca="1">C35*Projections!B23</f>
-        <v>45619.236890770873</v>
+        <v>73010.753728441632</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -43533,7 +43533,7 @@
       </c>
       <c r="C40" s="61">
         <f ca="1">C35*Projections!B24</f>
-        <v>35583.004774801273</v>
+        <v>56948.387908184472</v>
       </c>
     </row>
   </sheetData>

--- a/Indonesian COVID-19 Infection Projections.xlsx
+++ b/Indonesian COVID-19 Infection Projections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D9B003-7682-4973-AD48-0DA70240586C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91E386E-A87A-4A84-88D6-FFB44058425E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="2325" windowWidth="32400" windowHeight="15435" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
+    <workbookView xWindow="2910" yWindow="1950" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -1108,7 +1108,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="293">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1434,7 +1434,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1825,46 +1824,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44149.757998032408</c:v>
+                  <c:v>44178.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44152.757998032408</c:v>
+                  <c:v>44181.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44155.757998032408</c:v>
+                  <c:v>44184.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44158.757998032408</c:v>
+                  <c:v>44187.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44161.757998032408</c:v>
+                  <c:v>44190.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44164.757998032408</c:v>
+                  <c:v>44193.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44167.757998032408</c:v>
+                  <c:v>44196.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44170.757998032408</c:v>
+                  <c:v>44199.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44173.757998032408</c:v>
+                  <c:v>44202.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44176.757998032408</c:v>
+                  <c:v>44205.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44179.757998032408</c:v>
+                  <c:v>44208.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44182.757998032408</c:v>
+                  <c:v>44211.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44185.757998032408</c:v>
+                  <c:v>44214.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44188.757998032408</c:v>
+                  <c:v>44217.931250231479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1974,46 +1973,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44149.757998032408</c:v>
+                  <c:v>44178.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44152.757998032408</c:v>
+                  <c:v>44181.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44155.757998032408</c:v>
+                  <c:v>44184.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44158.757998032408</c:v>
+                  <c:v>44187.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44161.757998032408</c:v>
+                  <c:v>44190.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44164.757998032408</c:v>
+                  <c:v>44193.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44167.757998032408</c:v>
+                  <c:v>44196.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44170.757998032408</c:v>
+                  <c:v>44199.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44173.757998032408</c:v>
+                  <c:v>44202.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44176.757998032408</c:v>
+                  <c:v>44205.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44179.757998032408</c:v>
+                  <c:v>44208.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44182.757998032408</c:v>
+                  <c:v>44211.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44185.757998032408</c:v>
+                  <c:v>44214.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44188.757998032408</c:v>
+                  <c:v>44217.931250231479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2123,46 +2122,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44149.757998032408</c:v>
+                  <c:v>44178.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44152.757998032408</c:v>
+                  <c:v>44181.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44155.757998032408</c:v>
+                  <c:v>44184.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44158.757998032408</c:v>
+                  <c:v>44187.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44161.757998032408</c:v>
+                  <c:v>44190.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44164.757998032408</c:v>
+                  <c:v>44193.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44167.757998032408</c:v>
+                  <c:v>44196.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44170.757998032408</c:v>
+                  <c:v>44199.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44173.757998032408</c:v>
+                  <c:v>44202.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44176.757998032408</c:v>
+                  <c:v>44205.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44179.757998032408</c:v>
+                  <c:v>44208.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44182.757998032408</c:v>
+                  <c:v>44211.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44185.757998032408</c:v>
+                  <c:v>44214.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44188.757998032408</c:v>
+                  <c:v>44217.931250231479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3412,7 +3411,7 @@
                   <c:v>16225</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="#,##0">
-                  <c:v>20408</c:v>
+                  <c:v>27453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12153,7 +12152,7 @@
                   <c:v>16225</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="#,##0">
-                  <c:v>20408</c:v>
+                  <c:v>27453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12482,46 +12481,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44149.757998032408</c:v>
+                  <c:v>44178.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44152.757998032408</c:v>
+                  <c:v>44181.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44155.757998032408</c:v>
+                  <c:v>44184.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44158.757998032408</c:v>
+                  <c:v>44187.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44161.757998032408</c:v>
+                  <c:v>44190.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44164.757998032408</c:v>
+                  <c:v>44193.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44167.757998032408</c:v>
+                  <c:v>44196.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44170.757998032408</c:v>
+                  <c:v>44199.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44173.757998032408</c:v>
+                  <c:v>44202.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44176.757998032408</c:v>
+                  <c:v>44205.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44179.757998032408</c:v>
+                  <c:v>44208.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44182.757998032408</c:v>
+                  <c:v>44211.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44185.757998032408</c:v>
+                  <c:v>44214.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44188.757998032408</c:v>
+                  <c:v>44217.931250231479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12622,46 +12621,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44149.757998032408</c:v>
+                  <c:v>44178.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44152.757998032408</c:v>
+                  <c:v>44181.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44155.757998032408</c:v>
+                  <c:v>44184.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44158.757998032408</c:v>
+                  <c:v>44187.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44161.757998032408</c:v>
+                  <c:v>44190.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44164.757998032408</c:v>
+                  <c:v>44193.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44167.757998032408</c:v>
+                  <c:v>44196.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44170.757998032408</c:v>
+                  <c:v>44199.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44173.757998032408</c:v>
+                  <c:v>44202.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44176.757998032408</c:v>
+                  <c:v>44205.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44179.757998032408</c:v>
+                  <c:v>44208.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44182.757998032408</c:v>
+                  <c:v>44211.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44185.757998032408</c:v>
+                  <c:v>44214.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44188.757998032408</c:v>
+                  <c:v>44217.931250231479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12765,46 +12764,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44149.757998032408</c:v>
+                  <c:v>44178.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44152.757998032408</c:v>
+                  <c:v>44181.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44155.757998032408</c:v>
+                  <c:v>44184.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44158.757998032408</c:v>
+                  <c:v>44187.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44161.757998032408</c:v>
+                  <c:v>44190.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44164.757998032408</c:v>
+                  <c:v>44193.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44167.757998032408</c:v>
+                  <c:v>44196.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44170.757998032408</c:v>
+                  <c:v>44199.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44173.757998032408</c:v>
+                  <c:v>44202.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44176.757998032408</c:v>
+                  <c:v>44205.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44179.757998032408</c:v>
+                  <c:v>44208.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44182.757998032408</c:v>
+                  <c:v>44211.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44185.757998032408</c:v>
+                  <c:v>44214.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44188.757998032408</c:v>
+                  <c:v>44217.931250231479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12902,46 +12901,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44149.757998032408</c:v>
+                  <c:v>44178.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44152.757998032408</c:v>
+                  <c:v>44181.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44155.757998032408</c:v>
+                  <c:v>44184.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44158.757998032408</c:v>
+                  <c:v>44187.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44161.757998032408</c:v>
+                  <c:v>44190.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44164.757998032408</c:v>
+                  <c:v>44193.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44167.757998032408</c:v>
+                  <c:v>44196.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44170.757998032408</c:v>
+                  <c:v>44199.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44173.757998032408</c:v>
+                  <c:v>44202.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44176.757998032408</c:v>
+                  <c:v>44205.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44179.757998032408</c:v>
+                  <c:v>44208.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44182.757998032408</c:v>
+                  <c:v>44211.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44185.757998032408</c:v>
+                  <c:v>44214.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44188.757998032408</c:v>
+                  <c:v>44217.931250231479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13309,46 +13308,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44149.757998032408</c:v>
+                  <c:v>44178.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44152.757998032408</c:v>
+                  <c:v>44181.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44155.757998032408</c:v>
+                  <c:v>44184.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44158.757998032408</c:v>
+                  <c:v>44187.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44161.757998032408</c:v>
+                  <c:v>44190.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44164.757998032408</c:v>
+                  <c:v>44193.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44167.757998032408</c:v>
+                  <c:v>44196.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44170.757998032408</c:v>
+                  <c:v>44199.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44173.757998032408</c:v>
+                  <c:v>44202.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44176.757998032408</c:v>
+                  <c:v>44205.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44179.757998032408</c:v>
+                  <c:v>44208.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44182.757998032408</c:v>
+                  <c:v>44211.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44185.757998032408</c:v>
+                  <c:v>44214.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44188.757998032408</c:v>
+                  <c:v>44217.931250231479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13458,46 +13457,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44149.757998032408</c:v>
+                  <c:v>44178.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44152.757998032408</c:v>
+                  <c:v>44181.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44155.757998032408</c:v>
+                  <c:v>44184.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44158.757998032408</c:v>
+                  <c:v>44187.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44161.757998032408</c:v>
+                  <c:v>44190.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44164.757998032408</c:v>
+                  <c:v>44193.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44167.757998032408</c:v>
+                  <c:v>44196.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44170.757998032408</c:v>
+                  <c:v>44199.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44173.757998032408</c:v>
+                  <c:v>44202.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44176.757998032408</c:v>
+                  <c:v>44205.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44179.757998032408</c:v>
+                  <c:v>44208.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44182.757998032408</c:v>
+                  <c:v>44211.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44185.757998032408</c:v>
+                  <c:v>44214.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44188.757998032408</c:v>
+                  <c:v>44217.931250231479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13607,46 +13606,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44149.757998032408</c:v>
+                  <c:v>44178.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44152.757998032408</c:v>
+                  <c:v>44181.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44155.757998032408</c:v>
+                  <c:v>44184.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44158.757998032408</c:v>
+                  <c:v>44187.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44161.757998032408</c:v>
+                  <c:v>44190.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44164.757998032408</c:v>
+                  <c:v>44193.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44167.757998032408</c:v>
+                  <c:v>44196.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44170.757998032408</c:v>
+                  <c:v>44199.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44173.757998032408</c:v>
+                  <c:v>44202.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44176.757998032408</c:v>
+                  <c:v>44205.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44179.757998032408</c:v>
+                  <c:v>44208.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44182.757998032408</c:v>
+                  <c:v>44211.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44185.757998032408</c:v>
+                  <c:v>44214.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44188.757998032408</c:v>
+                  <c:v>44217.931250231479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14024,46 +14023,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44149.757998032408</c:v>
+                  <c:v>44178.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44152.757998032408</c:v>
+                  <c:v>44181.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44155.757998032408</c:v>
+                  <c:v>44184.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44158.757998032408</c:v>
+                  <c:v>44187.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44161.757998032408</c:v>
+                  <c:v>44190.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44164.757998032408</c:v>
+                  <c:v>44193.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44167.757998032408</c:v>
+                  <c:v>44196.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44170.757998032408</c:v>
+                  <c:v>44199.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44173.757998032408</c:v>
+                  <c:v>44202.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44176.757998032408</c:v>
+                  <c:v>44205.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44179.757998032408</c:v>
+                  <c:v>44208.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44182.757998032408</c:v>
+                  <c:v>44211.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44185.757998032408</c:v>
+                  <c:v>44214.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44188.757998032408</c:v>
+                  <c:v>44217.931250231479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14164,46 +14163,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44149.757998032408</c:v>
+                  <c:v>44178.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44152.757998032408</c:v>
+                  <c:v>44181.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44155.757998032408</c:v>
+                  <c:v>44184.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44158.757998032408</c:v>
+                  <c:v>44187.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44161.757998032408</c:v>
+                  <c:v>44190.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44164.757998032408</c:v>
+                  <c:v>44193.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44167.757998032408</c:v>
+                  <c:v>44196.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44170.757998032408</c:v>
+                  <c:v>44199.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44173.757998032408</c:v>
+                  <c:v>44202.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44176.757998032408</c:v>
+                  <c:v>44205.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44179.757998032408</c:v>
+                  <c:v>44208.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44182.757998032408</c:v>
+                  <c:v>44211.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44185.757998032408</c:v>
+                  <c:v>44214.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44188.757998032408</c:v>
+                  <c:v>44217.931250231479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14307,46 +14306,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44149.757998032408</c:v>
+                  <c:v>44178.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44152.757998032408</c:v>
+                  <c:v>44181.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44155.757998032408</c:v>
+                  <c:v>44184.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44158.757998032408</c:v>
+                  <c:v>44187.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44161.757998032408</c:v>
+                  <c:v>44190.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44164.757998032408</c:v>
+                  <c:v>44193.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44167.757998032408</c:v>
+                  <c:v>44196.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44170.757998032408</c:v>
+                  <c:v>44199.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44173.757998032408</c:v>
+                  <c:v>44202.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44176.757998032408</c:v>
+                  <c:v>44205.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44179.757998032408</c:v>
+                  <c:v>44208.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44182.757998032408</c:v>
+                  <c:v>44211.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44185.757998032408</c:v>
+                  <c:v>44214.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44188.757998032408</c:v>
+                  <c:v>44217.931250231479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14444,46 +14443,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44149.757998032408</c:v>
+                  <c:v>44178.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44152.757998032408</c:v>
+                  <c:v>44181.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44155.757998032408</c:v>
+                  <c:v>44184.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44158.757998032408</c:v>
+                  <c:v>44187.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44161.757998032408</c:v>
+                  <c:v>44190.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44164.757998032408</c:v>
+                  <c:v>44193.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44167.757998032408</c:v>
+                  <c:v>44196.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44170.757998032408</c:v>
+                  <c:v>44199.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44173.757998032408</c:v>
+                  <c:v>44202.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44176.757998032408</c:v>
+                  <c:v>44205.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44179.757998032408</c:v>
+                  <c:v>44208.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44182.757998032408</c:v>
+                  <c:v>44211.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44185.757998032408</c:v>
+                  <c:v>44214.931250231479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44188.757998032408</c:v>
+                  <c:v>44217.931250231479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -34023,167 +34022,167 @@
       </c>
       <c r="B26" s="85">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>44149.757998032408</v>
+        <v>44178.931250231479</v>
       </c>
       <c r="C26" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>44150.757998032408</v>
+        <v>44179.931250231479</v>
       </c>
       <c r="D26" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>44151.757998032408</v>
+        <v>44180.931250231479</v>
       </c>
       <c r="E26" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>44152.757998032408</v>
+        <v>44181.931250231479</v>
       </c>
       <c r="F26" s="86">
         <f t="shared" ca="1" si="0"/>
-        <v>44153.757998032408</v>
+        <v>44182.931250231479</v>
       </c>
       <c r="G26" s="87">
         <f t="shared" ca="1" si="0"/>
-        <v>44154.757998032408</v>
+        <v>44183.931250231479</v>
       </c>
       <c r="H26" s="86">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>44155.757998032408</v>
+        <v>44184.931250231479</v>
       </c>
       <c r="I26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>44156.757998032408</v>
+        <v>44185.931250231479</v>
       </c>
       <c r="J26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>44157.757998032408</v>
+        <v>44186.931250231479</v>
       </c>
       <c r="K26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>44158.757998032408</v>
+        <v>44187.931250231479</v>
       </c>
       <c r="L26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>44159.757998032408</v>
+        <v>44188.931250231479</v>
       </c>
       <c r="M26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>44160.757998032408</v>
+        <v>44189.931250231479</v>
       </c>
       <c r="N26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>44161.757998032408</v>
+        <v>44190.931250231479</v>
       </c>
       <c r="O26" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>44162.757998032408</v>
+        <v>44191.931250231479</v>
       </c>
       <c r="P26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>44163.757998032408</v>
+        <v>44192.931250231479</v>
       </c>
       <c r="Q26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>44164.757998032408</v>
+        <v>44193.931250231479</v>
       </c>
       <c r="R26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>44165.757998032408</v>
+        <v>44194.931250231479</v>
       </c>
       <c r="S26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>44166.757998032408</v>
+        <v>44195.931250231479</v>
       </c>
       <c r="T26" s="86">
         <f t="shared" ca="1" si="1"/>
-        <v>44167.757998032408</v>
+        <v>44196.931250231479</v>
       </c>
       <c r="U26" s="87">
         <f t="shared" ca="1" si="1"/>
-        <v>44168.757998032408</v>
+        <v>44197.931250231479</v>
       </c>
       <c r="V26" s="85">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>44169.757998032408</v>
+        <v>44198.931250231479</v>
       </c>
       <c r="W26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44170.757998032408</v>
+        <v>44199.931250231479</v>
       </c>
       <c r="X26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44171.757998032408</v>
+        <v>44200.931250231479</v>
       </c>
       <c r="Y26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44172.757998032408</v>
+        <v>44201.931250231479</v>
       </c>
       <c r="Z26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44173.757998032408</v>
+        <v>44202.931250231479</v>
       </c>
       <c r="AA26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44174.757998032408</v>
+        <v>44203.931250231479</v>
       </c>
       <c r="AB26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>44175.757998032408</v>
+        <v>44204.931250231479</v>
       </c>
       <c r="AC26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>44176.757998032408</v>
+        <v>44205.931250231479</v>
       </c>
       <c r="AD26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44177.757998032408</v>
+        <v>44206.931250231479</v>
       </c>
       <c r="AE26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44178.757998032408</v>
+        <v>44207.931250231479</v>
       </c>
       <c r="AF26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44179.757998032408</v>
+        <v>44208.931250231479</v>
       </c>
       <c r="AG26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44180.757998032408</v>
+        <v>44209.931250231479</v>
       </c>
       <c r="AH26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44181.757998032408</v>
+        <v>44210.931250231479</v>
       </c>
       <c r="AI26" s="87">
         <f t="shared" ca="1" si="2"/>
-        <v>44182.757998032408</v>
+        <v>44211.931250231479</v>
       </c>
       <c r="AJ26" s="85">
         <f t="shared" ca="1" si="2"/>
-        <v>44183.757998032408</v>
+        <v>44212.931250231479</v>
       </c>
       <c r="AK26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44184.757998032408</v>
+        <v>44213.931250231479</v>
       </c>
       <c r="AL26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44185.757998032408</v>
+        <v>44214.931250231479</v>
       </c>
       <c r="AM26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44186.757998032408</v>
+        <v>44215.931250231479</v>
       </c>
       <c r="AN26" s="86">
         <f t="shared" ca="1" si="2"/>
-        <v>44187.757998032408</v>
+        <v>44216.931250231479</v>
       </c>
       <c r="AO26" s="86">
         <f ca="1">AP26-1</f>
-        <v>44188.757998032408</v>
+        <v>44217.931250231479</v>
       </c>
       <c r="AP26" s="107">
         <f ca="1">NOW()</f>
-        <v>44189.757998032408</v>
+        <v>44218.931250231479</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -34318,59 +34317,59 @@
       <c r="A28" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="286" t="s">
+      <c r="B28" s="285" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="287"/>
-      <c r="D28" s="287"/>
-      <c r="E28" s="287"/>
-      <c r="F28" s="287"/>
-      <c r="G28" s="288"/>
-      <c r="H28" s="292" t="s">
+      <c r="C28" s="286"/>
+      <c r="D28" s="286"/>
+      <c r="E28" s="286"/>
+      <c r="F28" s="286"/>
+      <c r="G28" s="287"/>
+      <c r="H28" s="291" t="s">
         <v>54</v>
       </c>
-      <c r="I28" s="292"/>
-      <c r="J28" s="292"/>
-      <c r="K28" s="292"/>
-      <c r="L28" s="292"/>
-      <c r="M28" s="292"/>
-      <c r="N28" s="293"/>
-      <c r="O28" s="291" t="s">
+      <c r="I28" s="291"/>
+      <c r="J28" s="291"/>
+      <c r="K28" s="291"/>
+      <c r="L28" s="291"/>
+      <c r="M28" s="291"/>
+      <c r="N28" s="292"/>
+      <c r="O28" s="290" t="s">
         <v>55</v>
       </c>
-      <c r="P28" s="292"/>
-      <c r="Q28" s="292"/>
-      <c r="R28" s="292"/>
-      <c r="S28" s="292"/>
-      <c r="T28" s="292"/>
-      <c r="U28" s="293"/>
-      <c r="V28" s="291" t="s">
+      <c r="P28" s="291"/>
+      <c r="Q28" s="291"/>
+      <c r="R28" s="291"/>
+      <c r="S28" s="291"/>
+      <c r="T28" s="291"/>
+      <c r="U28" s="292"/>
+      <c r="V28" s="290" t="s">
         <v>56</v>
       </c>
-      <c r="W28" s="292"/>
-      <c r="X28" s="292"/>
-      <c r="Y28" s="292"/>
-      <c r="Z28" s="292"/>
-      <c r="AA28" s="292"/>
-      <c r="AB28" s="293"/>
-      <c r="AC28" s="291" t="s">
+      <c r="W28" s="291"/>
+      <c r="X28" s="291"/>
+      <c r="Y28" s="291"/>
+      <c r="Z28" s="291"/>
+      <c r="AA28" s="291"/>
+      <c r="AB28" s="292"/>
+      <c r="AC28" s="290" t="s">
         <v>57</v>
       </c>
-      <c r="AD28" s="292"/>
-      <c r="AE28" s="292"/>
-      <c r="AF28" s="292"/>
-      <c r="AG28" s="292"/>
-      <c r="AH28" s="292"/>
-      <c r="AI28" s="293"/>
-      <c r="AJ28" s="291" t="s">
+      <c r="AD28" s="291"/>
+      <c r="AE28" s="291"/>
+      <c r="AF28" s="291"/>
+      <c r="AG28" s="291"/>
+      <c r="AH28" s="291"/>
+      <c r="AI28" s="292"/>
+      <c r="AJ28" s="290" t="s">
         <v>58</v>
       </c>
-      <c r="AK28" s="292"/>
-      <c r="AL28" s="292"/>
-      <c r="AM28" s="292"/>
-      <c r="AN28" s="292"/>
-      <c r="AO28" s="292"/>
-      <c r="AP28" s="293"/>
+      <c r="AK28" s="291"/>
+      <c r="AL28" s="291"/>
+      <c r="AM28" s="291"/>
+      <c r="AN28" s="291"/>
+      <c r="AO28" s="291"/>
+      <c r="AP28" s="292"/>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B29" s="51" t="s">
@@ -34381,43 +34380,43 @@
       <c r="E29" s="92"/>
       <c r="F29" s="92"/>
       <c r="G29" s="93"/>
-      <c r="H29" s="289" t="s">
+      <c r="H29" s="288" t="s">
         <v>64</v>
       </c>
-      <c r="I29" s="289"/>
-      <c r="J29" s="289"/>
-      <c r="K29" s="289"/>
-      <c r="L29" s="289"/>
-      <c r="M29" s="289"/>
-      <c r="N29" s="289"/>
-      <c r="O29" s="289"/>
-      <c r="P29" s="289"/>
-      <c r="Q29" s="289"/>
-      <c r="R29" s="289"/>
-      <c r="S29" s="289"/>
-      <c r="T29" s="289"/>
-      <c r="U29" s="289"/>
-      <c r="V29" s="289"/>
-      <c r="W29" s="289"/>
-      <c r="X29" s="289"/>
-      <c r="Y29" s="289"/>
-      <c r="Z29" s="289"/>
-      <c r="AA29" s="289"/>
-      <c r="AB29" s="289"/>
-      <c r="AC29" s="289"/>
-      <c r="AD29" s="289"/>
-      <c r="AE29" s="289"/>
-      <c r="AF29" s="289"/>
-      <c r="AG29" s="289"/>
-      <c r="AH29" s="289"/>
-      <c r="AI29" s="289"/>
-      <c r="AJ29" s="289"/>
-      <c r="AK29" s="289"/>
-      <c r="AL29" s="289"/>
-      <c r="AM29" s="289"/>
-      <c r="AN29" s="289"/>
-      <c r="AO29" s="289"/>
-      <c r="AP29" s="290"/>
+      <c r="I29" s="288"/>
+      <c r="J29" s="288"/>
+      <c r="K29" s="288"/>
+      <c r="L29" s="288"/>
+      <c r="M29" s="288"/>
+      <c r="N29" s="288"/>
+      <c r="O29" s="288"/>
+      <c r="P29" s="288"/>
+      <c r="Q29" s="288"/>
+      <c r="R29" s="288"/>
+      <c r="S29" s="288"/>
+      <c r="T29" s="288"/>
+      <c r="U29" s="288"/>
+      <c r="V29" s="288"/>
+      <c r="W29" s="288"/>
+      <c r="X29" s="288"/>
+      <c r="Y29" s="288"/>
+      <c r="Z29" s="288"/>
+      <c r="AA29" s="288"/>
+      <c r="AB29" s="288"/>
+      <c r="AC29" s="288"/>
+      <c r="AD29" s="288"/>
+      <c r="AE29" s="288"/>
+      <c r="AF29" s="288"/>
+      <c r="AG29" s="288"/>
+      <c r="AH29" s="288"/>
+      <c r="AI29" s="288"/>
+      <c r="AJ29" s="288"/>
+      <c r="AK29" s="288"/>
+      <c r="AL29" s="288"/>
+      <c r="AM29" s="288"/>
+      <c r="AN29" s="288"/>
+      <c r="AO29" s="288"/>
+      <c r="AP29" s="289"/>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B31" s="57" t="s">
@@ -34701,8 +34700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BB0FAD-39ED-4D53-8BC6-75164ED434B0}">
   <dimension ref="A1:AU103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="P22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK24" sqref="AK24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36099,105 +36098,105 @@
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
       <c r="R32" s="16"/>
-      <c r="S32" s="82" t="e">
-        <f>MAX(S29-S31-#REF!,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T32" s="83" t="e">
-        <f>MAX(T29-T31-#REF!,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U32" s="83" t="e">
-        <f>MAX(U29-U31-#REF!,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V32" s="117" t="e">
-        <f>MAX(V29-V31-#REF!,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W32" s="117" t="e">
-        <f>MAX(W29-W31-#REF!,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X32" s="117" t="e">
-        <f>MAX(X29-X31-#REF!,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y32" s="117" t="e">
-        <f>MAX(Y29-Y31-#REF!,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z32" s="117" t="e">
-        <f>MAX(Z29-Z31-#REF!,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA32" s="117" t="e">
-        <f>MAX(AA29-AA31-#REF!,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AB32" s="117" t="e">
-        <f>MAX(AB29-AB31-#REF!,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AC32" s="117" t="e">
-        <f>MAX(AC29-AC31-#REF!,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AD32" s="117" t="e">
-        <f>MAX(AD29-AD31-#REF!,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AE32" s="117" t="e">
-        <f>MAX(AE29-AE31-#REF!,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AF32" s="117" t="e">
-        <f>MAX(AF29-AF31-#REF!,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AG32" s="117" t="e">
-        <f>MAX(AG29-AG31-#REF!,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AH32" s="117" t="e">
-        <f>MAX(AH29-AH31-#REF!,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI32" s="117" t="e">
-        <f>MAX(AI29-AI31-#REF!,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AJ32" s="117" t="e">
-        <f>MAX(AJ29-AJ31-#REF!,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK32" s="117" t="e">
-        <f>MAX(AK29-AK31-#REF!,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AL32" s="117" t="e">
-        <f>MAX(AL29-AL31-#REF!,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AM32" s="117" t="e">
-        <f>MAX(AM29-AM31-#REF!,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AN32" s="282" t="e">
-        <f>MAX(AN29-AN31-#REF!,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AO32" s="197" t="e">
-        <f>MAX(AO29-AO31-#REF!,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AP32" s="197" t="e">
-        <f>MAX(AP29-AP31-#REF!,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AQ32" s="283" t="e">
-        <f>MAX(AQ29-AQ31-#REF!,0)</f>
-        <v>#REF!</v>
+      <c r="S32" s="82">
+        <f>MAX(S29-S31,0)</f>
+        <v>6.8385211708644533E-2</v>
+      </c>
+      <c r="T32" s="82">
+        <f t="shared" ref="T32:U32" si="14">MAX(T29-T31,0)</f>
+        <v>0.23535509657536835</v>
+      </c>
+      <c r="U32" s="82">
+        <f t="shared" si="14"/>
+        <v>0.81000000000000227</v>
+      </c>
+      <c r="V32" s="117">
+        <f>MAX(V29-V31,0)</f>
+        <v>2.7877025377688938</v>
+      </c>
+      <c r="W32" s="117">
+        <f t="shared" ref="W32:AM32" si="15">MAX(W29-W31,0)</f>
+        <v>9.594179554423647</v>
+      </c>
+      <c r="X32" s="117">
+        <f t="shared" si="15"/>
+        <v>64.6875</v>
+      </c>
+      <c r="Y32" s="117">
+        <f t="shared" si="15"/>
+        <v>497.93542633602692</v>
+      </c>
+      <c r="Z32" s="117">
+        <f t="shared" si="15"/>
+        <v>1507.8087028964592</v>
+      </c>
+      <c r="AA32" s="117">
+        <f t="shared" si="15"/>
+        <v>5926.1688404313736</v>
+      </c>
+      <c r="AB32" s="117">
+        <f t="shared" si="15"/>
+        <v>14594.546410774456</v>
+      </c>
+      <c r="AC32" s="117">
+        <f t="shared" si="15"/>
+        <v>30596.798814298145</v>
+      </c>
+      <c r="AD32" s="117">
+        <f t="shared" si="15"/>
+        <v>63919.870007186801</v>
+      </c>
+      <c r="AE32" s="117">
+        <f t="shared" si="15"/>
+        <v>128000</v>
+      </c>
+      <c r="AF32" s="117">
+        <f t="shared" si="15"/>
+        <v>256000</v>
+      </c>
+      <c r="AG32" s="117">
+        <f t="shared" si="15"/>
+        <v>512000</v>
+      </c>
+      <c r="AH32" s="117">
+        <f t="shared" si="15"/>
+        <v>1024000</v>
+      </c>
+      <c r="AI32" s="117">
+        <f t="shared" si="15"/>
+        <v>2048000</v>
+      </c>
+      <c r="AJ32" s="117">
+        <f t="shared" si="15"/>
+        <v>4096000</v>
+      </c>
+      <c r="AK32" s="117">
+        <f t="shared" si="15"/>
+        <v>8192000</v>
+      </c>
+      <c r="AL32" s="117">
+        <f t="shared" si="15"/>
+        <v>16384000</v>
+      </c>
+      <c r="AM32" s="117">
+        <f t="shared" si="15"/>
+        <v>32768000</v>
+      </c>
+      <c r="AN32" s="282">
+        <f>MAX(AN29-AN31,0)</f>
+        <v>65536000</v>
+      </c>
+      <c r="AO32" s="197">
+        <f>MAX(AO29-AO31,0)</f>
+        <v>131072000</v>
+      </c>
+      <c r="AP32" s="197">
+        <f t="shared" ref="AP32:AQ32" si="16">MAX(AP29-AP31,0)</f>
+        <v>262144000</v>
+      </c>
+      <c r="AQ32" s="197">
+        <f t="shared" si="16"/>
+        <v>272886000</v>
       </c>
       <c r="AR32" s="248"/>
       <c r="AS32" s="25"/>
@@ -36226,87 +36225,87 @@
       <c r="Q33" s="9"/>
       <c r="R33" s="5"/>
       <c r="S33" s="184">
-        <f t="shared" ref="S33:AK33" si="14">S29/$B$17</f>
+        <f t="shared" ref="S33:AK33" si="17">S29/$B$17</f>
         <v>98.4375</v>
       </c>
       <c r="T33" s="185">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>196.875</v>
       </c>
       <c r="U33" s="185">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>393.75</v>
       </c>
       <c r="V33" s="185">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>787.5</v>
       </c>
       <c r="W33" s="185">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1575</v>
       </c>
       <c r="X33" s="185">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3150</v>
       </c>
       <c r="Y33" s="185">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>6300</v>
       </c>
       <c r="Z33" s="185">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>12600</v>
       </c>
       <c r="AA33" s="185">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>25200</v>
       </c>
       <c r="AB33" s="185">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>50400</v>
       </c>
       <c r="AC33" s="185">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>100800</v>
       </c>
       <c r="AD33" s="185">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>201600</v>
       </c>
       <c r="AE33" s="185">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>403200</v>
       </c>
       <c r="AF33" s="185">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>806400</v>
       </c>
       <c r="AG33" s="185">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1612800</v>
       </c>
       <c r="AH33" s="185">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3225600</v>
       </c>
       <c r="AI33" s="185">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>6451200</v>
       </c>
       <c r="AJ33" s="185">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>12902400</v>
       </c>
       <c r="AK33" s="185">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>25804800</v>
       </c>
       <c r="AL33" s="185">
-        <f t="shared" ref="AL33:AM33" si="15">AL29/$B$17</f>
+        <f t="shared" ref="AL33:AM33" si="18">AL29/$B$17</f>
         <v>51609600</v>
       </c>
       <c r="AM33" s="185">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>103219200</v>
       </c>
       <c r="AN33" s="216">
@@ -36322,7 +36321,7 @@
         <v>272886000</v>
       </c>
       <c r="AQ33" s="194">
-        <f t="shared" ref="AQ33" si="16">$B$15</f>
+        <f t="shared" ref="AQ33" si="19">$B$15</f>
         <v>272886000</v>
       </c>
       <c r="AR33" s="247">
@@ -36359,71 +36358,71 @@
         <v>3.6072755656208085E-7</v>
       </c>
       <c r="T34" s="183">
-        <f t="shared" ref="T34:AJ34" si="17">T33/$B$15</f>
+        <f t="shared" ref="T34:AJ34" si="20">T33/$B$15</f>
         <v>7.214551131241617E-7</v>
       </c>
       <c r="U34" s="183">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4429102262483234E-6</v>
       </c>
       <c r="V34" s="66">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.8858204524966468E-6</v>
       </c>
       <c r="W34" s="66">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5.7716409049932936E-6</v>
       </c>
       <c r="X34" s="66">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1543281809986587E-5</v>
       </c>
       <c r="Y34" s="66">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.3086563619973174E-5</v>
       </c>
       <c r="Z34" s="66">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>4.6173127239946349E-5</v>
       </c>
       <c r="AA34" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>9.2346254479892698E-5</v>
       </c>
       <c r="AB34" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.846925089597854E-4</v>
       </c>
       <c r="AC34" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3.6938501791957079E-4</v>
       </c>
       <c r="AD34" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>7.3877003583914158E-4</v>
       </c>
       <c r="AE34" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4775400716782832E-3</v>
       </c>
       <c r="AF34" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.9550801433565663E-3</v>
       </c>
       <c r="AG34" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5.9101602867131326E-3</v>
       </c>
       <c r="AH34" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1820320573426265E-2</v>
       </c>
       <c r="AI34" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.3640641146852531E-2</v>
       </c>
       <c r="AJ34" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>4.7281282293705061E-2</v>
       </c>
       <c r="AK34" s="15">
@@ -36439,19 +36438,19 @@
         <v>0.37825025834964049</v>
       </c>
       <c r="AN34" s="217">
-        <f t="shared" ref="AN34:AQ34" si="18">AN33/$B$15</f>
+        <f t="shared" ref="AN34:AQ34" si="21">AN33/$B$15</f>
         <v>1</v>
       </c>
       <c r="AO34" s="167">
-        <f t="shared" ref="AO34" si="19">AO33/$B$15</f>
+        <f t="shared" ref="AO34" si="22">AO33/$B$15</f>
         <v>1</v>
       </c>
       <c r="AP34" s="167">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AQ34" s="168">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AR34" s="246">
@@ -36488,15 +36487,15 @@
         <v>67.1875</v>
       </c>
       <c r="T35" s="185">
-        <f t="shared" ref="T35:AJ35" si="20">T33-T29</f>
+        <f t="shared" ref="T35:AJ35" si="23">T33-T29</f>
         <v>134.375</v>
       </c>
       <c r="U35" s="185">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>268.75</v>
       </c>
       <c r="V35" s="185">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>537.5</v>
       </c>
       <c r="W35" s="185">
@@ -36504,55 +36503,55 @@
         <v>1075</v>
       </c>
       <c r="X35" s="185">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2150</v>
       </c>
       <c r="Y35" s="185">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4300</v>
       </c>
       <c r="Z35" s="185">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>8600</v>
       </c>
       <c r="AA35" s="185">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>17200</v>
       </c>
       <c r="AB35" s="185">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>34400</v>
       </c>
       <c r="AC35" s="185">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>68800</v>
       </c>
       <c r="AD35" s="185">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>137600</v>
       </c>
       <c r="AE35" s="185">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>275200</v>
       </c>
       <c r="AF35" s="185">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>550400</v>
       </c>
       <c r="AG35" s="185">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1100800</v>
       </c>
       <c r="AH35" s="185">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2201600</v>
       </c>
       <c r="AI35" s="185">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4403200</v>
       </c>
       <c r="AJ35" s="185">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>8806400</v>
       </c>
       <c r="AK35" s="185">
@@ -36568,19 +36567,19 @@
         <v>70451200</v>
       </c>
       <c r="AN35" s="218">
-        <f t="shared" ref="AN35:AQ35" si="21">AN33</f>
+        <f t="shared" ref="AN35:AQ35" si="24">AN33</f>
         <v>272886000</v>
       </c>
       <c r="AO35" s="186">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>272886000</v>
       </c>
       <c r="AP35" s="186">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>272886000</v>
       </c>
       <c r="AQ35" s="187">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>272886000</v>
       </c>
       <c r="AR35" s="249">
@@ -36633,83 +36632,83 @@
         <v>37.310698267203151</v>
       </c>
       <c r="X36" s="185">
-        <f>MIN(($S$29/$B$17)*(2^(((X28 - 14) - $S$28)/HLOOKUP((X28-14)-$B$25,$S$51:$AR$53,3,TRUE))),X35)</f>
+        <f t="shared" ref="X36:AQ36" si="25">MIN(($S$29/$B$17)*(2^(((X28 - 14) - $S$28)/HLOOKUP((X28-14)-$B$25,$S$51:$AR$53,3,TRUE))),X35)</f>
         <v>251.56249999999997</v>
       </c>
       <c r="Y36" s="185">
-        <f>MIN(($S$29/$B$17)*(2^(((Y28 - 14) - $S$28)/HLOOKUP((Y28-14)-$B$25,$S$51:$AR$53,3,TRUE))),Y35)</f>
+        <f t="shared" si="25"/>
         <v>1936.4155468623269</v>
       </c>
       <c r="Z36" s="185">
-        <f>MIN(($S$29/$B$17)*(2^(((Z28 - 14) - $S$28)/HLOOKUP((Z28-14)-$B$25,$S$51:$AR$53,3,TRUE))),Z35)</f>
+        <f t="shared" si="25"/>
         <v>5863.7005112640081</v>
       </c>
       <c r="AA36" s="185">
-        <f>MIN(($S$29/$B$17)*(2^(((AA28 - 14) - $S$28)/HLOOKUP((AA28-14)-$B$25,$S$51:$AR$53,3,TRUE))),AA35)</f>
+        <f t="shared" si="25"/>
         <v>17200</v>
       </c>
       <c r="AB36" s="185">
-        <f>MIN(($S$29/$B$17)*(2^(((AB28 - 14) - $S$28)/HLOOKUP((AB28-14)-$B$25,$S$51:$AR$53,3,TRUE))),AB35)</f>
+        <f t="shared" si="25"/>
         <v>34400</v>
       </c>
       <c r="AC36" s="185">
-        <f>MIN(($S$29/$B$17)*(2^(((AC28 - 14) - $S$28)/HLOOKUP((AC28-14)-$B$25,$S$51:$AR$53,3,TRUE))),AC35)</f>
+        <f t="shared" si="25"/>
         <v>68800</v>
       </c>
       <c r="AD36" s="185">
-        <f>MIN(($S$29/$B$17)*(2^(((AD28 - 14) - $S$28)/HLOOKUP((AD28-14)-$B$25,$S$51:$AR$53,3,TRUE))),AD35)</f>
+        <f t="shared" si="25"/>
         <v>137600</v>
       </c>
       <c r="AE36" s="185">
-        <f>MIN(($S$29/$B$17)*(2^(((AE28 - 14) - $S$28)/HLOOKUP((AE28-14)-$B$25,$S$51:$AR$53,3,TRUE))),AE35)</f>
+        <f t="shared" si="25"/>
         <v>275200</v>
       </c>
       <c r="AF36" s="185">
-        <f>MIN(($S$29/$B$17)*(2^(((AF28 - 14) - $S$28)/HLOOKUP((AF28-14)-$B$25,$S$51:$AR$53,3,TRUE))),AF35)</f>
+        <f t="shared" si="25"/>
         <v>550400</v>
       </c>
       <c r="AG36" s="185">
-        <f>MIN(($S$29/$B$17)*(2^(((AG28 - 14) - $S$28)/HLOOKUP((AG28-14)-$B$25,$S$51:$AR$53,3,TRUE))),AG35)</f>
+        <f t="shared" si="25"/>
         <v>1100800</v>
       </c>
       <c r="AH36" s="185">
-        <f>MIN(($S$29/$B$17)*(2^(((AH28 - 14) - $S$28)/HLOOKUP((AH28-14)-$B$25,$S$51:$AR$53,3,TRUE))),AH35)</f>
+        <f t="shared" si="25"/>
         <v>2201600</v>
       </c>
       <c r="AI36" s="185">
-        <f>MIN(($S$29/$B$17)*(2^(((AI28 - 14) - $S$28)/HLOOKUP((AI28-14)-$B$25,$S$51:$AR$53,3,TRUE))),AI35)</f>
+        <f t="shared" si="25"/>
         <v>4403200</v>
       </c>
       <c r="AJ36" s="185">
-        <f>MIN(($S$29/$B$17)*(2^(((AJ28 - 14) - $S$28)/HLOOKUP((AJ28-14)-$B$25,$S$51:$AR$53,3,TRUE))),AJ35)</f>
+        <f t="shared" si="25"/>
         <v>8806400</v>
       </c>
       <c r="AK36" s="185">
-        <f>MIN(($S$29/$B$17)*(2^(((AK28 - 14) - $S$28)/HLOOKUP((AK28-14)-$B$25,$S$51:$AR$53,3,TRUE))),AK35)</f>
+        <f t="shared" si="25"/>
         <v>17612800</v>
       </c>
       <c r="AL36" s="185">
-        <f>MIN(($S$29/$B$17)*(2^(((AL28 - 14) - $S$28)/HLOOKUP((AL28-14)-$B$25,$S$51:$AR$53,3,TRUE))),AL35)</f>
+        <f t="shared" si="25"/>
         <v>35225600</v>
       </c>
       <c r="AM36" s="185">
-        <f>MIN(($S$29/$B$17)*(2^(((AM28 - 14) - $S$28)/HLOOKUP((AM28-14)-$B$25,$S$51:$AR$53,3,TRUE))),AM35)</f>
+        <f t="shared" si="25"/>
         <v>70451200</v>
       </c>
       <c r="AN36" s="219">
-        <f>MIN(($S$29/$B$17)*(2^(((AN28 - 14) - $S$28)/HLOOKUP((AN28-14)-$B$25,$S$51:$AR$53,3,TRUE))),AN35)</f>
+        <f t="shared" si="25"/>
         <v>272886000</v>
       </c>
       <c r="AO36" s="188">
-        <f>MIN(($S$29/$B$17)*(2^(((AO28 - 14) - $S$28)/HLOOKUP((AO28-14)-$B$25,$S$51:$AR$53,3,TRUE))),AO35)</f>
+        <f t="shared" si="25"/>
         <v>272886000</v>
       </c>
       <c r="AP36" s="188">
-        <f>MIN(($S$29/$B$17)*(2^(((AP28 - 14) - $S$28)/HLOOKUP((AP28-14)-$B$25,$S$51:$AR$53,3,TRUE))),AP35)</f>
+        <f t="shared" si="25"/>
         <v>272886000</v>
       </c>
       <c r="AQ36" s="189">
-        <f>MIN(($S$29/$B$17)*(2^(((AQ28 - 14) - $S$28)/HLOOKUP((AQ28-14)-$B$25,$S$51:$AR$53,3,TRUE))),AQ35)</f>
+        <f t="shared" si="25"/>
         <v>272886000</v>
       </c>
       <c r="AR36" s="249"/>
@@ -36739,103 +36738,103 @@
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
       <c r="S37" s="198">
-        <f t="shared" ref="S37:AL37" si="22">S29*$B$21</f>
+        <f t="shared" ref="S37:AL37" si="26">S29*$B$21</f>
         <v>25.3125</v>
       </c>
       <c r="T37" s="199">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>50.625</v>
       </c>
       <c r="U37" s="199">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>101.25</v>
       </c>
       <c r="V37" s="199">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>202.5</v>
       </c>
       <c r="W37" s="199">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>405</v>
       </c>
       <c r="X37" s="199">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>810</v>
       </c>
       <c r="Y37" s="199">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1620</v>
       </c>
       <c r="Z37" s="199">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3240</v>
       </c>
       <c r="AA37" s="199">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>6480</v>
       </c>
       <c r="AB37" s="199">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>12960</v>
       </c>
       <c r="AC37" s="199">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>25920</v>
       </c>
       <c r="AD37" s="199">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>51840</v>
       </c>
       <c r="AE37" s="199">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>103680</v>
       </c>
       <c r="AF37" s="199">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>207360</v>
       </c>
       <c r="AG37" s="199">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>414720</v>
       </c>
       <c r="AH37" s="199">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>829440</v>
       </c>
       <c r="AI37" s="199">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1658880</v>
       </c>
       <c r="AJ37" s="199">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3317760</v>
       </c>
       <c r="AK37" s="199">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>6635520</v>
       </c>
       <c r="AL37" s="199">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>13271040</v>
       </c>
       <c r="AM37" s="199">
-        <f t="shared" ref="AM37:AQ37" si="23">AM29*$B$21</f>
+        <f t="shared" ref="AM37:AQ37" si="27">AM29*$B$21</f>
         <v>26542080</v>
       </c>
       <c r="AN37" s="216">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>53084160</v>
       </c>
       <c r="AO37" s="193">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>106168320</v>
       </c>
       <c r="AP37" s="193">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>212336640</v>
       </c>
       <c r="AQ37" s="194">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>221037660</v>
       </c>
       <c r="AR37" s="249">
@@ -36888,83 +36887,83 @@
         <v>395.40582044557635</v>
       </c>
       <c r="X38" s="190">
-        <f>MAX(X37-(($S$29*$B$21)*(2^(((X28 -14) - $S$28)/HLOOKUP((X28-14)-$B$25,$S$51:$AR$53,3,TRUE)))),0)</f>
+        <f t="shared" ref="X38:AQ38" si="28">MAX(X37-(($S$29*$B$21)*(2^(((X28 -14) - $S$28)/HLOOKUP((X28-14)-$B$25,$S$51:$AR$53,3,TRUE)))),0)</f>
         <v>745.3125</v>
       </c>
       <c r="Y38" s="190">
-        <f>MAX(Y37-(($S$29*$B$21)*(2^(((Y28 -14) - $S$28)/HLOOKUP((Y28-14)-$B$25,$S$51:$AR$53,3,TRUE)))),0)</f>
+        <f t="shared" si="28"/>
         <v>1122.0645736639731</v>
       </c>
       <c r="Z38" s="190">
-        <f>MAX(Z37-(($S$29*$B$21)*(2^(((Z28 -14) - $S$28)/HLOOKUP((Z28-14)-$B$25,$S$51:$AR$53,3,TRUE)))),0)</f>
+        <f t="shared" si="28"/>
         <v>1732.1912971035408</v>
       </c>
       <c r="AA38" s="190">
-        <f>MAX(AA37-(($S$29*$B$21)*(2^(((AA28 -14) - $S$28)/HLOOKUP((AA28-14)-$B$25,$S$51:$AR$53,3,TRUE)))),0)</f>
+        <f t="shared" si="28"/>
         <v>908.90638284952001</v>
       </c>
       <c r="AB38" s="190">
-        <f>MAX(AB37-(($S$29*$B$21)*(2^(((AB28 -14) - $S$28)/HLOOKUP((AB28-14)-$B$25,$S$51:$AR$53,3,TRUE)))),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AC38" s="190">
-        <f>MAX(AC37-(($S$29*$B$21)*(2^(((AC28 -14) - $S$28)/HLOOKUP((AC28-14)-$B$25,$S$51:$AR$53,3,TRUE)))),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD38" s="190">
-        <f>MAX(AD37-(($S$29*$B$21)*(2^(((AD28 -14) - $S$28)/HLOOKUP((AD28-14)-$B$25,$S$51:$AR$53,3,TRUE)))),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AE38" s="190">
-        <f>MAX(AE37-(($S$29*$B$21)*(2^(((AE28 -14) - $S$28)/HLOOKUP((AE28-14)-$B$25,$S$51:$AR$53,3,TRUE)))),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AF38" s="190">
-        <f>MAX(AF37-(($S$29*$B$21)*(2^(((AF28 -14) - $S$28)/HLOOKUP((AF28-14)-$B$25,$S$51:$AR$53,3,TRUE)))),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AG38" s="190">
-        <f>MAX(AG37-(($S$29*$B$21)*(2^(((AG28 -14) - $S$28)/HLOOKUP((AG28-14)-$B$25,$S$51:$AR$53,3,TRUE)))),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AH38" s="190">
-        <f>MAX(AH37-(($S$29*$B$21)*(2^(((AH28 -14) - $S$28)/HLOOKUP((AH28-14)-$B$25,$S$51:$AR$53,3,TRUE)))),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AI38" s="190">
-        <f>MAX(AI37-(($S$29*$B$21)*(2^(((AI28 -14) - $S$28)/HLOOKUP((AI28-14)-$B$25,$S$51:$AR$53,3,TRUE)))),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AJ38" s="190">
-        <f>MAX(AJ37-(($S$29*$B$21)*(2^(((AJ28 -14) - $S$28)/HLOOKUP((AJ28-14)-$B$25,$S$51:$AR$53,3,TRUE)))),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AK38" s="190">
-        <f>MAX(AK37-(($S$29*$B$21)*(2^(((AK28 -14) - $S$28)/HLOOKUP((AK28-14)-$B$25,$S$51:$AR$53,3,TRUE)))),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AL38" s="190">
-        <f>MAX(AL37-(($S$29*$B$21)*(2^(((AL28 -14) - $S$28)/HLOOKUP((AL28-14)-$B$25,$S$51:$AR$53,3,TRUE)))),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AM38" s="190">
-        <f>MAX(AM37-(($S$29*$B$21)*(2^(((AM28 -14) - $S$28)/HLOOKUP((AM28-14)-$B$25,$S$51:$AR$53,3,TRUE)))),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AN38" s="219">
-        <f>MAX(AN37-(($S$29*$B$21)*(2^(((AN28 -14) - $S$28)/HLOOKUP((AN28-14)-$B$25,$S$51:$AR$53,3,TRUE)))),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AO38" s="188">
-        <f>MAX(AO37-(($S$29*$B$21)*(2^(((AO28 -14) - $S$28)/HLOOKUP((AO28-14)-$B$25,$S$51:$AR$53,3,TRUE)))),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AP38" s="188">
-        <f>MAX(AP37-(($S$29*$B$21)*(2^(((AP28 -14) - $S$28)/HLOOKUP((AP28-14)-$B$25,$S$51:$AR$53,3,TRUE)))),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AQ38" s="189">
-        <f>MAX(AQ37-(($S$29*$B$21)*(2^(((AQ28 -14) - $S$28)/HLOOKUP((AQ28-14)-$B$25,$S$51:$AR$53,3,TRUE)))),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AR38" s="247"/>
@@ -37006,91 +37005,91 @@
         <v>3.3977928223808966</v>
       </c>
       <c r="V39" s="195">
-        <f>($S$29*($B$22+$B$23))*(2^(((V28-7)-$S$28)/HLOOKUP((V28-7)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" ref="V39:AQ39" si="29">($S$29*($B$22+$B$23))*(2^(((V28-7)-$S$28)/HLOOKUP((V28-7)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
         <v>13.534573150668992</v>
       </c>
       <c r="W39" s="195">
-        <f>($S$29*($B$22+$B$23))*(2^(((W28-7)-$S$28)/HLOOKUP((W28-7)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="29"/>
         <v>28.3625865126495</v>
       </c>
       <c r="X39" s="195">
-        <f>($S$29*($B$22+$B$23))*(2^(((X28-7)-$S$28)/HLOOKUP((X28-7)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="29"/>
         <v>89.088156653802415</v>
       </c>
       <c r="Y39" s="195">
-        <f>($S$29*($B$22+$B$23))*(2^(((Y28-7)-$S$28)/HLOOKUP((Y28-7)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="29"/>
         <v>285.2286756025112</v>
       </c>
       <c r="Z39" s="195">
-        <f>($S$29*($B$22+$B$23))*(2^(((Z28-7)-$S$28)/HLOOKUP((Z28-7)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="29"/>
         <v>547.48150861902241</v>
       </c>
       <c r="AA39" s="195">
-        <f>($S$29*($B$22+$B$23))*(2^(((AA28-7)-$S$28)/HLOOKUP((AA28-7)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="29"/>
         <v>2006.5557851506962</v>
       </c>
       <c r="AB39" s="195">
-        <f>($S$29*($B$22+$B$23))*(2^(((AB28-7)-$S$28)/HLOOKUP((AB28-7)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="29"/>
         <v>9417.9493258412858</v>
       </c>
       <c r="AC39" s="195">
-        <f>($S$29*($B$22+$B$23))*(2^(((AC28-7)-$S$28)/HLOOKUP((AC28-7)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="29"/>
         <v>20625.664347928399</v>
       </c>
       <c r="AD39" s="195">
-        <f>($S$29*($B$22+$B$23))*(2^(((AD28-7)-$S$28)/HLOOKUP((AD28-7)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="29"/>
         <v>33962.570261260051</v>
       </c>
       <c r="AE39" s="195">
-        <f>($S$29*($B$22+$B$23))*(2^(((AE28-7)-$S$28)/HLOOKUP((AE28-7)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="29"/>
         <v>102710.09612911714</v>
       </c>
       <c r="AF39" s="195">
-        <f>($S$29*($B$22+$B$23))*(2^(((AF28-7)-$S$28)/HLOOKUP((AF28-7)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="29"/>
         <v>205105.42154890808</v>
       </c>
       <c r="AG39" s="195">
-        <f>($S$29*($B$22+$B$23))*(2^(((AG28-7)-$S$28)/HLOOKUP((AG28-7)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="29"/>
         <v>765558.30861852656</v>
       </c>
       <c r="AH39" s="195">
-        <f>($S$29*($B$22+$B$23))*(2^(((AH28-7)-$S$28)/HLOOKUP((AH28-7)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="29"/>
         <v>2003525.6465973882</v>
       </c>
       <c r="AI39" s="195">
-        <f>($S$29*($B$22+$B$23))*(2^(((AI28-7)-$S$28)/HLOOKUP((AI28-7)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="29"/>
         <v>4306336.4941211781</v>
       </c>
       <c r="AJ39" s="195">
-        <f>($S$29*($B$22+$B$23))*(2^(((AJ28-7)-$S$28)/HLOOKUP((AJ28-7)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="29"/>
         <v>8371411.3931360245</v>
       </c>
       <c r="AK39" s="195">
-        <f>($S$29*($B$22+$B$23))*(2^(((AK28-7)-$S$28)/HLOOKUP((AK28-7)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="29"/>
         <v>15593364.950985298</v>
       </c>
       <c r="AL39" s="195">
-        <f>($S$29*($B$22+$B$23))*(2^(((AL28-7)-$S$28)/HLOOKUP((AL28-7)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="29"/>
         <v>28625158.337007474</v>
       </c>
       <c r="AM39" s="195">
-        <f>($S$29*($B$22+$B$23))*(2^(((AM28-7)-$S$28)/HLOOKUP((AM28-7)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="29"/>
         <v>52466276.038487814</v>
       </c>
       <c r="AN39" s="216">
-        <f>($S$29*($B$22+$B$23))*(2^(((AN28-7)-$S$28)/HLOOKUP((AN28-7)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="29"/>
         <v>96560250.693191111</v>
       </c>
       <c r="AO39" s="193">
-        <f>($S$29*($B$22+$B$23))*(2^(((AO28-7)-$S$28)/HLOOKUP((AO28-7)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="29"/>
         <v>141635598.10149309</v>
       </c>
       <c r="AP39" s="193">
-        <f>($S$29*($B$22+$B$23))*(2^(((AP28-7)-$S$28)/HLOOKUP((AP28-7)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="29"/>
         <v>226406854.73546895</v>
       </c>
       <c r="AQ39" s="194">
-        <f>($S$29*($B$22+$B$23))*(2^(((AQ28-7)-$S$28)/HLOOKUP((AQ28-7)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="29"/>
         <v>382214704.42521995</v>
       </c>
       <c r="AR39" s="247">
@@ -37123,103 +37122,103 @@
       <c r="Q40" s="39"/>
       <c r="R40" s="63"/>
       <c r="S40" s="191">
-        <f t="shared" ref="S40:Z40" si="24">S39</f>
+        <f t="shared" ref="S40:Z40" si="30">S39</f>
         <v>0.28686269321064994</v>
       </c>
       <c r="T40" s="192">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.98726896031425992</v>
       </c>
       <c r="U40" s="192">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>3.3977928223808966</v>
       </c>
       <c r="V40" s="192">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>13.534573150668992</v>
       </c>
       <c r="W40" s="192">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>28.3625865126495</v>
       </c>
       <c r="X40" s="192">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>89.088156653802415</v>
       </c>
       <c r="Y40" s="192">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>285.2286756025112</v>
       </c>
       <c r="Z40" s="192">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>547.48150861902241</v>
       </c>
       <c r="AA40" s="185">
-        <f>MAX(AA39-($S$29*$B$22)*(2^(((AA28 - 42) - $S$28)/HLOOKUP((AA28-42)-$B$25,$S$51:$AR$53,3,TRUE)))-AA42,0)</f>
+        <f t="shared" ref="AA40:AQ40" si="31">MAX(AA39-($S$29*$B$22)*(2^(((AA28 - 42) - $S$28)/HLOOKUP((AA28-42)-$B$25,$S$51:$AR$53,3,TRUE)))-AA42,0)</f>
         <v>1674.924813620803</v>
       </c>
       <c r="AB40" s="185">
-        <f>MAX(AB39-($S$29*$B$22)*(2^(((AB28 - 42) - $S$28)/HLOOKUP((AB28-42)-$B$25,$S$51:$AR$53,3,TRUE)))-AB42,0)</f>
+        <f t="shared" si="31"/>
         <v>8072.3760871510385</v>
       </c>
       <c r="AC40" s="185">
-        <f>MAX(AC39-($S$29*$B$22)*(2^(((AC28 - 42) - $S$28)/HLOOKUP((AC28-42)-$B$25,$S$51:$AR$53,3,TRUE)))-AC42,0)</f>
+        <f t="shared" si="31"/>
         <v>17641.788773472537</v>
       </c>
       <c r="AD40" s="185">
-        <f>MAX(AD39-($S$29*$B$22)*(2^(((AD28 - 42) - $S$28)/HLOOKUP((AD28-42)-$B$25,$S$51:$AR$53,3,TRUE)))-AD42,0)</f>
+        <f t="shared" si="31"/>
         <v>26802.688398998784</v>
       </c>
       <c r="AE40" s="185">
-        <f>MAX(AE39-($S$29*$B$22)*(2^(((AE28 - 42) - $S$28)/HLOOKUP((AE28-42)-$B$25,$S$51:$AR$53,3,TRUE)))-AE42,0)</f>
+        <f t="shared" si="31"/>
         <v>60651.770591143701</v>
       </c>
       <c r="AF40" s="185">
-        <f>MAX(AF39-($S$29*$B$22)*(2^(((AF28 - 42) - $S$28)/HLOOKUP((AF28-42)-$B$25,$S$51:$AR$53,3,TRUE)))-AF42,0)</f>
+        <f t="shared" si="31"/>
         <v>157902.98565180902</v>
       </c>
       <c r="AG40" s="185">
-        <f>MAX(AG39-($S$29*$B$22)*(2^(((AG28 - 42) - $S$28)/HLOOKUP((AG28-42)-$B$25,$S$51:$AR$53,3,TRUE)))-AG42,0)</f>
+        <f t="shared" si="31"/>
         <v>564098.56288793497</v>
       </c>
       <c r="AH40" s="185">
-        <f>MAX(AH39-($S$29*$B$22)*(2^(((AH28 - 42) - $S$28)/HLOOKUP((AH28-42)-$B$25,$S$51:$AR$53,3,TRUE)))-AH42,0)</f>
+        <f t="shared" si="31"/>
         <v>1389598.7401048646</v>
       </c>
       <c r="AI40" s="185">
-        <f>MAX(AI39-($S$29*$B$22)*(2^(((AI28 - 42) - $S$28)/HLOOKUP((AI28-42)-$B$25,$S$51:$AR$53,3,TRUE)))-AI42,0)</f>
+        <f t="shared" si="31"/>
         <v>2789659.6243944252</v>
       </c>
       <c r="AJ40" s="185">
-        <f>MAX(AJ39-($S$29*$B$22)*(2^(((AJ28 - 42) - $S$28)/HLOOKUP((AJ28-42)-$B$25,$S$51:$AR$53,3,TRUE)))-AJ42,0)</f>
+        <f t="shared" si="31"/>
         <v>5058674.7433648538</v>
       </c>
       <c r="AK40" s="185">
-        <f>MAX(AK39-($S$29*$B$22)*(2^(((AK28 - 42) - $S$28)/HLOOKUP((AK28-42)-$B$25,$S$51:$AR$53,3,TRUE)))-AK42,0)</f>
+        <f t="shared" si="31"/>
         <v>8815399.7943230644</v>
       </c>
       <c r="AL40" s="185">
-        <f>MAX(AL39-($S$29*$B$22)*(2^(((AL28 - 42) - $S$28)/HLOOKUP((AL28-42)-$B$25,$S$51:$AR$53,3,TRUE)))-AL42,0)</f>
+        <f t="shared" si="31"/>
         <v>15216082.044455487</v>
       </c>
       <c r="AM40" s="185">
-        <f>MAX(AM39-($S$29*$B$22)*(2^(((AM28 - 42) - $S$28)/HLOOKUP((AM28-42)-$B$25,$S$51:$AR$53,3,TRUE)))-AM42,0)</f>
+        <f t="shared" si="31"/>
         <v>26375950.374541938</v>
       </c>
       <c r="AN40" s="219">
-        <f>MAX(AN39-($S$29*$B$22)*(2^(((AN28 - 42) - $S$28)/HLOOKUP((AN28-42)-$B$25,$S$51:$AR$53,3,TRUE)))-AN42,0)</f>
+        <f t="shared" si="31"/>
         <v>46176458.33005251</v>
       </c>
       <c r="AO40" s="188">
-        <f>MAX(AO39-($S$29*$B$22)*(2^(((AO28 - 42) - $S$28)/HLOOKUP((AO28-42)-$B$25,$S$51:$AR$53,3,TRUE)))-AO42,0)</f>
+        <f t="shared" si="31"/>
         <v>64781207.510700889</v>
       </c>
       <c r="AP40" s="188">
-        <f>MAX(AP39-($S$29*$B$22)*(2^(((AP28 - 42) - $S$28)/HLOOKUP((AP28-42)-$B$25,$S$51:$AR$53,3,TRUE)))-AP42,0)</f>
+        <f t="shared" si="31"/>
         <v>99982376.980221272</v>
       </c>
       <c r="AQ40" s="189">
-        <f>MAX(AQ39-($S$29*$B$22)*(2^(((AQ28 - 42) - $S$28)/HLOOKUP((AQ28-42)-$B$25,$S$51:$AR$53,3,TRUE)))-AQ42,0)</f>
+        <f t="shared" si="31"/>
         <v>164067312.61497679</v>
       </c>
       <c r="AR40" s="249"/>
@@ -37269,83 +37268,83 @@
         <v>0.59223330582862133</v>
       </c>
       <c r="X41" s="195">
-        <f>($S$29*$B$23)*(2^(((X28 - 14) - $S$28)/HLOOKUP((X28-14)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" ref="X41:AQ41" si="32">($S$29*$B$23)*(2^(((X28 - 14) - $S$28)/HLOOKUP((X28-14)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
         <v>3.9930555555555554</v>
       </c>
       <c r="Y41" s="195">
-        <f>($S$29*$B$23)*(2^(((Y28 - 14) - $S$28)/HLOOKUP((Y28-14)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="32"/>
         <v>30.736754712100428</v>
       </c>
       <c r="Z41" s="195">
-        <f>($S$29*$B$23)*(2^(((Z28 - 14) - $S$28)/HLOOKUP((Z28-14)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="32"/>
         <v>93.07461128990488</v>
       </c>
       <c r="AA41" s="195">
-        <f>($S$29*$B$23)*(2^(((AA28 - 14) - $S$28)/HLOOKUP((AA28-14)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="32"/>
         <v>343.89466772533825</v>
       </c>
       <c r="AB41" s="195">
-        <f>($S$29*$B$23)*(2^(((AB28 - 14) - $S$28)/HLOOKUP((AB28-14)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="32"/>
         <v>1018.4114787738645</v>
       </c>
       <c r="AC41" s="195">
-        <f>($S$29*$B$23)*(2^(((AC28 - 14) - $S$28)/HLOOKUP((AC28-14)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="32"/>
         <v>2728.9922227359043</v>
       </c>
       <c r="AD41" s="195">
-        <f>($S$29*$B$23)*(2^(((AD28 - 14) - $S$28)/HLOOKUP((AD28-14)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="32"/>
         <v>5153.5901342039142</v>
       </c>
       <c r="AE41" s="195">
-        <f>($S$29*$B$23)*(2^(((AE28 - 14) - $S$28)/HLOOKUP((AE28-14)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="32"/>
         <v>16983.201494721376</v>
       </c>
       <c r="AF41" s="195">
-        <f>($S$29*$B$23)*(2^(((AF28 - 14) - $S$28)/HLOOKUP((AF28-14)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="32"/>
         <v>36727.410470738883</v>
       </c>
       <c r="AG41" s="195">
-        <f>($S$29*$B$23)*(2^(((AG28 - 14) - $S$28)/HLOOKUP((AG28-14)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="32"/>
         <v>145479.20281499039</v>
       </c>
       <c r="AH41" s="195">
-        <f>($S$29*$B$23)*(2^(((AH28 - 14) - $S$28)/HLOOKUP((AH28-14)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="32"/>
         <v>404427.48038628208</v>
       </c>
       <c r="AI41" s="195">
-        <f>($S$29*$B$23)*(2^(((AI28 - 14) - $S$28)/HLOOKUP((AI28-14)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="32"/>
         <v>913853.72887607827</v>
       </c>
       <c r="AJ41" s="195">
-        <f>($S$29*$B$23)*(2^(((AJ28 - 14) - $S$28)/HLOOKUP((AJ28-14)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="32"/>
         <v>1846816.2645209867</v>
       </c>
       <c r="AK41" s="195">
-        <f>($S$29*$B$23)*(2^(((AK28 - 14) - $S$28)/HLOOKUP((AK28-14)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="32"/>
         <v>3543383.4842803576</v>
       </c>
       <c r="AL41" s="195">
-        <f>($S$29*$B$23)*(2^(((AL28 - 14) - $S$28)/HLOOKUP((AL28-14)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="32"/>
         <v>6653772.9355044952</v>
       </c>
       <c r="AM41" s="195">
-        <f>($S$29*$B$23)*(2^(((AM28 - 14) - $S$28)/HLOOKUP((AM28-14)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="32"/>
         <v>12411726.407515861</v>
       </c>
       <c r="AN41" s="216">
-        <f>($S$29*$B$23)*(2^(((AN28 - 14) - $S$28)/HLOOKUP((AN28-14)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="32"/>
         <v>23161192.158848606</v>
       </c>
       <c r="AO41" s="193">
-        <f>($S$29*$B$23)*(2^(((AO28 - 14) - $S$28)/HLOOKUP((AO28-14)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="32"/>
         <v>34351371.986808226</v>
       </c>
       <c r="AP41" s="193">
-        <f>($S$29*$B$23)*(2^(((AP28 - 14) - $S$28)/HLOOKUP((AP28-14)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="32"/>
         <v>55352430.687872976</v>
       </c>
       <c r="AQ41" s="194">
-        <f>($S$29*$B$23)*(2^(((AQ28 - 14) - $S$28)/HLOOKUP((AQ28-14)-$B$25,$S$51:$AR$53,3,TRUE)))</f>
+        <f t="shared" si="32"/>
         <v>94012049.945155933</v>
       </c>
       <c r="AR41" s="247">
@@ -37378,103 +37377,103 @@
       <c r="Q42" s="39"/>
       <c r="R42" s="63"/>
       <c r="S42" s="191">
-        <f t="shared" ref="S42:Z42" si="25">S41</f>
+        <f t="shared" ref="S42:Z42" si="33">S41</f>
         <v>4.2213093647310721E-3</v>
       </c>
       <c r="T42" s="192">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>1.4528092381195599E-2</v>
       </c>
       <c r="U42" s="192">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0.05</v>
       </c>
       <c r="V42" s="192">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0.17208040356598153</v>
       </c>
       <c r="W42" s="192">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0.59223330582862133</v>
       </c>
       <c r="X42" s="192">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>3.9930555555555554</v>
       </c>
       <c r="Y42" s="192">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>30.736754712100428</v>
       </c>
       <c r="Z42" s="192">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>93.07461128990488</v>
       </c>
       <c r="AA42" s="190">
-        <f>MAX(AA41-($S$29*$B$23)*(2^(((AA28 - 35) - $S$28)/HLOOKUP((AA28-35)-$B$25,$S$51:$AR$53,3,TRUE))),0)</f>
+        <f t="shared" ref="AA42:AQ42" si="34">MAX(AA41-($S$29*$B$23)*(2^(((AA28 - 35) - $S$28)/HLOOKUP((AA28-35)-$B$25,$S$51:$AR$53,3,TRUE))),0)</f>
         <v>320.4504159743376</v>
       </c>
       <c r="AB42" s="190">
-        <f>MAX(AB41-($S$29*$B$23)*(2^(((AB28 - 35) - $S$28)/HLOOKUP((AB28-35)-$B$25,$S$51:$AR$53,3,TRUE))),0)</f>
+        <f t="shared" si="34"/>
         <v>729.43830668965529</v>
       </c>
       <c r="AC42" s="190">
-        <f>MAX(AC41-($S$29*$B$23)*(2^(((AC28 - 35) - $S$28)/HLOOKUP((AC28-35)-$B$25,$S$51:$AR$53,3,TRUE))),0)</f>
+        <f t="shared" si="34"/>
         <v>1036.0689828936206</v>
       </c>
       <c r="AD42" s="190">
-        <f>MAX(AD41-($S$29*$B$23)*(2^(((AD28 - 35) - $S$28)/HLOOKUP((AD28-35)-$B$25,$S$51:$AR$53,3,TRUE))),0)</f>
+        <f t="shared" si="34"/>
         <v>233.60198927838155</v>
       </c>
       <c r="AE42" s="190">
-        <f>MAX(AE41-($S$29*$B$23)*(2^(((AE28 - 35) - $S$28)/HLOOKUP((AE28-35)-$B$25,$S$51:$AR$53,3,TRUE))),0)</f>
+        <f t="shared" si="34"/>
         <v>12770.219220985375</v>
       </c>
       <c r="AF42" s="190">
-        <f>MAX(AF41-($S$29*$B$23)*(2^(((AF28 - 35) - $S$28)/HLOOKUP((AF28-35)-$B$25,$S$51:$AR$53,3,TRUE))),0)</f>
+        <f t="shared" si="34"/>
         <v>25156.151746698437</v>
       </c>
       <c r="AG42" s="190">
-        <f>MAX(AG41-($S$29*$B$23)*(2^(((AG28 - 35) - $S$28)/HLOOKUP((AG28-35)-$B$25,$S$51:$AR$53,3,TRUE))),0)</f>
+        <f t="shared" si="34"/>
         <v>90699.506868370168</v>
       </c>
       <c r="AH42" s="190">
-        <f>MAX(AH41-($S$29*$B$23)*(2^(((AH28 - 35) - $S$28)/HLOOKUP((AH28-35)-$B$25,$S$51:$AR$53,3,TRUE))),0)</f>
+        <f t="shared" si="34"/>
         <v>221899.8135230754</v>
       </c>
       <c r="AI42" s="190">
-        <f>MAX(AI41-($S$29*$B$23)*(2^(((AI28 - 35) - $S$28)/HLOOKUP((AI28-35)-$B$25,$S$51:$AR$53,3,TRUE))),0)</f>
+        <f t="shared" si="34"/>
         <v>434635.1398961349</v>
       </c>
       <c r="AJ42" s="190">
-        <f>MAX(AJ41-($S$29*$B$23)*(2^(((AJ28 - 35) - $S$28)/HLOOKUP((AJ28-35)-$B$25,$S$51:$AR$53,3,TRUE))),0)</f>
+        <f t="shared" si="34"/>
         <v>758764.64950852818</v>
       </c>
       <c r="AK42" s="190">
-        <f>MAX(AK41-($S$29*$B$23)*(2^(((AK28 - 35) - $S$28)/HLOOKUP((AK28-35)-$B$25,$S$51:$AR$53,3,TRUE))),0)</f>
+        <f t="shared" si="34"/>
         <v>1261970.6194742536</v>
       </c>
       <c r="AL42" s="190">
-        <f>MAX(AL41-($S$29*$B$23)*(2^(((AL28 - 35) - $S$28)/HLOOKUP((AL28-35)-$B$25,$S$51:$AR$53,3,TRUE))),0)</f>
+        <f t="shared" si="34"/>
         <v>2068354.1928532608</v>
       </c>
       <c r="AM42" s="190">
-        <f>MAX(AM41-($S$29*$B$23)*(2^(((AM28 - 35) - $S$28)/HLOOKUP((AM28-35)-$B$25,$S$51:$AR$53,3,TRUE))),0)</f>
+        <f t="shared" si="34"/>
         <v>3395208.5816982165</v>
       </c>
       <c r="AN42" s="219">
-        <f>MAX(AN41-($S$29*$B$23)*(2^(((AN28 - 35) - $S$28)/HLOOKUP((AN28-35)-$B$25,$S$51:$AR$53,3,TRUE))),0)</f>
+        <f t="shared" si="34"/>
         <v>5622416.420122765</v>
       </c>
       <c r="AO42" s="188">
-        <f>MAX(AO41-($S$29*$B$23)*(2^(((AO28 - 35) - $S$28)/HLOOKUP((AO28-35)-$B$25,$S$51:$AR$53,3,TRUE))),0)</f>
+        <f t="shared" si="34"/>
         <v>7460190.9276488647</v>
       </c>
       <c r="AP42" s="188">
-        <f>MAX(AP41-($S$29*$B$23)*(2^(((AP28 - 35) - $S$28)/HLOOKUP((AP28-35)-$B$25,$S$51:$AR$53,3,TRUE))),0)</f>
+        <f t="shared" si="34"/>
         <v>10968183.051949099</v>
       </c>
       <c r="AQ42" s="189">
-        <f>MAX(AQ41-($S$29*$B$23)*(2^(((AQ28 - 35) - $S$28)/HLOOKUP((AQ28-35)-$B$25,$S$51:$AR$53,3,TRUE))),0)</f>
+        <f t="shared" si="34"/>
         <v>17247146.639956117</v>
       </c>
       <c r="AR42" s="247"/>
@@ -37504,103 +37503,103 @@
       <c r="Q43" s="16"/>
       <c r="R43" s="16"/>
       <c r="S43" s="207">
-        <f t="shared" ref="S43:AL43" si="26">S29*$B$24</f>
+        <f t="shared" ref="S43:AL43" si="35">S29*$B$24</f>
         <v>0.984375</v>
       </c>
       <c r="T43" s="208">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>1.96875</v>
       </c>
       <c r="U43" s="208">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>3.9375</v>
       </c>
       <c r="V43" s="208">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>7.875</v>
       </c>
       <c r="W43" s="208">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>15.75</v>
       </c>
       <c r="X43" s="208">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>31.5</v>
       </c>
       <c r="Y43" s="208">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>63</v>
       </c>
       <c r="Z43" s="208">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>126</v>
       </c>
       <c r="AA43" s="208">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>252</v>
       </c>
       <c r="AB43" s="208">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>504</v>
       </c>
       <c r="AC43" s="208">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>1008</v>
       </c>
       <c r="AD43" s="208">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>2016</v>
       </c>
       <c r="AE43" s="208">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>4032</v>
       </c>
       <c r="AF43" s="208">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>8064</v>
       </c>
       <c r="AG43" s="208">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>16128</v>
       </c>
       <c r="AH43" s="208">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>32256</v>
       </c>
       <c r="AI43" s="208">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>64512</v>
       </c>
       <c r="AJ43" s="208">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>129024</v>
       </c>
       <c r="AK43" s="208">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>258048</v>
       </c>
       <c r="AL43" s="208">
-        <f t="shared" si="26"/>
+        <f t="shared" si="35"/>
         <v>516096</v>
       </c>
       <c r="AM43" s="208">
-        <f t="shared" ref="AM43:AQ43" si="27">AM29*$B$24</f>
+        <f t="shared" ref="AM43:AQ43" si="36">AM29*$B$24</f>
         <v>1032192</v>
       </c>
       <c r="AN43" s="218">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>2064384</v>
       </c>
       <c r="AO43" s="186">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>4128768</v>
       </c>
       <c r="AP43" s="186">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8257536</v>
       </c>
       <c r="AQ43" s="187">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>8595909</v>
       </c>
       <c r="AR43" s="247">
@@ -37633,83 +37632,83 @@
       <c r="Q44" s="47"/>
       <c r="R44" s="47"/>
       <c r="S44" s="142">
-        <f>S28-7</f>
+        <f t="shared" ref="S44:AL44" si="37">S28-7</f>
         <v>43893</v>
       </c>
       <c r="T44" s="142">
-        <f>T28-7</f>
+        <f t="shared" si="37"/>
         <v>43896</v>
       </c>
       <c r="U44" s="142">
-        <f>U28-7</f>
+        <f t="shared" si="37"/>
         <v>43899</v>
       </c>
       <c r="V44" s="142">
-        <f>V28-7</f>
+        <f t="shared" si="37"/>
         <v>43902</v>
       </c>
       <c r="W44" s="142">
-        <f>W28-7</f>
+        <f t="shared" si="37"/>
         <v>43905</v>
       </c>
       <c r="X44" s="142">
-        <f>X28-7</f>
+        <f t="shared" si="37"/>
         <v>43910</v>
       </c>
       <c r="Y44" s="142">
-        <f>Y28-7</f>
+        <f t="shared" si="37"/>
         <v>43918</v>
       </c>
       <c r="Z44" s="142">
-        <f>Z28-7</f>
+        <f t="shared" si="37"/>
         <v>43926</v>
       </c>
       <c r="AA44" s="142">
-        <f>AA28-7</f>
+        <f t="shared" si="37"/>
         <v>43938</v>
       </c>
       <c r="AB44" s="142">
-        <f>AB28-7</f>
+        <f t="shared" si="37"/>
         <v>43958</v>
       </c>
       <c r="AC44" s="142">
-        <f>AC28-7</f>
+        <f t="shared" si="37"/>
         <v>43983</v>
       </c>
       <c r="AD44" s="142">
-        <f>AD28-7</f>
+        <f t="shared" si="37"/>
         <v>44010</v>
       </c>
       <c r="AE44" s="142">
-        <f>AE28-7</f>
+        <f t="shared" si="37"/>
         <v>44047</v>
       </c>
       <c r="AF44" s="142">
-        <f>AF28-7</f>
+        <f t="shared" si="37"/>
         <v>44090</v>
       </c>
       <c r="AG44" s="142">
-        <f>AG28-7</f>
+        <f t="shared" si="37"/>
         <v>44153</v>
       </c>
       <c r="AH44" s="142">
-        <f>AH28-7</f>
+        <f t="shared" si="37"/>
         <v>44236</v>
       </c>
       <c r="AI44" s="142">
-        <f>AI28-7</f>
+        <f t="shared" si="37"/>
         <v>44339</v>
       </c>
       <c r="AJ44" s="142">
-        <f>AJ28-7</f>
+        <f t="shared" si="37"/>
         <v>44462</v>
       </c>
       <c r="AK44" s="142">
-        <f>AK28-7</f>
+        <f t="shared" si="37"/>
         <v>44605</v>
       </c>
       <c r="AL44" s="142">
-        <f>AL28-7</f>
+        <f t="shared" si="37"/>
         <v>44768</v>
       </c>
       <c r="AM44" s="142"/>
@@ -37743,83 +37742,83 @@
       <c r="Q45" s="47"/>
       <c r="R45" s="47"/>
       <c r="S45" s="142">
-        <f>S28-14</f>
+        <f t="shared" ref="S45:AL45" si="38">S28-14</f>
         <v>43886</v>
       </c>
       <c r="T45" s="142">
-        <f>T28-14</f>
+        <f t="shared" si="38"/>
         <v>43889</v>
       </c>
       <c r="U45" s="142">
-        <f>U28-14</f>
+        <f t="shared" si="38"/>
         <v>43892</v>
       </c>
       <c r="V45" s="142">
-        <f>V28-14</f>
+        <f t="shared" si="38"/>
         <v>43895</v>
       </c>
       <c r="W45" s="142">
-        <f>W28-14</f>
+        <f t="shared" si="38"/>
         <v>43898</v>
       </c>
       <c r="X45" s="142">
-        <f>X28-14</f>
+        <f t="shared" si="38"/>
         <v>43903</v>
       </c>
       <c r="Y45" s="142">
-        <f>Y28-14</f>
+        <f t="shared" si="38"/>
         <v>43911</v>
       </c>
       <c r="Z45" s="142">
-        <f>Z28-14</f>
+        <f t="shared" si="38"/>
         <v>43919</v>
       </c>
       <c r="AA45" s="142">
-        <f>AA28-14</f>
+        <f t="shared" si="38"/>
         <v>43931</v>
       </c>
       <c r="AB45" s="142">
-        <f>AB28-14</f>
+        <f t="shared" si="38"/>
         <v>43951</v>
       </c>
       <c r="AC45" s="142">
-        <f>AC28-14</f>
+        <f t="shared" si="38"/>
         <v>43976</v>
       </c>
       <c r="AD45" s="142">
-        <f>AD28-14</f>
+        <f t="shared" si="38"/>
         <v>44003</v>
       </c>
       <c r="AE45" s="142">
-        <f>AE28-14</f>
+        <f t="shared" si="38"/>
         <v>44040</v>
       </c>
       <c r="AF45" s="142">
-        <f>AF28-14</f>
+        <f t="shared" si="38"/>
         <v>44083</v>
       </c>
       <c r="AG45" s="142">
-        <f>AG28-14</f>
+        <f t="shared" si="38"/>
         <v>44146</v>
       </c>
       <c r="AH45" s="142">
-        <f>AH28-14</f>
+        <f t="shared" si="38"/>
         <v>44229</v>
       </c>
       <c r="AI45" s="142">
-        <f>AI28-14</f>
+        <f t="shared" si="38"/>
         <v>44332</v>
       </c>
       <c r="AJ45" s="142">
-        <f>AJ28-14</f>
+        <f t="shared" si="38"/>
         <v>44455</v>
       </c>
       <c r="AK45" s="142">
-        <f>AK28-14</f>
+        <f t="shared" si="38"/>
         <v>44598</v>
       </c>
       <c r="AL45" s="142">
-        <f>AL28-14</f>
+        <f t="shared" si="38"/>
         <v>44761</v>
       </c>
       <c r="AM45" s="142"/>
@@ -37853,83 +37852,83 @@
       <c r="Q46" s="47"/>
       <c r="R46" s="47"/>
       <c r="S46" s="142">
-        <f>S28-(7*5)</f>
+        <f t="shared" ref="S46:AL46" si="39">S28-(7*5)</f>
         <v>43865</v>
       </c>
       <c r="T46" s="142">
-        <f>T28-(7*5)</f>
+        <f t="shared" si="39"/>
         <v>43868</v>
       </c>
       <c r="U46" s="142">
-        <f>U28-(7*5)</f>
+        <f t="shared" si="39"/>
         <v>43871</v>
       </c>
       <c r="V46" s="142">
-        <f>V28-(7*5)</f>
+        <f t="shared" si="39"/>
         <v>43874</v>
       </c>
       <c r="W46" s="142">
-        <f>W28-(7*5)</f>
+        <f t="shared" si="39"/>
         <v>43877</v>
       </c>
       <c r="X46" s="142">
-        <f>X28-(7*5)</f>
+        <f t="shared" si="39"/>
         <v>43882</v>
       </c>
       <c r="Y46" s="142">
-        <f>Y28-(7*5)</f>
+        <f t="shared" si="39"/>
         <v>43890</v>
       </c>
       <c r="Z46" s="142">
-        <f>Z28-(7*5)</f>
+        <f t="shared" si="39"/>
         <v>43898</v>
       </c>
       <c r="AA46" s="142">
-        <f>AA28-(7*5)</f>
+        <f t="shared" si="39"/>
         <v>43910</v>
       </c>
       <c r="AB46" s="142">
-        <f>AB28-(7*5)</f>
+        <f t="shared" si="39"/>
         <v>43930</v>
       </c>
       <c r="AC46" s="142">
-        <f>AC28-(7*5)</f>
+        <f t="shared" si="39"/>
         <v>43955</v>
       </c>
       <c r="AD46" s="142">
-        <f>AD28-(7*5)</f>
+        <f t="shared" si="39"/>
         <v>43982</v>
       </c>
       <c r="AE46" s="142">
-        <f>AE28-(7*5)</f>
+        <f t="shared" si="39"/>
         <v>44019</v>
       </c>
       <c r="AF46" s="142">
-        <f>AF28-(7*5)</f>
+        <f t="shared" si="39"/>
         <v>44062</v>
       </c>
       <c r="AG46" s="142">
-        <f>AG28-(7*5)</f>
+        <f t="shared" si="39"/>
         <v>44125</v>
       </c>
       <c r="AH46" s="142">
-        <f>AH28-(7*5)</f>
+        <f t="shared" si="39"/>
         <v>44208</v>
       </c>
       <c r="AI46" s="142">
-        <f>AI28-(7*5)</f>
+        <f t="shared" si="39"/>
         <v>44311</v>
       </c>
       <c r="AJ46" s="142">
-        <f>AJ28-(7*5)</f>
+        <f t="shared" si="39"/>
         <v>44434</v>
       </c>
       <c r="AK46" s="142">
-        <f>AK28-(7*5)</f>
+        <f t="shared" si="39"/>
         <v>44577</v>
       </c>
       <c r="AL46" s="142">
-        <f>AL28-(7*5)</f>
+        <f t="shared" si="39"/>
         <v>44740</v>
       </c>
       <c r="AM46" s="142"/>
@@ -37963,83 +37962,83 @@
       <c r="Q47" s="47"/>
       <c r="R47" s="47"/>
       <c r="S47" s="142">
-        <f>S28-(6*7)</f>
+        <f t="shared" ref="S47:AL47" si="40">S28-(6*7)</f>
         <v>43858</v>
       </c>
       <c r="T47" s="142">
-        <f>T28-(6*7)</f>
+        <f t="shared" si="40"/>
         <v>43861</v>
       </c>
       <c r="U47" s="142">
-        <f>U28-(6*7)</f>
+        <f t="shared" si="40"/>
         <v>43864</v>
       </c>
       <c r="V47" s="142">
-        <f>V28-(6*7)</f>
+        <f t="shared" si="40"/>
         <v>43867</v>
       </c>
       <c r="W47" s="142">
-        <f>W28-(6*7)</f>
+        <f t="shared" si="40"/>
         <v>43870</v>
       </c>
       <c r="X47" s="142">
-        <f>X28-(6*7)</f>
+        <f t="shared" si="40"/>
         <v>43875</v>
       </c>
       <c r="Y47" s="142">
-        <f>Y28-(6*7)</f>
+        <f t="shared" si="40"/>
         <v>43883</v>
       </c>
       <c r="Z47" s="142">
-        <f>Z28-(6*7)</f>
+        <f t="shared" si="40"/>
         <v>43891</v>
       </c>
       <c r="AA47" s="142">
-        <f>AA28-(6*7)</f>
+        <f t="shared" si="40"/>
         <v>43903</v>
       </c>
       <c r="AB47" s="142">
-        <f>AB28-(6*7)</f>
+        <f t="shared" si="40"/>
         <v>43923</v>
       </c>
       <c r="AC47" s="142">
-        <f>AC28-(6*7)</f>
+        <f t="shared" si="40"/>
         <v>43948</v>
       </c>
       <c r="AD47" s="142">
-        <f>AD28-(6*7)</f>
+        <f t="shared" si="40"/>
         <v>43975</v>
       </c>
       <c r="AE47" s="142">
-        <f>AE28-(6*7)</f>
+        <f t="shared" si="40"/>
         <v>44012</v>
       </c>
       <c r="AF47" s="142">
-        <f>AF28-(6*7)</f>
+        <f t="shared" si="40"/>
         <v>44055</v>
       </c>
       <c r="AG47" s="142">
-        <f>AG28-(6*7)</f>
+        <f t="shared" si="40"/>
         <v>44118</v>
       </c>
       <c r="AH47" s="142">
-        <f>AH28-(6*7)</f>
+        <f t="shared" si="40"/>
         <v>44201</v>
       </c>
       <c r="AI47" s="142">
-        <f>AI28-(6*7)</f>
+        <f t="shared" si="40"/>
         <v>44304</v>
       </c>
       <c r="AJ47" s="142">
-        <f>AJ28-(6*7)</f>
+        <f t="shared" si="40"/>
         <v>44427</v>
       </c>
       <c r="AK47" s="142">
-        <f>AK28-(6*7)</f>
+        <f t="shared" si="40"/>
         <v>44570</v>
       </c>
       <c r="AL47" s="142">
-        <f>AL28-(6*7)</f>
+        <f t="shared" si="40"/>
         <v>44733</v>
       </c>
       <c r="AM47" s="142"/>
@@ -38095,107 +38094,107 @@
       <c r="Q50" s="47"/>
       <c r="R50" s="47"/>
       <c r="S50" s="228">
-        <f>(S28-$B$25)/7</f>
+        <f t="shared" ref="S50:AR50" si="41">(S28-$B$25)/7</f>
         <v>1.1428571428571428</v>
       </c>
       <c r="T50" s="137">
-        <f>(T28-$B$25)/7</f>
+        <f t="shared" si="41"/>
         <v>1.5714285714285714</v>
       </c>
       <c r="U50" s="140">
-        <f>(U28-$B$25)/7</f>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
       <c r="V50" s="138">
-        <f>(V28-$B$25)/7</f>
+        <f t="shared" si="41"/>
         <v>2.4285714285714284</v>
       </c>
       <c r="W50" s="258">
-        <f>(W28-$B$25)/7</f>
+        <f t="shared" si="41"/>
         <v>2.8571428571428572</v>
       </c>
       <c r="X50" s="229">
-        <f>(X28-$B$25)/7</f>
+        <f t="shared" si="41"/>
         <v>3.5714285714285716</v>
       </c>
       <c r="Y50" s="258">
-        <f>(Y28-$B$25)/7</f>
+        <f t="shared" si="41"/>
         <v>4.7142857142857144</v>
       </c>
       <c r="Z50" s="230">
-        <f>(Z28-$B$25)/7</f>
+        <f t="shared" si="41"/>
         <v>5.8571428571428568</v>
       </c>
       <c r="AA50" s="228">
-        <f>(AA28-$B$25)/7</f>
+        <f t="shared" si="41"/>
         <v>7.5714285714285712</v>
       </c>
       <c r="AB50" s="231">
-        <f>(AB28-$B$25)/7</f>
+        <f t="shared" si="41"/>
         <v>10.428571428571429</v>
       </c>
       <c r="AC50" s="258">
-        <f>(AC28-$B$25)/7</f>
+        <f t="shared" si="41"/>
         <v>14</v>
       </c>
       <c r="AD50" s="230">
-        <f>(AD28-$B$25)/7</f>
+        <f t="shared" si="41"/>
         <v>17.857142857142858</v>
       </c>
       <c r="AE50" s="228">
-        <f>(AE28-$B$25)/7</f>
+        <f t="shared" si="41"/>
         <v>23.142857142857142</v>
       </c>
       <c r="AF50" s="258">
-        <f>(AF28-$B$25)/7</f>
+        <f t="shared" si="41"/>
         <v>29.285714285714285</v>
       </c>
       <c r="AG50" s="229">
-        <f>(AG28-$B$25)/7</f>
+        <f t="shared" si="41"/>
         <v>38.285714285714285</v>
       </c>
       <c r="AH50" s="229">
-        <f>(AH28-$B$25)/7</f>
+        <f t="shared" si="41"/>
         <v>50.142857142857146</v>
       </c>
       <c r="AI50" s="228">
-        <f>(AI28-$B$25)/7</f>
+        <f t="shared" si="41"/>
         <v>64.857142857142861</v>
       </c>
       <c r="AJ50" s="258">
-        <f>(AJ28-$B$25)/7</f>
+        <f t="shared" si="41"/>
         <v>82.428571428571431</v>
       </c>
       <c r="AK50" s="229">
-        <f>(AK28-$B$25)/7</f>
+        <f t="shared" si="41"/>
         <v>102.85714285714286</v>
       </c>
       <c r="AL50" s="230">
-        <f>(AL28-$B$25)/7</f>
+        <f t="shared" si="41"/>
         <v>126.14285714285714</v>
       </c>
       <c r="AM50" s="258">
-        <f>(AM28-$B$25)/7</f>
+        <f t="shared" si="41"/>
         <v>152.28571428571428</v>
       </c>
       <c r="AN50" s="229">
-        <f>(AN28-$B$25)/7</f>
+        <f t="shared" si="41"/>
         <v>181.28571428571428</v>
       </c>
       <c r="AO50" s="140">
-        <f>(AO28-$B$25)/7</f>
+        <f t="shared" si="41"/>
         <v>210.28571428571428</v>
       </c>
       <c r="AP50" s="258">
-        <f>(AP28-$B$25)/7</f>
+        <f t="shared" si="41"/>
         <v>239.28571428571428</v>
       </c>
       <c r="AQ50" s="258">
-        <f>(AQ28-$B$25)/7</f>
+        <f t="shared" si="41"/>
         <v>268.28571428571428</v>
       </c>
       <c r="AR50" s="258">
-        <f>(AR28-$B$25)/7</f>
+        <f t="shared" si="41"/>
         <v>276.28571428571428</v>
       </c>
     </row>
@@ -38221,107 +38220,107 @@
       <c r="Q51" s="47"/>
       <c r="R51" s="47"/>
       <c r="S51" s="232">
-        <f>S28-$B$25</f>
+        <f t="shared" ref="S51:AR51" si="42">S28-$B$25</f>
         <v>8</v>
       </c>
       <c r="T51" s="257">
-        <f>T28-$B$25</f>
+        <f t="shared" si="42"/>
         <v>11</v>
       </c>
       <c r="U51" s="257">
-        <f>U28-$B$25</f>
+        <f t="shared" si="42"/>
         <v>14</v>
       </c>
       <c r="V51" s="257">
-        <f>V28-$B$25</f>
+        <f t="shared" si="42"/>
         <v>17</v>
       </c>
       <c r="W51" s="213">
-        <f>W28-$B$25</f>
+        <f t="shared" si="42"/>
         <v>20</v>
       </c>
       <c r="X51" s="213">
-        <f>X28-$B$25</f>
+        <f t="shared" si="42"/>
         <v>25</v>
       </c>
       <c r="Y51" s="213">
-        <f>Y28-$B$25</f>
+        <f t="shared" si="42"/>
         <v>33</v>
       </c>
       <c r="Z51" s="213">
-        <f>Z28-$B$25</f>
+        <f t="shared" si="42"/>
         <v>41</v>
       </c>
       <c r="AA51" s="213">
-        <f>AA28-$B$25</f>
+        <f t="shared" si="42"/>
         <v>53</v>
       </c>
       <c r="AB51" s="213">
-        <f>AB28-$B$25</f>
+        <f t="shared" si="42"/>
         <v>73</v>
       </c>
       <c r="AC51" s="213">
-        <f>AC28-$B$25</f>
+        <f t="shared" si="42"/>
         <v>98</v>
       </c>
       <c r="AD51" s="213">
-        <f>AD28-$B$25</f>
+        <f t="shared" si="42"/>
         <v>125</v>
       </c>
       <c r="AE51" s="213">
-        <f>AE28-$B$25</f>
+        <f t="shared" si="42"/>
         <v>162</v>
       </c>
       <c r="AF51" s="213">
-        <f>AF28-$B$25</f>
+        <f t="shared" si="42"/>
         <v>205</v>
       </c>
       <c r="AG51" s="213">
-        <f>AG28-$B$25</f>
+        <f t="shared" si="42"/>
         <v>268</v>
       </c>
       <c r="AH51" s="213">
-        <f>AH28-$B$25</f>
+        <f t="shared" si="42"/>
         <v>351</v>
       </c>
       <c r="AI51" s="213">
-        <f>AI28-$B$25</f>
+        <f t="shared" si="42"/>
         <v>454</v>
       </c>
       <c r="AJ51" s="213">
-        <f>AJ28-$B$25</f>
+        <f t="shared" si="42"/>
         <v>577</v>
       </c>
       <c r="AK51" s="213">
-        <f>AK28-$B$25</f>
+        <f t="shared" si="42"/>
         <v>720</v>
       </c>
       <c r="AL51" s="213">
-        <f>AL28-$B$25</f>
+        <f t="shared" si="42"/>
         <v>883</v>
       </c>
       <c r="AM51" s="213">
-        <f>AM28-$B$25</f>
+        <f t="shared" si="42"/>
         <v>1066</v>
       </c>
       <c r="AN51" s="227">
-        <f>AN28-$B$25</f>
+        <f t="shared" si="42"/>
         <v>1269</v>
       </c>
       <c r="AO51" s="227">
-        <f>AO28-$B$25</f>
+        <f t="shared" si="42"/>
         <v>1472</v>
       </c>
       <c r="AP51" s="178">
-        <f>AP28-$B$25</f>
+        <f t="shared" si="42"/>
         <v>1675</v>
       </c>
       <c r="AQ51" s="226">
-        <f>AQ28-$B$25</f>
+        <f t="shared" si="42"/>
         <v>1878</v>
       </c>
       <c r="AR51" s="178">
-        <f>AR28-$B$25</f>
+        <f t="shared" si="42"/>
         <v>1934</v>
       </c>
     </row>
@@ -38408,15 +38407,15 @@
         <v>8192000</v>
       </c>
       <c r="AL52" s="253">
-        <f t="shared" ref="AL52" si="28">AK52*2</f>
+        <f t="shared" ref="AL52" si="43">AK52*2</f>
         <v>16384000</v>
       </c>
       <c r="AM52" s="253">
-        <f t="shared" ref="AM52" si="29">AL52*2</f>
+        <f t="shared" ref="AM52" si="44">AL52*2</f>
         <v>32768000</v>
       </c>
       <c r="AN52" s="174">
-        <f t="shared" ref="AN52" si="30">AM52*2</f>
+        <f t="shared" ref="AN52" si="45">AM52*2</f>
         <v>65536000</v>
       </c>
       <c r="AO52" s="174">
@@ -38424,7 +38423,7 @@
         <v>131072000</v>
       </c>
       <c r="AP52" s="174">
-        <f t="shared" ref="AP52" si="31">AO52*2</f>
+        <f t="shared" ref="AP52" si="46">AO52*2</f>
         <v>262144000</v>
       </c>
       <c r="AQ52" s="174">
@@ -38462,103 +38461,103 @@
         <v>1.68247934285722</v>
       </c>
       <c r="T53" s="164">
-        <f>(T28-$S$28)/(LOG(T52/$S$52)/LOG(2))</f>
+        <f t="shared" ref="T53:AR53" si="47">(T28-$S$28)/(LOG(T52/$S$52)/LOG(2))</f>
         <v>2.2162515508849423</v>
       </c>
       <c r="U53" s="164">
-        <f>(U28-$S$28)/(LOG(U52/$S$52)/LOG(2))</f>
+        <f t="shared" si="47"/>
         <v>2.5960521015489895</v>
       </c>
       <c r="V53" s="164">
-        <f>(V28-$S$28)/(LOG(V52/$S$52)/LOG(2))</f>
+        <f t="shared" si="47"/>
         <v>2.5593080353659667</v>
       </c>
       <c r="W53" s="164">
-        <f>(W28-$S$28)/(LOG(W52/$S$52)/LOG(2))</f>
+        <f t="shared" si="47"/>
         <v>2.8230398322058692</v>
       </c>
       <c r="X53" s="164">
-        <f>(X28-$S$28)/(LOG(X52/$S$52)/LOG(2))</f>
+        <f t="shared" si="47"/>
         <v>3.2222725699484793</v>
       </c>
       <c r="Y53" s="164">
-        <f>(Y28-$S$28)/(LOG(Y52/$S$52)/LOG(2))</f>
+        <f t="shared" si="47"/>
         <v>3.9835688086028611</v>
       </c>
       <c r="Z53" s="164">
-        <f>(Z28-$S$28)/(LOG(Z52/$S$52)/LOG(2))</f>
+        <f t="shared" si="47"/>
         <v>4.5234595254294128</v>
       </c>
       <c r="AA53" s="164">
-        <f>(AA28-$S$28)/(LOG(AA52/$S$52)/LOG(2))</f>
+        <f t="shared" si="47"/>
         <v>5.4555673200486643</v>
       </c>
       <c r="AB53" s="164">
-        <f>(AB28-$S$28)/(LOG(AB52/$S$52)/LOG(2))</f>
+        <f t="shared" si="47"/>
         <v>7.0564446262708183</v>
       </c>
       <c r="AC53" s="164">
-        <f>(AC28-$S$28)/(LOG(AC52/$S$52)/LOG(2))</f>
+        <f t="shared" si="47"/>
         <v>8.812829776603099</v>
       </c>
       <c r="AD53" s="164">
-        <f>(AD28-$S$28)/(LOG(AD52/$S$52)/LOG(2))</f>
+        <f t="shared" si="47"/>
         <v>10.441554986201947</v>
       </c>
       <c r="AE53" s="164">
-        <f>(AE28-$S$28)/(LOG(AE52/$S$52)/LOG(2))</f>
+        <f t="shared" si="47"/>
         <v>12.602686613278257</v>
       </c>
       <c r="AF53" s="164">
-        <f>(AF28-$S$28)/(LOG(AF52/$S$52)/LOG(2))</f>
+        <f t="shared" si="47"/>
         <v>14.903132176179408</v>
       </c>
       <c r="AG53" s="164">
-        <f>(AG28-$S$28)/(LOG(AG52/$S$52)/LOG(2))</f>
+        <f t="shared" si="47"/>
         <v>18.296414388868026</v>
       </c>
       <c r="AH53" s="173">
-        <f>(AH28-$S$28)/(LOG(AH52/$S$52)/LOG(2))</f>
+        <f t="shared" si="47"/>
         <v>22.549623793033003</v>
       </c>
       <c r="AI53" s="173">
-        <f>(AI28-$S$28)/(LOG(AI52/$S$52)/LOG(2))</f>
+        <f t="shared" si="47"/>
         <v>27.51235826024778</v>
       </c>
       <c r="AJ53" s="173">
-        <f>(AJ28-$S$28)/(LOG(AJ52/$S$52)/LOG(2))</f>
+        <f t="shared" si="47"/>
         <v>33.060450433855578</v>
       </c>
       <c r="AK53" s="173">
-        <f>(AK28-$S$28)/(LOG(AK52/$S$52)/LOG(2))</f>
+        <f t="shared" si="47"/>
         <v>39.097470514700831</v>
       </c>
       <c r="AL53" s="173">
-        <f>(AL28-$S$28)/(LOG(AL52/$S$52)/LOG(2))</f>
+        <f t="shared" si="47"/>
         <v>45.547066849952394</v>
       </c>
       <c r="AM53" s="173">
-        <f>(AM28-$S$28)/(LOG(AM52/$S$52)/LOG(2))</f>
+        <f t="shared" si="47"/>
         <v>52.347998774411749</v>
       </c>
       <c r="AN53" s="176">
-        <f>(AN28-$S$28)/(LOG(AN52/$S$52)/LOG(2))</f>
+        <f t="shared" si="47"/>
         <v>59.45057452924231</v>
       </c>
       <c r="AO53" s="176">
-        <f>(AO28-$S$28)/(LOG(AO52/$S$52)/LOG(2))</f>
+        <f t="shared" si="47"/>
         <v>65.913592518856731</v>
       </c>
       <c r="AP53" s="176">
-        <f>(AP28-$S$28)/(LOG(AP52/$S$52)/LOG(2))</f>
+        <f t="shared" si="47"/>
         <v>71.819715352702104</v>
       </c>
       <c r="AQ53" s="176">
-        <f>(AQ28-$S$28)/(LOG(AQ52/$S$52)/LOG(2))</f>
+        <f t="shared" si="47"/>
         <v>80.365001028752204</v>
       </c>
       <c r="AR53" s="177">
-        <f>(AR28-$S$28)/(LOG(AR52/$S$52)/LOG(2))</f>
+        <f t="shared" si="47"/>
         <v>82.771653465976868</v>
       </c>
     </row>
@@ -38670,65 +38669,65 @@
         <v>5</v>
       </c>
       <c r="U55" s="141">
-        <f t="shared" ref="U55:Z55" si="32">U52-U56-U54</f>
+        <f t="shared" ref="U55:Z55" si="48">U52-U56-U54</f>
         <v>8</v>
       </c>
       <c r="V55" s="141">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v>15</v>
       </c>
       <c r="W55" s="141">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v>29</v>
       </c>
       <c r="X55" s="141">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v>46</v>
       </c>
       <c r="Y55" s="141">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v>150</v>
       </c>
       <c r="Z55" s="141">
-        <f t="shared" si="32"/>
+        <f t="shared" si="48"/>
         <v>359</v>
       </c>
       <c r="AA55" s="141">
-        <f t="shared" ref="AA55:AB55" si="33">AA52-AA56-AA54</f>
+        <f t="shared" ref="AA55:AB55" si="49">AA52-AA56-AA54</f>
         <v>1002</v>
       </c>
       <c r="AB55" s="141">
-        <f t="shared" si="33"/>
+        <f t="shared" si="49"/>
         <v>3518</v>
       </c>
       <c r="AC55" s="141">
-        <f t="shared" ref="AC55:AD55" si="34">AC52-AC56-AC54</f>
+        <f t="shared" ref="AC55:AD55" si="50">AC52-AC56-AC54</f>
         <v>10904</v>
       </c>
       <c r="AD55" s="141">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>29105</v>
       </c>
       <c r="AE55" s="141">
-        <f t="shared" ref="AE55:AF55" si="35">AE52-AE56-AE54</f>
+        <f t="shared" ref="AE55:AF55" si="51">AE52-AE56-AE54</f>
         <v>83710</v>
       </c>
       <c r="AF55" s="141">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>187958</v>
       </c>
       <c r="AG55" s="141">
-        <f t="shared" ref="AG55" si="36">AG52-AG56-AG54</f>
+        <f t="shared" ref="AG55" si="52">AG52-AG56-AG54</f>
         <v>429807</v>
       </c>
-      <c r="AH55" s="284">
-        <v>558703</v>
-      </c>
-      <c r="AI55" s="284"/>
-      <c r="AJ55" s="284"/>
-      <c r="AK55" s="284"/>
-      <c r="AL55" s="284"/>
-      <c r="AM55" s="284"/>
+      <c r="AH55" s="283">
+        <v>781147</v>
+      </c>
+      <c r="AI55" s="283"/>
+      <c r="AJ55" s="283"/>
+      <c r="AK55" s="283"/>
+      <c r="AL55" s="283"/>
+      <c r="AM55" s="283"/>
       <c r="AN55" s="103"/>
       <c r="AO55" s="103"/>
       <c r="AP55" s="103"/>
@@ -38801,14 +38800,14 @@
       <c r="AG56" s="52">
         <v>16225</v>
       </c>
-      <c r="AH56" s="285">
-        <v>20408</v>
-      </c>
-      <c r="AI56" s="285"/>
-      <c r="AJ56" s="285"/>
-      <c r="AK56" s="285"/>
-      <c r="AL56" s="285"/>
-      <c r="AM56" s="285"/>
+      <c r="AH56" s="284">
+        <v>27453</v>
+      </c>
+      <c r="AI56" s="284"/>
+      <c r="AJ56" s="284"/>
+      <c r="AK56" s="284"/>
+      <c r="AL56" s="284"/>
+      <c r="AM56" s="284"/>
       <c r="AN56" s="103"/>
       <c r="AO56" s="103"/>
       <c r="AP56" s="103"/>
@@ -38929,103 +38928,103 @@
       <c r="Q60" s="16"/>
       <c r="R60" s="16"/>
       <c r="S60" s="18">
-        <f>S$29*$D$60</f>
+        <f t="shared" ref="S60:AQ60" si="53">S$29*$D$60</f>
         <v>0.3125</v>
       </c>
       <c r="T60" s="19">
-        <f>T$29*$D$60</f>
+        <f t="shared" si="53"/>
         <v>0.625</v>
       </c>
       <c r="U60" s="19">
-        <f>U$29*$D$60</f>
+        <f t="shared" si="53"/>
         <v>1.25</v>
       </c>
       <c r="V60" s="19">
-        <f>V$29*$D$60</f>
+        <f t="shared" si="53"/>
         <v>2.5</v>
       </c>
       <c r="W60" s="19">
-        <f>W$29*$D$60</f>
+        <f t="shared" si="53"/>
         <v>5</v>
       </c>
       <c r="X60" s="19">
-        <f>X$29*$D$60</f>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="Y60" s="19">
-        <f>Y$29*$D$60</f>
+        <f t="shared" si="53"/>
         <v>20</v>
       </c>
       <c r="Z60" s="19">
-        <f>Z$29*$D$60</f>
+        <f t="shared" si="53"/>
         <v>40</v>
       </c>
       <c r="AA60" s="19">
-        <f>AA$29*$D$60</f>
+        <f t="shared" si="53"/>
         <v>80</v>
       </c>
       <c r="AB60" s="19">
-        <f>AB$29*$D$60</f>
+        <f t="shared" si="53"/>
         <v>160</v>
       </c>
       <c r="AC60" s="19">
-        <f>AC$29*$D$60</f>
+        <f t="shared" si="53"/>
         <v>320</v>
       </c>
       <c r="AD60" s="19">
-        <f>AD$29*$D$60</f>
+        <f t="shared" si="53"/>
         <v>640</v>
       </c>
       <c r="AE60" s="19">
-        <f>AE$29*$D$60</f>
+        <f t="shared" si="53"/>
         <v>1280</v>
       </c>
       <c r="AF60" s="19">
-        <f>AF$29*$D$60</f>
+        <f t="shared" si="53"/>
         <v>2560</v>
       </c>
       <c r="AG60" s="19">
-        <f>AG$29*$D$60</f>
+        <f t="shared" si="53"/>
         <v>5120</v>
       </c>
       <c r="AH60" s="19">
-        <f>AH$29*$D$60</f>
+        <f t="shared" si="53"/>
         <v>10240</v>
       </c>
       <c r="AI60" s="19">
-        <f>AI$29*$D$60</f>
+        <f t="shared" si="53"/>
         <v>20480</v>
       </c>
       <c r="AJ60" s="19">
-        <f>AJ$29*$D$60</f>
+        <f t="shared" si="53"/>
         <v>40960</v>
       </c>
       <c r="AK60" s="19">
-        <f>AK$29*$D$60</f>
+        <f t="shared" si="53"/>
         <v>81920</v>
       </c>
       <c r="AL60" s="19">
-        <f>AL$29*$D$60</f>
+        <f t="shared" si="53"/>
         <v>163840</v>
       </c>
       <c r="AM60" s="19">
-        <f>AM$29*$D$60</f>
+        <f t="shared" si="53"/>
         <v>327680</v>
       </c>
       <c r="AN60" s="60">
-        <f>AN$29*$D$60</f>
+        <f t="shared" si="53"/>
         <v>655360</v>
       </c>
       <c r="AO60" s="18">
-        <f>AO$29*$D$60</f>
+        <f t="shared" si="53"/>
         <v>1310720</v>
       </c>
       <c r="AP60" s="19">
-        <f>AP$29*$D$60</f>
+        <f t="shared" si="53"/>
         <v>2621440</v>
       </c>
       <c r="AQ60" s="19">
-        <f>AQ$29*$D$60</f>
+        <f t="shared" si="53"/>
         <v>2728860</v>
       </c>
       <c r="AR60" s="45"/>
@@ -39052,103 +39051,103 @@
       <c r="Q61" s="15"/>
       <c r="R61" s="10"/>
       <c r="S61" s="29">
-        <f>S$29*$D$60*$E$61</f>
+        <f t="shared" ref="S61:AQ61" si="54">S$29*$D$60*$E$61</f>
         <v>4.6249999999999999E-2</v>
       </c>
       <c r="T61" s="30">
-        <f>T$29*$D$60*$E$61</f>
+        <f t="shared" si="54"/>
         <v>9.2499999999999999E-2</v>
       </c>
       <c r="U61" s="30">
-        <f>U$29*$D$60*$E$61</f>
+        <f t="shared" si="54"/>
         <v>0.185</v>
       </c>
       <c r="V61" s="30">
-        <f>V$29*$D$60*$E$61</f>
+        <f t="shared" si="54"/>
         <v>0.37</v>
       </c>
       <c r="W61" s="30">
-        <f>W$29*$D$60*$E$61</f>
+        <f t="shared" si="54"/>
         <v>0.74</v>
       </c>
       <c r="X61" s="30">
-        <f>X$29*$D$60*$E$61</f>
+        <f t="shared" si="54"/>
         <v>1.48</v>
       </c>
       <c r="Y61" s="30">
-        <f>Y$29*$D$60*$E$61</f>
+        <f t="shared" si="54"/>
         <v>2.96</v>
       </c>
       <c r="Z61" s="30">
-        <f>Z$29*$D$60*$E$61</f>
+        <f t="shared" si="54"/>
         <v>5.92</v>
       </c>
       <c r="AA61" s="30">
-        <f>AA$29*$D$60*$E$61</f>
+        <f t="shared" si="54"/>
         <v>11.84</v>
       </c>
       <c r="AB61" s="30">
-        <f>AB$29*$D$60*$E$61</f>
+        <f t="shared" si="54"/>
         <v>23.68</v>
       </c>
       <c r="AC61" s="30">
-        <f>AC$29*$D$60*$E$61</f>
+        <f t="shared" si="54"/>
         <v>47.36</v>
       </c>
       <c r="AD61" s="30">
-        <f>AD$29*$D$60*$E$61</f>
+        <f t="shared" si="54"/>
         <v>94.72</v>
       </c>
       <c r="AE61" s="30">
-        <f>AE$29*$D$60*$E$61</f>
+        <f t="shared" si="54"/>
         <v>189.44</v>
       </c>
       <c r="AF61" s="30">
-        <f>AF$29*$D$60*$E$61</f>
+        <f t="shared" si="54"/>
         <v>378.88</v>
       </c>
       <c r="AG61" s="30">
-        <f>AG$29*$D$60*$E$61</f>
+        <f t="shared" si="54"/>
         <v>757.76</v>
       </c>
       <c r="AH61" s="30">
-        <f>AH$29*$D$60*$E$61</f>
+        <f t="shared" si="54"/>
         <v>1515.52</v>
       </c>
       <c r="AI61" s="30">
-        <f>AI$29*$D$60*$E$61</f>
+        <f t="shared" si="54"/>
         <v>3031.04</v>
       </c>
       <c r="AJ61" s="30">
-        <f>AJ$29*$D$60*$E$61</f>
+        <f t="shared" si="54"/>
         <v>6062.08</v>
       </c>
       <c r="AK61" s="30">
-        <f>AK$29*$D$60*$E$61</f>
+        <f t="shared" si="54"/>
         <v>12124.16</v>
       </c>
       <c r="AL61" s="30">
-        <f>AL$29*$D$60*$E$61</f>
+        <f t="shared" si="54"/>
         <v>24248.32</v>
       </c>
       <c r="AM61" s="30">
-        <f>AM$29*$D$60*$E$61</f>
+        <f t="shared" si="54"/>
         <v>48496.639999999999</v>
       </c>
       <c r="AN61" s="71">
-        <f>AN$29*$D$60*$E$61</f>
+        <f t="shared" si="54"/>
         <v>96993.279999999999</v>
       </c>
       <c r="AO61" s="29">
-        <f>AO$29*$D$60*$E$61</f>
+        <f t="shared" si="54"/>
         <v>193986.56</v>
       </c>
       <c r="AP61" s="30">
-        <f>AP$29*$D$60*$E$61</f>
+        <f t="shared" si="54"/>
         <v>387973.12</v>
       </c>
       <c r="AQ61" s="30">
-        <f>AQ$29*$D$60*$E$61</f>
+        <f t="shared" si="54"/>
         <v>403871.27999999997</v>
       </c>
       <c r="AR61" s="45"/>
@@ -39162,7 +39161,7 @@
         <v>2.5399999999999999E-2</v>
       </c>
       <c r="C62" s="10">
-        <f t="shared" ref="C62:C76" si="37">$B$15*B62</f>
+        <f t="shared" ref="C62:C76" si="55">$B$15*B62</f>
         <v>6931304.3999999994</v>
       </c>
       <c r="D62" s="23">
@@ -39184,103 +39183,103 @@
       <c r="Q62" s="16"/>
       <c r="R62" s="16"/>
       <c r="S62" s="20">
-        <f>S$29*$D$62</f>
+        <f t="shared" ref="S62:AQ62" si="56">S$29*$D$62</f>
         <v>0.90625</v>
       </c>
       <c r="T62" s="21">
-        <f>T$29*$D$62</f>
+        <f t="shared" si="56"/>
         <v>1.8125</v>
       </c>
       <c r="U62" s="21">
-        <f>U$29*$D$62</f>
+        <f t="shared" si="56"/>
         <v>3.625</v>
       </c>
       <c r="V62" s="21">
-        <f>V$29*$D$62</f>
+        <f t="shared" si="56"/>
         <v>7.25</v>
       </c>
       <c r="W62" s="21">
-        <f>W$29*$D$62</f>
+        <f t="shared" si="56"/>
         <v>14.5</v>
       </c>
       <c r="X62" s="21">
-        <f>X$29*$D$62</f>
+        <f t="shared" si="56"/>
         <v>29</v>
       </c>
       <c r="Y62" s="21">
-        <f>Y$29*$D$62</f>
+        <f t="shared" si="56"/>
         <v>58</v>
       </c>
       <c r="Z62" s="21">
-        <f>Z$29*$D$62</f>
+        <f t="shared" si="56"/>
         <v>116</v>
       </c>
       <c r="AA62" s="21">
-        <f>AA$29*$D$62</f>
+        <f t="shared" si="56"/>
         <v>232</v>
       </c>
       <c r="AB62" s="21">
-        <f>AB$29*$D$62</f>
+        <f t="shared" si="56"/>
         <v>464</v>
       </c>
       <c r="AC62" s="21">
-        <f>AC$29*$D$62</f>
+        <f t="shared" si="56"/>
         <v>928</v>
       </c>
       <c r="AD62" s="21">
-        <f>AD$29*$D$62</f>
+        <f t="shared" si="56"/>
         <v>1856</v>
       </c>
       <c r="AE62" s="21">
-        <f>AE$29*$D$62</f>
+        <f t="shared" si="56"/>
         <v>3712</v>
       </c>
       <c r="AF62" s="21">
-        <f>AF$29*$D$62</f>
+        <f t="shared" si="56"/>
         <v>7424</v>
       </c>
       <c r="AG62" s="21">
-        <f>AG$29*$D$62</f>
+        <f t="shared" si="56"/>
         <v>14848</v>
       </c>
       <c r="AH62" s="21">
-        <f>AH$29*$D$62</f>
+        <f t="shared" si="56"/>
         <v>29696</v>
       </c>
       <c r="AI62" s="21">
-        <f>AI$29*$D$62</f>
+        <f t="shared" si="56"/>
         <v>59392</v>
       </c>
       <c r="AJ62" s="21">
-        <f>AJ$29*$D$62</f>
+        <f t="shared" si="56"/>
         <v>118784</v>
       </c>
       <c r="AK62" s="21">
-        <f>AK$29*$D$62</f>
+        <f t="shared" si="56"/>
         <v>237568</v>
       </c>
       <c r="AL62" s="21">
-        <f>AL$29*$D$62</f>
+        <f t="shared" si="56"/>
         <v>475136</v>
       </c>
       <c r="AM62" s="21">
-        <f>AM$29*$D$62</f>
+        <f t="shared" si="56"/>
         <v>950272</v>
       </c>
       <c r="AN62" s="72">
-        <f>AN$29*$D$62</f>
+        <f t="shared" si="56"/>
         <v>1900544</v>
       </c>
       <c r="AO62" s="20">
-        <f>AO$29*$D$62</f>
+        <f t="shared" si="56"/>
         <v>3801088</v>
       </c>
       <c r="AP62" s="21">
-        <f>AP$29*$D$62</f>
+        <f t="shared" si="56"/>
         <v>7602176</v>
       </c>
       <c r="AQ62" s="21">
-        <f>AQ$29*$D$62</f>
+        <f t="shared" si="56"/>
         <v>7913694</v>
       </c>
       <c r="AR62" s="45"/>
@@ -39307,103 +39306,103 @@
       <c r="Q63" s="15"/>
       <c r="R63" s="10"/>
       <c r="S63" s="29">
-        <f>S$29*$D$62*$E$63</f>
+        <f t="shared" ref="S63:AQ63" si="57">S$29*$D$62*$E$63</f>
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="T63" s="30">
-        <f>T$29*$D$62*$E$63</f>
+        <f t="shared" si="57"/>
         <v>0.14499999999999999</v>
       </c>
       <c r="U63" s="30">
-        <f>U$29*$D$62*$E$63</f>
+        <f t="shared" si="57"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="V63" s="30">
-        <f>V$29*$D$62*$E$63</f>
+        <f t="shared" si="57"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="W63" s="30">
-        <f>W$29*$D$62*$E$63</f>
+        <f t="shared" si="57"/>
         <v>1.1599999999999999</v>
       </c>
       <c r="X63" s="30">
-        <f>X$29*$D$62*$E$63</f>
+        <f t="shared" si="57"/>
         <v>2.3199999999999998</v>
       </c>
       <c r="Y63" s="30">
-        <f>Y$29*$D$62*$E$63</f>
+        <f t="shared" si="57"/>
         <v>4.6399999999999997</v>
       </c>
       <c r="Z63" s="30">
-        <f>Z$29*$D$62*$E$63</f>
+        <f t="shared" si="57"/>
         <v>9.2799999999999994</v>
       </c>
       <c r="AA63" s="30">
-        <f>AA$29*$D$62*$E$63</f>
+        <f t="shared" si="57"/>
         <v>18.559999999999999</v>
       </c>
       <c r="AB63" s="30">
-        <f>AB$29*$D$62*$E$63</f>
+        <f t="shared" si="57"/>
         <v>37.119999999999997</v>
       </c>
       <c r="AC63" s="30">
-        <f>AC$29*$D$62*$E$63</f>
+        <f t="shared" si="57"/>
         <v>74.239999999999995</v>
       </c>
       <c r="AD63" s="30">
-        <f>AD$29*$D$62*$E$63</f>
+        <f t="shared" si="57"/>
         <v>148.47999999999999</v>
       </c>
       <c r="AE63" s="30">
-        <f>AE$29*$D$62*$E$63</f>
+        <f t="shared" si="57"/>
         <v>296.95999999999998</v>
       </c>
       <c r="AF63" s="30">
-        <f>AF$29*$D$62*$E$63</f>
+        <f t="shared" si="57"/>
         <v>593.91999999999996</v>
       </c>
       <c r="AG63" s="30">
-        <f>AG$29*$D$62*$E$63</f>
+        <f t="shared" si="57"/>
         <v>1187.8399999999999</v>
       </c>
       <c r="AH63" s="30">
-        <f>AH$29*$D$62*$E$63</f>
+        <f t="shared" si="57"/>
         <v>2375.6799999999998</v>
       </c>
       <c r="AI63" s="30">
-        <f>AI$29*$D$62*$E$63</f>
+        <f t="shared" si="57"/>
         <v>4751.3599999999997</v>
       </c>
       <c r="AJ63" s="30">
-        <f>AJ$29*$D$62*$E$63</f>
+        <f t="shared" si="57"/>
         <v>9502.7199999999993</v>
       </c>
       <c r="AK63" s="30">
-        <f>AK$29*$D$62*$E$63</f>
+        <f t="shared" si="57"/>
         <v>19005.439999999999</v>
       </c>
       <c r="AL63" s="30">
-        <f>AL$29*$D$62*$E$63</f>
+        <f t="shared" si="57"/>
         <v>38010.879999999997</v>
       </c>
       <c r="AM63" s="30">
-        <f>AM$29*$D$62*$E$63</f>
+        <f t="shared" si="57"/>
         <v>76021.759999999995</v>
       </c>
       <c r="AN63" s="71">
-        <f>AN$29*$D$62*$E$63</f>
+        <f t="shared" si="57"/>
         <v>152043.51999999999</v>
       </c>
       <c r="AO63" s="29">
-        <f>AO$29*$D$62*$E$63</f>
+        <f t="shared" si="57"/>
         <v>304087.03999999998</v>
       </c>
       <c r="AP63" s="30">
-        <f>AP$29*$D$62*$E$63</f>
+        <f t="shared" si="57"/>
         <v>608174.07999999996</v>
       </c>
       <c r="AQ63" s="30">
-        <f>AQ$29*$D$62*$E$63</f>
+        <f t="shared" si="57"/>
         <v>633095.52</v>
       </c>
       <c r="AR63" s="45"/>
@@ -39417,7 +39416,7 @@
         <v>6.2300000000000001E-2</v>
       </c>
       <c r="C64" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>17000797.800000001</v>
       </c>
       <c r="D64" s="23">
@@ -39439,103 +39438,103 @@
       <c r="Q64" s="10"/>
       <c r="R64" s="10"/>
       <c r="S64" s="20">
-        <f>S$29*$D$64</f>
+        <f t="shared" ref="S64:AQ64" si="58">S$29*$D$64</f>
         <v>3.78125</v>
       </c>
       <c r="T64" s="21">
-        <f>T$29*$D$64</f>
+        <f t="shared" si="58"/>
         <v>7.5625</v>
       </c>
       <c r="U64" s="21">
-        <f>U$29*$D$64</f>
+        <f t="shared" si="58"/>
         <v>15.125</v>
       </c>
       <c r="V64" s="21">
-        <f>V$29*$D$64</f>
+        <f t="shared" si="58"/>
         <v>30.25</v>
       </c>
       <c r="W64" s="21">
-        <f>W$29*$D$64</f>
+        <f t="shared" si="58"/>
         <v>60.5</v>
       </c>
       <c r="X64" s="21">
-        <f>X$29*$D$64</f>
+        <f t="shared" si="58"/>
         <v>121</v>
       </c>
       <c r="Y64" s="21">
-        <f>Y$29*$D$64</f>
+        <f t="shared" si="58"/>
         <v>242</v>
       </c>
       <c r="Z64" s="21">
-        <f>Z$29*$D$64</f>
+        <f t="shared" si="58"/>
         <v>484</v>
       </c>
       <c r="AA64" s="21">
-        <f>AA$29*$D$64</f>
+        <f t="shared" si="58"/>
         <v>968</v>
       </c>
       <c r="AB64" s="21">
-        <f>AB$29*$D$64</f>
+        <f t="shared" si="58"/>
         <v>1936</v>
       </c>
       <c r="AC64" s="21">
-        <f>AC$29*$D$64</f>
+        <f t="shared" si="58"/>
         <v>3872</v>
       </c>
       <c r="AD64" s="21">
-        <f>AD$29*$D$64</f>
+        <f t="shared" si="58"/>
         <v>7744</v>
       </c>
       <c r="AE64" s="21">
-        <f>AE$29*$D$64</f>
+        <f t="shared" si="58"/>
         <v>15488</v>
       </c>
       <c r="AF64" s="21">
-        <f>AF$29*$D$64</f>
+        <f t="shared" si="58"/>
         <v>30976</v>
       </c>
       <c r="AG64" s="21">
-        <f>AG$29*$D$64</f>
+        <f t="shared" si="58"/>
         <v>61952</v>
       </c>
       <c r="AH64" s="21">
-        <f>AH$29*$D$64</f>
+        <f t="shared" si="58"/>
         <v>123904</v>
       </c>
       <c r="AI64" s="21">
-        <f>AI$29*$D$64</f>
+        <f t="shared" si="58"/>
         <v>247808</v>
       </c>
       <c r="AJ64" s="21">
-        <f>AJ$29*$D$64</f>
+        <f t="shared" si="58"/>
         <v>495616</v>
       </c>
       <c r="AK64" s="21">
-        <f>AK$29*$D$64</f>
+        <f t="shared" si="58"/>
         <v>991232</v>
       </c>
       <c r="AL64" s="21">
-        <f>AL$29*$D$64</f>
+        <f t="shared" si="58"/>
         <v>1982464</v>
       </c>
       <c r="AM64" s="21">
-        <f>AM$29*$D$64</f>
+        <f t="shared" si="58"/>
         <v>3964928</v>
       </c>
       <c r="AN64" s="72">
-        <f>AN$29*$D$64</f>
+        <f t="shared" si="58"/>
         <v>7929856</v>
       </c>
       <c r="AO64" s="20">
-        <f>AO$29*$D$64</f>
+        <f t="shared" si="58"/>
         <v>15859712</v>
       </c>
       <c r="AP64" s="21">
-        <f>AP$29*$D$64</f>
+        <f t="shared" si="58"/>
         <v>31719424</v>
       </c>
       <c r="AQ64" s="21">
-        <f>AQ$29*$D$64</f>
+        <f t="shared" si="58"/>
         <v>33019206</v>
       </c>
       <c r="AR64" s="45"/>
@@ -39562,103 +39561,103 @@
       <c r="Q65" s="15"/>
       <c r="R65" s="10"/>
       <c r="S65" s="29">
-        <f>S$29*$D$64*$E$65</f>
+        <f t="shared" ref="S65:AQ65" si="59">S$29*$D$64*$E$65</f>
         <v>0.136125</v>
       </c>
       <c r="T65" s="30">
-        <f>T$29*$D$64*$E$65</f>
+        <f t="shared" si="59"/>
         <v>0.27224999999999999</v>
       </c>
       <c r="U65" s="30">
-        <f>U$29*$D$64*$E$65</f>
+        <f t="shared" si="59"/>
         <v>0.54449999999999998</v>
       </c>
       <c r="V65" s="30">
-        <f>V$29*$D$64*$E$65</f>
+        <f t="shared" si="59"/>
         <v>1.089</v>
       </c>
       <c r="W65" s="30">
-        <f>W$29*$D$64*$E$65</f>
+        <f t="shared" si="59"/>
         <v>2.1779999999999999</v>
       </c>
       <c r="X65" s="30">
-        <f>X$29*$D$64*$E$65</f>
+        <f t="shared" si="59"/>
         <v>4.3559999999999999</v>
       </c>
       <c r="Y65" s="30">
-        <f>Y$29*$D$64*$E$65</f>
+        <f t="shared" si="59"/>
         <v>8.7119999999999997</v>
       </c>
       <c r="Z65" s="30">
-        <f>Z$29*$D$64*$E$65</f>
+        <f t="shared" si="59"/>
         <v>17.423999999999999</v>
       </c>
       <c r="AA65" s="30">
-        <f>AA$29*$D$64*$E$65</f>
+        <f t="shared" si="59"/>
         <v>34.847999999999999</v>
       </c>
       <c r="AB65" s="30">
-        <f>AB$29*$D$64*$E$65</f>
+        <f t="shared" si="59"/>
         <v>69.695999999999998</v>
       </c>
       <c r="AC65" s="30">
-        <f>AC$29*$D$64*$E$65</f>
+        <f t="shared" si="59"/>
         <v>139.392</v>
       </c>
       <c r="AD65" s="30">
-        <f>AD$29*$D$64*$E$65</f>
+        <f t="shared" si="59"/>
         <v>278.78399999999999</v>
       </c>
       <c r="AE65" s="30">
-        <f>AE$29*$D$64*$E$65</f>
+        <f t="shared" si="59"/>
         <v>557.56799999999998</v>
       </c>
       <c r="AF65" s="30">
-        <f>AF$29*$D$64*$E$65</f>
+        <f t="shared" si="59"/>
         <v>1115.136</v>
       </c>
       <c r="AG65" s="30">
-        <f>AG$29*$D$64*$E$65</f>
+        <f t="shared" si="59"/>
         <v>2230.2719999999999</v>
       </c>
       <c r="AH65" s="30">
-        <f>AH$29*$D$64*$E$65</f>
+        <f t="shared" si="59"/>
         <v>4460.5439999999999</v>
       </c>
       <c r="AI65" s="30">
-        <f>AI$29*$D$64*$E$65</f>
+        <f t="shared" si="59"/>
         <v>8921.0879999999997</v>
       </c>
       <c r="AJ65" s="30">
-        <f>AJ$29*$D$64*$E$65</f>
+        <f t="shared" si="59"/>
         <v>17842.175999999999</v>
       </c>
       <c r="AK65" s="30">
-        <f>AK$29*$D$64*$E$65</f>
+        <f t="shared" si="59"/>
         <v>35684.351999999999</v>
       </c>
       <c r="AL65" s="30">
-        <f>AL$29*$D$64*$E$65</f>
+        <f t="shared" si="59"/>
         <v>71368.703999999998</v>
       </c>
       <c r="AM65" s="30">
-        <f>AM$29*$D$64*$E$65</f>
+        <f t="shared" si="59"/>
         <v>142737.408</v>
       </c>
       <c r="AN65" s="71">
-        <f>AN$29*$D$64*$E$65</f>
+        <f t="shared" si="59"/>
         <v>285474.81599999999</v>
       </c>
       <c r="AO65" s="29">
-        <f>AO$29*$D$64*$E$65</f>
+        <f t="shared" si="59"/>
         <v>570949.63199999998</v>
       </c>
       <c r="AP65" s="30">
-        <f>AP$29*$D$64*$E$65</f>
+        <f t="shared" si="59"/>
         <v>1141899.264</v>
       </c>
       <c r="AQ65" s="30">
-        <f>AQ$29*$D$64*$E$65</f>
+        <f t="shared" si="59"/>
         <v>1188691.416</v>
       </c>
       <c r="AR65" s="45"/>
@@ -39672,7 +39671,7 @@
         <v>0.105</v>
       </c>
       <c r="C66" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>28653030</v>
       </c>
       <c r="D66" s="23">
@@ -39694,103 +39693,103 @@
       <c r="Q66" s="10"/>
       <c r="R66" s="10"/>
       <c r="S66" s="20">
-        <f>S$29*$D$66</f>
+        <f t="shared" ref="S66:AQ66" si="60">S$29*$D$66</f>
         <v>4.96875</v>
       </c>
       <c r="T66" s="21">
-        <f>T$29*$D$66</f>
+        <f t="shared" si="60"/>
         <v>9.9375</v>
       </c>
       <c r="U66" s="21">
-        <f>U$29*$D$66</f>
+        <f t="shared" si="60"/>
         <v>19.875</v>
       </c>
       <c r="V66" s="21">
-        <f>V$29*$D$66</f>
+        <f t="shared" si="60"/>
         <v>39.75</v>
       </c>
       <c r="W66" s="21">
-        <f>W$29*$D$66</f>
+        <f t="shared" si="60"/>
         <v>79.5</v>
       </c>
       <c r="X66" s="21">
-        <f>X$29*$D$66</f>
+        <f t="shared" si="60"/>
         <v>159</v>
       </c>
       <c r="Y66" s="21">
-        <f>Y$29*$D$66</f>
+        <f t="shared" si="60"/>
         <v>318</v>
       </c>
       <c r="Z66" s="21">
-        <f>Z$29*$D$66</f>
+        <f t="shared" si="60"/>
         <v>636</v>
       </c>
       <c r="AA66" s="21">
-        <f>AA$29*$D$66</f>
+        <f t="shared" si="60"/>
         <v>1272</v>
       </c>
       <c r="AB66" s="21">
-        <f>AB$29*$D$66</f>
+        <f t="shared" si="60"/>
         <v>2544</v>
       </c>
       <c r="AC66" s="21">
-        <f>AC$29*$D$66</f>
+        <f t="shared" si="60"/>
         <v>5088</v>
       </c>
       <c r="AD66" s="21">
-        <f>AD$29*$D$66</f>
+        <f t="shared" si="60"/>
         <v>10176</v>
       </c>
       <c r="AE66" s="21">
-        <f>AE$29*$D$66</f>
+        <f t="shared" si="60"/>
         <v>20352</v>
       </c>
       <c r="AF66" s="21">
-        <f>AF$29*$D$66</f>
+        <f t="shared" si="60"/>
         <v>40704</v>
       </c>
       <c r="AG66" s="21">
-        <f>AG$29*$D$66</f>
+        <f t="shared" si="60"/>
         <v>81408</v>
       </c>
       <c r="AH66" s="21">
-        <f>AH$29*$D$66</f>
+        <f t="shared" si="60"/>
         <v>162816</v>
       </c>
       <c r="AI66" s="21">
-        <f>AI$29*$D$66</f>
+        <f t="shared" si="60"/>
         <v>325632</v>
       </c>
       <c r="AJ66" s="21">
-        <f>AJ$29*$D$66</f>
+        <f t="shared" si="60"/>
         <v>651264</v>
       </c>
       <c r="AK66" s="21">
-        <f>AK$29*$D$66</f>
+        <f t="shared" si="60"/>
         <v>1302528</v>
       </c>
       <c r="AL66" s="21">
-        <f>AL$29*$D$66</f>
+        <f t="shared" si="60"/>
         <v>2605056</v>
       </c>
       <c r="AM66" s="21">
-        <f>AM$29*$D$66</f>
+        <f t="shared" si="60"/>
         <v>5210112</v>
       </c>
       <c r="AN66" s="72">
-        <f>AN$29*$D$66</f>
+        <f t="shared" si="60"/>
         <v>10420224</v>
       </c>
       <c r="AO66" s="20">
-        <f>AO$29*$D$66</f>
+        <f t="shared" si="60"/>
         <v>20840448</v>
       </c>
       <c r="AP66" s="21">
-        <f>AP$29*$D$66</f>
+        <f t="shared" si="60"/>
         <v>41680896</v>
       </c>
       <c r="AQ66" s="21">
-        <f>AQ$29*$D$66</f>
+        <f t="shared" si="60"/>
         <v>43388874</v>
       </c>
       <c r="AR66" s="45"/>
@@ -39817,103 +39816,103 @@
       <c r="Q67" s="15"/>
       <c r="R67" s="10"/>
       <c r="S67" s="29">
-        <f>S$29*$D$66*$E$67</f>
+        <f t="shared" ref="S67:AQ67" si="61">S$29*$D$66*$E$67</f>
         <v>6.4593749999999991E-2</v>
       </c>
       <c r="T67" s="30">
-        <f>T$29*$D$66*$E$67</f>
+        <f t="shared" si="61"/>
         <v>0.12918749999999998</v>
       </c>
       <c r="U67" s="30">
-        <f>U$29*$D$66*$E$67</f>
+        <f t="shared" si="61"/>
         <v>0.25837499999999997</v>
       </c>
       <c r="V67" s="30">
-        <f>V$29*$D$66*$E$67</f>
+        <f t="shared" si="61"/>
         <v>0.51674999999999993</v>
       </c>
       <c r="W67" s="30">
-        <f>W$29*$D$66*$E$67</f>
+        <f t="shared" si="61"/>
         <v>1.0334999999999999</v>
       </c>
       <c r="X67" s="30">
-        <f>X$29*$D$66*$E$67</f>
+        <f t="shared" si="61"/>
         <v>2.0669999999999997</v>
       </c>
       <c r="Y67" s="30">
-        <f>Y$29*$D$66*$E$67</f>
+        <f t="shared" si="61"/>
         <v>4.1339999999999995</v>
       </c>
       <c r="Z67" s="30">
-        <f>Z$29*$D$66*$E$67</f>
+        <f t="shared" si="61"/>
         <v>8.2679999999999989</v>
       </c>
       <c r="AA67" s="30">
-        <f>AA$29*$D$66*$E$67</f>
+        <f t="shared" si="61"/>
         <v>16.535999999999998</v>
       </c>
       <c r="AB67" s="30">
-        <f>AB$29*$D$66*$E$67</f>
+        <f t="shared" si="61"/>
         <v>33.071999999999996</v>
       </c>
       <c r="AC67" s="30">
-        <f>AC$29*$D$66*$E$67</f>
+        <f t="shared" si="61"/>
         <v>66.143999999999991</v>
       </c>
       <c r="AD67" s="30">
-        <f>AD$29*$D$66*$E$67</f>
+        <f t="shared" si="61"/>
         <v>132.28799999999998</v>
       </c>
       <c r="AE67" s="30">
-        <f>AE$29*$D$66*$E$67</f>
+        <f t="shared" si="61"/>
         <v>264.57599999999996</v>
       </c>
       <c r="AF67" s="30">
-        <f>AF$29*$D$66*$E$67</f>
+        <f t="shared" si="61"/>
         <v>529.15199999999993</v>
       </c>
       <c r="AG67" s="30">
-        <f>AG$29*$D$66*$E$67</f>
+        <f t="shared" si="61"/>
         <v>1058.3039999999999</v>
       </c>
       <c r="AH67" s="30">
-        <f>AH$29*$D$66*$E$67</f>
+        <f t="shared" si="61"/>
         <v>2116.6079999999997</v>
       </c>
       <c r="AI67" s="30">
-        <f>AI$29*$D$66*$E$67</f>
+        <f t="shared" si="61"/>
         <v>4233.2159999999994</v>
       </c>
       <c r="AJ67" s="30">
-        <f>AJ$29*$D$66*$E$67</f>
+        <f t="shared" si="61"/>
         <v>8466.4319999999989</v>
       </c>
       <c r="AK67" s="30">
-        <f>AK$29*$D$66*$E$67</f>
+        <f t="shared" si="61"/>
         <v>16932.863999999998</v>
       </c>
       <c r="AL67" s="30">
-        <f>AL$29*$D$66*$E$67</f>
+        <f t="shared" si="61"/>
         <v>33865.727999999996</v>
       </c>
       <c r="AM67" s="30">
-        <f>AM$29*$D$66*$E$67</f>
+        <f t="shared" si="61"/>
         <v>67731.455999999991</v>
       </c>
       <c r="AN67" s="71">
-        <f>AN$29*$D$66*$E$67</f>
+        <f t="shared" si="61"/>
         <v>135462.91199999998</v>
       </c>
       <c r="AO67" s="29">
-        <f>AO$29*$D$66*$E$67</f>
+        <f t="shared" si="61"/>
         <v>270925.82399999996</v>
       </c>
       <c r="AP67" s="30">
-        <f>AP$29*$D$66*$E$67</f>
+        <f t="shared" si="61"/>
         <v>541851.64799999993</v>
       </c>
       <c r="AQ67" s="30">
-        <f>AQ$29*$D$66*$E$67</f>
+        <f t="shared" si="61"/>
         <v>564055.36199999996</v>
       </c>
       <c r="AR67" s="45"/>
@@ -39927,7 +39926,7 @@
         <v>0.13589999999999999</v>
       </c>
       <c r="C68" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>37085207.399999999</v>
       </c>
       <c r="D68" s="23">
@@ -39949,103 +39948,103 @@
       <c r="Q68" s="10"/>
       <c r="R68" s="10"/>
       <c r="S68" s="20">
-        <f>S$29*$D$68</f>
+        <f t="shared" ref="S68:AQ68" si="62">S$29*$D$68</f>
         <v>5.34375</v>
       </c>
       <c r="T68" s="21">
-        <f>T$29*$D$68</f>
+        <f t="shared" si="62"/>
         <v>10.6875</v>
       </c>
       <c r="U68" s="21">
-        <f>U$29*$D$68</f>
+        <f t="shared" si="62"/>
         <v>21.375</v>
       </c>
       <c r="V68" s="21">
-        <f>V$29*$D$68</f>
+        <f t="shared" si="62"/>
         <v>42.75</v>
       </c>
       <c r="W68" s="21">
-        <f>W$29*$D$68</f>
+        <f t="shared" si="62"/>
         <v>85.5</v>
       </c>
       <c r="X68" s="21">
-        <f>X$29*$D$68</f>
+        <f t="shared" si="62"/>
         <v>171</v>
       </c>
       <c r="Y68" s="21">
-        <f>Y$29*$D$68</f>
+        <f t="shared" si="62"/>
         <v>342</v>
       </c>
       <c r="Z68" s="21">
-        <f>Z$29*$D$68</f>
+        <f t="shared" si="62"/>
         <v>684</v>
       </c>
       <c r="AA68" s="21">
-        <f>AA$29*$D$68</f>
+        <f t="shared" si="62"/>
         <v>1368</v>
       </c>
       <c r="AB68" s="21">
-        <f>AB$29*$D$68</f>
+        <f t="shared" si="62"/>
         <v>2736</v>
       </c>
       <c r="AC68" s="21">
-        <f>AC$29*$D$68</f>
+        <f t="shared" si="62"/>
         <v>5472</v>
       </c>
       <c r="AD68" s="21">
-        <f>AD$29*$D$68</f>
+        <f t="shared" si="62"/>
         <v>10944</v>
       </c>
       <c r="AE68" s="21">
-        <f>AE$29*$D$68</f>
+        <f t="shared" si="62"/>
         <v>21888</v>
       </c>
       <c r="AF68" s="21">
-        <f>AF$29*$D$68</f>
+        <f t="shared" si="62"/>
         <v>43776</v>
       </c>
       <c r="AG68" s="21">
-        <f>AG$29*$D$68</f>
+        <f t="shared" si="62"/>
         <v>87552</v>
       </c>
       <c r="AH68" s="21">
-        <f>AH$29*$D$68</f>
+        <f t="shared" si="62"/>
         <v>175104</v>
       </c>
       <c r="AI68" s="21">
-        <f>AI$29*$D$68</f>
+        <f t="shared" si="62"/>
         <v>350208</v>
       </c>
       <c r="AJ68" s="21">
-        <f>AJ$29*$D$68</f>
+        <f t="shared" si="62"/>
         <v>700416</v>
       </c>
       <c r="AK68" s="21">
-        <f>AK$29*$D$68</f>
+        <f t="shared" si="62"/>
         <v>1400832</v>
       </c>
       <c r="AL68" s="21">
-        <f>AL$29*$D$68</f>
+        <f t="shared" si="62"/>
         <v>2801664</v>
       </c>
       <c r="AM68" s="21">
-        <f>AM$29*$D$68</f>
+        <f t="shared" si="62"/>
         <v>5603328</v>
       </c>
       <c r="AN68" s="72">
-        <f>AN$29*$D$68</f>
+        <f t="shared" si="62"/>
         <v>11206656</v>
       </c>
       <c r="AO68" s="20">
-        <f>AO$29*$D$68</f>
+        <f t="shared" si="62"/>
         <v>22413312</v>
       </c>
       <c r="AP68" s="21">
-        <f>AP$29*$D$68</f>
+        <f t="shared" si="62"/>
         <v>44826624</v>
       </c>
       <c r="AQ68" s="21">
-        <f>AQ$29*$D$68</f>
+        <f t="shared" si="62"/>
         <v>46663506</v>
       </c>
       <c r="AR68" s="45"/>
@@ -40072,103 +40071,103 @@
       <c r="Q69" s="15"/>
       <c r="R69" s="10"/>
       <c r="S69" s="29">
-        <f>S$29*$D$68*$E$69</f>
+        <f t="shared" ref="S69:AQ69" si="63">S$29*$D$68*$E$69</f>
         <v>2.1375000000000002E-2</v>
       </c>
       <c r="T69" s="30">
-        <f>T$29*$D$68*$E$69</f>
+        <f t="shared" si="63"/>
         <v>4.2750000000000003E-2</v>
       </c>
       <c r="U69" s="30">
-        <f>U$29*$D$68*$E$69</f>
+        <f t="shared" si="63"/>
         <v>8.5500000000000007E-2</v>
       </c>
       <c r="V69" s="30">
-        <f>V$29*$D$68*$E$69</f>
+        <f t="shared" si="63"/>
         <v>0.17100000000000001</v>
       </c>
       <c r="W69" s="30">
-        <f>W$29*$D$68*$E$69</f>
+        <f t="shared" si="63"/>
         <v>0.34200000000000003</v>
       </c>
       <c r="X69" s="30">
-        <f>X$29*$D$68*$E$69</f>
+        <f t="shared" si="63"/>
         <v>0.68400000000000005</v>
       </c>
       <c r="Y69" s="30">
-        <f>Y$29*$D$68*$E$69</f>
+        <f t="shared" si="63"/>
         <v>1.3680000000000001</v>
       </c>
       <c r="Z69" s="30">
-        <f>Z$29*$D$68*$E$69</f>
+        <f t="shared" si="63"/>
         <v>2.7360000000000002</v>
       </c>
       <c r="AA69" s="30">
-        <f>AA$29*$D$68*$E$69</f>
+        <f t="shared" si="63"/>
         <v>5.4720000000000004</v>
       </c>
       <c r="AB69" s="30">
-        <f>AB$29*$D$68*$E$69</f>
+        <f t="shared" si="63"/>
         <v>10.944000000000001</v>
       </c>
       <c r="AC69" s="30">
-        <f>AC$29*$D$68*$E$69</f>
+        <f t="shared" si="63"/>
         <v>21.888000000000002</v>
       </c>
       <c r="AD69" s="30">
-        <f>AD$29*$D$68*$E$69</f>
+        <f t="shared" si="63"/>
         <v>43.776000000000003</v>
       </c>
       <c r="AE69" s="30">
-        <f>AE$29*$D$68*$E$69</f>
+        <f t="shared" si="63"/>
         <v>87.552000000000007</v>
       </c>
       <c r="AF69" s="30">
-        <f>AF$29*$D$68*$E$69</f>
+        <f t="shared" si="63"/>
         <v>175.10400000000001</v>
       </c>
       <c r="AG69" s="30">
-        <f>AG$29*$D$68*$E$69</f>
+        <f t="shared" si="63"/>
         <v>350.20800000000003</v>
       </c>
       <c r="AH69" s="30">
-        <f>AH$29*$D$68*$E$69</f>
+        <f t="shared" si="63"/>
         <v>700.41600000000005</v>
       </c>
       <c r="AI69" s="30">
-        <f>AI$29*$D$68*$E$69</f>
+        <f t="shared" si="63"/>
         <v>1400.8320000000001</v>
       </c>
       <c r="AJ69" s="30">
-        <f>AJ$29*$D$68*$E$69</f>
+        <f t="shared" si="63"/>
         <v>2801.6640000000002</v>
       </c>
       <c r="AK69" s="30">
-        <f>AK$29*$D$68*$E$69</f>
+        <f t="shared" si="63"/>
         <v>5603.3280000000004</v>
       </c>
       <c r="AL69" s="30">
-        <f>AL$29*$D$68*$E$69</f>
+        <f t="shared" si="63"/>
         <v>11206.656000000001</v>
       </c>
       <c r="AM69" s="30">
-        <f>AM$29*$D$68*$E$69</f>
+        <f t="shared" si="63"/>
         <v>22413.312000000002</v>
       </c>
       <c r="AN69" s="71">
-        <f>AN$29*$D$68*$E$69</f>
+        <f t="shared" si="63"/>
         <v>44826.624000000003</v>
       </c>
       <c r="AO69" s="29">
-        <f>AO$29*$D$68*$E$69</f>
+        <f t="shared" si="63"/>
         <v>89653.248000000007</v>
       </c>
       <c r="AP69" s="30">
-        <f>AP$29*$D$68*$E$69</f>
+        <f t="shared" si="63"/>
         <v>179306.49600000001</v>
       </c>
       <c r="AQ69" s="30">
-        <f>AQ$29*$D$68*$E$69</f>
+        <f t="shared" si="63"/>
         <v>186654.024</v>
       </c>
       <c r="AR69" s="45"/>
@@ -40182,7 +40181,7 @@
         <v>0.15310000000000001</v>
       </c>
       <c r="C70" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>41778846.600000001</v>
       </c>
       <c r="D70" s="23">
@@ -40204,103 +40203,103 @@
       <c r="Q70" s="10"/>
       <c r="R70" s="10"/>
       <c r="S70" s="20">
-        <f>S$29*$D$70</f>
+        <f t="shared" ref="S70:AQ70" si="64">S$29*$D$70</f>
         <v>6.84375</v>
       </c>
       <c r="T70" s="21">
-        <f>T$29*$D$70</f>
+        <f t="shared" si="64"/>
         <v>13.6875</v>
       </c>
       <c r="U70" s="21">
-        <f>U$29*$D$70</f>
+        <f t="shared" si="64"/>
         <v>27.375</v>
       </c>
       <c r="V70" s="21">
-        <f>V$29*$D$70</f>
+        <f t="shared" si="64"/>
         <v>54.75</v>
       </c>
       <c r="W70" s="21">
-        <f>W$29*$D$70</f>
+        <f t="shared" si="64"/>
         <v>109.5</v>
       </c>
       <c r="X70" s="21">
-        <f>X$29*$D$70</f>
+        <f t="shared" si="64"/>
         <v>219</v>
       </c>
       <c r="Y70" s="21">
-        <f>Y$29*$D$70</f>
+        <f t="shared" si="64"/>
         <v>438</v>
       </c>
       <c r="Z70" s="21">
-        <f>Z$29*$D$70</f>
+        <f t="shared" si="64"/>
         <v>876</v>
       </c>
       <c r="AA70" s="21">
-        <f>AA$29*$D$70</f>
+        <f t="shared" si="64"/>
         <v>1752</v>
       </c>
       <c r="AB70" s="21">
-        <f>AB$29*$D$70</f>
+        <f t="shared" si="64"/>
         <v>3504</v>
       </c>
       <c r="AC70" s="21">
-        <f>AC$29*$D$70</f>
+        <f t="shared" si="64"/>
         <v>7008</v>
       </c>
       <c r="AD70" s="21">
-        <f>AD$29*$D$70</f>
+        <f t="shared" si="64"/>
         <v>14016</v>
       </c>
       <c r="AE70" s="21">
-        <f>AE$29*$D$70</f>
+        <f t="shared" si="64"/>
         <v>28032</v>
       </c>
       <c r="AF70" s="21">
-        <f>AF$29*$D$70</f>
+        <f t="shared" si="64"/>
         <v>56064</v>
       </c>
       <c r="AG70" s="21">
-        <f>AG$29*$D$70</f>
+        <f t="shared" si="64"/>
         <v>112128</v>
       </c>
       <c r="AH70" s="21">
-        <f>AH$29*$D$70</f>
+        <f t="shared" si="64"/>
         <v>224256</v>
       </c>
       <c r="AI70" s="21">
-        <f>AI$29*$D$70</f>
+        <f t="shared" si="64"/>
         <v>448512</v>
       </c>
       <c r="AJ70" s="21">
-        <f>AJ$29*$D$70</f>
+        <f t="shared" si="64"/>
         <v>897024</v>
       </c>
       <c r="AK70" s="21">
-        <f>AK$29*$D$70</f>
+        <f t="shared" si="64"/>
         <v>1794048</v>
       </c>
       <c r="AL70" s="21">
-        <f>AL$29*$D$70</f>
+        <f t="shared" si="64"/>
         <v>3588096</v>
       </c>
       <c r="AM70" s="21">
-        <f>AM$29*$D$70</f>
+        <f t="shared" si="64"/>
         <v>7176192</v>
       </c>
       <c r="AN70" s="72">
-        <f>AN$29*$D$70</f>
+        <f t="shared" si="64"/>
         <v>14352384</v>
       </c>
       <c r="AO70" s="20">
-        <f>AO$29*$D$70</f>
+        <f t="shared" si="64"/>
         <v>28704768</v>
       </c>
       <c r="AP70" s="21">
-        <f>AP$29*$D$70</f>
+        <f t="shared" si="64"/>
         <v>57409536</v>
       </c>
       <c r="AQ70" s="21">
-        <f>AQ$29*$D$70</f>
+        <f t="shared" si="64"/>
         <v>59762034</v>
       </c>
       <c r="AR70" s="45"/>
@@ -40327,103 +40326,103 @@
       <c r="Q71" s="15"/>
       <c r="R71" s="10"/>
       <c r="S71" s="29">
-        <f>S$29*$D$70*$E$71</f>
+        <f t="shared" ref="S71:AQ71" si="65">S$29*$D$70*$E$71</f>
         <v>1.36875E-2</v>
       </c>
       <c r="T71" s="30">
-        <f>T$29*$D$70*$E$71</f>
+        <f t="shared" si="65"/>
         <v>2.7375E-2</v>
       </c>
       <c r="U71" s="30">
-        <f>U$29*$D$70*$E$71</f>
+        <f t="shared" si="65"/>
         <v>5.475E-2</v>
       </c>
       <c r="V71" s="30">
-        <f>V$29*$D$70*$E$71</f>
+        <f t="shared" si="65"/>
         <v>0.1095</v>
       </c>
       <c r="W71" s="30">
-        <f>W$29*$D$70*$E$71</f>
+        <f t="shared" si="65"/>
         <v>0.219</v>
       </c>
       <c r="X71" s="30">
-        <f>X$29*$D$70*$E$71</f>
+        <f t="shared" si="65"/>
         <v>0.438</v>
       </c>
       <c r="Y71" s="30">
-        <f>Y$29*$D$70*$E$71</f>
+        <f t="shared" si="65"/>
         <v>0.876</v>
       </c>
       <c r="Z71" s="30">
-        <f>Z$29*$D$70*$E$71</f>
+        <f t="shared" si="65"/>
         <v>1.752</v>
       </c>
       <c r="AA71" s="30">
-        <f>AA$29*$D$70*$E$71</f>
+        <f t="shared" si="65"/>
         <v>3.504</v>
       </c>
       <c r="AB71" s="30">
-        <f>AB$29*$D$70*$E$71</f>
+        <f t="shared" si="65"/>
         <v>7.008</v>
       </c>
       <c r="AC71" s="30">
-        <f>AC$29*$D$70*$E$71</f>
+        <f t="shared" si="65"/>
         <v>14.016</v>
       </c>
       <c r="AD71" s="30">
-        <f>AD$29*$D$70*$E$71</f>
+        <f t="shared" si="65"/>
         <v>28.032</v>
       </c>
       <c r="AE71" s="30">
-        <f>AE$29*$D$70*$E$71</f>
+        <f t="shared" si="65"/>
         <v>56.064</v>
       </c>
       <c r="AF71" s="30">
-        <f>AF$29*$D$70*$E$71</f>
+        <f t="shared" si="65"/>
         <v>112.128</v>
       </c>
       <c r="AG71" s="30">
-        <f>AG$29*$D$70*$E$71</f>
+        <f t="shared" si="65"/>
         <v>224.256</v>
       </c>
       <c r="AH71" s="30">
-        <f>AH$29*$D$70*$E$71</f>
+        <f t="shared" si="65"/>
         <v>448.512</v>
       </c>
       <c r="AI71" s="30">
-        <f>AI$29*$D$70*$E$71</f>
+        <f t="shared" si="65"/>
         <v>897.024</v>
       </c>
       <c r="AJ71" s="30">
-        <f>AJ$29*$D$70*$E$71</f>
+        <f t="shared" si="65"/>
         <v>1794.048</v>
       </c>
       <c r="AK71" s="30">
-        <f>AK$29*$D$70*$E$71</f>
+        <f t="shared" si="65"/>
         <v>3588.096</v>
       </c>
       <c r="AL71" s="30">
-        <f>AL$29*$D$70*$E$71</f>
+        <f t="shared" si="65"/>
         <v>7176.192</v>
       </c>
       <c r="AM71" s="30">
-        <f>AM$29*$D$70*$E$71</f>
+        <f t="shared" si="65"/>
         <v>14352.384</v>
       </c>
       <c r="AN71" s="71">
-        <f>AN$29*$D$70*$E$71</f>
+        <f t="shared" si="65"/>
         <v>28704.768</v>
       </c>
       <c r="AO71" s="29">
-        <f>AO$29*$D$70*$E$71</f>
+        <f t="shared" si="65"/>
         <v>57409.536</v>
       </c>
       <c r="AP71" s="30">
-        <f>AP$29*$D$70*$E$71</f>
+        <f t="shared" si="65"/>
         <v>114819.072</v>
       </c>
       <c r="AQ71" s="30">
-        <f>AQ$29*$D$70*$E$71</f>
+        <f t="shared" si="65"/>
         <v>119524.068</v>
       </c>
       <c r="AR71" s="45"/>
@@ -40437,7 +40436,7 @@
         <v>0.1608</v>
       </c>
       <c r="C72" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>43880068.799999997</v>
       </c>
       <c r="D72" s="23">
@@ -40459,103 +40458,103 @@
       <c r="Q72" s="10"/>
       <c r="R72" s="10"/>
       <c r="S72" s="20">
-        <f>S$29*$D$72</f>
+        <f t="shared" ref="S72:AQ72" si="66">S$29*$D$72</f>
         <v>7.25</v>
       </c>
       <c r="T72" s="21">
-        <f>T$29*$D$72</f>
+        <f t="shared" si="66"/>
         <v>14.5</v>
       </c>
       <c r="U72" s="21">
-        <f>U$29*$D$72</f>
+        <f t="shared" si="66"/>
         <v>29</v>
       </c>
       <c r="V72" s="21">
-        <f>V$29*$D$72</f>
+        <f t="shared" si="66"/>
         <v>58</v>
       </c>
       <c r="W72" s="21">
-        <f>W$29*$D$72</f>
+        <f t="shared" si="66"/>
         <v>116</v>
       </c>
       <c r="X72" s="21">
-        <f>X$29*$D$72</f>
+        <f t="shared" si="66"/>
         <v>232</v>
       </c>
       <c r="Y72" s="21">
-        <f>Y$29*$D$72</f>
+        <f t="shared" si="66"/>
         <v>464</v>
       </c>
       <c r="Z72" s="21">
-        <f>Z$29*$D$72</f>
+        <f t="shared" si="66"/>
         <v>928</v>
       </c>
       <c r="AA72" s="21">
-        <f>AA$29*$D$72</f>
+        <f t="shared" si="66"/>
         <v>1856</v>
       </c>
       <c r="AB72" s="21">
-        <f>AB$29*$D$72</f>
+        <f t="shared" si="66"/>
         <v>3712</v>
       </c>
       <c r="AC72" s="21">
-        <f>AC$29*$D$72</f>
+        <f t="shared" si="66"/>
         <v>7424</v>
       </c>
       <c r="AD72" s="21">
-        <f>AD$29*$D$72</f>
+        <f t="shared" si="66"/>
         <v>14848</v>
       </c>
       <c r="AE72" s="21">
-        <f>AE$29*$D$72</f>
+        <f t="shared" si="66"/>
         <v>29696</v>
       </c>
       <c r="AF72" s="21">
-        <f>AF$29*$D$72</f>
+        <f t="shared" si="66"/>
         <v>59392</v>
       </c>
       <c r="AG72" s="21">
-        <f>AG$29*$D$72</f>
+        <f t="shared" si="66"/>
         <v>118784</v>
       </c>
       <c r="AH72" s="21">
-        <f>AH$29*$D$72</f>
+        <f t="shared" si="66"/>
         <v>237568</v>
       </c>
       <c r="AI72" s="21">
-        <f>AI$29*$D$72</f>
+        <f t="shared" si="66"/>
         <v>475136</v>
       </c>
       <c r="AJ72" s="21">
-        <f>AJ$29*$D$72</f>
+        <f t="shared" si="66"/>
         <v>950272</v>
       </c>
       <c r="AK72" s="21">
-        <f>AK$29*$D$72</f>
+        <f t="shared" si="66"/>
         <v>1900544</v>
       </c>
       <c r="AL72" s="21">
-        <f>AL$29*$D$72</f>
+        <f t="shared" si="66"/>
         <v>3801088</v>
       </c>
       <c r="AM72" s="21">
-        <f>AM$29*$D$72</f>
+        <f t="shared" si="66"/>
         <v>7602176</v>
       </c>
       <c r="AN72" s="72">
-        <f>AN$29*$D$72</f>
+        <f t="shared" si="66"/>
         <v>15204352</v>
       </c>
       <c r="AO72" s="20">
-        <f>AO$29*$D$72</f>
+        <f t="shared" si="66"/>
         <v>30408704</v>
       </c>
       <c r="AP72" s="21">
-        <f>AP$29*$D$72</f>
+        <f t="shared" si="66"/>
         <v>60817408</v>
       </c>
       <c r="AQ72" s="21">
-        <f>AQ$29*$D$72</f>
+        <f t="shared" si="66"/>
         <v>63309552</v>
       </c>
       <c r="AR72" s="45"/>
@@ -40582,103 +40581,103 @@
       <c r="Q73" s="15"/>
       <c r="R73" s="10"/>
       <c r="S73" s="29">
-        <f>S$29*$D$72*$E$73</f>
+        <f t="shared" ref="S73:AQ73" si="67">S$29*$D$72*$E$73</f>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="T73" s="30">
-        <f>T$29*$D$72*$E$73</f>
+        <f t="shared" si="67"/>
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="U73" s="30">
-        <f>U$29*$D$72*$E$73</f>
+        <f t="shared" si="67"/>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="V73" s="30">
-        <f>V$29*$D$72*$E$73</f>
+        <f t="shared" si="67"/>
         <v>0.11600000000000001</v>
       </c>
       <c r="W73" s="30">
-        <f>W$29*$D$72*$E$73</f>
+        <f t="shared" si="67"/>
         <v>0.23200000000000001</v>
       </c>
       <c r="X73" s="30">
-        <f>X$29*$D$72*$E$73</f>
+        <f t="shared" si="67"/>
         <v>0.46400000000000002</v>
       </c>
       <c r="Y73" s="30">
-        <f>Y$29*$D$72*$E$73</f>
+        <f t="shared" si="67"/>
         <v>0.92800000000000005</v>
       </c>
       <c r="Z73" s="30">
-        <f>Z$29*$D$72*$E$73</f>
+        <f t="shared" si="67"/>
         <v>1.8560000000000001</v>
       </c>
       <c r="AA73" s="30">
-        <f>AA$29*$D$72*$E$73</f>
+        <f t="shared" si="67"/>
         <v>3.7120000000000002</v>
       </c>
       <c r="AB73" s="30">
-        <f>AB$29*$D$72*$E$73</f>
+        <f t="shared" si="67"/>
         <v>7.4240000000000004</v>
       </c>
       <c r="AC73" s="30">
-        <f>AC$29*$D$72*$E$73</f>
+        <f t="shared" si="67"/>
         <v>14.848000000000001</v>
       </c>
       <c r="AD73" s="30">
-        <f>AD$29*$D$72*$E$73</f>
+        <f t="shared" si="67"/>
         <v>29.696000000000002</v>
       </c>
       <c r="AE73" s="30">
-        <f>AE$29*$D$72*$E$73</f>
+        <f t="shared" si="67"/>
         <v>59.392000000000003</v>
       </c>
       <c r="AF73" s="30">
-        <f>AF$29*$D$72*$E$73</f>
+        <f t="shared" si="67"/>
         <v>118.78400000000001</v>
       </c>
       <c r="AG73" s="30">
-        <f>AG$29*$D$72*$E$73</f>
+        <f t="shared" si="67"/>
         <v>237.56800000000001</v>
       </c>
       <c r="AH73" s="30">
-        <f>AH$29*$D$72*$E$73</f>
+        <f t="shared" si="67"/>
         <v>475.13600000000002</v>
       </c>
       <c r="AI73" s="30">
-        <f>AI$29*$D$72*$E$73</f>
+        <f t="shared" si="67"/>
         <v>950.27200000000005</v>
       </c>
       <c r="AJ73" s="30">
-        <f>AJ$29*$D$72*$E$73</f>
+        <f t="shared" si="67"/>
         <v>1900.5440000000001</v>
       </c>
       <c r="AK73" s="30">
-        <f>AK$29*$D$72*$E$73</f>
+        <f t="shared" si="67"/>
         <v>3801.0880000000002</v>
       </c>
       <c r="AL73" s="30">
-        <f>AL$29*$D$72*$E$73</f>
+        <f t="shared" si="67"/>
         <v>7602.1760000000004</v>
       </c>
       <c r="AM73" s="30">
-        <f>AM$29*$D$72*$E$73</f>
+        <f t="shared" si="67"/>
         <v>15204.352000000001</v>
       </c>
       <c r="AN73" s="71">
-        <f>AN$29*$D$72*$E$73</f>
+        <f t="shared" si="67"/>
         <v>30408.704000000002</v>
       </c>
       <c r="AO73" s="29">
-        <f>AO$29*$D$72*$E$73</f>
+        <f t="shared" si="67"/>
         <v>60817.408000000003</v>
       </c>
       <c r="AP73" s="30">
-        <f>AP$29*$D$72*$E$73</f>
+        <f t="shared" si="67"/>
         <v>121634.81600000001</v>
       </c>
       <c r="AQ73" s="30">
-        <f>AQ$29*$D$72*$E$73</f>
+        <f t="shared" si="67"/>
         <v>126619.10400000001</v>
       </c>
       <c r="AR73" s="45"/>
@@ -40692,7 +40691,7 @@
         <v>0.1729</v>
       </c>
       <c r="C74" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>47181989.399999999</v>
       </c>
       <c r="D74" s="23">
@@ -40714,103 +40713,103 @@
       <c r="Q74" s="10"/>
       <c r="R74" s="10"/>
       <c r="S74" s="20">
-        <f>S$29*$D$74</f>
+        <f t="shared" ref="S74:AQ74" si="68">S$29*$D$74</f>
         <v>1.1875</v>
       </c>
       <c r="T74" s="21">
-        <f>T$29*$D$74</f>
+        <f t="shared" si="68"/>
         <v>2.375</v>
       </c>
       <c r="U74" s="21">
-        <f>U$29*$D$74</f>
+        <f t="shared" si="68"/>
         <v>4.75</v>
       </c>
       <c r="V74" s="21">
-        <f>V$29*$D$74</f>
+        <f t="shared" si="68"/>
         <v>9.5</v>
       </c>
       <c r="W74" s="21">
-        <f>W$29*$D$74</f>
+        <f t="shared" si="68"/>
         <v>19</v>
       </c>
       <c r="X74" s="21">
-        <f>X$29*$D$74</f>
+        <f t="shared" si="68"/>
         <v>38</v>
       </c>
       <c r="Y74" s="21">
-        <f>Y$29*$D$74</f>
+        <f t="shared" si="68"/>
         <v>76</v>
       </c>
       <c r="Z74" s="21">
-        <f>Z$29*$D$74</f>
+        <f t="shared" si="68"/>
         <v>152</v>
       </c>
       <c r="AA74" s="21">
-        <f>AA$29*$D$74</f>
+        <f t="shared" si="68"/>
         <v>304</v>
       </c>
       <c r="AB74" s="21">
-        <f>AB$29*$D$74</f>
+        <f t="shared" si="68"/>
         <v>608</v>
       </c>
       <c r="AC74" s="21">
-        <f>AC$29*$D$74</f>
+        <f t="shared" si="68"/>
         <v>1216</v>
       </c>
       <c r="AD74" s="21">
-        <f>AD$29*$D$74</f>
+        <f t="shared" si="68"/>
         <v>2432</v>
       </c>
       <c r="AE74" s="21">
-        <f>AE$29*$D$74</f>
+        <f t="shared" si="68"/>
         <v>4864</v>
       </c>
       <c r="AF74" s="21">
-        <f>AF$29*$D$74</f>
+        <f t="shared" si="68"/>
         <v>9728</v>
       </c>
       <c r="AG74" s="21">
-        <f>AG$29*$D$74</f>
+        <f t="shared" si="68"/>
         <v>19456</v>
       </c>
       <c r="AH74" s="21">
-        <f>AH$29*$D$74</f>
+        <f t="shared" si="68"/>
         <v>38912</v>
       </c>
       <c r="AI74" s="21">
-        <f>AI$29*$D$74</f>
+        <f t="shared" si="68"/>
         <v>77824</v>
       </c>
       <c r="AJ74" s="21">
-        <f>AJ$29*$D$74</f>
+        <f t="shared" si="68"/>
         <v>155648</v>
       </c>
       <c r="AK74" s="21">
-        <f>AK$29*$D$74</f>
+        <f t="shared" si="68"/>
         <v>311296</v>
       </c>
       <c r="AL74" s="21">
-        <f>AL$29*$D$74</f>
+        <f t="shared" si="68"/>
         <v>622592</v>
       </c>
       <c r="AM74" s="21">
-        <f>AM$29*$D$74</f>
+        <f t="shared" si="68"/>
         <v>1245184</v>
       </c>
       <c r="AN74" s="72">
-        <f>AN$29*$D$74</f>
+        <f t="shared" si="68"/>
         <v>2490368</v>
       </c>
       <c r="AO74" s="20">
-        <f>AO$29*$D$74</f>
+        <f t="shared" si="68"/>
         <v>4980736</v>
       </c>
       <c r="AP74" s="21">
-        <f>AP$29*$D$74</f>
+        <f t="shared" si="68"/>
         <v>9961472</v>
       </c>
       <c r="AQ74" s="21">
-        <f>AQ$29*$D$74</f>
+        <f t="shared" si="68"/>
         <v>10369668</v>
       </c>
       <c r="AR74" s="45"/>
@@ -40837,103 +40836,103 @@
       <c r="Q75" s="15"/>
       <c r="R75" s="10"/>
       <c r="S75" s="29">
-        <f>S$29*$D$74*$E$75</f>
+        <f t="shared" ref="S75:AQ75" si="69">S$29*$D$74*$E$75</f>
         <v>2.3749999999999999E-3</v>
       </c>
       <c r="T75" s="30">
-        <f>T$29*$D$74*$E$75</f>
+        <f t="shared" si="69"/>
         <v>4.7499999999999999E-3</v>
       </c>
       <c r="U75" s="30">
-        <f>U$29*$D$74*$E$75</f>
+        <f t="shared" si="69"/>
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="V75" s="30">
-        <f>V$29*$D$74*$E$75</f>
+        <f t="shared" si="69"/>
         <v>1.9E-2</v>
       </c>
       <c r="W75" s="30">
-        <f>W$29*$D$74*$E$75</f>
+        <f t="shared" si="69"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="X75" s="30">
-        <f>X$29*$D$74*$E$75</f>
+        <f t="shared" si="69"/>
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="Y75" s="30">
-        <f>Y$29*$D$74*$E$75</f>
+        <f t="shared" si="69"/>
         <v>0.152</v>
       </c>
       <c r="Z75" s="30">
-        <f>Z$29*$D$74*$E$75</f>
+        <f t="shared" si="69"/>
         <v>0.30399999999999999</v>
       </c>
       <c r="AA75" s="30">
-        <f>AA$29*$D$74*$E$75</f>
+        <f t="shared" si="69"/>
         <v>0.60799999999999998</v>
       </c>
       <c r="AB75" s="30">
-        <f>AB$29*$D$74*$E$75</f>
+        <f t="shared" si="69"/>
         <v>1.216</v>
       </c>
       <c r="AC75" s="30">
-        <f>AC$29*$D$74*$E$75</f>
+        <f t="shared" si="69"/>
         <v>2.4319999999999999</v>
       </c>
       <c r="AD75" s="30">
-        <f>AD$29*$D$74*$E$75</f>
+        <f t="shared" si="69"/>
         <v>4.8639999999999999</v>
       </c>
       <c r="AE75" s="30">
-        <f>AE$29*$D$74*$E$75</f>
+        <f t="shared" si="69"/>
         <v>9.7279999999999998</v>
       </c>
       <c r="AF75" s="30">
-        <f>AF$29*$D$74*$E$75</f>
+        <f t="shared" si="69"/>
         <v>19.456</v>
       </c>
       <c r="AG75" s="30">
-        <f>AG$29*$D$74*$E$75</f>
+        <f t="shared" si="69"/>
         <v>38.911999999999999</v>
       </c>
       <c r="AH75" s="30">
-        <f>AH$29*$D$74*$E$75</f>
+        <f t="shared" si="69"/>
         <v>77.823999999999998</v>
       </c>
       <c r="AI75" s="30">
-        <f>AI$29*$D$74*$E$75</f>
+        <f t="shared" si="69"/>
         <v>155.648</v>
       </c>
       <c r="AJ75" s="30">
-        <f>AJ$29*$D$74*$E$75</f>
+        <f t="shared" si="69"/>
         <v>311.29599999999999</v>
       </c>
       <c r="AK75" s="30">
-        <f>AK$29*$D$74*$E$75</f>
+        <f t="shared" si="69"/>
         <v>622.59199999999998</v>
       </c>
       <c r="AL75" s="30">
-        <f>AL$29*$D$74*$E$75</f>
+        <f t="shared" si="69"/>
         <v>1245.184</v>
       </c>
       <c r="AM75" s="30">
-        <f>AM$29*$D$74*$E$75</f>
+        <f t="shared" si="69"/>
         <v>2490.3679999999999</v>
       </c>
       <c r="AN75" s="71">
-        <f>AN$29*$D$74*$E$75</f>
+        <f t="shared" si="69"/>
         <v>4980.7359999999999</v>
       </c>
       <c r="AO75" s="29">
-        <f>AO$29*$D$74*$E$75</f>
+        <f t="shared" si="69"/>
         <v>9961.4719999999998</v>
       </c>
       <c r="AP75" s="30">
-        <f>AP$29*$D$74*$E$75</f>
+        <f t="shared" si="69"/>
         <v>19922.944</v>
       </c>
       <c r="AQ75" s="30">
-        <f>AQ$29*$D$74*$E$75</f>
+        <f t="shared" si="69"/>
         <v>20739.335999999999</v>
       </c>
       <c r="AR75" s="45"/>
@@ -40947,7 +40946,7 @@
         <v>0.1774</v>
       </c>
       <c r="C76" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="55"/>
         <v>48409976.399999999</v>
       </c>
       <c r="D76" s="23">
@@ -40969,103 +40968,103 @@
       <c r="Q76" s="10"/>
       <c r="R76" s="10"/>
       <c r="S76" s="20">
-        <f>S$29*$D$76</f>
+        <f t="shared" ref="S76:AQ76" si="70">S$29*$D$76</f>
         <v>0.65625</v>
       </c>
       <c r="T76" s="21">
-        <f>T$29*$D$76</f>
+        <f t="shared" si="70"/>
         <v>1.3125</v>
       </c>
       <c r="U76" s="21">
-        <f>U$29*$D$76</f>
+        <f t="shared" si="70"/>
         <v>2.625</v>
       </c>
       <c r="V76" s="21">
-        <f>V$29*$D$76</f>
+        <f t="shared" si="70"/>
         <v>5.25</v>
       </c>
       <c r="W76" s="21">
-        <f>W$29*$D$76</f>
+        <f t="shared" si="70"/>
         <v>10.5</v>
       </c>
       <c r="X76" s="21">
-        <f>X$29*$D$76</f>
+        <f t="shared" si="70"/>
         <v>21</v>
       </c>
       <c r="Y76" s="21">
-        <f>Y$29*$D$76</f>
+        <f t="shared" si="70"/>
         <v>42</v>
       </c>
       <c r="Z76" s="21">
-        <f>Z$29*$D$76</f>
+        <f t="shared" si="70"/>
         <v>84</v>
       </c>
       <c r="AA76" s="21">
-        <f>AA$29*$D$76</f>
+        <f t="shared" si="70"/>
         <v>168</v>
       </c>
       <c r="AB76" s="21">
-        <f>AB$29*$D$76</f>
+        <f t="shared" si="70"/>
         <v>336</v>
       </c>
       <c r="AC76" s="21">
-        <f>AC$29*$D$76</f>
+        <f t="shared" si="70"/>
         <v>672</v>
       </c>
       <c r="AD76" s="21">
-        <f>AD$29*$D$76</f>
+        <f t="shared" si="70"/>
         <v>1344</v>
       </c>
       <c r="AE76" s="21">
-        <f>AE$29*$D$76</f>
+        <f t="shared" si="70"/>
         <v>2688</v>
       </c>
       <c r="AF76" s="21">
-        <f>AF$29*$D$76</f>
+        <f t="shared" si="70"/>
         <v>5376</v>
       </c>
       <c r="AG76" s="21">
-        <f>AG$29*$D$76</f>
+        <f t="shared" si="70"/>
         <v>10752</v>
       </c>
       <c r="AH76" s="21">
-        <f>AH$29*$D$76</f>
+        <f t="shared" si="70"/>
         <v>21504</v>
       </c>
       <c r="AI76" s="21">
-        <f>AI$29*$D$76</f>
+        <f t="shared" si="70"/>
         <v>43008</v>
       </c>
       <c r="AJ76" s="21">
-        <f>AJ$29*$D$76</f>
+        <f t="shared" si="70"/>
         <v>86016</v>
       </c>
       <c r="AK76" s="21">
-        <f>AK$29*$D$76</f>
+        <f t="shared" si="70"/>
         <v>172032</v>
       </c>
       <c r="AL76" s="21">
-        <f>AL$29*$D$76</f>
+        <f t="shared" si="70"/>
         <v>344064</v>
       </c>
       <c r="AM76" s="21">
-        <f>AM$29*$D$76</f>
+        <f t="shared" si="70"/>
         <v>688128</v>
       </c>
       <c r="AN76" s="72">
-        <f>AN$29*$D$76</f>
+        <f t="shared" si="70"/>
         <v>1376256</v>
       </c>
       <c r="AO76" s="20">
-        <f>AO$29*$D$76</f>
+        <f t="shared" si="70"/>
         <v>2752512</v>
       </c>
       <c r="AP76" s="21">
-        <f>AP$29*$D$76</f>
+        <f t="shared" si="70"/>
         <v>5505024</v>
       </c>
       <c r="AQ76" s="21">
-        <f>AQ$29*$D$76</f>
+        <f t="shared" si="70"/>
         <v>5730606</v>
       </c>
       <c r="AR76" s="45"/>
@@ -41092,103 +41091,103 @@
       <c r="Q77" s="10"/>
       <c r="R77" s="10"/>
       <c r="S77" s="31">
-        <f>S$29*$D$76*$E$77</f>
+        <f t="shared" ref="S77:AQ77" si="71">S$29*$D$76*$E$77</f>
         <v>0</v>
       </c>
       <c r="T77" s="32">
-        <f>T$29*$D$76*$E$77</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="U77" s="32">
-        <f>U$29*$D$76*$E$77</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="V77" s="32">
-        <f>V$29*$D$76*$E$77</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="W77" s="32">
-        <f>W$29*$D$76*$E$77</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="X77" s="32">
-        <f>X$29*$D$76*$E$77</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="Y77" s="32">
-        <f>Y$29*$D$76*$E$77</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="Z77" s="32">
-        <f>Z$29*$D$76*$E$77</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AA77" s="32">
-        <f>AA$29*$D$76*$E$77</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AB77" s="32">
-        <f>AB$29*$D$76*$E$77</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AC77" s="32">
-        <f>AC$29*$D$76*$E$77</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AD77" s="32">
-        <f>AD$29*$D$76*$E$77</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AE77" s="32">
-        <f>AE$29*$D$76*$E$77</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AF77" s="32">
-        <f>AF$29*$D$76*$E$77</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AG77" s="32">
-        <f>AG$29*$D$76*$E$77</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AH77" s="32">
-        <f>AH$29*$D$76*$E$77</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AI77" s="32">
-        <f>AI$29*$D$76*$E$77</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AJ77" s="32">
-        <f>AJ$29*$D$76*$E$77</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AK77" s="32">
-        <f>AK$29*$D$76*$E$77</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AL77" s="32">
-        <f>AL$29*$D$76*$E$77</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AM77" s="32">
-        <f>AM$29*$D$76*$E$77</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AN77" s="73">
-        <f>AN$29*$D$76*$E$77</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AO77" s="29">
-        <f>AO$29*$D$76*$E$77</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AP77" s="30">
-        <f>AP$29*$D$76*$E$77</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AQ77" s="30">
-        <f>AQ$29*$D$76*$E$77</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AR77" s="45"/>
@@ -41215,23 +41214,23 @@
       <c r="Q78" s="10"/>
       <c r="R78" s="10"/>
       <c r="S78" s="18">
-        <f t="shared" ref="S78:AI78" si="38">SUM(S60,S62,S64,S66,S68,S70,S72,S74,S76)</f>
+        <f t="shared" ref="S78:AI78" si="72">SUM(S60,S62,S64,S66,S68,S70,S72,S74,S76)</f>
         <v>31.25</v>
       </c>
       <c r="T78" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="72"/>
         <v>62.5</v>
       </c>
       <c r="U78" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="72"/>
         <v>125</v>
       </c>
       <c r="V78" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="72"/>
         <v>250</v>
       </c>
       <c r="W78" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="72"/>
         <v>500</v>
       </c>
       <c r="X78" s="19">
@@ -41239,79 +41238,79 @@
         <v>1000</v>
       </c>
       <c r="Y78" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="72"/>
         <v>2000</v>
       </c>
       <c r="Z78" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="72"/>
         <v>4000</v>
       </c>
       <c r="AA78" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="72"/>
         <v>8000</v>
       </c>
       <c r="AB78" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="72"/>
         <v>16000</v>
       </c>
       <c r="AC78" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="72"/>
         <v>32000</v>
       </c>
       <c r="AD78" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="72"/>
         <v>64000</v>
       </c>
       <c r="AE78" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="72"/>
         <v>128000</v>
       </c>
       <c r="AF78" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="72"/>
         <v>256000</v>
       </c>
       <c r="AG78" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="72"/>
         <v>512000</v>
       </c>
       <c r="AH78" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="72"/>
         <v>1024000</v>
       </c>
       <c r="AI78" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" si="72"/>
         <v>2048000</v>
       </c>
       <c r="AJ78" s="19">
-        <f t="shared" ref="AJ78:AL79" si="39">SUM(AJ60,AJ62,AJ64,AJ66,AJ68,AJ70,AJ72,AJ74,AJ76)</f>
+        <f t="shared" ref="AJ78:AL79" si="73">SUM(AJ60,AJ62,AJ64,AJ66,AJ68,AJ70,AJ72,AJ74,AJ76)</f>
         <v>4096000</v>
       </c>
       <c r="AK78" s="19">
-        <f t="shared" si="39"/>
+        <f t="shared" si="73"/>
         <v>8192000</v>
       </c>
       <c r="AL78" s="19">
-        <f t="shared" si="39"/>
+        <f t="shared" si="73"/>
         <v>16384000</v>
       </c>
       <c r="AM78" s="19">
-        <f t="shared" ref="AM78:AQ78" si="40">SUM(AM60,AM62,AM64,AM66,AM68,AM70,AM72,AM74,AM76)</f>
+        <f t="shared" ref="AM78:AQ78" si="74">SUM(AM60,AM62,AM64,AM66,AM68,AM70,AM72,AM74,AM76)</f>
         <v>32768000</v>
       </c>
       <c r="AN78" s="19">
-        <f t="shared" si="40"/>
+        <f t="shared" si="74"/>
         <v>65536000</v>
       </c>
       <c r="AO78" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="74"/>
         <v>131072000</v>
       </c>
       <c r="AP78" s="19">
-        <f t="shared" si="40"/>
+        <f t="shared" si="74"/>
         <v>262144000</v>
       </c>
       <c r="AQ78" s="19">
-        <f t="shared" si="40"/>
+        <f t="shared" si="74"/>
         <v>272886000</v>
       </c>
       <c r="AR78" s="45"/>
@@ -41346,95 +41345,95 @@
         <v>0.74281249999999999</v>
       </c>
       <c r="U79" s="32">
-        <f t="shared" ref="U79:AI79" si="41">SUM(U61,U63,U65,U67,U69,U71,U73,U75,U77)</f>
+        <f t="shared" ref="U79:AI79" si="75">SUM(U61,U63,U65,U67,U69,U71,U73,U75,U77)</f>
         <v>1.485625</v>
       </c>
       <c r="V79" s="32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="75"/>
         <v>2.9712499999999999</v>
       </c>
       <c r="W79" s="32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="75"/>
         <v>5.9424999999999999</v>
       </c>
       <c r="X79" s="32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="75"/>
         <v>11.885</v>
       </c>
       <c r="Y79" s="32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="75"/>
         <v>23.77</v>
       </c>
       <c r="Z79" s="32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="75"/>
         <v>47.54</v>
       </c>
       <c r="AA79" s="32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="75"/>
         <v>95.08</v>
       </c>
       <c r="AB79" s="32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="75"/>
         <v>190.16</v>
       </c>
       <c r="AC79" s="32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="75"/>
         <v>380.32</v>
       </c>
       <c r="AD79" s="32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="75"/>
         <v>760.64</v>
       </c>
       <c r="AE79" s="32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="75"/>
         <v>1521.28</v>
       </c>
       <c r="AF79" s="32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="75"/>
         <v>3042.56</v>
       </c>
       <c r="AG79" s="32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="75"/>
         <v>6085.12</v>
       </c>
       <c r="AH79" s="32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="75"/>
         <v>12170.24</v>
       </c>
       <c r="AI79" s="32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="75"/>
         <v>24340.48</v>
       </c>
       <c r="AJ79" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="73"/>
         <v>48680.959999999999</v>
       </c>
       <c r="AK79" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="73"/>
         <v>97361.919999999998</v>
       </c>
       <c r="AL79" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="73"/>
         <v>194723.84</v>
       </c>
       <c r="AM79" s="32">
-        <f t="shared" ref="AM79:AQ79" si="42">SUM(AM61,AM63,AM65,AM67,AM69,AM71,AM73,AM75,AM77)</f>
+        <f t="shared" ref="AM79:AQ79" si="76">SUM(AM61,AM63,AM65,AM67,AM69,AM71,AM73,AM75,AM77)</f>
         <v>389447.67999999999</v>
       </c>
       <c r="AN79" s="32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="76"/>
         <v>778895.35999999999</v>
       </c>
       <c r="AO79" s="31">
-        <f t="shared" si="42"/>
+        <f t="shared" si="76"/>
         <v>1557790.72</v>
       </c>
       <c r="AP79" s="32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="76"/>
         <v>3115581.4399999999</v>
       </c>
       <c r="AQ79" s="32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="76"/>
         <v>3243250.11</v>
       </c>
       <c r="AR79" s="45"/>
@@ -41596,103 +41595,103 @@
       <c r="Q83" s="16"/>
       <c r="R83" s="16"/>
       <c r="S83" s="18">
-        <f>S$29*$B$83</f>
+        <f t="shared" ref="S83:AQ83" si="77">S$29*$B$83</f>
         <v>9.125</v>
       </c>
       <c r="T83" s="19">
-        <f>T$29*$B$83</f>
+        <f t="shared" si="77"/>
         <v>18.25</v>
       </c>
       <c r="U83" s="19">
-        <f>U$29*$B$83</f>
+        <f t="shared" si="77"/>
         <v>36.5</v>
       </c>
       <c r="V83" s="19">
-        <f>V$29*$B$83</f>
+        <f t="shared" si="77"/>
         <v>73</v>
       </c>
       <c r="W83" s="19">
-        <f>W$29*$B$83</f>
+        <f t="shared" si="77"/>
         <v>146</v>
       </c>
       <c r="X83" s="19">
-        <f>X$29*$B$83</f>
+        <f t="shared" si="77"/>
         <v>292</v>
       </c>
       <c r="Y83" s="19">
-        <f>Y$29*$B$83</f>
+        <f t="shared" si="77"/>
         <v>584</v>
       </c>
       <c r="Z83" s="19">
-        <f>Z$29*$B$83</f>
+        <f t="shared" si="77"/>
         <v>1168</v>
       </c>
       <c r="AA83" s="19">
-        <f>AA$29*$B$83</f>
+        <f t="shared" si="77"/>
         <v>2336</v>
       </c>
       <c r="AB83" s="19">
-        <f>AB$29*$B$83</f>
+        <f t="shared" si="77"/>
         <v>4672</v>
       </c>
       <c r="AC83" s="19">
-        <f>AC$29*$B$83</f>
+        <f t="shared" si="77"/>
         <v>9344</v>
       </c>
       <c r="AD83" s="19">
-        <f>AD$29*$B$83</f>
+        <f t="shared" si="77"/>
         <v>18688</v>
       </c>
       <c r="AE83" s="19">
-        <f>AE$29*$B$83</f>
+        <f t="shared" si="77"/>
         <v>37376</v>
       </c>
       <c r="AF83" s="19">
-        <f>AF$29*$B$83</f>
+        <f t="shared" si="77"/>
         <v>74752</v>
       </c>
       <c r="AG83" s="19">
-        <f>AG$29*$B$83</f>
+        <f t="shared" si="77"/>
         <v>149504</v>
       </c>
       <c r="AH83" s="19">
-        <f>AH$29*$B$83</f>
+        <f t="shared" si="77"/>
         <v>299008</v>
       </c>
       <c r="AI83" s="19">
-        <f>AI$29*$B$83</f>
+        <f t="shared" si="77"/>
         <v>598016</v>
       </c>
       <c r="AJ83" s="19">
-        <f>AJ$29*$B$83</f>
+        <f t="shared" si="77"/>
         <v>1196032</v>
       </c>
       <c r="AK83" s="19">
-        <f>AK$29*$B$83</f>
+        <f t="shared" si="77"/>
         <v>2392064</v>
       </c>
       <c r="AL83" s="19">
-        <f>AL$29*$B$83</f>
+        <f t="shared" si="77"/>
         <v>4784128</v>
       </c>
       <c r="AM83" s="19">
-        <f>AM$29*$B$83</f>
+        <f t="shared" si="77"/>
         <v>9568256</v>
       </c>
       <c r="AN83" s="19">
-        <f>AN$29*$B$83</f>
+        <f t="shared" si="77"/>
         <v>19136512</v>
       </c>
       <c r="AO83" s="18">
-        <f>AO$29*$B$83</f>
+        <f t="shared" si="77"/>
         <v>38273024</v>
       </c>
       <c r="AP83" s="19">
-        <f>AP$29*$B$83</f>
+        <f t="shared" si="77"/>
         <v>76546048</v>
       </c>
       <c r="AQ83" s="19">
-        <f>AQ$29*$B$83</f>
+        <f t="shared" si="77"/>
         <v>79682712</v>
       </c>
       <c r="AR83" s="45"/>
@@ -41723,67 +41722,67 @@
         <v>0.958125</v>
       </c>
       <c r="T84" s="30">
-        <f t="shared" ref="T84:AI84" si="43">T83*$E$84</f>
+        <f t="shared" ref="T84:AI84" si="78">T83*$E$84</f>
         <v>1.91625</v>
       </c>
       <c r="U84" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="78"/>
         <v>3.8325</v>
       </c>
       <c r="V84" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="78"/>
         <v>7.665</v>
       </c>
       <c r="W84" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="78"/>
         <v>15.33</v>
       </c>
       <c r="X84" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="78"/>
         <v>30.66</v>
       </c>
       <c r="Y84" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="78"/>
         <v>61.32</v>
       </c>
       <c r="Z84" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="78"/>
         <v>122.64</v>
       </c>
       <c r="AA84" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="78"/>
         <v>245.28</v>
       </c>
       <c r="AB84" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="78"/>
         <v>490.56</v>
       </c>
       <c r="AC84" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="78"/>
         <v>981.12</v>
       </c>
       <c r="AD84" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="78"/>
         <v>1962.24</v>
       </c>
       <c r="AE84" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="78"/>
         <v>3924.48</v>
       </c>
       <c r="AF84" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="78"/>
         <v>7848.96</v>
       </c>
       <c r="AG84" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="78"/>
         <v>15697.92</v>
       </c>
       <c r="AH84" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="78"/>
         <v>31395.84</v>
       </c>
       <c r="AI84" s="30">
-        <f t="shared" si="43"/>
+        <f t="shared" si="78"/>
         <v>62791.68</v>
       </c>
       <c r="AJ84" s="30">
@@ -41799,23 +41798,23 @@
         <v>502333.44</v>
       </c>
       <c r="AM84" s="30">
-        <f t="shared" ref="AM84:AQ84" si="44">AM83*$E$84</f>
+        <f t="shared" ref="AM84:AQ84" si="79">AM83*$E$84</f>
         <v>1004666.88</v>
       </c>
       <c r="AN84" s="30">
-        <f t="shared" si="44"/>
+        <f t="shared" si="79"/>
         <v>2009333.76</v>
       </c>
       <c r="AO84" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="79"/>
         <v>4018667.52</v>
       </c>
       <c r="AP84" s="30">
-        <f t="shared" si="44"/>
+        <f t="shared" si="79"/>
         <v>8037335.04</v>
       </c>
       <c r="AQ84" s="30">
-        <f t="shared" si="44"/>
+        <f t="shared" si="79"/>
         <v>8366684.7599999998</v>
       </c>
       <c r="AR84" s="45"/>
@@ -41847,103 +41846,103 @@
       <c r="Q85" s="16"/>
       <c r="R85" s="16"/>
       <c r="S85" s="20">
-        <f>S$29*$B$85</f>
+        <f t="shared" ref="S85:AQ85" si="80">S$29*$B$85</f>
         <v>2.1875</v>
       </c>
       <c r="T85" s="21">
-        <f>T$29*$B$85</f>
+        <f t="shared" si="80"/>
         <v>4.375</v>
       </c>
       <c r="U85" s="21">
-        <f>U$29*$B$85</f>
+        <f t="shared" si="80"/>
         <v>8.75</v>
       </c>
       <c r="V85" s="21">
-        <f>V$29*$B$85</f>
+        <f t="shared" si="80"/>
         <v>17.5</v>
       </c>
       <c r="W85" s="21">
-        <f>W$29*$B$85</f>
+        <f t="shared" si="80"/>
         <v>35</v>
       </c>
       <c r="X85" s="21">
-        <f>X$29*$B$85</f>
+        <f t="shared" si="80"/>
         <v>70</v>
       </c>
       <c r="Y85" s="21">
-        <f>Y$29*$B$85</f>
+        <f t="shared" si="80"/>
         <v>140</v>
       </c>
       <c r="Z85" s="21">
-        <f>Z$29*$B$85</f>
+        <f t="shared" si="80"/>
         <v>280</v>
       </c>
       <c r="AA85" s="21">
-        <f>AA$29*$B$85</f>
+        <f t="shared" si="80"/>
         <v>560</v>
       </c>
       <c r="AB85" s="21">
-        <f>AB$29*$B$85</f>
+        <f t="shared" si="80"/>
         <v>1120</v>
       </c>
       <c r="AC85" s="21">
-        <f>AC$29*$B$85</f>
+        <f t="shared" si="80"/>
         <v>2240</v>
       </c>
       <c r="AD85" s="21">
-        <f>AD$29*$B$85</f>
+        <f t="shared" si="80"/>
         <v>4480</v>
       </c>
       <c r="AE85" s="21">
-        <f>AE$29*$B$85</f>
+        <f t="shared" si="80"/>
         <v>8960</v>
       </c>
       <c r="AF85" s="21">
-        <f>AF$29*$B$85</f>
+        <f t="shared" si="80"/>
         <v>17920</v>
       </c>
       <c r="AG85" s="21">
-        <f>AG$29*$B$85</f>
+        <f t="shared" si="80"/>
         <v>35840</v>
       </c>
       <c r="AH85" s="21">
-        <f>AH$29*$B$85</f>
+        <f t="shared" si="80"/>
         <v>71680</v>
       </c>
       <c r="AI85" s="21">
-        <f>AI$29*$B$85</f>
+        <f t="shared" si="80"/>
         <v>143360</v>
       </c>
       <c r="AJ85" s="21">
-        <f>AJ$29*$B$85</f>
+        <f t="shared" si="80"/>
         <v>286720</v>
       </c>
       <c r="AK85" s="21">
-        <f>AK$29*$B$85</f>
+        <f t="shared" si="80"/>
         <v>573440</v>
       </c>
       <c r="AL85" s="21">
-        <f>AL$29*$B$85</f>
+        <f t="shared" si="80"/>
         <v>1146880</v>
       </c>
       <c r="AM85" s="21">
-        <f>AM$29*$B$85</f>
+        <f t="shared" si="80"/>
         <v>2293760</v>
       </c>
       <c r="AN85" s="21">
-        <f>AN$29*$B$85</f>
+        <f t="shared" si="80"/>
         <v>4587520</v>
       </c>
       <c r="AO85" s="20">
-        <f>AO$29*$B$85</f>
+        <f t="shared" si="80"/>
         <v>9175040</v>
       </c>
       <c r="AP85" s="21">
-        <f>AP$29*$B$85</f>
+        <f t="shared" si="80"/>
         <v>18350080</v>
       </c>
       <c r="AQ85" s="21">
-        <f>AQ$29*$B$85</f>
+        <f t="shared" si="80"/>
         <v>19102020</v>
       </c>
       <c r="AR85" s="45"/>
@@ -41970,71 +41969,71 @@
       <c r="Q86" s="16"/>
       <c r="R86" s="16"/>
       <c r="S86" s="29">
-        <f t="shared" ref="S86:AI86" si="45">S85*$E$86</f>
+        <f t="shared" ref="S86:AI86" si="81">S85*$E$86</f>
         <v>0.15968749999999998</v>
       </c>
       <c r="T86" s="30">
-        <f t="shared" si="45"/>
+        <f t="shared" si="81"/>
         <v>0.31937499999999996</v>
       </c>
       <c r="U86" s="30">
-        <f t="shared" si="45"/>
+        <f t="shared" si="81"/>
         <v>0.63874999999999993</v>
       </c>
       <c r="V86" s="30">
-        <f t="shared" si="45"/>
+        <f t="shared" si="81"/>
         <v>1.2774999999999999</v>
       </c>
       <c r="W86" s="30">
-        <f t="shared" si="45"/>
+        <f t="shared" si="81"/>
         <v>2.5549999999999997</v>
       </c>
       <c r="X86" s="30">
-        <f t="shared" si="45"/>
+        <f t="shared" si="81"/>
         <v>5.1099999999999994</v>
       </c>
       <c r="Y86" s="30">
-        <f t="shared" si="45"/>
+        <f t="shared" si="81"/>
         <v>10.219999999999999</v>
       </c>
       <c r="Z86" s="30">
-        <f t="shared" si="45"/>
+        <f t="shared" si="81"/>
         <v>20.439999999999998</v>
       </c>
       <c r="AA86" s="30">
-        <f t="shared" si="45"/>
+        <f t="shared" si="81"/>
         <v>40.879999999999995</v>
       </c>
       <c r="AB86" s="30">
-        <f t="shared" si="45"/>
+        <f t="shared" si="81"/>
         <v>81.759999999999991</v>
       </c>
       <c r="AC86" s="30">
-        <f t="shared" si="45"/>
+        <f t="shared" si="81"/>
         <v>163.51999999999998</v>
       </c>
       <c r="AD86" s="30">
-        <f t="shared" si="45"/>
+        <f t="shared" si="81"/>
         <v>327.03999999999996</v>
       </c>
       <c r="AE86" s="30">
-        <f t="shared" si="45"/>
+        <f t="shared" si="81"/>
         <v>654.07999999999993</v>
       </c>
       <c r="AF86" s="30">
-        <f t="shared" si="45"/>
+        <f t="shared" si="81"/>
         <v>1308.1599999999999</v>
       </c>
       <c r="AG86" s="30">
-        <f t="shared" si="45"/>
+        <f t="shared" si="81"/>
         <v>2616.3199999999997</v>
       </c>
       <c r="AH86" s="30">
-        <f t="shared" si="45"/>
+        <f t="shared" si="81"/>
         <v>5232.6399999999994</v>
       </c>
       <c r="AI86" s="30">
-        <f t="shared" si="45"/>
+        <f t="shared" si="81"/>
         <v>10465.279999999999</v>
       </c>
       <c r="AJ86" s="30">
@@ -42050,23 +42049,23 @@
         <v>83722.239999999991</v>
       </c>
       <c r="AM86" s="30">
-        <f t="shared" ref="AM86:AQ86" si="46">AM85*$E$86</f>
+        <f t="shared" ref="AM86:AQ86" si="82">AM85*$E$86</f>
         <v>167444.47999999998</v>
       </c>
       <c r="AN86" s="30">
-        <f t="shared" si="46"/>
+        <f t="shared" si="82"/>
         <v>334888.95999999996</v>
       </c>
       <c r="AO86" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="82"/>
         <v>669777.91999999993</v>
       </c>
       <c r="AP86" s="30">
-        <f t="shared" si="46"/>
+        <f t="shared" si="82"/>
         <v>1339555.8399999999</v>
       </c>
       <c r="AQ86" s="30">
-        <f t="shared" si="46"/>
+        <f t="shared" si="82"/>
         <v>1394447.46</v>
       </c>
       <c r="AR86" s="45"/>
@@ -42098,103 +42097,103 @@
       <c r="Q87" s="16"/>
       <c r="R87" s="16"/>
       <c r="S87" s="20">
-        <f>S$29*$B$87</f>
+        <f t="shared" ref="S87:AQ87" si="83">S$29*$B$87</f>
         <v>6.25</v>
       </c>
       <c r="T87" s="21">
-        <f>T$29*$B$87</f>
+        <f t="shared" si="83"/>
         <v>12.5</v>
       </c>
       <c r="U87" s="21">
-        <f>U$29*$B$87</f>
+        <f t="shared" si="83"/>
         <v>25</v>
       </c>
       <c r="V87" s="21">
-        <f>V$29*$B$87</f>
+        <f t="shared" si="83"/>
         <v>50</v>
       </c>
       <c r="W87" s="21">
-        <f>W$29*$B$87</f>
+        <f t="shared" si="83"/>
         <v>100</v>
       </c>
       <c r="X87" s="21">
-        <f>X$29*$B$87</f>
+        <f t="shared" si="83"/>
         <v>200</v>
       </c>
       <c r="Y87" s="21">
-        <f>Y$29*$B$87</f>
+        <f t="shared" si="83"/>
         <v>400</v>
       </c>
       <c r="Z87" s="21">
-        <f>Z$29*$B$87</f>
+        <f t="shared" si="83"/>
         <v>800</v>
       </c>
       <c r="AA87" s="21">
-        <f>AA$29*$B$87</f>
+        <f t="shared" si="83"/>
         <v>1600</v>
       </c>
       <c r="AB87" s="21">
-        <f>AB$29*$B$87</f>
+        <f t="shared" si="83"/>
         <v>3200</v>
       </c>
       <c r="AC87" s="21">
-        <f>AC$29*$B$87</f>
+        <f t="shared" si="83"/>
         <v>6400</v>
       </c>
       <c r="AD87" s="21">
-        <f>AD$29*$B$87</f>
+        <f t="shared" si="83"/>
         <v>12800</v>
       </c>
       <c r="AE87" s="21">
-        <f>AE$29*$B$87</f>
+        <f t="shared" si="83"/>
         <v>25600</v>
       </c>
       <c r="AF87" s="21">
-        <f>AF$29*$B$87</f>
+        <f t="shared" si="83"/>
         <v>51200</v>
       </c>
       <c r="AG87" s="21">
-        <f>AG$29*$B$87</f>
+        <f t="shared" si="83"/>
         <v>102400</v>
       </c>
       <c r="AH87" s="21">
-        <f>AH$29*$B$87</f>
+        <f t="shared" si="83"/>
         <v>204800</v>
       </c>
       <c r="AI87" s="21">
-        <f>AI$29*$B$87</f>
+        <f t="shared" si="83"/>
         <v>409600</v>
       </c>
       <c r="AJ87" s="21">
-        <f>AJ$29*$B$87</f>
+        <f t="shared" si="83"/>
         <v>819200</v>
       </c>
       <c r="AK87" s="21">
-        <f>AK$29*$B$87</f>
+        <f t="shared" si="83"/>
         <v>1638400</v>
       </c>
       <c r="AL87" s="21">
-        <f>AL$29*$B$87</f>
+        <f t="shared" si="83"/>
         <v>3276800</v>
       </c>
       <c r="AM87" s="21">
-        <f>AM$29*$B$87</f>
+        <f t="shared" si="83"/>
         <v>6553600</v>
       </c>
       <c r="AN87" s="21">
-        <f>AN$29*$B$87</f>
+        <f t="shared" si="83"/>
         <v>13107200</v>
       </c>
       <c r="AO87" s="20">
-        <f>AO$29*$B$87</f>
+        <f t="shared" si="83"/>
         <v>26214400</v>
       </c>
       <c r="AP87" s="21">
-        <f>AP$29*$B$87</f>
+        <f t="shared" si="83"/>
         <v>52428800</v>
       </c>
       <c r="AQ87" s="21">
-        <f>AQ$29*$B$87</f>
+        <f t="shared" si="83"/>
         <v>54577200</v>
       </c>
       <c r="AR87" s="45"/>
@@ -42221,71 +42220,71 @@
       <c r="Q88" s="16"/>
       <c r="R88" s="16"/>
       <c r="S88" s="29">
-        <f t="shared" ref="S88:AI88" si="47">S87*$E$88</f>
+        <f t="shared" ref="S88:AI88" si="84">S87*$E$88</f>
         <v>0.39374999999999999</v>
       </c>
       <c r="T88" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="84"/>
         <v>0.78749999999999998</v>
       </c>
       <c r="U88" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="84"/>
         <v>1.575</v>
       </c>
       <c r="V88" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="84"/>
         <v>3.15</v>
       </c>
       <c r="W88" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="84"/>
         <v>6.3</v>
       </c>
       <c r="X88" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="84"/>
         <v>12.6</v>
       </c>
       <c r="Y88" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="84"/>
         <v>25.2</v>
       </c>
       <c r="Z88" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="84"/>
         <v>50.4</v>
       </c>
       <c r="AA88" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="84"/>
         <v>100.8</v>
       </c>
       <c r="AB88" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="84"/>
         <v>201.6</v>
       </c>
       <c r="AC88" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="84"/>
         <v>403.2</v>
       </c>
       <c r="AD88" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="84"/>
         <v>806.4</v>
       </c>
       <c r="AE88" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="84"/>
         <v>1612.8</v>
       </c>
       <c r="AF88" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="84"/>
         <v>3225.6</v>
       </c>
       <c r="AG88" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="84"/>
         <v>6451.2</v>
       </c>
       <c r="AH88" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="84"/>
         <v>12902.4</v>
       </c>
       <c r="AI88" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="84"/>
         <v>25804.799999999999</v>
       </c>
       <c r="AJ88" s="30">
@@ -42301,11 +42300,11 @@
         <v>206438.39999999999</v>
       </c>
       <c r="AM88" s="30">
-        <f t="shared" ref="AM88:AQ88" si="48">AM87*$E$88</f>
+        <f t="shared" ref="AM88:AQ88" si="85">AM87*$E$88</f>
         <v>412876.79999999999</v>
       </c>
       <c r="AN88" s="30">
-        <f t="shared" si="48"/>
+        <f t="shared" si="85"/>
         <v>825753.59999999998</v>
       </c>
       <c r="AO88" s="29">
@@ -42313,11 +42312,11 @@
         <v>1651507.2</v>
       </c>
       <c r="AP88" s="30">
-        <f t="shared" si="48"/>
+        <f t="shared" si="85"/>
         <v>3303014.3999999999</v>
       </c>
       <c r="AQ88" s="30">
-        <f t="shared" si="48"/>
+        <f t="shared" si="85"/>
         <v>3438363.6</v>
       </c>
       <c r="AR88" s="45"/>
@@ -42349,103 +42348,103 @@
       <c r="Q89" s="16"/>
       <c r="R89" s="16"/>
       <c r="S89" s="20">
-        <f>S$29*$B$89</f>
+        <f t="shared" ref="S89:AQ89" si="86">S$29*$B$89</f>
         <v>10.4375</v>
       </c>
       <c r="T89" s="21">
-        <f>T$29*$B$89</f>
+        <f t="shared" si="86"/>
         <v>20.875</v>
       </c>
       <c r="U89" s="21">
-        <f>U$29*$B$89</f>
+        <f t="shared" si="86"/>
         <v>41.75</v>
       </c>
       <c r="V89" s="21">
-        <f>V$29*$B$89</f>
+        <f t="shared" si="86"/>
         <v>83.5</v>
       </c>
       <c r="W89" s="21">
-        <f>W$29*$B$89</f>
+        <f t="shared" si="86"/>
         <v>167</v>
       </c>
       <c r="X89" s="21">
-        <f>X$29*$B$89</f>
+        <f t="shared" si="86"/>
         <v>334</v>
       </c>
       <c r="Y89" s="21">
-        <f>Y$29*$B$89</f>
+        <f t="shared" si="86"/>
         <v>668</v>
       </c>
       <c r="Z89" s="21">
-        <f>Z$29*$B$89</f>
+        <f t="shared" si="86"/>
         <v>1336</v>
       </c>
       <c r="AA89" s="21">
-        <f>AA$29*$B$89</f>
+        <f t="shared" si="86"/>
         <v>2672</v>
       </c>
       <c r="AB89" s="21">
-        <f>AB$29*$B$89</f>
+        <f t="shared" si="86"/>
         <v>5344</v>
       </c>
       <c r="AC89" s="21">
-        <f>AC$29*$B$89</f>
+        <f t="shared" si="86"/>
         <v>10688</v>
       </c>
       <c r="AD89" s="21">
-        <f>AD$29*$B$89</f>
+        <f t="shared" si="86"/>
         <v>21376</v>
       </c>
       <c r="AE89" s="21">
-        <f>AE$29*$B$89</f>
+        <f t="shared" si="86"/>
         <v>42752</v>
       </c>
       <c r="AF89" s="21">
-        <f>AF$29*$B$89</f>
+        <f t="shared" si="86"/>
         <v>85504</v>
       </c>
       <c r="AG89" s="21">
-        <f>AG$29*$B$89</f>
+        <f t="shared" si="86"/>
         <v>171008</v>
       </c>
       <c r="AH89" s="21">
-        <f>AH$29*$B$89</f>
+        <f t="shared" si="86"/>
         <v>342016</v>
       </c>
       <c r="AI89" s="21">
-        <f>AI$29*$B$89</f>
+        <f t="shared" si="86"/>
         <v>684032</v>
       </c>
       <c r="AJ89" s="21">
-        <f>AJ$29*$B$89</f>
+        <f t="shared" si="86"/>
         <v>1368064</v>
       </c>
       <c r="AK89" s="21">
-        <f>AK$29*$B$89</f>
+        <f t="shared" si="86"/>
         <v>2736128</v>
       </c>
       <c r="AL89" s="21">
-        <f>AL$29*$B$89</f>
+        <f t="shared" si="86"/>
         <v>5472256</v>
       </c>
       <c r="AM89" s="21">
-        <f>AM$29*$B$89</f>
+        <f t="shared" si="86"/>
         <v>10944512</v>
       </c>
       <c r="AN89" s="21">
-        <f>AN$29*$B$89</f>
+        <f t="shared" si="86"/>
         <v>21889024</v>
       </c>
       <c r="AO89" s="20">
-        <f>AO$29*$B$89</f>
+        <f t="shared" si="86"/>
         <v>43778048</v>
       </c>
       <c r="AP89" s="21">
-        <f>AP$29*$B$89</f>
+        <f t="shared" si="86"/>
         <v>87556096</v>
       </c>
       <c r="AQ89" s="21">
-        <f>AQ$29*$B$89</f>
+        <f t="shared" si="86"/>
         <v>91143924</v>
       </c>
       <c r="AR89" s="45"/>
@@ -42472,71 +42471,71 @@
       <c r="Q90" s="16"/>
       <c r="R90" s="16"/>
       <c r="S90" s="29">
-        <f t="shared" ref="S90:AI90" si="49">S89*$E$90</f>
+        <f t="shared" ref="S90:AI90" si="87">S89*$E$90</f>
         <v>0.62624999999999997</v>
       </c>
       <c r="T90" s="30">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v>1.2524999999999999</v>
       </c>
       <c r="U90" s="30">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v>2.5049999999999999</v>
       </c>
       <c r="V90" s="30">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v>5.01</v>
       </c>
       <c r="W90" s="30">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v>10.02</v>
       </c>
       <c r="X90" s="30">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v>20.04</v>
       </c>
       <c r="Y90" s="30">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v>40.08</v>
       </c>
       <c r="Z90" s="30">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v>80.16</v>
       </c>
       <c r="AA90" s="30">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v>160.32</v>
       </c>
       <c r="AB90" s="30">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v>320.64</v>
       </c>
       <c r="AC90" s="30">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v>641.28</v>
       </c>
       <c r="AD90" s="30">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v>1282.56</v>
       </c>
       <c r="AE90" s="30">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v>2565.12</v>
       </c>
       <c r="AF90" s="30">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v>5130.24</v>
       </c>
       <c r="AG90" s="30">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v>10260.48</v>
       </c>
       <c r="AH90" s="30">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v>20520.96</v>
       </c>
       <c r="AI90" s="30">
-        <f t="shared" si="49"/>
+        <f t="shared" si="87"/>
         <v>41041.919999999998</v>
       </c>
       <c r="AJ90" s="30">
@@ -42552,23 +42551,23 @@
         <v>328335.35999999999</v>
       </c>
       <c r="AM90" s="30">
-        <f t="shared" ref="AM90:AQ90" si="50">AM89*$E$90</f>
+        <f t="shared" ref="AM90:AQ90" si="88">AM89*$E$90</f>
         <v>656670.71999999997</v>
       </c>
       <c r="AN90" s="30">
-        <f t="shared" si="50"/>
+        <f t="shared" si="88"/>
         <v>1313341.4399999999</v>
       </c>
       <c r="AO90" s="29">
-        <f t="shared" si="50"/>
+        <f t="shared" si="88"/>
         <v>2626682.8799999999</v>
       </c>
       <c r="AP90" s="30">
-        <f t="shared" si="50"/>
+        <f t="shared" si="88"/>
         <v>5253365.7599999998</v>
       </c>
       <c r="AQ90" s="30">
-        <f t="shared" si="50"/>
+        <f t="shared" si="88"/>
         <v>5468635.4399999995</v>
       </c>
       <c r="AR90" s="45"/>
@@ -42600,103 +42599,103 @@
       <c r="Q91" s="16"/>
       <c r="R91" s="16"/>
       <c r="S91" s="20">
-        <f>S$29*$B$91</f>
+        <f t="shared" ref="S91:AQ91" si="89">S$29*$B$91</f>
         <v>1.34375E-2</v>
       </c>
       <c r="T91" s="21">
-        <f>T$29*$B$91</f>
+        <f t="shared" si="89"/>
         <v>2.6875E-2</v>
       </c>
       <c r="U91" s="21">
-        <f>U$29*$B$91</f>
+        <f t="shared" si="89"/>
         <v>5.3749999999999999E-2</v>
       </c>
       <c r="V91" s="21">
-        <f>V$29*$B$91</f>
+        <f t="shared" si="89"/>
         <v>0.1075</v>
       </c>
       <c r="W91" s="21">
-        <f>W$29*$B$91</f>
+        <f t="shared" si="89"/>
         <v>0.215</v>
       </c>
       <c r="X91" s="21">
-        <f>X$29*$B$91</f>
+        <f t="shared" si="89"/>
         <v>0.43</v>
       </c>
       <c r="Y91" s="21">
-        <f>Y$29*$B$91</f>
+        <f t="shared" si="89"/>
         <v>0.86</v>
       </c>
       <c r="Z91" s="21">
-        <f>Z$29*$B$91</f>
+        <f t="shared" si="89"/>
         <v>1.72</v>
       </c>
       <c r="AA91" s="21">
-        <f>AA$29*$B$91</f>
+        <f t="shared" si="89"/>
         <v>3.44</v>
       </c>
       <c r="AB91" s="21">
-        <f>AB$29*$B$91</f>
+        <f t="shared" si="89"/>
         <v>6.88</v>
       </c>
       <c r="AC91" s="21">
-        <f>AC$29*$B$91</f>
+        <f t="shared" si="89"/>
         <v>13.76</v>
       </c>
       <c r="AD91" s="21">
-        <f>AD$29*$B$91</f>
+        <f t="shared" si="89"/>
         <v>27.52</v>
       </c>
       <c r="AE91" s="21">
-        <f>AE$29*$B$91</f>
+        <f t="shared" si="89"/>
         <v>55.04</v>
       </c>
       <c r="AF91" s="21">
-        <f>AF$29*$B$91</f>
+        <f t="shared" si="89"/>
         <v>110.08</v>
       </c>
       <c r="AG91" s="21">
-        <f>AG$29*$B$91</f>
+        <f t="shared" si="89"/>
         <v>220.16</v>
       </c>
       <c r="AH91" s="21">
-        <f>AH$29*$B$91</f>
+        <f t="shared" si="89"/>
         <v>440.32</v>
       </c>
       <c r="AI91" s="21">
-        <f>AI$29*$B$91</f>
+        <f t="shared" si="89"/>
         <v>880.64</v>
       </c>
       <c r="AJ91" s="21">
-        <f>AJ$29*$B$91</f>
+        <f t="shared" si="89"/>
         <v>1761.28</v>
       </c>
       <c r="AK91" s="21">
-        <f>AK$29*$B$91</f>
+        <f t="shared" si="89"/>
         <v>3522.56</v>
       </c>
       <c r="AL91" s="21">
-        <f>AL$29*$B$91</f>
+        <f t="shared" si="89"/>
         <v>7045.12</v>
       </c>
       <c r="AM91" s="21">
-        <f>AM$29*$B$91</f>
+        <f t="shared" si="89"/>
         <v>14090.24</v>
       </c>
       <c r="AN91" s="21">
-        <f>AN$29*$B$91</f>
+        <f t="shared" si="89"/>
         <v>28180.48</v>
       </c>
       <c r="AO91" s="20">
-        <f>AO$29*$B$91</f>
+        <f t="shared" si="89"/>
         <v>56360.959999999999</v>
       </c>
       <c r="AP91" s="21">
-        <f>AP$29*$B$91</f>
+        <f t="shared" si="89"/>
         <v>112721.92</v>
       </c>
       <c r="AQ91" s="21">
-        <f>AQ$29*$B$91</f>
+        <f t="shared" si="89"/>
         <v>117340.98</v>
       </c>
       <c r="AR91" s="45"/>
@@ -42723,71 +42722,71 @@
       <c r="Q92" s="16"/>
       <c r="R92" s="16"/>
       <c r="S92" s="29">
-        <f t="shared" ref="S92:AI92" si="51">S91*$E$92</f>
+        <f t="shared" ref="S92:AI92" si="90">S91*$E$92</f>
         <v>7.5250000000000002E-4</v>
       </c>
       <c r="T92" s="30">
-        <f t="shared" si="51"/>
+        <f t="shared" si="90"/>
         <v>1.505E-3</v>
       </c>
       <c r="U92" s="30">
-        <f t="shared" si="51"/>
+        <f t="shared" si="90"/>
         <v>3.0100000000000001E-3</v>
       </c>
       <c r="V92" s="30">
-        <f t="shared" si="51"/>
+        <f t="shared" si="90"/>
         <v>6.0200000000000002E-3</v>
       </c>
       <c r="W92" s="30">
-        <f t="shared" si="51"/>
+        <f t="shared" si="90"/>
         <v>1.204E-2</v>
       </c>
       <c r="X92" s="30">
-        <f t="shared" si="51"/>
+        <f t="shared" si="90"/>
         <v>2.4080000000000001E-2</v>
       </c>
       <c r="Y92" s="30">
-        <f t="shared" si="51"/>
+        <f t="shared" si="90"/>
         <v>4.8160000000000001E-2</v>
       </c>
       <c r="Z92" s="30">
-        <f t="shared" si="51"/>
+        <f t="shared" si="90"/>
         <v>9.6320000000000003E-2</v>
       </c>
       <c r="AA92" s="30">
-        <f t="shared" si="51"/>
+        <f t="shared" si="90"/>
         <v>0.19264000000000001</v>
       </c>
       <c r="AB92" s="30">
-        <f t="shared" si="51"/>
+        <f t="shared" si="90"/>
         <v>0.38528000000000001</v>
       </c>
       <c r="AC92" s="30">
-        <f t="shared" si="51"/>
+        <f t="shared" si="90"/>
         <v>0.77056000000000002</v>
       </c>
       <c r="AD92" s="30">
-        <f t="shared" si="51"/>
+        <f t="shared" si="90"/>
         <v>1.54112</v>
       </c>
       <c r="AE92" s="30">
-        <f t="shared" si="51"/>
+        <f t="shared" si="90"/>
         <v>3.0822400000000001</v>
       </c>
       <c r="AF92" s="30">
-        <f t="shared" si="51"/>
+        <f t="shared" si="90"/>
         <v>6.1644800000000002</v>
       </c>
       <c r="AG92" s="30">
-        <f t="shared" si="51"/>
+        <f t="shared" si="90"/>
         <v>12.32896</v>
       </c>
       <c r="AH92" s="30">
-        <f t="shared" si="51"/>
+        <f t="shared" si="90"/>
         <v>24.657920000000001</v>
       </c>
       <c r="AI92" s="30">
-        <f t="shared" si="51"/>
+        <f t="shared" si="90"/>
         <v>49.315840000000001</v>
       </c>
       <c r="AJ92" s="30">
@@ -42803,23 +42802,23 @@
         <v>394.52672000000001</v>
       </c>
       <c r="AM92" s="30">
-        <f t="shared" ref="AM92:AQ92" si="52">AM91*$E$92</f>
+        <f t="shared" ref="AM92:AQ92" si="91">AM91*$E$92</f>
         <v>789.05344000000002</v>
       </c>
       <c r="AN92" s="30">
-        <f t="shared" si="52"/>
+        <f t="shared" si="91"/>
         <v>1578.10688</v>
       </c>
       <c r="AO92" s="29">
-        <f t="shared" si="52"/>
+        <f t="shared" si="91"/>
         <v>3156.2137600000001</v>
       </c>
       <c r="AP92" s="30">
-        <f t="shared" si="52"/>
+        <f t="shared" si="91"/>
         <v>6312.4275200000002</v>
       </c>
       <c r="AQ92" s="30">
-        <f t="shared" si="52"/>
+        <f t="shared" si="91"/>
         <v>6571.0948799999996</v>
       </c>
       <c r="AR92" s="45"/>
@@ -42851,103 +42850,103 @@
       <c r="Q93" s="16"/>
       <c r="R93" s="16"/>
       <c r="S93" s="20">
-        <f>S$29*$B$93</f>
+        <f t="shared" ref="S93:AQ93" si="92">S$29*$B$93</f>
         <v>10.875</v>
       </c>
       <c r="T93" s="21">
-        <f>T$29*$B$93</f>
+        <f t="shared" si="92"/>
         <v>21.75</v>
       </c>
       <c r="U93" s="21">
-        <f>U$29*$B$93</f>
+        <f t="shared" si="92"/>
         <v>43.5</v>
       </c>
       <c r="V93" s="21">
-        <f>V$29*$B$93</f>
+        <f t="shared" si="92"/>
         <v>87</v>
       </c>
       <c r="W93" s="21">
-        <f>W$29*$B$93</f>
+        <f t="shared" si="92"/>
         <v>174</v>
       </c>
       <c r="X93" s="21">
-        <f>X$29*$B$93</f>
+        <f t="shared" si="92"/>
         <v>348</v>
       </c>
       <c r="Y93" s="21">
-        <f>Y$29*$B$93</f>
+        <f t="shared" si="92"/>
         <v>696</v>
       </c>
       <c r="Z93" s="21">
-        <f>Z$29*$B$93</f>
+        <f t="shared" si="92"/>
         <v>1392</v>
       </c>
       <c r="AA93" s="21">
-        <f>AA$29*$B$93</f>
+        <f t="shared" si="92"/>
         <v>2784</v>
       </c>
       <c r="AB93" s="21">
-        <f>AB$29*$B$93</f>
+        <f t="shared" si="92"/>
         <v>5568</v>
       </c>
       <c r="AC93" s="21">
-        <f>AC$29*$B$93</f>
+        <f t="shared" si="92"/>
         <v>11136</v>
       </c>
       <c r="AD93" s="21">
-        <f>AD$29*$B$93</f>
+        <f t="shared" si="92"/>
         <v>22272</v>
       </c>
       <c r="AE93" s="21">
-        <f>AE$29*$B$93</f>
+        <f t="shared" si="92"/>
         <v>44544</v>
       </c>
       <c r="AF93" s="21">
-        <f>AF$29*$B$93</f>
+        <f t="shared" si="92"/>
         <v>89088</v>
       </c>
       <c r="AG93" s="21">
-        <f>AG$29*$B$93</f>
+        <f t="shared" si="92"/>
         <v>178176</v>
       </c>
       <c r="AH93" s="21">
-        <f>AH$29*$B$93</f>
+        <f t="shared" si="92"/>
         <v>356352</v>
       </c>
       <c r="AI93" s="21">
-        <f>AI$29*$B$93</f>
+        <f t="shared" si="92"/>
         <v>712704</v>
       </c>
       <c r="AJ93" s="21">
-        <f>AJ$29*$B$93</f>
+        <f t="shared" si="92"/>
         <v>1425408</v>
       </c>
       <c r="AK93" s="21">
-        <f>AK$29*$B$93</f>
+        <f t="shared" si="92"/>
         <v>2850816</v>
       </c>
       <c r="AL93" s="21">
-        <f>AL$29*$B$93</f>
+        <f t="shared" si="92"/>
         <v>5701632</v>
       </c>
       <c r="AM93" s="21">
-        <f>AM$29*$B$93</f>
+        <f t="shared" si="92"/>
         <v>11403264</v>
       </c>
       <c r="AN93" s="21">
-        <f>AN$29*$B$93</f>
+        <f t="shared" si="92"/>
         <v>22806528</v>
       </c>
       <c r="AO93" s="20">
-        <f>AO$29*$B$93</f>
+        <f t="shared" si="92"/>
         <v>45613056</v>
       </c>
       <c r="AP93" s="21">
-        <f>AP$29*$B$93</f>
+        <f t="shared" si="92"/>
         <v>91226112</v>
       </c>
       <c r="AQ93" s="21">
-        <f>AQ$29*$B$93</f>
+        <f t="shared" si="92"/>
         <v>94964328</v>
       </c>
       <c r="AR93" s="45"/>
@@ -43076,23 +43075,23 @@
         <v>38.888437499999995</v>
       </c>
       <c r="T95" s="19">
-        <f t="shared" ref="T95:AI95" si="53">SUM(T83,T85,T87,T89,T91,T93)</f>
+        <f t="shared" ref="T95:AI95" si="93">SUM(T83,T85,T87,T89,T91,T93)</f>
         <v>77.77687499999999</v>
       </c>
       <c r="U95" s="19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="93"/>
         <v>155.55374999999998</v>
       </c>
       <c r="V95" s="19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="93"/>
         <v>311.10749999999996</v>
       </c>
       <c r="W95" s="19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="93"/>
         <v>622.21499999999992</v>
       </c>
       <c r="X95" s="19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="93"/>
         <v>1244.4299999999998</v>
       </c>
       <c r="Y95" s="19">
@@ -43100,75 +43099,75 @@
         <v>2488.8599999999997</v>
       </c>
       <c r="Z95" s="19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="93"/>
         <v>4977.7199999999993</v>
       </c>
       <c r="AA95" s="19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="93"/>
         <v>9955.4399999999987</v>
       </c>
       <c r="AB95" s="19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="93"/>
         <v>19910.879999999997</v>
       </c>
       <c r="AC95" s="19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="93"/>
         <v>39821.759999999995</v>
       </c>
       <c r="AD95" s="19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="93"/>
         <v>79643.51999999999</v>
       </c>
       <c r="AE95" s="19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="93"/>
         <v>159287.03999999998</v>
       </c>
       <c r="AF95" s="19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="93"/>
         <v>318574.07999999996</v>
       </c>
       <c r="AG95" s="19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="93"/>
         <v>637148.15999999992</v>
       </c>
       <c r="AH95" s="19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="93"/>
         <v>1274296.3199999998</v>
       </c>
       <c r="AI95" s="19">
-        <f t="shared" si="53"/>
+        <f t="shared" si="93"/>
         <v>2548592.6399999997</v>
       </c>
       <c r="AJ95" s="19">
-        <f t="shared" ref="AJ95:AL96" si="54">SUM(AJ83,AJ85,AJ87,AJ89,AJ91,AJ93)</f>
+        <f t="shared" ref="AJ95:AL96" si="94">SUM(AJ83,AJ85,AJ87,AJ89,AJ91,AJ93)</f>
         <v>5097185.2799999993</v>
       </c>
       <c r="AK95" s="19">
-        <f t="shared" si="54"/>
+        <f t="shared" si="94"/>
         <v>10194370.559999999</v>
       </c>
       <c r="AL95" s="19">
-        <f t="shared" si="54"/>
+        <f t="shared" si="94"/>
         <v>20388741.119999997</v>
       </c>
       <c r="AM95" s="19">
-        <f t="shared" ref="AM95:AQ95" si="55">SUM(AM83,AM85,AM87,AM89,AM91,AM93)</f>
+        <f t="shared" ref="AM95:AQ95" si="95">SUM(AM83,AM85,AM87,AM89,AM91,AM93)</f>
         <v>40777482.239999995</v>
       </c>
       <c r="AN95" s="19">
-        <f t="shared" si="55"/>
+        <f t="shared" si="95"/>
         <v>81554964.479999989</v>
       </c>
       <c r="AO95" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="95"/>
         <v>163109928.95999998</v>
       </c>
       <c r="AP95" s="19">
-        <f t="shared" si="55"/>
+        <f t="shared" si="95"/>
         <v>326219857.91999996</v>
       </c>
       <c r="AQ95" s="19">
-        <f t="shared" si="55"/>
+        <f t="shared" si="95"/>
         <v>339587524.98000002</v>
       </c>
       <c r="AR95" s="45"/>
@@ -43199,99 +43198,99 @@
         <v>2.1385649999999998</v>
       </c>
       <c r="T96" s="32">
-        <f t="shared" ref="T96:AI96" si="56">SUM(T84,T86,T88,T90,T92,T94)</f>
+        <f t="shared" ref="T96:AI96" si="96">SUM(T84,T86,T88,T90,T92,T94)</f>
         <v>4.2771299999999997</v>
       </c>
       <c r="U96" s="32">
-        <f t="shared" si="56"/>
+        <f t="shared" si="96"/>
         <v>8.5542599999999993</v>
       </c>
       <c r="V96" s="32">
-        <f t="shared" si="56"/>
+        <f t="shared" si="96"/>
         <v>17.108519999999999</v>
       </c>
       <c r="W96" s="32">
-        <f t="shared" si="56"/>
+        <f t="shared" si="96"/>
         <v>34.217039999999997</v>
       </c>
       <c r="X96" s="32">
-        <f t="shared" si="56"/>
+        <f t="shared" si="96"/>
         <v>68.434079999999994</v>
       </c>
       <c r="Y96" s="32">
-        <f t="shared" si="56"/>
+        <f t="shared" si="96"/>
         <v>136.86815999999999</v>
       </c>
       <c r="Z96" s="32">
-        <f t="shared" si="56"/>
+        <f t="shared" si="96"/>
         <v>273.73631999999998</v>
       </c>
       <c r="AA96" s="32">
-        <f t="shared" si="56"/>
+        <f t="shared" si="96"/>
         <v>547.47263999999996</v>
       </c>
       <c r="AB96" s="32">
-        <f t="shared" si="56"/>
+        <f t="shared" si="96"/>
         <v>1094.9452799999999</v>
       </c>
       <c r="AC96" s="32">
-        <f t="shared" si="56"/>
+        <f t="shared" si="96"/>
         <v>2189.8905599999998</v>
       </c>
       <c r="AD96" s="32">
-        <f t="shared" si="56"/>
+        <f t="shared" si="96"/>
         <v>4379.7811199999996</v>
       </c>
       <c r="AE96" s="32">
-        <f t="shared" si="56"/>
+        <f t="shared" si="96"/>
         <v>8759.5622399999993</v>
       </c>
       <c r="AF96" s="32">
-        <f t="shared" si="56"/>
+        <f t="shared" si="96"/>
         <v>17519.124479999999</v>
       </c>
       <c r="AG96" s="32">
-        <f t="shared" si="56"/>
+        <f t="shared" si="96"/>
         <v>35038.248959999997</v>
       </c>
       <c r="AH96" s="32">
-        <f t="shared" si="56"/>
+        <f t="shared" si="96"/>
         <v>70076.497919999994</v>
       </c>
       <c r="AI96" s="32">
-        <f t="shared" si="56"/>
+        <f t="shared" si="96"/>
         <v>140152.99583999999</v>
       </c>
       <c r="AJ96" s="32">
-        <f t="shared" si="54"/>
+        <f t="shared" si="94"/>
         <v>280305.99167999998</v>
       </c>
       <c r="AK96" s="32">
-        <f t="shared" si="54"/>
+        <f t="shared" si="94"/>
         <v>560611.98335999995</v>
       </c>
       <c r="AL96" s="32">
-        <f t="shared" si="54"/>
+        <f t="shared" si="94"/>
         <v>1121223.9667199999</v>
       </c>
       <c r="AM96" s="32">
-        <f t="shared" ref="AM96:AQ96" si="57">SUM(AM84,AM86,AM88,AM90,AM92,AM94)</f>
+        <f t="shared" ref="AM96:AQ96" si="97">SUM(AM84,AM86,AM88,AM90,AM92,AM94)</f>
         <v>2242447.9334399998</v>
       </c>
       <c r="AN96" s="32">
-        <f t="shared" si="57"/>
+        <f t="shared" si="97"/>
         <v>4484895.8668799996</v>
       </c>
       <c r="AO96" s="31">
-        <f t="shared" si="57"/>
+        <f t="shared" si="97"/>
         <v>8969791.7337599993</v>
       </c>
       <c r="AP96" s="32">
-        <f t="shared" si="57"/>
+        <f t="shared" si="97"/>
         <v>17939583.467519999</v>
       </c>
       <c r="AQ96" s="32">
-        <f t="shared" si="57"/>
+        <f t="shared" si="97"/>
         <v>18674702.354879998</v>
       </c>
       <c r="AR96" s="45"/>
@@ -43480,7 +43479,7 @@
   <dimension ref="B3:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43526,7 +43525,7 @@
         <v>116</v>
       </c>
       <c r="C6" s="153">
-        <v>685639</v>
+        <v>965283</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -43535,7 +43534,7 @@
       </c>
       <c r="C7" s="151">
         <f ca="1">NOW()</f>
-        <v>44189.757998032408</v>
+        <v>44218.931250231479</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -43544,7 +43543,7 @@
       </c>
       <c r="C8" s="152">
         <f ca="1">C7-C5</f>
-        <v>289.75799803240807</v>
+        <v>318.93125023147877</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -43553,7 +43552,7 @@
       </c>
       <c r="C9" s="154">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>20.092355769593517</v>
+        <v>21.383530166033601</v>
       </c>
       <c r="D9" t="s">
         <v>95</v>
@@ -43586,7 +43585,7 @@
       </c>
       <c r="C12" s="159">
         <f>C6/Projections!B17</f>
-        <v>2159762.85</v>
+        <v>3040641.45</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -43595,7 +43594,7 @@
       </c>
       <c r="C13" s="160">
         <f ca="1">(C4/Projections!B17)*(2^(((C7-21)-C5)/C9))</f>
-        <v>1046592.1175942397</v>
+        <v>1539339.5289442793</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -43604,7 +43603,7 @@
       </c>
       <c r="C14" s="143">
         <f ca="1">C12-C13</f>
-        <v>1113170.7324057603</v>
+        <v>1501301.9210557209</v>
       </c>
       <c r="E14" s="156"/>
       <c r="F14" s="157" t="s">
@@ -43618,7 +43617,7 @@
       </c>
       <c r="C15" s="64">
         <f>C6*Projections!B21</f>
-        <v>555367.59000000008</v>
+        <v>781879.2300000001</v>
       </c>
       <c r="I15" s="150"/>
     </row>
@@ -43628,7 +43627,7 @@
       </c>
       <c r="C16" s="79">
         <f ca="1">(C4*Projections!B21)*(2^(((C7-21)-C5)/C9))</f>
-        <v>269123.68738137587</v>
+        <v>395830.1645856718</v>
       </c>
       <c r="I16" s="150"/>
     </row>
@@ -43638,7 +43637,7 @@
       </c>
       <c r="C17" s="79">
         <f ca="1">C15-C16</f>
-        <v>286243.90261862421</v>
+        <v>386049.0654143283</v>
       </c>
       <c r="F17" t="s">
         <v>140</v>
@@ -43651,7 +43650,7 @@
       </c>
       <c r="C18" s="64">
         <f>C6*Projections!B22</f>
-        <v>95989.46</v>
+        <v>135139.62000000002</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -43660,7 +43659,7 @@
       </c>
       <c r="C19" s="79">
         <f ca="1">(C4*Projections!B22)*(2^(((C7-49)-C5)/C9))</f>
-        <v>17704.763586861678</v>
+        <v>27604.349506570954</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -43669,7 +43668,7 @@
       </c>
       <c r="C20" s="79">
         <f ca="1">C18-C19</f>
-        <v>78284.696413138328</v>
+        <v>107535.27049342907</v>
       </c>
       <c r="F20" t="s">
         <v>145</v>
@@ -43681,7 +43680,7 @@
       </c>
       <c r="C21" s="64">
         <f>C6*Projections!B23</f>
-        <v>34281.950000000004</v>
+        <v>48264.15</v>
       </c>
       <c r="I21" s="150"/>
     </row>
@@ -43691,7 +43690,7 @@
       </c>
       <c r="C22" s="79">
         <f ca="1">(C4*Projections!B23)*(2^(((C7-49)-C5)/C9))</f>
-        <v>6323.1298524505992</v>
+        <v>9858.6962523467682</v>
       </c>
       <c r="I22" s="150"/>
     </row>
@@ -43701,7 +43700,7 @@
       </c>
       <c r="C23" s="79">
         <f ca="1">C21-C22</f>
-        <v>27958.820147549406</v>
+        <v>38405.453747653235</v>
       </c>
       <c r="I23" s="150"/>
     </row>
@@ -43711,7 +43710,7 @@
       </c>
       <c r="C24" s="64">
         <f>C6*Projections!B24</f>
-        <v>21597.628499999999</v>
+        <v>30406.414499999999</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -43720,7 +43719,7 @@
       </c>
       <c r="C25" s="61">
         <f ca="1">(C4*Projections!B24)*(2^(((C7-42)-C5)/C9))</f>
-        <v>5071.6450679313994</v>
+        <v>7792.9812650893118</v>
       </c>
       <c r="F25" t="s">
         <v>151</v>
@@ -43732,7 +43731,7 @@
       </c>
       <c r="C26" s="163">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>45.324571384112289</v>
+        <v>37.684385754503523</v>
       </c>
       <c r="D26" t="s">
         <v>95</v>
@@ -43747,7 +43746,7 @@
       </c>
       <c r="C27" s="162">
         <f ca="1">C7+C26</f>
-        <v>44235.082569416518</v>
+        <v>44256.615635985981</v>
       </c>
       <c r="F27" t="s">
         <v>153</v>
@@ -43759,7 +43758,7 @@
       </c>
       <c r="C28" s="161">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>-44.56724574054283</v>
+        <v>-57.984056771961171</v>
       </c>
       <c r="D28" t="s">
         <v>95</v>
@@ -43771,7 +43770,7 @@
       </c>
       <c r="C29" s="162">
         <f ca="1">C7+C28</f>
-        <v>44145.190752291863</v>
+        <v>44160.94719345952</v>
       </c>
       <c r="F29" t="s">
         <v>153</v>
@@ -43783,7 +43782,7 @@
       </c>
       <c r="C30" s="161">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>125.46301999715794</v>
+        <v>122.97268907877138</v>
       </c>
       <c r="D30" t="s">
         <v>95</v>
@@ -43795,7 +43794,7 @@
       </c>
       <c r="C31" s="162">
         <f ca="1">C7+C30</f>
-        <v>44315.221018029566</v>
+        <v>44341.90393931025</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -43804,7 +43803,7 @@
       </c>
       <c r="C34" s="151">
         <f ca="1">C7+30</f>
-        <v>44219.757998032408</v>
+        <v>44248.931250231479</v>
       </c>
       <c r="F34" t="s">
         <v>166</v>
@@ -43816,7 +43815,7 @@
       </c>
       <c r="C35" s="79">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>1930033.963579007</v>
+        <v>2552609.3591577699</v>
       </c>
       <c r="F35" t="s">
         <v>138</v>
@@ -43828,7 +43827,7 @@
       </c>
       <c r="C36" s="79">
         <f ca="1">C35/Projections!B17</f>
-        <v>6079606.9852738725</v>
+        <v>8040719.481346976</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -43837,7 +43836,7 @@
       </c>
       <c r="C37" s="79">
         <f ca="1">C35*Projections!B21</f>
-        <v>1563327.5104989957</v>
+        <v>2067613.5809177938</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -43846,7 +43845,7 @@
       </c>
       <c r="C38" s="79">
         <f ca="1">C35*Projections!B22</f>
-        <v>270204.75490106101</v>
+        <v>357365.31028208783</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -43855,7 +43854,7 @@
       </c>
       <c r="C39" s="79">
         <f ca="1">C35*Projections!B23</f>
-        <v>96501.698178950348</v>
+        <v>127630.4679578885</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -43864,7 +43863,7 @@
       </c>
       <c r="C40" s="61">
         <f ca="1">C35*Projections!B24</f>
-        <v>60796.069852738721</v>
+        <v>80407.19481346976</v>
       </c>
     </row>
   </sheetData>

--- a/Indonesian COVID-19 Infection Projections.xlsx
+++ b/Indonesian COVID-19 Infection Projections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91E386E-A87A-4A84-88D6-FFB44058425E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71248F73-2EC7-401F-A319-072EC8E86D4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="1950" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -1108,7 +1108,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="293">
+  <cellXfs count="294">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1460,6 +1460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Heading" xfId="3" xr:uid="{DB9EF5E1-A693-41C3-82C7-CA90563DBB00}"/>
@@ -1824,46 +1825,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44178.931250231479</c:v>
+                  <c:v>44201.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44181.931250231479</c:v>
+                  <c:v>44204.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44184.931250231479</c:v>
+                  <c:v>44207.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44187.931250231479</c:v>
+                  <c:v>44210.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44190.931250231479</c:v>
+                  <c:v>44213.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44193.931250231479</c:v>
+                  <c:v>44216.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44196.931250231479</c:v>
+                  <c:v>44219.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44199.931250231479</c:v>
+                  <c:v>44222.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44202.931250231479</c:v>
+                  <c:v>44225.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44205.931250231479</c:v>
+                  <c:v>44228.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44208.931250231479</c:v>
+                  <c:v>44231.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44211.931250231479</c:v>
+                  <c:v>44234.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44214.931250231479</c:v>
+                  <c:v>44237.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44217.931250231479</c:v>
+                  <c:v>44240.696421296299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1882,46 +1883,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>100.00000000000001</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.00000000000003</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400.00000000000006</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>800.00000000000011</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600.0000000000002</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3200.0000000000005</c:v>
+                  <c:v>3200</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6400.0000000000009</c:v>
+                  <c:v>6400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12800.000000000002</c:v>
+                  <c:v>12800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25600.000000000004</c:v>
+                  <c:v>25600</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51200.000000000007</c:v>
+                  <c:v>51200</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>102400.00000000001</c:v>
+                  <c:v>102400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>204800.00000000003</c:v>
+                  <c:v>204800</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>409600.00000000006</c:v>
+                  <c:v>409600</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>819200.00000000012</c:v>
+                  <c:v>819200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1973,46 +1974,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44178.931250231479</c:v>
+                  <c:v>44201.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44181.931250231479</c:v>
+                  <c:v>44204.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44184.931250231479</c:v>
+                  <c:v>44207.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44187.931250231479</c:v>
+                  <c:v>44210.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44190.931250231479</c:v>
+                  <c:v>44213.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44193.931250231479</c:v>
+                  <c:v>44216.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44196.931250231479</c:v>
+                  <c:v>44219.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44199.931250231479</c:v>
+                  <c:v>44222.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44202.931250231479</c:v>
+                  <c:v>44225.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44205.931250231479</c:v>
+                  <c:v>44228.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44208.931250231479</c:v>
+                  <c:v>44231.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44211.931250231479</c:v>
+                  <c:v>44234.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44214.931250231479</c:v>
+                  <c:v>44237.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44217.931250231479</c:v>
+                  <c:v>44240.696421296299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2031,46 +2032,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>68.253968253968267</c:v>
+                  <c:v>64.285714285714278</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>136.50793650793653</c:v>
+                  <c:v>128.57142857142856</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>273.01587301587307</c:v>
+                  <c:v>257.14285714285711</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>546.03174603174614</c:v>
+                  <c:v>514.28571428571422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1092.0634920634923</c:v>
+                  <c:v>1028.5714285714284</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2184.1269841269846</c:v>
+                  <c:v>2057.1428571428569</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4368.2539682539691</c:v>
+                  <c:v>4114.2857142857138</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8736.5079365079382</c:v>
+                  <c:v>8228.5714285714275</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17473.015873015876</c:v>
+                  <c:v>16457.142857142855</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34946.031746031753</c:v>
+                  <c:v>32914.28571428571</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>69892.063492063506</c:v>
+                  <c:v>65828.57142857142</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>139784.12698412701</c:v>
+                  <c:v>131657.14285714284</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>279568.25396825402</c:v>
+                  <c:v>263314.28571428568</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>559136.50793650805</c:v>
+                  <c:v>526628.57142857136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2122,46 +2123,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44178.931250231479</c:v>
+                  <c:v>44201.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44181.931250231479</c:v>
+                  <c:v>44204.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44184.931250231479</c:v>
+                  <c:v>44207.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44187.931250231479</c:v>
+                  <c:v>44210.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44190.931250231479</c:v>
+                  <c:v>44213.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44193.931250231479</c:v>
+                  <c:v>44216.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44196.931250231479</c:v>
+                  <c:v>44219.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44199.931250231479</c:v>
+                  <c:v>44222.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44202.931250231479</c:v>
+                  <c:v>44225.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44205.931250231479</c:v>
+                  <c:v>44228.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44208.931250231479</c:v>
+                  <c:v>44231.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44211.931250231479</c:v>
+                  <c:v>44234.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44214.931250231479</c:v>
+                  <c:v>44237.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44217.931250231479</c:v>
+                  <c:v>44240.696421296299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2180,37 +2181,37 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="3">
-                  <c:v>31.74603174603175</c:v>
+                  <c:v>35.714285714285722</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.492063492063501</c:v>
+                  <c:v>71.428571428571445</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>126.984126984127</c:v>
+                  <c:v>142.85714285714289</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>253.968253968254</c:v>
+                  <c:v>285.71428571428578</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>507.93650793650801</c:v>
+                  <c:v>571.42857142857156</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1015.873015873016</c:v>
+                  <c:v>1142.8571428571431</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2031.746031746032</c:v>
+                  <c:v>2285.7142857142862</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4063.4920634920641</c:v>
+                  <c:v>4571.4285714285725</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8126.9841269841281</c:v>
+                  <c:v>9142.8571428571449</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16253.968253968256</c:v>
+                  <c:v>18285.71428571429</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32507.936507936512</c:v>
+                  <c:v>36571.42857142858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2533,10 +2534,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$S$28:$AH$28</c:f>
+              <c:f>Projections!$S$28:$AI$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43900</c:v>
                 </c:pt>
@@ -2583,7 +2584,10 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2597,10 +2601,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$S$29:$AH$29</c:f>
+              <c:f>Projections!$S$29:$AI$29</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>31.25</c:v>
                 </c:pt>
@@ -2648,6 +2652,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1024000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2048000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2694,10 +2701,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$S$28:$AH$28</c:f>
+              <c:f>Projections!$S$28:$AI$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43900</c:v>
                 </c:pt>
@@ -2744,7 +2751,10 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2758,10 +2768,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$S$52:$AH$52</c:f>
+              <c:f>Projections!$S$52:$AI$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>27</c:v>
                 </c:pt>
@@ -2808,7 +2818,10 @@
                   <c:v>511836</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="#,##0">
-                  <c:v>1024000</c:v>
+                  <c:v>1024298</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="#,##0">
+                  <c:v>2048000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3136,10 +3149,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$S$28:$AH$28</c:f>
+              <c:f>Projections!$S$28:$AI$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43900</c:v>
                 </c:pt>
@@ -3186,7 +3199,10 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3200,57 +3216,60 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$S$43:$AH$43</c:f>
+              <c:f>Projections!$S$43:$AI$43</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.984375</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.96875</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9375</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.875</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.75</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.5</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>126</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>252</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>504</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1008</c:v>
+                  <c:v>896</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2016</c:v>
+                  <c:v>1792</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4032</c:v>
+                  <c:v>3584</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8064</c:v>
+                  <c:v>7168</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16128</c:v>
+                  <c:v>14336</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32256</c:v>
+                  <c:v>28672</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3297,10 +3316,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$S$28:$AH$28</c:f>
+              <c:f>Projections!$S$28:$AI$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43900</c:v>
                 </c:pt>
@@ -3347,7 +3366,10 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3361,10 +3383,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$S$56:$AH$56</c:f>
+              <c:f>Projections!$S$56:$AI$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3411,7 +3433,7 @@
                   <c:v>16225</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="#,##0">
-                  <c:v>27453</c:v>
+                  <c:v>28855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3794,16 +3816,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3867,16 +3889,16 @@
                   <c:v>765558.30861852656</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2003525.6465973882</c:v>
+                  <c:v>939152.02901476051</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4306336.4941211781</c:v>
+                  <c:v>1401391.1888307328</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8371411.3931360245</c:v>
+                  <c:v>2299027.5735506527</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15593364.950985298</c:v>
+                  <c:v>3988246.1859623678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3973,16 +3995,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4046,16 +4068,16 @@
                   <c:v>564098.56288793497</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1389598.7401048646</c:v>
+                  <c:v>651373.98091320228</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2789659.6243944252</c:v>
+                  <c:v>926370.01155565167</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5058674.7433648538</c:v>
+                  <c:v>1461777.4562708072</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8815399.7943230644</c:v>
+                  <c:v>2456049.8636512002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4152,16 +4174,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4225,16 +4247,16 @@
                   <c:v>145479.20281499039</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>404427.48038628208</c:v>
+                  <c:v>189575.25671765424</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>913853.72887607827</c:v>
+                  <c:v>293453.39347295457</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1846816.2645209867</c:v>
+                  <c:v>493473.44507926202</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3543383.4842803576</c:v>
+                  <c:v>871416.12679879891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4331,16 +4353,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4404,16 +4426,16 @@
                   <c:v>90699.506868370168</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>221899.8135230754</c:v>
+                  <c:v>104015.4691616339</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>434635.1398961349</c:v>
+                  <c:v>145600.71849524253</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>758764.64950852818</c:v>
+                  <c:v>225696.36671465309</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1261970.6194742536</c:v>
+                  <c:v>372638.1309100092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4510,16 +4532,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4538,61 +4560,61 @@
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.984375</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.96875</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9375</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.875</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.75</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.5</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>126</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>252</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>504</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1008</c:v>
+                  <c:v>896</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2016</c:v>
+                  <c:v>1792</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4032</c:v>
+                  <c:v>3584</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8064</c:v>
+                  <c:v>7168</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16128</c:v>
+                  <c:v>14336</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32256</c:v>
+                  <c:v>28672</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>64512</c:v>
+                  <c:v>57344</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>129024</c:v>
+                  <c:v>114688</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>258048</c:v>
+                  <c:v>229376</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4971,16 +4993,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5152,16 +5174,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5333,16 +5355,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5515,16 +5537,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5697,16 +5719,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5878,16 +5900,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6057,16 +6079,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6239,16 +6261,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6420,16 +6442,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6881,16 +6903,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7062,16 +7084,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7243,16 +7265,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7425,16 +7447,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7604,16 +7626,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7785,16 +7807,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7964,16 +7986,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8143,16 +8165,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8324,16 +8346,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8785,16 +8807,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8966,16 +8988,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9147,16 +9169,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9326,16 +9348,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9507,16 +9529,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9686,16 +9708,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10147,16 +10169,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10328,16 +10350,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10507,16 +10529,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10688,16 +10710,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10867,16 +10889,16 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44346</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44469</c:v>
+                  <c:v>44349</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44612</c:v>
+                  <c:v>44412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11273,10 +11295,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$S$28:$AH$28</c:f>
+              <c:f>Projections!$S$28:$AI$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43900</c:v>
                 </c:pt>
@@ -11323,7 +11345,10 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11337,10 +11362,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$S$29:$AH$29</c:f>
+              <c:f>Projections!$S$29:$AI$29</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>31.25</c:v>
                 </c:pt>
@@ -11388,6 +11413,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1024000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2048000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11434,10 +11462,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$S$28:$AH$28</c:f>
+              <c:f>Projections!$S$28:$AI$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43900</c:v>
                 </c:pt>
@@ -11484,7 +11512,10 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11498,10 +11529,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$S$52:$AH$52</c:f>
+              <c:f>Projections!$S$52:$AI$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>27</c:v>
                 </c:pt>
@@ -11548,7 +11579,10 @@
                   <c:v>511836</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="#,##0">
-                  <c:v>1024000</c:v>
+                  <c:v>1024298</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="#,##0">
+                  <c:v>2048000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11877,10 +11911,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$S$28:$AH$28</c:f>
+              <c:f>Projections!$S$28:$AI$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43900</c:v>
                 </c:pt>
@@ -11927,7 +11961,10 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11941,57 +11978,60 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$S$43:$AH$43</c:f>
+              <c:f>Projections!$S$43:$AI$43</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.984375</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.96875</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9375</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.875</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.75</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.5</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>126</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>252</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>504</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1008</c:v>
+                  <c:v>896</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2016</c:v>
+                  <c:v>1792</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4032</c:v>
+                  <c:v>3584</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8064</c:v>
+                  <c:v>7168</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16128</c:v>
+                  <c:v>14336</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32256</c:v>
+                  <c:v>28672</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12038,10 +12078,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$S$28:$AH$28</c:f>
+              <c:f>Projections!$S$28:$AI$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43900</c:v>
                 </c:pt>
@@ -12088,7 +12128,10 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44243</c:v>
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12102,10 +12145,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Projections!$S$56:$AH$56</c:f>
+              <c:f>Projections!$S$56:$AI$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12152,7 +12195,7 @@
                   <c:v>16225</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="#,##0">
-                  <c:v>27453</c:v>
+                  <c:v>28855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12481,46 +12524,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44178.931250231479</c:v>
+                  <c:v>44201.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44181.931250231479</c:v>
+                  <c:v>44204.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44184.931250231479</c:v>
+                  <c:v>44207.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44187.931250231479</c:v>
+                  <c:v>44210.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44190.931250231479</c:v>
+                  <c:v>44213.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44193.931250231479</c:v>
+                  <c:v>44216.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44196.931250231479</c:v>
+                  <c:v>44219.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44199.931250231479</c:v>
+                  <c:v>44222.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44202.931250231479</c:v>
+                  <c:v>44225.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44205.931250231479</c:v>
+                  <c:v>44228.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44208.931250231479</c:v>
+                  <c:v>44231.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44211.931250231479</c:v>
+                  <c:v>44234.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44214.931250231479</c:v>
+                  <c:v>44237.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44217.931250231479</c:v>
+                  <c:v>44240.696421296299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12539,37 +12582,37 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="3">
-                  <c:v>31.74603174603175</c:v>
+                  <c:v>35.714285714285722</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.492063492063501</c:v>
+                  <c:v>71.428571428571445</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>126.984126984127</c:v>
+                  <c:v>142.85714285714289</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>253.968253968254</c:v>
+                  <c:v>285.71428571428578</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>507.93650793650801</c:v>
+                  <c:v>571.42857142857156</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1015.873015873016</c:v>
+                  <c:v>1142.8571428571431</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2031.746031746032</c:v>
+                  <c:v>2285.7142857142862</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4063.4920634920641</c:v>
+                  <c:v>4571.4285714285725</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8126.9841269841281</c:v>
+                  <c:v>9142.8571428571449</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16253.968253968256</c:v>
+                  <c:v>18285.71428571429</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32507.936507936512</c:v>
+                  <c:v>36571.42857142858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12621,46 +12664,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44178.931250231479</c:v>
+                  <c:v>44201.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44181.931250231479</c:v>
+                  <c:v>44204.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44184.931250231479</c:v>
+                  <c:v>44207.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44187.931250231479</c:v>
+                  <c:v>44210.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44190.931250231479</c:v>
+                  <c:v>44213.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44193.931250231479</c:v>
+                  <c:v>44216.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44196.931250231479</c:v>
+                  <c:v>44219.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44199.931250231479</c:v>
+                  <c:v>44222.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44202.931250231479</c:v>
+                  <c:v>44225.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44205.931250231479</c:v>
+                  <c:v>44228.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44208.931250231479</c:v>
+                  <c:v>44231.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44211.931250231479</c:v>
+                  <c:v>44234.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44214.931250231479</c:v>
+                  <c:v>44237.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44217.931250231479</c:v>
+                  <c:v>44240.696421296299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12679,40 +12722,40 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="2">
-                  <c:v>31.746031746031747</c:v>
+                  <c:v>35.714285714285722</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.492063492063494</c:v>
+                  <c:v>71.428571428571445</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>102.85714285714286</c:v>
+                  <c:v>115.71428571428575</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>205.71428571428572</c:v>
+                  <c:v>231.4285714285715</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>411.42857142857144</c:v>
+                  <c:v>462.857142857143</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>797.14285714285722</c:v>
+                  <c:v>896.78571428571456</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1594.2857142857144</c:v>
+                  <c:v>1793.5714285714291</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3188.5714285714289</c:v>
+                  <c:v>3587.1428571428582</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6377.1428571428578</c:v>
+                  <c:v>7174.2857142857165</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12754.285714285716</c:v>
+                  <c:v>14348.571428571433</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25534.285714285714</c:v>
+                  <c:v>28726.071428571438</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>51068.571428571428</c:v>
+                  <c:v>57452.142857142877</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12764,46 +12807,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44178.931250231479</c:v>
+                  <c:v>44201.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44181.931250231479</c:v>
+                  <c:v>44204.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44184.931250231479</c:v>
+                  <c:v>44207.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44187.931250231479</c:v>
+                  <c:v>44210.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44190.931250231479</c:v>
+                  <c:v>44213.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44193.931250231479</c:v>
+                  <c:v>44216.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44196.931250231479</c:v>
+                  <c:v>44219.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44199.931250231479</c:v>
+                  <c:v>44222.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44202.931250231479</c:v>
+                  <c:v>44225.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44205.931250231479</c:v>
+                  <c:v>44228.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44208.931250231479</c:v>
+                  <c:v>44231.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44211.931250231479</c:v>
+                  <c:v>44234.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44214.931250231479</c:v>
+                  <c:v>44237.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44217.931250231479</c:v>
+                  <c:v>44240.696421296299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12822,34 +12865,34 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="4">
-                  <c:v>24.126984126984127</c:v>
+                  <c:v>27.142857142857149</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.253968253968253</c:v>
+                  <c:v>54.285714285714299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71.111111111111114</c:v>
+                  <c:v>80.000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>142.22222222222223</c:v>
+                  <c:v>160.00000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>284.44444444444446</c:v>
+                  <c:v>320.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>568.88888888888891</c:v>
+                  <c:v>640.00000000000023</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1137.7777777777778</c:v>
+                  <c:v>1280.0000000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2275.5555555555557</c:v>
+                  <c:v>2560.0000000000009</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4551.1111111111113</c:v>
+                  <c:v>5120.0000000000018</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9102.2222222222226</c:v>
+                  <c:v>10240.000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12901,46 +12944,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44178.931250231479</c:v>
+                  <c:v>44201.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44181.931250231479</c:v>
+                  <c:v>44204.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44184.931250231479</c:v>
+                  <c:v>44207.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44187.931250231479</c:v>
+                  <c:v>44210.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44190.931250231479</c:v>
+                  <c:v>44213.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44193.931250231479</c:v>
+                  <c:v>44216.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44196.931250231479</c:v>
+                  <c:v>44219.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44199.931250231479</c:v>
+                  <c:v>44222.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44202.931250231479</c:v>
+                  <c:v>44225.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44205.931250231479</c:v>
+                  <c:v>44228.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44208.931250231479</c:v>
+                  <c:v>44231.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44211.931250231479</c:v>
+                  <c:v>44234.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44214.931250231479</c:v>
+                  <c:v>44237.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44217.931250231479</c:v>
+                  <c:v>44240.696421296299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12959,28 +13002,28 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="6">
-                  <c:v>25.396825396825399</c:v>
+                  <c:v>28.57142857142858</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.793650793650798</c:v>
+                  <c:v>57.14285714285716</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>101.5873015873016</c:v>
+                  <c:v>114.28571428571432</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>203.17460317460319</c:v>
+                  <c:v>228.57142857142864</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>406.34920634920638</c:v>
+                  <c:v>457.14285714285728</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>812.69841269841277</c:v>
+                  <c:v>914.28571428571456</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1625.3968253968255</c:v>
+                  <c:v>1828.5714285714291</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3250.7936507936511</c:v>
+                  <c:v>3657.1428571428582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13308,46 +13351,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44178.931250231479</c:v>
+                  <c:v>44201.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44181.931250231479</c:v>
+                  <c:v>44204.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44184.931250231479</c:v>
+                  <c:v>44207.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44187.931250231479</c:v>
+                  <c:v>44210.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44190.931250231479</c:v>
+                  <c:v>44213.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44193.931250231479</c:v>
+                  <c:v>44216.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44196.931250231479</c:v>
+                  <c:v>44219.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44199.931250231479</c:v>
+                  <c:v>44222.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44202.931250231479</c:v>
+                  <c:v>44225.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44205.931250231479</c:v>
+                  <c:v>44228.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44208.931250231479</c:v>
+                  <c:v>44231.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44211.931250231479</c:v>
+                  <c:v>44234.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44214.931250231479</c:v>
+                  <c:v>44237.696421296299</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44217.931250231479</c:v>
+                  <c:v>44240.696421296299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13366,46 +13409,46 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>100.00000000000001</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.00000000000003</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400.00000000000006</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>800.00000000000011</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600.0000000000002</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3200.0000000000005</c:v>
+                  <c:v>3200</c:v>
                 </c: